--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO  2 0 2 1/CENTRAL # 08 AGOSTO  2021/BALANCE ABASTOS   AGOSTO       2021.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO  2 0 2 1/CENTRAL # 08 AGOSTO  2021/BALANCE ABASTOS   AGOSTO       2021.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20340" windowHeight="10725" firstSheet="13" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17190" windowHeight="10725" firstSheet="15" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="E N E R O     2 0 2 1    " sheetId="1" r:id="rId1"/>
@@ -31,7 +31,8 @@
     <sheet name="REMISIONES  AGOSTO  2021  " sheetId="22" r:id="rId17"/>
     <sheet name="REPORTE  JUNIO  JULIO  AGOSTO  " sheetId="23" r:id="rId18"/>
     <sheet name="C A N C E L A C I O N E S   " sheetId="5" r:id="rId19"/>
-    <sheet name="Hoja1" sheetId="17" r:id="rId20"/>
+    <sheet name="RELACION DE TIKETS       00000" sheetId="17" r:id="rId20"/>
+    <sheet name="Hoja2" sheetId="24" r:id="rId21"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -565,7 +566,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1928" uniqueCount="734">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2081" uniqueCount="775">
   <si>
     <t>MORRALLA EN CAJA DE 11 SUR   2,800.00  +  $ 1,200.00 Total    $  4,000.00</t>
   </si>
@@ -2721,24 +2722,12 @@
     <t>VENTAS EFECTIVO</t>
   </si>
   <si>
-    <t>?????</t>
-  </si>
-  <si>
-    <t>??????</t>
-  </si>
-  <si>
     <t>PERNIL  ( ROEL )</t>
   </si>
   <si>
     <t>FALTANTE DE EFEC TIVO</t>
   </si>
   <si>
-    <t># 288164</t>
-  </si>
-  <si>
-    <t># 288167</t>
-  </si>
-  <si>
     <t>BALANCE      ABASTO 4 CARNES   JULIO          2 0 2 1</t>
   </si>
   <si>
@@ -2767,6 +2756,141 @@
   </si>
   <si>
     <t>7- al-30-Junio</t>
+  </si>
+  <si>
+    <t>ENCHILADA-POLLO-TOSTADAS-MAIZ</t>
+  </si>
+  <si>
+    <t>´POLLO-CHORIZO</t>
+  </si>
+  <si>
+    <t># 288871</t>
+  </si>
+  <si>
+    <t># 288912</t>
+  </si>
+  <si>
+    <t>´POLLO-QUESOS</t>
+  </si>
+  <si>
+    <t># 289139</t>
+  </si>
+  <si>
+    <t># 289140</t>
+  </si>
+  <si>
+    <t># 289378</t>
+  </si>
+  <si>
+    <t># 289379</t>
+  </si>
+  <si>
+    <t># 289270</t>
+  </si>
+  <si>
+    <t># 289271</t>
+  </si>
+  <si>
+    <t>LONGANIZA--POLLO-MAIZ</t>
+  </si>
+  <si>
+    <t># 289487</t>
+  </si>
+  <si>
+    <t># 289489</t>
+  </si>
+  <si>
+    <t># 289583</t>
+  </si>
+  <si>
+    <t># 289584</t>
+  </si>
+  <si>
+    <t># 289602</t>
+  </si>
+  <si>
+    <t># 289601</t>
+  </si>
+  <si>
+    <t>#  289651</t>
+  </si>
+  <si>
+    <t># 289652</t>
+  </si>
+  <si>
+    <t>TOCINETA-SALCHICHA-POLLO</t>
+  </si>
+  <si>
+    <t>PAPA-POLLO</t>
+  </si>
+  <si>
+    <t>CHORIZO-POLLO-LONGANIZA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                               </t>
+  </si>
+  <si>
+    <t>#  290560</t>
+  </si>
+  <si>
+    <t># 290561</t>
+  </si>
+  <si>
+    <t># 290608</t>
+  </si>
+  <si>
+    <t># 290609</t>
+  </si>
+  <si>
+    <t>ENCHILADA-CREMA-QUESOS-POLLO-MAIZ</t>
+  </si>
+  <si>
+    <t>#  290688</t>
+  </si>
+  <si>
+    <t>#  290689</t>
+  </si>
+  <si>
+    <t># 290694</t>
+  </si>
+  <si>
+    <t># 290695</t>
+  </si>
+  <si>
+    <t>RETAZO-CHORIZO-POLLO</t>
+  </si>
+  <si>
+    <t># 291261</t>
+  </si>
+  <si>
+    <t># 291265</t>
+  </si>
+  <si>
+    <t># 291275</t>
+  </si>
+  <si>
+    <t># 291276</t>
+  </si>
+  <si>
+    <t>RETAZO-QUESOS-POLLO</t>
+  </si>
+  <si>
+    <t>LONGANIZA--POLLO-MAIZ--SASONADORES</t>
+  </si>
+  <si>
+    <t>MANTECA-POLLO</t>
+  </si>
+  <si>
+    <t># 292341</t>
+  </si>
+  <si>
+    <t># 292342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHORIZO-POLLO  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LICENCIAS HERRADURA </t>
   </si>
 </sst>
 </file>
@@ -4559,7 +4683,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="646">
+  <cellXfs count="638">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -5656,42 +5780,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="44" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="4" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="18" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="15" fontId="2" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="2" fillId="4" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="15" fontId="2" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="2" fillId="4" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="19" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="15" fontId="2" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="22" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="18" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="46" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="46" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="14" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5733,31 +5852,26 @@
     <xf numFmtId="166" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="46" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="46" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="6" fillId="15" borderId="48" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5772,14 +5886,14 @@
     <xf numFmtId="166" fontId="6" fillId="15" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="14" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="35" fillId="10" borderId="64" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -5798,15 +5912,6 @@
     </xf>
     <xf numFmtId="44" fontId="35" fillId="10" borderId="66" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="10" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="10" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="35" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="16" fillId="13" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -5886,8 +5991,104 @@
     <xf numFmtId="44" fontId="49" fillId="0" borderId="66" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="44" fontId="35" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="10" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="10" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="16" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="16" fillId="16" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="16" fillId="8" borderId="67" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="16" fillId="8" borderId="59" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="16" fillId="14" borderId="73" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="16" fillId="14" borderId="85" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="35" fillId="20" borderId="86" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="35" fillId="20" borderId="87" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="35" fillId="20" borderId="88" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="35" fillId="20" borderId="89" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="16" fillId="0" borderId="90" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="16" fillId="0" borderId="92" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="16" fillId="0" borderId="91" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="16" fillId="0" borderId="93" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="16" fillId="14" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="44" fontId="15" fillId="0" borderId="46" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="20" borderId="64" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="20" borderId="69" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="20" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="20" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="53" fillId="20" borderId="69" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="53" fillId="20" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="53" fillId="20" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="53" fillId="20" borderId="66" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="7" fontId="6" fillId="16" borderId="86" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="6" fillId="16" borderId="87" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="6" fillId="16" borderId="88" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="6" fillId="16" borderId="89" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="8" borderId="64" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -5913,67 +6114,25 @@
     <xf numFmtId="44" fontId="53" fillId="8" borderId="66" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="16" fillId="8" borderId="67" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="7" fontId="35" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="35" fillId="4" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="16" fillId="8" borderId="59" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="16" fillId="14" borderId="73" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="16" fillId="14" borderId="85" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="6" fillId="11" borderId="86" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="6" fillId="11" borderId="87" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="6" fillId="11" borderId="88" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="6" fillId="11" borderId="89" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="16" fillId="0" borderId="90" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="16" fillId="0" borderId="92" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="16" fillId="0" borderId="91" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="16" fillId="0" borderId="93" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="16" fillId="14" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="16" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="16" fillId="16" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="6" fillId="16" borderId="86" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="6" fillId="16" borderId="87" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="6" fillId="16" borderId="88" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="6" fillId="16" borderId="89" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="6" fillId="11" borderId="86" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5988,27 +6147,6 @@
     <xf numFmtId="166" fontId="6" fillId="11" borderId="89" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="7" fontId="35" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="35" fillId="4" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -6018,29 +6156,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="20" borderId="64" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="20" borderId="69" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="53" fillId="20" borderId="69" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="53" fillId="20" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="20" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="20" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="53" fillId="20" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="53" fillId="20" borderId="66" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="44" fontId="7" fillId="19" borderId="79" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="7" fillId="19" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -6094,7 +6212,7 @@
         <xdr:cNvPr id="2" name="Cerrar llave 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F820B86-6883-48C3-999A-0BF6481B85C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6147,7 +6265,7 @@
         <xdr:cNvPr id="3" name="Rectángulo 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E0D234E-9959-46DE-98B7-D6A247EC2807}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6228,7 +6346,7 @@
         <xdr:cNvPr id="4" name="2 Conector recto de flecha">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A67454F2-0E62-47EE-9DB1-B37305E41D05}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6281,7 +6399,7 @@
         <xdr:cNvPr id="5" name="1 Conector recto de flecha">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC3940AB-C0AD-429B-88BE-F12D9106A0B0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6334,7 +6452,7 @@
         <xdr:cNvPr id="6" name="2 Conector recto de flecha">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EADD8D3C-0F74-443C-B868-A5C5EE82B49E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6387,7 +6505,7 @@
         <xdr:cNvPr id="7" name="Conector recto de flecha 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{152BB019-26DF-4DFE-8E87-72781FE600F2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6440,7 +6558,7 @@
         <xdr:cNvPr id="8" name="Abrir llave 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DCE79C3E-EA60-40A2-91B0-71393C6FFD6F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6496,7 +6614,7 @@
         <xdr:cNvPr id="9" name="Rectángulo 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A678943-2CCE-486B-83F5-37446C92BCA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6596,7 +6714,7 @@
         <xdr:cNvPr id="10" name="Conector recto de flecha 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3342E4F5-B597-4AE0-BB56-3131F126E50A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6649,7 +6767,7 @@
         <xdr:cNvPr id="11" name="Cerrar llave 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{841F37DF-054A-489E-AF3D-1E84432A6772}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6715,7 +6833,7 @@
         <xdr:cNvPr id="2" name="Cerrar llave 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2441E17D-AB4F-4121-89D5-2A7B9AEF0ACF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6768,7 +6886,7 @@
         <xdr:cNvPr id="3" name="Rectángulo 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46449594-2BEA-44C6-A440-DA18149B1B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6849,7 +6967,7 @@
         <xdr:cNvPr id="4" name="2 Conector recto de flecha">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97A791C9-E146-4E8E-81B0-FB254339C025}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6902,7 +7020,7 @@
         <xdr:cNvPr id="5" name="1 Conector recto de flecha">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08365B62-48D4-4785-8B77-06544BE78F2E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6955,7 +7073,7 @@
         <xdr:cNvPr id="6" name="2 Conector recto de flecha">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{237BCE1B-5C71-427F-8667-A5A9348EE0D1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7008,7 +7126,7 @@
         <xdr:cNvPr id="7" name="Conector recto de flecha 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA50C8E9-713B-4219-9D37-6BA0FCBB9FD8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7061,7 +7179,7 @@
         <xdr:cNvPr id="8" name="Abrir llave 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7F0F3D8-98BE-4D04-AE07-C0B5AD5DCD57}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7117,7 +7235,7 @@
         <xdr:cNvPr id="9" name="Rectángulo 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE07AC51-9C18-497C-AB36-9F581109B425}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7217,7 +7335,7 @@
         <xdr:cNvPr id="10" name="Conector recto de flecha 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53F8F323-D3F2-4FC9-83FC-F6B700CE3A2A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7275,7 +7393,7 @@
         <xdr:cNvPr id="2" name="Cerrar llave 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39B247A6-2D17-46C2-8E1A-F0E4FC16F1AB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7328,7 +7446,7 @@
         <xdr:cNvPr id="3" name="Rectángulo 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82E7B696-CA3F-491C-B282-4216D6FBDE6B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7409,7 +7527,7 @@
         <xdr:cNvPr id="4" name="2 Conector recto de flecha">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FAAF72E-ACE8-4CFD-A43B-469022DAF19E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7462,7 +7580,7 @@
         <xdr:cNvPr id="5" name="1 Conector recto de flecha">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5927EB2F-EE7E-4EE7-ABF2-33E1D51CA8E9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7515,7 +7633,7 @@
         <xdr:cNvPr id="6" name="2 Conector recto de flecha">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5B1EE1E-3E58-489C-98F7-6E3EBA21DBCA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7568,7 +7686,7 @@
         <xdr:cNvPr id="7" name="Conector recto de flecha 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7AF4B77D-3270-4FAE-9BE0-CBAF8DB24DD4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7621,7 +7739,7 @@
         <xdr:cNvPr id="8" name="Abrir llave 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9523A7E9-BCE1-43EC-894A-C072393D7237}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7677,7 +7795,7 @@
         <xdr:cNvPr id="9" name="Rectángulo 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2A49C8F-C719-4218-B603-AF0C1F149EED}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7777,7 +7895,7 @@
         <xdr:cNvPr id="10" name="Conector recto de flecha 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{581584A8-D550-4211-A288-CD14A8AF5731}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7835,7 +7953,7 @@
         <xdr:cNvPr id="2" name="Cerrar llave 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{676535C5-DB55-4326-9E33-AB692E3F1531}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7888,7 +8006,7 @@
         <xdr:cNvPr id="3" name="Rectángulo 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1476FF85-91CC-4410-BC0D-2D1A3294C942}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7969,7 +8087,7 @@
         <xdr:cNvPr id="4" name="2 Conector recto de flecha">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0D2AEC8-8D19-41C3-AABD-5B32AF2BA9DB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8022,7 +8140,7 @@
         <xdr:cNvPr id="5" name="1 Conector recto de flecha">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE8C60F9-9CBB-43F8-B668-CE385180330D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8075,7 +8193,7 @@
         <xdr:cNvPr id="6" name="2 Conector recto de flecha">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AF94ACA-A0D5-44FD-835B-13E8860BC46B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8128,7 +8246,7 @@
         <xdr:cNvPr id="7" name="Conector recto de flecha 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76537A3A-1F49-41B2-A8DC-5B201D2331B7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8181,7 +8299,7 @@
         <xdr:cNvPr id="8" name="Abrir llave 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD489798-4FBB-42FC-B054-4DFF51E03C12}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8237,7 +8355,7 @@
         <xdr:cNvPr id="9" name="Rectángulo 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2938F097-D331-4DE2-B80C-916CF0BFADB0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8337,7 +8455,7 @@
         <xdr:cNvPr id="10" name="Conector recto de flecha 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A490FDCC-925F-4921-817F-A4875C6DF71D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8395,7 +8513,7 @@
         <xdr:cNvPr id="2" name="Cerrar llave 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C93070C-3AA2-4A19-9D04-D514FAE352A7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8448,7 +8566,7 @@
         <xdr:cNvPr id="3" name="Rectángulo 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{921B5AEA-F746-4F6B-93D1-D01BCCF0D44C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8529,7 +8647,7 @@
         <xdr:cNvPr id="4" name="2 Conector recto de flecha">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9FCFCC7-B29D-40C0-905C-298E4BF93427}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8582,7 +8700,7 @@
         <xdr:cNvPr id="5" name="1 Conector recto de flecha">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04D6385E-2EA3-41EF-ABA0-AFED50F4B48A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8635,7 +8753,7 @@
         <xdr:cNvPr id="6" name="2 Conector recto de flecha">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6795817B-17BC-4A37-979F-E79B4F728CF4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8688,7 +8806,7 @@
         <xdr:cNvPr id="7" name="Conector recto de flecha 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6FB0371E-D14E-4BE2-9E07-1876F2CF8FF7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8741,7 +8859,7 @@
         <xdr:cNvPr id="8" name="Abrir llave 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9576FE0A-55A3-44F2-B205-941AE9156615}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8797,7 +8915,7 @@
         <xdr:cNvPr id="9" name="Rectángulo 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54DB489C-3E1E-4083-B096-C2F2251A62EB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8897,7 +9015,7 @@
         <xdr:cNvPr id="10" name="Conector recto de flecha 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64898049-D0A8-48F6-997C-E775CB7E0018}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8955,7 +9073,7 @@
         <xdr:cNvPr id="2" name="Cerrar llave 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CCE23D1-560A-44E7-BAF0-FA898FF637EE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9008,7 +9126,7 @@
         <xdr:cNvPr id="3" name="Rectángulo 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B93F603F-6F35-4E7E-AAEF-A92BBD41D9D6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9089,7 +9207,7 @@
         <xdr:cNvPr id="4" name="2 Conector recto de flecha">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F19F06BC-D82C-4D0C-B7F7-50125ABB3243}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9142,7 +9260,7 @@
         <xdr:cNvPr id="5" name="1 Conector recto de flecha">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D7F6F88-0833-4470-AB3C-375AA2C501C7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9195,7 +9313,7 @@
         <xdr:cNvPr id="6" name="2 Conector recto de flecha">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B394E7FE-4C4A-45DC-B0A7-7D53C7DE6993}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9248,7 +9366,7 @@
         <xdr:cNvPr id="7" name="Conector recto de flecha 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A0D9E89-C40C-45CB-A773-FD98FCBCEB59}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9301,7 +9419,7 @@
         <xdr:cNvPr id="8" name="Abrir llave 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F753E34F-133A-43DA-AC56-DE9B93624E9D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9357,7 +9475,7 @@
         <xdr:cNvPr id="9" name="Rectángulo 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62F5FFDC-E681-43CE-82AC-96989BD20428}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9457,7 +9575,7 @@
         <xdr:cNvPr id="10" name="Conector recto de flecha 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA0B9E0F-E211-45AB-B806-033117875B51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9510,7 +9628,7 @@
         <xdr:cNvPr id="30" name="Conector: angular 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B982BBF4-40B3-44F4-A142-94EC2F9054B6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-00001E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9566,7 +9684,7 @@
         <xdr:cNvPr id="33" name="Abrir llave 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD925199-6A70-4216-B691-584E0BBDD324}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000021000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9629,7 +9747,7 @@
         <xdr:cNvPr id="2" name="Cerrar llave 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A13A359-F043-4B9C-A47E-EE0C143B5F62}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9682,7 +9800,7 @@
         <xdr:cNvPr id="3" name="Rectángulo 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93418B6C-6279-47EF-B0FD-D60825CEEB84}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9763,7 +9881,7 @@
         <xdr:cNvPr id="4" name="2 Conector recto de flecha">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A58A0851-C85C-4971-97DE-4AE72B838646}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9816,7 +9934,7 @@
         <xdr:cNvPr id="5" name="1 Conector recto de flecha">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{312D6F57-55EB-4BBB-BCC3-963BD773FE3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9869,7 +9987,7 @@
         <xdr:cNvPr id="6" name="2 Conector recto de flecha">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37A236F8-B512-4AA7-BC56-E7385A8CC24F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9922,7 +10040,7 @@
         <xdr:cNvPr id="7" name="Conector recto de flecha 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E5EDE5B-AEE2-4959-933A-5A3B6CC9096A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9975,7 +10093,7 @@
         <xdr:cNvPr id="8" name="Abrir llave 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49F620DE-EFC4-4190-9984-019680599AD6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10031,7 +10149,7 @@
         <xdr:cNvPr id="9" name="Rectángulo 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08CF450A-1BBE-4E5A-BAD3-5FCC5C6AF068}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10131,7 +10249,7 @@
         <xdr:cNvPr id="10" name="Conector recto de flecha 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56467C23-5B4D-4685-9C5D-14FA9D85E880}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10184,7 +10302,7 @@
         <xdr:cNvPr id="11" name="Conector: angular 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3ED49C5D-A8DA-408D-8A02-EE8DB3DF2D7C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10240,7 +10358,7 @@
         <xdr:cNvPr id="12" name="Abrir llave 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{385B5615-314D-4E15-A9BC-7669BF85BA8D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10303,7 +10421,7 @@
         <xdr:cNvPr id="5" name="2 Conector recto de flecha">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A36B86D9-D5B7-4D9F-A9C3-E1EA57BB00D1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10356,7 +10474,7 @@
         <xdr:cNvPr id="6" name="1 Conector recto de flecha">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0FA69F7-8078-493F-8997-A606AC017382}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10409,7 +10527,7 @@
         <xdr:cNvPr id="7" name="2 Conector recto de flecha">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BC2275F-CCF6-49B0-AEB2-8EFF656AAA09}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10462,7 +10580,7 @@
         <xdr:cNvPr id="8" name="Conector recto de flecha 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02C93E68-DADE-4E8C-B3EF-FE1E3FC84C34}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10515,7 +10633,7 @@
         <xdr:cNvPr id="9" name="Abrir llave 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67C54F22-2BD5-44F9-AA58-92B06C7E3C7C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10571,7 +10689,7 @@
         <xdr:cNvPr id="10" name="Rectángulo 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BD90E81-27BB-414D-AF69-C932C9B0F817}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10671,7 +10789,7 @@
         <xdr:cNvPr id="11" name="Conector recto de flecha 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5084AF4-EE27-4309-9E2F-BBB13E3EA57C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10724,7 +10842,7 @@
         <xdr:cNvPr id="12" name="Conector: angular 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{675235EC-DFEF-4C1C-B615-121B5158FCD0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10780,7 +10898,7 @@
         <xdr:cNvPr id="13" name="Abrir llave 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB0980AF-BBB2-431B-996D-FA65C7DCB181}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10843,7 +10961,7 @@
         <xdr:cNvPr id="2" name="2 Conector recto de flecha">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A36B86D9-D5B7-4D9F-A9C3-E1EA57BB00D1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10896,7 +11014,7 @@
         <xdr:cNvPr id="3" name="1 Conector recto de flecha">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0FA69F7-8078-493F-8997-A606AC017382}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10949,7 +11067,7 @@
         <xdr:cNvPr id="4" name="2 Conector recto de flecha">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BC2275F-CCF6-49B0-AEB2-8EFF656AAA09}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11002,7 +11120,7 @@
         <xdr:cNvPr id="5" name="Conector recto de flecha 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02C93E68-DADE-4E8C-B3EF-FE1E3FC84C34}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11055,7 +11173,7 @@
         <xdr:cNvPr id="6" name="Abrir llave 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67C54F22-2BD5-44F9-AA58-92B06C7E3C7C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11111,7 +11229,7 @@
         <xdr:cNvPr id="7" name="Rectángulo 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BD90E81-27BB-414D-AF69-C932C9B0F817}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11211,7 +11329,7 @@
         <xdr:cNvPr id="8" name="Conector recto de flecha 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5084AF4-EE27-4309-9E2F-BBB13E3EA57C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11264,7 +11382,7 @@
         <xdr:cNvPr id="9" name="Conector: angular 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{675235EC-DFEF-4C1C-B615-121B5158FCD0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11320,7 +11438,7 @@
         <xdr:cNvPr id="10" name="Abrir llave 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB0980AF-BBB2-431B-996D-FA65C7DCB181}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11695,17 +11813,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C1" s="522" t="s">
+      <c r="C1" s="534" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="522"/>
-      <c r="E1" s="522"/>
-      <c r="F1" s="522"/>
-      <c r="G1" s="522"/>
-      <c r="H1" s="522"/>
-      <c r="I1" s="522"/>
-      <c r="J1" s="522"/>
-      <c r="K1" s="522"/>
+      <c r="D1" s="534"/>
+      <c r="E1" s="534"/>
+      <c r="F1" s="534"/>
+      <c r="G1" s="534"/>
+      <c r="H1" s="534"/>
+      <c r="I1" s="534"/>
+      <c r="J1" s="534"/>
+      <c r="K1" s="534"/>
       <c r="L1" s="2"/>
       <c r="M1" s="3"/>
       <c r="U1" s="209"/>
@@ -11736,17 +11854,17 @@
       </c>
     </row>
     <row r="3" spans="1:23" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="523" t="s">
+      <c r="B3" s="535" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="524"/>
+      <c r="C3" s="536"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="15"/>
-      <c r="H3" s="525" t="s">
+      <c r="H3" s="537" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="525"/>
+      <c r="I3" s="537"/>
       <c r="K3" s="17" t="s">
         <v>3</v>
       </c>
@@ -11775,14 +11893,14 @@
       <c r="D4" s="23">
         <v>44201</v>
       </c>
-      <c r="E4" s="526" t="s">
+      <c r="E4" s="538" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="527"/>
-      <c r="H4" s="528" t="s">
+      <c r="F4" s="539"/>
+      <c r="H4" s="540" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="529"/>
+      <c r="I4" s="541"/>
       <c r="J4" s="24"/>
       <c r="K4" s="25"/>
       <c r="L4" s="26"/>
@@ -14393,61 +14511,61 @@
       <c r="A64" s="60"/>
       <c r="B64" s="100"/>
       <c r="C64" s="4"/>
-      <c r="H64" s="530" t="s">
+      <c r="H64" s="521" t="s">
         <v>16</v>
       </c>
-      <c r="I64" s="531"/>
+      <c r="I64" s="522"/>
       <c r="J64" s="101"/>
-      <c r="K64" s="532">
+      <c r="K64" s="523">
         <f>I62+L62</f>
         <v>360753.85</v>
       </c>
-      <c r="L64" s="533"/>
-      <c r="M64" s="534">
+      <c r="L64" s="524"/>
+      <c r="M64" s="525">
         <f>M62+N62</f>
         <v>2886514.7</v>
       </c>
-      <c r="N64" s="535"/>
+      <c r="N64" s="526"/>
       <c r="O64" s="102"/>
       <c r="P64" s="99"/>
       <c r="Q64" s="99"/>
       <c r="S64" s="174"/>
     </row>
     <row r="65" spans="2:19" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D65" s="542" t="s">
+      <c r="D65" s="533" t="s">
         <v>17</v>
       </c>
-      <c r="E65" s="542"/>
+      <c r="E65" s="533"/>
       <c r="F65" s="103">
         <f>F62-K64-C62</f>
         <v>2365880.5699999998</v>
       </c>
       <c r="I65" s="104"/>
       <c r="J65" s="105"/>
-      <c r="P65" s="543">
+      <c r="P65" s="512">
         <f>P62+Q62</f>
         <v>3321521.28</v>
       </c>
-      <c r="Q65" s="544"/>
+      <c r="Q65" s="513"/>
       <c r="S65" s="50"/>
     </row>
     <row r="66" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D66" s="545" t="s">
+      <c r="D66" s="514" t="s">
         <v>18</v>
       </c>
-      <c r="E66" s="545"/>
+      <c r="E66" s="514"/>
       <c r="F66" s="95">
         <v>-2276696.6800000002</v>
       </c>
-      <c r="I66" s="546" t="s">
+      <c r="I66" s="515" t="s">
         <v>19</v>
       </c>
-      <c r="J66" s="547"/>
-      <c r="K66" s="548">
+      <c r="J66" s="516"/>
+      <c r="K66" s="517">
         <f>F68+F69+F70</f>
         <v>344253.98999999964</v>
       </c>
-      <c r="L66" s="549"/>
+      <c r="L66" s="518"/>
       <c r="P66" s="50"/>
       <c r="S66" s="107"/>
     </row>
@@ -14481,11 +14599,11 @@
         <v>21</v>
       </c>
       <c r="J68" s="115"/>
-      <c r="K68" s="550">
+      <c r="K68" s="519">
         <f>-C4</f>
         <v>-250864.68</v>
       </c>
-      <c r="L68" s="551"/>
+      <c r="L68" s="520"/>
       <c r="M68" s="116"/>
       <c r="P68" s="50"/>
       <c r="Q68" s="7"/>
@@ -14509,22 +14627,22 @@
       <c r="C70" s="119">
         <v>44230</v>
       </c>
-      <c r="D70" s="536" t="s">
+      <c r="D70" s="527" t="s">
         <v>24</v>
       </c>
-      <c r="E70" s="537"/>
+      <c r="E70" s="528"/>
       <c r="F70" s="120">
         <v>209541.1</v>
       </c>
-      <c r="I70" s="538" t="s">
+      <c r="I70" s="529" t="s">
         <v>25</v>
       </c>
-      <c r="J70" s="539"/>
-      <c r="K70" s="540">
+      <c r="J70" s="530"/>
+      <c r="K70" s="531">
         <f>K66+K68</f>
         <v>93389.309999999648</v>
       </c>
-      <c r="L70" s="541"/>
+      <c r="L70" s="532"/>
       <c r="P70" s="50"/>
       <c r="Q70" s="7"/>
       <c r="S70" s="121"/>
@@ -14628,11 +14746,11 @@
     <sortCondition ref="J35:J54"/>
   </sortState>
   <mergeCells count="17">
-    <mergeCell ref="P65:Q65"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="I66:J66"/>
-    <mergeCell ref="K66:L66"/>
-    <mergeCell ref="K68:L68"/>
+    <mergeCell ref="C1:K1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
     <mergeCell ref="H64:I64"/>
     <mergeCell ref="K64:L64"/>
     <mergeCell ref="M64:N64"/>
@@ -14640,11 +14758,11 @@
     <mergeCell ref="I70:J70"/>
     <mergeCell ref="K70:L70"/>
     <mergeCell ref="D65:E65"/>
-    <mergeCell ref="C1:K1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="P65:Q65"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="I66:J66"/>
+    <mergeCell ref="K66:L66"/>
+    <mergeCell ref="K68:L68"/>
   </mergeCells>
   <phoneticPr fontId="41" type="noConversion"/>
   <pageMargins left="0.2" right="0.16" top="0.34" bottom="0.32" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -16033,7 +16151,7 @@
   </sheetPr>
   <dimension ref="A1:AG92"/>
   <sheetViews>
-    <sheetView topLeftCell="H4" workbookViewId="0">
+    <sheetView topLeftCell="H22" workbookViewId="0">
       <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
@@ -16069,20 +16187,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="565" t="s">
+      <c r="B1" s="582" t="s">
         <v>529</v>
       </c>
-      <c r="C1" s="522" t="s">
+      <c r="C1" s="534" t="s">
         <v>503</v>
       </c>
-      <c r="D1" s="522"/>
-      <c r="E1" s="522"/>
-      <c r="F1" s="522"/>
-      <c r="G1" s="522"/>
-      <c r="H1" s="522"/>
-      <c r="I1" s="522"/>
-      <c r="J1" s="522"/>
-      <c r="K1" s="522"/>
+      <c r="D1" s="534"/>
+      <c r="E1" s="534"/>
+      <c r="F1" s="534"/>
+      <c r="G1" s="534"/>
+      <c r="H1" s="534"/>
+      <c r="I1" s="534"/>
+      <c r="J1" s="534"/>
+      <c r="K1" s="534"/>
       <c r="L1" s="2"/>
       <c r="M1" s="3"/>
       <c r="W1" s="209"/>
@@ -16092,7 +16210,7 @@
       <c r="Y1" s="206"/>
     </row>
     <row r="2" spans="1:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="566"/>
+      <c r="B2" s="583"/>
       <c r="C2" s="8"/>
       <c r="H2" s="10" t="s">
         <v>0</v>
@@ -16111,27 +16229,27 @@
       <c r="Y2" s="216" t="s">
         <v>28</v>
       </c>
-      <c r="AB2" s="578" t="s">
+      <c r="AB2" s="565" t="s">
         <v>596</v>
       </c>
-      <c r="AC2" s="578"/>
-      <c r="AD2" s="578"/>
-      <c r="AE2" s="578"/>
-      <c r="AF2" s="578"/>
-      <c r="AG2" s="578"/>
+      <c r="AC2" s="565"/>
+      <c r="AD2" s="565"/>
+      <c r="AE2" s="565"/>
+      <c r="AF2" s="565"/>
+      <c r="AG2" s="565"/>
     </row>
     <row r="3" spans="1:33" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="523" t="s">
+      <c r="B3" s="535" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="524"/>
+      <c r="C3" s="536"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="15"/>
-      <c r="H3" s="525" t="s">
+      <c r="H3" s="537" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="525"/>
+      <c r="I3" s="537"/>
       <c r="K3" s="17" t="s">
         <v>3</v>
       </c>
@@ -16139,7 +16257,7 @@
         <v>4</v>
       </c>
       <c r="M3" s="18"/>
-      <c r="P3" s="568" t="s">
+      <c r="P3" s="555" t="s">
         <v>562</v>
       </c>
       <c r="Q3" s="393"/>
@@ -16152,12 +16270,12 @@
       <c r="Y3" s="198">
         <v>2000</v>
       </c>
-      <c r="AB3" s="578"/>
-      <c r="AC3" s="578"/>
-      <c r="AD3" s="578"/>
-      <c r="AE3" s="578"/>
-      <c r="AF3" s="578"/>
-      <c r="AG3" s="578"/>
+      <c r="AB3" s="565"/>
+      <c r="AC3" s="565"/>
+      <c r="AD3" s="565"/>
+      <c r="AE3" s="565"/>
+      <c r="AF3" s="565"/>
+      <c r="AG3" s="565"/>
     </row>
     <row r="4" spans="1:33" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="20" t="s">
@@ -16170,14 +16288,14 @@
       <c r="D4" s="23">
         <v>44353</v>
       </c>
-      <c r="E4" s="526" t="s">
+      <c r="E4" s="538" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="527"/>
-      <c r="H4" s="528" t="s">
+      <c r="F4" s="539"/>
+      <c r="H4" s="540" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="529"/>
+      <c r="I4" s="541"/>
       <c r="J4" s="24"/>
       <c r="K4" s="25"/>
       <c r="L4" s="26"/>
@@ -16188,7 +16306,7 @@
         <v>10</v>
       </c>
       <c r="O4" s="365"/>
-      <c r="P4" s="568"/>
+      <c r="P4" s="555"/>
       <c r="Q4" s="393"/>
       <c r="R4" s="30"/>
       <c r="S4" s="31"/>
@@ -16203,16 +16321,16 @@
       <c r="Y4" s="217">
         <v>2000</v>
       </c>
-      <c r="AB4" s="579" t="s">
+      <c r="AB4" s="566" t="s">
         <v>527</v>
       </c>
-      <c r="AC4" s="580"/>
+      <c r="AC4" s="567"/>
       <c r="AD4" s="99"/>
-      <c r="AE4" s="581" t="s">
+      <c r="AE4" s="568" t="s">
         <v>567</v>
       </c>
-      <c r="AF4" s="581"/>
-      <c r="AG4" s="581"/>
+      <c r="AF4" s="568"/>
+      <c r="AG4" s="568"/>
     </row>
     <row r="5" spans="1:33" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="34" t="s">
@@ -17624,10 +17742,10 @@
         <v>0</v>
       </c>
       <c r="AD23" s="99"/>
-      <c r="AE23" s="586" t="s">
+      <c r="AE23" s="573" t="s">
         <v>564</v>
       </c>
-      <c r="AF23" s="587"/>
+      <c r="AF23" s="574"/>
       <c r="AG23" s="339">
         <f>SUM(AG6:AG22)</f>
         <v>2323600</v>
@@ -17771,11 +17889,11 @@
         <v>138607</v>
       </c>
       <c r="AD25" s="99"/>
-      <c r="AE25" s="588" t="s">
+      <c r="AE25" s="575" t="s">
         <v>565</v>
       </c>
-      <c r="AF25" s="589"/>
-      <c r="AG25" s="592">
+      <c r="AF25" s="576"/>
+      <c r="AG25" s="579">
         <f>AC29-AG23</f>
         <v>163726</v>
       </c>
@@ -17846,9 +17964,9 @@
         <v>107480</v>
       </c>
       <c r="AD26" s="99"/>
-      <c r="AE26" s="590"/>
-      <c r="AF26" s="591"/>
-      <c r="AG26" s="593"/>
+      <c r="AE26" s="577"/>
+      <c r="AF26" s="578"/>
+      <c r="AG26" s="580"/>
     </row>
     <row r="27" spans="1:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="34"/>
@@ -18023,10 +18141,10 @@
       </c>
       <c r="X29" s="220"/>
       <c r="Y29" s="218"/>
-      <c r="AB29" s="582" t="s">
+      <c r="AB29" s="569" t="s">
         <v>562</v>
       </c>
-      <c r="AC29" s="584">
+      <c r="AC29" s="571">
         <f>SUM(AC5:AC28)</f>
         <v>2487326</v>
       </c>
@@ -18062,11 +18180,11 @@
         <v>0</v>
       </c>
       <c r="O30" s="7"/>
-      <c r="P30" s="569">
+      <c r="P30" s="556">
         <f>SUM(P5:P29)</f>
         <v>-163726</v>
       </c>
-      <c r="Q30" s="569"/>
+      <c r="Q30" s="556"/>
       <c r="R30" s="7">
         <v>0</v>
       </c>
@@ -18080,8 +18198,8 @@
       </c>
       <c r="X30" s="221"/>
       <c r="Y30" s="207"/>
-      <c r="AB30" s="583"/>
-      <c r="AC30" s="585"/>
+      <c r="AB30" s="570"/>
+      <c r="AC30" s="572"/>
       <c r="AD30" s="99"/>
       <c r="AE30" s="99"/>
       <c r="AF30" s="99"/>
@@ -19443,21 +19561,21 @@
       <c r="A64" s="60"/>
       <c r="B64" s="100"/>
       <c r="C64" s="4"/>
-      <c r="H64" s="530" t="s">
+      <c r="H64" s="521" t="s">
         <v>16</v>
       </c>
-      <c r="I64" s="531"/>
+      <c r="I64" s="522"/>
       <c r="J64" s="101"/>
-      <c r="K64" s="532">
+      <c r="K64" s="523">
         <f>I62+L62</f>
         <v>339830.06000000006</v>
       </c>
-      <c r="L64" s="533"/>
-      <c r="M64" s="534">
+      <c r="L64" s="524"/>
+      <c r="M64" s="525">
         <f>M62+N62</f>
         <v>2936130</v>
       </c>
-      <c r="N64" s="535"/>
+      <c r="N64" s="526"/>
       <c r="O64" s="367"/>
       <c r="P64" s="367"/>
       <c r="Q64" s="367"/>
@@ -19472,40 +19590,40 @@
       <c r="AG64" s="327"/>
     </row>
     <row r="65" spans="2:33" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D65" s="542" t="s">
+      <c r="D65" s="533" t="s">
         <v>17</v>
       </c>
-      <c r="E65" s="542"/>
+      <c r="E65" s="533"/>
       <c r="F65" s="103">
         <f>F62-K64-C62</f>
         <v>2702101.7199999997</v>
       </c>
       <c r="I65" s="104"/>
       <c r="J65" s="105"/>
-      <c r="R65" s="543">
+      <c r="R65" s="512">
         <f>R62+S62</f>
         <v>3138957.44</v>
       </c>
-      <c r="S65" s="544"/>
+      <c r="S65" s="513"/>
       <c r="U65" s="50"/>
     </row>
     <row r="66" spans="2:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D66" s="545" t="s">
+      <c r="D66" s="514" t="s">
         <v>502</v>
       </c>
-      <c r="E66" s="545"/>
+      <c r="E66" s="514"/>
       <c r="F66" s="95">
         <v>-2720820.95</v>
       </c>
-      <c r="I66" s="546" t="s">
+      <c r="I66" s="515" t="s">
         <v>19</v>
       </c>
-      <c r="J66" s="547"/>
-      <c r="K66" s="548">
+      <c r="J66" s="516"/>
+      <c r="K66" s="517">
         <f>F68+F69+F70</f>
         <v>381077.48999999953</v>
       </c>
-      <c r="L66" s="549"/>
+      <c r="L66" s="518"/>
       <c r="R66" s="50"/>
       <c r="U66" s="107"/>
     </row>
@@ -19539,11 +19657,11 @@
         <v>21</v>
       </c>
       <c r="J68" s="115"/>
-      <c r="K68" s="550">
+      <c r="K68" s="519">
         <f>-C4</f>
         <v>-255764.39</v>
       </c>
-      <c r="L68" s="551"/>
+      <c r="L68" s="520"/>
       <c r="M68" s="116"/>
       <c r="R68" s="50"/>
       <c r="S68" s="7"/>
@@ -19567,22 +19685,22 @@
       <c r="C70" s="119">
         <v>44377</v>
       </c>
-      <c r="D70" s="536" t="s">
+      <c r="D70" s="527" t="s">
         <v>24</v>
       </c>
-      <c r="E70" s="537"/>
+      <c r="E70" s="528"/>
       <c r="F70" s="120">
         <v>308642.71999999997</v>
       </c>
-      <c r="I70" s="538" t="s">
+      <c r="I70" s="529" t="s">
         <v>25</v>
       </c>
-      <c r="J70" s="539"/>
-      <c r="K70" s="540">
+      <c r="J70" s="530"/>
+      <c r="K70" s="531">
         <f>K66+K68</f>
         <v>125313.09999999951</v>
       </c>
-      <c r="L70" s="541"/>
+      <c r="L70" s="532"/>
       <c r="R70" s="50"/>
       <c r="S70" s="7"/>
       <c r="U70" s="121"/>
@@ -19598,14 +19716,14 @@
       <c r="S71" s="7"/>
     </row>
     <row r="72" spans="2:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I72" s="570" t="s">
+      <c r="I72" s="557" t="s">
         <v>610</v>
       </c>
-      <c r="J72" s="571"/>
-      <c r="K72" s="574">
+      <c r="J72" s="558"/>
+      <c r="K72" s="561">
         <v>163726</v>
       </c>
-      <c r="L72" s="575"/>
+      <c r="L72" s="562"/>
       <c r="R72" s="7"/>
       <c r="S72" s="7"/>
     </row>
@@ -19614,10 +19732,10 @@
       <c r="C73" s="128"/>
       <c r="D73" s="129"/>
       <c r="E73" s="7"/>
-      <c r="I73" s="572"/>
-      <c r="J73" s="573"/>
-      <c r="K73" s="576"/>
-      <c r="L73" s="577"/>
+      <c r="I73" s="559"/>
+      <c r="J73" s="560"/>
+      <c r="K73" s="563"/>
+      <c r="L73" s="564"/>
       <c r="M73" s="2"/>
       <c r="N73" s="60"/>
       <c r="O73" s="165"/>
@@ -19669,7 +19787,7 @@
       <c r="C76" s="130"/>
       <c r="E76" s="7"/>
       <c r="M76" s="4"/>
-      <c r="AC76" s="567"/>
+      <c r="AC76" s="581"/>
       <c r="AD76" s="342"/>
       <c r="AE76" s="342"/>
       <c r="AF76" s="342"/>
@@ -19682,7 +19800,7 @@
       <c r="E77" s="7"/>
       <c r="F77" s="273"/>
       <c r="M77" s="4"/>
-      <c r="AC77" s="567"/>
+      <c r="AC77" s="581"/>
       <c r="AD77" s="342"/>
       <c r="AE77" s="342"/>
       <c r="AF77" s="342"/>
@@ -19776,6 +19894,22 @@
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:K1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="AC76:AC77"/>
+    <mergeCell ref="R65:S65"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="I66:J66"/>
+    <mergeCell ref="K66:L66"/>
+    <mergeCell ref="K68:L68"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="I70:J70"/>
+    <mergeCell ref="K70:L70"/>
+    <mergeCell ref="D65:E65"/>
     <mergeCell ref="P3:P4"/>
     <mergeCell ref="P30:Q30"/>
     <mergeCell ref="I72:J73"/>
@@ -19791,22 +19925,6 @@
     <mergeCell ref="AE23:AF23"/>
     <mergeCell ref="AE25:AF26"/>
     <mergeCell ref="AG25:AG26"/>
-    <mergeCell ref="AC76:AC77"/>
-    <mergeCell ref="R65:S65"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="I66:J66"/>
-    <mergeCell ref="K66:L66"/>
-    <mergeCell ref="K68:L68"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="I70:J70"/>
-    <mergeCell ref="K70:L70"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:K1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
   </mergeCells>
   <pageMargins left="0.49" right="0.23622047244094491" top="0.47244094488188981" bottom="0.27559055118110237" header="0.70866141732283472" footer="0.31496062992125984"/>
   <pageSetup scale="90" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -21144,25 +21262,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="565" t="s">
+      <c r="B1" s="582" t="s">
         <v>529</v>
       </c>
-      <c r="C1" s="522" t="s">
+      <c r="C1" s="534" t="s">
         <v>503</v>
       </c>
-      <c r="D1" s="522"/>
-      <c r="E1" s="522"/>
-      <c r="F1" s="522"/>
-      <c r="G1" s="522"/>
-      <c r="H1" s="522"/>
-      <c r="I1" s="522"/>
-      <c r="J1" s="522"/>
-      <c r="K1" s="522"/>
+      <c r="D1" s="534"/>
+      <c r="E1" s="534"/>
+      <c r="F1" s="534"/>
+      <c r="G1" s="534"/>
+      <c r="H1" s="534"/>
+      <c r="I1" s="534"/>
+      <c r="J1" s="534"/>
+      <c r="K1" s="534"/>
       <c r="L1" s="2"/>
       <c r="M1" s="3"/>
     </row>
     <row r="2" spans="1:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="566"/>
+      <c r="B2" s="583"/>
       <c r="C2" s="8"/>
       <c r="H2" s="10" t="s">
         <v>0</v>
@@ -21172,27 +21290,27 @@
       <c r="L2" s="12"/>
       <c r="M2" s="3"/>
       <c r="N2" s="6"/>
-      <c r="Q2" s="578" t="s">
+      <c r="Q2" s="565" t="s">
         <v>596</v>
       </c>
-      <c r="R2" s="578"/>
-      <c r="S2" s="578"/>
-      <c r="T2" s="578"/>
-      <c r="U2" s="578"/>
-      <c r="V2" s="578"/>
+      <c r="R2" s="565"/>
+      <c r="S2" s="565"/>
+      <c r="T2" s="565"/>
+      <c r="U2" s="565"/>
+      <c r="V2" s="565"/>
     </row>
     <row r="3" spans="1:23" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="523" t="s">
+      <c r="B3" s="535" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="524"/>
+      <c r="C3" s="536"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="15"/>
-      <c r="H3" s="525" t="s">
+      <c r="H3" s="537" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="525"/>
+      <c r="I3" s="537"/>
       <c r="K3" s="17" t="s">
         <v>3</v>
       </c>
@@ -21200,12 +21318,12 @@
         <v>4</v>
       </c>
       <c r="M3" s="18"/>
-      <c r="Q3" s="578"/>
-      <c r="R3" s="578"/>
-      <c r="S3" s="578"/>
-      <c r="T3" s="578"/>
-      <c r="U3" s="578"/>
-      <c r="V3" s="578"/>
+      <c r="Q3" s="565"/>
+      <c r="R3" s="565"/>
+      <c r="S3" s="565"/>
+      <c r="T3" s="565"/>
+      <c r="U3" s="565"/>
+      <c r="V3" s="565"/>
     </row>
     <row r="4" spans="1:23" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="20" t="s">
@@ -21218,14 +21336,14 @@
       <c r="D4" s="23">
         <v>44353</v>
       </c>
-      <c r="E4" s="526" t="s">
+      <c r="E4" s="538" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="527"/>
-      <c r="H4" s="528" t="s">
+      <c r="F4" s="539"/>
+      <c r="H4" s="540" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="529"/>
+      <c r="I4" s="541"/>
       <c r="J4" s="24"/>
       <c r="K4" s="25"/>
       <c r="L4" s="26"/>
@@ -21237,16 +21355,16 @@
       </c>
       <c r="O4" s="365"/>
       <c r="P4" s="29"/>
-      <c r="Q4" s="579" t="s">
+      <c r="Q4" s="566" t="s">
         <v>527</v>
       </c>
-      <c r="R4" s="580"/>
+      <c r="R4" s="567"/>
       <c r="S4" s="99"/>
-      <c r="T4" s="581" t="s">
+      <c r="T4" s="568" t="s">
         <v>567</v>
       </c>
-      <c r="U4" s="581"/>
-      <c r="V4" s="581"/>
+      <c r="U4" s="568"/>
+      <c r="V4" s="568"/>
       <c r="W4" s="99"/>
     </row>
     <row r="5" spans="1:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -22245,10 +22363,10 @@
         <v>0</v>
       </c>
       <c r="S23" s="99"/>
-      <c r="T23" s="586" t="s">
+      <c r="T23" s="573" t="s">
         <v>564</v>
       </c>
-      <c r="U23" s="587"/>
+      <c r="U23" s="574"/>
       <c r="V23" s="339">
         <f>SUM(V6:V22)</f>
         <v>2323600</v>
@@ -22352,11 +22470,11 @@
         <v>138607</v>
       </c>
       <c r="S25" s="99"/>
-      <c r="T25" s="588" t="s">
+      <c r="T25" s="575" t="s">
         <v>565</v>
       </c>
-      <c r="U25" s="589"/>
-      <c r="V25" s="592">
+      <c r="U25" s="576"/>
+      <c r="V25" s="579">
         <f>R29-V23</f>
         <v>163726</v>
       </c>
@@ -22405,9 +22523,9 @@
         <v>107480</v>
       </c>
       <c r="S26" s="99"/>
-      <c r="T26" s="590"/>
-      <c r="U26" s="591"/>
-      <c r="V26" s="593"/>
+      <c r="T26" s="577"/>
+      <c r="U26" s="578"/>
+      <c r="V26" s="580"/>
       <c r="W26" s="99"/>
     </row>
     <row r="27" spans="1:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -22530,10 +22648,10 @@
       </c>
       <c r="O29" s="7"/>
       <c r="P29" s="29"/>
-      <c r="Q29" s="582" t="s">
+      <c r="Q29" s="569" t="s">
         <v>562</v>
       </c>
-      <c r="R29" s="584">
+      <c r="R29" s="571">
         <f>SUM(R5:R28)</f>
         <v>2487326</v>
       </c>
@@ -22570,8 +22688,8 @@
       </c>
       <c r="O30" s="7"/>
       <c r="P30" s="373"/>
-      <c r="Q30" s="583"/>
-      <c r="R30" s="585"/>
+      <c r="Q30" s="570"/>
+      <c r="R30" s="572"/>
       <c r="S30" s="99"/>
       <c r="T30" s="99"/>
       <c r="U30" s="99"/>
@@ -23196,21 +23314,21 @@
       <c r="A50" s="60"/>
       <c r="B50" s="100"/>
       <c r="C50" s="4"/>
-      <c r="H50" s="530" t="s">
+      <c r="H50" s="521" t="s">
         <v>16</v>
       </c>
-      <c r="I50" s="531"/>
+      <c r="I50" s="522"/>
       <c r="J50" s="101"/>
-      <c r="K50" s="532">
+      <c r="K50" s="523">
         <f>I48+L48</f>
         <v>339830.06000000006</v>
       </c>
-      <c r="L50" s="533"/>
-      <c r="M50" s="534">
+      <c r="L50" s="524"/>
+      <c r="M50" s="525">
         <f>M48+N48</f>
         <v>612530</v>
       </c>
-      <c r="N50" s="535"/>
+      <c r="N50" s="526"/>
       <c r="O50" s="367"/>
       <c r="P50" s="102"/>
       <c r="Q50" s="320"/>
@@ -23222,10 +23340,10 @@
       <c r="W50" s="327"/>
     </row>
     <row r="51" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="D51" s="542" t="s">
+      <c r="D51" s="533" t="s">
         <v>17</v>
       </c>
-      <c r="E51" s="542"/>
+      <c r="E51" s="533"/>
       <c r="F51" s="103">
         <f>F48-K50-C48</f>
         <v>2702101.7199999997</v>
@@ -23234,22 +23352,22 @@
       <c r="J51" s="105"/>
     </row>
     <row r="52" spans="1:23" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D52" s="545" t="s">
+      <c r="D52" s="514" t="s">
         <v>502</v>
       </c>
-      <c r="E52" s="545"/>
+      <c r="E52" s="514"/>
       <c r="F52" s="95">
         <v>-2720820.95</v>
       </c>
-      <c r="I52" s="546" t="s">
+      <c r="I52" s="515" t="s">
         <v>19</v>
       </c>
-      <c r="J52" s="547"/>
-      <c r="K52" s="548">
+      <c r="J52" s="516"/>
+      <c r="K52" s="517">
         <f>F54+F55+F56</f>
         <v>381077.72999999952</v>
       </c>
-      <c r="L52" s="549"/>
+      <c r="L52" s="518"/>
     </row>
     <row r="53" spans="1:23" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D53" s="108"/>
@@ -23278,11 +23396,11 @@
         <v>21</v>
       </c>
       <c r="J54" s="115"/>
-      <c r="K54" s="550">
+      <c r="K54" s="519">
         <f>-C4</f>
         <v>-255764.39</v>
       </c>
-      <c r="L54" s="551"/>
+      <c r="L54" s="520"/>
       <c r="M54" s="116"/>
     </row>
     <row r="55" spans="1:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -23300,22 +23418,22 @@
       <c r="C56" s="119">
         <v>44377</v>
       </c>
-      <c r="D56" s="536" t="s">
+      <c r="D56" s="527" t="s">
         <v>24</v>
       </c>
-      <c r="E56" s="537"/>
+      <c r="E56" s="528"/>
       <c r="F56" s="120">
         <v>308642.71999999997</v>
       </c>
-      <c r="I56" s="538" t="s">
+      <c r="I56" s="529" t="s">
         <v>25</v>
       </c>
-      <c r="J56" s="539"/>
-      <c r="K56" s="540">
+      <c r="J56" s="530"/>
+      <c r="K56" s="531">
         <f>K52+K54</f>
         <v>125313.3399999995</v>
       </c>
-      <c r="L56" s="541"/>
+      <c r="L56" s="532"/>
     </row>
     <row r="57" spans="1:23" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C57" s="122"/>
@@ -23371,7 +23489,7 @@
       <c r="C62" s="130"/>
       <c r="E62" s="7"/>
       <c r="M62" s="4"/>
-      <c r="R62" s="567"/>
+      <c r="R62" s="581"/>
       <c r="S62" s="379"/>
       <c r="T62" s="379"/>
       <c r="U62" s="379"/>
@@ -23384,7 +23502,7 @@
       <c r="E63" s="7"/>
       <c r="F63" s="273"/>
       <c r="M63" s="4"/>
-      <c r="R63" s="567"/>
+      <c r="R63" s="581"/>
       <c r="S63" s="379"/>
       <c r="T63" s="379"/>
       <c r="U63" s="379"/>
@@ -23461,6 +23579,23 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="Q2:V3"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="T4:V4"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="K50:L50"/>
+    <mergeCell ref="M50:N50"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:K1"/>
+    <mergeCell ref="T23:U23"/>
+    <mergeCell ref="T25:U26"/>
+    <mergeCell ref="V25:V26"/>
+    <mergeCell ref="Q29:Q30"/>
+    <mergeCell ref="R29:R30"/>
     <mergeCell ref="R62:R63"/>
     <mergeCell ref="D51:E51"/>
     <mergeCell ref="D52:E52"/>
@@ -23470,23 +23605,6 @@
     <mergeCell ref="D56:E56"/>
     <mergeCell ref="I56:J56"/>
     <mergeCell ref="K56:L56"/>
-    <mergeCell ref="T23:U23"/>
-    <mergeCell ref="T25:U26"/>
-    <mergeCell ref="V25:V26"/>
-    <mergeCell ref="Q29:Q30"/>
-    <mergeCell ref="R29:R30"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="K50:L50"/>
-    <mergeCell ref="M50:N50"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:K1"/>
-    <mergeCell ref="Q2:V3"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="T4:V4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -23501,11 +23619,11 @@
   </sheetPr>
   <dimension ref="A1:AG97"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="4" topLeftCell="F44" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="5" ySplit="4" topLeftCell="M44" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="P68" sqref="P68"/>
+      <selection pane="bottomRight" activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -23540,20 +23658,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="565" t="s">
+      <c r="B1" s="582" t="s">
         <v>529</v>
       </c>
-      <c r="C1" s="522" t="s">
-        <v>724</v>
-      </c>
-      <c r="D1" s="522"/>
-      <c r="E1" s="522"/>
-      <c r="F1" s="522"/>
-      <c r="G1" s="522"/>
-      <c r="H1" s="522"/>
-      <c r="I1" s="522"/>
-      <c r="J1" s="522"/>
-      <c r="K1" s="522"/>
+      <c r="C1" s="534" t="s">
+        <v>720</v>
+      </c>
+      <c r="D1" s="534"/>
+      <c r="E1" s="534"/>
+      <c r="F1" s="534"/>
+      <c r="G1" s="534"/>
+      <c r="H1" s="534"/>
+      <c r="I1" s="534"/>
+      <c r="J1" s="534"/>
+      <c r="K1" s="534"/>
       <c r="L1" s="2"/>
       <c r="M1" s="3"/>
       <c r="W1" s="209"/>
@@ -23563,7 +23681,7 @@
       <c r="Y1" s="206"/>
     </row>
     <row r="2" spans="1:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="566"/>
+      <c r="B2" s="583"/>
       <c r="C2" s="8"/>
       <c r="H2" s="10" t="s">
         <v>0</v>
@@ -23582,27 +23700,27 @@
       <c r="Y2" s="216" t="s">
         <v>28</v>
       </c>
-      <c r="AB2" s="578" t="s">
+      <c r="AB2" s="565" t="s">
         <v>596</v>
       </c>
-      <c r="AC2" s="578"/>
-      <c r="AD2" s="578"/>
-      <c r="AE2" s="578"/>
-      <c r="AF2" s="578"/>
-      <c r="AG2" s="578"/>
+      <c r="AC2" s="565"/>
+      <c r="AD2" s="565"/>
+      <c r="AE2" s="565"/>
+      <c r="AF2" s="565"/>
+      <c r="AG2" s="565"/>
     </row>
     <row r="3" spans="1:33" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="523" t="s">
+      <c r="B3" s="535" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="524"/>
+      <c r="C3" s="536"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="15"/>
-      <c r="H3" s="525" t="s">
+      <c r="H3" s="537" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="525"/>
+      <c r="I3" s="537"/>
       <c r="K3" s="17" t="s">
         <v>3</v>
       </c>
@@ -23610,13 +23728,13 @@
         <v>4</v>
       </c>
       <c r="M3" s="18"/>
-      <c r="P3" s="616" t="s">
+      <c r="P3" s="584" t="s">
         <v>663</v>
       </c>
-      <c r="Q3" s="618" t="s">
+      <c r="Q3" s="586" t="s">
         <v>665</v>
       </c>
-      <c r="S3" s="619"/>
+      <c r="S3" s="587"/>
       <c r="W3" s="213" t="s">
         <v>54</v>
       </c>
@@ -23626,12 +23744,12 @@
       <c r="Y3" s="198">
         <v>2000</v>
       </c>
-      <c r="AB3" s="578"/>
-      <c r="AC3" s="578"/>
-      <c r="AD3" s="578"/>
-      <c r="AE3" s="578"/>
-      <c r="AF3" s="578"/>
-      <c r="AG3" s="578"/>
+      <c r="AB3" s="565"/>
+      <c r="AC3" s="565"/>
+      <c r="AD3" s="565"/>
+      <c r="AE3" s="565"/>
+      <c r="AF3" s="565"/>
+      <c r="AG3" s="565"/>
     </row>
     <row r="4" spans="1:33" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="20" t="s">
@@ -23644,14 +23762,14 @@
       <c r="D4" s="23">
         <v>44377</v>
       </c>
-      <c r="E4" s="526" t="s">
+      <c r="E4" s="538" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="527"/>
-      <c r="H4" s="617" t="s">
+      <c r="F4" s="539"/>
+      <c r="H4" s="585" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="529"/>
+      <c r="I4" s="541"/>
       <c r="J4" s="24"/>
       <c r="K4" s="25"/>
       <c r="L4" s="26"/>
@@ -23662,10 +23780,10 @@
         <v>10</v>
       </c>
       <c r="O4" s="365"/>
-      <c r="P4" s="616"/>
-      <c r="Q4" s="618"/>
+      <c r="P4" s="584"/>
+      <c r="Q4" s="586"/>
       <c r="R4" s="30"/>
-      <c r="S4" s="619"/>
+      <c r="S4" s="587"/>
       <c r="T4" s="30"/>
       <c r="U4" s="30"/>
       <c r="W4" s="213" t="s">
@@ -23677,16 +23795,16 @@
       <c r="Y4" s="217">
         <v>2000</v>
       </c>
-      <c r="AB4" s="579" t="s">
+      <c r="AB4" s="566" t="s">
         <v>527</v>
       </c>
-      <c r="AC4" s="580"/>
+      <c r="AC4" s="567"/>
       <c r="AD4" s="99"/>
-      <c r="AE4" s="581" t="s">
+      <c r="AE4" s="568" t="s">
         <v>567</v>
       </c>
-      <c r="AF4" s="581"/>
-      <c r="AG4" s="581"/>
+      <c r="AF4" s="568"/>
+      <c r="AG4" s="568"/>
     </row>
     <row r="5" spans="1:33" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="34" t="s">
@@ -23867,7 +23985,7 @@
       <c r="J7" s="52">
         <v>44380</v>
       </c>
-      <c r="K7" s="310" t="s">
+      <c r="K7" s="171" t="s">
         <v>664</v>
       </c>
       <c r="L7" s="46">
@@ -25123,10 +25241,10 @@
         <v>0</v>
       </c>
       <c r="AD23" s="99"/>
-      <c r="AE23" s="586" t="s">
+      <c r="AE23" s="573" t="s">
         <v>564</v>
       </c>
-      <c r="AF23" s="587"/>
+      <c r="AF23" s="574"/>
       <c r="AG23" s="339">
         <f>SUM(AG6:AG22)</f>
         <v>2323600</v>
@@ -25258,11 +25376,11 @@
         <v>138607</v>
       </c>
       <c r="AD25" s="99"/>
-      <c r="AE25" s="588" t="s">
+      <c r="AE25" s="575" t="s">
         <v>565</v>
       </c>
-      <c r="AF25" s="589"/>
-      <c r="AG25" s="592">
+      <c r="AF25" s="576"/>
+      <c r="AG25" s="579">
         <f>AC29-AG23</f>
         <v>163726</v>
       </c>
@@ -25331,9 +25449,9 @@
         <v>107480</v>
       </c>
       <c r="AD26" s="99"/>
-      <c r="AE26" s="590"/>
-      <c r="AF26" s="591"/>
-      <c r="AG26" s="593"/>
+      <c r="AE26" s="577"/>
+      <c r="AF26" s="578"/>
+      <c r="AG26" s="580"/>
     </row>
     <row r="27" spans="1:33" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="34"/>
@@ -25532,10 +25650,10 @@
       </c>
       <c r="X29" s="220"/>
       <c r="Y29" s="218"/>
-      <c r="AB29" s="582" t="s">
+      <c r="AB29" s="569" t="s">
         <v>562</v>
       </c>
-      <c r="AC29" s="584">
+      <c r="AC29" s="571">
         <f>SUM(AC5:AC28)</f>
         <v>2487326</v>
       </c>
@@ -25598,8 +25716,8 @@
       </c>
       <c r="X30" s="221"/>
       <c r="Y30" s="207"/>
-      <c r="AB30" s="583"/>
-      <c r="AC30" s="585"/>
+      <c r="AB30" s="570"/>
+      <c r="AC30" s="572"/>
       <c r="AD30" s="99"/>
       <c r="AE30" s="99"/>
       <c r="AF30" s="99"/>
@@ -25800,13 +25918,13 @@
       <c r="I34" s="69">
         <v>2755</v>
       </c>
-      <c r="J34" s="233">
+      <c r="J34" s="299">
         <v>44407</v>
       </c>
-      <c r="K34" s="454" t="s">
+      <c r="K34" s="511" t="s">
         <v>690</v>
       </c>
-      <c r="L34" s="360">
+      <c r="L34" s="6">
         <v>30000</v>
       </c>
       <c r="M34" s="444">
@@ -25865,13 +25983,13 @@
       <c r="I35" s="69">
         <v>1874</v>
       </c>
-      <c r="J35" s="233">
+      <c r="J35" s="299">
         <v>44408</v>
       </c>
-      <c r="K35" s="144" t="s">
+      <c r="K35" s="172" t="s">
         <v>692</v>
       </c>
-      <c r="L35" s="358">
+      <c r="L35" s="71">
         <f>23312.72+400</f>
         <v>23712.720000000001</v>
       </c>
@@ -26092,11 +26210,11 @@
       <c r="J39" s="233"/>
       <c r="K39" s="361"/>
       <c r="L39" s="357"/>
-      <c r="M39" s="611">
+      <c r="M39" s="596">
         <f>SUM(M5:M38)</f>
         <v>3989872.22</v>
       </c>
-      <c r="N39" s="613">
+      <c r="N39" s="598">
         <f>SUM(N5:N38)</f>
         <v>688820.5</v>
       </c>
@@ -26145,8 +26263,8 @@
         <f>1145.91+398.99+423.94+498.99+398.99</f>
         <v>2866.8199999999997</v>
       </c>
-      <c r="M40" s="612"/>
-      <c r="N40" s="614"/>
+      <c r="M40" s="597"/>
+      <c r="N40" s="599"/>
       <c r="O40" s="7"/>
       <c r="P40" s="7"/>
       <c r="Q40" s="7"/>
@@ -26339,10 +26457,10 @@
       <c r="L44" s="358">
         <v>73526</v>
       </c>
-      <c r="M44" s="615" t="s">
+      <c r="M44" s="600" t="s">
         <v>567</v>
       </c>
-      <c r="N44" s="615"/>
+      <c r="N44" s="600"/>
       <c r="O44" s="7"/>
       <c r="P44" s="7"/>
       <c r="Q44" s="7"/>
@@ -26702,7 +26820,7 @@
         <v>449950</v>
       </c>
       <c r="D52" s="242" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="E52" s="136"/>
       <c r="F52" s="71"/>
@@ -26930,7 +27048,7 @@
       <c r="L57" s="458">
         <v>7482</v>
       </c>
-      <c r="M57" s="603">
+      <c r="M57" s="588">
         <f>SUM(M45:M56)</f>
         <v>3606750</v>
       </c>
@@ -26970,7 +27088,7 @@
       <c r="L58" s="458">
         <v>986</v>
       </c>
-      <c r="M58" s="604"/>
+      <c r="M58" s="589"/>
       <c r="N58" s="476"/>
       <c r="O58" s="7"/>
       <c r="P58" s="7"/>
@@ -27045,10 +27163,10 @@
         <f>1033.33+165.33</f>
         <v>1198.6599999999999</v>
       </c>
-      <c r="M60" s="605" t="s">
-        <v>721</v>
-      </c>
-      <c r="N60" s="606"/>
+      <c r="M60" s="590" t="s">
+        <v>719</v>
+      </c>
+      <c r="N60" s="591"/>
       <c r="O60" s="7"/>
       <c r="P60" s="7"/>
       <c r="Q60" s="7"/>
@@ -27116,16 +27234,16 @@
         <v>695</v>
       </c>
       <c r="K62" s="425" t="s">
-        <v>718</v>
+        <v>598</v>
       </c>
       <c r="L62" s="458">
         <v>22595.71</v>
       </c>
-      <c r="M62" s="607">
+      <c r="M62" s="592">
         <f>M57-M39</f>
         <v>-383122.2200000002</v>
       </c>
-      <c r="N62" s="608"/>
+      <c r="N62" s="593"/>
       <c r="O62" s="7"/>
       <c r="P62" s="7"/>
       <c r="Q62" s="7"/>
@@ -27156,13 +27274,13 @@
         <v>695</v>
       </c>
       <c r="K63" s="425" t="s">
-        <v>719</v>
+        <v>599</v>
       </c>
       <c r="L63" s="458">
         <v>1064</v>
       </c>
-      <c r="M63" s="609"/>
-      <c r="N63" s="610"/>
+      <c r="M63" s="594"/>
+      <c r="N63" s="595"/>
       <c r="O63" s="7"/>
       <c r="P63" s="7"/>
       <c r="Q63" s="7"/>
@@ -27193,7 +27311,7 @@
         <v>695</v>
       </c>
       <c r="K64" s="425" t="s">
-        <v>718</v>
+        <v>774</v>
       </c>
       <c r="L64" s="458">
         <v>10440</v>
@@ -27352,16 +27470,16 @@
       <c r="A69" s="60"/>
       <c r="B69" s="100"/>
       <c r="C69" s="4"/>
-      <c r="H69" s="530" t="s">
+      <c r="H69" s="521" t="s">
         <v>16</v>
       </c>
-      <c r="I69" s="531"/>
+      <c r="I69" s="522"/>
       <c r="J69" s="101"/>
-      <c r="K69" s="532">
+      <c r="K69" s="523">
         <f>I67+L67</f>
         <v>587206.12</v>
       </c>
-      <c r="L69" s="533"/>
+      <c r="L69" s="524"/>
       <c r="M69" s="471"/>
       <c r="N69" s="472"/>
       <c r="O69" s="367"/>
@@ -27378,40 +27496,40 @@
       <c r="AG69" s="327"/>
     </row>
     <row r="70" spans="1:33" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D70" s="542" t="s">
+      <c r="D70" s="533" t="s">
         <v>17</v>
       </c>
-      <c r="E70" s="542"/>
+      <c r="E70" s="533"/>
       <c r="F70" s="103">
         <f>F67-K69-C67</f>
         <v>3436910.52</v>
       </c>
       <c r="I70" s="104"/>
       <c r="J70" s="105"/>
-      <c r="R70" s="543">
+      <c r="R70" s="512">
         <f>R67+S67</f>
         <v>10503773.959999999</v>
       </c>
-      <c r="S70" s="544"/>
+      <c r="S70" s="513"/>
       <c r="U70" s="50"/>
     </row>
     <row r="71" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D71" s="545" t="s">
+      <c r="D71" s="514" t="s">
         <v>502</v>
       </c>
-      <c r="E71" s="545"/>
+      <c r="E71" s="514"/>
       <c r="F71" s="95">
         <v>-3290264.27</v>
       </c>
-      <c r="I71" s="546" t="s">
+      <c r="I71" s="515" t="s">
         <v>19</v>
       </c>
-      <c r="J71" s="547"/>
-      <c r="K71" s="548">
+      <c r="J71" s="516"/>
+      <c r="K71" s="517">
         <f>F73+F74+F75</f>
         <v>426565.1</v>
       </c>
-      <c r="L71" s="549"/>
+      <c r="L71" s="518"/>
       <c r="R71" s="50"/>
       <c r="U71" s="107"/>
     </row>
@@ -27445,11 +27563,11 @@
         <v>21</v>
       </c>
       <c r="J73" s="115"/>
-      <c r="K73" s="550">
+      <c r="K73" s="519">
         <f>-C4</f>
         <v>-308642.71999999997</v>
       </c>
-      <c r="L73" s="594"/>
+      <c r="L73" s="601"/>
       <c r="R73" s="50"/>
       <c r="S73" s="7"/>
       <c r="U73" s="50"/>
@@ -27472,22 +27590,22 @@
       <c r="C75" s="119">
         <v>44410</v>
       </c>
-      <c r="D75" s="536" t="s">
+      <c r="D75" s="527" t="s">
         <v>24</v>
       </c>
-      <c r="E75" s="537"/>
+      <c r="E75" s="528"/>
       <c r="F75" s="120">
         <v>250140.85</v>
       </c>
-      <c r="I75" s="538" t="s">
+      <c r="I75" s="529" t="s">
         <v>25</v>
       </c>
-      <c r="J75" s="539"/>
-      <c r="K75" s="540">
+      <c r="J75" s="530"/>
+      <c r="K75" s="531">
         <f>K71+K73</f>
         <v>117922.38</v>
       </c>
-      <c r="L75" s="540"/>
+      <c r="L75" s="531"/>
       <c r="R75" s="50"/>
       <c r="S75" s="7"/>
       <c r="U75" s="121"/>
@@ -27502,14 +27620,14 @@
       <c r="S76" s="7"/>
     </row>
     <row r="77" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I77" s="638" t="s">
+      <c r="I77" s="602" t="s">
         <v>610</v>
       </c>
-      <c r="J77" s="639"/>
-      <c r="K77" s="640">
+      <c r="J77" s="603"/>
+      <c r="K77" s="606">
         <v>-383122.22</v>
       </c>
-      <c r="L77" s="641"/>
+      <c r="L77" s="607"/>
       <c r="R77" s="7"/>
       <c r="S77" s="7"/>
     </row>
@@ -27518,10 +27636,10 @@
       <c r="C78" s="128"/>
       <c r="D78" s="129"/>
       <c r="E78" s="7"/>
-      <c r="I78" s="642"/>
-      <c r="J78" s="643"/>
-      <c r="K78" s="644"/>
-      <c r="L78" s="645"/>
+      <c r="I78" s="604"/>
+      <c r="J78" s="605"/>
+      <c r="K78" s="608"/>
+      <c r="L78" s="609"/>
       <c r="M78" s="2"/>
       <c r="N78" s="60"/>
       <c r="O78" s="165"/>
@@ -27573,7 +27691,7 @@
       <c r="C81" s="130"/>
       <c r="E81" s="7"/>
       <c r="M81" s="4"/>
-      <c r="AC81" s="567"/>
+      <c r="AC81" s="581"/>
       <c r="AD81" s="440"/>
       <c r="AE81" s="440"/>
       <c r="AF81" s="440"/>
@@ -27586,7 +27704,7 @@
       <c r="E82" s="7"/>
       <c r="F82" s="273"/>
       <c r="M82" s="4"/>
-      <c r="AC82" s="567"/>
+      <c r="AC82" s="581"/>
       <c r="AD82" s="440"/>
       <c r="AE82" s="440"/>
       <c r="AF82" s="440"/>
@@ -27680,6 +27798,28 @@
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="AC81:AC82"/>
+    <mergeCell ref="K73:L73"/>
+    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="I75:J75"/>
+    <mergeCell ref="K75:L75"/>
+    <mergeCell ref="I77:J78"/>
+    <mergeCell ref="K77:L78"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="I71:J71"/>
+    <mergeCell ref="K71:L71"/>
+    <mergeCell ref="AE23:AF23"/>
+    <mergeCell ref="AE25:AF26"/>
+    <mergeCell ref="H69:I69"/>
+    <mergeCell ref="K69:L69"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="R70:S70"/>
+    <mergeCell ref="M57:M58"/>
+    <mergeCell ref="M60:N60"/>
+    <mergeCell ref="M62:N63"/>
+    <mergeCell ref="M39:M40"/>
+    <mergeCell ref="N39:N40"/>
+    <mergeCell ref="M44:N44"/>
     <mergeCell ref="AG25:AG26"/>
     <mergeCell ref="AB29:AB30"/>
     <mergeCell ref="AC29:AC30"/>
@@ -27695,28 +27835,6 @@
     <mergeCell ref="AE4:AG4"/>
     <mergeCell ref="Q3:Q4"/>
     <mergeCell ref="S3:S4"/>
-    <mergeCell ref="D71:E71"/>
-    <mergeCell ref="I71:J71"/>
-    <mergeCell ref="K71:L71"/>
-    <mergeCell ref="AE23:AF23"/>
-    <mergeCell ref="AE25:AF26"/>
-    <mergeCell ref="H69:I69"/>
-    <mergeCell ref="K69:L69"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="R70:S70"/>
-    <mergeCell ref="M57:M58"/>
-    <mergeCell ref="M60:N60"/>
-    <mergeCell ref="M62:N63"/>
-    <mergeCell ref="M39:M40"/>
-    <mergeCell ref="N39:N40"/>
-    <mergeCell ref="M44:N44"/>
-    <mergeCell ref="AC81:AC82"/>
-    <mergeCell ref="K73:L73"/>
-    <mergeCell ref="D75:E75"/>
-    <mergeCell ref="I75:J75"/>
-    <mergeCell ref="K75:L75"/>
-    <mergeCell ref="I77:J78"/>
-    <mergeCell ref="K77:L78"/>
   </mergeCells>
   <pageMargins left="0.35433070866141736" right="0.27559055118110237" top="0.27559055118110237" bottom="0.31496062992125984" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="90" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -27732,8 +27850,8 @@
   </sheetPr>
   <dimension ref="A1:G134"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="F113" sqref="F113"/>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29363,8 +29481,8 @@
   </sheetPr>
   <dimension ref="A1:AG97"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="G7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I43" sqref="I43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -29399,20 +29517,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="565" t="s">
+      <c r="B1" s="582" t="s">
         <v>529</v>
       </c>
-      <c r="C1" s="522" t="s">
-        <v>725</v>
-      </c>
-      <c r="D1" s="522"/>
-      <c r="E1" s="522"/>
-      <c r="F1" s="522"/>
-      <c r="G1" s="522"/>
-      <c r="H1" s="522"/>
-      <c r="I1" s="522"/>
-      <c r="J1" s="522"/>
-      <c r="K1" s="522"/>
+      <c r="C1" s="534" t="s">
+        <v>721</v>
+      </c>
+      <c r="D1" s="534"/>
+      <c r="E1" s="534"/>
+      <c r="F1" s="534"/>
+      <c r="G1" s="534"/>
+      <c r="H1" s="534"/>
+      <c r="I1" s="534"/>
+      <c r="J1" s="534"/>
+      <c r="K1" s="534"/>
       <c r="L1" s="2"/>
       <c r="M1" s="3"/>
       <c r="W1" s="209"/>
@@ -29422,7 +29540,7 @@
       <c r="Y1" s="206"/>
     </row>
     <row r="2" spans="1:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="566"/>
+      <c r="B2" s="583"/>
       <c r="C2" s="8"/>
       <c r="H2" s="10" t="s">
         <v>0</v>
@@ -29441,27 +29559,27 @@
       <c r="Y2" s="216" t="s">
         <v>28</v>
       </c>
-      <c r="AB2" s="578" t="s">
+      <c r="AB2" s="565" t="s">
         <v>596</v>
       </c>
-      <c r="AC2" s="578"/>
-      <c r="AD2" s="578"/>
-      <c r="AE2" s="578"/>
-      <c r="AF2" s="578"/>
-      <c r="AG2" s="578"/>
+      <c r="AC2" s="565"/>
+      <c r="AD2" s="565"/>
+      <c r="AE2" s="565"/>
+      <c r="AF2" s="565"/>
+      <c r="AG2" s="565"/>
     </row>
     <row r="3" spans="1:33" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="523" t="s">
+      <c r="B3" s="535" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="524"/>
+      <c r="C3" s="536"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="15"/>
-      <c r="H3" s="525" t="s">
+      <c r="H3" s="537" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="525"/>
+      <c r="I3" s="537"/>
       <c r="K3" s="17" t="s">
         <v>3</v>
       </c>
@@ -29469,13 +29587,16 @@
         <v>4</v>
       </c>
       <c r="M3" s="18"/>
-      <c r="P3" s="616" t="s">
+      <c r="O3" s="366" t="s">
+        <v>753</v>
+      </c>
+      <c r="P3" s="584" t="s">
         <v>663</v>
       </c>
-      <c r="Q3" s="618" t="s">
+      <c r="Q3" s="586" t="s">
         <v>665</v>
       </c>
-      <c r="S3" s="619"/>
+      <c r="S3" s="587"/>
       <c r="W3" s="213" t="s">
         <v>54</v>
       </c>
@@ -29485,12 +29606,12 @@
       <c r="Y3" s="198">
         <v>2000</v>
       </c>
-      <c r="AB3" s="578"/>
-      <c r="AC3" s="578"/>
-      <c r="AD3" s="578"/>
-      <c r="AE3" s="578"/>
-      <c r="AF3" s="578"/>
-      <c r="AG3" s="578"/>
+      <c r="AB3" s="565"/>
+      <c r="AC3" s="565"/>
+      <c r="AD3" s="565"/>
+      <c r="AE3" s="565"/>
+      <c r="AF3" s="565"/>
+      <c r="AG3" s="565"/>
     </row>
     <row r="4" spans="1:33" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="20" t="s">
@@ -29503,14 +29624,14 @@
       <c r="D4" s="23">
         <v>44410</v>
       </c>
-      <c r="E4" s="526" t="s">
+      <c r="E4" s="538" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="527"/>
-      <c r="H4" s="617" t="s">
+      <c r="F4" s="539"/>
+      <c r="H4" s="585" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="529"/>
+      <c r="I4" s="541"/>
       <c r="J4" s="24"/>
       <c r="K4" s="25"/>
       <c r="L4" s="26"/>
@@ -29518,13 +29639,13 @@
         <v>716</v>
       </c>
       <c r="N4" s="28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O4" s="99"/>
-      <c r="P4" s="616"/>
-      <c r="Q4" s="618"/>
+      <c r="P4" s="584"/>
+      <c r="Q4" s="586"/>
       <c r="R4" s="30"/>
-      <c r="S4" s="619"/>
+      <c r="S4" s="587"/>
       <c r="T4" s="30"/>
       <c r="U4" s="30"/>
       <c r="W4" s="213" t="s">
@@ -29536,39 +29657,42 @@
       <c r="Y4" s="217">
         <v>2000</v>
       </c>
-      <c r="AB4" s="579" t="s">
+      <c r="AB4" s="566" t="s">
         <v>527</v>
       </c>
-      <c r="AC4" s="580"/>
+      <c r="AC4" s="567"/>
       <c r="AD4" s="99"/>
-      <c r="AE4" s="581" t="s">
+      <c r="AE4" s="568" t="s">
         <v>567</v>
       </c>
-      <c r="AF4" s="581"/>
-      <c r="AG4" s="581"/>
+      <c r="AF4" s="568"/>
+      <c r="AG4" s="568"/>
     </row>
     <row r="5" spans="1:33" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="510">
+      <c r="B5" s="134">
         <v>44412</v>
       </c>
-      <c r="C5" s="511">
+      <c r="C5" s="36">
         <v>15548</v>
       </c>
-      <c r="D5" s="512"/>
-      <c r="E5" s="513">
+      <c r="D5" s="135" t="s">
+        <v>730</v>
+      </c>
+      <c r="E5" s="136">
         <v>44412</v>
       </c>
-      <c r="F5" s="514">
-        <v>86787</v>
-      </c>
-      <c r="G5" s="515"/>
-      <c r="H5" s="516">
+      <c r="F5" s="37">
+        <f>74282</f>
+        <v>74282</v>
+      </c>
+      <c r="G5" s="137"/>
+      <c r="H5" s="441">
         <v>44412</v>
       </c>
-      <c r="I5" s="517">
+      <c r="I5" s="38">
         <v>440</v>
       </c>
       <c r="J5" s="442"/>
@@ -29583,15 +29707,17 @@
       <c r="O5" s="492">
         <v>44412</v>
       </c>
-      <c r="P5" s="398"/>
+      <c r="P5" s="389">
+        <v>12505</v>
+      </c>
       <c r="Q5" s="446"/>
       <c r="R5" s="7">
         <f>C5+I5+M5+N5+L5</f>
         <v>86787</v>
       </c>
-      <c r="S5" s="6">
+      <c r="S5" s="201">
         <f t="shared" ref="S5:S35" si="0">R5-F5</f>
-        <v>0</v>
+        <v>12505</v>
       </c>
       <c r="T5" s="7"/>
       <c r="W5" s="213" t="s">
@@ -29616,24 +29742,27 @@
     </row>
     <row r="6" spans="1:33" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="34"/>
-      <c r="B6" s="510">
+      <c r="B6" s="134">
         <v>44413</v>
       </c>
-      <c r="C6" s="511">
+      <c r="C6" s="36">
         <v>3415</v>
       </c>
-      <c r="D6" s="518"/>
-      <c r="E6" s="513">
+      <c r="D6" s="139" t="s">
+        <v>731</v>
+      </c>
+      <c r="E6" s="136">
         <v>44413</v>
       </c>
-      <c r="F6" s="514">
-        <v>140659</v>
-      </c>
-      <c r="G6" s="515"/>
-      <c r="H6" s="519">
+      <c r="F6" s="37">
+        <f>139225</f>
+        <v>139225</v>
+      </c>
+      <c r="G6" s="137"/>
+      <c r="H6" s="138">
         <v>44413</v>
       </c>
-      <c r="I6" s="517">
+      <c r="I6" s="38">
         <v>6288</v>
       </c>
       <c r="J6" s="52"/>
@@ -29649,7 +29778,7 @@
         <v>44413</v>
       </c>
       <c r="P6" s="389">
-        <v>0</v>
+        <v>1434</v>
       </c>
       <c r="Q6" s="447">
         <v>0</v>
@@ -29658,9 +29787,9 @@
         <f>C6+I6+M6+N6+L6</f>
         <v>140659</v>
       </c>
-      <c r="S6" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="S6" s="201">
+        <f t="shared" si="0"/>
+        <v>1434</v>
       </c>
       <c r="T6" s="48"/>
       <c r="W6" s="213" t="s">
@@ -29691,31 +29820,34 @@
     </row>
     <row r="7" spans="1:33" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="34"/>
-      <c r="B7" s="510">
+      <c r="B7" s="134">
         <v>44414</v>
       </c>
-      <c r="C7" s="511">
+      <c r="C7" s="36">
         <v>5566</v>
       </c>
-      <c r="D7" s="520"/>
-      <c r="E7" s="513">
+      <c r="D7" s="140" t="s">
+        <v>734</v>
+      </c>
+      <c r="E7" s="136">
         <v>44414</v>
       </c>
-      <c r="F7" s="514">
-        <v>124058</v>
-      </c>
-      <c r="G7" s="515"/>
-      <c r="H7" s="519">
+      <c r="F7" s="37">
+        <f>101249+17549+1756</f>
+        <v>120554</v>
+      </c>
+      <c r="G7" s="137"/>
+      <c r="H7" s="138">
         <v>44414</v>
       </c>
-      <c r="I7" s="517">
+      <c r="I7" s="38">
         <v>2550</v>
       </c>
       <c r="J7" s="52">
         <v>44414</v>
       </c>
-      <c r="K7" s="171" t="s">
-        <v>726</v>
+      <c r="K7" s="510" t="s">
+        <v>722</v>
       </c>
       <c r="L7" s="46">
         <v>10000</v>
@@ -29730,7 +29862,7 @@
         <v>44414</v>
       </c>
       <c r="P7" s="389">
-        <v>0</v>
+        <v>3504</v>
       </c>
       <c r="Q7" s="447">
         <v>0</v>
@@ -29739,9 +29871,9 @@
         <f>C7+I7+M7+N7+L7</f>
         <v>124058</v>
       </c>
-      <c r="S7" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="S7" s="201">
+        <f t="shared" si="0"/>
+        <v>3504</v>
       </c>
       <c r="T7" s="50"/>
       <c r="W7" s="213" t="s">
@@ -29772,35 +29904,38 @@
     </row>
     <row r="8" spans="1:33" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="34"/>
-      <c r="B8" s="510">
+      <c r="B8" s="134">
         <v>44415</v>
       </c>
-      <c r="C8" s="511">
+      <c r="C8" s="36">
         <v>6561</v>
       </c>
-      <c r="D8" s="521"/>
-      <c r="E8" s="513">
+      <c r="D8" s="141" t="s">
+        <v>741</v>
+      </c>
+      <c r="E8" s="136">
         <v>44415</v>
       </c>
-      <c r="F8" s="514">
+      <c r="F8" s="37">
+        <f>138304+9658</f>
         <v>147962</v>
       </c>
-      <c r="G8" s="515"/>
-      <c r="H8" s="519">
+      <c r="G8" s="137"/>
+      <c r="H8" s="138">
         <v>44415</v>
       </c>
-      <c r="I8" s="517">
+      <c r="I8" s="38">
         <v>625</v>
       </c>
-      <c r="J8" s="291">
+      <c r="J8" s="292">
         <v>44415</v>
       </c>
       <c r="K8" s="158" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="L8" s="46">
-        <f>16714+400</f>
-        <v>17114</v>
+        <f>23627.01+400</f>
+        <v>24027.01</v>
       </c>
       <c r="M8" s="444">
         <v>102761</v>
@@ -29815,15 +29950,15 @@
         <v>0</v>
       </c>
       <c r="Q8" s="447">
-        <v>0</v>
+        <v>6913.01</v>
       </c>
       <c r="R8" s="7">
         <f t="shared" ref="R8:R38" si="1">C8+I8+M8+N8+L8</f>
-        <v>147962</v>
-      </c>
-      <c r="S8" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>154875.01</v>
+      </c>
+      <c r="S8" s="202">
+        <f t="shared" si="0"/>
+        <v>6913.0100000000093</v>
       </c>
       <c r="T8" s="58"/>
       <c r="W8" s="213" t="s">
@@ -29854,24 +29989,27 @@
     </row>
     <row r="9" spans="1:33" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="34"/>
-      <c r="B9" s="510">
+      <c r="B9" s="134">
         <v>44416</v>
       </c>
-      <c r="C9" s="511">
+      <c r="C9" s="36">
         <v>17799</v>
       </c>
-      <c r="D9" s="521"/>
-      <c r="E9" s="513">
+      <c r="D9" s="141" t="s">
+        <v>750</v>
+      </c>
+      <c r="E9" s="136">
         <v>44416</v>
       </c>
-      <c r="F9" s="514">
+      <c r="F9" s="37">
+        <f>107207+20459</f>
         <v>127666</v>
       </c>
-      <c r="G9" s="515"/>
-      <c r="H9" s="519">
+      <c r="G9" s="137"/>
+      <c r="H9" s="138">
         <v>44416</v>
       </c>
-      <c r="I9" s="517">
+      <c r="I9" s="38">
         <v>725</v>
       </c>
       <c r="J9" s="52"/>
@@ -29893,7 +30031,7 @@
         <v>0</v>
       </c>
       <c r="R9" s="7">
-        <f t="shared" si="1"/>
+        <f>C9+I9+M9+N9+L9</f>
         <v>127666</v>
       </c>
       <c r="S9" s="6">
@@ -29929,24 +30067,27 @@
     </row>
     <row r="10" spans="1:33" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="34"/>
-      <c r="B10" s="510">
+      <c r="B10" s="134">
         <v>44417</v>
       </c>
-      <c r="C10" s="511">
+      <c r="C10" s="36">
         <v>5362</v>
       </c>
-      <c r="D10" s="520"/>
-      <c r="E10" s="513">
+      <c r="D10" s="140" t="s">
+        <v>751</v>
+      </c>
+      <c r="E10" s="136">
         <v>44417</v>
       </c>
-      <c r="F10" s="514">
-        <v>141769</v>
-      </c>
-      <c r="G10" s="515"/>
-      <c r="H10" s="519">
+      <c r="F10" s="37">
+        <f>93519+1203+45334</f>
+        <v>140056</v>
+      </c>
+      <c r="G10" s="137"/>
+      <c r="H10" s="138">
         <v>44417</v>
       </c>
-      <c r="I10" s="517">
+      <c r="I10" s="38">
         <v>645</v>
       </c>
       <c r="J10" s="52"/>
@@ -29962,7 +30103,7 @@
         <v>44417</v>
       </c>
       <c r="P10" s="389">
-        <v>0</v>
+        <v>1713</v>
       </c>
       <c r="Q10" s="447">
         <v>0</v>
@@ -29971,9 +30112,9 @@
         <f t="shared" si="1"/>
         <v>141769</v>
       </c>
-      <c r="S10" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="S10" s="201">
+        <f t="shared" si="0"/>
+        <v>1713</v>
       </c>
       <c r="T10" s="54"/>
       <c r="W10" s="213" t="s">
@@ -30004,24 +30145,27 @@
     </row>
     <row r="11" spans="1:33" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="34"/>
-      <c r="B11" s="510">
+      <c r="B11" s="134">
         <v>44418</v>
       </c>
-      <c r="C11" s="511">
+      <c r="C11" s="36">
         <v>6832</v>
       </c>
-      <c r="D11" s="518"/>
-      <c r="E11" s="513">
+      <c r="D11" s="139" t="s">
+        <v>752</v>
+      </c>
+      <c r="E11" s="136">
         <v>44418</v>
       </c>
-      <c r="F11" s="514">
+      <c r="F11" s="37">
+        <f>67444+52793</f>
         <v>120237</v>
       </c>
-      <c r="G11" s="515"/>
-      <c r="H11" s="519">
+      <c r="G11" s="137"/>
+      <c r="H11" s="138">
         <v>44418</v>
       </c>
-      <c r="I11" s="517">
+      <c r="I11" s="38">
         <v>877</v>
       </c>
       <c r="J11" s="292"/>
@@ -30079,24 +30223,27 @@
     </row>
     <row r="12" spans="1:33" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="34"/>
-      <c r="B12" s="510">
+      <c r="B12" s="134">
         <v>44419</v>
       </c>
-      <c r="C12" s="511">
+      <c r="C12" s="36">
         <v>15502</v>
       </c>
-      <c r="D12" s="518"/>
-      <c r="E12" s="513">
+      <c r="D12" s="139" t="s">
+        <v>758</v>
+      </c>
+      <c r="E12" s="136">
         <v>44419</v>
       </c>
-      <c r="F12" s="514">
-        <v>93735</v>
-      </c>
-      <c r="G12" s="515"/>
-      <c r="H12" s="519">
+      <c r="F12" s="37">
+        <f>78854+10700</f>
+        <v>89554</v>
+      </c>
+      <c r="G12" s="137"/>
+      <c r="H12" s="138">
         <v>44419</v>
       </c>
-      <c r="I12" s="517">
+      <c r="I12" s="38">
         <v>2440</v>
       </c>
       <c r="J12" s="52"/>
@@ -30113,7 +30260,7 @@
         <v>44419</v>
       </c>
       <c r="P12" s="389">
-        <v>0</v>
+        <v>4181</v>
       </c>
       <c r="Q12" s="447">
         <v>0</v>
@@ -30122,9 +30269,9 @@
         <f>C12+M12+N12+I12</f>
         <v>93735</v>
       </c>
-      <c r="S12" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="S12" s="201">
+        <f t="shared" si="0"/>
+        <v>4181</v>
       </c>
       <c r="T12" s="56"/>
       <c r="W12" s="213" t="s">
@@ -30155,25 +30302,28 @@
     </row>
     <row r="13" spans="1:33" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="34"/>
-      <c r="B13" s="510">
+      <c r="B13" s="134">
         <v>44420</v>
       </c>
-      <c r="C13" s="511">
+      <c r="C13" s="36">
         <v>8239</v>
       </c>
-      <c r="D13" s="521"/>
-      <c r="E13" s="513">
+      <c r="D13" s="141" t="s">
+        <v>763</v>
+      </c>
+      <c r="E13" s="136">
         <v>44420</v>
       </c>
-      <c r="F13" s="514">
+      <c r="F13" s="37">
+        <f>74943+40103</f>
         <v>115046</v>
       </c>
-      <c r="G13" s="515"/>
-      <c r="H13" s="519">
+      <c r="G13" s="137"/>
+      <c r="H13" s="138">
         <v>44420</v>
       </c>
-      <c r="I13" s="517">
-        <v>440</v>
+      <c r="I13" s="38">
+        <v>3</v>
       </c>
       <c r="J13" s="52"/>
       <c r="K13" s="171"/>
@@ -30195,11 +30345,11 @@
       </c>
       <c r="R13" s="7">
         <f>C13+I13+M13+N13+L13</f>
-        <v>115046</v>
+        <v>114609</v>
       </c>
       <c r="S13" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-437</v>
       </c>
       <c r="T13" s="48"/>
       <c r="W13" s="213" t="s">
@@ -30230,31 +30380,34 @@
     </row>
     <row r="14" spans="1:33" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="34"/>
-      <c r="B14" s="510">
+      <c r="B14" s="134">
         <v>44421</v>
       </c>
-      <c r="C14" s="511">
+      <c r="C14" s="36">
         <v>14567</v>
       </c>
-      <c r="D14" s="520"/>
-      <c r="E14" s="513">
+      <c r="D14" s="140" t="s">
+        <v>768</v>
+      </c>
+      <c r="E14" s="136">
         <v>44421</v>
       </c>
-      <c r="F14" s="514">
+      <c r="F14" s="37">
+        <f>122489+14227</f>
         <v>136716</v>
       </c>
-      <c r="G14" s="515"/>
-      <c r="H14" s="519">
+      <c r="G14" s="137"/>
+      <c r="H14" s="138">
         <v>44421</v>
       </c>
-      <c r="I14" s="517">
+      <c r="I14" s="38">
         <v>4025</v>
       </c>
       <c r="J14" s="52">
         <v>44421</v>
       </c>
       <c r="K14" s="158" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="L14" s="46">
         <v>10000</v>
@@ -30311,35 +30464,37 @@
     </row>
     <row r="15" spans="1:33" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="34"/>
-      <c r="B15" s="510">
+      <c r="B15" s="134">
         <v>44422</v>
       </c>
-      <c r="C15" s="511">
+      <c r="C15" s="36">
         <v>10794</v>
       </c>
-      <c r="D15" s="518"/>
-      <c r="E15" s="513">
+      <c r="D15" s="139" t="s">
+        <v>769</v>
+      </c>
+      <c r="E15" s="136">
         <v>44422</v>
       </c>
-      <c r="F15" s="514">
+      <c r="F15" s="37">
         <v>190321</v>
       </c>
-      <c r="G15" s="515"/>
-      <c r="H15" s="519">
+      <c r="G15" s="137"/>
+      <c r="H15" s="138">
         <v>44422</v>
       </c>
-      <c r="I15" s="517">
+      <c r="I15" s="38">
         <v>750</v>
       </c>
       <c r="J15" s="52">
         <v>44422</v>
       </c>
       <c r="K15" s="158" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="L15" s="46">
-        <f>16156.91+400</f>
-        <v>16556.91</v>
+        <f>23069.87+400</f>
+        <v>23469.87</v>
       </c>
       <c r="M15" s="444">
         <v>150946.09</v>
@@ -30354,15 +30509,15 @@
         <v>0</v>
       </c>
       <c r="Q15" s="447">
-        <v>0</v>
+        <v>6912.96</v>
       </c>
       <c r="R15" s="7">
         <f t="shared" si="1"/>
-        <v>190321</v>
-      </c>
-      <c r="S15" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>197233.96</v>
+      </c>
+      <c r="S15" s="202">
+        <f t="shared" si="0"/>
+        <v>6912.9599999999919</v>
       </c>
       <c r="T15" s="58"/>
       <c r="W15" s="213" t="s">
@@ -30389,24 +30544,26 @@
     </row>
     <row r="16" spans="1:33" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="34"/>
-      <c r="B16" s="510">
+      <c r="B16" s="134">
         <v>44423</v>
       </c>
-      <c r="C16" s="511">
+      <c r="C16" s="36">
         <v>10602</v>
       </c>
-      <c r="D16" s="518"/>
-      <c r="E16" s="513">
+      <c r="D16" s="139" t="s">
+        <v>152</v>
+      </c>
+      <c r="E16" s="136">
         <v>44423</v>
       </c>
-      <c r="F16" s="514">
-        <v>153985</v>
-      </c>
-      <c r="G16" s="515"/>
-      <c r="H16" s="519">
+      <c r="F16" s="37">
+        <v>149507</v>
+      </c>
+      <c r="G16" s="137"/>
+      <c r="H16" s="138">
         <v>44423</v>
       </c>
-      <c r="I16" s="517">
+      <c r="I16" s="38">
         <v>800</v>
       </c>
       <c r="J16" s="52"/>
@@ -30422,7 +30579,7 @@
         <v>44423</v>
       </c>
       <c r="P16" s="389">
-        <v>0</v>
+        <v>4478</v>
       </c>
       <c r="Q16" s="447">
         <v>0</v>
@@ -30431,9 +30588,9 @@
         <f t="shared" si="1"/>
         <v>153985</v>
       </c>
-      <c r="S16" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="S16" s="201">
+        <f t="shared" si="0"/>
+        <v>4478</v>
       </c>
       <c r="T16" s="58"/>
       <c r="W16" s="213" t="s">
@@ -30464,24 +30621,26 @@
     </row>
     <row r="17" spans="1:33" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="34"/>
-      <c r="B17" s="510">
+      <c r="B17" s="134">
         <v>44424</v>
       </c>
-      <c r="C17" s="511">
+      <c r="C17" s="36">
         <v>10320</v>
       </c>
-      <c r="D17" s="521"/>
-      <c r="E17" s="513">
+      <c r="D17" s="141" t="s">
+        <v>770</v>
+      </c>
+      <c r="E17" s="136">
         <v>44424</v>
       </c>
-      <c r="F17" s="514">
+      <c r="F17" s="37">
         <v>135496</v>
       </c>
-      <c r="G17" s="515"/>
-      <c r="H17" s="519">
+      <c r="G17" s="137"/>
+      <c r="H17" s="138">
         <v>44424</v>
       </c>
-      <c r="I17" s="517">
+      <c r="I17" s="38">
         <v>840</v>
       </c>
       <c r="J17" s="52"/>
@@ -30540,24 +30699,26 @@
     </row>
     <row r="18" spans="1:33" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="34"/>
-      <c r="B18" s="510">
+      <c r="B18" s="134">
         <v>44425</v>
       </c>
-      <c r="C18" s="511">
+      <c r="C18" s="36">
         <v>4381</v>
       </c>
-      <c r="D18" s="518"/>
-      <c r="E18" s="513">
+      <c r="D18" s="139" t="s">
+        <v>773</v>
+      </c>
+      <c r="E18" s="136">
         <v>44425</v>
       </c>
-      <c r="F18" s="514">
+      <c r="F18" s="37">
         <v>83493</v>
       </c>
-      <c r="G18" s="515"/>
-      <c r="H18" s="519">
+      <c r="G18" s="137"/>
+      <c r="H18" s="138">
         <v>44425</v>
       </c>
-      <c r="I18" s="517">
+      <c r="I18" s="38">
         <v>630</v>
       </c>
       <c r="J18" s="52"/>
@@ -30615,24 +30776,24 @@
     </row>
     <row r="19" spans="1:33" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="34"/>
-      <c r="B19" s="510">
+      <c r="B19" s="134">
         <v>44426</v>
       </c>
-      <c r="C19" s="511">
-        <v>0</v>
-      </c>
-      <c r="D19" s="518"/>
-      <c r="E19" s="513">
+      <c r="C19" s="36">
+        <v>0</v>
+      </c>
+      <c r="D19" s="139"/>
+      <c r="E19" s="136">
         <v>44426</v>
       </c>
-      <c r="F19" s="514">
-        <v>0</v>
-      </c>
-      <c r="G19" s="515"/>
-      <c r="H19" s="519">
+      <c r="F19" s="37">
+        <v>0</v>
+      </c>
+      <c r="G19" s="137"/>
+      <c r="H19" s="138">
         <v>44426</v>
       </c>
-      <c r="I19" s="517">
+      <c r="I19" s="38">
         <v>0</v>
       </c>
       <c r="J19" s="52"/>
@@ -30962,10 +31123,10 @@
         <v>0</v>
       </c>
       <c r="AD23" s="99"/>
-      <c r="AE23" s="586" t="s">
+      <c r="AE23" s="573" t="s">
         <v>564</v>
       </c>
-      <c r="AF23" s="587"/>
+      <c r="AF23" s="574"/>
       <c r="AG23" s="339">
         <f>SUM(AG6:AG22)</f>
         <v>2323600</v>
@@ -31097,11 +31258,11 @@
         <v>138607</v>
       </c>
       <c r="AD25" s="99"/>
-      <c r="AE25" s="588" t="s">
+      <c r="AE25" s="575" t="s">
         <v>565</v>
       </c>
-      <c r="AF25" s="589"/>
-      <c r="AG25" s="592">
+      <c r="AF25" s="576"/>
+      <c r="AG25" s="579">
         <f>AC29-AG23</f>
         <v>163726</v>
       </c>
@@ -31169,9 +31330,9 @@
         <v>107480</v>
       </c>
       <c r="AD26" s="99"/>
-      <c r="AE26" s="590"/>
-      <c r="AF26" s="591"/>
-      <c r="AG26" s="593"/>
+      <c r="AE26" s="577"/>
+      <c r="AF26" s="578"/>
+      <c r="AG26" s="580"/>
     </row>
     <row r="27" spans="1:33" ht="21.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="34"/>
@@ -31355,10 +31516,10 @@
       </c>
       <c r="X29" s="220"/>
       <c r="Y29" s="218"/>
-      <c r="AB29" s="582" t="s">
+      <c r="AB29" s="569" t="s">
         <v>562</v>
       </c>
-      <c r="AC29" s="584">
+      <c r="AC29" s="571">
         <f>SUM(AC5:AC28)</f>
         <v>2487326</v>
       </c>
@@ -31419,8 +31580,8 @@
       </c>
       <c r="X30" s="221"/>
       <c r="Y30" s="207"/>
-      <c r="AB30" s="583"/>
-      <c r="AC30" s="585"/>
+      <c r="AB30" s="570"/>
+      <c r="AC30" s="572"/>
       <c r="AD30" s="99"/>
       <c r="AE30" s="99"/>
       <c r="AF30" s="99"/>
@@ -31857,11 +32018,11 @@
       <c r="J39" s="233"/>
       <c r="K39" s="361"/>
       <c r="L39" s="357"/>
-      <c r="M39" s="611">
+      <c r="M39" s="596">
         <f>SUM(M5:M38)</f>
         <v>1464800.09</v>
       </c>
-      <c r="N39" s="613">
+      <c r="N39" s="598">
         <f>SUM(N5:N38)</f>
         <v>121896</v>
       </c>
@@ -31870,7 +32031,7 @@
       <c r="Q39" s="7"/>
       <c r="R39" s="7">
         <f>SUM(R5:R38)</f>
-        <v>1797930</v>
+        <v>1811318.97</v>
       </c>
       <c r="S39" s="6">
         <v>0</v>
@@ -31903,8 +32064,8 @@
       <c r="J40" s="233"/>
       <c r="K40" s="144"/>
       <c r="L40" s="357"/>
-      <c r="M40" s="612"/>
-      <c r="N40" s="614"/>
+      <c r="M40" s="597"/>
+      <c r="N40" s="599"/>
       <c r="O40" s="392"/>
       <c r="P40" s="7"/>
       <c r="Q40" s="7"/>
@@ -32048,10 +32209,10 @@
       <c r="J44" s="233"/>
       <c r="K44" s="228"/>
       <c r="L44" s="358"/>
-      <c r="M44" s="615" t="s">
+      <c r="M44" s="600" t="s">
         <v>567</v>
       </c>
-      <c r="N44" s="615"/>
+      <c r="N44" s="600"/>
       <c r="O44" s="392"/>
       <c r="P44" s="7"/>
       <c r="Q44" s="7"/>
@@ -32086,11 +32247,11 @@
       <c r="J45" s="233"/>
       <c r="K45" s="228"/>
       <c r="L45" s="358"/>
-      <c r="M45" s="479">
-        <v>4046</v>
+      <c r="M45" s="636">
+        <v>330120</v>
       </c>
       <c r="N45" s="473">
-        <v>44410</v>
+        <v>44417</v>
       </c>
       <c r="P45" s="7"/>
       <c r="Q45" s="7"/>
@@ -32123,10 +32284,10 @@
       <c r="K46" s="168"/>
       <c r="L46" s="66"/>
       <c r="M46" s="480">
-        <v>457</v>
+        <v>300000</v>
       </c>
       <c r="N46" s="473">
-        <v>44417</v>
+        <v>44419</v>
       </c>
       <c r="P46" s="7"/>
       <c r="Q46" s="7"/>
@@ -32159,10 +32320,10 @@
       <c r="K47" s="144"/>
       <c r="L47" s="66"/>
       <c r="M47" s="480">
-        <v>135</v>
+        <v>324890</v>
       </c>
       <c r="N47" s="473">
-        <v>44417</v>
+        <v>44421</v>
       </c>
       <c r="P47" s="7"/>
       <c r="Q47" s="7"/>
@@ -32192,10 +32353,10 @@
       <c r="K48" s="144"/>
       <c r="L48" s="66"/>
       <c r="M48" s="481">
-        <v>330120</v>
+        <v>159870</v>
       </c>
       <c r="N48" s="474">
-        <v>44417</v>
+        <v>44424</v>
       </c>
       <c r="P48" s="7"/>
       <c r="Q48" s="7"/>
@@ -32225,10 +32386,10 @@
       <c r="K49" s="144"/>
       <c r="L49" s="66"/>
       <c r="M49" s="482">
-        <v>894</v>
+        <v>384800</v>
       </c>
       <c r="N49" s="474">
-        <v>44418</v>
+        <v>44426</v>
       </c>
       <c r="P49" s="7"/>
       <c r="Q49" s="7"/>
@@ -32259,10 +32420,10 @@
       <c r="K50" s="144"/>
       <c r="L50" s="66"/>
       <c r="M50" s="482">
-        <v>300000</v>
+        <v>177370</v>
       </c>
       <c r="N50" s="473">
-        <v>44419</v>
+        <v>44427</v>
       </c>
       <c r="P50" s="7"/>
       <c r="Q50" s="7"/>
@@ -32292,12 +32453,10 @@
       <c r="J51" s="233"/>
       <c r="K51" s="144"/>
       <c r="L51" s="66"/>
-      <c r="M51" s="482">
-        <v>324890</v>
-      </c>
-      <c r="N51" s="473">
-        <v>44421</v>
-      </c>
+      <c r="M51" s="637">
+        <v>0</v>
+      </c>
+      <c r="N51" s="473"/>
       <c r="P51" s="7"/>
       <c r="Q51" s="7"/>
       <c r="R51" s="7"/>
@@ -32329,11 +32488,9 @@
       <c r="K52" s="144"/>
       <c r="L52" s="66"/>
       <c r="M52" s="482">
-        <v>159870</v>
-      </c>
-      <c r="N52" s="473">
-        <v>44424</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N52" s="473"/>
       <c r="P52" s="7"/>
       <c r="Q52" s="7"/>
       <c r="R52" s="7"/>
@@ -32367,11 +32524,9 @@
       <c r="K53" s="168"/>
       <c r="L53" s="66"/>
       <c r="M53" s="482">
-        <v>105</v>
-      </c>
-      <c r="N53" s="473">
-        <v>44424</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N53" s="473"/>
       <c r="P53" s="7"/>
       <c r="Q53" s="7"/>
       <c r="R53" s="7"/>
@@ -32403,11 +32558,9 @@
       <c r="K54" s="457"/>
       <c r="L54" s="66"/>
       <c r="M54" s="482">
-        <v>384800</v>
-      </c>
-      <c r="N54" s="473">
-        <v>44426</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N54" s="473"/>
       <c r="P54" s="7"/>
       <c r="Q54" s="7"/>
       <c r="R54" s="7"/>
@@ -32439,11 +32592,9 @@
       <c r="K55" s="144"/>
       <c r="L55" s="66"/>
       <c r="M55" s="483">
-        <v>177370</v>
-      </c>
-      <c r="N55" s="475">
-        <v>44427</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N55" s="475"/>
       <c r="O55" s="392"/>
       <c r="P55" s="7"/>
       <c r="Q55" s="7"/>
@@ -32506,9 +32657,9 @@
       <c r="J57" s="325"/>
       <c r="K57" s="359"/>
       <c r="L57" s="458"/>
-      <c r="M57" s="603">
+      <c r="M57" s="588">
         <f>SUM(M45:M56)</f>
-        <v>1682687</v>
+        <v>1677050</v>
       </c>
       <c r="N57" s="476"/>
       <c r="O57" s="392"/>
@@ -32540,7 +32691,7 @@
       <c r="J58" s="325"/>
       <c r="K58" s="457"/>
       <c r="L58" s="458"/>
-      <c r="M58" s="604"/>
+      <c r="M58" s="589"/>
       <c r="N58" s="476"/>
       <c r="O58" s="392"/>
       <c r="P58" s="7"/>
@@ -32602,10 +32753,10 @@
       <c r="J60" s="325"/>
       <c r="K60" s="467"/>
       <c r="L60" s="458"/>
-      <c r="M60" s="605" t="s">
-        <v>721</v>
-      </c>
-      <c r="N60" s="606"/>
+      <c r="M60" s="590" t="s">
+        <v>719</v>
+      </c>
+      <c r="N60" s="591"/>
       <c r="O60" s="392"/>
       <c r="P60" s="7"/>
       <c r="Q60" s="7"/>
@@ -32666,11 +32817,11 @@
       <c r="J62" s="325"/>
       <c r="K62" s="359"/>
       <c r="L62" s="458"/>
-      <c r="M62" s="620">
+      <c r="M62" s="610">
         <f>M57-M39</f>
-        <v>217886.90999999992</v>
-      </c>
-      <c r="N62" s="621"/>
+        <v>212249.90999999992</v>
+      </c>
+      <c r="N62" s="611"/>
       <c r="O62" s="392"/>
       <c r="P62" s="7"/>
       <c r="Q62" s="7"/>
@@ -32700,8 +32851,8 @@
       <c r="J63" s="325"/>
       <c r="K63" s="359"/>
       <c r="L63" s="458"/>
-      <c r="M63" s="622"/>
-      <c r="N63" s="623"/>
+      <c r="M63" s="612"/>
+      <c r="N63" s="613"/>
       <c r="O63" s="392"/>
       <c r="P63" s="7"/>
       <c r="Q63" s="7"/>
@@ -32829,7 +32980,7 @@
       </c>
       <c r="F67" s="89">
         <f>SUM(F5:F66)</f>
-        <v>1797930</v>
+        <v>1770115</v>
       </c>
       <c r="G67" s="87"/>
       <c r="H67" s="90" t="s">
@@ -32837,7 +32988,7 @@
       </c>
       <c r="I67" s="91">
         <f>SUM(I5:I66)</f>
-        <v>22075</v>
+        <v>21638</v>
       </c>
       <c r="J67" s="92"/>
       <c r="K67" s="93" t="s">
@@ -32845,7 +32996,7 @@
       </c>
       <c r="L67" s="94">
         <f>SUM(L5:L66)</f>
-        <v>53670.91</v>
+        <v>67496.87999999999</v>
       </c>
       <c r="M67" s="95"/>
       <c r="N67" s="95"/>
@@ -32853,11 +33004,11 @@
       <c r="Q67" s="366"/>
       <c r="R67" s="7">
         <f>SUM(R5:R66)</f>
-        <v>3595860</v>
+        <v>3622637.94</v>
       </c>
       <c r="S67" s="7">
         <f>SUM(S5:S66)</f>
-        <v>0</v>
+        <v>41203.97</v>
       </c>
       <c r="T67" s="97"/>
       <c r="W67" s="210"/>
@@ -32880,16 +33031,16 @@
       <c r="A69" s="60"/>
       <c r="B69" s="100"/>
       <c r="C69" s="4"/>
-      <c r="H69" s="530" t="s">
+      <c r="H69" s="521" t="s">
         <v>16</v>
       </c>
-      <c r="I69" s="531"/>
+      <c r="I69" s="522"/>
       <c r="J69" s="101"/>
-      <c r="K69" s="532">
+      <c r="K69" s="523">
         <f>I67+L67</f>
-        <v>75745.91</v>
-      </c>
-      <c r="L69" s="533"/>
+        <v>89134.87999999999</v>
+      </c>
+      <c r="L69" s="524"/>
       <c r="M69" s="471"/>
       <c r="N69" s="472"/>
       <c r="O69" s="490"/>
@@ -32906,40 +33057,40 @@
       <c r="AG69" s="327"/>
     </row>
     <row r="70" spans="1:33" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D70" s="542" t="s">
+      <c r="D70" s="533" t="s">
         <v>17</v>
       </c>
-      <c r="E70" s="542"/>
+      <c r="E70" s="533"/>
       <c r="F70" s="103">
         <f>F67-K69-C67</f>
-        <v>1586696.09</v>
+        <v>1545492.12</v>
       </c>
       <c r="I70" s="104"/>
       <c r="J70" s="105"/>
-      <c r="R70" s="543">
+      <c r="R70" s="512">
         <f>R67+S67</f>
-        <v>3595860</v>
-      </c>
-      <c r="S70" s="544"/>
+        <v>3663841.91</v>
+      </c>
+      <c r="S70" s="513"/>
       <c r="U70" s="50"/>
     </row>
     <row r="71" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D71" s="545" t="s">
+      <c r="D71" s="514" t="s">
         <v>502</v>
       </c>
-      <c r="E71" s="545"/>
+      <c r="E71" s="514"/>
       <c r="F71" s="95">
         <v>0</v>
       </c>
-      <c r="I71" s="546" t="s">
+      <c r="I71" s="515" t="s">
         <v>19</v>
       </c>
-      <c r="J71" s="547"/>
-      <c r="K71" s="548">
+      <c r="J71" s="516"/>
+      <c r="K71" s="517">
         <f>F73+F74+F75</f>
-        <v>1586696.09</v>
-      </c>
-      <c r="L71" s="549"/>
+        <v>1545492.12</v>
+      </c>
+      <c r="L71" s="518"/>
       <c r="R71" s="50"/>
       <c r="U71" s="107"/>
     </row>
@@ -32966,18 +33117,18 @@
       </c>
       <c r="F73" s="95">
         <f>SUM(F70:F72)</f>
-        <v>1586696.09</v>
+        <v>1545492.12</v>
       </c>
       <c r="H73" s="34"/>
       <c r="I73" s="114" t="s">
         <v>21</v>
       </c>
       <c r="J73" s="115"/>
-      <c r="K73" s="550">
+      <c r="K73" s="519">
         <f>-C4</f>
         <v>-250140.85</v>
       </c>
-      <c r="L73" s="594"/>
+      <c r="L73" s="601"/>
       <c r="R73" s="50"/>
       <c r="S73" s="7"/>
       <c r="U73" s="50"/>
@@ -32998,22 +33149,22 @@
     </row>
     <row r="75" spans="1:33" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C75" s="119"/>
-      <c r="D75" s="536" t="s">
+      <c r="D75" s="527" t="s">
         <v>24</v>
       </c>
-      <c r="E75" s="537"/>
+      <c r="E75" s="528"/>
       <c r="F75" s="120">
         <v>0</v>
       </c>
-      <c r="I75" s="538" t="s">
+      <c r="I75" s="529" t="s">
         <v>25</v>
       </c>
-      <c r="J75" s="539"/>
-      <c r="K75" s="540">
+      <c r="J75" s="530"/>
+      <c r="K75" s="531">
         <f>K71+K73</f>
-        <v>1336555.24</v>
-      </c>
-      <c r="L75" s="540"/>
+        <v>1295351.27</v>
+      </c>
+      <c r="L75" s="531"/>
       <c r="R75" s="50"/>
       <c r="S75" s="7"/>
       <c r="U75" s="121"/>
@@ -33028,14 +33179,14 @@
       <c r="S76" s="7"/>
     </row>
     <row r="77" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I77" s="595" t="s">
+      <c r="I77" s="614" t="s">
         <v>610</v>
       </c>
-      <c r="J77" s="596"/>
-      <c r="K77" s="599">
-        <v>0</v>
-      </c>
-      <c r="L77" s="600"/>
+      <c r="J77" s="615"/>
+      <c r="K77" s="618">
+        <v>0</v>
+      </c>
+      <c r="L77" s="619"/>
       <c r="R77" s="7"/>
       <c r="S77" s="7"/>
     </row>
@@ -33044,10 +33195,10 @@
       <c r="C78" s="128"/>
       <c r="D78" s="129"/>
       <c r="E78" s="7"/>
-      <c r="I78" s="597"/>
-      <c r="J78" s="598"/>
-      <c r="K78" s="601"/>
-      <c r="L78" s="602"/>
+      <c r="I78" s="616"/>
+      <c r="J78" s="617"/>
+      <c r="K78" s="620"/>
+      <c r="L78" s="621"/>
       <c r="M78" s="2"/>
       <c r="N78" s="60"/>
       <c r="O78" s="491"/>
@@ -33099,7 +33250,7 @@
       <c r="C81" s="130"/>
       <c r="E81" s="7"/>
       <c r="M81" s="4"/>
-      <c r="AC81" s="567"/>
+      <c r="AC81" s="581"/>
       <c r="AD81" s="487"/>
       <c r="AE81" s="487"/>
       <c r="AF81" s="487"/>
@@ -33112,7 +33263,7 @@
       <c r="E82" s="7"/>
       <c r="F82" s="273"/>
       <c r="M82" s="4"/>
-      <c r="AC82" s="567"/>
+      <c r="AC82" s="581"/>
       <c r="AD82" s="487"/>
       <c r="AE82" s="487"/>
       <c r="AF82" s="487"/>
@@ -33205,17 +33356,24 @@
       <c r="F97" s="273"/>
     </row>
   </sheetData>
+  <sortState ref="M45:N55">
+    <sortCondition ref="N45:N55"/>
+  </sortState>
   <mergeCells count="37">
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:K1"/>
-    <mergeCell ref="AB2:AG3"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="AC81:AC82"/>
+    <mergeCell ref="K73:L73"/>
+    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="I75:J75"/>
+    <mergeCell ref="K75:L75"/>
+    <mergeCell ref="I77:J78"/>
+    <mergeCell ref="K77:L78"/>
+    <mergeCell ref="H69:I69"/>
+    <mergeCell ref="K69:L69"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="R70:S70"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="I71:J71"/>
+    <mergeCell ref="K71:L71"/>
     <mergeCell ref="M62:N63"/>
     <mergeCell ref="AB4:AC4"/>
     <mergeCell ref="AE4:AG4"/>
@@ -33229,20 +33387,16 @@
     <mergeCell ref="M44:N44"/>
     <mergeCell ref="M57:M58"/>
     <mergeCell ref="M60:N60"/>
-    <mergeCell ref="H69:I69"/>
-    <mergeCell ref="K69:L69"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="R70:S70"/>
-    <mergeCell ref="D71:E71"/>
-    <mergeCell ref="I71:J71"/>
-    <mergeCell ref="K71:L71"/>
-    <mergeCell ref="AC81:AC82"/>
-    <mergeCell ref="K73:L73"/>
-    <mergeCell ref="D75:E75"/>
-    <mergeCell ref="I75:J75"/>
-    <mergeCell ref="K75:L75"/>
-    <mergeCell ref="I77:J78"/>
-    <mergeCell ref="K77:L78"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:K1"/>
+    <mergeCell ref="AB2:AG3"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -33258,7 +33412,7 @@
   </sheetPr>
   <dimension ref="A1:G134"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D106" sqref="D106"/>
     </sheetView>
   </sheetViews>
@@ -34599,32 +34753,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="630" t="s">
-        <v>730</v>
-      </c>
-      <c r="C1" s="630"/>
-      <c r="D1" s="630"/>
-      <c r="E1" s="630"/>
-      <c r="H1" s="631" t="s">
-        <v>730</v>
-      </c>
-      <c r="I1" s="631"/>
-      <c r="J1" s="631"/>
+      <c r="B1" s="624" t="s">
+        <v>726</v>
+      </c>
+      <c r="C1" s="624"/>
+      <c r="D1" s="624"/>
+      <c r="E1" s="624"/>
+      <c r="H1" s="625" t="s">
+        <v>726</v>
+      </c>
+      <c r="I1" s="625"/>
+      <c r="J1" s="625"/>
       <c r="K1" s="205"/>
       <c r="L1" s="205"/>
       <c r="N1" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="630" t="s">
-        <v>729</v>
-      </c>
-      <c r="P1" s="630"/>
+      <c r="O1" s="624" t="s">
+        <v>725</v>
+      </c>
+      <c r="P1" s="624"/>
     </row>
     <row r="2" spans="1:17" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="18"/>
       <c r="C2" s="4"/>
       <c r="D2" s="6"/>
-      <c r="E2" s="568" t="s">
+      <c r="E2" s="555" t="s">
         <v>562</v>
       </c>
       <c r="F2" s="497"/>
@@ -34650,7 +34804,7 @@
         <v>10</v>
       </c>
       <c r="D3" s="365"/>
-      <c r="E3" s="568"/>
+      <c r="E3" s="555"/>
       <c r="F3" s="497"/>
       <c r="H3" s="444">
         <v>126476.5</v>
@@ -34662,10 +34816,10 @@
         <v>44378</v>
       </c>
       <c r="K3" s="496"/>
-      <c r="L3" s="615" t="s">
+      <c r="L3" s="600" t="s">
         <v>567</v>
       </c>
-      <c r="M3" s="615"/>
+      <c r="M3" s="600"/>
       <c r="O3" s="444">
         <v>64006</v>
       </c>
@@ -35209,7 +35363,7 @@
         <v>44391</v>
       </c>
       <c r="K16" s="496"/>
-      <c r="L16" s="603">
+      <c r="L16" s="588">
         <f>SUM(L4:L15)</f>
         <v>3606750</v>
       </c>
@@ -35250,7 +35404,7 @@
         <v>44392</v>
       </c>
       <c r="K17" s="496"/>
-      <c r="L17" s="604"/>
+      <c r="L17" s="589"/>
       <c r="M17" s="476"/>
       <c r="O17" s="444">
         <v>0</v>
@@ -35323,10 +35477,10 @@
         <v>44394</v>
       </c>
       <c r="K19" s="496"/>
-      <c r="L19" s="605" t="s">
-        <v>721</v>
-      </c>
-      <c r="M19" s="606"/>
+      <c r="L19" s="590" t="s">
+        <v>719</v>
+      </c>
+      <c r="M19" s="591"/>
       <c r="O19" s="444">
         <v>0</v>
       </c>
@@ -35396,11 +35550,11 @@
         <v>44396</v>
       </c>
       <c r="K21" s="496"/>
-      <c r="L21" s="624">
+      <c r="L21" s="629">
         <f>L16-H37</f>
         <v>-383122.2200000002</v>
       </c>
-      <c r="M21" s="625"/>
+      <c r="M21" s="630"/>
       <c r="O21" s="444">
         <v>0</v>
       </c>
@@ -35434,8 +35588,8 @@
         <v>44397</v>
       </c>
       <c r="K22" s="496"/>
-      <c r="L22" s="626"/>
-      <c r="M22" s="627"/>
+      <c r="L22" s="631"/>
+      <c r="M22" s="632"/>
       <c r="O22" s="444">
         <v>0</v>
       </c>
@@ -35833,35 +35987,35 @@
       <c r="Q36" s="392"/>
     </row>
     <row r="37" spans="7:17" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="H37" s="611">
+      <c r="H37" s="596">
         <f>SUM(H3:H36)</f>
         <v>3989872.22</v>
       </c>
-      <c r="I37" s="613">
+      <c r="I37" s="598">
         <f>SUM(I3:I36)</f>
         <v>688820.5</v>
       </c>
       <c r="J37" s="496"/>
       <c r="K37" s="496"/>
       <c r="L37" s="496"/>
-      <c r="O37" s="611">
+      <c r="O37" s="596">
         <f>SUM(O3:O36)</f>
         <v>1464800.09</v>
       </c>
-      <c r="P37" s="613">
+      <c r="P37" s="598">
         <f>SUM(P3:P36)</f>
         <v>121896</v>
       </c>
       <c r="Q37" s="392"/>
     </row>
     <row r="38" spans="7:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H38" s="612"/>
-      <c r="I38" s="614"/>
+      <c r="H38" s="597"/>
+      <c r="I38" s="599"/>
       <c r="J38" s="496"/>
       <c r="K38" s="496"/>
       <c r="L38" s="496"/>
-      <c r="O38" s="612"/>
-      <c r="P38" s="614"/>
+      <c r="O38" s="597"/>
+      <c r="P38" s="599"/>
       <c r="Q38" s="392"/>
     </row>
     <row r="39" spans="7:17" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -35873,12 +36027,12 @@
     </row>
     <row r="40" spans="7:17" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G40" s="272"/>
-      <c r="H40" s="632"/>
-      <c r="I40" s="632"/>
-      <c r="O40" s="615" t="s">
+      <c r="H40" s="627"/>
+      <c r="I40" s="627"/>
+      <c r="O40" s="600" t="s">
         <v>567</v>
       </c>
-      <c r="P40" s="615"/>
+      <c r="P40" s="600"/>
       <c r="Q40" s="392"/>
     </row>
     <row r="41" spans="7:17" ht="15.75" x14ac:dyDescent="0.25">
@@ -36025,9 +36179,9 @@
     </row>
     <row r="53" spans="7:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="G53" s="272"/>
-      <c r="H53" s="633"/>
+      <c r="H53" s="628"/>
       <c r="I53" s="7"/>
-      <c r="O53" s="603">
+      <c r="O53" s="588">
         <f>SUM(O41:O52)</f>
         <v>1682687</v>
       </c>
@@ -36036,9 +36190,9 @@
     </row>
     <row r="54" spans="7:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G54" s="272"/>
-      <c r="H54" s="633"/>
+      <c r="H54" s="628"/>
       <c r="I54" s="7"/>
-      <c r="O54" s="604"/>
+      <c r="O54" s="589"/>
       <c r="P54" s="476"/>
       <c r="Q54" s="392"/>
     </row>
@@ -36052,12 +36206,12 @@
     </row>
     <row r="56" spans="7:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="G56" s="272"/>
-      <c r="H56" s="632"/>
-      <c r="I56" s="632"/>
-      <c r="O56" s="605" t="s">
-        <v>721</v>
-      </c>
-      <c r="P56" s="606"/>
+      <c r="H56" s="627"/>
+      <c r="I56" s="627"/>
+      <c r="O56" s="590" t="s">
+        <v>719</v>
+      </c>
+      <c r="P56" s="591"/>
       <c r="Q56" s="392"/>
     </row>
     <row r="57" spans="7:17" ht="15.75" x14ac:dyDescent="0.25">
@@ -36070,26 +36224,26 @@
     </row>
     <row r="58" spans="7:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G58" s="272"/>
-      <c r="H58" s="634"/>
-      <c r="I58" s="634"/>
+      <c r="H58" s="626"/>
+      <c r="I58" s="626"/>
       <c r="O58" s="493">
         <f>O53-O37</f>
         <v>217886.90999999992</v>
       </c>
       <c r="P58" s="494" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="Q58" s="392"/>
     </row>
     <row r="59" spans="7:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G59" s="272"/>
-      <c r="H59" s="634"/>
-      <c r="I59" s="634"/>
+      <c r="H59" s="626"/>
+      <c r="I59" s="626"/>
       <c r="O59" s="506">
         <v>-383122.22</v>
       </c>
       <c r="P59" s="506" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="Q59" s="392"/>
     </row>
@@ -36101,7 +36255,7 @@
         <v>-163726</v>
       </c>
       <c r="P60" s="118" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="Q60" s="392"/>
     </row>
@@ -36112,16 +36266,14 @@
       <c r="P61" s="507"/>
     </row>
     <row r="62" spans="7:17" ht="21" x14ac:dyDescent="0.35">
-      <c r="O62" s="628">
+      <c r="O62" s="622">
         <f>SUM(O58:O61)</f>
         <v>-328961.31000000006</v>
       </c>
-      <c r="P62" s="629"/>
+      <c r="P62" s="623"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="P37:P38"/>
-    <mergeCell ref="O40:P40"/>
     <mergeCell ref="O53:O54"/>
     <mergeCell ref="O56:P56"/>
     <mergeCell ref="L19:M19"/>
@@ -36132,14 +36284,16 @@
     <mergeCell ref="H1:J1"/>
     <mergeCell ref="L3:M3"/>
     <mergeCell ref="L16:L17"/>
+    <mergeCell ref="H58:I59"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="O37:O38"/>
+    <mergeCell ref="P37:P38"/>
+    <mergeCell ref="O40:P40"/>
     <mergeCell ref="H37:H38"/>
     <mergeCell ref="I37:I38"/>
     <mergeCell ref="H40:I40"/>
     <mergeCell ref="H53:H54"/>
     <mergeCell ref="H56:I56"/>
-    <mergeCell ref="H58:I59"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="O37:O38"/>
   </mergeCells>
   <pageMargins left="0.37" right="0.13" top="0.43" bottom="0.27" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -36151,10 +36305,10 @@
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
-  <dimension ref="A46:G65"/>
+  <dimension ref="A47:G64"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView topLeftCell="A35" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G66" sqref="G66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -36162,57 +36316,39 @@
     <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="46" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="47" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="32"/>
-      <c r="B47" s="635" t="s">
+    <row r="47" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="48" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="32"/>
+      <c r="B48" s="633" t="s">
         <v>32</v>
       </c>
-      <c r="C47" s="636"/>
-      <c r="D47" s="636"/>
-      <c r="E47" s="637"/>
-      <c r="F47" s="4"/>
-    </row>
-    <row r="48" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="19">
-        <v>44411</v>
-      </c>
-      <c r="B48" s="196" t="s">
-        <v>722</v>
-      </c>
-      <c r="C48" s="197">
-        <v>1624.92</v>
-      </c>
-      <c r="D48" s="198" t="s">
+      <c r="C48" s="634"/>
+      <c r="D48" s="634"/>
+      <c r="E48" s="635"/>
+      <c r="F48" s="4"/>
+    </row>
+    <row r="49" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="19">
+        <v>44425</v>
+      </c>
+      <c r="B49" s="196" t="s">
+        <v>771</v>
+      </c>
+      <c r="C49" s="197">
+        <v>2143.54</v>
+      </c>
+      <c r="D49" s="198" t="s">
         <v>33</v>
       </c>
-      <c r="E48" s="199" t="s">
-        <v>723</v>
-      </c>
-      <c r="F48" s="72">
-        <v>1740</v>
-      </c>
-      <c r="G48" s="469"/>
-    </row>
-    <row r="49" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="19"/>
-      <c r="B49" s="196" t="s">
-        <v>611</v>
-      </c>
-      <c r="C49" s="197">
-        <v>0</v>
-      </c>
-      <c r="D49" s="200" t="s">
-        <v>33</v>
-      </c>
       <c r="E49" s="199" t="s">
-        <v>27</v>
+        <v>772</v>
       </c>
       <c r="F49" s="72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>2108</v>
+      </c>
+      <c r="G49" s="469"/>
+    </row>
+    <row r="50" spans="1:7" ht="13.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="19"/>
       <c r="B50" s="196" t="s">
         <v>611</v>
@@ -36224,13 +36360,13 @@
         <v>33</v>
       </c>
       <c r="E50" s="199" t="s">
-        <v>27</v>
+        <v>611</v>
       </c>
       <c r="F50" s="72">
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="19"/>
       <c r="B51" s="196" t="s">
         <v>611</v>
@@ -36242,13 +36378,13 @@
         <v>33</v>
       </c>
       <c r="E51" s="199" t="s">
-        <v>27</v>
+        <v>611</v>
       </c>
       <c r="F51" s="72">
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="19"/>
       <c r="B52" s="196" t="s">
         <v>611</v>
@@ -36260,13 +36396,13 @@
         <v>33</v>
       </c>
       <c r="E52" s="199" t="s">
-        <v>27</v>
+        <v>611</v>
       </c>
       <c r="F52" s="72">
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="19"/>
       <c r="B53" s="196" t="s">
         <v>611</v>
@@ -36278,13 +36414,13 @@
         <v>33</v>
       </c>
       <c r="E53" s="199" t="s">
-        <v>27</v>
+        <v>611</v>
       </c>
       <c r="F53" s="72">
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="19"/>
       <c r="B54" s="196" t="s">
         <v>611</v>
@@ -36296,67 +36432,67 @@
         <v>33</v>
       </c>
       <c r="E54" s="199" t="s">
-        <v>27</v>
+        <v>611</v>
       </c>
       <c r="F54" s="72">
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="14.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="330"/>
+    <row r="55" spans="1:7" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="19"/>
       <c r="B55" s="196" t="s">
         <v>611</v>
       </c>
       <c r="C55" s="197">
         <v>0</v>
       </c>
-      <c r="D55" s="331" t="s">
+      <c r="D55" s="200" t="s">
         <v>33</v>
       </c>
       <c r="E55" s="199" t="s">
-        <v>27</v>
+        <v>611</v>
       </c>
       <c r="F55" s="72">
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="329"/>
+    <row r="56" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="330"/>
       <c r="B56" s="196" t="s">
         <v>611</v>
       </c>
       <c r="C56" s="197">
         <v>0</v>
       </c>
-      <c r="D56" s="198" t="s">
+      <c r="D56" s="331" t="s">
         <v>33</v>
       </c>
       <c r="E56" s="199" t="s">
-        <v>27</v>
+        <v>611</v>
       </c>
       <c r="F56" s="72">
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="19"/>
+    <row r="57" spans="1:7" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="329"/>
       <c r="B57" s="196" t="s">
         <v>611</v>
       </c>
       <c r="C57" s="197">
         <v>0</v>
       </c>
-      <c r="D57" s="200" t="s">
+      <c r="D57" s="198" t="s">
         <v>33</v>
       </c>
       <c r="E57" s="199" t="s">
-        <v>27</v>
+        <v>611</v>
       </c>
       <c r="F57" s="72">
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="19"/>
       <c r="B58" s="196" t="s">
         <v>611</v>
@@ -36368,13 +36504,13 @@
         <v>33</v>
       </c>
       <c r="E58" s="199" t="s">
-        <v>27</v>
+        <v>611</v>
       </c>
       <c r="F58" s="72">
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="19"/>
       <c r="B59" s="196" t="s">
         <v>611</v>
@@ -36386,13 +36522,13 @@
         <v>33</v>
       </c>
       <c r="E59" s="199" t="s">
-        <v>27</v>
+        <v>611</v>
       </c>
       <c r="F59" s="72">
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="19"/>
       <c r="B60" s="196" t="s">
         <v>611</v>
@@ -36404,13 +36540,13 @@
         <v>33</v>
       </c>
       <c r="E60" s="199" t="s">
-        <v>27</v>
+        <v>611</v>
       </c>
       <c r="F60" s="72">
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="19"/>
       <c r="B61" s="196" t="s">
         <v>611</v>
@@ -36422,13 +36558,13 @@
         <v>33</v>
       </c>
       <c r="E61" s="199" t="s">
-        <v>27</v>
+        <v>611</v>
       </c>
       <c r="F61" s="72">
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="19"/>
       <c r="B62" s="196" t="s">
         <v>611</v>
@@ -36440,25 +36576,41 @@
         <v>33</v>
       </c>
       <c r="E62" s="199" t="s">
-        <v>27</v>
+        <v>611</v>
       </c>
       <c r="F62" s="72">
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="19"/>
+      <c r="B63" s="196" t="s">
+        <v>611</v>
+      </c>
       <c r="C63" s="197">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="65" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="D63" s="200" t="s">
+        <v>33</v>
+      </c>
+      <c r="E63" s="199" t="s">
+        <v>611</v>
+      </c>
+      <c r="F63" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C64" s="197">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A45:F46">
     <sortCondition ref="B45:B46"/>
   </sortState>
   <mergeCells count="1">
-    <mergeCell ref="B47:E47"/>
+    <mergeCell ref="B48:E48"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -37467,11 +37619,922 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFFC000"/>
+  </sheetPr>
+  <dimension ref="A1:F62"/>
+  <sheetViews>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A55" sqref="A55:F57"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="32"/>
+      <c r="B1" s="633" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="634"/>
+      <c r="D1" s="634"/>
+      <c r="E1" s="635"/>
+      <c r="F1" s="4"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="19">
+        <v>44414</v>
+      </c>
+      <c r="B2" s="196" t="s">
+        <v>732</v>
+      </c>
+      <c r="C2" s="197">
+        <v>148.18</v>
+      </c>
+      <c r="D2" s="198" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="199" t="s">
+        <v>611</v>
+      </c>
+      <c r="F2" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="19">
+        <v>44414</v>
+      </c>
+      <c r="B3" s="196" t="s">
+        <v>733</v>
+      </c>
+      <c r="C3" s="197">
+        <v>25.45</v>
+      </c>
+      <c r="D3" s="200" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="199" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="19"/>
+      <c r="B4" s="196" t="s">
+        <v>611</v>
+      </c>
+      <c r="C4" s="197">
+        <v>0</v>
+      </c>
+      <c r="D4" s="200" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="199" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="19"/>
+      <c r="B5" s="196" t="s">
+        <v>611</v>
+      </c>
+      <c r="C5" s="197">
+        <v>0</v>
+      </c>
+      <c r="D5" s="200" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="199" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="32"/>
+      <c r="B9" s="633" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="634"/>
+      <c r="D9" s="634"/>
+      <c r="E9" s="635"/>
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="19">
+        <v>44415</v>
+      </c>
+      <c r="B10" s="196" t="s">
+        <v>735</v>
+      </c>
+      <c r="C10" s="197">
+        <v>330.85</v>
+      </c>
+      <c r="D10" s="198" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="199" t="s">
+        <v>736</v>
+      </c>
+      <c r="F10" s="72">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="19">
+        <v>44415</v>
+      </c>
+      <c r="B11" s="196" t="s">
+        <v>737</v>
+      </c>
+      <c r="C11" s="197">
+        <v>685.45</v>
+      </c>
+      <c r="D11" s="200" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="199" t="s">
+        <v>738</v>
+      </c>
+      <c r="F11" s="72">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="19">
+        <v>44415</v>
+      </c>
+      <c r="B12" s="196" t="s">
+        <v>739</v>
+      </c>
+      <c r="C12" s="197">
+        <v>506.05</v>
+      </c>
+      <c r="D12" s="200" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="199" t="s">
+        <v>740</v>
+      </c>
+      <c r="F12" s="72">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="19"/>
+      <c r="B13" s="196" t="s">
+        <v>611</v>
+      </c>
+      <c r="C13" s="197">
+        <v>0</v>
+      </c>
+      <c r="D13" s="200" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="199" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="19"/>
+      <c r="B14" s="196" t="s">
+        <v>611</v>
+      </c>
+      <c r="C14" s="197">
+        <v>0</v>
+      </c>
+      <c r="D14" s="200" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="199" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="19"/>
+      <c r="B15" s="196" t="s">
+        <v>611</v>
+      </c>
+      <c r="C15" s="197">
+        <v>0</v>
+      </c>
+      <c r="D15" s="200" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="199" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="19"/>
+      <c r="B16" s="196" t="s">
+        <v>611</v>
+      </c>
+      <c r="C16" s="197">
+        <v>0</v>
+      </c>
+      <c r="D16" s="200" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" s="199" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="330"/>
+      <c r="B17" s="196" t="s">
+        <v>611</v>
+      </c>
+      <c r="C17" s="197">
+        <v>0</v>
+      </c>
+      <c r="D17" s="331" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" s="199" t="s">
+        <v>27</v>
+      </c>
+      <c r="F17" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="32"/>
+      <c r="B20" s="633" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="634"/>
+      <c r="D20" s="634"/>
+      <c r="E20" s="635"/>
+      <c r="F20" s="4"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="19">
+        <v>44416</v>
+      </c>
+      <c r="B21" s="196" t="s">
+        <v>742</v>
+      </c>
+      <c r="C21" s="197">
+        <v>385.05</v>
+      </c>
+      <c r="D21" s="198" t="s">
+        <v>33</v>
+      </c>
+      <c r="E21" s="199" t="s">
+        <v>743</v>
+      </c>
+      <c r="F21" s="72">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="19">
+        <v>44416</v>
+      </c>
+      <c r="B22" s="196" t="s">
+        <v>744</v>
+      </c>
+      <c r="C22" s="197">
+        <v>5190.05</v>
+      </c>
+      <c r="D22" s="200" t="s">
+        <v>33</v>
+      </c>
+      <c r="E22" s="199" t="s">
+        <v>745</v>
+      </c>
+      <c r="F22" s="72">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="19">
+        <v>44416</v>
+      </c>
+      <c r="B23" s="196" t="s">
+        <v>746</v>
+      </c>
+      <c r="C23" s="197">
+        <v>114.81</v>
+      </c>
+      <c r="D23" s="200" t="s">
+        <v>33</v>
+      </c>
+      <c r="E23" s="199" t="s">
+        <v>747</v>
+      </c>
+      <c r="F23" s="72">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="19">
+        <v>44416</v>
+      </c>
+      <c r="B24" s="196" t="s">
+        <v>748</v>
+      </c>
+      <c r="C24" s="197">
+        <v>112.91</v>
+      </c>
+      <c r="D24" s="200" t="s">
+        <v>33</v>
+      </c>
+      <c r="E24" s="199" t="s">
+        <v>749</v>
+      </c>
+      <c r="F24" s="72">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="19"/>
+      <c r="B25" s="196" t="s">
+        <v>611</v>
+      </c>
+      <c r="C25" s="197">
+        <v>0</v>
+      </c>
+      <c r="D25" s="200" t="s">
+        <v>33</v>
+      </c>
+      <c r="E25" s="199" t="s">
+        <v>27</v>
+      </c>
+      <c r="F25" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="19"/>
+      <c r="B26" s="196" t="s">
+        <v>611</v>
+      </c>
+      <c r="C26" s="197">
+        <v>0</v>
+      </c>
+      <c r="D26" s="200" t="s">
+        <v>33</v>
+      </c>
+      <c r="E26" s="199" t="s">
+        <v>27</v>
+      </c>
+      <c r="F26" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="19"/>
+      <c r="B27" s="196" t="s">
+        <v>611</v>
+      </c>
+      <c r="C27" s="197">
+        <v>0</v>
+      </c>
+      <c r="D27" s="200" t="s">
+        <v>33</v>
+      </c>
+      <c r="E27" s="199" t="s">
+        <v>27</v>
+      </c>
+      <c r="F27" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="330"/>
+      <c r="B28" s="196" t="s">
+        <v>611</v>
+      </c>
+      <c r="C28" s="197">
+        <v>0</v>
+      </c>
+      <c r="D28" s="331" t="s">
+        <v>33</v>
+      </c>
+      <c r="E28" s="199" t="s">
+        <v>27</v>
+      </c>
+      <c r="F28" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="32"/>
+      <c r="B31" s="633" t="s">
+        <v>32</v>
+      </c>
+      <c r="C31" s="634"/>
+      <c r="D31" s="634"/>
+      <c r="E31" s="635"/>
+      <c r="F31" s="4"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="19">
+        <v>44419</v>
+      </c>
+      <c r="B32" s="196" t="s">
+        <v>754</v>
+      </c>
+      <c r="C32" s="197">
+        <v>7694.4</v>
+      </c>
+      <c r="D32" s="198" t="s">
+        <v>33</v>
+      </c>
+      <c r="E32" s="199" t="s">
+        <v>755</v>
+      </c>
+      <c r="F32" s="72">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="19">
+        <v>44419</v>
+      </c>
+      <c r="B33" s="196" t="s">
+        <v>756</v>
+      </c>
+      <c r="C33" s="197">
+        <v>347.44</v>
+      </c>
+      <c r="D33" s="200" t="s">
+        <v>33</v>
+      </c>
+      <c r="E33" s="199" t="s">
+        <v>757</v>
+      </c>
+      <c r="F33" s="72">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="19"/>
+      <c r="B34" s="196" t="s">
+        <v>611</v>
+      </c>
+      <c r="C34" s="197">
+        <v>0</v>
+      </c>
+      <c r="D34" s="200" t="s">
+        <v>33</v>
+      </c>
+      <c r="E34" s="199" t="s">
+        <v>27</v>
+      </c>
+      <c r="F34" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="19"/>
+      <c r="B35" s="196" t="s">
+        <v>611</v>
+      </c>
+      <c r="C35" s="197">
+        <v>0</v>
+      </c>
+      <c r="D35" s="200" t="s">
+        <v>33</v>
+      </c>
+      <c r="E35" s="199" t="s">
+        <v>27</v>
+      </c>
+      <c r="F35" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="19"/>
+      <c r="B36" s="196" t="s">
+        <v>611</v>
+      </c>
+      <c r="C36" s="197">
+        <v>0</v>
+      </c>
+      <c r="D36" s="200" t="s">
+        <v>33</v>
+      </c>
+      <c r="E36" s="199" t="s">
+        <v>27</v>
+      </c>
+      <c r="F36" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="19"/>
+      <c r="B37" s="196" t="s">
+        <v>611</v>
+      </c>
+      <c r="C37" s="197">
+        <v>0</v>
+      </c>
+      <c r="D37" s="200" t="s">
+        <v>33</v>
+      </c>
+      <c r="E37" s="199" t="s">
+        <v>27</v>
+      </c>
+      <c r="F37" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="19"/>
+      <c r="B38" s="196" t="s">
+        <v>611</v>
+      </c>
+      <c r="C38" s="197">
+        <v>0</v>
+      </c>
+      <c r="D38" s="200" t="s">
+        <v>33</v>
+      </c>
+      <c r="E38" s="199" t="s">
+        <v>27</v>
+      </c>
+      <c r="F38" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="330"/>
+      <c r="B39" s="196" t="s">
+        <v>611</v>
+      </c>
+      <c r="C39" s="197">
+        <v>0</v>
+      </c>
+      <c r="D39" s="331" t="s">
+        <v>33</v>
+      </c>
+      <c r="E39" s="199" t="s">
+        <v>27</v>
+      </c>
+      <c r="F39" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="42" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="32"/>
+      <c r="B42" s="633" t="s">
+        <v>32</v>
+      </c>
+      <c r="C42" s="634"/>
+      <c r="D42" s="634"/>
+      <c r="E42" s="635"/>
+      <c r="F42" s="4"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="19">
+        <v>44420</v>
+      </c>
+      <c r="B43" s="196" t="s">
+        <v>759</v>
+      </c>
+      <c r="C43" s="197">
+        <v>208.91</v>
+      </c>
+      <c r="D43" s="198" t="s">
+        <v>33</v>
+      </c>
+      <c r="E43" s="199" t="s">
+        <v>760</v>
+      </c>
+      <c r="F43" s="72">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="19">
+        <v>44420</v>
+      </c>
+      <c r="B44" s="196" t="s">
+        <v>761</v>
+      </c>
+      <c r="C44" s="197">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="D44" s="200" t="s">
+        <v>33</v>
+      </c>
+      <c r="E44" s="199" t="s">
+        <v>762</v>
+      </c>
+      <c r="F44" s="72">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="19"/>
+      <c r="B45" s="196" t="s">
+        <v>611</v>
+      </c>
+      <c r="C45" s="197">
+        <v>0</v>
+      </c>
+      <c r="D45" s="200" t="s">
+        <v>33</v>
+      </c>
+      <c r="E45" s="199" t="s">
+        <v>27</v>
+      </c>
+      <c r="F45" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="19"/>
+      <c r="B46" s="196" t="s">
+        <v>611</v>
+      </c>
+      <c r="C46" s="197">
+        <v>0</v>
+      </c>
+      <c r="D46" s="200" t="s">
+        <v>33</v>
+      </c>
+      <c r="E46" s="199" t="s">
+        <v>27</v>
+      </c>
+      <c r="F46" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="19"/>
+      <c r="B47" s="196" t="s">
+        <v>611</v>
+      </c>
+      <c r="C47" s="197">
+        <v>0</v>
+      </c>
+      <c r="D47" s="200" t="s">
+        <v>33</v>
+      </c>
+      <c r="E47" s="199" t="s">
+        <v>27</v>
+      </c>
+      <c r="F47" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="19"/>
+      <c r="B48" s="196" t="s">
+        <v>611</v>
+      </c>
+      <c r="C48" s="197">
+        <v>0</v>
+      </c>
+      <c r="D48" s="200" t="s">
+        <v>33</v>
+      </c>
+      <c r="E48" s="199" t="s">
+        <v>27</v>
+      </c>
+      <c r="F48" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="19"/>
+      <c r="B49" s="196" t="s">
+        <v>611</v>
+      </c>
+      <c r="C49" s="197">
+        <v>0</v>
+      </c>
+      <c r="D49" s="200" t="s">
+        <v>33</v>
+      </c>
+      <c r="E49" s="199" t="s">
+        <v>27</v>
+      </c>
+      <c r="F49" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="330"/>
+      <c r="B50" s="196" t="s">
+        <v>611</v>
+      </c>
+      <c r="C50" s="197">
+        <v>0</v>
+      </c>
+      <c r="D50" s="331" t="s">
+        <v>33</v>
+      </c>
+      <c r="E50" s="199" t="s">
+        <v>27</v>
+      </c>
+      <c r="F50" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="54" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="32"/>
+      <c r="B54" s="633" t="s">
+        <v>32</v>
+      </c>
+      <c r="C54" s="634"/>
+      <c r="D54" s="634"/>
+      <c r="E54" s="635"/>
+      <c r="F54" s="4"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="19">
+        <v>44421</v>
+      </c>
+      <c r="B55" s="196" t="s">
+        <v>764</v>
+      </c>
+      <c r="C55" s="197">
+        <v>106.5</v>
+      </c>
+      <c r="D55" s="198" t="s">
+        <v>33</v>
+      </c>
+      <c r="E55" s="199" t="s">
+        <v>765</v>
+      </c>
+      <c r="F55" s="72">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="19">
+        <v>44421</v>
+      </c>
+      <c r="B56" s="196" t="s">
+        <v>766</v>
+      </c>
+      <c r="C56" s="197">
+        <v>208.61</v>
+      </c>
+      <c r="D56" s="200" t="s">
+        <v>33</v>
+      </c>
+      <c r="E56" s="199" t="s">
+        <v>767</v>
+      </c>
+      <c r="F56" s="72">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="19"/>
+      <c r="B57" s="196" t="s">
+        <v>611</v>
+      </c>
+      <c r="C57" s="197">
+        <v>0</v>
+      </c>
+      <c r="D57" s="200" t="s">
+        <v>33</v>
+      </c>
+      <c r="E57" s="199" t="s">
+        <v>27</v>
+      </c>
+      <c r="F57" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="19"/>
+      <c r="B58" s="196" t="s">
+        <v>611</v>
+      </c>
+      <c r="C58" s="197">
+        <v>0</v>
+      </c>
+      <c r="D58" s="200" t="s">
+        <v>33</v>
+      </c>
+      <c r="E58" s="199" t="s">
+        <v>27</v>
+      </c>
+      <c r="F58" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="19"/>
+      <c r="B59" s="196" t="s">
+        <v>611</v>
+      </c>
+      <c r="C59" s="197">
+        <v>0</v>
+      </c>
+      <c r="D59" s="200" t="s">
+        <v>33</v>
+      </c>
+      <c r="E59" s="199" t="s">
+        <v>27</v>
+      </c>
+      <c r="F59" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="19"/>
+      <c r="B60" s="196" t="s">
+        <v>611</v>
+      </c>
+      <c r="C60" s="197">
+        <v>0</v>
+      </c>
+      <c r="D60" s="200" t="s">
+        <v>33</v>
+      </c>
+      <c r="E60" s="199" t="s">
+        <v>27</v>
+      </c>
+      <c r="F60" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="19"/>
+      <c r="B61" s="196" t="s">
+        <v>611</v>
+      </c>
+      <c r="C61" s="197">
+        <v>0</v>
+      </c>
+      <c r="D61" s="200" t="s">
+        <v>33</v>
+      </c>
+      <c r="E61" s="199" t="s">
+        <v>27</v>
+      </c>
+      <c r="F61" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="330"/>
+      <c r="B62" s="196" t="s">
+        <v>611</v>
+      </c>
+      <c r="C62" s="197">
+        <v>0</v>
+      </c>
+      <c r="D62" s="331" t="s">
+        <v>33</v>
+      </c>
+      <c r="E62" s="199" t="s">
+        <v>27</v>
+      </c>
+      <c r="F62" s="72">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B54:E54"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="B42:E42"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
@@ -37514,17 +38577,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C1" s="522" t="s">
+      <c r="C1" s="534" t="s">
         <v>147</v>
       </c>
-      <c r="D1" s="522"/>
-      <c r="E1" s="522"/>
-      <c r="F1" s="522"/>
-      <c r="G1" s="522"/>
-      <c r="H1" s="522"/>
-      <c r="I1" s="522"/>
-      <c r="J1" s="522"/>
-      <c r="K1" s="522"/>
+      <c r="D1" s="534"/>
+      <c r="E1" s="534"/>
+      <c r="F1" s="534"/>
+      <c r="G1" s="534"/>
+      <c r="H1" s="534"/>
+      <c r="I1" s="534"/>
+      <c r="J1" s="534"/>
+      <c r="K1" s="534"/>
       <c r="L1" s="2"/>
       <c r="M1" s="3"/>
       <c r="U1" s="209"/>
@@ -37555,17 +38618,17 @@
       </c>
     </row>
     <row r="3" spans="1:23" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="523" t="s">
+      <c r="B3" s="535" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="524"/>
+      <c r="C3" s="536"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="15"/>
-      <c r="H3" s="525" t="s">
+      <c r="H3" s="537" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="525"/>
+      <c r="I3" s="537"/>
       <c r="K3" s="17" t="s">
         <v>3</v>
       </c>
@@ -37594,14 +38657,14 @@
       <c r="D4" s="23">
         <v>44230</v>
       </c>
-      <c r="E4" s="526" t="s">
+      <c r="E4" s="538" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="527"/>
-      <c r="H4" s="528" t="s">
+      <c r="F4" s="539"/>
+      <c r="H4" s="540" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="529"/>
+      <c r="I4" s="541"/>
       <c r="J4" s="24"/>
       <c r="K4" s="25"/>
       <c r="L4" s="26"/>
@@ -40140,61 +41203,61 @@
       <c r="A64" s="60"/>
       <c r="B64" s="100"/>
       <c r="C64" s="4"/>
-      <c r="H64" s="530" t="s">
+      <c r="H64" s="521" t="s">
         <v>16</v>
       </c>
-      <c r="I64" s="531"/>
+      <c r="I64" s="522"/>
       <c r="J64" s="101"/>
-      <c r="K64" s="532">
+      <c r="K64" s="523">
         <f>I62+L62</f>
         <v>259947.00000000003</v>
       </c>
-      <c r="L64" s="533"/>
-      <c r="M64" s="534">
+      <c r="L64" s="524"/>
+      <c r="M64" s="525">
         <f>M62+N62</f>
         <v>2744320</v>
       </c>
-      <c r="N64" s="535"/>
+      <c r="N64" s="526"/>
       <c r="O64" s="102"/>
       <c r="P64" s="99"/>
       <c r="Q64" s="99"/>
       <c r="S64" s="174"/>
     </row>
     <row r="65" spans="2:19" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D65" s="542" t="s">
+      <c r="D65" s="533" t="s">
         <v>17</v>
       </c>
-      <c r="E65" s="542"/>
+      <c r="E65" s="533"/>
       <c r="F65" s="103">
         <f>F62-K64-C62</f>
         <v>2374814.2599999998</v>
       </c>
       <c r="I65" s="104"/>
       <c r="J65" s="105"/>
-      <c r="P65" s="543">
+      <c r="P65" s="512">
         <f>P62+Q62</f>
         <v>3144691.75</v>
       </c>
-      <c r="Q65" s="544"/>
+      <c r="Q65" s="513"/>
       <c r="S65" s="50"/>
     </row>
     <row r="66" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D66" s="545" t="s">
+      <c r="D66" s="514" t="s">
         <v>18</v>
       </c>
-      <c r="E66" s="545"/>
+      <c r="E66" s="514"/>
       <c r="F66" s="95">
         <v>-2261593.1</v>
       </c>
-      <c r="I66" s="546" t="s">
+      <c r="I66" s="515" t="s">
         <v>19</v>
       </c>
-      <c r="J66" s="547"/>
-      <c r="K66" s="548">
+      <c r="J66" s="516"/>
+      <c r="K66" s="517">
         <f>F68+F69+F70</f>
         <v>355407.6199999997</v>
       </c>
-      <c r="L66" s="549"/>
+      <c r="L66" s="518"/>
       <c r="P66" s="50"/>
       <c r="S66" s="107"/>
     </row>
@@ -40231,11 +41294,11 @@
         <v>21</v>
       </c>
       <c r="J68" s="115"/>
-      <c r="K68" s="550">
+      <c r="K68" s="519">
         <f>-C4</f>
         <v>-209541.1</v>
       </c>
-      <c r="L68" s="551"/>
+      <c r="L68" s="520"/>
       <c r="M68" s="116"/>
       <c r="P68" s="50"/>
       <c r="Q68" s="7"/>
@@ -40259,22 +41322,22 @@
       <c r="C70" s="119">
         <v>44257</v>
       </c>
-      <c r="D70" s="536" t="s">
+      <c r="D70" s="527" t="s">
         <v>24</v>
       </c>
-      <c r="E70" s="537"/>
+      <c r="E70" s="528"/>
       <c r="F70" s="120">
         <v>223014.26</v>
       </c>
-      <c r="I70" s="538" t="s">
+      <c r="I70" s="529" t="s">
         <v>25</v>
       </c>
-      <c r="J70" s="539"/>
-      <c r="K70" s="540">
+      <c r="J70" s="530"/>
+      <c r="K70" s="531">
         <f>K66+K68</f>
         <v>145866.5199999997</v>
       </c>
-      <c r="L70" s="541"/>
+      <c r="L70" s="532"/>
       <c r="P70" s="50"/>
       <c r="Q70" s="7"/>
       <c r="S70" s="121"/>
@@ -40375,12 +41438,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="K68:L68"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="I70:J70"/>
-    <mergeCell ref="K70:L70"/>
-    <mergeCell ref="M64:N64"/>
-    <mergeCell ref="D65:E65"/>
     <mergeCell ref="P65:Q65"/>
     <mergeCell ref="D66:E66"/>
     <mergeCell ref="I66:J66"/>
@@ -40392,6 +41449,12 @@
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="H64:I64"/>
     <mergeCell ref="K64:L64"/>
+    <mergeCell ref="K68:L68"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="I70:J70"/>
+    <mergeCell ref="K70:L70"/>
+    <mergeCell ref="M64:N64"/>
+    <mergeCell ref="D65:E65"/>
   </mergeCells>
   <phoneticPr fontId="41" type="noConversion"/>
   <pageMargins left="0.51181102362204722" right="0.15748031496062992" top="0.31496062992125984" bottom="0.31496062992125984" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -41662,17 +42725,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C1" s="522" t="s">
+      <c r="C1" s="534" t="s">
         <v>429</v>
       </c>
-      <c r="D1" s="522"/>
-      <c r="E1" s="522"/>
-      <c r="F1" s="522"/>
-      <c r="G1" s="522"/>
-      <c r="H1" s="522"/>
-      <c r="I1" s="522"/>
-      <c r="J1" s="522"/>
-      <c r="K1" s="522"/>
+      <c r="D1" s="534"/>
+      <c r="E1" s="534"/>
+      <c r="F1" s="534"/>
+      <c r="G1" s="534"/>
+      <c r="H1" s="534"/>
+      <c r="I1" s="534"/>
+      <c r="J1" s="534"/>
+      <c r="K1" s="534"/>
       <c r="L1" s="2"/>
       <c r="M1" s="3"/>
       <c r="U1" s="209"/>
@@ -41702,17 +42765,17 @@
       </c>
     </row>
     <row r="3" spans="1:23" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="523" t="s">
+      <c r="B3" s="535" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="524"/>
+      <c r="C3" s="536"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="15"/>
-      <c r="H3" s="525" t="s">
+      <c r="H3" s="537" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="525"/>
+      <c r="I3" s="537"/>
       <c r="K3" s="17" t="s">
         <v>3</v>
       </c>
@@ -41741,14 +42804,14 @@
       <c r="D4" s="23">
         <v>44257</v>
       </c>
-      <c r="E4" s="526" t="s">
+      <c r="E4" s="538" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="527"/>
-      <c r="H4" s="528" t="s">
+      <c r="F4" s="539"/>
+      <c r="H4" s="540" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="529"/>
+      <c r="I4" s="541"/>
       <c r="J4" s="24"/>
       <c r="K4" s="25"/>
       <c r="L4" s="26"/>
@@ -44350,61 +45413,61 @@
       <c r="A62" s="60"/>
       <c r="B62" s="100"/>
       <c r="C62" s="4"/>
-      <c r="H62" s="530" t="s">
+      <c r="H62" s="521" t="s">
         <v>16</v>
       </c>
-      <c r="I62" s="531"/>
+      <c r="I62" s="522"/>
       <c r="J62" s="101"/>
-      <c r="K62" s="532">
+      <c r="K62" s="523">
         <f>I60+L60</f>
         <v>781851.32000000007</v>
       </c>
-      <c r="L62" s="533"/>
-      <c r="M62" s="534">
+      <c r="L62" s="524"/>
+      <c r="M62" s="525">
         <f>M60+N60</f>
         <v>4064802.5</v>
       </c>
-      <c r="N62" s="535"/>
+      <c r="N62" s="526"/>
       <c r="O62" s="102"/>
       <c r="P62" s="99"/>
       <c r="Q62" s="99"/>
       <c r="S62" s="174"/>
     </row>
     <row r="63" spans="1:23" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D63" s="542" t="s">
+      <c r="D63" s="533" t="s">
         <v>17</v>
       </c>
-      <c r="E63" s="542"/>
+      <c r="E63" s="533"/>
       <c r="F63" s="103">
         <f>F60-K62-C60</f>
         <v>3177878.1399999997</v>
       </c>
       <c r="I63" s="104"/>
       <c r="J63" s="105"/>
-      <c r="P63" s="543">
+      <c r="P63" s="512">
         <f>P60+Q60</f>
         <v>4585432.34</v>
       </c>
-      <c r="Q63" s="544"/>
+      <c r="Q63" s="513"/>
       <c r="S63" s="50"/>
     </row>
     <row r="64" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D64" s="545" t="s">
+      <c r="D64" s="514" t="s">
         <v>18</v>
       </c>
-      <c r="E64" s="545"/>
+      <c r="E64" s="514"/>
       <c r="F64" s="95">
         <v>-3579271.89</v>
       </c>
-      <c r="I64" s="546" t="s">
+      <c r="I64" s="515" t="s">
         <v>19</v>
       </c>
-      <c r="J64" s="547"/>
-      <c r="K64" s="548">
+      <c r="J64" s="516"/>
+      <c r="K64" s="517">
         <f>F66+F67+F68</f>
         <v>-110332.85000000047</v>
       </c>
-      <c r="L64" s="549"/>
+      <c r="L64" s="518"/>
       <c r="P64" s="50"/>
       <c r="S64" s="107"/>
     </row>
@@ -44438,11 +45501,11 @@
         <v>21</v>
       </c>
       <c r="J66" s="115"/>
-      <c r="K66" s="550">
+      <c r="K66" s="519">
         <f>-C4</f>
         <v>-223014.26</v>
       </c>
-      <c r="L66" s="551"/>
+      <c r="L66" s="520"/>
       <c r="M66" s="116"/>
       <c r="P66" s="50"/>
       <c r="Q66" s="7"/>
@@ -44466,22 +45529,22 @@
       <c r="C68" s="119">
         <v>44291</v>
       </c>
-      <c r="D68" s="536" t="s">
+      <c r="D68" s="527" t="s">
         <v>24</v>
       </c>
-      <c r="E68" s="537"/>
+      <c r="E68" s="528"/>
       <c r="F68" s="120">
         <v>215362.9</v>
       </c>
-      <c r="I68" s="552" t="s">
+      <c r="I68" s="542" t="s">
         <v>431</v>
       </c>
-      <c r="J68" s="553"/>
-      <c r="K68" s="554">
+      <c r="J68" s="543"/>
+      <c r="K68" s="544">
         <f>K64+K66</f>
         <v>-333347.11000000045</v>
       </c>
-      <c r="L68" s="555"/>
+      <c r="L68" s="545"/>
       <c r="P68" s="50"/>
       <c r="Q68" s="7"/>
       <c r="S68" s="121"/>
@@ -44637,12 +45700,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="K66:L66"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="I68:J68"/>
-    <mergeCell ref="K68:L68"/>
-    <mergeCell ref="M62:N62"/>
-    <mergeCell ref="D63:E63"/>
     <mergeCell ref="P63:Q63"/>
     <mergeCell ref="D64:E64"/>
     <mergeCell ref="I64:J64"/>
@@ -44654,6 +45711,12 @@
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="H62:I62"/>
     <mergeCell ref="K62:L62"/>
+    <mergeCell ref="K66:L66"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="I68:J68"/>
+    <mergeCell ref="K68:L68"/>
+    <mergeCell ref="M62:N62"/>
+    <mergeCell ref="D63:E63"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -46085,17 +47148,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C1" s="522" t="s">
+      <c r="C1" s="534" t="s">
         <v>430</v>
       </c>
-      <c r="D1" s="522"/>
-      <c r="E1" s="522"/>
-      <c r="F1" s="522"/>
-      <c r="G1" s="522"/>
-      <c r="H1" s="522"/>
-      <c r="I1" s="522"/>
-      <c r="J1" s="522"/>
-      <c r="K1" s="522"/>
+      <c r="D1" s="534"/>
+      <c r="E1" s="534"/>
+      <c r="F1" s="534"/>
+      <c r="G1" s="534"/>
+      <c r="H1" s="534"/>
+      <c r="I1" s="534"/>
+      <c r="J1" s="534"/>
+      <c r="K1" s="534"/>
       <c r="L1" s="2"/>
       <c r="M1" s="3"/>
       <c r="U1" s="209"/>
@@ -46125,17 +47188,17 @@
       </c>
     </row>
     <row r="3" spans="1:23" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="523" t="s">
+      <c r="B3" s="535" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="524"/>
+      <c r="C3" s="536"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="15"/>
-      <c r="H3" s="525" t="s">
+      <c r="H3" s="537" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="525"/>
+      <c r="I3" s="537"/>
       <c r="K3" s="17" t="s">
         <v>3</v>
       </c>
@@ -46164,14 +47227,14 @@
       <c r="D4" s="23">
         <v>44291</v>
       </c>
-      <c r="E4" s="526" t="s">
+      <c r="E4" s="538" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="527"/>
-      <c r="H4" s="528" t="s">
+      <c r="F4" s="539"/>
+      <c r="H4" s="540" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="556"/>
+      <c r="I4" s="547"/>
       <c r="J4" s="24"/>
       <c r="K4" s="25"/>
       <c r="L4" s="26"/>
@@ -48663,61 +49726,61 @@
       <c r="A58" s="60"/>
       <c r="B58" s="100"/>
       <c r="C58" s="4"/>
-      <c r="H58" s="530" t="s">
+      <c r="H58" s="521" t="s">
         <v>16</v>
       </c>
-      <c r="I58" s="531"/>
+      <c r="I58" s="522"/>
       <c r="J58" s="101"/>
-      <c r="K58" s="532">
+      <c r="K58" s="523">
         <f>I56+L56</f>
         <v>370346.35000000003</v>
       </c>
-      <c r="L58" s="557"/>
-      <c r="M58" s="534">
+      <c r="L58" s="548"/>
+      <c r="M58" s="525">
         <f>M56+N56</f>
         <v>3537422</v>
       </c>
-      <c r="N58" s="535"/>
+      <c r="N58" s="526"/>
       <c r="O58" s="102"/>
       <c r="P58" s="99"/>
       <c r="Q58" s="99"/>
       <c r="S58" s="174"/>
     </row>
     <row r="59" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D59" s="542" t="s">
+      <c r="D59" s="533" t="s">
         <v>17</v>
       </c>
-      <c r="E59" s="558"/>
+      <c r="E59" s="546"/>
       <c r="F59" s="103">
         <f>F56-K58-C56</f>
         <v>3048717.54</v>
       </c>
       <c r="I59" s="104"/>
       <c r="J59" s="105"/>
-      <c r="P59" s="543">
+      <c r="P59" s="512">
         <f>P56+Q56</f>
         <v>8073324.3200000003</v>
       </c>
-      <c r="Q59" s="544"/>
+      <c r="Q59" s="513"/>
       <c r="S59" s="50"/>
     </row>
     <row r="60" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D60" s="545" t="s">
+      <c r="D60" s="514" t="s">
         <v>18</v>
       </c>
-      <c r="E60" s="545"/>
+      <c r="E60" s="514"/>
       <c r="F60" s="95">
         <v>-3102716.28</v>
       </c>
-      <c r="I60" s="546" t="s">
+      <c r="I60" s="515" t="s">
         <v>19</v>
       </c>
-      <c r="J60" s="547"/>
-      <c r="K60" s="548">
+      <c r="J60" s="516"/>
+      <c r="K60" s="517">
         <f>F62+F63+F64</f>
         <v>216465.62000000023</v>
       </c>
-      <c r="L60" s="549"/>
+      <c r="L60" s="518"/>
       <c r="P60" s="50"/>
       <c r="S60" s="107"/>
     </row>
@@ -48751,11 +49814,11 @@
         <v>21</v>
       </c>
       <c r="J62" s="115"/>
-      <c r="K62" s="550">
+      <c r="K62" s="519">
         <f>-C4</f>
         <v>-215362.9</v>
       </c>
-      <c r="L62" s="551"/>
+      <c r="L62" s="520"/>
       <c r="M62" s="116"/>
       <c r="P62" s="50"/>
       <c r="Q62" s="7"/>
@@ -48779,22 +49842,22 @@
       <c r="C64" s="119">
         <v>44320</v>
       </c>
-      <c r="D64" s="536" t="s">
+      <c r="D64" s="527" t="s">
         <v>24</v>
       </c>
-      <c r="E64" s="537"/>
+      <c r="E64" s="528"/>
       <c r="F64" s="120">
         <v>249311.35999999999</v>
       </c>
-      <c r="I64" s="538" t="s">
+      <c r="I64" s="529" t="s">
         <v>25</v>
       </c>
-      <c r="J64" s="539"/>
-      <c r="K64" s="540">
+      <c r="J64" s="530"/>
+      <c r="K64" s="531">
         <f>K60+K62</f>
         <v>1102.720000000234</v>
       </c>
-      <c r="L64" s="541"/>
+      <c r="L64" s="532"/>
       <c r="P64" s="50"/>
       <c r="Q64" s="7"/>
       <c r="S64" s="121"/>
@@ -48950,12 +50013,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="K62:L62"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="I64:J64"/>
-    <mergeCell ref="K64:L64"/>
-    <mergeCell ref="M58:N58"/>
-    <mergeCell ref="D59:E59"/>
     <mergeCell ref="P59:Q59"/>
     <mergeCell ref="D60:E60"/>
     <mergeCell ref="I60:J60"/>
@@ -48967,6 +50024,12 @@
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="H58:I58"/>
     <mergeCell ref="K58:L58"/>
+    <mergeCell ref="K62:L62"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="I64:J64"/>
+    <mergeCell ref="K64:L64"/>
+    <mergeCell ref="M58:N58"/>
+    <mergeCell ref="D59:E59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -49849,17 +50912,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C1" s="522" t="s">
+      <c r="C1" s="534" t="s">
         <v>504</v>
       </c>
-      <c r="D1" s="522"/>
-      <c r="E1" s="522"/>
-      <c r="F1" s="522"/>
-      <c r="G1" s="522"/>
-      <c r="H1" s="522"/>
-      <c r="I1" s="522"/>
-      <c r="J1" s="522"/>
-      <c r="K1" s="522"/>
+      <c r="D1" s="534"/>
+      <c r="E1" s="534"/>
+      <c r="F1" s="534"/>
+      <c r="G1" s="534"/>
+      <c r="H1" s="534"/>
+      <c r="I1" s="534"/>
+      <c r="J1" s="534"/>
+      <c r="K1" s="534"/>
       <c r="L1" s="2"/>
       <c r="M1" s="3"/>
       <c r="U1" s="209"/>
@@ -49889,17 +50952,17 @@
       </c>
     </row>
     <row r="3" spans="1:23" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="523" t="s">
+      <c r="B3" s="535" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="524"/>
+      <c r="C3" s="536"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="15"/>
-      <c r="H3" s="525" t="s">
+      <c r="H3" s="537" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="525"/>
+      <c r="I3" s="537"/>
       <c r="K3" s="17" t="s">
         <v>3</v>
       </c>
@@ -49928,14 +50991,14 @@
       <c r="D4" s="23">
         <v>44320</v>
       </c>
-      <c r="E4" s="526" t="s">
+      <c r="E4" s="538" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="527"/>
-      <c r="H4" s="528" t="s">
+      <c r="F4" s="539"/>
+      <c r="H4" s="540" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="529"/>
+      <c r="I4" s="541"/>
       <c r="J4" s="24"/>
       <c r="K4" s="25"/>
       <c r="L4" s="26"/>
@@ -52812,71 +53875,71 @@
       <c r="A64" s="60"/>
       <c r="B64" s="100"/>
       <c r="C64" s="4"/>
-      <c r="H64" s="530" t="s">
+      <c r="H64" s="521" t="s">
         <v>16</v>
       </c>
-      <c r="I64" s="531"/>
+      <c r="I64" s="522"/>
       <c r="J64" s="101"/>
-      <c r="K64" s="532">
+      <c r="K64" s="523">
         <f>I62+L62</f>
         <v>779034.56000000017</v>
       </c>
-      <c r="L64" s="533"/>
-      <c r="M64" s="534">
+      <c r="L64" s="524"/>
+      <c r="M64" s="525">
         <f>M62+N62</f>
         <v>4478181</v>
       </c>
-      <c r="N64" s="535"/>
+      <c r="N64" s="526"/>
       <c r="O64" s="102"/>
       <c r="P64" s="99"/>
       <c r="Q64" s="99"/>
       <c r="S64" s="174"/>
     </row>
     <row r="65" spans="2:19" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D65" s="542" t="s">
+      <c r="D65" s="533" t="s">
         <v>17</v>
       </c>
-      <c r="E65" s="542"/>
+      <c r="E65" s="533"/>
       <c r="F65" s="103">
         <f>F62-K64-C62</f>
         <v>3602842.44</v>
       </c>
       <c r="I65" s="104"/>
       <c r="J65" s="105"/>
-      <c r="P65" s="543">
+      <c r="P65" s="512">
         <f>P62+Q62</f>
         <v>5004562.5599999996</v>
       </c>
-      <c r="Q65" s="544"/>
+      <c r="Q65" s="513"/>
       <c r="S65" s="50"/>
     </row>
     <row r="66" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="559" t="s">
+      <c r="B66" s="549" t="s">
         <v>528</v>
       </c>
-      <c r="C66" s="560"/>
-      <c r="D66" s="542" t="s">
+      <c r="C66" s="550"/>
+      <c r="D66" s="533" t="s">
         <v>502</v>
       </c>
-      <c r="E66" s="542"/>
+      <c r="E66" s="533"/>
       <c r="F66" s="95">
         <v>-3854423.8</v>
       </c>
-      <c r="I66" s="546" t="s">
+      <c r="I66" s="515" t="s">
         <v>19</v>
       </c>
-      <c r="J66" s="547"/>
-      <c r="K66" s="548">
+      <c r="J66" s="516"/>
+      <c r="K66" s="517">
         <f>F68+F69+F70</f>
         <v>14998.430000000139</v>
       </c>
-      <c r="L66" s="549"/>
+      <c r="L66" s="518"/>
       <c r="P66" s="50"/>
       <c r="S66" s="107"/>
     </row>
     <row r="67" spans="2:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B67" s="561"/>
-      <c r="C67" s="562"/>
+      <c r="B67" s="551"/>
+      <c r="C67" s="552"/>
       <c r="D67" s="108"/>
       <c r="E67" s="60"/>
       <c r="F67" s="109">
@@ -52891,8 +53954,8 @@
       <c r="S67" s="50"/>
     </row>
     <row r="68" spans="2:19" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B68" s="563"/>
-      <c r="C68" s="564"/>
+      <c r="B68" s="553"/>
+      <c r="C68" s="554"/>
       <c r="E68" s="60" t="s">
         <v>20</v>
       </c>
@@ -52905,11 +53968,11 @@
         <v>21</v>
       </c>
       <c r="J68" s="115"/>
-      <c r="K68" s="550">
+      <c r="K68" s="519">
         <f>-C4</f>
         <v>-249311.35999999999</v>
       </c>
-      <c r="L68" s="551"/>
+      <c r="L68" s="520"/>
       <c r="M68" s="116"/>
       <c r="P68" s="50"/>
       <c r="Q68" s="7"/>
@@ -52933,22 +53996,22 @@
       <c r="C70" s="119">
         <v>44353</v>
       </c>
-      <c r="D70" s="536" t="s">
+      <c r="D70" s="527" t="s">
         <v>24</v>
       </c>
-      <c r="E70" s="537"/>
+      <c r="E70" s="528"/>
       <c r="F70" s="120">
         <v>255764.39</v>
       </c>
-      <c r="I70" s="538" t="s">
+      <c r="I70" s="529" t="s">
         <v>431</v>
       </c>
-      <c r="J70" s="539"/>
-      <c r="K70" s="540">
+      <c r="J70" s="530"/>
+      <c r="K70" s="531">
         <f>K66+K68</f>
         <v>-234312.92999999985</v>
       </c>
-      <c r="L70" s="541"/>
+      <c r="L70" s="532"/>
       <c r="P70" s="50"/>
       <c r="Q70" s="7"/>
       <c r="S70" s="121"/>
@@ -53104,11 +54167,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="I70:J70"/>
-    <mergeCell ref="K70:L70"/>
-    <mergeCell ref="M64:N64"/>
-    <mergeCell ref="D65:E65"/>
     <mergeCell ref="P65:Q65"/>
     <mergeCell ref="D66:E66"/>
     <mergeCell ref="I66:J66"/>
@@ -53122,6 +54180,11 @@
     <mergeCell ref="K64:L64"/>
     <mergeCell ref="B66:C68"/>
     <mergeCell ref="K68:L68"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="I70:J70"/>
+    <mergeCell ref="K70:L70"/>
+    <mergeCell ref="M64:N64"/>
+    <mergeCell ref="D65:E65"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO  2 0 2 1/CENTRAL # 08 AGOSTO  2021/BALANCE ABASTOS   AGOSTO       2021.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO  2 0 2 1/CENTRAL # 08 AGOSTO  2021/BALANCE ABASTOS   AGOSTO       2021.xlsx
@@ -32,7 +32,9 @@
     <sheet name="REPORTE  JUNIO  JULIO  AGOSTO  " sheetId="23" r:id="rId18"/>
     <sheet name="C A N C E L A C I O N E S   " sheetId="5" r:id="rId19"/>
     <sheet name="RELACION DE TIKETS       00000" sheetId="17" r:id="rId20"/>
-    <sheet name="Hoja2" sheetId="24" r:id="rId21"/>
+    <sheet name="Hoja1" sheetId="25" r:id="rId21"/>
+    <sheet name="Hoja3" sheetId="26" r:id="rId22"/>
+    <sheet name="Hoja2" sheetId="24" r:id="rId23"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -566,7 +568,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2081" uniqueCount="775">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2089" uniqueCount="780">
   <si>
     <t>MORRALLA EN CAJA DE 11 SUR   2,800.00  +  $ 1,200.00 Total    $  4,000.00</t>
   </si>
@@ -2881,16 +2883,31 @@
     <t>MANTECA-POLLO</t>
   </si>
   <si>
-    <t># 292341</t>
-  </si>
-  <si>
-    <t># 292342</t>
-  </si>
-  <si>
     <t xml:space="preserve">CHORIZO-POLLO  </t>
   </si>
   <si>
     <t xml:space="preserve">LICENCIAS HERRADURA </t>
+  </si>
+  <si>
+    <t>RETAZO-ENCHILADA-QUESOS-POLLO-MAIZ-PAPA</t>
+  </si>
+  <si>
+    <t>RETAZO--POLLO</t>
+  </si>
+  <si>
+    <t>LONGANIZA-QUESOS-TOSTADAS-TOTOPOS-POLLO</t>
+  </si>
+  <si>
+    <t>NOMINA #  34</t>
+  </si>
+  <si>
+    <t># 293963</t>
+  </si>
+  <si>
+    <t># 293964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#  </t>
   </si>
 </sst>
 </file>
@@ -5786,31 +5803,30 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="44" fontId="7" fillId="19" borderId="79" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="7" fillId="19" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="46" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="46" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="14" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5852,26 +5868,31 @@
     <xf numFmtId="166" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="46" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="46" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="6" fillId="15" borderId="48" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5886,14 +5907,14 @@
     <xf numFmtId="166" fontId="6" fillId="15" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="14" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="14" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="35" fillId="10" borderId="64" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -5912,6 +5933,15 @@
     </xf>
     <xf numFmtId="44" fontId="35" fillId="10" borderId="66" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="10" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="10" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="35" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="16" fillId="13" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -5991,26 +6021,32 @@
     <xf numFmtId="44" fontId="49" fillId="0" borderId="66" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="35" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="46" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="10" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="2" fillId="20" borderId="64" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="20" borderId="69" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="20" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="20" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="53" fillId="20" borderId="69" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="10" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="53" fillId="20" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="16" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="44" fontId="53" fillId="20" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="16" fillId="16" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="44" fontId="53" fillId="20" borderId="66" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="16" fillId="8" borderId="67" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -6051,44 +6087,17 @@
     <xf numFmtId="44" fontId="16" fillId="14" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="46" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="16" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="20" borderId="64" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="16" fillId="16" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="20" borderId="69" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="20" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="20" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="53" fillId="20" borderId="69" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="53" fillId="20" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="53" fillId="20" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="53" fillId="20" borderId="66" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="7" fontId="6" fillId="16" borderId="86" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="6" fillId="16" borderId="87" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="6" fillId="16" borderId="88" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="6" fillId="16" borderId="89" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="8" borderId="64" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -6114,6 +6123,30 @@
     <xf numFmtId="44" fontId="53" fillId="8" borderId="66" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="7" fontId="6" fillId="16" borderId="86" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="6" fillId="16" borderId="87" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="6" fillId="16" borderId="88" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="6" fillId="16" borderId="89" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="11" borderId="86" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="11" borderId="87" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="11" borderId="88" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="11" borderId="89" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="7" fontId="35" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -6135,18 +6168,6 @@
     <xf numFmtId="44" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="11" borderId="86" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="11" borderId="87" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="11" borderId="88" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="11" borderId="89" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -6155,10 +6176,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="19" borderId="79" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="7" fillId="19" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -11813,17 +11830,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C1" s="534" t="s">
+      <c r="C1" s="514" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="534"/>
-      <c r="E1" s="534"/>
-      <c r="F1" s="534"/>
-      <c r="G1" s="534"/>
-      <c r="H1" s="534"/>
-      <c r="I1" s="534"/>
-      <c r="J1" s="534"/>
-      <c r="K1" s="534"/>
+      <c r="D1" s="514"/>
+      <c r="E1" s="514"/>
+      <c r="F1" s="514"/>
+      <c r="G1" s="514"/>
+      <c r="H1" s="514"/>
+      <c r="I1" s="514"/>
+      <c r="J1" s="514"/>
+      <c r="K1" s="514"/>
       <c r="L1" s="2"/>
       <c r="M1" s="3"/>
       <c r="U1" s="209"/>
@@ -11854,17 +11871,17 @@
       </c>
     </row>
     <row r="3" spans="1:23" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="535" t="s">
+      <c r="B3" s="515" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="536"/>
+      <c r="C3" s="516"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="15"/>
-      <c r="H3" s="537" t="s">
+      <c r="H3" s="517" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="537"/>
+      <c r="I3" s="517"/>
       <c r="K3" s="17" t="s">
         <v>3</v>
       </c>
@@ -11893,14 +11910,14 @@
       <c r="D4" s="23">
         <v>44201</v>
       </c>
-      <c r="E4" s="538" t="s">
+      <c r="E4" s="518" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="539"/>
-      <c r="H4" s="540" t="s">
+      <c r="F4" s="519"/>
+      <c r="H4" s="520" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="541"/>
+      <c r="I4" s="521"/>
       <c r="J4" s="24"/>
       <c r="K4" s="25"/>
       <c r="L4" s="26"/>
@@ -14511,61 +14528,61 @@
       <c r="A64" s="60"/>
       <c r="B64" s="100"/>
       <c r="C64" s="4"/>
-      <c r="H64" s="521" t="s">
+      <c r="H64" s="522" t="s">
         <v>16</v>
       </c>
-      <c r="I64" s="522"/>
+      <c r="I64" s="523"/>
       <c r="J64" s="101"/>
-      <c r="K64" s="523">
+      <c r="K64" s="524">
         <f>I62+L62</f>
         <v>360753.85</v>
       </c>
-      <c r="L64" s="524"/>
-      <c r="M64" s="525">
+      <c r="L64" s="525"/>
+      <c r="M64" s="526">
         <f>M62+N62</f>
         <v>2886514.7</v>
       </c>
-      <c r="N64" s="526"/>
+      <c r="N64" s="527"/>
       <c r="O64" s="102"/>
       <c r="P64" s="99"/>
       <c r="Q64" s="99"/>
       <c r="S64" s="174"/>
     </row>
     <row r="65" spans="2:19" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D65" s="533" t="s">
+      <c r="D65" s="534" t="s">
         <v>17</v>
       </c>
-      <c r="E65" s="533"/>
+      <c r="E65" s="534"/>
       <c r="F65" s="103">
         <f>F62-K64-C62</f>
         <v>2365880.5699999998</v>
       </c>
       <c r="I65" s="104"/>
       <c r="J65" s="105"/>
-      <c r="P65" s="512">
+      <c r="P65" s="535">
         <f>P62+Q62</f>
         <v>3321521.28</v>
       </c>
-      <c r="Q65" s="513"/>
+      <c r="Q65" s="536"/>
       <c r="S65" s="50"/>
     </row>
     <row r="66" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D66" s="514" t="s">
+      <c r="D66" s="537" t="s">
         <v>18</v>
       </c>
-      <c r="E66" s="514"/>
+      <c r="E66" s="537"/>
       <c r="F66" s="95">
         <v>-2276696.6800000002</v>
       </c>
-      <c r="I66" s="515" t="s">
+      <c r="I66" s="538" t="s">
         <v>19</v>
       </c>
-      <c r="J66" s="516"/>
-      <c r="K66" s="517">
+      <c r="J66" s="539"/>
+      <c r="K66" s="540">
         <f>F68+F69+F70</f>
         <v>344253.98999999964</v>
       </c>
-      <c r="L66" s="518"/>
+      <c r="L66" s="541"/>
       <c r="P66" s="50"/>
       <c r="S66" s="107"/>
     </row>
@@ -14599,11 +14616,11 @@
         <v>21</v>
       </c>
       <c r="J68" s="115"/>
-      <c r="K68" s="519">
+      <c r="K68" s="542">
         <f>-C4</f>
         <v>-250864.68</v>
       </c>
-      <c r="L68" s="520"/>
+      <c r="L68" s="543"/>
       <c r="M68" s="116"/>
       <c r="P68" s="50"/>
       <c r="Q68" s="7"/>
@@ -14627,22 +14644,22 @@
       <c r="C70" s="119">
         <v>44230</v>
       </c>
-      <c r="D70" s="527" t="s">
+      <c r="D70" s="528" t="s">
         <v>24</v>
       </c>
-      <c r="E70" s="528"/>
+      <c r="E70" s="529"/>
       <c r="F70" s="120">
         <v>209541.1</v>
       </c>
-      <c r="I70" s="529" t="s">
+      <c r="I70" s="530" t="s">
         <v>25</v>
       </c>
-      <c r="J70" s="530"/>
-      <c r="K70" s="531">
+      <c r="J70" s="531"/>
+      <c r="K70" s="532">
         <f>K66+K68</f>
         <v>93389.309999999648</v>
       </c>
-      <c r="L70" s="532"/>
+      <c r="L70" s="533"/>
       <c r="P70" s="50"/>
       <c r="Q70" s="7"/>
       <c r="S70" s="121"/>
@@ -14746,11 +14763,11 @@
     <sortCondition ref="J35:J54"/>
   </sortState>
   <mergeCells count="17">
-    <mergeCell ref="C1:K1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="P65:Q65"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="I66:J66"/>
+    <mergeCell ref="K66:L66"/>
+    <mergeCell ref="K68:L68"/>
     <mergeCell ref="H64:I64"/>
     <mergeCell ref="K64:L64"/>
     <mergeCell ref="M64:N64"/>
@@ -14758,11 +14775,11 @@
     <mergeCell ref="I70:J70"/>
     <mergeCell ref="K70:L70"/>
     <mergeCell ref="D65:E65"/>
-    <mergeCell ref="P65:Q65"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="I66:J66"/>
-    <mergeCell ref="K66:L66"/>
-    <mergeCell ref="K68:L68"/>
+    <mergeCell ref="C1:K1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
   </mergeCells>
   <phoneticPr fontId="41" type="noConversion"/>
   <pageMargins left="0.2" right="0.16" top="0.34" bottom="0.32" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -16187,20 +16204,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="582" t="s">
+      <c r="B1" s="557" t="s">
         <v>529</v>
       </c>
-      <c r="C1" s="534" t="s">
+      <c r="C1" s="514" t="s">
         <v>503</v>
       </c>
-      <c r="D1" s="534"/>
-      <c r="E1" s="534"/>
-      <c r="F1" s="534"/>
-      <c r="G1" s="534"/>
-      <c r="H1" s="534"/>
-      <c r="I1" s="534"/>
-      <c r="J1" s="534"/>
-      <c r="K1" s="534"/>
+      <c r="D1" s="514"/>
+      <c r="E1" s="514"/>
+      <c r="F1" s="514"/>
+      <c r="G1" s="514"/>
+      <c r="H1" s="514"/>
+      <c r="I1" s="514"/>
+      <c r="J1" s="514"/>
+      <c r="K1" s="514"/>
       <c r="L1" s="2"/>
       <c r="M1" s="3"/>
       <c r="W1" s="209"/>
@@ -16210,7 +16227,7 @@
       <c r="Y1" s="206"/>
     </row>
     <row r="2" spans="1:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="583"/>
+      <c r="B2" s="558"/>
       <c r="C2" s="8"/>
       <c r="H2" s="10" t="s">
         <v>0</v>
@@ -16229,27 +16246,27 @@
       <c r="Y2" s="216" t="s">
         <v>28</v>
       </c>
-      <c r="AB2" s="565" t="s">
+      <c r="AB2" s="570" t="s">
         <v>596</v>
       </c>
-      <c r="AC2" s="565"/>
-      <c r="AD2" s="565"/>
-      <c r="AE2" s="565"/>
-      <c r="AF2" s="565"/>
-      <c r="AG2" s="565"/>
+      <c r="AC2" s="570"/>
+      <c r="AD2" s="570"/>
+      <c r="AE2" s="570"/>
+      <c r="AF2" s="570"/>
+      <c r="AG2" s="570"/>
     </row>
     <row r="3" spans="1:33" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="535" t="s">
+      <c r="B3" s="515" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="536"/>
+      <c r="C3" s="516"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="15"/>
-      <c r="H3" s="537" t="s">
+      <c r="H3" s="517" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="537"/>
+      <c r="I3" s="517"/>
       <c r="K3" s="17" t="s">
         <v>3</v>
       </c>
@@ -16257,7 +16274,7 @@
         <v>4</v>
       </c>
       <c r="M3" s="18"/>
-      <c r="P3" s="555" t="s">
+      <c r="P3" s="560" t="s">
         <v>562</v>
       </c>
       <c r="Q3" s="393"/>
@@ -16270,12 +16287,12 @@
       <c r="Y3" s="198">
         <v>2000</v>
       </c>
-      <c r="AB3" s="565"/>
-      <c r="AC3" s="565"/>
-      <c r="AD3" s="565"/>
-      <c r="AE3" s="565"/>
-      <c r="AF3" s="565"/>
-      <c r="AG3" s="565"/>
+      <c r="AB3" s="570"/>
+      <c r="AC3" s="570"/>
+      <c r="AD3" s="570"/>
+      <c r="AE3" s="570"/>
+      <c r="AF3" s="570"/>
+      <c r="AG3" s="570"/>
     </row>
     <row r="4" spans="1:33" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="20" t="s">
@@ -16288,14 +16305,14 @@
       <c r="D4" s="23">
         <v>44353</v>
       </c>
-      <c r="E4" s="538" t="s">
+      <c r="E4" s="518" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="539"/>
-      <c r="H4" s="540" t="s">
+      <c r="F4" s="519"/>
+      <c r="H4" s="520" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="541"/>
+      <c r="I4" s="521"/>
       <c r="J4" s="24"/>
       <c r="K4" s="25"/>
       <c r="L4" s="26"/>
@@ -16306,7 +16323,7 @@
         <v>10</v>
       </c>
       <c r="O4" s="365"/>
-      <c r="P4" s="555"/>
+      <c r="P4" s="560"/>
       <c r="Q4" s="393"/>
       <c r="R4" s="30"/>
       <c r="S4" s="31"/>
@@ -16321,16 +16338,16 @@
       <c r="Y4" s="217">
         <v>2000</v>
       </c>
-      <c r="AB4" s="566" t="s">
+      <c r="AB4" s="571" t="s">
         <v>527</v>
       </c>
-      <c r="AC4" s="567"/>
+      <c r="AC4" s="572"/>
       <c r="AD4" s="99"/>
-      <c r="AE4" s="568" t="s">
+      <c r="AE4" s="573" t="s">
         <v>567</v>
       </c>
-      <c r="AF4" s="568"/>
-      <c r="AG4" s="568"/>
+      <c r="AF4" s="573"/>
+      <c r="AG4" s="573"/>
     </row>
     <row r="5" spans="1:33" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="34" t="s">
@@ -17742,10 +17759,10 @@
         <v>0</v>
       </c>
       <c r="AD23" s="99"/>
-      <c r="AE23" s="573" t="s">
+      <c r="AE23" s="578" t="s">
         <v>564</v>
       </c>
-      <c r="AF23" s="574"/>
+      <c r="AF23" s="579"/>
       <c r="AG23" s="339">
         <f>SUM(AG6:AG22)</f>
         <v>2323600</v>
@@ -17889,11 +17906,11 @@
         <v>138607</v>
       </c>
       <c r="AD25" s="99"/>
-      <c r="AE25" s="575" t="s">
+      <c r="AE25" s="580" t="s">
         <v>565</v>
       </c>
-      <c r="AF25" s="576"/>
-      <c r="AG25" s="579">
+      <c r="AF25" s="581"/>
+      <c r="AG25" s="584">
         <f>AC29-AG23</f>
         <v>163726</v>
       </c>
@@ -17964,9 +17981,9 @@
         <v>107480</v>
       </c>
       <c r="AD26" s="99"/>
-      <c r="AE26" s="577"/>
-      <c r="AF26" s="578"/>
-      <c r="AG26" s="580"/>
+      <c r="AE26" s="582"/>
+      <c r="AF26" s="583"/>
+      <c r="AG26" s="585"/>
     </row>
     <row r="27" spans="1:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="34"/>
@@ -18141,10 +18158,10 @@
       </c>
       <c r="X29" s="220"/>
       <c r="Y29" s="218"/>
-      <c r="AB29" s="569" t="s">
+      <c r="AB29" s="574" t="s">
         <v>562</v>
       </c>
-      <c r="AC29" s="571">
+      <c r="AC29" s="576">
         <f>SUM(AC5:AC28)</f>
         <v>2487326</v>
       </c>
@@ -18180,11 +18197,11 @@
         <v>0</v>
       </c>
       <c r="O30" s="7"/>
-      <c r="P30" s="556">
+      <c r="P30" s="561">
         <f>SUM(P5:P29)</f>
         <v>-163726</v>
       </c>
-      <c r="Q30" s="556"/>
+      <c r="Q30" s="561"/>
       <c r="R30" s="7">
         <v>0</v>
       </c>
@@ -18198,8 +18215,8 @@
       </c>
       <c r="X30" s="221"/>
       <c r="Y30" s="207"/>
-      <c r="AB30" s="570"/>
-      <c r="AC30" s="572"/>
+      <c r="AB30" s="575"/>
+      <c r="AC30" s="577"/>
       <c r="AD30" s="99"/>
       <c r="AE30" s="99"/>
       <c r="AF30" s="99"/>
@@ -19561,21 +19578,21 @@
       <c r="A64" s="60"/>
       <c r="B64" s="100"/>
       <c r="C64" s="4"/>
-      <c r="H64" s="521" t="s">
+      <c r="H64" s="522" t="s">
         <v>16</v>
       </c>
-      <c r="I64" s="522"/>
+      <c r="I64" s="523"/>
       <c r="J64" s="101"/>
-      <c r="K64" s="523">
+      <c r="K64" s="524">
         <f>I62+L62</f>
         <v>339830.06000000006</v>
       </c>
-      <c r="L64" s="524"/>
-      <c r="M64" s="525">
+      <c r="L64" s="525"/>
+      <c r="M64" s="526">
         <f>M62+N62</f>
         <v>2936130</v>
       </c>
-      <c r="N64" s="526"/>
+      <c r="N64" s="527"/>
       <c r="O64" s="367"/>
       <c r="P64" s="367"/>
       <c r="Q64" s="367"/>
@@ -19590,40 +19607,40 @@
       <c r="AG64" s="327"/>
     </row>
     <row r="65" spans="2:33" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D65" s="533" t="s">
+      <c r="D65" s="534" t="s">
         <v>17</v>
       </c>
-      <c r="E65" s="533"/>
+      <c r="E65" s="534"/>
       <c r="F65" s="103">
         <f>F62-K64-C62</f>
         <v>2702101.7199999997</v>
       </c>
       <c r="I65" s="104"/>
       <c r="J65" s="105"/>
-      <c r="R65" s="512">
+      <c r="R65" s="535">
         <f>R62+S62</f>
         <v>3138957.44</v>
       </c>
-      <c r="S65" s="513"/>
+      <c r="S65" s="536"/>
       <c r="U65" s="50"/>
     </row>
     <row r="66" spans="2:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D66" s="514" t="s">
+      <c r="D66" s="537" t="s">
         <v>502</v>
       </c>
-      <c r="E66" s="514"/>
+      <c r="E66" s="537"/>
       <c r="F66" s="95">
         <v>-2720820.95</v>
       </c>
-      <c r="I66" s="515" t="s">
+      <c r="I66" s="538" t="s">
         <v>19</v>
       </c>
-      <c r="J66" s="516"/>
-      <c r="K66" s="517">
+      <c r="J66" s="539"/>
+      <c r="K66" s="540">
         <f>F68+F69+F70</f>
         <v>381077.48999999953</v>
       </c>
-      <c r="L66" s="518"/>
+      <c r="L66" s="541"/>
       <c r="R66" s="50"/>
       <c r="U66" s="107"/>
     </row>
@@ -19657,11 +19674,11 @@
         <v>21</v>
       </c>
       <c r="J68" s="115"/>
-      <c r="K68" s="519">
+      <c r="K68" s="542">
         <f>-C4</f>
         <v>-255764.39</v>
       </c>
-      <c r="L68" s="520"/>
+      <c r="L68" s="543"/>
       <c r="M68" s="116"/>
       <c r="R68" s="50"/>
       <c r="S68" s="7"/>
@@ -19685,22 +19702,22 @@
       <c r="C70" s="119">
         <v>44377</v>
       </c>
-      <c r="D70" s="527" t="s">
+      <c r="D70" s="528" t="s">
         <v>24</v>
       </c>
-      <c r="E70" s="528"/>
+      <c r="E70" s="529"/>
       <c r="F70" s="120">
         <v>308642.71999999997</v>
       </c>
-      <c r="I70" s="529" t="s">
+      <c r="I70" s="530" t="s">
         <v>25</v>
       </c>
-      <c r="J70" s="530"/>
-      <c r="K70" s="531">
+      <c r="J70" s="531"/>
+      <c r="K70" s="532">
         <f>K66+K68</f>
         <v>125313.09999999951</v>
       </c>
-      <c r="L70" s="532"/>
+      <c r="L70" s="533"/>
       <c r="R70" s="50"/>
       <c r="S70" s="7"/>
       <c r="U70" s="121"/>
@@ -19716,14 +19733,14 @@
       <c r="S71" s="7"/>
     </row>
     <row r="72" spans="2:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I72" s="557" t="s">
+      <c r="I72" s="562" t="s">
         <v>610</v>
       </c>
-      <c r="J72" s="558"/>
-      <c r="K72" s="561">
+      <c r="J72" s="563"/>
+      <c r="K72" s="566">
         <v>163726</v>
       </c>
-      <c r="L72" s="562"/>
+      <c r="L72" s="567"/>
       <c r="R72" s="7"/>
       <c r="S72" s="7"/>
     </row>
@@ -19732,10 +19749,10 @@
       <c r="C73" s="128"/>
       <c r="D73" s="129"/>
       <c r="E73" s="7"/>
-      <c r="I73" s="559"/>
-      <c r="J73" s="560"/>
-      <c r="K73" s="563"/>
-      <c r="L73" s="564"/>
+      <c r="I73" s="564"/>
+      <c r="J73" s="565"/>
+      <c r="K73" s="568"/>
+      <c r="L73" s="569"/>
       <c r="M73" s="2"/>
       <c r="N73" s="60"/>
       <c r="O73" s="165"/>
@@ -19787,7 +19804,7 @@
       <c r="C76" s="130"/>
       <c r="E76" s="7"/>
       <c r="M76" s="4"/>
-      <c r="AC76" s="581"/>
+      <c r="AC76" s="559"/>
       <c r="AD76" s="342"/>
       <c r="AE76" s="342"/>
       <c r="AF76" s="342"/>
@@ -19800,7 +19817,7 @@
       <c r="E77" s="7"/>
       <c r="F77" s="273"/>
       <c r="M77" s="4"/>
-      <c r="AC77" s="581"/>
+      <c r="AC77" s="559"/>
       <c r="AD77" s="342"/>
       <c r="AE77" s="342"/>
       <c r="AF77" s="342"/>
@@ -19894,22 +19911,6 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:K1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="AC76:AC77"/>
-    <mergeCell ref="R65:S65"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="I66:J66"/>
-    <mergeCell ref="K66:L66"/>
-    <mergeCell ref="K68:L68"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="I70:J70"/>
-    <mergeCell ref="K70:L70"/>
-    <mergeCell ref="D65:E65"/>
     <mergeCell ref="P3:P4"/>
     <mergeCell ref="P30:Q30"/>
     <mergeCell ref="I72:J73"/>
@@ -19925,6 +19926,22 @@
     <mergeCell ref="AE23:AF23"/>
     <mergeCell ref="AE25:AF26"/>
     <mergeCell ref="AG25:AG26"/>
+    <mergeCell ref="AC76:AC77"/>
+    <mergeCell ref="R65:S65"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="I66:J66"/>
+    <mergeCell ref="K66:L66"/>
+    <mergeCell ref="K68:L68"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="I70:J70"/>
+    <mergeCell ref="K70:L70"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:K1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
   </mergeCells>
   <pageMargins left="0.49" right="0.23622047244094491" top="0.47244094488188981" bottom="0.27559055118110237" header="0.70866141732283472" footer="0.31496062992125984"/>
   <pageSetup scale="90" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -21232,8 +21249,8 @@
   </sheetPr>
   <dimension ref="A1:W78"/>
   <sheetViews>
-    <sheetView topLeftCell="F22" workbookViewId="0">
-      <selection activeCell="N28" sqref="N28"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="E59" sqref="E59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -21262,25 +21279,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="582" t="s">
+      <c r="B1" s="557" t="s">
         <v>529</v>
       </c>
-      <c r="C1" s="534" t="s">
+      <c r="C1" s="514" t="s">
         <v>503</v>
       </c>
-      <c r="D1" s="534"/>
-      <c r="E1" s="534"/>
-      <c r="F1" s="534"/>
-      <c r="G1" s="534"/>
-      <c r="H1" s="534"/>
-      <c r="I1" s="534"/>
-      <c r="J1" s="534"/>
-      <c r="K1" s="534"/>
+      <c r="D1" s="514"/>
+      <c r="E1" s="514"/>
+      <c r="F1" s="514"/>
+      <c r="G1" s="514"/>
+      <c r="H1" s="514"/>
+      <c r="I1" s="514"/>
+      <c r="J1" s="514"/>
+      <c r="K1" s="514"/>
       <c r="L1" s="2"/>
       <c r="M1" s="3"/>
     </row>
     <row r="2" spans="1:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="583"/>
+      <c r="B2" s="558"/>
       <c r="C2" s="8"/>
       <c r="H2" s="10" t="s">
         <v>0</v>
@@ -21290,27 +21307,27 @@
       <c r="L2" s="12"/>
       <c r="M2" s="3"/>
       <c r="N2" s="6"/>
-      <c r="Q2" s="565" t="s">
+      <c r="Q2" s="570" t="s">
         <v>596</v>
       </c>
-      <c r="R2" s="565"/>
-      <c r="S2" s="565"/>
-      <c r="T2" s="565"/>
-      <c r="U2" s="565"/>
-      <c r="V2" s="565"/>
+      <c r="R2" s="570"/>
+      <c r="S2" s="570"/>
+      <c r="T2" s="570"/>
+      <c r="U2" s="570"/>
+      <c r="V2" s="570"/>
     </row>
     <row r="3" spans="1:23" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="535" t="s">
+      <c r="B3" s="515" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="536"/>
+      <c r="C3" s="516"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="15"/>
-      <c r="H3" s="537" t="s">
+      <c r="H3" s="517" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="537"/>
+      <c r="I3" s="517"/>
       <c r="K3" s="17" t="s">
         <v>3</v>
       </c>
@@ -21318,12 +21335,12 @@
         <v>4</v>
       </c>
       <c r="M3" s="18"/>
-      <c r="Q3" s="565"/>
-      <c r="R3" s="565"/>
-      <c r="S3" s="565"/>
-      <c r="T3" s="565"/>
-      <c r="U3" s="565"/>
-      <c r="V3" s="565"/>
+      <c r="Q3" s="570"/>
+      <c r="R3" s="570"/>
+      <c r="S3" s="570"/>
+      <c r="T3" s="570"/>
+      <c r="U3" s="570"/>
+      <c r="V3" s="570"/>
     </row>
     <row r="4" spans="1:23" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="20" t="s">
@@ -21336,14 +21353,14 @@
       <c r="D4" s="23">
         <v>44353</v>
       </c>
-      <c r="E4" s="538" t="s">
+      <c r="E4" s="518" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="539"/>
-      <c r="H4" s="540" t="s">
+      <c r="F4" s="519"/>
+      <c r="H4" s="520" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="541"/>
+      <c r="I4" s="521"/>
       <c r="J4" s="24"/>
       <c r="K4" s="25"/>
       <c r="L4" s="26"/>
@@ -21355,16 +21372,16 @@
       </c>
       <c r="O4" s="365"/>
       <c r="P4" s="29"/>
-      <c r="Q4" s="566" t="s">
+      <c r="Q4" s="571" t="s">
         <v>527</v>
       </c>
-      <c r="R4" s="567"/>
+      <c r="R4" s="572"/>
       <c r="S4" s="99"/>
-      <c r="T4" s="568" t="s">
+      <c r="T4" s="573" t="s">
         <v>567</v>
       </c>
-      <c r="U4" s="568"/>
-      <c r="V4" s="568"/>
+      <c r="U4" s="573"/>
+      <c r="V4" s="573"/>
       <c r="W4" s="99"/>
     </row>
     <row r="5" spans="1:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -22363,10 +22380,10 @@
         <v>0</v>
       </c>
       <c r="S23" s="99"/>
-      <c r="T23" s="573" t="s">
+      <c r="T23" s="578" t="s">
         <v>564</v>
       </c>
-      <c r="U23" s="574"/>
+      <c r="U23" s="579"/>
       <c r="V23" s="339">
         <f>SUM(V6:V22)</f>
         <v>2323600</v>
@@ -22470,11 +22487,11 @@
         <v>138607</v>
       </c>
       <c r="S25" s="99"/>
-      <c r="T25" s="575" t="s">
+      <c r="T25" s="580" t="s">
         <v>565</v>
       </c>
-      <c r="U25" s="576"/>
-      <c r="V25" s="579">
+      <c r="U25" s="581"/>
+      <c r="V25" s="584">
         <f>R29-V23</f>
         <v>163726</v>
       </c>
@@ -22523,9 +22540,9 @@
         <v>107480</v>
       </c>
       <c r="S26" s="99"/>
-      <c r="T26" s="577"/>
-      <c r="U26" s="578"/>
-      <c r="V26" s="580"/>
+      <c r="T26" s="582"/>
+      <c r="U26" s="583"/>
+      <c r="V26" s="585"/>
       <c r="W26" s="99"/>
     </row>
     <row r="27" spans="1:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -22648,10 +22665,10 @@
       </c>
       <c r="O29" s="7"/>
       <c r="P29" s="29"/>
-      <c r="Q29" s="569" t="s">
+      <c r="Q29" s="574" t="s">
         <v>562</v>
       </c>
-      <c r="R29" s="571">
+      <c r="R29" s="576">
         <f>SUM(R5:R28)</f>
         <v>2487326</v>
       </c>
@@ -22688,8 +22705,8 @@
       </c>
       <c r="O30" s="7"/>
       <c r="P30" s="373"/>
-      <c r="Q30" s="570"/>
-      <c r="R30" s="572"/>
+      <c r="Q30" s="575"/>
+      <c r="R30" s="577"/>
       <c r="S30" s="99"/>
       <c r="T30" s="99"/>
       <c r="U30" s="99"/>
@@ -23314,21 +23331,21 @@
       <c r="A50" s="60"/>
       <c r="B50" s="100"/>
       <c r="C50" s="4"/>
-      <c r="H50" s="521" t="s">
+      <c r="H50" s="522" t="s">
         <v>16</v>
       </c>
-      <c r="I50" s="522"/>
+      <c r="I50" s="523"/>
       <c r="J50" s="101"/>
-      <c r="K50" s="523">
+      <c r="K50" s="524">
         <f>I48+L48</f>
         <v>339830.06000000006</v>
       </c>
-      <c r="L50" s="524"/>
-      <c r="M50" s="525">
+      <c r="L50" s="525"/>
+      <c r="M50" s="526">
         <f>M48+N48</f>
         <v>612530</v>
       </c>
-      <c r="N50" s="526"/>
+      <c r="N50" s="527"/>
       <c r="O50" s="367"/>
       <c r="P50" s="102"/>
       <c r="Q50" s="320"/>
@@ -23340,10 +23357,10 @@
       <c r="W50" s="327"/>
     </row>
     <row r="51" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="D51" s="533" t="s">
+      <c r="D51" s="534" t="s">
         <v>17</v>
       </c>
-      <c r="E51" s="533"/>
+      <c r="E51" s="534"/>
       <c r="F51" s="103">
         <f>F48-K50-C48</f>
         <v>2702101.7199999997</v>
@@ -23352,22 +23369,22 @@
       <c r="J51" s="105"/>
     </row>
     <row r="52" spans="1:23" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D52" s="514" t="s">
+      <c r="D52" s="537" t="s">
         <v>502</v>
       </c>
-      <c r="E52" s="514"/>
+      <c r="E52" s="537"/>
       <c r="F52" s="95">
         <v>-2720820.95</v>
       </c>
-      <c r="I52" s="515" t="s">
+      <c r="I52" s="538" t="s">
         <v>19</v>
       </c>
-      <c r="J52" s="516"/>
-      <c r="K52" s="517">
+      <c r="J52" s="539"/>
+      <c r="K52" s="540">
         <f>F54+F55+F56</f>
         <v>381077.72999999952</v>
       </c>
-      <c r="L52" s="518"/>
+      <c r="L52" s="541"/>
     </row>
     <row r="53" spans="1:23" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D53" s="108"/>
@@ -23396,11 +23413,11 @@
         <v>21</v>
       </c>
       <c r="J54" s="115"/>
-      <c r="K54" s="519">
+      <c r="K54" s="542">
         <f>-C4</f>
         <v>-255764.39</v>
       </c>
-      <c r="L54" s="520"/>
+      <c r="L54" s="543"/>
       <c r="M54" s="116"/>
     </row>
     <row r="55" spans="1:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -23418,22 +23435,22 @@
       <c r="C56" s="119">
         <v>44377</v>
       </c>
-      <c r="D56" s="527" t="s">
+      <c r="D56" s="528" t="s">
         <v>24</v>
       </c>
-      <c r="E56" s="528"/>
+      <c r="E56" s="529"/>
       <c r="F56" s="120">
         <v>308642.71999999997</v>
       </c>
-      <c r="I56" s="529" t="s">
+      <c r="I56" s="530" t="s">
         <v>25</v>
       </c>
-      <c r="J56" s="530"/>
-      <c r="K56" s="531">
+      <c r="J56" s="531"/>
+      <c r="K56" s="532">
         <f>K52+K54</f>
         <v>125313.3399999995</v>
       </c>
-      <c r="L56" s="532"/>
+      <c r="L56" s="533"/>
     </row>
     <row r="57" spans="1:23" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C57" s="122"/>
@@ -23489,7 +23506,7 @@
       <c r="C62" s="130"/>
       <c r="E62" s="7"/>
       <c r="M62" s="4"/>
-      <c r="R62" s="581"/>
+      <c r="R62" s="559"/>
       <c r="S62" s="379"/>
       <c r="T62" s="379"/>
       <c r="U62" s="379"/>
@@ -23502,7 +23519,7 @@
       <c r="E63" s="7"/>
       <c r="F63" s="273"/>
       <c r="M63" s="4"/>
-      <c r="R63" s="581"/>
+      <c r="R63" s="559"/>
       <c r="S63" s="379"/>
       <c r="T63" s="379"/>
       <c r="U63" s="379"/>
@@ -23579,23 +23596,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="Q2:V3"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="T4:V4"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="K50:L50"/>
-    <mergeCell ref="M50:N50"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:K1"/>
-    <mergeCell ref="T23:U23"/>
-    <mergeCell ref="T25:U26"/>
-    <mergeCell ref="V25:V26"/>
-    <mergeCell ref="Q29:Q30"/>
-    <mergeCell ref="R29:R30"/>
     <mergeCell ref="R62:R63"/>
     <mergeCell ref="D51:E51"/>
     <mergeCell ref="D52:E52"/>
@@ -23605,6 +23605,23 @@
     <mergeCell ref="D56:E56"/>
     <mergeCell ref="I56:J56"/>
     <mergeCell ref="K56:L56"/>
+    <mergeCell ref="T23:U23"/>
+    <mergeCell ref="T25:U26"/>
+    <mergeCell ref="V25:V26"/>
+    <mergeCell ref="Q29:Q30"/>
+    <mergeCell ref="R29:R30"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="K50:L50"/>
+    <mergeCell ref="M50:N50"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:K1"/>
+    <mergeCell ref="Q2:V3"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="T4:V4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -23620,10 +23637,10 @@
   <dimension ref="A1:AG97"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="4" topLeftCell="M44" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="4" topLeftCell="F56" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="N26" sqref="N26"/>
+      <selection pane="bottomRight" activeCell="I77" sqref="I77:J78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -23658,20 +23675,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="582" t="s">
+      <c r="B1" s="557" t="s">
         <v>529</v>
       </c>
-      <c r="C1" s="534" t="s">
+      <c r="C1" s="514" t="s">
         <v>720</v>
       </c>
-      <c r="D1" s="534"/>
-      <c r="E1" s="534"/>
-      <c r="F1" s="534"/>
-      <c r="G1" s="534"/>
-      <c r="H1" s="534"/>
-      <c r="I1" s="534"/>
-      <c r="J1" s="534"/>
-      <c r="K1" s="534"/>
+      <c r="D1" s="514"/>
+      <c r="E1" s="514"/>
+      <c r="F1" s="514"/>
+      <c r="G1" s="514"/>
+      <c r="H1" s="514"/>
+      <c r="I1" s="514"/>
+      <c r="J1" s="514"/>
+      <c r="K1" s="514"/>
       <c r="L1" s="2"/>
       <c r="M1" s="3"/>
       <c r="W1" s="209"/>
@@ -23681,7 +23698,7 @@
       <c r="Y1" s="206"/>
     </row>
     <row r="2" spans="1:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="583"/>
+      <c r="B2" s="558"/>
       <c r="C2" s="8"/>
       <c r="H2" s="10" t="s">
         <v>0</v>
@@ -23700,27 +23717,27 @@
       <c r="Y2" s="216" t="s">
         <v>28</v>
       </c>
-      <c r="AB2" s="565" t="s">
+      <c r="AB2" s="570" t="s">
         <v>596</v>
       </c>
-      <c r="AC2" s="565"/>
-      <c r="AD2" s="565"/>
-      <c r="AE2" s="565"/>
-      <c r="AF2" s="565"/>
-      <c r="AG2" s="565"/>
+      <c r="AC2" s="570"/>
+      <c r="AD2" s="570"/>
+      <c r="AE2" s="570"/>
+      <c r="AF2" s="570"/>
+      <c r="AG2" s="570"/>
     </row>
     <row r="3" spans="1:33" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="535" t="s">
+      <c r="B3" s="515" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="536"/>
+      <c r="C3" s="516"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="15"/>
-      <c r="H3" s="537" t="s">
+      <c r="H3" s="517" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="537"/>
+      <c r="I3" s="517"/>
       <c r="K3" s="17" t="s">
         <v>3</v>
       </c>
@@ -23728,13 +23745,13 @@
         <v>4</v>
       </c>
       <c r="M3" s="18"/>
-      <c r="P3" s="584" t="s">
+      <c r="P3" s="608" t="s">
         <v>663</v>
       </c>
-      <c r="Q3" s="586" t="s">
+      <c r="Q3" s="610" t="s">
         <v>665</v>
       </c>
-      <c r="S3" s="587"/>
+      <c r="S3" s="611"/>
       <c r="W3" s="213" t="s">
         <v>54</v>
       </c>
@@ -23744,12 +23761,12 @@
       <c r="Y3" s="198">
         <v>2000</v>
       </c>
-      <c r="AB3" s="565"/>
-      <c r="AC3" s="565"/>
-      <c r="AD3" s="565"/>
-      <c r="AE3" s="565"/>
-      <c r="AF3" s="565"/>
-      <c r="AG3" s="565"/>
+      <c r="AB3" s="570"/>
+      <c r="AC3" s="570"/>
+      <c r="AD3" s="570"/>
+      <c r="AE3" s="570"/>
+      <c r="AF3" s="570"/>
+      <c r="AG3" s="570"/>
     </row>
     <row r="4" spans="1:33" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="20" t="s">
@@ -23762,14 +23779,14 @@
       <c r="D4" s="23">
         <v>44377</v>
       </c>
-      <c r="E4" s="538" t="s">
+      <c r="E4" s="518" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="539"/>
-      <c r="H4" s="585" t="s">
+      <c r="F4" s="519"/>
+      <c r="H4" s="609" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="541"/>
+      <c r="I4" s="521"/>
       <c r="J4" s="24"/>
       <c r="K4" s="25"/>
       <c r="L4" s="26"/>
@@ -23780,10 +23797,10 @@
         <v>10</v>
       </c>
       <c r="O4" s="365"/>
-      <c r="P4" s="584"/>
-      <c r="Q4" s="586"/>
+      <c r="P4" s="608"/>
+      <c r="Q4" s="610"/>
       <c r="R4" s="30"/>
-      <c r="S4" s="587"/>
+      <c r="S4" s="611"/>
       <c r="T4" s="30"/>
       <c r="U4" s="30"/>
       <c r="W4" s="213" t="s">
@@ -23795,16 +23812,16 @@
       <c r="Y4" s="217">
         <v>2000</v>
       </c>
-      <c r="AB4" s="566" t="s">
+      <c r="AB4" s="571" t="s">
         <v>527</v>
       </c>
-      <c r="AC4" s="567"/>
+      <c r="AC4" s="572"/>
       <c r="AD4" s="99"/>
-      <c r="AE4" s="568" t="s">
+      <c r="AE4" s="573" t="s">
         <v>567</v>
       </c>
-      <c r="AF4" s="568"/>
-      <c r="AG4" s="568"/>
+      <c r="AF4" s="573"/>
+      <c r="AG4" s="573"/>
     </row>
     <row r="5" spans="1:33" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="34" t="s">
@@ -25241,10 +25258,10 @@
         <v>0</v>
       </c>
       <c r="AD23" s="99"/>
-      <c r="AE23" s="573" t="s">
+      <c r="AE23" s="578" t="s">
         <v>564</v>
       </c>
-      <c r="AF23" s="574"/>
+      <c r="AF23" s="579"/>
       <c r="AG23" s="339">
         <f>SUM(AG6:AG22)</f>
         <v>2323600</v>
@@ -25376,11 +25393,11 @@
         <v>138607</v>
       </c>
       <c r="AD25" s="99"/>
-      <c r="AE25" s="575" t="s">
+      <c r="AE25" s="580" t="s">
         <v>565</v>
       </c>
-      <c r="AF25" s="576"/>
-      <c r="AG25" s="579">
+      <c r="AF25" s="581"/>
+      <c r="AG25" s="584">
         <f>AC29-AG23</f>
         <v>163726</v>
       </c>
@@ -25449,9 +25466,9 @@
         <v>107480</v>
       </c>
       <c r="AD26" s="99"/>
-      <c r="AE26" s="577"/>
-      <c r="AF26" s="578"/>
-      <c r="AG26" s="580"/>
+      <c r="AE26" s="582"/>
+      <c r="AF26" s="583"/>
+      <c r="AG26" s="585"/>
     </row>
     <row r="27" spans="1:33" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="34"/>
@@ -25650,10 +25667,10 @@
       </c>
       <c r="X29" s="220"/>
       <c r="Y29" s="218"/>
-      <c r="AB29" s="569" t="s">
+      <c r="AB29" s="574" t="s">
         <v>562</v>
       </c>
-      <c r="AC29" s="571">
+      <c r="AC29" s="576">
         <f>SUM(AC5:AC28)</f>
         <v>2487326</v>
       </c>
@@ -25716,8 +25733,8 @@
       </c>
       <c r="X30" s="221"/>
       <c r="Y30" s="207"/>
-      <c r="AB30" s="570"/>
-      <c r="AC30" s="572"/>
+      <c r="AB30" s="575"/>
+      <c r="AC30" s="577"/>
       <c r="AD30" s="99"/>
       <c r="AE30" s="99"/>
       <c r="AF30" s="99"/>
@@ -26210,11 +26227,11 @@
       <c r="J39" s="233"/>
       <c r="K39" s="361"/>
       <c r="L39" s="357"/>
-      <c r="M39" s="596">
+      <c r="M39" s="603">
         <f>SUM(M5:M38)</f>
         <v>3989872.22</v>
       </c>
-      <c r="N39" s="598">
+      <c r="N39" s="605">
         <f>SUM(N5:N38)</f>
         <v>688820.5</v>
       </c>
@@ -26263,8 +26280,8 @@
         <f>1145.91+398.99+423.94+498.99+398.99</f>
         <v>2866.8199999999997</v>
       </c>
-      <c r="M40" s="597"/>
-      <c r="N40" s="599"/>
+      <c r="M40" s="604"/>
+      <c r="N40" s="606"/>
       <c r="O40" s="7"/>
       <c r="P40" s="7"/>
       <c r="Q40" s="7"/>
@@ -26457,10 +26474,10 @@
       <c r="L44" s="358">
         <v>73526</v>
       </c>
-      <c r="M44" s="600" t="s">
+      <c r="M44" s="607" t="s">
         <v>567</v>
       </c>
-      <c r="N44" s="600"/>
+      <c r="N44" s="607"/>
       <c r="O44" s="7"/>
       <c r="P44" s="7"/>
       <c r="Q44" s="7"/>
@@ -27048,7 +27065,7 @@
       <c r="L57" s="458">
         <v>7482</v>
       </c>
-      <c r="M57" s="588">
+      <c r="M57" s="595">
         <f>SUM(M45:M56)</f>
         <v>3606750</v>
       </c>
@@ -27088,7 +27105,7 @@
       <c r="L58" s="458">
         <v>986</v>
       </c>
-      <c r="M58" s="589"/>
+      <c r="M58" s="596"/>
       <c r="N58" s="476"/>
       <c r="O58" s="7"/>
       <c r="P58" s="7"/>
@@ -27163,10 +27180,10 @@
         <f>1033.33+165.33</f>
         <v>1198.6599999999999</v>
       </c>
-      <c r="M60" s="590" t="s">
+      <c r="M60" s="597" t="s">
         <v>719</v>
       </c>
-      <c r="N60" s="591"/>
+      <c r="N60" s="598"/>
       <c r="O60" s="7"/>
       <c r="P60" s="7"/>
       <c r="Q60" s="7"/>
@@ -27239,11 +27256,11 @@
       <c r="L62" s="458">
         <v>22595.71</v>
       </c>
-      <c r="M62" s="592">
+      <c r="M62" s="599">
         <f>M57-M39</f>
         <v>-383122.2200000002</v>
       </c>
-      <c r="N62" s="593"/>
+      <c r="N62" s="600"/>
       <c r="O62" s="7"/>
       <c r="P62" s="7"/>
       <c r="Q62" s="7"/>
@@ -27279,8 +27296,8 @@
       <c r="L63" s="458">
         <v>1064</v>
       </c>
-      <c r="M63" s="594"/>
-      <c r="N63" s="595"/>
+      <c r="M63" s="601"/>
+      <c r="N63" s="602"/>
       <c r="O63" s="7"/>
       <c r="P63" s="7"/>
       <c r="Q63" s="7"/>
@@ -27311,7 +27328,7 @@
         <v>695</v>
       </c>
       <c r="K64" s="425" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="L64" s="458">
         <v>10440</v>
@@ -27470,16 +27487,16 @@
       <c r="A69" s="60"/>
       <c r="B69" s="100"/>
       <c r="C69" s="4"/>
-      <c r="H69" s="521" t="s">
+      <c r="H69" s="522" t="s">
         <v>16</v>
       </c>
-      <c r="I69" s="522"/>
+      <c r="I69" s="523"/>
       <c r="J69" s="101"/>
-      <c r="K69" s="523">
+      <c r="K69" s="524">
         <f>I67+L67</f>
         <v>587206.12</v>
       </c>
-      <c r="L69" s="524"/>
+      <c r="L69" s="525"/>
       <c r="M69" s="471"/>
       <c r="N69" s="472"/>
       <c r="O69" s="367"/>
@@ -27496,40 +27513,40 @@
       <c r="AG69" s="327"/>
     </row>
     <row r="70" spans="1:33" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D70" s="533" t="s">
+      <c r="D70" s="534" t="s">
         <v>17</v>
       </c>
-      <c r="E70" s="533"/>
+      <c r="E70" s="534"/>
       <c r="F70" s="103">
         <f>F67-K69-C67</f>
         <v>3436910.52</v>
       </c>
       <c r="I70" s="104"/>
       <c r="J70" s="105"/>
-      <c r="R70" s="512">
+      <c r="R70" s="535">
         <f>R67+S67</f>
         <v>10503773.959999999</v>
       </c>
-      <c r="S70" s="513"/>
+      <c r="S70" s="536"/>
       <c r="U70" s="50"/>
     </row>
     <row r="71" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D71" s="514" t="s">
+      <c r="D71" s="537" t="s">
         <v>502</v>
       </c>
-      <c r="E71" s="514"/>
+      <c r="E71" s="537"/>
       <c r="F71" s="95">
         <v>-3290264.27</v>
       </c>
-      <c r="I71" s="515" t="s">
+      <c r="I71" s="538" t="s">
         <v>19</v>
       </c>
-      <c r="J71" s="516"/>
-      <c r="K71" s="517">
+      <c r="J71" s="539"/>
+      <c r="K71" s="540">
         <f>F73+F74+F75</f>
         <v>426565.1</v>
       </c>
-      <c r="L71" s="518"/>
+      <c r="L71" s="541"/>
       <c r="R71" s="50"/>
       <c r="U71" s="107"/>
     </row>
@@ -27563,11 +27580,11 @@
         <v>21</v>
       </c>
       <c r="J73" s="115"/>
-      <c r="K73" s="519">
+      <c r="K73" s="542">
         <f>-C4</f>
         <v>-308642.71999999997</v>
       </c>
-      <c r="L73" s="601"/>
+      <c r="L73" s="586"/>
       <c r="R73" s="50"/>
       <c r="S73" s="7"/>
       <c r="U73" s="50"/>
@@ -27590,22 +27607,22 @@
       <c r="C75" s="119">
         <v>44410</v>
       </c>
-      <c r="D75" s="527" t="s">
+      <c r="D75" s="528" t="s">
         <v>24</v>
       </c>
-      <c r="E75" s="528"/>
+      <c r="E75" s="529"/>
       <c r="F75" s="120">
         <v>250140.85</v>
       </c>
-      <c r="I75" s="529" t="s">
+      <c r="I75" s="530" t="s">
         <v>25</v>
       </c>
-      <c r="J75" s="530"/>
-      <c r="K75" s="531">
+      <c r="J75" s="531"/>
+      <c r="K75" s="532">
         <f>K71+K73</f>
         <v>117922.38</v>
       </c>
-      <c r="L75" s="531"/>
+      <c r="L75" s="532"/>
       <c r="R75" s="50"/>
       <c r="S75" s="7"/>
       <c r="U75" s="121"/>
@@ -27620,14 +27637,14 @@
       <c r="S76" s="7"/>
     </row>
     <row r="77" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I77" s="602" t="s">
+      <c r="I77" s="587" t="s">
         <v>610</v>
       </c>
-      <c r="J77" s="603"/>
-      <c r="K77" s="606">
+      <c r="J77" s="588"/>
+      <c r="K77" s="591">
         <v>-383122.22</v>
       </c>
-      <c r="L77" s="607"/>
+      <c r="L77" s="592"/>
       <c r="R77" s="7"/>
       <c r="S77" s="7"/>
     </row>
@@ -27636,10 +27653,10 @@
       <c r="C78" s="128"/>
       <c r="D78" s="129"/>
       <c r="E78" s="7"/>
-      <c r="I78" s="604"/>
-      <c r="J78" s="605"/>
-      <c r="K78" s="608"/>
-      <c r="L78" s="609"/>
+      <c r="I78" s="589"/>
+      <c r="J78" s="590"/>
+      <c r="K78" s="593"/>
+      <c r="L78" s="594"/>
       <c r="M78" s="2"/>
       <c r="N78" s="60"/>
       <c r="O78" s="165"/>
@@ -27691,7 +27708,7 @@
       <c r="C81" s="130"/>
       <c r="E81" s="7"/>
       <c r="M81" s="4"/>
-      <c r="AC81" s="581"/>
+      <c r="AC81" s="559"/>
       <c r="AD81" s="440"/>
       <c r="AE81" s="440"/>
       <c r="AF81" s="440"/>
@@ -27704,7 +27721,7 @@
       <c r="E82" s="7"/>
       <c r="F82" s="273"/>
       <c r="M82" s="4"/>
-      <c r="AC82" s="581"/>
+      <c r="AC82" s="559"/>
       <c r="AD82" s="440"/>
       <c r="AE82" s="440"/>
       <c r="AF82" s="440"/>
@@ -27798,13 +27815,21 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="AC81:AC82"/>
-    <mergeCell ref="K73:L73"/>
-    <mergeCell ref="D75:E75"/>
-    <mergeCell ref="I75:J75"/>
-    <mergeCell ref="K75:L75"/>
-    <mergeCell ref="I77:J78"/>
-    <mergeCell ref="K77:L78"/>
+    <mergeCell ref="AG25:AG26"/>
+    <mergeCell ref="AB29:AB30"/>
+    <mergeCell ref="AC29:AC30"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:K1"/>
+    <mergeCell ref="AB2:AG3"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="AB4:AC4"/>
+    <mergeCell ref="AE4:AG4"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="S3:S4"/>
     <mergeCell ref="D71:E71"/>
     <mergeCell ref="I71:J71"/>
     <mergeCell ref="K71:L71"/>
@@ -27820,21 +27845,13 @@
     <mergeCell ref="M39:M40"/>
     <mergeCell ref="N39:N40"/>
     <mergeCell ref="M44:N44"/>
-    <mergeCell ref="AG25:AG26"/>
-    <mergeCell ref="AB29:AB30"/>
-    <mergeCell ref="AC29:AC30"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:K1"/>
-    <mergeCell ref="AB2:AG3"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="AB4:AC4"/>
-    <mergeCell ref="AE4:AG4"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="AC81:AC82"/>
+    <mergeCell ref="K73:L73"/>
+    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="I75:J75"/>
+    <mergeCell ref="K75:L75"/>
+    <mergeCell ref="I77:J78"/>
+    <mergeCell ref="K77:L78"/>
   </mergeCells>
   <pageMargins left="0.35433070866141736" right="0.27559055118110237" top="0.27559055118110237" bottom="0.31496062992125984" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="90" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -29481,8 +29498,8 @@
   </sheetPr>
   <dimension ref="A1:AG97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I43" sqref="I43"/>
+    <sheetView tabSelected="1" topLeftCell="J7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T23" sqref="T23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -29517,20 +29534,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="582" t="s">
+      <c r="B1" s="557" t="s">
         <v>529</v>
       </c>
-      <c r="C1" s="534" t="s">
+      <c r="C1" s="514" t="s">
         <v>721</v>
       </c>
-      <c r="D1" s="534"/>
-      <c r="E1" s="534"/>
-      <c r="F1" s="534"/>
-      <c r="G1" s="534"/>
-      <c r="H1" s="534"/>
-      <c r="I1" s="534"/>
-      <c r="J1" s="534"/>
-      <c r="K1" s="534"/>
+      <c r="D1" s="514"/>
+      <c r="E1" s="514"/>
+      <c r="F1" s="514"/>
+      <c r="G1" s="514"/>
+      <c r="H1" s="514"/>
+      <c r="I1" s="514"/>
+      <c r="J1" s="514"/>
+      <c r="K1" s="514"/>
       <c r="L1" s="2"/>
       <c r="M1" s="3"/>
       <c r="W1" s="209"/>
@@ -29540,7 +29557,7 @@
       <c r="Y1" s="206"/>
     </row>
     <row r="2" spans="1:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="583"/>
+      <c r="B2" s="558"/>
       <c r="C2" s="8"/>
       <c r="H2" s="10" t="s">
         <v>0</v>
@@ -29559,27 +29576,27 @@
       <c r="Y2" s="216" t="s">
         <v>28</v>
       </c>
-      <c r="AB2" s="565" t="s">
+      <c r="AB2" s="570" t="s">
         <v>596</v>
       </c>
-      <c r="AC2" s="565"/>
-      <c r="AD2" s="565"/>
-      <c r="AE2" s="565"/>
-      <c r="AF2" s="565"/>
-      <c r="AG2" s="565"/>
+      <c r="AC2" s="570"/>
+      <c r="AD2" s="570"/>
+      <c r="AE2" s="570"/>
+      <c r="AF2" s="570"/>
+      <c r="AG2" s="570"/>
     </row>
     <row r="3" spans="1:33" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="535" t="s">
+      <c r="B3" s="515" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="536"/>
+      <c r="C3" s="516"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="15"/>
-      <c r="H3" s="537" t="s">
+      <c r="H3" s="517" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="537"/>
+      <c r="I3" s="517"/>
       <c r="K3" s="17" t="s">
         <v>3</v>
       </c>
@@ -29590,13 +29607,13 @@
       <c r="O3" s="366" t="s">
         <v>753</v>
       </c>
-      <c r="P3" s="584" t="s">
+      <c r="P3" s="608" t="s">
         <v>663</v>
       </c>
-      <c r="Q3" s="586" t="s">
+      <c r="Q3" s="610" t="s">
         <v>665</v>
       </c>
-      <c r="S3" s="587"/>
+      <c r="S3" s="611"/>
       <c r="W3" s="213" t="s">
         <v>54</v>
       </c>
@@ -29606,12 +29623,12 @@
       <c r="Y3" s="198">
         <v>2000</v>
       </c>
-      <c r="AB3" s="565"/>
-      <c r="AC3" s="565"/>
-      <c r="AD3" s="565"/>
-      <c r="AE3" s="565"/>
-      <c r="AF3" s="565"/>
-      <c r="AG3" s="565"/>
+      <c r="AB3" s="570"/>
+      <c r="AC3" s="570"/>
+      <c r="AD3" s="570"/>
+      <c r="AE3" s="570"/>
+      <c r="AF3" s="570"/>
+      <c r="AG3" s="570"/>
     </row>
     <row r="4" spans="1:33" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="20" t="s">
@@ -29624,14 +29641,14 @@
       <c r="D4" s="23">
         <v>44410</v>
       </c>
-      <c r="E4" s="538" t="s">
+      <c r="E4" s="518" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="539"/>
-      <c r="H4" s="585" t="s">
+      <c r="F4" s="519"/>
+      <c r="H4" s="609" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="541"/>
+      <c r="I4" s="521"/>
       <c r="J4" s="24"/>
       <c r="K4" s="25"/>
       <c r="L4" s="26"/>
@@ -29642,10 +29659,10 @@
         <v>11</v>
       </c>
       <c r="O4" s="99"/>
-      <c r="P4" s="584"/>
-      <c r="Q4" s="586"/>
+      <c r="P4" s="608"/>
+      <c r="Q4" s="610"/>
       <c r="R4" s="30"/>
-      <c r="S4" s="587"/>
+      <c r="S4" s="611"/>
       <c r="T4" s="30"/>
       <c r="U4" s="30"/>
       <c r="W4" s="213" t="s">
@@ -29657,16 +29674,16 @@
       <c r="Y4" s="217">
         <v>2000</v>
       </c>
-      <c r="AB4" s="566" t="s">
+      <c r="AB4" s="571" t="s">
         <v>527</v>
       </c>
-      <c r="AC4" s="567"/>
+      <c r="AC4" s="572"/>
       <c r="AD4" s="99"/>
-      <c r="AE4" s="568" t="s">
+      <c r="AE4" s="573" t="s">
         <v>567</v>
       </c>
-      <c r="AF4" s="568"/>
-      <c r="AG4" s="568"/>
+      <c r="AF4" s="573"/>
+      <c r="AG4" s="573"/>
     </row>
     <row r="5" spans="1:33" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="34" t="s">
@@ -30706,7 +30723,7 @@
         <v>4381</v>
       </c>
       <c r="D18" s="139" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="E18" s="136">
         <v>44425</v>
@@ -30780,47 +30797,49 @@
         <v>44426</v>
       </c>
       <c r="C19" s="36">
-        <v>0</v>
-      </c>
-      <c r="D19" s="139"/>
+        <v>26637</v>
+      </c>
+      <c r="D19" s="139" t="s">
+        <v>773</v>
+      </c>
       <c r="E19" s="136">
         <v>44426</v>
       </c>
       <c r="F19" s="37">
-        <v>0</v>
+        <v>101512</v>
       </c>
       <c r="G19" s="137"/>
       <c r="H19" s="138">
         <v>44426</v>
       </c>
       <c r="I19" s="38">
-        <v>0</v>
+        <v>2440</v>
       </c>
       <c r="J19" s="52"/>
       <c r="K19" s="163"/>
       <c r="L19" s="59"/>
       <c r="M19" s="444">
-        <v>0</v>
+        <v>67168</v>
       </c>
       <c r="N19" s="42">
-        <v>0</v>
+        <v>7233</v>
       </c>
       <c r="O19" s="492">
         <v>44426</v>
       </c>
       <c r="P19" s="389">
-        <v>0</v>
+        <v>1966</v>
       </c>
       <c r="Q19" s="447">
         <v>0</v>
       </c>
       <c r="R19" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S19" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>103478</v>
+      </c>
+      <c r="S19" s="201">
+        <f t="shared" si="0"/>
+        <v>1966</v>
       </c>
       <c r="T19" s="58"/>
       <c r="W19" s="213" t="s">
@@ -30849,36 +30868,38 @@
         <v>209600</v>
       </c>
     </row>
-    <row r="20" spans="1:33" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:33" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="34"/>
       <c r="B20" s="134">
         <v>44427</v>
       </c>
       <c r="C20" s="36">
-        <v>0</v>
-      </c>
-      <c r="D20" s="139"/>
+        <v>8688</v>
+      </c>
+      <c r="D20" s="139" t="s">
+        <v>774</v>
+      </c>
       <c r="E20" s="136">
         <v>44427</v>
       </c>
       <c r="F20" s="37">
-        <v>0</v>
+        <v>99258</v>
       </c>
       <c r="G20" s="137"/>
       <c r="H20" s="138">
         <v>44427</v>
       </c>
       <c r="I20" s="38">
-        <v>0</v>
+        <v>495</v>
       </c>
       <c r="J20" s="52"/>
       <c r="K20" s="164"/>
       <c r="L20" s="53"/>
       <c r="M20" s="444">
-        <v>0</v>
+        <v>83214</v>
       </c>
       <c r="N20" s="42">
-        <v>0</v>
+        <v>6861</v>
       </c>
       <c r="O20" s="392"/>
       <c r="P20" s="389">
@@ -30889,7 +30910,7 @@
       </c>
       <c r="R20" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>99258</v>
       </c>
       <c r="S20" s="6">
         <f t="shared" si="0"/>
@@ -30922,36 +30943,44 @@
         <v>75870</v>
       </c>
     </row>
-    <row r="21" spans="1:33" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:33" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="34"/>
       <c r="B21" s="134">
         <v>44428</v>
       </c>
       <c r="C21" s="36">
-        <v>0</v>
-      </c>
-      <c r="D21" s="139"/>
+        <v>18102</v>
+      </c>
+      <c r="D21" s="139" t="s">
+        <v>775</v>
+      </c>
       <c r="E21" s="136">
         <v>44428</v>
       </c>
       <c r="F21" s="37">
-        <v>0</v>
+        <v>168160</v>
       </c>
       <c r="G21" s="137"/>
       <c r="H21" s="138">
         <v>44428</v>
       </c>
       <c r="I21" s="38">
-        <v>0</v>
-      </c>
-      <c r="J21" s="52"/>
-      <c r="K21" s="162"/>
-      <c r="L21" s="53"/>
+        <v>700</v>
+      </c>
+      <c r="J21" s="52">
+        <v>44428</v>
+      </c>
+      <c r="K21" s="162" t="s">
+        <v>722</v>
+      </c>
+      <c r="L21" s="53">
+        <v>10000</v>
+      </c>
       <c r="M21" s="444">
-        <v>0</v>
+        <v>130209</v>
       </c>
       <c r="N21" s="42">
-        <v>0</v>
+        <v>9149</v>
       </c>
       <c r="O21" s="392"/>
       <c r="P21" s="389">
@@ -30962,7 +30991,7 @@
       </c>
       <c r="R21" s="7">
         <f>C21+I21+M21+N21+L21</f>
-        <v>0</v>
+        <v>168160</v>
       </c>
       <c r="S21" s="6">
         <f t="shared" si="0"/>
@@ -30991,36 +31020,45 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:33" ht="24" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:33" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="34"/>
       <c r="B22" s="134">
         <v>44429</v>
       </c>
       <c r="C22" s="36">
-        <v>0</v>
-      </c>
-      <c r="D22" s="139"/>
+        <v>2560</v>
+      </c>
+      <c r="D22" s="139" t="s">
+        <v>121</v>
+      </c>
       <c r="E22" s="136">
         <v>44429</v>
       </c>
       <c r="F22" s="37">
-        <v>0</v>
+        <v>149628</v>
       </c>
       <c r="G22" s="137"/>
       <c r="H22" s="138">
         <v>44429</v>
       </c>
       <c r="I22" s="38">
-        <v>0</v>
-      </c>
-      <c r="J22" s="52"/>
-      <c r="K22" s="165"/>
-      <c r="L22" s="61"/>
+        <v>550</v>
+      </c>
+      <c r="J22" s="52">
+        <v>44429</v>
+      </c>
+      <c r="K22" s="165" t="s">
+        <v>776</v>
+      </c>
+      <c r="L22" s="61">
+        <f>22010.68+400</f>
+        <v>22410.68</v>
+      </c>
       <c r="M22" s="444">
-        <v>0</v>
+        <v>114598</v>
       </c>
       <c r="N22" s="42">
-        <v>0</v>
+        <v>16271</v>
       </c>
       <c r="O22" s="392"/>
       <c r="P22" s="389">
@@ -31030,12 +31068,12 @@
         <v>0</v>
       </c>
       <c r="R22" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>C22+I22+M22+N22+L22</f>
+        <v>156389.68</v>
       </c>
       <c r="S22" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6761.679999999993</v>
       </c>
       <c r="T22" s="58"/>
       <c r="W22" s="213" t="s">
@@ -31060,36 +31098,38 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:33" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:33" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="34"/>
       <c r="B23" s="134">
         <v>44430</v>
       </c>
       <c r="C23" s="36">
-        <v>0</v>
-      </c>
-      <c r="D23" s="139"/>
+        <v>1686</v>
+      </c>
+      <c r="D23" s="140" t="s">
+        <v>45</v>
+      </c>
       <c r="E23" s="136">
         <v>44430</v>
       </c>
       <c r="F23" s="37">
-        <v>0</v>
+        <v>99724</v>
       </c>
       <c r="G23" s="137"/>
       <c r="H23" s="138">
         <v>44430</v>
       </c>
       <c r="I23" s="38">
-        <v>0</v>
+        <v>565</v>
       </c>
       <c r="J23" s="293"/>
       <c r="K23" s="279"/>
       <c r="L23" s="53"/>
       <c r="M23" s="444">
-        <v>0</v>
+        <v>87687</v>
       </c>
       <c r="N23" s="42">
-        <v>0</v>
+        <v>9786</v>
       </c>
       <c r="O23" s="392"/>
       <c r="P23" s="389">
@@ -31100,7 +31140,7 @@
       </c>
       <c r="R23" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>99724</v>
       </c>
       <c r="S23" s="6">
         <f t="shared" si="0"/>
@@ -31123,16 +31163,16 @@
         <v>0</v>
       </c>
       <c r="AD23" s="99"/>
-      <c r="AE23" s="573" t="s">
+      <c r="AE23" s="578" t="s">
         <v>564</v>
       </c>
-      <c r="AF23" s="574"/>
+      <c r="AF23" s="579"/>
       <c r="AG23" s="339">
         <f>SUM(AG6:AG22)</f>
         <v>2323600</v>
       </c>
     </row>
-    <row r="24" spans="1:33" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:33" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="34"/>
       <c r="B24" s="134">
         <v>44431</v>
@@ -31195,7 +31235,7 @@
       <c r="AF24" s="323"/>
       <c r="AG24" s="99"/>
     </row>
-    <row r="25" spans="1:33" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:33" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="34"/>
       <c r="B25" s="134">
         <v>44432</v>
@@ -31258,16 +31298,16 @@
         <v>138607</v>
       </c>
       <c r="AD25" s="99"/>
-      <c r="AE25" s="575" t="s">
+      <c r="AE25" s="580" t="s">
         <v>565</v>
       </c>
-      <c r="AF25" s="576"/>
-      <c r="AG25" s="579">
+      <c r="AF25" s="581"/>
+      <c r="AG25" s="584">
         <f>AC29-AG23</f>
         <v>163726</v>
       </c>
     </row>
-    <row r="26" spans="1:33" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:33" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="34"/>
       <c r="B26" s="134">
         <v>44433</v>
@@ -31330,11 +31370,11 @@
         <v>107480</v>
       </c>
       <c r="AD26" s="99"/>
-      <c r="AE26" s="577"/>
-      <c r="AF26" s="578"/>
-      <c r="AG26" s="580"/>
-    </row>
-    <row r="27" spans="1:33" ht="21.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AE26" s="582"/>
+      <c r="AF26" s="583"/>
+      <c r="AG26" s="585"/>
+    </row>
+    <row r="27" spans="1:33" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="34"/>
       <c r="B27" s="134">
         <v>44434</v>
@@ -31401,7 +31441,7 @@
       <c r="AF27" s="99"/>
       <c r="AG27" s="99"/>
     </row>
-    <row r="28" spans="1:33" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:33" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="34"/>
       <c r="B28" s="134">
         <v>44435</v>
@@ -31464,7 +31504,7 @@
       <c r="AF28" s="99"/>
       <c r="AG28" s="99"/>
     </row>
-    <row r="29" spans="1:33" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:33" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="34"/>
       <c r="B29" s="134">
         <v>44436</v>
@@ -31516,10 +31556,10 @@
       </c>
       <c r="X29" s="220"/>
       <c r="Y29" s="218"/>
-      <c r="AB29" s="569" t="s">
+      <c r="AB29" s="574" t="s">
         <v>562</v>
       </c>
-      <c r="AC29" s="571">
+      <c r="AC29" s="576">
         <f>SUM(AC5:AC28)</f>
         <v>2487326</v>
       </c>
@@ -31528,7 +31568,7 @@
       <c r="AF29" s="340"/>
       <c r="AG29" s="340"/>
     </row>
-    <row r="30" spans="1:33" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:33" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="34"/>
       <c r="B30" s="134">
         <v>44437</v>
@@ -31580,14 +31620,14 @@
       </c>
       <c r="X30" s="221"/>
       <c r="Y30" s="207"/>
-      <c r="AB30" s="570"/>
-      <c r="AC30" s="572"/>
+      <c r="AB30" s="575"/>
+      <c r="AC30" s="577"/>
       <c r="AD30" s="99"/>
       <c r="AE30" s="99"/>
       <c r="AF30" s="99"/>
       <c r="AG30" s="99"/>
     </row>
-    <row r="31" spans="1:33" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:33" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="34"/>
       <c r="B31" s="134">
         <v>44438</v>
@@ -31644,7 +31684,7 @@
       <c r="AF31" s="99"/>
       <c r="AG31" s="99"/>
     </row>
-    <row r="32" spans="1:33" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:33" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="34"/>
       <c r="B32" s="134">
         <v>44439</v>
@@ -31676,7 +31716,9 @@
         <v>0</v>
       </c>
       <c r="O32" s="392"/>
-      <c r="P32" s="7"/>
+      <c r="P32" s="7" t="s">
+        <v>11</v>
+      </c>
       <c r="Q32" s="447">
         <v>0</v>
       </c>
@@ -31699,7 +31741,7 @@
       <c r="AF32" s="99"/>
       <c r="AG32" s="99"/>
     </row>
-    <row r="33" spans="1:33" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:33" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="34"/>
       <c r="B33" s="134"/>
       <c r="C33" s="36">
@@ -31752,7 +31794,7 @@
         <v>10815.4</v>
       </c>
     </row>
-    <row r="34" spans="1:33" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:33" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="34"/>
       <c r="B34" s="134"/>
       <c r="C34" s="36">
@@ -31805,7 +31847,7 @@
         <v>26563.26</v>
       </c>
     </row>
-    <row r="35" spans="1:33" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:33" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="34"/>
       <c r="B35" s="134"/>
       <c r="C35" s="36">
@@ -31854,7 +31896,7 @@
       <c r="AE35" s="99"/>
       <c r="AG35" s="99"/>
     </row>
-    <row r="36" spans="1:33" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="34"/>
       <c r="B36" s="134"/>
       <c r="C36" s="36">
@@ -31902,7 +31944,7 @@
       <c r="AE36" s="99"/>
       <c r="AG36" s="99"/>
     </row>
-    <row r="37" spans="1:33" ht="19.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:33" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="34"/>
       <c r="B37" s="134"/>
       <c r="C37" s="36">
@@ -32018,23 +32060,20 @@
       <c r="J39" s="233"/>
       <c r="K39" s="361"/>
       <c r="L39" s="357"/>
-      <c r="M39" s="596">
+      <c r="M39" s="603">
         <f>SUM(M5:M38)</f>
-        <v>1464800.09</v>
-      </c>
-      <c r="N39" s="598">
+        <v>1947676.09</v>
+      </c>
+      <c r="N39" s="605">
         <f>SUM(N5:N38)</f>
-        <v>121896</v>
+        <v>171196</v>
       </c>
       <c r="O39" s="392"/>
       <c r="P39" s="7"/>
       <c r="Q39" s="7"/>
       <c r="R39" s="7">
         <f>SUM(R5:R38)</f>
-        <v>1811318.97</v>
-      </c>
-      <c r="S39" s="6">
-        <v>0</v>
+        <v>2438328.65</v>
       </c>
       <c r="T39" s="48"/>
       <c r="W39" s="213" t="s">
@@ -32064,8 +32103,8 @@
       <c r="J40" s="233"/>
       <c r="K40" s="144"/>
       <c r="L40" s="357"/>
-      <c r="M40" s="597"/>
-      <c r="N40" s="599"/>
+      <c r="M40" s="604"/>
+      <c r="N40" s="606"/>
       <c r="O40" s="392"/>
       <c r="P40" s="7"/>
       <c r="Q40" s="7"/>
@@ -32209,10 +32248,10 @@
       <c r="J44" s="233"/>
       <c r="K44" s="228"/>
       <c r="L44" s="358"/>
-      <c r="M44" s="600" t="s">
+      <c r="M44" s="607" t="s">
         <v>567</v>
       </c>
-      <c r="N44" s="600"/>
+      <c r="N44" s="607"/>
       <c r="O44" s="392"/>
       <c r="P44" s="7"/>
       <c r="Q44" s="7"/>
@@ -32247,7 +32286,7 @@
       <c r="J45" s="233"/>
       <c r="K45" s="228"/>
       <c r="L45" s="358"/>
-      <c r="M45" s="636">
+      <c r="M45" s="512">
         <v>330120</v>
       </c>
       <c r="N45" s="473">
@@ -32453,7 +32492,7 @@
       <c r="J51" s="233"/>
       <c r="K51" s="144"/>
       <c r="L51" s="66"/>
-      <c r="M51" s="637">
+      <c r="M51" s="513">
         <v>0</v>
       </c>
       <c r="N51" s="473"/>
@@ -32657,7 +32696,7 @@
       <c r="J57" s="325"/>
       <c r="K57" s="359"/>
       <c r="L57" s="458"/>
-      <c r="M57" s="588">
+      <c r="M57" s="595">
         <f>SUM(M45:M56)</f>
         <v>1677050</v>
       </c>
@@ -32691,7 +32730,7 @@
       <c r="J58" s="325"/>
       <c r="K58" s="457"/>
       <c r="L58" s="458"/>
-      <c r="M58" s="589"/>
+      <c r="M58" s="596"/>
       <c r="N58" s="476"/>
       <c r="O58" s="392"/>
       <c r="P58" s="7"/>
@@ -32753,10 +32792,10 @@
       <c r="J60" s="325"/>
       <c r="K60" s="467"/>
       <c r="L60" s="458"/>
-      <c r="M60" s="590" t="s">
+      <c r="M60" s="597" t="s">
         <v>719</v>
       </c>
-      <c r="N60" s="591"/>
+      <c r="N60" s="598"/>
       <c r="O60" s="392"/>
       <c r="P60" s="7"/>
       <c r="Q60" s="7"/>
@@ -32817,11 +32856,11 @@
       <c r="J62" s="325"/>
       <c r="K62" s="359"/>
       <c r="L62" s="458"/>
-      <c r="M62" s="610">
+      <c r="M62" s="620">
         <f>M57-M39</f>
-        <v>212249.90999999992</v>
-      </c>
-      <c r="N62" s="611"/>
+        <v>-270626.09000000008</v>
+      </c>
+      <c r="N62" s="621"/>
       <c r="O62" s="392"/>
       <c r="P62" s="7"/>
       <c r="Q62" s="7"/>
@@ -32851,8 +32890,8 @@
       <c r="J63" s="325"/>
       <c r="K63" s="359"/>
       <c r="L63" s="458"/>
-      <c r="M63" s="612"/>
-      <c r="N63" s="613"/>
+      <c r="M63" s="622"/>
+      <c r="N63" s="623"/>
       <c r="O63" s="392"/>
       <c r="P63" s="7"/>
       <c r="Q63" s="7"/>
@@ -32972,7 +33011,7 @@
       </c>
       <c r="C67" s="86">
         <f>SUM(C5:C66)</f>
-        <v>135488</v>
+        <v>193161</v>
       </c>
       <c r="D67" s="87"/>
       <c r="E67" s="88" t="s">
@@ -32980,7 +33019,7 @@
       </c>
       <c r="F67" s="89">
         <f>SUM(F5:F66)</f>
-        <v>1770115</v>
+        <v>2388397</v>
       </c>
       <c r="G67" s="87"/>
       <c r="H67" s="90" t="s">
@@ -32988,7 +33027,7 @@
       </c>
       <c r="I67" s="91">
         <f>SUM(I5:I66)</f>
-        <v>21638</v>
+        <v>26388</v>
       </c>
       <c r="J67" s="92"/>
       <c r="K67" s="93" t="s">
@@ -32996,7 +33035,7 @@
       </c>
       <c r="L67" s="94">
         <f>SUM(L5:L66)</f>
-        <v>67496.87999999999</v>
+        <v>99907.56</v>
       </c>
       <c r="M67" s="95"/>
       <c r="N67" s="95"/>
@@ -33004,11 +33043,11 @@
       <c r="Q67" s="366"/>
       <c r="R67" s="7">
         <f>SUM(R5:R66)</f>
-        <v>3622637.94</v>
+        <v>4876657.3</v>
       </c>
       <c r="S67" s="7">
         <f>SUM(S5:S66)</f>
-        <v>41203.97</v>
+        <v>49931.649999999994</v>
       </c>
       <c r="T67" s="97"/>
       <c r="W67" s="210"/>
@@ -33031,16 +33070,16 @@
       <c r="A69" s="60"/>
       <c r="B69" s="100"/>
       <c r="C69" s="4"/>
-      <c r="H69" s="521" t="s">
+      <c r="H69" s="522" t="s">
         <v>16</v>
       </c>
-      <c r="I69" s="522"/>
+      <c r="I69" s="523"/>
       <c r="J69" s="101"/>
-      <c r="K69" s="523">
+      <c r="K69" s="524">
         <f>I67+L67</f>
-        <v>89134.87999999999</v>
-      </c>
-      <c r="L69" s="524"/>
+        <v>126295.56</v>
+      </c>
+      <c r="L69" s="525"/>
       <c r="M69" s="471"/>
       <c r="N69" s="472"/>
       <c r="O69" s="490"/>
@@ -33057,40 +33096,40 @@
       <c r="AG69" s="327"/>
     </row>
     <row r="70" spans="1:33" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D70" s="533" t="s">
+      <c r="D70" s="534" t="s">
         <v>17</v>
       </c>
-      <c r="E70" s="533"/>
+      <c r="E70" s="534"/>
       <c r="F70" s="103">
         <f>F67-K69-C67</f>
-        <v>1545492.12</v>
+        <v>2068940.44</v>
       </c>
       <c r="I70" s="104"/>
       <c r="J70" s="105"/>
-      <c r="R70" s="512">
+      <c r="R70" s="535">
         <f>R67+S67</f>
-        <v>3663841.91</v>
-      </c>
-      <c r="S70" s="513"/>
+        <v>4926588.95</v>
+      </c>
+      <c r="S70" s="536"/>
       <c r="U70" s="50"/>
     </row>
     <row r="71" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D71" s="514" t="s">
+      <c r="D71" s="537" t="s">
         <v>502</v>
       </c>
-      <c r="E71" s="514"/>
+      <c r="E71" s="537"/>
       <c r="F71" s="95">
         <v>0</v>
       </c>
-      <c r="I71" s="515" t="s">
+      <c r="I71" s="538" t="s">
         <v>19</v>
       </c>
-      <c r="J71" s="516"/>
-      <c r="K71" s="517">
+      <c r="J71" s="539"/>
+      <c r="K71" s="540">
         <f>F73+F74+F75</f>
-        <v>1545492.12</v>
-      </c>
-      <c r="L71" s="518"/>
+        <v>2068940.44</v>
+      </c>
+      <c r="L71" s="541"/>
       <c r="R71" s="50"/>
       <c r="U71" s="107"/>
     </row>
@@ -33117,18 +33156,18 @@
       </c>
       <c r="F73" s="95">
         <f>SUM(F70:F72)</f>
-        <v>1545492.12</v>
+        <v>2068940.44</v>
       </c>
       <c r="H73" s="34"/>
       <c r="I73" s="114" t="s">
         <v>21</v>
       </c>
       <c r="J73" s="115"/>
-      <c r="K73" s="519">
+      <c r="K73" s="542">
         <f>-C4</f>
         <v>-250140.85</v>
       </c>
-      <c r="L73" s="601"/>
+      <c r="L73" s="586"/>
       <c r="R73" s="50"/>
       <c r="S73" s="7"/>
       <c r="U73" s="50"/>
@@ -33149,22 +33188,22 @@
     </row>
     <row r="75" spans="1:33" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C75" s="119"/>
-      <c r="D75" s="527" t="s">
+      <c r="D75" s="528" t="s">
         <v>24</v>
       </c>
-      <c r="E75" s="528"/>
+      <c r="E75" s="529"/>
       <c r="F75" s="120">
         <v>0</v>
       </c>
-      <c r="I75" s="529" t="s">
+      <c r="I75" s="530" t="s">
         <v>25</v>
       </c>
-      <c r="J75" s="530"/>
-      <c r="K75" s="531">
+      <c r="J75" s="531"/>
+      <c r="K75" s="532">
         <f>K71+K73</f>
-        <v>1295351.27</v>
-      </c>
-      <c r="L75" s="531"/>
+        <v>1818799.5899999999</v>
+      </c>
+      <c r="L75" s="532"/>
       <c r="R75" s="50"/>
       <c r="S75" s="7"/>
       <c r="U75" s="121"/>
@@ -33179,14 +33218,14 @@
       <c r="S76" s="7"/>
     </row>
     <row r="77" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I77" s="614" t="s">
+      <c r="I77" s="612" t="s">
         <v>610</v>
       </c>
-      <c r="J77" s="615"/>
-      <c r="K77" s="618">
-        <v>0</v>
-      </c>
-      <c r="L77" s="619"/>
+      <c r="J77" s="613"/>
+      <c r="K77" s="616">
+        <v>0</v>
+      </c>
+      <c r="L77" s="617"/>
       <c r="R77" s="7"/>
       <c r="S77" s="7"/>
     </row>
@@ -33195,10 +33234,10 @@
       <c r="C78" s="128"/>
       <c r="D78" s="129"/>
       <c r="E78" s="7"/>
-      <c r="I78" s="616"/>
-      <c r="J78" s="617"/>
-      <c r="K78" s="620"/>
-      <c r="L78" s="621"/>
+      <c r="I78" s="614"/>
+      <c r="J78" s="615"/>
+      <c r="K78" s="618"/>
+      <c r="L78" s="619"/>
       <c r="M78" s="2"/>
       <c r="N78" s="60"/>
       <c r="O78" s="491"/>
@@ -33250,7 +33289,7 @@
       <c r="C81" s="130"/>
       <c r="E81" s="7"/>
       <c r="M81" s="4"/>
-      <c r="AC81" s="581"/>
+      <c r="AC81" s="559"/>
       <c r="AD81" s="487"/>
       <c r="AE81" s="487"/>
       <c r="AF81" s="487"/>
@@ -33263,7 +33302,7 @@
       <c r="E82" s="7"/>
       <c r="F82" s="273"/>
       <c r="M82" s="4"/>
-      <c r="AC82" s="581"/>
+      <c r="AC82" s="559"/>
       <c r="AD82" s="487"/>
       <c r="AE82" s="487"/>
       <c r="AF82" s="487"/>
@@ -33360,20 +33399,16 @@
     <sortCondition ref="N45:N55"/>
   </sortState>
   <mergeCells count="37">
-    <mergeCell ref="AC81:AC82"/>
-    <mergeCell ref="K73:L73"/>
-    <mergeCell ref="D75:E75"/>
-    <mergeCell ref="I75:J75"/>
-    <mergeCell ref="K75:L75"/>
-    <mergeCell ref="I77:J78"/>
-    <mergeCell ref="K77:L78"/>
-    <mergeCell ref="H69:I69"/>
-    <mergeCell ref="K69:L69"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="R70:S70"/>
-    <mergeCell ref="D71:E71"/>
-    <mergeCell ref="I71:J71"/>
-    <mergeCell ref="K71:L71"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:K1"/>
+    <mergeCell ref="AB2:AG3"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
     <mergeCell ref="M62:N63"/>
     <mergeCell ref="AB4:AC4"/>
     <mergeCell ref="AE4:AG4"/>
@@ -33387,16 +33422,20 @@
     <mergeCell ref="M44:N44"/>
     <mergeCell ref="M57:M58"/>
     <mergeCell ref="M60:N60"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:K1"/>
-    <mergeCell ref="AB2:AG3"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H69:I69"/>
+    <mergeCell ref="K69:L69"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="R70:S70"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="I71:J71"/>
+    <mergeCell ref="K71:L71"/>
+    <mergeCell ref="AC81:AC82"/>
+    <mergeCell ref="K73:L73"/>
+    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="I75:J75"/>
+    <mergeCell ref="K75:L75"/>
+    <mergeCell ref="I77:J78"/>
+    <mergeCell ref="K77:L78"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -34753,32 +34792,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="624" t="s">
+      <c r="B1" s="630" t="s">
         <v>726</v>
       </c>
-      <c r="C1" s="624"/>
-      <c r="D1" s="624"/>
-      <c r="E1" s="624"/>
-      <c r="H1" s="625" t="s">
+      <c r="C1" s="630"/>
+      <c r="D1" s="630"/>
+      <c r="E1" s="630"/>
+      <c r="H1" s="631" t="s">
         <v>726</v>
       </c>
-      <c r="I1" s="625"/>
-      <c r="J1" s="625"/>
+      <c r="I1" s="631"/>
+      <c r="J1" s="631"/>
       <c r="K1" s="205"/>
       <c r="L1" s="205"/>
       <c r="N1" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="624" t="s">
+      <c r="O1" s="630" t="s">
         <v>725</v>
       </c>
-      <c r="P1" s="624"/>
+      <c r="P1" s="630"/>
     </row>
     <row r="2" spans="1:17" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="18"/>
       <c r="C2" s="4"/>
       <c r="D2" s="6"/>
-      <c r="E2" s="555" t="s">
+      <c r="E2" s="560" t="s">
         <v>562</v>
       </c>
       <c r="F2" s="497"/>
@@ -34804,7 +34843,7 @@
         <v>10</v>
       </c>
       <c r="D3" s="365"/>
-      <c r="E3" s="555"/>
+      <c r="E3" s="560"/>
       <c r="F3" s="497"/>
       <c r="H3" s="444">
         <v>126476.5</v>
@@ -34816,10 +34855,10 @@
         <v>44378</v>
       </c>
       <c r="K3" s="496"/>
-      <c r="L3" s="600" t="s">
+      <c r="L3" s="607" t="s">
         <v>567</v>
       </c>
-      <c r="M3" s="600"/>
+      <c r="M3" s="607"/>
       <c r="O3" s="444">
         <v>64006</v>
       </c>
@@ -35363,7 +35402,7 @@
         <v>44391</v>
       </c>
       <c r="K16" s="496"/>
-      <c r="L16" s="588">
+      <c r="L16" s="595">
         <f>SUM(L4:L15)</f>
         <v>3606750</v>
       </c>
@@ -35404,7 +35443,7 @@
         <v>44392</v>
       </c>
       <c r="K17" s="496"/>
-      <c r="L17" s="589"/>
+      <c r="L17" s="596"/>
       <c r="M17" s="476"/>
       <c r="O17" s="444">
         <v>0</v>
@@ -35477,10 +35516,10 @@
         <v>44394</v>
       </c>
       <c r="K19" s="496"/>
-      <c r="L19" s="590" t="s">
+      <c r="L19" s="597" t="s">
         <v>719</v>
       </c>
-      <c r="M19" s="591"/>
+      <c r="M19" s="598"/>
       <c r="O19" s="444">
         <v>0</v>
       </c>
@@ -35550,11 +35589,11 @@
         <v>44396</v>
       </c>
       <c r="K21" s="496"/>
-      <c r="L21" s="629">
+      <c r="L21" s="624">
         <f>L16-H37</f>
         <v>-383122.2200000002</v>
       </c>
-      <c r="M21" s="630"/>
+      <c r="M21" s="625"/>
       <c r="O21" s="444">
         <v>0</v>
       </c>
@@ -35588,8 +35627,8 @@
         <v>44397</v>
       </c>
       <c r="K22" s="496"/>
-      <c r="L22" s="631"/>
-      <c r="M22" s="632"/>
+      <c r="L22" s="626"/>
+      <c r="M22" s="627"/>
       <c r="O22" s="444">
         <v>0</v>
       </c>
@@ -35987,35 +36026,35 @@
       <c r="Q36" s="392"/>
     </row>
     <row r="37" spans="7:17" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="H37" s="596">
+      <c r="H37" s="603">
         <f>SUM(H3:H36)</f>
         <v>3989872.22</v>
       </c>
-      <c r="I37" s="598">
+      <c r="I37" s="605">
         <f>SUM(I3:I36)</f>
         <v>688820.5</v>
       </c>
       <c r="J37" s="496"/>
       <c r="K37" s="496"/>
       <c r="L37" s="496"/>
-      <c r="O37" s="596">
+      <c r="O37" s="603">
         <f>SUM(O3:O36)</f>
         <v>1464800.09</v>
       </c>
-      <c r="P37" s="598">
+      <c r="P37" s="605">
         <f>SUM(P3:P36)</f>
         <v>121896</v>
       </c>
       <c r="Q37" s="392"/>
     </row>
     <row r="38" spans="7:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H38" s="597"/>
-      <c r="I38" s="599"/>
+      <c r="H38" s="604"/>
+      <c r="I38" s="606"/>
       <c r="J38" s="496"/>
       <c r="K38" s="496"/>
       <c r="L38" s="496"/>
-      <c r="O38" s="597"/>
-      <c r="P38" s="599"/>
+      <c r="O38" s="604"/>
+      <c r="P38" s="606"/>
       <c r="Q38" s="392"/>
     </row>
     <row r="39" spans="7:17" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -36027,12 +36066,12 @@
     </row>
     <row r="40" spans="7:17" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G40" s="272"/>
-      <c r="H40" s="627"/>
-      <c r="I40" s="627"/>
-      <c r="O40" s="600" t="s">
+      <c r="H40" s="633"/>
+      <c r="I40" s="633"/>
+      <c r="O40" s="607" t="s">
         <v>567</v>
       </c>
-      <c r="P40" s="600"/>
+      <c r="P40" s="607"/>
       <c r="Q40" s="392"/>
     </row>
     <row r="41" spans="7:17" ht="15.75" x14ac:dyDescent="0.25">
@@ -36179,9 +36218,9 @@
     </row>
     <row r="53" spans="7:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="G53" s="272"/>
-      <c r="H53" s="628"/>
+      <c r="H53" s="634"/>
       <c r="I53" s="7"/>
-      <c r="O53" s="588">
+      <c r="O53" s="595">
         <f>SUM(O41:O52)</f>
         <v>1682687</v>
       </c>
@@ -36190,9 +36229,9 @@
     </row>
     <row r="54" spans="7:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G54" s="272"/>
-      <c r="H54" s="628"/>
+      <c r="H54" s="634"/>
       <c r="I54" s="7"/>
-      <c r="O54" s="589"/>
+      <c r="O54" s="596"/>
       <c r="P54" s="476"/>
       <c r="Q54" s="392"/>
     </row>
@@ -36206,12 +36245,12 @@
     </row>
     <row r="56" spans="7:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="G56" s="272"/>
-      <c r="H56" s="627"/>
-      <c r="I56" s="627"/>
-      <c r="O56" s="590" t="s">
+      <c r="H56" s="633"/>
+      <c r="I56" s="633"/>
+      <c r="O56" s="597" t="s">
         <v>719</v>
       </c>
-      <c r="P56" s="591"/>
+      <c r="P56" s="598"/>
       <c r="Q56" s="392"/>
     </row>
     <row r="57" spans="7:17" ht="15.75" x14ac:dyDescent="0.25">
@@ -36224,8 +36263,8 @@
     </row>
     <row r="58" spans="7:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G58" s="272"/>
-      <c r="H58" s="626"/>
-      <c r="I58" s="626"/>
+      <c r="H58" s="632"/>
+      <c r="I58" s="632"/>
       <c r="O58" s="493">
         <f>O53-O37</f>
         <v>217886.90999999992</v>
@@ -36237,8 +36276,8 @@
     </row>
     <row r="59" spans="7:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G59" s="272"/>
-      <c r="H59" s="626"/>
-      <c r="I59" s="626"/>
+      <c r="H59" s="632"/>
+      <c r="I59" s="632"/>
       <c r="O59" s="506">
         <v>-383122.22</v>
       </c>
@@ -36266,24 +36305,14 @@
       <c r="P61" s="507"/>
     </row>
     <row r="62" spans="7:17" ht="21" x14ac:dyDescent="0.35">
-      <c r="O62" s="622">
+      <c r="O62" s="628">
         <f>SUM(O58:O61)</f>
         <v>-328961.31000000006</v>
       </c>
-      <c r="P62" s="623"/>
+      <c r="P62" s="629"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="O53:O54"/>
-    <mergeCell ref="O56:P56"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="L21:M22"/>
-    <mergeCell ref="O62:P62"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="L16:L17"/>
     <mergeCell ref="H58:I59"/>
     <mergeCell ref="O1:P1"/>
     <mergeCell ref="O37:O38"/>
@@ -36294,6 +36323,16 @@
     <mergeCell ref="H40:I40"/>
     <mergeCell ref="H53:H54"/>
     <mergeCell ref="H56:I56"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="O53:O54"/>
+    <mergeCell ref="O56:P56"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L21:M22"/>
+    <mergeCell ref="O62:P62"/>
   </mergeCells>
   <pageMargins left="0.37" right="0.13" top="0.43" bottom="0.27" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -36305,10 +36344,10 @@
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
-  <dimension ref="A47:G64"/>
+  <dimension ref="A41:G61"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G66" sqref="G66"/>
+    <sheetView topLeftCell="A38" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -36316,39 +36355,95 @@
     <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="47" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="48" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="32"/>
-      <c r="B48" s="633" t="s">
+    <row r="41" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="45" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="32"/>
+      <c r="B45" s="635" t="s">
         <v>32</v>
       </c>
-      <c r="C48" s="634"/>
-      <c r="D48" s="634"/>
-      <c r="E48" s="635"/>
-      <c r="F48" s="4"/>
-    </row>
-    <row r="49" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="19">
-        <v>44425</v>
-      </c>
+      <c r="C45" s="636"/>
+      <c r="D45" s="636"/>
+      <c r="E45" s="637"/>
+      <c r="F45" s="4"/>
+    </row>
+    <row r="46" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="19">
+        <v>44430</v>
+      </c>
+      <c r="B46" s="196" t="s">
+        <v>777</v>
+      </c>
+      <c r="C46" s="197">
+        <v>87.88</v>
+      </c>
+      <c r="D46" s="198" t="s">
+        <v>33</v>
+      </c>
+      <c r="E46" s="199" t="s">
+        <v>778</v>
+      </c>
+      <c r="F46" s="72">
+        <v>164</v>
+      </c>
+      <c r="G46" s="469"/>
+    </row>
+    <row r="47" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="19"/>
+      <c r="B47" s="196" t="s">
+        <v>611</v>
+      </c>
+      <c r="C47" s="197">
+        <v>0</v>
+      </c>
+      <c r="D47" s="200" t="s">
+        <v>33</v>
+      </c>
+      <c r="E47" s="199" t="s">
+        <v>779</v>
+      </c>
+      <c r="F47" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="19"/>
+      <c r="B48" s="196" t="s">
+        <v>611</v>
+      </c>
+      <c r="C48" s="197">
+        <v>0</v>
+      </c>
+      <c r="D48" s="200" t="s">
+        <v>33</v>
+      </c>
+      <c r="E48" s="199" t="s">
+        <v>611</v>
+      </c>
+      <c r="F48" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="19"/>
       <c r="B49" s="196" t="s">
-        <v>771</v>
+        <v>611</v>
       </c>
       <c r="C49" s="197">
-        <v>2143.54</v>
-      </c>
-      <c r="D49" s="198" t="s">
+        <v>0</v>
+      </c>
+      <c r="D49" s="200" t="s">
         <v>33</v>
       </c>
       <c r="E49" s="199" t="s">
-        <v>772</v>
+        <v>611</v>
       </c>
       <c r="F49" s="72">
-        <v>2108</v>
-      </c>
-      <c r="G49" s="469"/>
-    </row>
-    <row r="50" spans="1:7" ht="13.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="19"/>
       <c r="B50" s="196" t="s">
         <v>611</v>
@@ -36366,7 +36461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="19"/>
       <c r="B51" s="196" t="s">
         <v>611</v>
@@ -36384,7 +36479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="19"/>
       <c r="B52" s="196" t="s">
         <v>611</v>
@@ -36402,15 +36497,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="19"/>
+    <row r="53" spans="1:6" ht="14.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="330"/>
       <c r="B53" s="196" t="s">
         <v>611</v>
       </c>
       <c r="C53" s="197">
         <v>0</v>
       </c>
-      <c r="D53" s="200" t="s">
+      <c r="D53" s="331" t="s">
         <v>33</v>
       </c>
       <c r="E53" s="199" t="s">
@@ -36420,15 +36515,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="19"/>
+    <row r="54" spans="1:6" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="329"/>
       <c r="B54" s="196" t="s">
         <v>611</v>
       </c>
       <c r="C54" s="197">
         <v>0</v>
       </c>
-      <c r="D54" s="200" t="s">
+      <c r="D54" s="198" t="s">
         <v>33</v>
       </c>
       <c r="E54" s="199" t="s">
@@ -36438,7 +36533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="19"/>
       <c r="B55" s="196" t="s">
         <v>611</v>
@@ -36456,15 +36551,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="330"/>
+    <row r="56" spans="1:6" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="19"/>
       <c r="B56" s="196" t="s">
         <v>611</v>
       </c>
       <c r="C56" s="197">
         <v>0</v>
       </c>
-      <c r="D56" s="331" t="s">
+      <c r="D56" s="200" t="s">
         <v>33</v>
       </c>
       <c r="E56" s="199" t="s">
@@ -36474,15 +36569,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="329"/>
+    <row r="57" spans="1:6" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="19"/>
       <c r="B57" s="196" t="s">
         <v>611</v>
       </c>
       <c r="C57" s="197">
         <v>0</v>
       </c>
-      <c r="D57" s="198" t="s">
+      <c r="D57" s="200" t="s">
         <v>33</v>
       </c>
       <c r="E57" s="199" t="s">
@@ -36492,7 +36587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="19"/>
       <c r="B58" s="196" t="s">
         <v>611</v>
@@ -36510,7 +36605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="19"/>
       <c r="B59" s="196" t="s">
         <v>611</v>
@@ -36528,7 +36623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="19"/>
       <c r="B60" s="196" t="s">
         <v>611</v>
@@ -36546,62 +36641,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="19"/>
-      <c r="B61" s="196" t="s">
-        <v>611</v>
-      </c>
+    <row r="61" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="C61" s="197">
-        <v>0</v>
-      </c>
-      <c r="D61" s="200" t="s">
-        <v>33</v>
-      </c>
-      <c r="E61" s="199" t="s">
-        <v>611</v>
-      </c>
-      <c r="F61" s="72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="19"/>
-      <c r="B62" s="196" t="s">
-        <v>611</v>
-      </c>
-      <c r="C62" s="197">
-        <v>0</v>
-      </c>
-      <c r="D62" s="200" t="s">
-        <v>33</v>
-      </c>
-      <c r="E62" s="199" t="s">
-        <v>611</v>
-      </c>
-      <c r="F62" s="72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="19"/>
-      <c r="B63" s="196" t="s">
-        <v>611</v>
-      </c>
-      <c r="C63" s="197">
-        <v>0</v>
-      </c>
-      <c r="D63" s="200" t="s">
-        <v>33</v>
-      </c>
-      <c r="E63" s="199" t="s">
-        <v>611</v>
-      </c>
-      <c r="F63" s="72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C64" s="197">
         <v>0</v>
       </c>
     </row>
@@ -36610,7 +36651,7 @@
     <sortCondition ref="B45:B46"/>
   </sortState>
   <mergeCells count="1">
-    <mergeCell ref="B48:E48"/>
+    <mergeCell ref="B45:E45"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -37632,12 +37673,12 @@
   <sheetData>
     <row r="1" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="32"/>
-      <c r="B1" s="633" t="s">
+      <c r="B1" s="635" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="634"/>
-      <c r="D1" s="634"/>
-      <c r="E1" s="635"/>
+      <c r="C1" s="636"/>
+      <c r="D1" s="636"/>
+      <c r="E1" s="637"/>
       <c r="F1" s="4"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -37719,12 +37760,12 @@
     <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="32"/>
-      <c r="B9" s="633" t="s">
+      <c r="B9" s="635" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="634"/>
-      <c r="D9" s="634"/>
-      <c r="E9" s="635"/>
+      <c r="C9" s="636"/>
+      <c r="D9" s="636"/>
+      <c r="E9" s="637"/>
       <c r="F9" s="4"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -37880,12 +37921,12 @@
     <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="20" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="32"/>
-      <c r="B20" s="633" t="s">
+      <c r="B20" s="635" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="634"/>
-      <c r="D20" s="634"/>
-      <c r="E20" s="635"/>
+      <c r="C20" s="636"/>
+      <c r="D20" s="636"/>
+      <c r="E20" s="637"/>
       <c r="F20" s="4"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -38043,12 +38084,12 @@
     <row r="30" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="31" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="32"/>
-      <c r="B31" s="633" t="s">
+      <c r="B31" s="635" t="s">
         <v>32</v>
       </c>
-      <c r="C31" s="634"/>
-      <c r="D31" s="634"/>
-      <c r="E31" s="635"/>
+      <c r="C31" s="636"/>
+      <c r="D31" s="636"/>
+      <c r="E31" s="637"/>
       <c r="F31" s="4"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -38202,12 +38243,12 @@
     <row r="41" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="42" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="32"/>
-      <c r="B42" s="633" t="s">
+      <c r="B42" s="635" t="s">
         <v>32</v>
       </c>
-      <c r="C42" s="634"/>
-      <c r="D42" s="634"/>
-      <c r="E42" s="635"/>
+      <c r="C42" s="636"/>
+      <c r="D42" s="636"/>
+      <c r="E42" s="637"/>
       <c r="F42" s="4"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -38361,12 +38402,12 @@
     <row r="53" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="54" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="32"/>
-      <c r="B54" s="633" t="s">
+      <c r="B54" s="635" t="s">
         <v>32</v>
       </c>
-      <c r="C54" s="634"/>
-      <c r="D54" s="634"/>
-      <c r="E54" s="635"/>
+      <c r="C54" s="636"/>
+      <c r="D54" s="636"/>
+      <c r="E54" s="637"/>
       <c r="F54" s="4"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -38531,6 +38572,36 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:G1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="7" width="14.85546875" style="8" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" customWidth="1"/>
+  </cols>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -38577,17 +38648,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C1" s="534" t="s">
+      <c r="C1" s="514" t="s">
         <v>147</v>
       </c>
-      <c r="D1" s="534"/>
-      <c r="E1" s="534"/>
-      <c r="F1" s="534"/>
-      <c r="G1" s="534"/>
-      <c r="H1" s="534"/>
-      <c r="I1" s="534"/>
-      <c r="J1" s="534"/>
-      <c r="K1" s="534"/>
+      <c r="D1" s="514"/>
+      <c r="E1" s="514"/>
+      <c r="F1" s="514"/>
+      <c r="G1" s="514"/>
+      <c r="H1" s="514"/>
+      <c r="I1" s="514"/>
+      <c r="J1" s="514"/>
+      <c r="K1" s="514"/>
       <c r="L1" s="2"/>
       <c r="M1" s="3"/>
       <c r="U1" s="209"/>
@@ -38618,17 +38689,17 @@
       </c>
     </row>
     <row r="3" spans="1:23" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="535" t="s">
+      <c r="B3" s="515" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="536"/>
+      <c r="C3" s="516"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="15"/>
-      <c r="H3" s="537" t="s">
+      <c r="H3" s="517" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="537"/>
+      <c r="I3" s="517"/>
       <c r="K3" s="17" t="s">
         <v>3</v>
       </c>
@@ -38657,14 +38728,14 @@
       <c r="D4" s="23">
         <v>44230</v>
       </c>
-      <c r="E4" s="538" t="s">
+      <c r="E4" s="518" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="539"/>
-      <c r="H4" s="540" t="s">
+      <c r="F4" s="519"/>
+      <c r="H4" s="520" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="541"/>
+      <c r="I4" s="521"/>
       <c r="J4" s="24"/>
       <c r="K4" s="25"/>
       <c r="L4" s="26"/>
@@ -41203,61 +41274,61 @@
       <c r="A64" s="60"/>
       <c r="B64" s="100"/>
       <c r="C64" s="4"/>
-      <c r="H64" s="521" t="s">
+      <c r="H64" s="522" t="s">
         <v>16</v>
       </c>
-      <c r="I64" s="522"/>
+      <c r="I64" s="523"/>
       <c r="J64" s="101"/>
-      <c r="K64" s="523">
+      <c r="K64" s="524">
         <f>I62+L62</f>
         <v>259947.00000000003</v>
       </c>
-      <c r="L64" s="524"/>
-      <c r="M64" s="525">
+      <c r="L64" s="525"/>
+      <c r="M64" s="526">
         <f>M62+N62</f>
         <v>2744320</v>
       </c>
-      <c r="N64" s="526"/>
+      <c r="N64" s="527"/>
       <c r="O64" s="102"/>
       <c r="P64" s="99"/>
       <c r="Q64" s="99"/>
       <c r="S64" s="174"/>
     </row>
     <row r="65" spans="2:19" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D65" s="533" t="s">
+      <c r="D65" s="534" t="s">
         <v>17</v>
       </c>
-      <c r="E65" s="533"/>
+      <c r="E65" s="534"/>
       <c r="F65" s="103">
         <f>F62-K64-C62</f>
         <v>2374814.2599999998</v>
       </c>
       <c r="I65" s="104"/>
       <c r="J65" s="105"/>
-      <c r="P65" s="512">
+      <c r="P65" s="535">
         <f>P62+Q62</f>
         <v>3144691.75</v>
       </c>
-      <c r="Q65" s="513"/>
+      <c r="Q65" s="536"/>
       <c r="S65" s="50"/>
     </row>
     <row r="66" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D66" s="514" t="s">
+      <c r="D66" s="537" t="s">
         <v>18</v>
       </c>
-      <c r="E66" s="514"/>
+      <c r="E66" s="537"/>
       <c r="F66" s="95">
         <v>-2261593.1</v>
       </c>
-      <c r="I66" s="515" t="s">
+      <c r="I66" s="538" t="s">
         <v>19</v>
       </c>
-      <c r="J66" s="516"/>
-      <c r="K66" s="517">
+      <c r="J66" s="539"/>
+      <c r="K66" s="540">
         <f>F68+F69+F70</f>
         <v>355407.6199999997</v>
       </c>
-      <c r="L66" s="518"/>
+      <c r="L66" s="541"/>
       <c r="P66" s="50"/>
       <c r="S66" s="107"/>
     </row>
@@ -41294,11 +41365,11 @@
         <v>21</v>
       </c>
       <c r="J68" s="115"/>
-      <c r="K68" s="519">
+      <c r="K68" s="542">
         <f>-C4</f>
         <v>-209541.1</v>
       </c>
-      <c r="L68" s="520"/>
+      <c r="L68" s="543"/>
       <c r="M68" s="116"/>
       <c r="P68" s="50"/>
       <c r="Q68" s="7"/>
@@ -41322,22 +41393,22 @@
       <c r="C70" s="119">
         <v>44257</v>
       </c>
-      <c r="D70" s="527" t="s">
+      <c r="D70" s="528" t="s">
         <v>24</v>
       </c>
-      <c r="E70" s="528"/>
+      <c r="E70" s="529"/>
       <c r="F70" s="120">
         <v>223014.26</v>
       </c>
-      <c r="I70" s="529" t="s">
+      <c r="I70" s="530" t="s">
         <v>25</v>
       </c>
-      <c r="J70" s="530"/>
-      <c r="K70" s="531">
+      <c r="J70" s="531"/>
+      <c r="K70" s="532">
         <f>K66+K68</f>
         <v>145866.5199999997</v>
       </c>
-      <c r="L70" s="532"/>
+      <c r="L70" s="533"/>
       <c r="P70" s="50"/>
       <c r="Q70" s="7"/>
       <c r="S70" s="121"/>
@@ -41438,6 +41509,12 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="K68:L68"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="I70:J70"/>
+    <mergeCell ref="K70:L70"/>
+    <mergeCell ref="M64:N64"/>
+    <mergeCell ref="D65:E65"/>
     <mergeCell ref="P65:Q65"/>
     <mergeCell ref="D66:E66"/>
     <mergeCell ref="I66:J66"/>
@@ -41449,12 +41526,6 @@
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="H64:I64"/>
     <mergeCell ref="K64:L64"/>
-    <mergeCell ref="K68:L68"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="I70:J70"/>
-    <mergeCell ref="K70:L70"/>
-    <mergeCell ref="M64:N64"/>
-    <mergeCell ref="D65:E65"/>
   </mergeCells>
   <phoneticPr fontId="41" type="noConversion"/>
   <pageMargins left="0.51181102362204722" right="0.15748031496062992" top="0.31496062992125984" bottom="0.31496062992125984" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -42725,17 +42796,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C1" s="534" t="s">
+      <c r="C1" s="514" t="s">
         <v>429</v>
       </c>
-      <c r="D1" s="534"/>
-      <c r="E1" s="534"/>
-      <c r="F1" s="534"/>
-      <c r="G1" s="534"/>
-      <c r="H1" s="534"/>
-      <c r="I1" s="534"/>
-      <c r="J1" s="534"/>
-      <c r="K1" s="534"/>
+      <c r="D1" s="514"/>
+      <c r="E1" s="514"/>
+      <c r="F1" s="514"/>
+      <c r="G1" s="514"/>
+      <c r="H1" s="514"/>
+      <c r="I1" s="514"/>
+      <c r="J1" s="514"/>
+      <c r="K1" s="514"/>
       <c r="L1" s="2"/>
       <c r="M1" s="3"/>
       <c r="U1" s="209"/>
@@ -42765,17 +42836,17 @@
       </c>
     </row>
     <row r="3" spans="1:23" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="535" t="s">
+      <c r="B3" s="515" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="536"/>
+      <c r="C3" s="516"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="15"/>
-      <c r="H3" s="537" t="s">
+      <c r="H3" s="517" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="537"/>
+      <c r="I3" s="517"/>
       <c r="K3" s="17" t="s">
         <v>3</v>
       </c>
@@ -42804,14 +42875,14 @@
       <c r="D4" s="23">
         <v>44257</v>
       </c>
-      <c r="E4" s="538" t="s">
+      <c r="E4" s="518" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="539"/>
-      <c r="H4" s="540" t="s">
+      <c r="F4" s="519"/>
+      <c r="H4" s="520" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="541"/>
+      <c r="I4" s="521"/>
       <c r="J4" s="24"/>
       <c r="K4" s="25"/>
       <c r="L4" s="26"/>
@@ -45413,61 +45484,61 @@
       <c r="A62" s="60"/>
       <c r="B62" s="100"/>
       <c r="C62" s="4"/>
-      <c r="H62" s="521" t="s">
+      <c r="H62" s="522" t="s">
         <v>16</v>
       </c>
-      <c r="I62" s="522"/>
+      <c r="I62" s="523"/>
       <c r="J62" s="101"/>
-      <c r="K62" s="523">
+      <c r="K62" s="524">
         <f>I60+L60</f>
         <v>781851.32000000007</v>
       </c>
-      <c r="L62" s="524"/>
-      <c r="M62" s="525">
+      <c r="L62" s="525"/>
+      <c r="M62" s="526">
         <f>M60+N60</f>
         <v>4064802.5</v>
       </c>
-      <c r="N62" s="526"/>
+      <c r="N62" s="527"/>
       <c r="O62" s="102"/>
       <c r="P62" s="99"/>
       <c r="Q62" s="99"/>
       <c r="S62" s="174"/>
     </row>
     <row r="63" spans="1:23" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D63" s="533" t="s">
+      <c r="D63" s="534" t="s">
         <v>17</v>
       </c>
-      <c r="E63" s="533"/>
+      <c r="E63" s="534"/>
       <c r="F63" s="103">
         <f>F60-K62-C60</f>
         <v>3177878.1399999997</v>
       </c>
       <c r="I63" s="104"/>
       <c r="J63" s="105"/>
-      <c r="P63" s="512">
+      <c r="P63" s="535">
         <f>P60+Q60</f>
         <v>4585432.34</v>
       </c>
-      <c r="Q63" s="513"/>
+      <c r="Q63" s="536"/>
       <c r="S63" s="50"/>
     </row>
     <row r="64" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D64" s="514" t="s">
+      <c r="D64" s="537" t="s">
         <v>18</v>
       </c>
-      <c r="E64" s="514"/>
+      <c r="E64" s="537"/>
       <c r="F64" s="95">
         <v>-3579271.89</v>
       </c>
-      <c r="I64" s="515" t="s">
+      <c r="I64" s="538" t="s">
         <v>19</v>
       </c>
-      <c r="J64" s="516"/>
-      <c r="K64" s="517">
+      <c r="J64" s="539"/>
+      <c r="K64" s="540">
         <f>F66+F67+F68</f>
         <v>-110332.85000000047</v>
       </c>
-      <c r="L64" s="518"/>
+      <c r="L64" s="541"/>
       <c r="P64" s="50"/>
       <c r="S64" s="107"/>
     </row>
@@ -45501,11 +45572,11 @@
         <v>21</v>
       </c>
       <c r="J66" s="115"/>
-      <c r="K66" s="519">
+      <c r="K66" s="542">
         <f>-C4</f>
         <v>-223014.26</v>
       </c>
-      <c r="L66" s="520"/>
+      <c r="L66" s="543"/>
       <c r="M66" s="116"/>
       <c r="P66" s="50"/>
       <c r="Q66" s="7"/>
@@ -45529,22 +45600,22 @@
       <c r="C68" s="119">
         <v>44291</v>
       </c>
-      <c r="D68" s="527" t="s">
+      <c r="D68" s="528" t="s">
         <v>24</v>
       </c>
-      <c r="E68" s="528"/>
+      <c r="E68" s="529"/>
       <c r="F68" s="120">
         <v>215362.9</v>
       </c>
-      <c r="I68" s="542" t="s">
+      <c r="I68" s="544" t="s">
         <v>431</v>
       </c>
-      <c r="J68" s="543"/>
-      <c r="K68" s="544">
+      <c r="J68" s="545"/>
+      <c r="K68" s="546">
         <f>K64+K66</f>
         <v>-333347.11000000045</v>
       </c>
-      <c r="L68" s="545"/>
+      <c r="L68" s="547"/>
       <c r="P68" s="50"/>
       <c r="Q68" s="7"/>
       <c r="S68" s="121"/>
@@ -45700,6 +45771,12 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="K66:L66"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="I68:J68"/>
+    <mergeCell ref="K68:L68"/>
+    <mergeCell ref="M62:N62"/>
+    <mergeCell ref="D63:E63"/>
     <mergeCell ref="P63:Q63"/>
     <mergeCell ref="D64:E64"/>
     <mergeCell ref="I64:J64"/>
@@ -45711,12 +45788,6 @@
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="H62:I62"/>
     <mergeCell ref="K62:L62"/>
-    <mergeCell ref="K66:L66"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="I68:J68"/>
-    <mergeCell ref="K68:L68"/>
-    <mergeCell ref="M62:N62"/>
-    <mergeCell ref="D63:E63"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -47148,17 +47219,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C1" s="534" t="s">
+      <c r="C1" s="514" t="s">
         <v>430</v>
       </c>
-      <c r="D1" s="534"/>
-      <c r="E1" s="534"/>
-      <c r="F1" s="534"/>
-      <c r="G1" s="534"/>
-      <c r="H1" s="534"/>
-      <c r="I1" s="534"/>
-      <c r="J1" s="534"/>
-      <c r="K1" s="534"/>
+      <c r="D1" s="514"/>
+      <c r="E1" s="514"/>
+      <c r="F1" s="514"/>
+      <c r="G1" s="514"/>
+      <c r="H1" s="514"/>
+      <c r="I1" s="514"/>
+      <c r="J1" s="514"/>
+      <c r="K1" s="514"/>
       <c r="L1" s="2"/>
       <c r="M1" s="3"/>
       <c r="U1" s="209"/>
@@ -47188,17 +47259,17 @@
       </c>
     </row>
     <row r="3" spans="1:23" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="535" t="s">
+      <c r="B3" s="515" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="536"/>
+      <c r="C3" s="516"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="15"/>
-      <c r="H3" s="537" t="s">
+      <c r="H3" s="517" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="537"/>
+      <c r="I3" s="517"/>
       <c r="K3" s="17" t="s">
         <v>3</v>
       </c>
@@ -47227,14 +47298,14 @@
       <c r="D4" s="23">
         <v>44291</v>
       </c>
-      <c r="E4" s="538" t="s">
+      <c r="E4" s="518" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="539"/>
-      <c r="H4" s="540" t="s">
+      <c r="F4" s="519"/>
+      <c r="H4" s="520" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="547"/>
+      <c r="I4" s="548"/>
       <c r="J4" s="24"/>
       <c r="K4" s="25"/>
       <c r="L4" s="26"/>
@@ -49726,61 +49797,61 @@
       <c r="A58" s="60"/>
       <c r="B58" s="100"/>
       <c r="C58" s="4"/>
-      <c r="H58" s="521" t="s">
+      <c r="H58" s="522" t="s">
         <v>16</v>
       </c>
-      <c r="I58" s="522"/>
+      <c r="I58" s="523"/>
       <c r="J58" s="101"/>
-      <c r="K58" s="523">
+      <c r="K58" s="524">
         <f>I56+L56</f>
         <v>370346.35000000003</v>
       </c>
-      <c r="L58" s="548"/>
-      <c r="M58" s="525">
+      <c r="L58" s="549"/>
+      <c r="M58" s="526">
         <f>M56+N56</f>
         <v>3537422</v>
       </c>
-      <c r="N58" s="526"/>
+      <c r="N58" s="527"/>
       <c r="O58" s="102"/>
       <c r="P58" s="99"/>
       <c r="Q58" s="99"/>
       <c r="S58" s="174"/>
     </row>
     <row r="59" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D59" s="533" t="s">
+      <c r="D59" s="534" t="s">
         <v>17</v>
       </c>
-      <c r="E59" s="546"/>
+      <c r="E59" s="550"/>
       <c r="F59" s="103">
         <f>F56-K58-C56</f>
         <v>3048717.54</v>
       </c>
       <c r="I59" s="104"/>
       <c r="J59" s="105"/>
-      <c r="P59" s="512">
+      <c r="P59" s="535">
         <f>P56+Q56</f>
         <v>8073324.3200000003</v>
       </c>
-      <c r="Q59" s="513"/>
+      <c r="Q59" s="536"/>
       <c r="S59" s="50"/>
     </row>
     <row r="60" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D60" s="514" t="s">
+      <c r="D60" s="537" t="s">
         <v>18</v>
       </c>
-      <c r="E60" s="514"/>
+      <c r="E60" s="537"/>
       <c r="F60" s="95">
         <v>-3102716.28</v>
       </c>
-      <c r="I60" s="515" t="s">
+      <c r="I60" s="538" t="s">
         <v>19</v>
       </c>
-      <c r="J60" s="516"/>
-      <c r="K60" s="517">
+      <c r="J60" s="539"/>
+      <c r="K60" s="540">
         <f>F62+F63+F64</f>
         <v>216465.62000000023</v>
       </c>
-      <c r="L60" s="518"/>
+      <c r="L60" s="541"/>
       <c r="P60" s="50"/>
       <c r="S60" s="107"/>
     </row>
@@ -49814,11 +49885,11 @@
         <v>21</v>
       </c>
       <c r="J62" s="115"/>
-      <c r="K62" s="519">
+      <c r="K62" s="542">
         <f>-C4</f>
         <v>-215362.9</v>
       </c>
-      <c r="L62" s="520"/>
+      <c r="L62" s="543"/>
       <c r="M62" s="116"/>
       <c r="P62" s="50"/>
       <c r="Q62" s="7"/>
@@ -49842,22 +49913,22 @@
       <c r="C64" s="119">
         <v>44320</v>
       </c>
-      <c r="D64" s="527" t="s">
+      <c r="D64" s="528" t="s">
         <v>24</v>
       </c>
-      <c r="E64" s="528"/>
+      <c r="E64" s="529"/>
       <c r="F64" s="120">
         <v>249311.35999999999</v>
       </c>
-      <c r="I64" s="529" t="s">
+      <c r="I64" s="530" t="s">
         <v>25</v>
       </c>
-      <c r="J64" s="530"/>
-      <c r="K64" s="531">
+      <c r="J64" s="531"/>
+      <c r="K64" s="532">
         <f>K60+K62</f>
         <v>1102.720000000234</v>
       </c>
-      <c r="L64" s="532"/>
+      <c r="L64" s="533"/>
       <c r="P64" s="50"/>
       <c r="Q64" s="7"/>
       <c r="S64" s="121"/>
@@ -50013,6 +50084,12 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="K62:L62"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="I64:J64"/>
+    <mergeCell ref="K64:L64"/>
+    <mergeCell ref="M58:N58"/>
+    <mergeCell ref="D59:E59"/>
     <mergeCell ref="P59:Q59"/>
     <mergeCell ref="D60:E60"/>
     <mergeCell ref="I60:J60"/>
@@ -50024,12 +50101,6 @@
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="H58:I58"/>
     <mergeCell ref="K58:L58"/>
-    <mergeCell ref="K62:L62"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="I64:J64"/>
-    <mergeCell ref="K64:L64"/>
-    <mergeCell ref="M58:N58"/>
-    <mergeCell ref="D59:E59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -50912,17 +50983,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C1" s="534" t="s">
+      <c r="C1" s="514" t="s">
         <v>504</v>
       </c>
-      <c r="D1" s="534"/>
-      <c r="E1" s="534"/>
-      <c r="F1" s="534"/>
-      <c r="G1" s="534"/>
-      <c r="H1" s="534"/>
-      <c r="I1" s="534"/>
-      <c r="J1" s="534"/>
-      <c r="K1" s="534"/>
+      <c r="D1" s="514"/>
+      <c r="E1" s="514"/>
+      <c r="F1" s="514"/>
+      <c r="G1" s="514"/>
+      <c r="H1" s="514"/>
+      <c r="I1" s="514"/>
+      <c r="J1" s="514"/>
+      <c r="K1" s="514"/>
       <c r="L1" s="2"/>
       <c r="M1" s="3"/>
       <c r="U1" s="209"/>
@@ -50952,17 +51023,17 @@
       </c>
     </row>
     <row r="3" spans="1:23" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="535" t="s">
+      <c r="B3" s="515" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="536"/>
+      <c r="C3" s="516"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="15"/>
-      <c r="H3" s="537" t="s">
+      <c r="H3" s="517" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="537"/>
+      <c r="I3" s="517"/>
       <c r="K3" s="17" t="s">
         <v>3</v>
       </c>
@@ -50991,14 +51062,14 @@
       <c r="D4" s="23">
         <v>44320</v>
       </c>
-      <c r="E4" s="538" t="s">
+      <c r="E4" s="518" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="539"/>
-      <c r="H4" s="540" t="s">
+      <c r="F4" s="519"/>
+      <c r="H4" s="520" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="541"/>
+      <c r="I4" s="521"/>
       <c r="J4" s="24"/>
       <c r="K4" s="25"/>
       <c r="L4" s="26"/>
@@ -53875,71 +53946,71 @@
       <c r="A64" s="60"/>
       <c r="B64" s="100"/>
       <c r="C64" s="4"/>
-      <c r="H64" s="521" t="s">
+      <c r="H64" s="522" t="s">
         <v>16</v>
       </c>
-      <c r="I64" s="522"/>
+      <c r="I64" s="523"/>
       <c r="J64" s="101"/>
-      <c r="K64" s="523">
+      <c r="K64" s="524">
         <f>I62+L62</f>
         <v>779034.56000000017</v>
       </c>
-      <c r="L64" s="524"/>
-      <c r="M64" s="525">
+      <c r="L64" s="525"/>
+      <c r="M64" s="526">
         <f>M62+N62</f>
         <v>4478181</v>
       </c>
-      <c r="N64" s="526"/>
+      <c r="N64" s="527"/>
       <c r="O64" s="102"/>
       <c r="P64" s="99"/>
       <c r="Q64" s="99"/>
       <c r="S64" s="174"/>
     </row>
     <row r="65" spans="2:19" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D65" s="533" t="s">
+      <c r="D65" s="534" t="s">
         <v>17</v>
       </c>
-      <c r="E65" s="533"/>
+      <c r="E65" s="534"/>
       <c r="F65" s="103">
         <f>F62-K64-C62</f>
         <v>3602842.44</v>
       </c>
       <c r="I65" s="104"/>
       <c r="J65" s="105"/>
-      <c r="P65" s="512">
+      <c r="P65" s="535">
         <f>P62+Q62</f>
         <v>5004562.5599999996</v>
       </c>
-      <c r="Q65" s="513"/>
+      <c r="Q65" s="536"/>
       <c r="S65" s="50"/>
     </row>
     <row r="66" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="549" t="s">
+      <c r="B66" s="551" t="s">
         <v>528</v>
       </c>
-      <c r="C66" s="550"/>
-      <c r="D66" s="533" t="s">
+      <c r="C66" s="552"/>
+      <c r="D66" s="534" t="s">
         <v>502</v>
       </c>
-      <c r="E66" s="533"/>
+      <c r="E66" s="534"/>
       <c r="F66" s="95">
         <v>-3854423.8</v>
       </c>
-      <c r="I66" s="515" t="s">
+      <c r="I66" s="538" t="s">
         <v>19</v>
       </c>
-      <c r="J66" s="516"/>
-      <c r="K66" s="517">
+      <c r="J66" s="539"/>
+      <c r="K66" s="540">
         <f>F68+F69+F70</f>
         <v>14998.430000000139</v>
       </c>
-      <c r="L66" s="518"/>
+      <c r="L66" s="541"/>
       <c r="P66" s="50"/>
       <c r="S66" s="107"/>
     </row>
     <row r="67" spans="2:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B67" s="551"/>
-      <c r="C67" s="552"/>
+      <c r="B67" s="553"/>
+      <c r="C67" s="554"/>
       <c r="D67" s="108"/>
       <c r="E67" s="60"/>
       <c r="F67" s="109">
@@ -53954,8 +54025,8 @@
       <c r="S67" s="50"/>
     </row>
     <row r="68" spans="2:19" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B68" s="553"/>
-      <c r="C68" s="554"/>
+      <c r="B68" s="555"/>
+      <c r="C68" s="556"/>
       <c r="E68" s="60" t="s">
         <v>20</v>
       </c>
@@ -53968,11 +54039,11 @@
         <v>21</v>
       </c>
       <c r="J68" s="115"/>
-      <c r="K68" s="519">
+      <c r="K68" s="542">
         <f>-C4</f>
         <v>-249311.35999999999</v>
       </c>
-      <c r="L68" s="520"/>
+      <c r="L68" s="543"/>
       <c r="M68" s="116"/>
       <c r="P68" s="50"/>
       <c r="Q68" s="7"/>
@@ -53996,22 +54067,22 @@
       <c r="C70" s="119">
         <v>44353</v>
       </c>
-      <c r="D70" s="527" t="s">
+      <c r="D70" s="528" t="s">
         <v>24</v>
       </c>
-      <c r="E70" s="528"/>
+      <c r="E70" s="529"/>
       <c r="F70" s="120">
         <v>255764.39</v>
       </c>
-      <c r="I70" s="529" t="s">
+      <c r="I70" s="530" t="s">
         <v>431</v>
       </c>
-      <c r="J70" s="530"/>
-      <c r="K70" s="531">
+      <c r="J70" s="531"/>
+      <c r="K70" s="532">
         <f>K66+K68</f>
         <v>-234312.92999999985</v>
       </c>
-      <c r="L70" s="532"/>
+      <c r="L70" s="533"/>
       <c r="P70" s="50"/>
       <c r="Q70" s="7"/>
       <c r="S70" s="121"/>
@@ -54167,6 +54238,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="I70:J70"/>
+    <mergeCell ref="K70:L70"/>
+    <mergeCell ref="M64:N64"/>
+    <mergeCell ref="D65:E65"/>
     <mergeCell ref="P65:Q65"/>
     <mergeCell ref="D66:E66"/>
     <mergeCell ref="I66:J66"/>
@@ -54180,11 +54256,6 @@
     <mergeCell ref="K64:L64"/>
     <mergeCell ref="B66:C68"/>
     <mergeCell ref="K68:L68"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="I70:J70"/>
-    <mergeCell ref="K70:L70"/>
-    <mergeCell ref="M64:N64"/>
-    <mergeCell ref="D65:E65"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO  2 0 2 1/CENTRAL # 08 AGOSTO  2021/BALANCE ABASTOS   AGOSTO       2021.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO  2 0 2 1/CENTRAL # 08 AGOSTO  2021/BALANCE ABASTOS   AGOSTO       2021.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17190" windowHeight="10725" firstSheet="15" activeTab="15"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17190" windowHeight="10725" firstSheet="15" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="E N E R O     2 0 2 1    " sheetId="1" r:id="rId1"/>
@@ -568,7 +568,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2089" uniqueCount="780">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2114" uniqueCount="805">
   <si>
     <t>MORRALLA EN CAJA DE 11 SUR   2,800.00  +  $ 1,200.00 Total    $  4,000.00</t>
   </si>
@@ -2908,6 +2908,81 @@
   </si>
   <si>
     <t xml:space="preserve">#  </t>
+  </si>
+  <si>
+    <t>QUESOS -CECINA-LONGANIZA-POLLO</t>
+  </si>
+  <si>
+    <t>15197 B</t>
+  </si>
+  <si>
+    <t>15202 B</t>
+  </si>
+  <si>
+    <t>15480 B</t>
+  </si>
+  <si>
+    <t>15556 B</t>
+  </si>
+  <si>
+    <t>15674 B</t>
+  </si>
+  <si>
+    <t>15676 B</t>
+  </si>
+  <si>
+    <t>15711 B</t>
+  </si>
+  <si>
+    <t>15734 B</t>
+  </si>
+  <si>
+    <t>15902 B</t>
+  </si>
+  <si>
+    <t>16024 B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16176 B </t>
+  </si>
+  <si>
+    <t>16256 B</t>
+  </si>
+  <si>
+    <t>16264 B</t>
+  </si>
+  <si>
+    <t>16285 B</t>
+  </si>
+  <si>
+    <t>16362 B</t>
+  </si>
+  <si>
+    <t>16474 B</t>
+  </si>
+  <si>
+    <t>16578 B</t>
+  </si>
+  <si>
+    <t>16695 B</t>
+  </si>
+  <si>
+    <t>16725 B</t>
+  </si>
+  <si>
+    <t>16887 B</t>
+  </si>
+  <si>
+    <t>16997 B</t>
+  </si>
+  <si>
+    <t>16998 B</t>
+  </si>
+  <si>
+    <t>17036 B</t>
+  </si>
+  <si>
+    <t>17191 B</t>
   </si>
 </sst>
 </file>
@@ -5807,26 +5882,31 @@
     <xf numFmtId="44" fontId="7" fillId="19" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="46" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="46" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="14" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5868,31 +5948,26 @@
     <xf numFmtId="166" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="46" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="46" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="6" fillId="15" borderId="48" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5907,14 +5982,14 @@
     <xf numFmtId="166" fontId="6" fillId="15" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="14" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="35" fillId="10" borderId="64" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -5933,15 +6008,6 @@
     </xf>
     <xf numFmtId="44" fontId="35" fillId="10" borderId="66" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="10" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="10" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="35" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="16" fillId="13" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -6021,32 +6087,26 @@
     <xf numFmtId="44" fontId="49" fillId="0" borderId="66" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="46" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="35" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="10" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="10" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="16" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="20" borderId="64" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="16" fillId="16" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="20" borderId="69" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="20" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="20" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="53" fillId="20" borderId="69" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="53" fillId="20" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="53" fillId="20" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="53" fillId="20" borderId="66" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="16" fillId="8" borderId="67" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -6087,17 +6147,44 @@
     <xf numFmtId="44" fontId="16" fillId="14" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="16" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="46" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="20" borderId="64" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="16" fillId="16" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="2" fillId="20" borderId="69" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="44" fontId="2" fillId="20" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="20" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="53" fillId="20" borderId="69" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="53" fillId="20" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="53" fillId="20" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="53" fillId="20" borderId="66" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="7" fontId="6" fillId="16" borderId="86" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="6" fillId="16" borderId="87" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="6" fillId="16" borderId="88" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="6" fillId="16" borderId="89" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="8" borderId="64" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -6122,18 +6209,6 @@
     </xf>
     <xf numFmtId="44" fontId="53" fillId="8" borderId="66" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="7" fontId="6" fillId="16" borderId="86" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="6" fillId="16" borderId="87" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="6" fillId="16" borderId="88" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="6" fillId="16" borderId="89" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="6" fillId="11" borderId="86" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -11830,17 +11905,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C1" s="514" t="s">
+      <c r="C1" s="536" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="514"/>
-      <c r="E1" s="514"/>
-      <c r="F1" s="514"/>
-      <c r="G1" s="514"/>
-      <c r="H1" s="514"/>
-      <c r="I1" s="514"/>
-      <c r="J1" s="514"/>
-      <c r="K1" s="514"/>
+      <c r="D1" s="536"/>
+      <c r="E1" s="536"/>
+      <c r="F1" s="536"/>
+      <c r="G1" s="536"/>
+      <c r="H1" s="536"/>
+      <c r="I1" s="536"/>
+      <c r="J1" s="536"/>
+      <c r="K1" s="536"/>
       <c r="L1" s="2"/>
       <c r="M1" s="3"/>
       <c r="U1" s="209"/>
@@ -11871,17 +11946,17 @@
       </c>
     </row>
     <row r="3" spans="1:23" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="515" t="s">
+      <c r="B3" s="537" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="516"/>
+      <c r="C3" s="538"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="15"/>
-      <c r="H3" s="517" t="s">
+      <c r="H3" s="539" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="517"/>
+      <c r="I3" s="539"/>
       <c r="K3" s="17" t="s">
         <v>3</v>
       </c>
@@ -11910,14 +11985,14 @@
       <c r="D4" s="23">
         <v>44201</v>
       </c>
-      <c r="E4" s="518" t="s">
+      <c r="E4" s="540" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="519"/>
-      <c r="H4" s="520" t="s">
+      <c r="F4" s="541"/>
+      <c r="H4" s="542" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="521"/>
+      <c r="I4" s="543"/>
       <c r="J4" s="24"/>
       <c r="K4" s="25"/>
       <c r="L4" s="26"/>
@@ -14528,61 +14603,61 @@
       <c r="A64" s="60"/>
       <c r="B64" s="100"/>
       <c r="C64" s="4"/>
-      <c r="H64" s="522" t="s">
+      <c r="H64" s="523" t="s">
         <v>16</v>
       </c>
-      <c r="I64" s="523"/>
+      <c r="I64" s="524"/>
       <c r="J64" s="101"/>
-      <c r="K64" s="524">
+      <c r="K64" s="525">
         <f>I62+L62</f>
         <v>360753.85</v>
       </c>
-      <c r="L64" s="525"/>
-      <c r="M64" s="526">
+      <c r="L64" s="526"/>
+      <c r="M64" s="527">
         <f>M62+N62</f>
         <v>2886514.7</v>
       </c>
-      <c r="N64" s="527"/>
+      <c r="N64" s="528"/>
       <c r="O64" s="102"/>
       <c r="P64" s="99"/>
       <c r="Q64" s="99"/>
       <c r="S64" s="174"/>
     </row>
     <row r="65" spans="2:19" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D65" s="534" t="s">
+      <c r="D65" s="535" t="s">
         <v>17</v>
       </c>
-      <c r="E65" s="534"/>
+      <c r="E65" s="535"/>
       <c r="F65" s="103">
         <f>F62-K64-C62</f>
         <v>2365880.5699999998</v>
       </c>
       <c r="I65" s="104"/>
       <c r="J65" s="105"/>
-      <c r="P65" s="535">
+      <c r="P65" s="514">
         <f>P62+Q62</f>
         <v>3321521.28</v>
       </c>
-      <c r="Q65" s="536"/>
+      <c r="Q65" s="515"/>
       <c r="S65" s="50"/>
     </row>
     <row r="66" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D66" s="537" t="s">
+      <c r="D66" s="516" t="s">
         <v>18</v>
       </c>
-      <c r="E66" s="537"/>
+      <c r="E66" s="516"/>
       <c r="F66" s="95">
         <v>-2276696.6800000002</v>
       </c>
-      <c r="I66" s="538" t="s">
+      <c r="I66" s="517" t="s">
         <v>19</v>
       </c>
-      <c r="J66" s="539"/>
-      <c r="K66" s="540">
+      <c r="J66" s="518"/>
+      <c r="K66" s="519">
         <f>F68+F69+F70</f>
         <v>344253.98999999964</v>
       </c>
-      <c r="L66" s="541"/>
+      <c r="L66" s="520"/>
       <c r="P66" s="50"/>
       <c r="S66" s="107"/>
     </row>
@@ -14616,11 +14691,11 @@
         <v>21</v>
       </c>
       <c r="J68" s="115"/>
-      <c r="K68" s="542">
+      <c r="K68" s="521">
         <f>-C4</f>
         <v>-250864.68</v>
       </c>
-      <c r="L68" s="543"/>
+      <c r="L68" s="522"/>
       <c r="M68" s="116"/>
       <c r="P68" s="50"/>
       <c r="Q68" s="7"/>
@@ -14644,22 +14719,22 @@
       <c r="C70" s="119">
         <v>44230</v>
       </c>
-      <c r="D70" s="528" t="s">
+      <c r="D70" s="529" t="s">
         <v>24</v>
       </c>
-      <c r="E70" s="529"/>
+      <c r="E70" s="530"/>
       <c r="F70" s="120">
         <v>209541.1</v>
       </c>
-      <c r="I70" s="530" t="s">
+      <c r="I70" s="531" t="s">
         <v>25</v>
       </c>
-      <c r="J70" s="531"/>
-      <c r="K70" s="532">
+      <c r="J70" s="532"/>
+      <c r="K70" s="533">
         <f>K66+K68</f>
         <v>93389.309999999648</v>
       </c>
-      <c r="L70" s="533"/>
+      <c r="L70" s="534"/>
       <c r="P70" s="50"/>
       <c r="Q70" s="7"/>
       <c r="S70" s="121"/>
@@ -14763,11 +14838,11 @@
     <sortCondition ref="J35:J54"/>
   </sortState>
   <mergeCells count="17">
-    <mergeCell ref="P65:Q65"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="I66:J66"/>
-    <mergeCell ref="K66:L66"/>
-    <mergeCell ref="K68:L68"/>
+    <mergeCell ref="C1:K1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
     <mergeCell ref="H64:I64"/>
     <mergeCell ref="K64:L64"/>
     <mergeCell ref="M64:N64"/>
@@ -14775,11 +14850,11 @@
     <mergeCell ref="I70:J70"/>
     <mergeCell ref="K70:L70"/>
     <mergeCell ref="D65:E65"/>
-    <mergeCell ref="C1:K1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="P65:Q65"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="I66:J66"/>
+    <mergeCell ref="K66:L66"/>
+    <mergeCell ref="K68:L68"/>
   </mergeCells>
   <phoneticPr fontId="41" type="noConversion"/>
   <pageMargins left="0.2" right="0.16" top="0.34" bottom="0.32" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -16204,20 +16279,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="557" t="s">
+      <c r="B1" s="584" t="s">
         <v>529</v>
       </c>
-      <c r="C1" s="514" t="s">
+      <c r="C1" s="536" t="s">
         <v>503</v>
       </c>
-      <c r="D1" s="514"/>
-      <c r="E1" s="514"/>
-      <c r="F1" s="514"/>
-      <c r="G1" s="514"/>
-      <c r="H1" s="514"/>
-      <c r="I1" s="514"/>
-      <c r="J1" s="514"/>
-      <c r="K1" s="514"/>
+      <c r="D1" s="536"/>
+      <c r="E1" s="536"/>
+      <c r="F1" s="536"/>
+      <c r="G1" s="536"/>
+      <c r="H1" s="536"/>
+      <c r="I1" s="536"/>
+      <c r="J1" s="536"/>
+      <c r="K1" s="536"/>
       <c r="L1" s="2"/>
       <c r="M1" s="3"/>
       <c r="W1" s="209"/>
@@ -16227,7 +16302,7 @@
       <c r="Y1" s="206"/>
     </row>
     <row r="2" spans="1:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="558"/>
+      <c r="B2" s="585"/>
       <c r="C2" s="8"/>
       <c r="H2" s="10" t="s">
         <v>0</v>
@@ -16246,27 +16321,27 @@
       <c r="Y2" s="216" t="s">
         <v>28</v>
       </c>
-      <c r="AB2" s="570" t="s">
+      <c r="AB2" s="567" t="s">
         <v>596</v>
       </c>
-      <c r="AC2" s="570"/>
-      <c r="AD2" s="570"/>
-      <c r="AE2" s="570"/>
-      <c r="AF2" s="570"/>
-      <c r="AG2" s="570"/>
+      <c r="AC2" s="567"/>
+      <c r="AD2" s="567"/>
+      <c r="AE2" s="567"/>
+      <c r="AF2" s="567"/>
+      <c r="AG2" s="567"/>
     </row>
     <row r="3" spans="1:33" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="515" t="s">
+      <c r="B3" s="537" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="516"/>
+      <c r="C3" s="538"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="15"/>
-      <c r="H3" s="517" t="s">
+      <c r="H3" s="539" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="517"/>
+      <c r="I3" s="539"/>
       <c r="K3" s="17" t="s">
         <v>3</v>
       </c>
@@ -16274,7 +16349,7 @@
         <v>4</v>
       </c>
       <c r="M3" s="18"/>
-      <c r="P3" s="560" t="s">
+      <c r="P3" s="557" t="s">
         <v>562</v>
       </c>
       <c r="Q3" s="393"/>
@@ -16287,12 +16362,12 @@
       <c r="Y3" s="198">
         <v>2000</v>
       </c>
-      <c r="AB3" s="570"/>
-      <c r="AC3" s="570"/>
-      <c r="AD3" s="570"/>
-      <c r="AE3" s="570"/>
-      <c r="AF3" s="570"/>
-      <c r="AG3" s="570"/>
+      <c r="AB3" s="567"/>
+      <c r="AC3" s="567"/>
+      <c r="AD3" s="567"/>
+      <c r="AE3" s="567"/>
+      <c r="AF3" s="567"/>
+      <c r="AG3" s="567"/>
     </row>
     <row r="4" spans="1:33" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="20" t="s">
@@ -16305,14 +16380,14 @@
       <c r="D4" s="23">
         <v>44353</v>
       </c>
-      <c r="E4" s="518" t="s">
+      <c r="E4" s="540" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="519"/>
-      <c r="H4" s="520" t="s">
+      <c r="F4" s="541"/>
+      <c r="H4" s="542" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="521"/>
+      <c r="I4" s="543"/>
       <c r="J4" s="24"/>
       <c r="K4" s="25"/>
       <c r="L4" s="26"/>
@@ -16323,7 +16398,7 @@
         <v>10</v>
       </c>
       <c r="O4" s="365"/>
-      <c r="P4" s="560"/>
+      <c r="P4" s="557"/>
       <c r="Q4" s="393"/>
       <c r="R4" s="30"/>
       <c r="S4" s="31"/>
@@ -16338,16 +16413,16 @@
       <c r="Y4" s="217">
         <v>2000</v>
       </c>
-      <c r="AB4" s="571" t="s">
+      <c r="AB4" s="568" t="s">
         <v>527</v>
       </c>
-      <c r="AC4" s="572"/>
+      <c r="AC4" s="569"/>
       <c r="AD4" s="99"/>
-      <c r="AE4" s="573" t="s">
+      <c r="AE4" s="570" t="s">
         <v>567</v>
       </c>
-      <c r="AF4" s="573"/>
-      <c r="AG4" s="573"/>
+      <c r="AF4" s="570"/>
+      <c r="AG4" s="570"/>
     </row>
     <row r="5" spans="1:33" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="34" t="s">
@@ -17759,10 +17834,10 @@
         <v>0</v>
       </c>
       <c r="AD23" s="99"/>
-      <c r="AE23" s="578" t="s">
+      <c r="AE23" s="575" t="s">
         <v>564</v>
       </c>
-      <c r="AF23" s="579"/>
+      <c r="AF23" s="576"/>
       <c r="AG23" s="339">
         <f>SUM(AG6:AG22)</f>
         <v>2323600</v>
@@ -17906,11 +17981,11 @@
         <v>138607</v>
       </c>
       <c r="AD25" s="99"/>
-      <c r="AE25" s="580" t="s">
+      <c r="AE25" s="577" t="s">
         <v>565</v>
       </c>
-      <c r="AF25" s="581"/>
-      <c r="AG25" s="584">
+      <c r="AF25" s="578"/>
+      <c r="AG25" s="581">
         <f>AC29-AG23</f>
         <v>163726</v>
       </c>
@@ -17981,9 +18056,9 @@
         <v>107480</v>
       </c>
       <c r="AD26" s="99"/>
-      <c r="AE26" s="582"/>
-      <c r="AF26" s="583"/>
-      <c r="AG26" s="585"/>
+      <c r="AE26" s="579"/>
+      <c r="AF26" s="580"/>
+      <c r="AG26" s="582"/>
     </row>
     <row r="27" spans="1:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="34"/>
@@ -18158,10 +18233,10 @@
       </c>
       <c r="X29" s="220"/>
       <c r="Y29" s="218"/>
-      <c r="AB29" s="574" t="s">
+      <c r="AB29" s="571" t="s">
         <v>562</v>
       </c>
-      <c r="AC29" s="576">
+      <c r="AC29" s="573">
         <f>SUM(AC5:AC28)</f>
         <v>2487326</v>
       </c>
@@ -18197,11 +18272,11 @@
         <v>0</v>
       </c>
       <c r="O30" s="7"/>
-      <c r="P30" s="561">
+      <c r="P30" s="558">
         <f>SUM(P5:P29)</f>
         <v>-163726</v>
       </c>
-      <c r="Q30" s="561"/>
+      <c r="Q30" s="558"/>
       <c r="R30" s="7">
         <v>0</v>
       </c>
@@ -18215,8 +18290,8 @@
       </c>
       <c r="X30" s="221"/>
       <c r="Y30" s="207"/>
-      <c r="AB30" s="575"/>
-      <c r="AC30" s="577"/>
+      <c r="AB30" s="572"/>
+      <c r="AC30" s="574"/>
       <c r="AD30" s="99"/>
       <c r="AE30" s="99"/>
       <c r="AF30" s="99"/>
@@ -19578,21 +19653,21 @@
       <c r="A64" s="60"/>
       <c r="B64" s="100"/>
       <c r="C64" s="4"/>
-      <c r="H64" s="522" t="s">
+      <c r="H64" s="523" t="s">
         <v>16</v>
       </c>
-      <c r="I64" s="523"/>
+      <c r="I64" s="524"/>
       <c r="J64" s="101"/>
-      <c r="K64" s="524">
+      <c r="K64" s="525">
         <f>I62+L62</f>
         <v>339830.06000000006</v>
       </c>
-      <c r="L64" s="525"/>
-      <c r="M64" s="526">
+      <c r="L64" s="526"/>
+      <c r="M64" s="527">
         <f>M62+N62</f>
         <v>2936130</v>
       </c>
-      <c r="N64" s="527"/>
+      <c r="N64" s="528"/>
       <c r="O64" s="367"/>
       <c r="P64" s="367"/>
       <c r="Q64" s="367"/>
@@ -19607,40 +19682,40 @@
       <c r="AG64" s="327"/>
     </row>
     <row r="65" spans="2:33" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D65" s="534" t="s">
+      <c r="D65" s="535" t="s">
         <v>17</v>
       </c>
-      <c r="E65" s="534"/>
+      <c r="E65" s="535"/>
       <c r="F65" s="103">
         <f>F62-K64-C62</f>
         <v>2702101.7199999997</v>
       </c>
       <c r="I65" s="104"/>
       <c r="J65" s="105"/>
-      <c r="R65" s="535">
+      <c r="R65" s="514">
         <f>R62+S62</f>
         <v>3138957.44</v>
       </c>
-      <c r="S65" s="536"/>
+      <c r="S65" s="515"/>
       <c r="U65" s="50"/>
     </row>
     <row r="66" spans="2:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D66" s="537" t="s">
+      <c r="D66" s="516" t="s">
         <v>502</v>
       </c>
-      <c r="E66" s="537"/>
+      <c r="E66" s="516"/>
       <c r="F66" s="95">
         <v>-2720820.95</v>
       </c>
-      <c r="I66" s="538" t="s">
+      <c r="I66" s="517" t="s">
         <v>19</v>
       </c>
-      <c r="J66" s="539"/>
-      <c r="K66" s="540">
+      <c r="J66" s="518"/>
+      <c r="K66" s="519">
         <f>F68+F69+F70</f>
         <v>381077.48999999953</v>
       </c>
-      <c r="L66" s="541"/>
+      <c r="L66" s="520"/>
       <c r="R66" s="50"/>
       <c r="U66" s="107"/>
     </row>
@@ -19674,11 +19749,11 @@
         <v>21</v>
       </c>
       <c r="J68" s="115"/>
-      <c r="K68" s="542">
+      <c r="K68" s="521">
         <f>-C4</f>
         <v>-255764.39</v>
       </c>
-      <c r="L68" s="543"/>
+      <c r="L68" s="522"/>
       <c r="M68" s="116"/>
       <c r="R68" s="50"/>
       <c r="S68" s="7"/>
@@ -19702,22 +19777,22 @@
       <c r="C70" s="119">
         <v>44377</v>
       </c>
-      <c r="D70" s="528" t="s">
+      <c r="D70" s="529" t="s">
         <v>24</v>
       </c>
-      <c r="E70" s="529"/>
+      <c r="E70" s="530"/>
       <c r="F70" s="120">
         <v>308642.71999999997</v>
       </c>
-      <c r="I70" s="530" t="s">
+      <c r="I70" s="531" t="s">
         <v>25</v>
       </c>
-      <c r="J70" s="531"/>
-      <c r="K70" s="532">
+      <c r="J70" s="532"/>
+      <c r="K70" s="533">
         <f>K66+K68</f>
         <v>125313.09999999951</v>
       </c>
-      <c r="L70" s="533"/>
+      <c r="L70" s="534"/>
       <c r="R70" s="50"/>
       <c r="S70" s="7"/>
       <c r="U70" s="121"/>
@@ -19733,14 +19808,14 @@
       <c r="S71" s="7"/>
     </row>
     <row r="72" spans="2:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I72" s="562" t="s">
+      <c r="I72" s="559" t="s">
         <v>610</v>
       </c>
-      <c r="J72" s="563"/>
-      <c r="K72" s="566">
+      <c r="J72" s="560"/>
+      <c r="K72" s="563">
         <v>163726</v>
       </c>
-      <c r="L72" s="567"/>
+      <c r="L72" s="564"/>
       <c r="R72" s="7"/>
       <c r="S72" s="7"/>
     </row>
@@ -19749,10 +19824,10 @@
       <c r="C73" s="128"/>
       <c r="D73" s="129"/>
       <c r="E73" s="7"/>
-      <c r="I73" s="564"/>
-      <c r="J73" s="565"/>
-      <c r="K73" s="568"/>
-      <c r="L73" s="569"/>
+      <c r="I73" s="561"/>
+      <c r="J73" s="562"/>
+      <c r="K73" s="565"/>
+      <c r="L73" s="566"/>
       <c r="M73" s="2"/>
       <c r="N73" s="60"/>
       <c r="O73" s="165"/>
@@ -19804,7 +19879,7 @@
       <c r="C76" s="130"/>
       <c r="E76" s="7"/>
       <c r="M76" s="4"/>
-      <c r="AC76" s="559"/>
+      <c r="AC76" s="583"/>
       <c r="AD76" s="342"/>
       <c r="AE76" s="342"/>
       <c r="AF76" s="342"/>
@@ -19817,7 +19892,7 @@
       <c r="E77" s="7"/>
       <c r="F77" s="273"/>
       <c r="M77" s="4"/>
-      <c r="AC77" s="559"/>
+      <c r="AC77" s="583"/>
       <c r="AD77" s="342"/>
       <c r="AE77" s="342"/>
       <c r="AF77" s="342"/>
@@ -19911,6 +19986,22 @@
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:K1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="AC76:AC77"/>
+    <mergeCell ref="R65:S65"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="I66:J66"/>
+    <mergeCell ref="K66:L66"/>
+    <mergeCell ref="K68:L68"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="I70:J70"/>
+    <mergeCell ref="K70:L70"/>
+    <mergeCell ref="D65:E65"/>
     <mergeCell ref="P3:P4"/>
     <mergeCell ref="P30:Q30"/>
     <mergeCell ref="I72:J73"/>
@@ -19926,22 +20017,6 @@
     <mergeCell ref="AE23:AF23"/>
     <mergeCell ref="AE25:AF26"/>
     <mergeCell ref="AG25:AG26"/>
-    <mergeCell ref="AC76:AC77"/>
-    <mergeCell ref="R65:S65"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="I66:J66"/>
-    <mergeCell ref="K66:L66"/>
-    <mergeCell ref="K68:L68"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="I70:J70"/>
-    <mergeCell ref="K70:L70"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:K1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
   </mergeCells>
   <pageMargins left="0.49" right="0.23622047244094491" top="0.47244094488188981" bottom="0.27559055118110237" header="0.70866141732283472" footer="0.31496062992125984"/>
   <pageSetup scale="90" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -21279,25 +21354,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="557" t="s">
+      <c r="B1" s="584" t="s">
         <v>529</v>
       </c>
-      <c r="C1" s="514" t="s">
+      <c r="C1" s="536" t="s">
         <v>503</v>
       </c>
-      <c r="D1" s="514"/>
-      <c r="E1" s="514"/>
-      <c r="F1" s="514"/>
-      <c r="G1" s="514"/>
-      <c r="H1" s="514"/>
-      <c r="I1" s="514"/>
-      <c r="J1" s="514"/>
-      <c r="K1" s="514"/>
+      <c r="D1" s="536"/>
+      <c r="E1" s="536"/>
+      <c r="F1" s="536"/>
+      <c r="G1" s="536"/>
+      <c r="H1" s="536"/>
+      <c r="I1" s="536"/>
+      <c r="J1" s="536"/>
+      <c r="K1" s="536"/>
       <c r="L1" s="2"/>
       <c r="M1" s="3"/>
     </row>
     <row r="2" spans="1:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="558"/>
+      <c r="B2" s="585"/>
       <c r="C2" s="8"/>
       <c r="H2" s="10" t="s">
         <v>0</v>
@@ -21307,27 +21382,27 @@
       <c r="L2" s="12"/>
       <c r="M2" s="3"/>
       <c r="N2" s="6"/>
-      <c r="Q2" s="570" t="s">
+      <c r="Q2" s="567" t="s">
         <v>596</v>
       </c>
-      <c r="R2" s="570"/>
-      <c r="S2" s="570"/>
-      <c r="T2" s="570"/>
-      <c r="U2" s="570"/>
-      <c r="V2" s="570"/>
+      <c r="R2" s="567"/>
+      <c r="S2" s="567"/>
+      <c r="T2" s="567"/>
+      <c r="U2" s="567"/>
+      <c r="V2" s="567"/>
     </row>
     <row r="3" spans="1:23" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="515" t="s">
+      <c r="B3" s="537" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="516"/>
+      <c r="C3" s="538"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="15"/>
-      <c r="H3" s="517" t="s">
+      <c r="H3" s="539" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="517"/>
+      <c r="I3" s="539"/>
       <c r="K3" s="17" t="s">
         <v>3</v>
       </c>
@@ -21335,12 +21410,12 @@
         <v>4</v>
       </c>
       <c r="M3" s="18"/>
-      <c r="Q3" s="570"/>
-      <c r="R3" s="570"/>
-      <c r="S3" s="570"/>
-      <c r="T3" s="570"/>
-      <c r="U3" s="570"/>
-      <c r="V3" s="570"/>
+      <c r="Q3" s="567"/>
+      <c r="R3" s="567"/>
+      <c r="S3" s="567"/>
+      <c r="T3" s="567"/>
+      <c r="U3" s="567"/>
+      <c r="V3" s="567"/>
     </row>
     <row r="4" spans="1:23" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="20" t="s">
@@ -21353,14 +21428,14 @@
       <c r="D4" s="23">
         <v>44353</v>
       </c>
-      <c r="E4" s="518" t="s">
+      <c r="E4" s="540" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="519"/>
-      <c r="H4" s="520" t="s">
+      <c r="F4" s="541"/>
+      <c r="H4" s="542" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="521"/>
+      <c r="I4" s="543"/>
       <c r="J4" s="24"/>
       <c r="K4" s="25"/>
       <c r="L4" s="26"/>
@@ -21372,16 +21447,16 @@
       </c>
       <c r="O4" s="365"/>
       <c r="P4" s="29"/>
-      <c r="Q4" s="571" t="s">
+      <c r="Q4" s="568" t="s">
         <v>527</v>
       </c>
-      <c r="R4" s="572"/>
+      <c r="R4" s="569"/>
       <c r="S4" s="99"/>
-      <c r="T4" s="573" t="s">
+      <c r="T4" s="570" t="s">
         <v>567</v>
       </c>
-      <c r="U4" s="573"/>
-      <c r="V4" s="573"/>
+      <c r="U4" s="570"/>
+      <c r="V4" s="570"/>
       <c r="W4" s="99"/>
     </row>
     <row r="5" spans="1:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -22380,10 +22455,10 @@
         <v>0</v>
       </c>
       <c r="S23" s="99"/>
-      <c r="T23" s="578" t="s">
+      <c r="T23" s="575" t="s">
         <v>564</v>
       </c>
-      <c r="U23" s="579"/>
+      <c r="U23" s="576"/>
       <c r="V23" s="339">
         <f>SUM(V6:V22)</f>
         <v>2323600</v>
@@ -22487,11 +22562,11 @@
         <v>138607</v>
       </c>
       <c r="S25" s="99"/>
-      <c r="T25" s="580" t="s">
+      <c r="T25" s="577" t="s">
         <v>565</v>
       </c>
-      <c r="U25" s="581"/>
-      <c r="V25" s="584">
+      <c r="U25" s="578"/>
+      <c r="V25" s="581">
         <f>R29-V23</f>
         <v>163726</v>
       </c>
@@ -22540,9 +22615,9 @@
         <v>107480</v>
       </c>
       <c r="S26" s="99"/>
-      <c r="T26" s="582"/>
-      <c r="U26" s="583"/>
-      <c r="V26" s="585"/>
+      <c r="T26" s="579"/>
+      <c r="U26" s="580"/>
+      <c r="V26" s="582"/>
       <c r="W26" s="99"/>
     </row>
     <row r="27" spans="1:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -22665,10 +22740,10 @@
       </c>
       <c r="O29" s="7"/>
       <c r="P29" s="29"/>
-      <c r="Q29" s="574" t="s">
+      <c r="Q29" s="571" t="s">
         <v>562</v>
       </c>
-      <c r="R29" s="576">
+      <c r="R29" s="573">
         <f>SUM(R5:R28)</f>
         <v>2487326</v>
       </c>
@@ -22705,8 +22780,8 @@
       </c>
       <c r="O30" s="7"/>
       <c r="P30" s="373"/>
-      <c r="Q30" s="575"/>
-      <c r="R30" s="577"/>
+      <c r="Q30" s="572"/>
+      <c r="R30" s="574"/>
       <c r="S30" s="99"/>
       <c r="T30" s="99"/>
       <c r="U30" s="99"/>
@@ -23331,21 +23406,21 @@
       <c r="A50" s="60"/>
       <c r="B50" s="100"/>
       <c r="C50" s="4"/>
-      <c r="H50" s="522" t="s">
+      <c r="H50" s="523" t="s">
         <v>16</v>
       </c>
-      <c r="I50" s="523"/>
+      <c r="I50" s="524"/>
       <c r="J50" s="101"/>
-      <c r="K50" s="524">
+      <c r="K50" s="525">
         <f>I48+L48</f>
         <v>339830.06000000006</v>
       </c>
-      <c r="L50" s="525"/>
-      <c r="M50" s="526">
+      <c r="L50" s="526"/>
+      <c r="M50" s="527">
         <f>M48+N48</f>
         <v>612530</v>
       </c>
-      <c r="N50" s="527"/>
+      <c r="N50" s="528"/>
       <c r="O50" s="367"/>
       <c r="P50" s="102"/>
       <c r="Q50" s="320"/>
@@ -23357,10 +23432,10 @@
       <c r="W50" s="327"/>
     </row>
     <row r="51" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="D51" s="534" t="s">
+      <c r="D51" s="535" t="s">
         <v>17</v>
       </c>
-      <c r="E51" s="534"/>
+      <c r="E51" s="535"/>
       <c r="F51" s="103">
         <f>F48-K50-C48</f>
         <v>2702101.7199999997</v>
@@ -23369,22 +23444,22 @@
       <c r="J51" s="105"/>
     </row>
     <row r="52" spans="1:23" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D52" s="537" t="s">
+      <c r="D52" s="516" t="s">
         <v>502</v>
       </c>
-      <c r="E52" s="537"/>
+      <c r="E52" s="516"/>
       <c r="F52" s="95">
         <v>-2720820.95</v>
       </c>
-      <c r="I52" s="538" t="s">
+      <c r="I52" s="517" t="s">
         <v>19</v>
       </c>
-      <c r="J52" s="539"/>
-      <c r="K52" s="540">
+      <c r="J52" s="518"/>
+      <c r="K52" s="519">
         <f>F54+F55+F56</f>
         <v>381077.72999999952</v>
       </c>
-      <c r="L52" s="541"/>
+      <c r="L52" s="520"/>
     </row>
     <row r="53" spans="1:23" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D53" s="108"/>
@@ -23413,11 +23488,11 @@
         <v>21</v>
       </c>
       <c r="J54" s="115"/>
-      <c r="K54" s="542">
+      <c r="K54" s="521">
         <f>-C4</f>
         <v>-255764.39</v>
       </c>
-      <c r="L54" s="543"/>
+      <c r="L54" s="522"/>
       <c r="M54" s="116"/>
     </row>
     <row r="55" spans="1:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -23435,22 +23510,22 @@
       <c r="C56" s="119">
         <v>44377</v>
       </c>
-      <c r="D56" s="528" t="s">
+      <c r="D56" s="529" t="s">
         <v>24</v>
       </c>
-      <c r="E56" s="529"/>
+      <c r="E56" s="530"/>
       <c r="F56" s="120">
         <v>308642.71999999997</v>
       </c>
-      <c r="I56" s="530" t="s">
+      <c r="I56" s="531" t="s">
         <v>25</v>
       </c>
-      <c r="J56" s="531"/>
-      <c r="K56" s="532">
+      <c r="J56" s="532"/>
+      <c r="K56" s="533">
         <f>K52+K54</f>
         <v>125313.3399999995</v>
       </c>
-      <c r="L56" s="533"/>
+      <c r="L56" s="534"/>
     </row>
     <row r="57" spans="1:23" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C57" s="122"/>
@@ -23506,7 +23581,7 @@
       <c r="C62" s="130"/>
       <c r="E62" s="7"/>
       <c r="M62" s="4"/>
-      <c r="R62" s="559"/>
+      <c r="R62" s="583"/>
       <c r="S62" s="379"/>
       <c r="T62" s="379"/>
       <c r="U62" s="379"/>
@@ -23519,7 +23594,7 @@
       <c r="E63" s="7"/>
       <c r="F63" s="273"/>
       <c r="M63" s="4"/>
-      <c r="R63" s="559"/>
+      <c r="R63" s="583"/>
       <c r="S63" s="379"/>
       <c r="T63" s="379"/>
       <c r="U63" s="379"/>
@@ -23596,6 +23671,23 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="Q2:V3"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="T4:V4"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="K50:L50"/>
+    <mergeCell ref="M50:N50"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:K1"/>
+    <mergeCell ref="T23:U23"/>
+    <mergeCell ref="T25:U26"/>
+    <mergeCell ref="V25:V26"/>
+    <mergeCell ref="Q29:Q30"/>
+    <mergeCell ref="R29:R30"/>
     <mergeCell ref="R62:R63"/>
     <mergeCell ref="D51:E51"/>
     <mergeCell ref="D52:E52"/>
@@ -23605,23 +23697,6 @@
     <mergeCell ref="D56:E56"/>
     <mergeCell ref="I56:J56"/>
     <mergeCell ref="K56:L56"/>
-    <mergeCell ref="T23:U23"/>
-    <mergeCell ref="T25:U26"/>
-    <mergeCell ref="V25:V26"/>
-    <mergeCell ref="Q29:Q30"/>
-    <mergeCell ref="R29:R30"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="K50:L50"/>
-    <mergeCell ref="M50:N50"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:K1"/>
-    <mergeCell ref="Q2:V3"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="T4:V4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -23675,20 +23750,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="557" t="s">
+      <c r="B1" s="584" t="s">
         <v>529</v>
       </c>
-      <c r="C1" s="514" t="s">
+      <c r="C1" s="536" t="s">
         <v>720</v>
       </c>
-      <c r="D1" s="514"/>
-      <c r="E1" s="514"/>
-      <c r="F1" s="514"/>
-      <c r="G1" s="514"/>
-      <c r="H1" s="514"/>
-      <c r="I1" s="514"/>
-      <c r="J1" s="514"/>
-      <c r="K1" s="514"/>
+      <c r="D1" s="536"/>
+      <c r="E1" s="536"/>
+      <c r="F1" s="536"/>
+      <c r="G1" s="536"/>
+      <c r="H1" s="536"/>
+      <c r="I1" s="536"/>
+      <c r="J1" s="536"/>
+      <c r="K1" s="536"/>
       <c r="L1" s="2"/>
       <c r="M1" s="3"/>
       <c r="W1" s="209"/>
@@ -23698,7 +23773,7 @@
       <c r="Y1" s="206"/>
     </row>
     <row r="2" spans="1:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="558"/>
+      <c r="B2" s="585"/>
       <c r="C2" s="8"/>
       <c r="H2" s="10" t="s">
         <v>0</v>
@@ -23717,27 +23792,27 @@
       <c r="Y2" s="216" t="s">
         <v>28</v>
       </c>
-      <c r="AB2" s="570" t="s">
+      <c r="AB2" s="567" t="s">
         <v>596</v>
       </c>
-      <c r="AC2" s="570"/>
-      <c r="AD2" s="570"/>
-      <c r="AE2" s="570"/>
-      <c r="AF2" s="570"/>
-      <c r="AG2" s="570"/>
+      <c r="AC2" s="567"/>
+      <c r="AD2" s="567"/>
+      <c r="AE2" s="567"/>
+      <c r="AF2" s="567"/>
+      <c r="AG2" s="567"/>
     </row>
     <row r="3" spans="1:33" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="515" t="s">
+      <c r="B3" s="537" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="516"/>
+      <c r="C3" s="538"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="15"/>
-      <c r="H3" s="517" t="s">
+      <c r="H3" s="539" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="517"/>
+      <c r="I3" s="539"/>
       <c r="K3" s="17" t="s">
         <v>3</v>
       </c>
@@ -23745,13 +23820,13 @@
         <v>4</v>
       </c>
       <c r="M3" s="18"/>
-      <c r="P3" s="608" t="s">
+      <c r="P3" s="586" t="s">
         <v>663</v>
       </c>
-      <c r="Q3" s="610" t="s">
+      <c r="Q3" s="588" t="s">
         <v>665</v>
       </c>
-      <c r="S3" s="611"/>
+      <c r="S3" s="589"/>
       <c r="W3" s="213" t="s">
         <v>54</v>
       </c>
@@ -23761,12 +23836,12 @@
       <c r="Y3" s="198">
         <v>2000</v>
       </c>
-      <c r="AB3" s="570"/>
-      <c r="AC3" s="570"/>
-      <c r="AD3" s="570"/>
-      <c r="AE3" s="570"/>
-      <c r="AF3" s="570"/>
-      <c r="AG3" s="570"/>
+      <c r="AB3" s="567"/>
+      <c r="AC3" s="567"/>
+      <c r="AD3" s="567"/>
+      <c r="AE3" s="567"/>
+      <c r="AF3" s="567"/>
+      <c r="AG3" s="567"/>
     </row>
     <row r="4" spans="1:33" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="20" t="s">
@@ -23779,14 +23854,14 @@
       <c r="D4" s="23">
         <v>44377</v>
       </c>
-      <c r="E4" s="518" t="s">
+      <c r="E4" s="540" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="519"/>
-      <c r="H4" s="609" t="s">
+      <c r="F4" s="541"/>
+      <c r="H4" s="587" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="521"/>
+      <c r="I4" s="543"/>
       <c r="J4" s="24"/>
       <c r="K4" s="25"/>
       <c r="L4" s="26"/>
@@ -23797,10 +23872,10 @@
         <v>10</v>
       </c>
       <c r="O4" s="365"/>
-      <c r="P4" s="608"/>
-      <c r="Q4" s="610"/>
+      <c r="P4" s="586"/>
+      <c r="Q4" s="588"/>
       <c r="R4" s="30"/>
-      <c r="S4" s="611"/>
+      <c r="S4" s="589"/>
       <c r="T4" s="30"/>
       <c r="U4" s="30"/>
       <c r="W4" s="213" t="s">
@@ -23812,16 +23887,16 @@
       <c r="Y4" s="217">
         <v>2000</v>
       </c>
-      <c r="AB4" s="571" t="s">
+      <c r="AB4" s="568" t="s">
         <v>527</v>
       </c>
-      <c r="AC4" s="572"/>
+      <c r="AC4" s="569"/>
       <c r="AD4" s="99"/>
-      <c r="AE4" s="573" t="s">
+      <c r="AE4" s="570" t="s">
         <v>567</v>
       </c>
-      <c r="AF4" s="573"/>
-      <c r="AG4" s="573"/>
+      <c r="AF4" s="570"/>
+      <c r="AG4" s="570"/>
     </row>
     <row r="5" spans="1:33" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="34" t="s">
@@ -25258,10 +25333,10 @@
         <v>0</v>
       </c>
       <c r="AD23" s="99"/>
-      <c r="AE23" s="578" t="s">
+      <c r="AE23" s="575" t="s">
         <v>564</v>
       </c>
-      <c r="AF23" s="579"/>
+      <c r="AF23" s="576"/>
       <c r="AG23" s="339">
         <f>SUM(AG6:AG22)</f>
         <v>2323600</v>
@@ -25393,11 +25468,11 @@
         <v>138607</v>
       </c>
       <c r="AD25" s="99"/>
-      <c r="AE25" s="580" t="s">
+      <c r="AE25" s="577" t="s">
         <v>565</v>
       </c>
-      <c r="AF25" s="581"/>
-      <c r="AG25" s="584">
+      <c r="AF25" s="578"/>
+      <c r="AG25" s="581">
         <f>AC29-AG23</f>
         <v>163726</v>
       </c>
@@ -25466,9 +25541,9 @@
         <v>107480</v>
       </c>
       <c r="AD26" s="99"/>
-      <c r="AE26" s="582"/>
-      <c r="AF26" s="583"/>
-      <c r="AG26" s="585"/>
+      <c r="AE26" s="579"/>
+      <c r="AF26" s="580"/>
+      <c r="AG26" s="582"/>
     </row>
     <row r="27" spans="1:33" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="34"/>
@@ -25667,10 +25742,10 @@
       </c>
       <c r="X29" s="220"/>
       <c r="Y29" s="218"/>
-      <c r="AB29" s="574" t="s">
+      <c r="AB29" s="571" t="s">
         <v>562</v>
       </c>
-      <c r="AC29" s="576">
+      <c r="AC29" s="573">
         <f>SUM(AC5:AC28)</f>
         <v>2487326</v>
       </c>
@@ -25733,8 +25808,8 @@
       </c>
       <c r="X30" s="221"/>
       <c r="Y30" s="207"/>
-      <c r="AB30" s="575"/>
-      <c r="AC30" s="577"/>
+      <c r="AB30" s="572"/>
+      <c r="AC30" s="574"/>
       <c r="AD30" s="99"/>
       <c r="AE30" s="99"/>
       <c r="AF30" s="99"/>
@@ -26227,11 +26302,11 @@
       <c r="J39" s="233"/>
       <c r="K39" s="361"/>
       <c r="L39" s="357"/>
-      <c r="M39" s="603">
+      <c r="M39" s="598">
         <f>SUM(M5:M38)</f>
         <v>3989872.22</v>
       </c>
-      <c r="N39" s="605">
+      <c r="N39" s="600">
         <f>SUM(N5:N38)</f>
         <v>688820.5</v>
       </c>
@@ -26280,8 +26355,8 @@
         <f>1145.91+398.99+423.94+498.99+398.99</f>
         <v>2866.8199999999997</v>
       </c>
-      <c r="M40" s="604"/>
-      <c r="N40" s="606"/>
+      <c r="M40" s="599"/>
+      <c r="N40" s="601"/>
       <c r="O40" s="7"/>
       <c r="P40" s="7"/>
       <c r="Q40" s="7"/>
@@ -26474,10 +26549,10 @@
       <c r="L44" s="358">
         <v>73526</v>
       </c>
-      <c r="M44" s="607" t="s">
+      <c r="M44" s="602" t="s">
         <v>567</v>
       </c>
-      <c r="N44" s="607"/>
+      <c r="N44" s="602"/>
       <c r="O44" s="7"/>
       <c r="P44" s="7"/>
       <c r="Q44" s="7"/>
@@ -27065,7 +27140,7 @@
       <c r="L57" s="458">
         <v>7482</v>
       </c>
-      <c r="M57" s="595">
+      <c r="M57" s="590">
         <f>SUM(M45:M56)</f>
         <v>3606750</v>
       </c>
@@ -27105,7 +27180,7 @@
       <c r="L58" s="458">
         <v>986</v>
       </c>
-      <c r="M58" s="596"/>
+      <c r="M58" s="591"/>
       <c r="N58" s="476"/>
       <c r="O58" s="7"/>
       <c r="P58" s="7"/>
@@ -27180,10 +27255,10 @@
         <f>1033.33+165.33</f>
         <v>1198.6599999999999</v>
       </c>
-      <c r="M60" s="597" t="s">
+      <c r="M60" s="592" t="s">
         <v>719</v>
       </c>
-      <c r="N60" s="598"/>
+      <c r="N60" s="593"/>
       <c r="O60" s="7"/>
       <c r="P60" s="7"/>
       <c r="Q60" s="7"/>
@@ -27256,11 +27331,11 @@
       <c r="L62" s="458">
         <v>22595.71</v>
       </c>
-      <c r="M62" s="599">
+      <c r="M62" s="594">
         <f>M57-M39</f>
         <v>-383122.2200000002</v>
       </c>
-      <c r="N62" s="600"/>
+      <c r="N62" s="595"/>
       <c r="O62" s="7"/>
       <c r="P62" s="7"/>
       <c r="Q62" s="7"/>
@@ -27296,8 +27371,8 @@
       <c r="L63" s="458">
         <v>1064</v>
       </c>
-      <c r="M63" s="601"/>
-      <c r="N63" s="602"/>
+      <c r="M63" s="596"/>
+      <c r="N63" s="597"/>
       <c r="O63" s="7"/>
       <c r="P63" s="7"/>
       <c r="Q63" s="7"/>
@@ -27487,16 +27562,16 @@
       <c r="A69" s="60"/>
       <c r="B69" s="100"/>
       <c r="C69" s="4"/>
-      <c r="H69" s="522" t="s">
+      <c r="H69" s="523" t="s">
         <v>16</v>
       </c>
-      <c r="I69" s="523"/>
+      <c r="I69" s="524"/>
       <c r="J69" s="101"/>
-      <c r="K69" s="524">
+      <c r="K69" s="525">
         <f>I67+L67</f>
         <v>587206.12</v>
       </c>
-      <c r="L69" s="525"/>
+      <c r="L69" s="526"/>
       <c r="M69" s="471"/>
       <c r="N69" s="472"/>
       <c r="O69" s="367"/>
@@ -27513,40 +27588,40 @@
       <c r="AG69" s="327"/>
     </row>
     <row r="70" spans="1:33" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D70" s="534" t="s">
+      <c r="D70" s="535" t="s">
         <v>17</v>
       </c>
-      <c r="E70" s="534"/>
+      <c r="E70" s="535"/>
       <c r="F70" s="103">
         <f>F67-K69-C67</f>
         <v>3436910.52</v>
       </c>
       <c r="I70" s="104"/>
       <c r="J70" s="105"/>
-      <c r="R70" s="535">
+      <c r="R70" s="514">
         <f>R67+S67</f>
         <v>10503773.959999999</v>
       </c>
-      <c r="S70" s="536"/>
+      <c r="S70" s="515"/>
       <c r="U70" s="50"/>
     </row>
     <row r="71" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D71" s="537" t="s">
+      <c r="D71" s="516" t="s">
         <v>502</v>
       </c>
-      <c r="E71" s="537"/>
+      <c r="E71" s="516"/>
       <c r="F71" s="95">
         <v>-3290264.27</v>
       </c>
-      <c r="I71" s="538" t="s">
+      <c r="I71" s="517" t="s">
         <v>19</v>
       </c>
-      <c r="J71" s="539"/>
-      <c r="K71" s="540">
+      <c r="J71" s="518"/>
+      <c r="K71" s="519">
         <f>F73+F74+F75</f>
         <v>426565.1</v>
       </c>
-      <c r="L71" s="541"/>
+      <c r="L71" s="520"/>
       <c r="R71" s="50"/>
       <c r="U71" s="107"/>
     </row>
@@ -27580,11 +27655,11 @@
         <v>21</v>
       </c>
       <c r="J73" s="115"/>
-      <c r="K73" s="542">
+      <c r="K73" s="521">
         <f>-C4</f>
         <v>-308642.71999999997</v>
       </c>
-      <c r="L73" s="586"/>
+      <c r="L73" s="603"/>
       <c r="R73" s="50"/>
       <c r="S73" s="7"/>
       <c r="U73" s="50"/>
@@ -27607,22 +27682,22 @@
       <c r="C75" s="119">
         <v>44410</v>
       </c>
-      <c r="D75" s="528" t="s">
+      <c r="D75" s="529" t="s">
         <v>24</v>
       </c>
-      <c r="E75" s="529"/>
+      <c r="E75" s="530"/>
       <c r="F75" s="120">
         <v>250140.85</v>
       </c>
-      <c r="I75" s="530" t="s">
+      <c r="I75" s="531" t="s">
         <v>25</v>
       </c>
-      <c r="J75" s="531"/>
-      <c r="K75" s="532">
+      <c r="J75" s="532"/>
+      <c r="K75" s="533">
         <f>K71+K73</f>
         <v>117922.38</v>
       </c>
-      <c r="L75" s="532"/>
+      <c r="L75" s="533"/>
       <c r="R75" s="50"/>
       <c r="S75" s="7"/>
       <c r="U75" s="121"/>
@@ -27637,14 +27712,14 @@
       <c r="S76" s="7"/>
     </row>
     <row r="77" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I77" s="587" t="s">
+      <c r="I77" s="604" t="s">
         <v>610</v>
       </c>
-      <c r="J77" s="588"/>
-      <c r="K77" s="591">
+      <c r="J77" s="605"/>
+      <c r="K77" s="608">
         <v>-383122.22</v>
       </c>
-      <c r="L77" s="592"/>
+      <c r="L77" s="609"/>
       <c r="R77" s="7"/>
       <c r="S77" s="7"/>
     </row>
@@ -27653,10 +27728,10 @@
       <c r="C78" s="128"/>
       <c r="D78" s="129"/>
       <c r="E78" s="7"/>
-      <c r="I78" s="589"/>
-      <c r="J78" s="590"/>
-      <c r="K78" s="593"/>
-      <c r="L78" s="594"/>
+      <c r="I78" s="606"/>
+      <c r="J78" s="607"/>
+      <c r="K78" s="610"/>
+      <c r="L78" s="611"/>
       <c r="M78" s="2"/>
       <c r="N78" s="60"/>
       <c r="O78" s="165"/>
@@ -27708,7 +27783,7 @@
       <c r="C81" s="130"/>
       <c r="E81" s="7"/>
       <c r="M81" s="4"/>
-      <c r="AC81" s="559"/>
+      <c r="AC81" s="583"/>
       <c r="AD81" s="440"/>
       <c r="AE81" s="440"/>
       <c r="AF81" s="440"/>
@@ -27721,7 +27796,7 @@
       <c r="E82" s="7"/>
       <c r="F82" s="273"/>
       <c r="M82" s="4"/>
-      <c r="AC82" s="559"/>
+      <c r="AC82" s="583"/>
       <c r="AD82" s="440"/>
       <c r="AE82" s="440"/>
       <c r="AF82" s="440"/>
@@ -27815,6 +27890,28 @@
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="AC81:AC82"/>
+    <mergeCell ref="K73:L73"/>
+    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="I75:J75"/>
+    <mergeCell ref="K75:L75"/>
+    <mergeCell ref="I77:J78"/>
+    <mergeCell ref="K77:L78"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="I71:J71"/>
+    <mergeCell ref="K71:L71"/>
+    <mergeCell ref="AE23:AF23"/>
+    <mergeCell ref="AE25:AF26"/>
+    <mergeCell ref="H69:I69"/>
+    <mergeCell ref="K69:L69"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="R70:S70"/>
+    <mergeCell ref="M57:M58"/>
+    <mergeCell ref="M60:N60"/>
+    <mergeCell ref="M62:N63"/>
+    <mergeCell ref="M39:M40"/>
+    <mergeCell ref="N39:N40"/>
+    <mergeCell ref="M44:N44"/>
     <mergeCell ref="AG25:AG26"/>
     <mergeCell ref="AB29:AB30"/>
     <mergeCell ref="AC29:AC30"/>
@@ -27830,28 +27927,6 @@
     <mergeCell ref="AE4:AG4"/>
     <mergeCell ref="Q3:Q4"/>
     <mergeCell ref="S3:S4"/>
-    <mergeCell ref="D71:E71"/>
-    <mergeCell ref="I71:J71"/>
-    <mergeCell ref="K71:L71"/>
-    <mergeCell ref="AE23:AF23"/>
-    <mergeCell ref="AE25:AF26"/>
-    <mergeCell ref="H69:I69"/>
-    <mergeCell ref="K69:L69"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="R70:S70"/>
-    <mergeCell ref="M57:M58"/>
-    <mergeCell ref="M60:N60"/>
-    <mergeCell ref="M62:N63"/>
-    <mergeCell ref="M39:M40"/>
-    <mergeCell ref="N39:N40"/>
-    <mergeCell ref="M44:N44"/>
-    <mergeCell ref="AC81:AC82"/>
-    <mergeCell ref="K73:L73"/>
-    <mergeCell ref="D75:E75"/>
-    <mergeCell ref="I75:J75"/>
-    <mergeCell ref="K75:L75"/>
-    <mergeCell ref="I77:J78"/>
-    <mergeCell ref="K77:L78"/>
   </mergeCells>
   <pageMargins left="0.35433070866141736" right="0.27559055118110237" top="0.27559055118110237" bottom="0.31496062992125984" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="90" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -29498,8 +29573,8 @@
   </sheetPr>
   <dimension ref="A1:AG97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T23" sqref="T23"/>
+    <sheetView topLeftCell="G7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -29534,20 +29609,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="557" t="s">
+      <c r="B1" s="584" t="s">
         <v>529</v>
       </c>
-      <c r="C1" s="514" t="s">
+      <c r="C1" s="536" t="s">
         <v>721</v>
       </c>
-      <c r="D1" s="514"/>
-      <c r="E1" s="514"/>
-      <c r="F1" s="514"/>
-      <c r="G1" s="514"/>
-      <c r="H1" s="514"/>
-      <c r="I1" s="514"/>
-      <c r="J1" s="514"/>
-      <c r="K1" s="514"/>
+      <c r="D1" s="536"/>
+      <c r="E1" s="536"/>
+      <c r="F1" s="536"/>
+      <c r="G1" s="536"/>
+      <c r="H1" s="536"/>
+      <c r="I1" s="536"/>
+      <c r="J1" s="536"/>
+      <c r="K1" s="536"/>
       <c r="L1" s="2"/>
       <c r="M1" s="3"/>
       <c r="W1" s="209"/>
@@ -29557,7 +29632,7 @@
       <c r="Y1" s="206"/>
     </row>
     <row r="2" spans="1:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="558"/>
+      <c r="B2" s="585"/>
       <c r="C2" s="8"/>
       <c r="H2" s="10" t="s">
         <v>0</v>
@@ -29576,27 +29651,27 @@
       <c r="Y2" s="216" t="s">
         <v>28</v>
       </c>
-      <c r="AB2" s="570" t="s">
+      <c r="AB2" s="567" t="s">
         <v>596</v>
       </c>
-      <c r="AC2" s="570"/>
-      <c r="AD2" s="570"/>
-      <c r="AE2" s="570"/>
-      <c r="AF2" s="570"/>
-      <c r="AG2" s="570"/>
+      <c r="AC2" s="567"/>
+      <c r="AD2" s="567"/>
+      <c r="AE2" s="567"/>
+      <c r="AF2" s="567"/>
+      <c r="AG2" s="567"/>
     </row>
     <row r="3" spans="1:33" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="515" t="s">
+      <c r="B3" s="537" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="516"/>
+      <c r="C3" s="538"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="15"/>
-      <c r="H3" s="517" t="s">
+      <c r="H3" s="539" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="517"/>
+      <c r="I3" s="539"/>
       <c r="K3" s="17" t="s">
         <v>3</v>
       </c>
@@ -29607,13 +29682,13 @@
       <c r="O3" s="366" t="s">
         <v>753</v>
       </c>
-      <c r="P3" s="608" t="s">
+      <c r="P3" s="586" t="s">
         <v>663</v>
       </c>
-      <c r="Q3" s="610" t="s">
+      <c r="Q3" s="588" t="s">
         <v>665</v>
       </c>
-      <c r="S3" s="611"/>
+      <c r="S3" s="589"/>
       <c r="W3" s="213" t="s">
         <v>54</v>
       </c>
@@ -29623,12 +29698,12 @@
       <c r="Y3" s="198">
         <v>2000</v>
       </c>
-      <c r="AB3" s="570"/>
-      <c r="AC3" s="570"/>
-      <c r="AD3" s="570"/>
-      <c r="AE3" s="570"/>
-      <c r="AF3" s="570"/>
-      <c r="AG3" s="570"/>
+      <c r="AB3" s="567"/>
+      <c r="AC3" s="567"/>
+      <c r="AD3" s="567"/>
+      <c r="AE3" s="567"/>
+      <c r="AF3" s="567"/>
+      <c r="AG3" s="567"/>
     </row>
     <row r="4" spans="1:33" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="20" t="s">
@@ -29641,14 +29716,14 @@
       <c r="D4" s="23">
         <v>44410</v>
       </c>
-      <c r="E4" s="518" t="s">
+      <c r="E4" s="540" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="519"/>
-      <c r="H4" s="609" t="s">
+      <c r="F4" s="541"/>
+      <c r="H4" s="587" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="521"/>
+      <c r="I4" s="543"/>
       <c r="J4" s="24"/>
       <c r="K4" s="25"/>
       <c r="L4" s="26"/>
@@ -29659,10 +29734,10 @@
         <v>11</v>
       </c>
       <c r="O4" s="99"/>
-      <c r="P4" s="608"/>
-      <c r="Q4" s="610"/>
+      <c r="P4" s="586"/>
+      <c r="Q4" s="588"/>
       <c r="R4" s="30"/>
-      <c r="S4" s="611"/>
+      <c r="S4" s="589"/>
       <c r="T4" s="30"/>
       <c r="U4" s="30"/>
       <c r="W4" s="213" t="s">
@@ -29674,16 +29749,16 @@
       <c r="Y4" s="217">
         <v>2000</v>
       </c>
-      <c r="AB4" s="571" t="s">
+      <c r="AB4" s="568" t="s">
         <v>527</v>
       </c>
-      <c r="AC4" s="572"/>
+      <c r="AC4" s="569"/>
       <c r="AD4" s="99"/>
-      <c r="AE4" s="573" t="s">
+      <c r="AE4" s="570" t="s">
         <v>567</v>
       </c>
-      <c r="AF4" s="573"/>
-      <c r="AG4" s="573"/>
+      <c r="AF4" s="570"/>
+      <c r="AG4" s="570"/>
     </row>
     <row r="5" spans="1:33" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="34" t="s">
@@ -31163,10 +31238,10 @@
         <v>0</v>
       </c>
       <c r="AD23" s="99"/>
-      <c r="AE23" s="578" t="s">
+      <c r="AE23" s="575" t="s">
         <v>564</v>
       </c>
-      <c r="AF23" s="579"/>
+      <c r="AF23" s="576"/>
       <c r="AG23" s="339">
         <f>SUM(AG6:AG22)</f>
         <v>2323600</v>
@@ -31178,30 +31253,32 @@
         <v>44431</v>
       </c>
       <c r="C24" s="36">
-        <v>0</v>
-      </c>
-      <c r="D24" s="139"/>
+        <v>10660</v>
+      </c>
+      <c r="D24" s="139" t="s">
+        <v>780</v>
+      </c>
       <c r="E24" s="136">
         <v>44431</v>
       </c>
       <c r="F24" s="37">
-        <v>0</v>
+        <v>119985</v>
       </c>
       <c r="G24" s="137"/>
       <c r="H24" s="138">
         <v>44431</v>
       </c>
       <c r="I24" s="38">
-        <v>0</v>
+        <v>440</v>
       </c>
       <c r="J24" s="294"/>
       <c r="K24" s="295"/>
       <c r="L24" s="296"/>
       <c r="M24" s="444">
-        <v>0</v>
+        <v>104541</v>
       </c>
       <c r="N24" s="42">
-        <v>0</v>
+        <v>4344</v>
       </c>
       <c r="O24" s="392"/>
       <c r="P24" s="389">
@@ -31212,7 +31289,7 @@
       </c>
       <c r="R24" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>119985</v>
       </c>
       <c r="S24" s="6">
         <f t="shared" si="0"/>
@@ -31298,11 +31375,11 @@
         <v>138607</v>
       </c>
       <c r="AD25" s="99"/>
-      <c r="AE25" s="580" t="s">
+      <c r="AE25" s="577" t="s">
         <v>565</v>
       </c>
-      <c r="AF25" s="581"/>
-      <c r="AG25" s="584">
+      <c r="AF25" s="578"/>
+      <c r="AG25" s="581">
         <f>AC29-AG23</f>
         <v>163726</v>
       </c>
@@ -31370,9 +31447,9 @@
         <v>107480</v>
       </c>
       <c r="AD26" s="99"/>
-      <c r="AE26" s="582"/>
-      <c r="AF26" s="583"/>
-      <c r="AG26" s="585"/>
+      <c r="AE26" s="579"/>
+      <c r="AF26" s="580"/>
+      <c r="AG26" s="582"/>
     </row>
     <row r="27" spans="1:33" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="34"/>
@@ -31556,10 +31633,10 @@
       </c>
       <c r="X29" s="220"/>
       <c r="Y29" s="218"/>
-      <c r="AB29" s="574" t="s">
+      <c r="AB29" s="571" t="s">
         <v>562</v>
       </c>
-      <c r="AC29" s="576">
+      <c r="AC29" s="573">
         <f>SUM(AC5:AC28)</f>
         <v>2487326</v>
       </c>
@@ -31620,8 +31697,8 @@
       </c>
       <c r="X30" s="221"/>
       <c r="Y30" s="207"/>
-      <c r="AB30" s="575"/>
-      <c r="AC30" s="577"/>
+      <c r="AB30" s="572"/>
+      <c r="AC30" s="574"/>
       <c r="AD30" s="99"/>
       <c r="AE30" s="99"/>
       <c r="AF30" s="99"/>
@@ -32060,20 +32137,20 @@
       <c r="J39" s="233"/>
       <c r="K39" s="361"/>
       <c r="L39" s="357"/>
-      <c r="M39" s="603">
+      <c r="M39" s="598">
         <f>SUM(M5:M38)</f>
-        <v>1947676.09</v>
-      </c>
-      <c r="N39" s="605">
+        <v>2052217.09</v>
+      </c>
+      <c r="N39" s="600">
         <f>SUM(N5:N38)</f>
-        <v>171196</v>
+        <v>175540</v>
       </c>
       <c r="O39" s="392"/>
       <c r="P39" s="7"/>
       <c r="Q39" s="7"/>
       <c r="R39" s="7">
         <f>SUM(R5:R38)</f>
-        <v>2438328.65</v>
+        <v>2558313.65</v>
       </c>
       <c r="T39" s="48"/>
       <c r="W39" s="213" t="s">
@@ -32103,8 +32180,8 @@
       <c r="J40" s="233"/>
       <c r="K40" s="144"/>
       <c r="L40" s="357"/>
-      <c r="M40" s="604"/>
-      <c r="N40" s="606"/>
+      <c r="M40" s="599"/>
+      <c r="N40" s="601"/>
       <c r="O40" s="392"/>
       <c r="P40" s="7"/>
       <c r="Q40" s="7"/>
@@ -32248,10 +32325,10 @@
       <c r="J44" s="233"/>
       <c r="K44" s="228"/>
       <c r="L44" s="358"/>
-      <c r="M44" s="607" t="s">
+      <c r="M44" s="602" t="s">
         <v>567</v>
       </c>
-      <c r="N44" s="607"/>
+      <c r="N44" s="602"/>
       <c r="O44" s="392"/>
       <c r="P44" s="7"/>
       <c r="Q44" s="7"/>
@@ -32696,7 +32773,7 @@
       <c r="J57" s="325"/>
       <c r="K57" s="359"/>
       <c r="L57" s="458"/>
-      <c r="M57" s="595">
+      <c r="M57" s="590">
         <f>SUM(M45:M56)</f>
         <v>1677050</v>
       </c>
@@ -32730,7 +32807,7 @@
       <c r="J58" s="325"/>
       <c r="K58" s="457"/>
       <c r="L58" s="458"/>
-      <c r="M58" s="596"/>
+      <c r="M58" s="591"/>
       <c r="N58" s="476"/>
       <c r="O58" s="392"/>
       <c r="P58" s="7"/>
@@ -32792,10 +32869,10 @@
       <c r="J60" s="325"/>
       <c r="K60" s="467"/>
       <c r="L60" s="458"/>
-      <c r="M60" s="597" t="s">
+      <c r="M60" s="592" t="s">
         <v>719</v>
       </c>
-      <c r="N60" s="598"/>
+      <c r="N60" s="593"/>
       <c r="O60" s="392"/>
       <c r="P60" s="7"/>
       <c r="Q60" s="7"/>
@@ -32856,11 +32933,11 @@
       <c r="J62" s="325"/>
       <c r="K62" s="359"/>
       <c r="L62" s="458"/>
-      <c r="M62" s="620">
+      <c r="M62" s="612">
         <f>M57-M39</f>
-        <v>-270626.09000000008</v>
-      </c>
-      <c r="N62" s="621"/>
+        <v>-375167.09000000008</v>
+      </c>
+      <c r="N62" s="613"/>
       <c r="O62" s="392"/>
       <c r="P62" s="7"/>
       <c r="Q62" s="7"/>
@@ -32890,8 +32967,8 @@
       <c r="J63" s="325"/>
       <c r="K63" s="359"/>
       <c r="L63" s="458"/>
-      <c r="M63" s="622"/>
-      <c r="N63" s="623"/>
+      <c r="M63" s="614"/>
+      <c r="N63" s="615"/>
       <c r="O63" s="392"/>
       <c r="P63" s="7"/>
       <c r="Q63" s="7"/>
@@ -33011,7 +33088,7 @@
       </c>
       <c r="C67" s="86">
         <f>SUM(C5:C66)</f>
-        <v>193161</v>
+        <v>203821</v>
       </c>
       <c r="D67" s="87"/>
       <c r="E67" s="88" t="s">
@@ -33019,7 +33096,7 @@
       </c>
       <c r="F67" s="89">
         <f>SUM(F5:F66)</f>
-        <v>2388397</v>
+        <v>2508382</v>
       </c>
       <c r="G67" s="87"/>
       <c r="H67" s="90" t="s">
@@ -33027,7 +33104,7 @@
       </c>
       <c r="I67" s="91">
         <f>SUM(I5:I66)</f>
-        <v>26388</v>
+        <v>26828</v>
       </c>
       <c r="J67" s="92"/>
       <c r="K67" s="93" t="s">
@@ -33043,7 +33120,7 @@
       <c r="Q67" s="366"/>
       <c r="R67" s="7">
         <f>SUM(R5:R66)</f>
-        <v>4876657.3</v>
+        <v>5116627.3</v>
       </c>
       <c r="S67" s="7">
         <f>SUM(S5:S66)</f>
@@ -33070,16 +33147,16 @@
       <c r="A69" s="60"/>
       <c r="B69" s="100"/>
       <c r="C69" s="4"/>
-      <c r="H69" s="522" t="s">
+      <c r="H69" s="523" t="s">
         <v>16</v>
       </c>
-      <c r="I69" s="523"/>
+      <c r="I69" s="524"/>
       <c r="J69" s="101"/>
-      <c r="K69" s="524">
+      <c r="K69" s="525">
         <f>I67+L67</f>
-        <v>126295.56</v>
-      </c>
-      <c r="L69" s="525"/>
+        <v>126735.56</v>
+      </c>
+      <c r="L69" s="526"/>
       <c r="M69" s="471"/>
       <c r="N69" s="472"/>
       <c r="O69" s="490"/>
@@ -33096,40 +33173,40 @@
       <c r="AG69" s="327"/>
     </row>
     <row r="70" spans="1:33" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D70" s="534" t="s">
+      <c r="D70" s="535" t="s">
         <v>17</v>
       </c>
-      <c r="E70" s="534"/>
+      <c r="E70" s="535"/>
       <c r="F70" s="103">
         <f>F67-K69-C67</f>
-        <v>2068940.44</v>
+        <v>2177825.44</v>
       </c>
       <c r="I70" s="104"/>
       <c r="J70" s="105"/>
-      <c r="R70" s="535">
+      <c r="R70" s="514">
         <f>R67+S67</f>
-        <v>4926588.95</v>
-      </c>
-      <c r="S70" s="536"/>
+        <v>5166558.95</v>
+      </c>
+      <c r="S70" s="515"/>
       <c r="U70" s="50"/>
     </row>
     <row r="71" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D71" s="537" t="s">
+      <c r="D71" s="516" t="s">
         <v>502</v>
       </c>
-      <c r="E71" s="537"/>
+      <c r="E71" s="516"/>
       <c r="F71" s="95">
         <v>0</v>
       </c>
-      <c r="I71" s="538" t="s">
+      <c r="I71" s="517" t="s">
         <v>19</v>
       </c>
-      <c r="J71" s="539"/>
-      <c r="K71" s="540">
+      <c r="J71" s="518"/>
+      <c r="K71" s="519">
         <f>F73+F74+F75</f>
-        <v>2068940.44</v>
-      </c>
-      <c r="L71" s="541"/>
+        <v>2177825.44</v>
+      </c>
+      <c r="L71" s="520"/>
       <c r="R71" s="50"/>
       <c r="U71" s="107"/>
     </row>
@@ -33156,18 +33233,18 @@
       </c>
       <c r="F73" s="95">
         <f>SUM(F70:F72)</f>
-        <v>2068940.44</v>
+        <v>2177825.44</v>
       </c>
       <c r="H73" s="34"/>
       <c r="I73" s="114" t="s">
         <v>21</v>
       </c>
       <c r="J73" s="115"/>
-      <c r="K73" s="542">
+      <c r="K73" s="521">
         <f>-C4</f>
         <v>-250140.85</v>
       </c>
-      <c r="L73" s="586"/>
+      <c r="L73" s="603"/>
       <c r="R73" s="50"/>
       <c r="S73" s="7"/>
       <c r="U73" s="50"/>
@@ -33188,22 +33265,22 @@
     </row>
     <row r="75" spans="1:33" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C75" s="119"/>
-      <c r="D75" s="528" t="s">
+      <c r="D75" s="529" t="s">
         <v>24</v>
       </c>
-      <c r="E75" s="529"/>
+      <c r="E75" s="530"/>
       <c r="F75" s="120">
         <v>0</v>
       </c>
-      <c r="I75" s="530" t="s">
+      <c r="I75" s="531" t="s">
         <v>25</v>
       </c>
-      <c r="J75" s="531"/>
-      <c r="K75" s="532">
+      <c r="J75" s="532"/>
+      <c r="K75" s="533">
         <f>K71+K73</f>
-        <v>1818799.5899999999</v>
-      </c>
-      <c r="L75" s="532"/>
+        <v>1927684.5899999999</v>
+      </c>
+      <c r="L75" s="533"/>
       <c r="R75" s="50"/>
       <c r="S75" s="7"/>
       <c r="U75" s="121"/>
@@ -33218,14 +33295,14 @@
       <c r="S76" s="7"/>
     </row>
     <row r="77" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I77" s="612" t="s">
+      <c r="I77" s="616" t="s">
         <v>610</v>
       </c>
-      <c r="J77" s="613"/>
-      <c r="K77" s="616">
-        <v>0</v>
-      </c>
-      <c r="L77" s="617"/>
+      <c r="J77" s="617"/>
+      <c r="K77" s="620">
+        <v>0</v>
+      </c>
+      <c r="L77" s="621"/>
       <c r="R77" s="7"/>
       <c r="S77" s="7"/>
     </row>
@@ -33234,10 +33311,10 @@
       <c r="C78" s="128"/>
       <c r="D78" s="129"/>
       <c r="E78" s="7"/>
-      <c r="I78" s="614"/>
-      <c r="J78" s="615"/>
-      <c r="K78" s="618"/>
-      <c r="L78" s="619"/>
+      <c r="I78" s="618"/>
+      <c r="J78" s="619"/>
+      <c r="K78" s="622"/>
+      <c r="L78" s="623"/>
       <c r="M78" s="2"/>
       <c r="N78" s="60"/>
       <c r="O78" s="491"/>
@@ -33289,7 +33366,7 @@
       <c r="C81" s="130"/>
       <c r="E81" s="7"/>
       <c r="M81" s="4"/>
-      <c r="AC81" s="559"/>
+      <c r="AC81" s="583"/>
       <c r="AD81" s="487"/>
       <c r="AE81" s="487"/>
       <c r="AF81" s="487"/>
@@ -33302,7 +33379,7 @@
       <c r="E82" s="7"/>
       <c r="F82" s="273"/>
       <c r="M82" s="4"/>
-      <c r="AC82" s="559"/>
+      <c r="AC82" s="583"/>
       <c r="AD82" s="487"/>
       <c r="AE82" s="487"/>
       <c r="AF82" s="487"/>
@@ -33399,16 +33476,20 @@
     <sortCondition ref="N45:N55"/>
   </sortState>
   <mergeCells count="37">
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:K1"/>
-    <mergeCell ref="AB2:AG3"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="AC81:AC82"/>
+    <mergeCell ref="K73:L73"/>
+    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="I75:J75"/>
+    <mergeCell ref="K75:L75"/>
+    <mergeCell ref="I77:J78"/>
+    <mergeCell ref="K77:L78"/>
+    <mergeCell ref="H69:I69"/>
+    <mergeCell ref="K69:L69"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="R70:S70"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="I71:J71"/>
+    <mergeCell ref="K71:L71"/>
     <mergeCell ref="M62:N63"/>
     <mergeCell ref="AB4:AC4"/>
     <mergeCell ref="AE4:AG4"/>
@@ -33422,20 +33503,16 @@
     <mergeCell ref="M44:N44"/>
     <mergeCell ref="M57:M58"/>
     <mergeCell ref="M60:N60"/>
-    <mergeCell ref="H69:I69"/>
-    <mergeCell ref="K69:L69"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="R70:S70"/>
-    <mergeCell ref="D71:E71"/>
-    <mergeCell ref="I71:J71"/>
-    <mergeCell ref="K71:L71"/>
-    <mergeCell ref="AC81:AC82"/>
-    <mergeCell ref="K73:L73"/>
-    <mergeCell ref="D75:E75"/>
-    <mergeCell ref="I75:J75"/>
-    <mergeCell ref="K75:L75"/>
-    <mergeCell ref="I77:J78"/>
-    <mergeCell ref="K77:L78"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:K1"/>
+    <mergeCell ref="AB2:AG3"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -33449,10 +33526,10 @@
   <sheetPr>
     <tabColor rgb="FF800000"/>
   </sheetPr>
-  <dimension ref="A1:G134"/>
+  <dimension ref="A1:G133"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D106" sqref="D106"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33498,267 +33575,423 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="192"/>
-      <c r="B3" s="193"/>
-      <c r="C3" s="71"/>
+      <c r="A3" s="192">
+        <v>44407</v>
+      </c>
+      <c r="B3" s="193" t="s">
+        <v>781</v>
+      </c>
+      <c r="C3" s="71">
+        <v>39311.300000000003</v>
+      </c>
       <c r="D3" s="194"/>
       <c r="E3" s="6"/>
       <c r="F3" s="182">
         <f>C3-E3</f>
-        <v>0</v>
+        <v>39311.300000000003</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="192"/>
-      <c r="B4" s="193"/>
-      <c r="C4" s="71"/>
+      <c r="A4" s="192">
+        <v>44407</v>
+      </c>
+      <c r="B4" s="193" t="s">
+        <v>782</v>
+      </c>
+      <c r="C4" s="71">
+        <v>11549.6</v>
+      </c>
       <c r="D4" s="195"/>
       <c r="E4" s="71"/>
       <c r="F4" s="183">
         <f>F3+C4-E4</f>
-        <v>0</v>
+        <v>50860.9</v>
       </c>
       <c r="G4" s="184"/>
     </row>
     <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="195"/>
-      <c r="B5" s="193"/>
-      <c r="C5" s="71"/>
+      <c r="A5" s="195">
+        <v>44410</v>
+      </c>
+      <c r="B5" s="193" t="s">
+        <v>783</v>
+      </c>
+      <c r="C5" s="71">
+        <v>22024.92</v>
+      </c>
       <c r="D5" s="195"/>
       <c r="E5" s="71"/>
       <c r="F5" s="183">
-        <f t="shared" ref="F5:F68" si="0">F4+C5-E5</f>
-        <v>0</v>
+        <f t="shared" ref="F5:F67" si="0">F4+C5-E5</f>
+        <v>72885.820000000007</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="195"/>
-      <c r="B6" s="193"/>
-      <c r="C6" s="71"/>
+      <c r="A6" s="195">
+        <v>44411</v>
+      </c>
+      <c r="B6" s="193" t="s">
+        <v>784</v>
+      </c>
+      <c r="C6" s="71">
+        <v>46313.1</v>
+      </c>
       <c r="D6" s="195"/>
       <c r="E6" s="71"/>
       <c r="F6" s="183">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>119198.92000000001</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="195"/>
-      <c r="B7" s="193"/>
-      <c r="C7" s="71"/>
+      <c r="A7" s="195">
+        <v>44412</v>
+      </c>
+      <c r="B7" s="193" t="s">
+        <v>785</v>
+      </c>
+      <c r="C7" s="71">
+        <v>98552.6</v>
+      </c>
       <c r="D7" s="195"/>
       <c r="E7" s="71"/>
       <c r="F7" s="183">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>217751.52000000002</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="195"/>
-      <c r="B8" s="193"/>
-      <c r="C8" s="71"/>
+      <c r="A8" s="195">
+        <v>44412</v>
+      </c>
+      <c r="B8" s="193" t="s">
+        <v>786</v>
+      </c>
+      <c r="C8" s="71">
+        <v>34220.800000000003</v>
+      </c>
       <c r="D8" s="195"/>
       <c r="E8" s="71"/>
       <c r="F8" s="183">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>251972.32</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="195"/>
-      <c r="B9" s="193"/>
-      <c r="C9" s="71"/>
+      <c r="A9" s="195">
+        <v>44413</v>
+      </c>
+      <c r="B9" s="193" t="s">
+        <v>787</v>
+      </c>
+      <c r="C9" s="71">
+        <v>83774</v>
+      </c>
       <c r="D9" s="195"/>
       <c r="E9" s="71"/>
       <c r="F9" s="183">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>335746.32</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="195"/>
-      <c r="B10" s="193"/>
-      <c r="C10" s="71"/>
+      <c r="A10" s="195">
+        <v>44413</v>
+      </c>
+      <c r="B10" s="193" t="s">
+        <v>788</v>
+      </c>
+      <c r="C10" s="71">
+        <v>11114.4</v>
+      </c>
       <c r="D10" s="195"/>
       <c r="E10" s="71"/>
       <c r="F10" s="183">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>346860.72000000003</v>
       </c>
       <c r="G10" s="184"/>
     </row>
     <row r="11" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="192"/>
-      <c r="B11" s="193"/>
-      <c r="C11" s="71"/>
+      <c r="A11" s="192">
+        <v>44414</v>
+      </c>
+      <c r="B11" s="193" t="s">
+        <v>789</v>
+      </c>
+      <c r="C11" s="71">
+        <v>26168</v>
+      </c>
       <c r="D11" s="195"/>
       <c r="E11" s="71"/>
       <c r="F11" s="183">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>373028.72000000003</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="195"/>
-      <c r="B12" s="193"/>
-      <c r="C12" s="71"/>
+      <c r="A12" s="195">
+        <v>44415</v>
+      </c>
+      <c r="B12" s="193" t="s">
+        <v>790</v>
+      </c>
+      <c r="C12" s="71">
+        <v>29328.5</v>
+      </c>
       <c r="D12" s="195"/>
       <c r="E12" s="71"/>
       <c r="F12" s="183">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>402357.22000000003</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="195"/>
-      <c r="B13" s="193"/>
-      <c r="C13" s="71"/>
+      <c r="A13" s="195">
+        <v>44417</v>
+      </c>
+      <c r="B13" s="193" t="s">
+        <v>791</v>
+      </c>
+      <c r="C13" s="71">
+        <v>11509.3</v>
+      </c>
       <c r="D13" s="195"/>
       <c r="E13" s="71"/>
       <c r="F13" s="183">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>413866.52</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="195"/>
-      <c r="B14" s="193"/>
-      <c r="C14" s="71"/>
+      <c r="A14" s="195">
+        <v>44418</v>
+      </c>
+      <c r="B14" s="193" t="s">
+        <v>792</v>
+      </c>
+      <c r="C14" s="71">
+        <v>37508.9</v>
+      </c>
       <c r="D14" s="195"/>
       <c r="E14" s="71"/>
       <c r="F14" s="183">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>451375.42000000004</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="195"/>
-      <c r="B15" s="193"/>
-      <c r="C15" s="71"/>
+      <c r="A15" s="195">
+        <v>44418</v>
+      </c>
+      <c r="B15" s="193" t="s">
+        <v>793</v>
+      </c>
+      <c r="C15" s="71">
+        <v>8601.6</v>
+      </c>
       <c r="D15" s="195"/>
       <c r="E15" s="71"/>
       <c r="F15" s="183">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>459977.02</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="195"/>
-      <c r="B16" s="193"/>
-      <c r="C16" s="71"/>
+      <c r="A16" s="195">
+        <v>44418</v>
+      </c>
+      <c r="B16" s="193" t="s">
+        <v>794</v>
+      </c>
+      <c r="C16" s="71">
+        <v>17148.599999999999</v>
+      </c>
       <c r="D16" s="195"/>
       <c r="E16" s="71"/>
       <c r="F16" s="183">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>477125.62</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="195"/>
-      <c r="B17" s="193"/>
-      <c r="C17" s="71"/>
-      <c r="D17" s="195"/>
-      <c r="E17" s="71"/>
+      <c r="A17" s="195">
+        <v>44419</v>
+      </c>
+      <c r="B17" s="193" t="s">
+        <v>795</v>
+      </c>
+      <c r="C17" s="71">
+        <v>85969.2</v>
+      </c>
+      <c r="D17" s="195">
+        <v>44420</v>
+      </c>
+      <c r="E17" s="71">
+        <v>550000</v>
+      </c>
       <c r="F17" s="183">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>13094.819999999949</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="195"/>
-      <c r="B18" s="193"/>
-      <c r="C18" s="71"/>
+      <c r="A18" s="195">
+        <v>44420</v>
+      </c>
+      <c r="B18" s="193" t="s">
+        <v>796</v>
+      </c>
+      <c r="C18" s="71">
+        <v>138341.66</v>
+      </c>
       <c r="D18" s="195"/>
       <c r="E18" s="71"/>
       <c r="F18" s="183">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>151436.47999999995</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="195"/>
-      <c r="B19" s="193"/>
-      <c r="C19" s="71"/>
+      <c r="A19" s="195">
+        <v>44421</v>
+      </c>
+      <c r="B19" s="193" t="s">
+        <v>797</v>
+      </c>
+      <c r="C19" s="71">
+        <v>132674.09</v>
+      </c>
       <c r="D19" s="195"/>
       <c r="E19" s="71"/>
       <c r="F19" s="183">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>284110.56999999995</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="195"/>
-      <c r="B20" s="193"/>
-      <c r="C20" s="71"/>
-      <c r="D20" s="195"/>
-      <c r="E20" s="71"/>
+      <c r="A20" s="195">
+        <v>44422</v>
+      </c>
+      <c r="B20" s="193" t="s">
+        <v>798</v>
+      </c>
+      <c r="C20" s="71">
+        <v>90825.97</v>
+      </c>
+      <c r="D20" s="195">
+        <v>44424</v>
+      </c>
+      <c r="E20" s="71">
+        <v>300000</v>
+      </c>
       <c r="F20" s="183">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="195"/>
-      <c r="B21" s="193"/>
-      <c r="C21" s="71"/>
+        <v>74936.539999999921</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A21" s="195">
+        <v>44422</v>
+      </c>
+      <c r="B21" s="193" t="s">
+        <v>799</v>
+      </c>
+      <c r="C21" s="71">
+        <v>39418.1</v>
+      </c>
       <c r="D21" s="195"/>
       <c r="E21" s="71"/>
       <c r="F21" s="183">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A22" s="195"/>
-      <c r="B22" s="193"/>
-      <c r="C22" s="71"/>
+        <v>114354.63999999993</v>
+      </c>
+      <c r="G21" s="184"/>
+    </row>
+    <row r="22" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="195">
+        <v>44424</v>
+      </c>
+      <c r="B22" s="193" t="s">
+        <v>800</v>
+      </c>
+      <c r="C22" s="71">
+        <v>76845.3</v>
+      </c>
       <c r="D22" s="195"/>
       <c r="E22" s="71"/>
       <c r="F22" s="183">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G22" s="184"/>
+        <v>191199.93999999994</v>
+      </c>
     </row>
     <row r="23" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="195"/>
-      <c r="B23" s="193"/>
-      <c r="C23" s="71"/>
+      <c r="A23" s="195">
+        <v>44425</v>
+      </c>
+      <c r="B23" s="193" t="s">
+        <v>801</v>
+      </c>
+      <c r="C23" s="71">
+        <v>129480.9</v>
+      </c>
       <c r="D23" s="195"/>
       <c r="E23" s="71"/>
       <c r="F23" s="183">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>320680.83999999997</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="195"/>
-      <c r="B24" s="193"/>
-      <c r="C24" s="71"/>
+      <c r="A24" s="195">
+        <v>44425</v>
+      </c>
+      <c r="B24" s="193" t="s">
+        <v>802</v>
+      </c>
+      <c r="C24" s="71">
+        <v>48435.55</v>
+      </c>
       <c r="D24" s="195"/>
       <c r="E24" s="71"/>
       <c r="F24" s="183">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>369116.38999999996</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="195"/>
-      <c r="B25" s="193"/>
-      <c r="C25" s="71"/>
+      <c r="A25" s="195">
+        <v>44426</v>
+      </c>
+      <c r="B25" s="193" t="s">
+        <v>803</v>
+      </c>
+      <c r="C25" s="71">
+        <v>10287.5</v>
+      </c>
       <c r="D25" s="195"/>
       <c r="E25" s="71"/>
       <c r="F25" s="183">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>379403.88999999996</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="195"/>
-      <c r="B26" s="193"/>
-      <c r="C26" s="71"/>
-      <c r="D26" s="195"/>
-      <c r="E26" s="71"/>
+      <c r="A26" s="195">
+        <v>44427</v>
+      </c>
+      <c r="B26" s="193" t="s">
+        <v>804</v>
+      </c>
+      <c r="C26" s="71">
+        <v>142888.70000000001</v>
+      </c>
+      <c r="D26" s="195">
+        <v>44428</v>
+      </c>
+      <c r="E26" s="71">
+        <v>522292.59</v>
+      </c>
       <c r="F26" s="183">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -33786,7 +34019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A29" s="195"/>
       <c r="B29" s="193"/>
       <c r="C29" s="71"/>
@@ -33796,8 +34029,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="G29" s="184"/>
+    </row>
+    <row r="30" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="195"/>
       <c r="B30" s="193"/>
       <c r="C30" s="71"/>
@@ -33807,7 +34041,6 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G30" s="184"/>
     </row>
     <row r="31" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="195"/>
@@ -34051,8 +34284,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="195"/>
+    <row r="53" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="192"/>
       <c r="B53" s="193"/>
       <c r="C53" s="71"/>
       <c r="D53" s="195"/>
@@ -34085,7 +34318,7 @@
       </c>
     </row>
     <row r="56" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="192"/>
+      <c r="A56" s="195"/>
       <c r="B56" s="193"/>
       <c r="C56" s="71"/>
       <c r="D56" s="195"/>
@@ -34118,7 +34351,7 @@
       </c>
     </row>
     <row r="59" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="195"/>
+      <c r="A59" s="192"/>
       <c r="B59" s="193"/>
       <c r="C59" s="71"/>
       <c r="D59" s="195"/>
@@ -34223,7 +34456,7 @@
       <c r="D68" s="195"/>
       <c r="E68" s="71"/>
       <c r="F68" s="183">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="F68:F96" si="1">F67+C68-E68</f>
         <v>0</v>
       </c>
     </row>
@@ -34234,7 +34467,7 @@
       <c r="D69" s="195"/>
       <c r="E69" s="71"/>
       <c r="F69" s="183">
-        <f t="shared" ref="F69:F97" si="1">F68+C69-E69</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -34349,11 +34582,11 @@
       </c>
     </row>
     <row r="80" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="192"/>
-      <c r="B80" s="193"/>
-      <c r="C80" s="71"/>
-      <c r="D80" s="195"/>
-      <c r="E80" s="71"/>
+      <c r="A80" s="186"/>
+      <c r="B80" s="187"/>
+      <c r="C80" s="7"/>
+      <c r="D80" s="181"/>
+      <c r="E80" s="7"/>
       <c r="F80" s="183">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -34415,11 +34648,11 @@
       </c>
     </row>
     <row r="86" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="186"/>
-      <c r="B86" s="187"/>
-      <c r="C86" s="7"/>
-      <c r="D86" s="181"/>
-      <c r="E86" s="7"/>
+      <c r="A86" s="270"/>
+      <c r="B86" s="268"/>
+      <c r="C86" s="71"/>
+      <c r="D86" s="269"/>
+      <c r="E86" s="71"/>
       <c r="F86" s="183">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -34513,7 +34746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A95" s="270"/>
       <c r="B95" s="268"/>
       <c r="C95" s="71"/>
@@ -34524,45 +34757,41 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A96" s="270"/>
-      <c r="B96" s="268"/>
-      <c r="C96" s="71"/>
-      <c r="D96" s="269"/>
-      <c r="E96" s="71"/>
+    <row r="96" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="188"/>
+      <c r="B96" s="189"/>
+      <c r="C96" s="84">
+        <v>0</v>
+      </c>
+      <c r="D96" s="190"/>
+      <c r="E96" s="84"/>
       <c r="F96" s="183">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="188"/>
-      <c r="B97" s="189"/>
-      <c r="C97" s="84">
-        <v>0</v>
-      </c>
-      <c r="D97" s="190"/>
-      <c r="E97" s="84"/>
-      <c r="F97" s="183">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B97" s="60"/>
+      <c r="C97" s="4">
+        <f>SUM(C3:C96)</f>
+        <v>1372292.5899999999</v>
+      </c>
+      <c r="D97" s="1"/>
+      <c r="E97" s="4">
+        <f>SUM(E3:E96)</f>
+        <v>1372292.59</v>
+      </c>
+      <c r="F97" s="191">
+        <f>F96</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B98" s="60"/>
-      <c r="C98" s="4">
-        <f>SUM(C3:C97)</f>
-        <v>0</v>
-      </c>
+      <c r="C98" s="4"/>
       <c r="D98" s="1"/>
-      <c r="E98" s="4">
-        <f>SUM(E3:E97)</f>
-        <v>0</v>
-      </c>
-      <c r="F98" s="191">
-        <f>F97</f>
-        <v>0</v>
-      </c>
+      <c r="E98" s="8"/>
+      <c r="F98" s="4"/>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B99" s="60"/>
@@ -34572,11 +34801,9 @@
       <c r="F99" s="4"/>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B100" s="60"/>
-      <c r="C100" s="4"/>
-      <c r="D100" s="1"/>
-      <c r="E100" s="8"/>
-      <c r="F100" s="4"/>
+      <c r="A100"/>
+      <c r="B100" s="34"/>
+      <c r="D100" s="34"/>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101"/>
@@ -34592,6 +34819,7 @@
       <c r="A103"/>
       <c r="B103" s="34"/>
       <c r="D103" s="34"/>
+      <c r="F103"/>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104"/>
@@ -34645,6 +34873,7 @@
       <c r="A112"/>
       <c r="B112" s="34"/>
       <c r="D112" s="34"/>
+      <c r="E112"/>
       <c r="F112"/>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
@@ -34683,11 +34912,9 @@
       <c r="F117"/>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A118"/>
       <c r="B118" s="34"/>
       <c r="D118" s="34"/>
       <c r="E118"/>
-      <c r="F118"/>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B119" s="34"/>
@@ -34731,18 +34958,16 @@
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B127" s="34"/>
-      <c r="D127" s="34"/>
-      <c r="E127"/>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B128" s="34"/>
     </row>
     <row r="129" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B129" s="34"/>
+      <c r="D129" s="34"/>
     </row>
     <row r="130" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B130" s="34"/>
-      <c r="D130" s="34"/>
     </row>
     <row r="131" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B131" s="34"/>
@@ -34750,11 +34975,8 @@
     <row r="132" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B132" s="34"/>
     </row>
-    <row r="133" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B133" s="34"/>
-    </row>
-    <row r="134" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C134" s="126"/>
+    <row r="133" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C133" s="126"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -34817,7 +35039,7 @@
       <c r="B2" s="18"/>
       <c r="C2" s="4"/>
       <c r="D2" s="6"/>
-      <c r="E2" s="560" t="s">
+      <c r="E2" s="557" t="s">
         <v>562</v>
       </c>
       <c r="F2" s="497"/>
@@ -34843,7 +35065,7 @@
         <v>10</v>
       </c>
       <c r="D3" s="365"/>
-      <c r="E3" s="560"/>
+      <c r="E3" s="557"/>
       <c r="F3" s="497"/>
       <c r="H3" s="444">
         <v>126476.5</v>
@@ -34855,10 +35077,10 @@
         <v>44378</v>
       </c>
       <c r="K3" s="496"/>
-      <c r="L3" s="607" t="s">
+      <c r="L3" s="602" t="s">
         <v>567</v>
       </c>
-      <c r="M3" s="607"/>
+      <c r="M3" s="602"/>
       <c r="O3" s="444">
         <v>64006</v>
       </c>
@@ -35402,7 +35624,7 @@
         <v>44391</v>
       </c>
       <c r="K16" s="496"/>
-      <c r="L16" s="595">
+      <c r="L16" s="590">
         <f>SUM(L4:L15)</f>
         <v>3606750</v>
       </c>
@@ -35443,7 +35665,7 @@
         <v>44392</v>
       </c>
       <c r="K17" s="496"/>
-      <c r="L17" s="596"/>
+      <c r="L17" s="591"/>
       <c r="M17" s="476"/>
       <c r="O17" s="444">
         <v>0</v>
@@ -35516,10 +35738,10 @@
         <v>44394</v>
       </c>
       <c r="K19" s="496"/>
-      <c r="L19" s="597" t="s">
+      <c r="L19" s="592" t="s">
         <v>719</v>
       </c>
-      <c r="M19" s="598"/>
+      <c r="M19" s="593"/>
       <c r="O19" s="444">
         <v>0</v>
       </c>
@@ -36026,35 +36248,35 @@
       <c r="Q36" s="392"/>
     </row>
     <row r="37" spans="7:17" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="H37" s="603">
+      <c r="H37" s="598">
         <f>SUM(H3:H36)</f>
         <v>3989872.22</v>
       </c>
-      <c r="I37" s="605">
+      <c r="I37" s="600">
         <f>SUM(I3:I36)</f>
         <v>688820.5</v>
       </c>
       <c r="J37" s="496"/>
       <c r="K37" s="496"/>
       <c r="L37" s="496"/>
-      <c r="O37" s="603">
+      <c r="O37" s="598">
         <f>SUM(O3:O36)</f>
         <v>1464800.09</v>
       </c>
-      <c r="P37" s="605">
+      <c r="P37" s="600">
         <f>SUM(P3:P36)</f>
         <v>121896</v>
       </c>
       <c r="Q37" s="392"/>
     </row>
     <row r="38" spans="7:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H38" s="604"/>
-      <c r="I38" s="606"/>
+      <c r="H38" s="599"/>
+      <c r="I38" s="601"/>
       <c r="J38" s="496"/>
       <c r="K38" s="496"/>
       <c r="L38" s="496"/>
-      <c r="O38" s="604"/>
-      <c r="P38" s="606"/>
+      <c r="O38" s="599"/>
+      <c r="P38" s="601"/>
       <c r="Q38" s="392"/>
     </row>
     <row r="39" spans="7:17" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -36068,10 +36290,10 @@
       <c r="G40" s="272"/>
       <c r="H40" s="633"/>
       <c r="I40" s="633"/>
-      <c r="O40" s="607" t="s">
+      <c r="O40" s="602" t="s">
         <v>567</v>
       </c>
-      <c r="P40" s="607"/>
+      <c r="P40" s="602"/>
       <c r="Q40" s="392"/>
     </row>
     <row r="41" spans="7:17" ht="15.75" x14ac:dyDescent="0.25">
@@ -36220,7 +36442,7 @@
       <c r="G53" s="272"/>
       <c r="H53" s="634"/>
       <c r="I53" s="7"/>
-      <c r="O53" s="595">
+      <c r="O53" s="590">
         <f>SUM(O41:O52)</f>
         <v>1682687</v>
       </c>
@@ -36231,7 +36453,7 @@
       <c r="G54" s="272"/>
       <c r="H54" s="634"/>
       <c r="I54" s="7"/>
-      <c r="O54" s="596"/>
+      <c r="O54" s="591"/>
       <c r="P54" s="476"/>
       <c r="Q54" s="392"/>
     </row>
@@ -36247,10 +36469,10 @@
       <c r="G56" s="272"/>
       <c r="H56" s="633"/>
       <c r="I56" s="633"/>
-      <c r="O56" s="597" t="s">
+      <c r="O56" s="592" t="s">
         <v>719</v>
       </c>
-      <c r="P56" s="598"/>
+      <c r="P56" s="593"/>
       <c r="Q56" s="392"/>
     </row>
     <row r="57" spans="7:17" ht="15.75" x14ac:dyDescent="0.25">
@@ -38648,17 +38870,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C1" s="514" t="s">
+      <c r="C1" s="536" t="s">
         <v>147</v>
       </c>
-      <c r="D1" s="514"/>
-      <c r="E1" s="514"/>
-      <c r="F1" s="514"/>
-      <c r="G1" s="514"/>
-      <c r="H1" s="514"/>
-      <c r="I1" s="514"/>
-      <c r="J1" s="514"/>
-      <c r="K1" s="514"/>
+      <c r="D1" s="536"/>
+      <c r="E1" s="536"/>
+      <c r="F1" s="536"/>
+      <c r="G1" s="536"/>
+      <c r="H1" s="536"/>
+      <c r="I1" s="536"/>
+      <c r="J1" s="536"/>
+      <c r="K1" s="536"/>
       <c r="L1" s="2"/>
       <c r="M1" s="3"/>
       <c r="U1" s="209"/>
@@ -38689,17 +38911,17 @@
       </c>
     </row>
     <row r="3" spans="1:23" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="515" t="s">
+      <c r="B3" s="537" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="516"/>
+      <c r="C3" s="538"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="15"/>
-      <c r="H3" s="517" t="s">
+      <c r="H3" s="539" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="517"/>
+      <c r="I3" s="539"/>
       <c r="K3" s="17" t="s">
         <v>3</v>
       </c>
@@ -38728,14 +38950,14 @@
       <c r="D4" s="23">
         <v>44230</v>
       </c>
-      <c r="E4" s="518" t="s">
+      <c r="E4" s="540" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="519"/>
-      <c r="H4" s="520" t="s">
+      <c r="F4" s="541"/>
+      <c r="H4" s="542" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="521"/>
+      <c r="I4" s="543"/>
       <c r="J4" s="24"/>
       <c r="K4" s="25"/>
       <c r="L4" s="26"/>
@@ -41274,61 +41496,61 @@
       <c r="A64" s="60"/>
       <c r="B64" s="100"/>
       <c r="C64" s="4"/>
-      <c r="H64" s="522" t="s">
+      <c r="H64" s="523" t="s">
         <v>16</v>
       </c>
-      <c r="I64" s="523"/>
+      <c r="I64" s="524"/>
       <c r="J64" s="101"/>
-      <c r="K64" s="524">
+      <c r="K64" s="525">
         <f>I62+L62</f>
         <v>259947.00000000003</v>
       </c>
-      <c r="L64" s="525"/>
-      <c r="M64" s="526">
+      <c r="L64" s="526"/>
+      <c r="M64" s="527">
         <f>M62+N62</f>
         <v>2744320</v>
       </c>
-      <c r="N64" s="527"/>
+      <c r="N64" s="528"/>
       <c r="O64" s="102"/>
       <c r="P64" s="99"/>
       <c r="Q64" s="99"/>
       <c r="S64" s="174"/>
     </row>
     <row r="65" spans="2:19" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D65" s="534" t="s">
+      <c r="D65" s="535" t="s">
         <v>17</v>
       </c>
-      <c r="E65" s="534"/>
+      <c r="E65" s="535"/>
       <c r="F65" s="103">
         <f>F62-K64-C62</f>
         <v>2374814.2599999998</v>
       </c>
       <c r="I65" s="104"/>
       <c r="J65" s="105"/>
-      <c r="P65" s="535">
+      <c r="P65" s="514">
         <f>P62+Q62</f>
         <v>3144691.75</v>
       </c>
-      <c r="Q65" s="536"/>
+      <c r="Q65" s="515"/>
       <c r="S65" s="50"/>
     </row>
     <row r="66" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D66" s="537" t="s">
+      <c r="D66" s="516" t="s">
         <v>18</v>
       </c>
-      <c r="E66" s="537"/>
+      <c r="E66" s="516"/>
       <c r="F66" s="95">
         <v>-2261593.1</v>
       </c>
-      <c r="I66" s="538" t="s">
+      <c r="I66" s="517" t="s">
         <v>19</v>
       </c>
-      <c r="J66" s="539"/>
-      <c r="K66" s="540">
+      <c r="J66" s="518"/>
+      <c r="K66" s="519">
         <f>F68+F69+F70</f>
         <v>355407.6199999997</v>
       </c>
-      <c r="L66" s="541"/>
+      <c r="L66" s="520"/>
       <c r="P66" s="50"/>
       <c r="S66" s="107"/>
     </row>
@@ -41365,11 +41587,11 @@
         <v>21</v>
       </c>
       <c r="J68" s="115"/>
-      <c r="K68" s="542">
+      <c r="K68" s="521">
         <f>-C4</f>
         <v>-209541.1</v>
       </c>
-      <c r="L68" s="543"/>
+      <c r="L68" s="522"/>
       <c r="M68" s="116"/>
       <c r="P68" s="50"/>
       <c r="Q68" s="7"/>
@@ -41393,22 +41615,22 @@
       <c r="C70" s="119">
         <v>44257</v>
       </c>
-      <c r="D70" s="528" t="s">
+      <c r="D70" s="529" t="s">
         <v>24</v>
       </c>
-      <c r="E70" s="529"/>
+      <c r="E70" s="530"/>
       <c r="F70" s="120">
         <v>223014.26</v>
       </c>
-      <c r="I70" s="530" t="s">
+      <c r="I70" s="531" t="s">
         <v>25</v>
       </c>
-      <c r="J70" s="531"/>
-      <c r="K70" s="532">
+      <c r="J70" s="532"/>
+      <c r="K70" s="533">
         <f>K66+K68</f>
         <v>145866.5199999997</v>
       </c>
-      <c r="L70" s="533"/>
+      <c r="L70" s="534"/>
       <c r="P70" s="50"/>
       <c r="Q70" s="7"/>
       <c r="S70" s="121"/>
@@ -41509,12 +41731,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="K68:L68"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="I70:J70"/>
-    <mergeCell ref="K70:L70"/>
-    <mergeCell ref="M64:N64"/>
-    <mergeCell ref="D65:E65"/>
     <mergeCell ref="P65:Q65"/>
     <mergeCell ref="D66:E66"/>
     <mergeCell ref="I66:J66"/>
@@ -41526,6 +41742,12 @@
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="H64:I64"/>
     <mergeCell ref="K64:L64"/>
+    <mergeCell ref="K68:L68"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="I70:J70"/>
+    <mergeCell ref="K70:L70"/>
+    <mergeCell ref="M64:N64"/>
+    <mergeCell ref="D65:E65"/>
   </mergeCells>
   <phoneticPr fontId="41" type="noConversion"/>
   <pageMargins left="0.51181102362204722" right="0.15748031496062992" top="0.31496062992125984" bottom="0.31496062992125984" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -42796,17 +43018,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C1" s="514" t="s">
+      <c r="C1" s="536" t="s">
         <v>429</v>
       </c>
-      <c r="D1" s="514"/>
-      <c r="E1" s="514"/>
-      <c r="F1" s="514"/>
-      <c r="G1" s="514"/>
-      <c r="H1" s="514"/>
-      <c r="I1" s="514"/>
-      <c r="J1" s="514"/>
-      <c r="K1" s="514"/>
+      <c r="D1" s="536"/>
+      <c r="E1" s="536"/>
+      <c r="F1" s="536"/>
+      <c r="G1" s="536"/>
+      <c r="H1" s="536"/>
+      <c r="I1" s="536"/>
+      <c r="J1" s="536"/>
+      <c r="K1" s="536"/>
       <c r="L1" s="2"/>
       <c r="M1" s="3"/>
       <c r="U1" s="209"/>
@@ -42836,17 +43058,17 @@
       </c>
     </row>
     <row r="3" spans="1:23" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="515" t="s">
+      <c r="B3" s="537" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="516"/>
+      <c r="C3" s="538"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="15"/>
-      <c r="H3" s="517" t="s">
+      <c r="H3" s="539" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="517"/>
+      <c r="I3" s="539"/>
       <c r="K3" s="17" t="s">
         <v>3</v>
       </c>
@@ -42875,14 +43097,14 @@
       <c r="D4" s="23">
         <v>44257</v>
       </c>
-      <c r="E4" s="518" t="s">
+      <c r="E4" s="540" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="519"/>
-      <c r="H4" s="520" t="s">
+      <c r="F4" s="541"/>
+      <c r="H4" s="542" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="521"/>
+      <c r="I4" s="543"/>
       <c r="J4" s="24"/>
       <c r="K4" s="25"/>
       <c r="L4" s="26"/>
@@ -45484,61 +45706,61 @@
       <c r="A62" s="60"/>
       <c r="B62" s="100"/>
       <c r="C62" s="4"/>
-      <c r="H62" s="522" t="s">
+      <c r="H62" s="523" t="s">
         <v>16</v>
       </c>
-      <c r="I62" s="523"/>
+      <c r="I62" s="524"/>
       <c r="J62" s="101"/>
-      <c r="K62" s="524">
+      <c r="K62" s="525">
         <f>I60+L60</f>
         <v>781851.32000000007</v>
       </c>
-      <c r="L62" s="525"/>
-      <c r="M62" s="526">
+      <c r="L62" s="526"/>
+      <c r="M62" s="527">
         <f>M60+N60</f>
         <v>4064802.5</v>
       </c>
-      <c r="N62" s="527"/>
+      <c r="N62" s="528"/>
       <c r="O62" s="102"/>
       <c r="P62" s="99"/>
       <c r="Q62" s="99"/>
       <c r="S62" s="174"/>
     </row>
     <row r="63" spans="1:23" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D63" s="534" t="s">
+      <c r="D63" s="535" t="s">
         <v>17</v>
       </c>
-      <c r="E63" s="534"/>
+      <c r="E63" s="535"/>
       <c r="F63" s="103">
         <f>F60-K62-C60</f>
         <v>3177878.1399999997</v>
       </c>
       <c r="I63" s="104"/>
       <c r="J63" s="105"/>
-      <c r="P63" s="535">
+      <c r="P63" s="514">
         <f>P60+Q60</f>
         <v>4585432.34</v>
       </c>
-      <c r="Q63" s="536"/>
+      <c r="Q63" s="515"/>
       <c r="S63" s="50"/>
     </row>
     <row r="64" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D64" s="537" t="s">
+      <c r="D64" s="516" t="s">
         <v>18</v>
       </c>
-      <c r="E64" s="537"/>
+      <c r="E64" s="516"/>
       <c r="F64" s="95">
         <v>-3579271.89</v>
       </c>
-      <c r="I64" s="538" t="s">
+      <c r="I64" s="517" t="s">
         <v>19</v>
       </c>
-      <c r="J64" s="539"/>
-      <c r="K64" s="540">
+      <c r="J64" s="518"/>
+      <c r="K64" s="519">
         <f>F66+F67+F68</f>
         <v>-110332.85000000047</v>
       </c>
-      <c r="L64" s="541"/>
+      <c r="L64" s="520"/>
       <c r="P64" s="50"/>
       <c r="S64" s="107"/>
     </row>
@@ -45572,11 +45794,11 @@
         <v>21</v>
       </c>
       <c r="J66" s="115"/>
-      <c r="K66" s="542">
+      <c r="K66" s="521">
         <f>-C4</f>
         <v>-223014.26</v>
       </c>
-      <c r="L66" s="543"/>
+      <c r="L66" s="522"/>
       <c r="M66" s="116"/>
       <c r="P66" s="50"/>
       <c r="Q66" s="7"/>
@@ -45600,10 +45822,10 @@
       <c r="C68" s="119">
         <v>44291</v>
       </c>
-      <c r="D68" s="528" t="s">
+      <c r="D68" s="529" t="s">
         <v>24</v>
       </c>
-      <c r="E68" s="529"/>
+      <c r="E68" s="530"/>
       <c r="F68" s="120">
         <v>215362.9</v>
       </c>
@@ -45771,12 +45993,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="K66:L66"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="I68:J68"/>
-    <mergeCell ref="K68:L68"/>
-    <mergeCell ref="M62:N62"/>
-    <mergeCell ref="D63:E63"/>
     <mergeCell ref="P63:Q63"/>
     <mergeCell ref="D64:E64"/>
     <mergeCell ref="I64:J64"/>
@@ -45788,6 +46004,12 @@
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="H62:I62"/>
     <mergeCell ref="K62:L62"/>
+    <mergeCell ref="K66:L66"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="I68:J68"/>
+    <mergeCell ref="K68:L68"/>
+    <mergeCell ref="M62:N62"/>
+    <mergeCell ref="D63:E63"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -47219,17 +47441,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C1" s="514" t="s">
+      <c r="C1" s="536" t="s">
         <v>430</v>
       </c>
-      <c r="D1" s="514"/>
-      <c r="E1" s="514"/>
-      <c r="F1" s="514"/>
-      <c r="G1" s="514"/>
-      <c r="H1" s="514"/>
-      <c r="I1" s="514"/>
-      <c r="J1" s="514"/>
-      <c r="K1" s="514"/>
+      <c r="D1" s="536"/>
+      <c r="E1" s="536"/>
+      <c r="F1" s="536"/>
+      <c r="G1" s="536"/>
+      <c r="H1" s="536"/>
+      <c r="I1" s="536"/>
+      <c r="J1" s="536"/>
+      <c r="K1" s="536"/>
       <c r="L1" s="2"/>
       <c r="M1" s="3"/>
       <c r="U1" s="209"/>
@@ -47259,17 +47481,17 @@
       </c>
     </row>
     <row r="3" spans="1:23" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="515" t="s">
+      <c r="B3" s="537" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="516"/>
+      <c r="C3" s="538"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="15"/>
-      <c r="H3" s="517" t="s">
+      <c r="H3" s="539" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="517"/>
+      <c r="I3" s="539"/>
       <c r="K3" s="17" t="s">
         <v>3</v>
       </c>
@@ -47298,14 +47520,14 @@
       <c r="D4" s="23">
         <v>44291</v>
       </c>
-      <c r="E4" s="518" t="s">
+      <c r="E4" s="540" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="519"/>
-      <c r="H4" s="520" t="s">
+      <c r="F4" s="541"/>
+      <c r="H4" s="542" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="548"/>
+      <c r="I4" s="549"/>
       <c r="J4" s="24"/>
       <c r="K4" s="25"/>
       <c r="L4" s="26"/>
@@ -49797,61 +50019,61 @@
       <c r="A58" s="60"/>
       <c r="B58" s="100"/>
       <c r="C58" s="4"/>
-      <c r="H58" s="522" t="s">
+      <c r="H58" s="523" t="s">
         <v>16</v>
       </c>
-      <c r="I58" s="523"/>
+      <c r="I58" s="524"/>
       <c r="J58" s="101"/>
-      <c r="K58" s="524">
+      <c r="K58" s="525">
         <f>I56+L56</f>
         <v>370346.35000000003</v>
       </c>
-      <c r="L58" s="549"/>
-      <c r="M58" s="526">
+      <c r="L58" s="550"/>
+      <c r="M58" s="527">
         <f>M56+N56</f>
         <v>3537422</v>
       </c>
-      <c r="N58" s="527"/>
+      <c r="N58" s="528"/>
       <c r="O58" s="102"/>
       <c r="P58" s="99"/>
       <c r="Q58" s="99"/>
       <c r="S58" s="174"/>
     </row>
     <row r="59" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D59" s="534" t="s">
+      <c r="D59" s="535" t="s">
         <v>17</v>
       </c>
-      <c r="E59" s="550"/>
+      <c r="E59" s="548"/>
       <c r="F59" s="103">
         <f>F56-K58-C56</f>
         <v>3048717.54</v>
       </c>
       <c r="I59" s="104"/>
       <c r="J59" s="105"/>
-      <c r="P59" s="535">
+      <c r="P59" s="514">
         <f>P56+Q56</f>
         <v>8073324.3200000003</v>
       </c>
-      <c r="Q59" s="536"/>
+      <c r="Q59" s="515"/>
       <c r="S59" s="50"/>
     </row>
     <row r="60" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D60" s="537" t="s">
+      <c r="D60" s="516" t="s">
         <v>18</v>
       </c>
-      <c r="E60" s="537"/>
+      <c r="E60" s="516"/>
       <c r="F60" s="95">
         <v>-3102716.28</v>
       </c>
-      <c r="I60" s="538" t="s">
+      <c r="I60" s="517" t="s">
         <v>19</v>
       </c>
-      <c r="J60" s="539"/>
-      <c r="K60" s="540">
+      <c r="J60" s="518"/>
+      <c r="K60" s="519">
         <f>F62+F63+F64</f>
         <v>216465.62000000023</v>
       </c>
-      <c r="L60" s="541"/>
+      <c r="L60" s="520"/>
       <c r="P60" s="50"/>
       <c r="S60" s="107"/>
     </row>
@@ -49885,11 +50107,11 @@
         <v>21</v>
       </c>
       <c r="J62" s="115"/>
-      <c r="K62" s="542">
+      <c r="K62" s="521">
         <f>-C4</f>
         <v>-215362.9</v>
       </c>
-      <c r="L62" s="543"/>
+      <c r="L62" s="522"/>
       <c r="M62" s="116"/>
       <c r="P62" s="50"/>
       <c r="Q62" s="7"/>
@@ -49913,22 +50135,22 @@
       <c r="C64" s="119">
         <v>44320</v>
       </c>
-      <c r="D64" s="528" t="s">
+      <c r="D64" s="529" t="s">
         <v>24</v>
       </c>
-      <c r="E64" s="529"/>
+      <c r="E64" s="530"/>
       <c r="F64" s="120">
         <v>249311.35999999999</v>
       </c>
-      <c r="I64" s="530" t="s">
+      <c r="I64" s="531" t="s">
         <v>25</v>
       </c>
-      <c r="J64" s="531"/>
-      <c r="K64" s="532">
+      <c r="J64" s="532"/>
+      <c r="K64" s="533">
         <f>K60+K62</f>
         <v>1102.720000000234</v>
       </c>
-      <c r="L64" s="533"/>
+      <c r="L64" s="534"/>
       <c r="P64" s="50"/>
       <c r="Q64" s="7"/>
       <c r="S64" s="121"/>
@@ -50084,12 +50306,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="K62:L62"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="I64:J64"/>
-    <mergeCell ref="K64:L64"/>
-    <mergeCell ref="M58:N58"/>
-    <mergeCell ref="D59:E59"/>
     <mergeCell ref="P59:Q59"/>
     <mergeCell ref="D60:E60"/>
     <mergeCell ref="I60:J60"/>
@@ -50101,6 +50317,12 @@
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="H58:I58"/>
     <mergeCell ref="K58:L58"/>
+    <mergeCell ref="K62:L62"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="I64:J64"/>
+    <mergeCell ref="K64:L64"/>
+    <mergeCell ref="M58:N58"/>
+    <mergeCell ref="D59:E59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -50983,17 +51205,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C1" s="514" t="s">
+      <c r="C1" s="536" t="s">
         <v>504</v>
       </c>
-      <c r="D1" s="514"/>
-      <c r="E1" s="514"/>
-      <c r="F1" s="514"/>
-      <c r="G1" s="514"/>
-      <c r="H1" s="514"/>
-      <c r="I1" s="514"/>
-      <c r="J1" s="514"/>
-      <c r="K1" s="514"/>
+      <c r="D1" s="536"/>
+      <c r="E1" s="536"/>
+      <c r="F1" s="536"/>
+      <c r="G1" s="536"/>
+      <c r="H1" s="536"/>
+      <c r="I1" s="536"/>
+      <c r="J1" s="536"/>
+      <c r="K1" s="536"/>
       <c r="L1" s="2"/>
       <c r="M1" s="3"/>
       <c r="U1" s="209"/>
@@ -51023,17 +51245,17 @@
       </c>
     </row>
     <row r="3" spans="1:23" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="515" t="s">
+      <c r="B3" s="537" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="516"/>
+      <c r="C3" s="538"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="15"/>
-      <c r="H3" s="517" t="s">
+      <c r="H3" s="539" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="517"/>
+      <c r="I3" s="539"/>
       <c r="K3" s="17" t="s">
         <v>3</v>
       </c>
@@ -51062,14 +51284,14 @@
       <c r="D4" s="23">
         <v>44320</v>
       </c>
-      <c r="E4" s="518" t="s">
+      <c r="E4" s="540" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="519"/>
-      <c r="H4" s="520" t="s">
+      <c r="F4" s="541"/>
+      <c r="H4" s="542" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="521"/>
+      <c r="I4" s="543"/>
       <c r="J4" s="24"/>
       <c r="K4" s="25"/>
       <c r="L4" s="26"/>
@@ -53946,42 +54168,42 @@
       <c r="A64" s="60"/>
       <c r="B64" s="100"/>
       <c r="C64" s="4"/>
-      <c r="H64" s="522" t="s">
+      <c r="H64" s="523" t="s">
         <v>16</v>
       </c>
-      <c r="I64" s="523"/>
+      <c r="I64" s="524"/>
       <c r="J64" s="101"/>
-      <c r="K64" s="524">
+      <c r="K64" s="525">
         <f>I62+L62</f>
         <v>779034.56000000017</v>
       </c>
-      <c r="L64" s="525"/>
-      <c r="M64" s="526">
+      <c r="L64" s="526"/>
+      <c r="M64" s="527">
         <f>M62+N62</f>
         <v>4478181</v>
       </c>
-      <c r="N64" s="527"/>
+      <c r="N64" s="528"/>
       <c r="O64" s="102"/>
       <c r="P64" s="99"/>
       <c r="Q64" s="99"/>
       <c r="S64" s="174"/>
     </row>
     <row r="65" spans="2:19" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D65" s="534" t="s">
+      <c r="D65" s="535" t="s">
         <v>17</v>
       </c>
-      <c r="E65" s="534"/>
+      <c r="E65" s="535"/>
       <c r="F65" s="103">
         <f>F62-K64-C62</f>
         <v>3602842.44</v>
       </c>
       <c r="I65" s="104"/>
       <c r="J65" s="105"/>
-      <c r="P65" s="535">
+      <c r="P65" s="514">
         <f>P62+Q62</f>
         <v>5004562.5599999996</v>
       </c>
-      <c r="Q65" s="536"/>
+      <c r="Q65" s="515"/>
       <c r="S65" s="50"/>
     </row>
     <row r="66" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -53989,22 +54211,22 @@
         <v>528</v>
       </c>
       <c r="C66" s="552"/>
-      <c r="D66" s="534" t="s">
+      <c r="D66" s="535" t="s">
         <v>502</v>
       </c>
-      <c r="E66" s="534"/>
+      <c r="E66" s="535"/>
       <c r="F66" s="95">
         <v>-3854423.8</v>
       </c>
-      <c r="I66" s="538" t="s">
+      <c r="I66" s="517" t="s">
         <v>19</v>
       </c>
-      <c r="J66" s="539"/>
-      <c r="K66" s="540">
+      <c r="J66" s="518"/>
+      <c r="K66" s="519">
         <f>F68+F69+F70</f>
         <v>14998.430000000139</v>
       </c>
-      <c r="L66" s="541"/>
+      <c r="L66" s="520"/>
       <c r="P66" s="50"/>
       <c r="S66" s="107"/>
     </row>
@@ -54039,11 +54261,11 @@
         <v>21</v>
       </c>
       <c r="J68" s="115"/>
-      <c r="K68" s="542">
+      <c r="K68" s="521">
         <f>-C4</f>
         <v>-249311.35999999999</v>
       </c>
-      <c r="L68" s="543"/>
+      <c r="L68" s="522"/>
       <c r="M68" s="116"/>
       <c r="P68" s="50"/>
       <c r="Q68" s="7"/>
@@ -54067,22 +54289,22 @@
       <c r="C70" s="119">
         <v>44353</v>
       </c>
-      <c r="D70" s="528" t="s">
+      <c r="D70" s="529" t="s">
         <v>24</v>
       </c>
-      <c r="E70" s="529"/>
+      <c r="E70" s="530"/>
       <c r="F70" s="120">
         <v>255764.39</v>
       </c>
-      <c r="I70" s="530" t="s">
+      <c r="I70" s="531" t="s">
         <v>431</v>
       </c>
-      <c r="J70" s="531"/>
-      <c r="K70" s="532">
+      <c r="J70" s="532"/>
+      <c r="K70" s="533">
         <f>K66+K68</f>
         <v>-234312.92999999985</v>
       </c>
-      <c r="L70" s="533"/>
+      <c r="L70" s="534"/>
       <c r="P70" s="50"/>
       <c r="Q70" s="7"/>
       <c r="S70" s="121"/>
@@ -54238,11 +54460,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="I70:J70"/>
-    <mergeCell ref="K70:L70"/>
-    <mergeCell ref="M64:N64"/>
-    <mergeCell ref="D65:E65"/>
     <mergeCell ref="P65:Q65"/>
     <mergeCell ref="D66:E66"/>
     <mergeCell ref="I66:J66"/>
@@ -54256,6 +54473,11 @@
     <mergeCell ref="K64:L64"/>
     <mergeCell ref="B66:C68"/>
     <mergeCell ref="K68:L68"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="I70:J70"/>
+    <mergeCell ref="K70:L70"/>
+    <mergeCell ref="M64:N64"/>
+    <mergeCell ref="D65:E65"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO  2 0 2 1/CENTRAL # 08 AGOSTO  2021/BALANCE ABASTOS   AGOSTO       2021.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO  2 0 2 1/CENTRAL # 08 AGOSTO  2021/BALANCE ABASTOS   AGOSTO       2021.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17190" windowHeight="10725" firstSheet="15" activeTab="16"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17190" windowHeight="10725" firstSheet="13" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="E N E R O     2 0 2 1    " sheetId="1" r:id="rId1"/>
@@ -29,12 +29,13 @@
     <sheet name="REMISIONES  J U L I O   2021   " sheetId="20" r:id="rId15"/>
     <sheet name="A G O S TO    2 0 2 1     " sheetId="19" r:id="rId16"/>
     <sheet name="REMISIONES  AGOSTO  2021  " sheetId="22" r:id="rId17"/>
-    <sheet name="REPORTE  JUNIO  JULIO  AGOSTO  " sheetId="23" r:id="rId18"/>
+    <sheet name="Hoja4" sheetId="27" r:id="rId18"/>
     <sheet name="C A N C E L A C I O N E S   " sheetId="5" r:id="rId19"/>
-    <sheet name="RELACION DE TIKETS       00000" sheetId="17" r:id="rId20"/>
-    <sheet name="Hoja1" sheetId="25" r:id="rId21"/>
-    <sheet name="Hoja3" sheetId="26" r:id="rId22"/>
-    <sheet name="Hoja2" sheetId="24" r:id="rId23"/>
+    <sheet name="REPORTE  JUNIO  JULIO  AGOSTO  " sheetId="23" r:id="rId20"/>
+    <sheet name="RELACION DE TIKETS       00000" sheetId="17" r:id="rId21"/>
+    <sheet name="Hoja1" sheetId="25" r:id="rId22"/>
+    <sheet name="Hoja3" sheetId="26" r:id="rId23"/>
+    <sheet name="Hoja2" sheetId="24" r:id="rId24"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -568,7 +569,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2114" uniqueCount="805">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2126" uniqueCount="813">
   <si>
     <t>MORRALLA EN CAJA DE 11 SUR   2,800.00  +  $ 1,200.00 Total    $  4,000.00</t>
   </si>
@@ -2901,15 +2902,6 @@
     <t>NOMINA #  34</t>
   </si>
   <si>
-    <t># 293963</t>
-  </si>
-  <si>
-    <t># 293964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#  </t>
-  </si>
-  <si>
     <t>QUESOS -CECINA-LONGANIZA-POLLO</t>
   </si>
   <si>
@@ -2983,6 +2975,39 @@
   </si>
   <si>
     <t>17191 B</t>
+  </si>
+  <si>
+    <t>JAMON-CHORIZO-POLLO-SALSAS-MAIZ</t>
+  </si>
+  <si>
+    <t>POLLO-SALSAS-</t>
+  </si>
+  <si>
+    <t>QUESOS-POLLO-SALSAS</t>
+  </si>
+  <si>
+    <t>NOMINA #  35</t>
+  </si>
+  <si>
+    <t># 296324</t>
+  </si>
+  <si>
+    <t># 296325</t>
+  </si>
+  <si>
+    <t># 296364</t>
+  </si>
+  <si>
+    <t># 296369</t>
+  </si>
+  <si>
+    <t>POLLO-QUESO-TOSTADAS</t>
+  </si>
+  <si>
+    <t>POLLO-CHICHARRON-CHORIZO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      </t>
   </si>
 </sst>
 </file>
@@ -4775,7 +4800,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="638">
+  <cellXfs count="639">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -5882,31 +5907,26 @@
     <xf numFmtId="44" fontId="7" fillId="19" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="46" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="46" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="14" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5948,26 +5968,31 @@
     <xf numFmtId="166" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="46" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="46" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="6" fillId="15" borderId="48" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5982,14 +6007,14 @@
     <xf numFmtId="166" fontId="6" fillId="15" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="14" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="14" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="35" fillId="10" borderId="64" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -6008,6 +6033,15 @@
     </xf>
     <xf numFmtId="44" fontId="35" fillId="10" borderId="66" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="10" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="10" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="35" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="16" fillId="13" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -6087,26 +6121,32 @@
     <xf numFmtId="44" fontId="49" fillId="0" borderId="66" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="35" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="46" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="10" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="2" fillId="20" borderId="64" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="20" borderId="69" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="20" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="20" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="53" fillId="20" borderId="69" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="10" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="53" fillId="20" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="16" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="44" fontId="53" fillId="20" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="16" fillId="16" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="44" fontId="53" fillId="20" borderId="66" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="16" fillId="8" borderId="67" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -6147,44 +6187,17 @@
     <xf numFmtId="44" fontId="16" fillId="14" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="46" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="16" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="20" borderId="64" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="16" fillId="16" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="20" borderId="69" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="20" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="20" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="53" fillId="20" borderId="69" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="53" fillId="20" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="53" fillId="20" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="53" fillId="20" borderId="66" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="7" fontId="6" fillId="16" borderId="86" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="6" fillId="16" borderId="87" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="6" fillId="16" borderId="88" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="6" fillId="16" borderId="89" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="8" borderId="64" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -6210,6 +6223,33 @@
     <xf numFmtId="44" fontId="53" fillId="8" borderId="66" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="7" fontId="6" fillId="16" borderId="86" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="6" fillId="16" borderId="87" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="6" fillId="16" borderId="88" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="6" fillId="16" borderId="89" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="166" fontId="6" fillId="11" borderId="86" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -6228,21 +6268,6 @@
     <xf numFmtId="7" fontId="35" fillId="4" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -6250,6 +6275,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -11905,17 +11933,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C1" s="536" t="s">
+      <c r="C1" s="514" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="536"/>
-      <c r="E1" s="536"/>
-      <c r="F1" s="536"/>
-      <c r="G1" s="536"/>
-      <c r="H1" s="536"/>
-      <c r="I1" s="536"/>
-      <c r="J1" s="536"/>
-      <c r="K1" s="536"/>
+      <c r="D1" s="514"/>
+      <c r="E1" s="514"/>
+      <c r="F1" s="514"/>
+      <c r="G1" s="514"/>
+      <c r="H1" s="514"/>
+      <c r="I1" s="514"/>
+      <c r="J1" s="514"/>
+      <c r="K1" s="514"/>
       <c r="L1" s="2"/>
       <c r="M1" s="3"/>
       <c r="U1" s="209"/>
@@ -11946,17 +11974,17 @@
       </c>
     </row>
     <row r="3" spans="1:23" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="537" t="s">
+      <c r="B3" s="515" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="538"/>
+      <c r="C3" s="516"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="15"/>
-      <c r="H3" s="539" t="s">
+      <c r="H3" s="517" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="539"/>
+      <c r="I3" s="517"/>
       <c r="K3" s="17" t="s">
         <v>3</v>
       </c>
@@ -11985,14 +12013,14 @@
       <c r="D4" s="23">
         <v>44201</v>
       </c>
-      <c r="E4" s="540" t="s">
+      <c r="E4" s="518" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="541"/>
-      <c r="H4" s="542" t="s">
+      <c r="F4" s="519"/>
+      <c r="H4" s="520" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="543"/>
+      <c r="I4" s="521"/>
       <c r="J4" s="24"/>
       <c r="K4" s="25"/>
       <c r="L4" s="26"/>
@@ -14603,61 +14631,61 @@
       <c r="A64" s="60"/>
       <c r="B64" s="100"/>
       <c r="C64" s="4"/>
-      <c r="H64" s="523" t="s">
+      <c r="H64" s="522" t="s">
         <v>16</v>
       </c>
-      <c r="I64" s="524"/>
+      <c r="I64" s="523"/>
       <c r="J64" s="101"/>
-      <c r="K64" s="525">
+      <c r="K64" s="524">
         <f>I62+L62</f>
         <v>360753.85</v>
       </c>
-      <c r="L64" s="526"/>
-      <c r="M64" s="527">
+      <c r="L64" s="525"/>
+      <c r="M64" s="526">
         <f>M62+N62</f>
         <v>2886514.7</v>
       </c>
-      <c r="N64" s="528"/>
+      <c r="N64" s="527"/>
       <c r="O64" s="102"/>
       <c r="P64" s="99"/>
       <c r="Q64" s="99"/>
       <c r="S64" s="174"/>
     </row>
     <row r="65" spans="2:19" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D65" s="535" t="s">
+      <c r="D65" s="534" t="s">
         <v>17</v>
       </c>
-      <c r="E65" s="535"/>
+      <c r="E65" s="534"/>
       <c r="F65" s="103">
         <f>F62-K64-C62</f>
         <v>2365880.5699999998</v>
       </c>
       <c r="I65" s="104"/>
       <c r="J65" s="105"/>
-      <c r="P65" s="514">
+      <c r="P65" s="535">
         <f>P62+Q62</f>
         <v>3321521.28</v>
       </c>
-      <c r="Q65" s="515"/>
+      <c r="Q65" s="536"/>
       <c r="S65" s="50"/>
     </row>
     <row r="66" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D66" s="516" t="s">
+      <c r="D66" s="537" t="s">
         <v>18</v>
       </c>
-      <c r="E66" s="516"/>
+      <c r="E66" s="537"/>
       <c r="F66" s="95">
         <v>-2276696.6800000002</v>
       </c>
-      <c r="I66" s="517" t="s">
+      <c r="I66" s="538" t="s">
         <v>19</v>
       </c>
-      <c r="J66" s="518"/>
-      <c r="K66" s="519">
+      <c r="J66" s="539"/>
+      <c r="K66" s="540">
         <f>F68+F69+F70</f>
         <v>344253.98999999964</v>
       </c>
-      <c r="L66" s="520"/>
+      <c r="L66" s="541"/>
       <c r="P66" s="50"/>
       <c r="S66" s="107"/>
     </row>
@@ -14691,11 +14719,11 @@
         <v>21</v>
       </c>
       <c r="J68" s="115"/>
-      <c r="K68" s="521">
+      <c r="K68" s="542">
         <f>-C4</f>
         <v>-250864.68</v>
       </c>
-      <c r="L68" s="522"/>
+      <c r="L68" s="543"/>
       <c r="M68" s="116"/>
       <c r="P68" s="50"/>
       <c r="Q68" s="7"/>
@@ -14719,22 +14747,22 @@
       <c r="C70" s="119">
         <v>44230</v>
       </c>
-      <c r="D70" s="529" t="s">
+      <c r="D70" s="528" t="s">
         <v>24</v>
       </c>
-      <c r="E70" s="530"/>
+      <c r="E70" s="529"/>
       <c r="F70" s="120">
         <v>209541.1</v>
       </c>
-      <c r="I70" s="531" t="s">
+      <c r="I70" s="530" t="s">
         <v>25</v>
       </c>
-      <c r="J70" s="532"/>
-      <c r="K70" s="533">
+      <c r="J70" s="531"/>
+      <c r="K70" s="532">
         <f>K66+K68</f>
         <v>93389.309999999648</v>
       </c>
-      <c r="L70" s="534"/>
+      <c r="L70" s="533"/>
       <c r="P70" s="50"/>
       <c r="Q70" s="7"/>
       <c r="S70" s="121"/>
@@ -14838,11 +14866,11 @@
     <sortCondition ref="J35:J54"/>
   </sortState>
   <mergeCells count="17">
-    <mergeCell ref="C1:K1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="P65:Q65"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="I66:J66"/>
+    <mergeCell ref="K66:L66"/>
+    <mergeCell ref="K68:L68"/>
     <mergeCell ref="H64:I64"/>
     <mergeCell ref="K64:L64"/>
     <mergeCell ref="M64:N64"/>
@@ -14850,11 +14878,11 @@
     <mergeCell ref="I70:J70"/>
     <mergeCell ref="K70:L70"/>
     <mergeCell ref="D65:E65"/>
-    <mergeCell ref="P65:Q65"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="I66:J66"/>
-    <mergeCell ref="K66:L66"/>
-    <mergeCell ref="K68:L68"/>
+    <mergeCell ref="C1:K1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
   </mergeCells>
   <phoneticPr fontId="41" type="noConversion"/>
   <pageMargins left="0.2" right="0.16" top="0.34" bottom="0.32" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -16279,20 +16307,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="584" t="s">
+      <c r="B1" s="557" t="s">
         <v>529</v>
       </c>
-      <c r="C1" s="536" t="s">
+      <c r="C1" s="514" t="s">
         <v>503</v>
       </c>
-      <c r="D1" s="536"/>
-      <c r="E1" s="536"/>
-      <c r="F1" s="536"/>
-      <c r="G1" s="536"/>
-      <c r="H1" s="536"/>
-      <c r="I1" s="536"/>
-      <c r="J1" s="536"/>
-      <c r="K1" s="536"/>
+      <c r="D1" s="514"/>
+      <c r="E1" s="514"/>
+      <c r="F1" s="514"/>
+      <c r="G1" s="514"/>
+      <c r="H1" s="514"/>
+      <c r="I1" s="514"/>
+      <c r="J1" s="514"/>
+      <c r="K1" s="514"/>
       <c r="L1" s="2"/>
       <c r="M1" s="3"/>
       <c r="W1" s="209"/>
@@ -16302,7 +16330,7 @@
       <c r="Y1" s="206"/>
     </row>
     <row r="2" spans="1:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="585"/>
+      <c r="B2" s="558"/>
       <c r="C2" s="8"/>
       <c r="H2" s="10" t="s">
         <v>0</v>
@@ -16321,27 +16349,27 @@
       <c r="Y2" s="216" t="s">
         <v>28</v>
       </c>
-      <c r="AB2" s="567" t="s">
+      <c r="AB2" s="570" t="s">
         <v>596</v>
       </c>
-      <c r="AC2" s="567"/>
-      <c r="AD2" s="567"/>
-      <c r="AE2" s="567"/>
-      <c r="AF2" s="567"/>
-      <c r="AG2" s="567"/>
+      <c r="AC2" s="570"/>
+      <c r="AD2" s="570"/>
+      <c r="AE2" s="570"/>
+      <c r="AF2" s="570"/>
+      <c r="AG2" s="570"/>
     </row>
     <row r="3" spans="1:33" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="537" t="s">
+      <c r="B3" s="515" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="538"/>
+      <c r="C3" s="516"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="15"/>
-      <c r="H3" s="539" t="s">
+      <c r="H3" s="517" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="539"/>
+      <c r="I3" s="517"/>
       <c r="K3" s="17" t="s">
         <v>3</v>
       </c>
@@ -16349,7 +16377,7 @@
         <v>4</v>
       </c>
       <c r="M3" s="18"/>
-      <c r="P3" s="557" t="s">
+      <c r="P3" s="560" t="s">
         <v>562</v>
       </c>
       <c r="Q3" s="393"/>
@@ -16362,12 +16390,12 @@
       <c r="Y3" s="198">
         <v>2000</v>
       </c>
-      <c r="AB3" s="567"/>
-      <c r="AC3" s="567"/>
-      <c r="AD3" s="567"/>
-      <c r="AE3" s="567"/>
-      <c r="AF3" s="567"/>
-      <c r="AG3" s="567"/>
+      <c r="AB3" s="570"/>
+      <c r="AC3" s="570"/>
+      <c r="AD3" s="570"/>
+      <c r="AE3" s="570"/>
+      <c r="AF3" s="570"/>
+      <c r="AG3" s="570"/>
     </row>
     <row r="4" spans="1:33" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="20" t="s">
@@ -16380,14 +16408,14 @@
       <c r="D4" s="23">
         <v>44353</v>
       </c>
-      <c r="E4" s="540" t="s">
+      <c r="E4" s="518" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="541"/>
-      <c r="H4" s="542" t="s">
+      <c r="F4" s="519"/>
+      <c r="H4" s="520" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="543"/>
+      <c r="I4" s="521"/>
       <c r="J4" s="24"/>
       <c r="K4" s="25"/>
       <c r="L4" s="26"/>
@@ -16398,7 +16426,7 @@
         <v>10</v>
       </c>
       <c r="O4" s="365"/>
-      <c r="P4" s="557"/>
+      <c r="P4" s="560"/>
       <c r="Q4" s="393"/>
       <c r="R4" s="30"/>
       <c r="S4" s="31"/>
@@ -16413,16 +16441,16 @@
       <c r="Y4" s="217">
         <v>2000</v>
       </c>
-      <c r="AB4" s="568" t="s">
+      <c r="AB4" s="571" t="s">
         <v>527</v>
       </c>
-      <c r="AC4" s="569"/>
+      <c r="AC4" s="572"/>
       <c r="AD4" s="99"/>
-      <c r="AE4" s="570" t="s">
+      <c r="AE4" s="573" t="s">
         <v>567</v>
       </c>
-      <c r="AF4" s="570"/>
-      <c r="AG4" s="570"/>
+      <c r="AF4" s="573"/>
+      <c r="AG4" s="573"/>
     </row>
     <row r="5" spans="1:33" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="34" t="s">
@@ -17834,10 +17862,10 @@
         <v>0</v>
       </c>
       <c r="AD23" s="99"/>
-      <c r="AE23" s="575" t="s">
+      <c r="AE23" s="578" t="s">
         <v>564</v>
       </c>
-      <c r="AF23" s="576"/>
+      <c r="AF23" s="579"/>
       <c r="AG23" s="339">
         <f>SUM(AG6:AG22)</f>
         <v>2323600</v>
@@ -17981,11 +18009,11 @@
         <v>138607</v>
       </c>
       <c r="AD25" s="99"/>
-      <c r="AE25" s="577" t="s">
+      <c r="AE25" s="580" t="s">
         <v>565</v>
       </c>
-      <c r="AF25" s="578"/>
-      <c r="AG25" s="581">
+      <c r="AF25" s="581"/>
+      <c r="AG25" s="584">
         <f>AC29-AG23</f>
         <v>163726</v>
       </c>
@@ -18056,9 +18084,9 @@
         <v>107480</v>
       </c>
       <c r="AD26" s="99"/>
-      <c r="AE26" s="579"/>
-      <c r="AF26" s="580"/>
-      <c r="AG26" s="582"/>
+      <c r="AE26" s="582"/>
+      <c r="AF26" s="583"/>
+      <c r="AG26" s="585"/>
     </row>
     <row r="27" spans="1:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="34"/>
@@ -18233,10 +18261,10 @@
       </c>
       <c r="X29" s="220"/>
       <c r="Y29" s="218"/>
-      <c r="AB29" s="571" t="s">
+      <c r="AB29" s="574" t="s">
         <v>562</v>
       </c>
-      <c r="AC29" s="573">
+      <c r="AC29" s="576">
         <f>SUM(AC5:AC28)</f>
         <v>2487326</v>
       </c>
@@ -18272,11 +18300,11 @@
         <v>0</v>
       </c>
       <c r="O30" s="7"/>
-      <c r="P30" s="558">
+      <c r="P30" s="561">
         <f>SUM(P5:P29)</f>
         <v>-163726</v>
       </c>
-      <c r="Q30" s="558"/>
+      <c r="Q30" s="561"/>
       <c r="R30" s="7">
         <v>0</v>
       </c>
@@ -18290,8 +18318,8 @@
       </c>
       <c r="X30" s="221"/>
       <c r="Y30" s="207"/>
-      <c r="AB30" s="572"/>
-      <c r="AC30" s="574"/>
+      <c r="AB30" s="575"/>
+      <c r="AC30" s="577"/>
       <c r="AD30" s="99"/>
       <c r="AE30" s="99"/>
       <c r="AF30" s="99"/>
@@ -19653,21 +19681,21 @@
       <c r="A64" s="60"/>
       <c r="B64" s="100"/>
       <c r="C64" s="4"/>
-      <c r="H64" s="523" t="s">
+      <c r="H64" s="522" t="s">
         <v>16</v>
       </c>
-      <c r="I64" s="524"/>
+      <c r="I64" s="523"/>
       <c r="J64" s="101"/>
-      <c r="K64" s="525">
+      <c r="K64" s="524">
         <f>I62+L62</f>
         <v>339830.06000000006</v>
       </c>
-      <c r="L64" s="526"/>
-      <c r="M64" s="527">
+      <c r="L64" s="525"/>
+      <c r="M64" s="526">
         <f>M62+N62</f>
         <v>2936130</v>
       </c>
-      <c r="N64" s="528"/>
+      <c r="N64" s="527"/>
       <c r="O64" s="367"/>
       <c r="P64" s="367"/>
       <c r="Q64" s="367"/>
@@ -19682,40 +19710,40 @@
       <c r="AG64" s="327"/>
     </row>
     <row r="65" spans="2:33" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D65" s="535" t="s">
+      <c r="D65" s="534" t="s">
         <v>17</v>
       </c>
-      <c r="E65" s="535"/>
+      <c r="E65" s="534"/>
       <c r="F65" s="103">
         <f>F62-K64-C62</f>
         <v>2702101.7199999997</v>
       </c>
       <c r="I65" s="104"/>
       <c r="J65" s="105"/>
-      <c r="R65" s="514">
+      <c r="R65" s="535">
         <f>R62+S62</f>
         <v>3138957.44</v>
       </c>
-      <c r="S65" s="515"/>
+      <c r="S65" s="536"/>
       <c r="U65" s="50"/>
     </row>
     <row r="66" spans="2:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D66" s="516" t="s">
+      <c r="D66" s="537" t="s">
         <v>502</v>
       </c>
-      <c r="E66" s="516"/>
+      <c r="E66" s="537"/>
       <c r="F66" s="95">
         <v>-2720820.95</v>
       </c>
-      <c r="I66" s="517" t="s">
+      <c r="I66" s="538" t="s">
         <v>19</v>
       </c>
-      <c r="J66" s="518"/>
-      <c r="K66" s="519">
+      <c r="J66" s="539"/>
+      <c r="K66" s="540">
         <f>F68+F69+F70</f>
         <v>381077.48999999953</v>
       </c>
-      <c r="L66" s="520"/>
+      <c r="L66" s="541"/>
       <c r="R66" s="50"/>
       <c r="U66" s="107"/>
     </row>
@@ -19749,11 +19777,11 @@
         <v>21</v>
       </c>
       <c r="J68" s="115"/>
-      <c r="K68" s="521">
+      <c r="K68" s="542">
         <f>-C4</f>
         <v>-255764.39</v>
       </c>
-      <c r="L68" s="522"/>
+      <c r="L68" s="543"/>
       <c r="M68" s="116"/>
       <c r="R68" s="50"/>
       <c r="S68" s="7"/>
@@ -19777,22 +19805,22 @@
       <c r="C70" s="119">
         <v>44377</v>
       </c>
-      <c r="D70" s="529" t="s">
+      <c r="D70" s="528" t="s">
         <v>24</v>
       </c>
-      <c r="E70" s="530"/>
+      <c r="E70" s="529"/>
       <c r="F70" s="120">
         <v>308642.71999999997</v>
       </c>
-      <c r="I70" s="531" t="s">
+      <c r="I70" s="530" t="s">
         <v>25</v>
       </c>
-      <c r="J70" s="532"/>
-      <c r="K70" s="533">
+      <c r="J70" s="531"/>
+      <c r="K70" s="532">
         <f>K66+K68</f>
         <v>125313.09999999951</v>
       </c>
-      <c r="L70" s="534"/>
+      <c r="L70" s="533"/>
       <c r="R70" s="50"/>
       <c r="S70" s="7"/>
       <c r="U70" s="121"/>
@@ -19808,14 +19836,14 @@
       <c r="S71" s="7"/>
     </row>
     <row r="72" spans="2:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I72" s="559" t="s">
+      <c r="I72" s="562" t="s">
         <v>610</v>
       </c>
-      <c r="J72" s="560"/>
-      <c r="K72" s="563">
+      <c r="J72" s="563"/>
+      <c r="K72" s="566">
         <v>163726</v>
       </c>
-      <c r="L72" s="564"/>
+      <c r="L72" s="567"/>
       <c r="R72" s="7"/>
       <c r="S72" s="7"/>
     </row>
@@ -19824,10 +19852,10 @@
       <c r="C73" s="128"/>
       <c r="D73" s="129"/>
       <c r="E73" s="7"/>
-      <c r="I73" s="561"/>
-      <c r="J73" s="562"/>
-      <c r="K73" s="565"/>
-      <c r="L73" s="566"/>
+      <c r="I73" s="564"/>
+      <c r="J73" s="565"/>
+      <c r="K73" s="568"/>
+      <c r="L73" s="569"/>
       <c r="M73" s="2"/>
       <c r="N73" s="60"/>
       <c r="O73" s="165"/>
@@ -19879,7 +19907,7 @@
       <c r="C76" s="130"/>
       <c r="E76" s="7"/>
       <c r="M76" s="4"/>
-      <c r="AC76" s="583"/>
+      <c r="AC76" s="559"/>
       <c r="AD76" s="342"/>
       <c r="AE76" s="342"/>
       <c r="AF76" s="342"/>
@@ -19892,7 +19920,7 @@
       <c r="E77" s="7"/>
       <c r="F77" s="273"/>
       <c r="M77" s="4"/>
-      <c r="AC77" s="583"/>
+      <c r="AC77" s="559"/>
       <c r="AD77" s="342"/>
       <c r="AE77" s="342"/>
       <c r="AF77" s="342"/>
@@ -19986,22 +20014,6 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:K1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="AC76:AC77"/>
-    <mergeCell ref="R65:S65"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="I66:J66"/>
-    <mergeCell ref="K66:L66"/>
-    <mergeCell ref="K68:L68"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="I70:J70"/>
-    <mergeCell ref="K70:L70"/>
-    <mergeCell ref="D65:E65"/>
     <mergeCell ref="P3:P4"/>
     <mergeCell ref="P30:Q30"/>
     <mergeCell ref="I72:J73"/>
@@ -20017,6 +20029,22 @@
     <mergeCell ref="AE23:AF23"/>
     <mergeCell ref="AE25:AF26"/>
     <mergeCell ref="AG25:AG26"/>
+    <mergeCell ref="AC76:AC77"/>
+    <mergeCell ref="R65:S65"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="I66:J66"/>
+    <mergeCell ref="K66:L66"/>
+    <mergeCell ref="K68:L68"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="I70:J70"/>
+    <mergeCell ref="K70:L70"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:K1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
   </mergeCells>
   <pageMargins left="0.49" right="0.23622047244094491" top="0.47244094488188981" bottom="0.27559055118110237" header="0.70866141732283472" footer="0.31496062992125984"/>
   <pageSetup scale="90" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -21354,25 +21382,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="584" t="s">
+      <c r="B1" s="557" t="s">
         <v>529</v>
       </c>
-      <c r="C1" s="536" t="s">
+      <c r="C1" s="514" t="s">
         <v>503</v>
       </c>
-      <c r="D1" s="536"/>
-      <c r="E1" s="536"/>
-      <c r="F1" s="536"/>
-      <c r="G1" s="536"/>
-      <c r="H1" s="536"/>
-      <c r="I1" s="536"/>
-      <c r="J1" s="536"/>
-      <c r="K1" s="536"/>
+      <c r="D1" s="514"/>
+      <c r="E1" s="514"/>
+      <c r="F1" s="514"/>
+      <c r="G1" s="514"/>
+      <c r="H1" s="514"/>
+      <c r="I1" s="514"/>
+      <c r="J1" s="514"/>
+      <c r="K1" s="514"/>
       <c r="L1" s="2"/>
       <c r="M1" s="3"/>
     </row>
     <row r="2" spans="1:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="585"/>
+      <c r="B2" s="558"/>
       <c r="C2" s="8"/>
       <c r="H2" s="10" t="s">
         <v>0</v>
@@ -21382,27 +21410,27 @@
       <c r="L2" s="12"/>
       <c r="M2" s="3"/>
       <c r="N2" s="6"/>
-      <c r="Q2" s="567" t="s">
+      <c r="Q2" s="570" t="s">
         <v>596</v>
       </c>
-      <c r="R2" s="567"/>
-      <c r="S2" s="567"/>
-      <c r="T2" s="567"/>
-      <c r="U2" s="567"/>
-      <c r="V2" s="567"/>
+      <c r="R2" s="570"/>
+      <c r="S2" s="570"/>
+      <c r="T2" s="570"/>
+      <c r="U2" s="570"/>
+      <c r="V2" s="570"/>
     </row>
     <row r="3" spans="1:23" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="537" t="s">
+      <c r="B3" s="515" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="538"/>
+      <c r="C3" s="516"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="15"/>
-      <c r="H3" s="539" t="s">
+      <c r="H3" s="517" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="539"/>
+      <c r="I3" s="517"/>
       <c r="K3" s="17" t="s">
         <v>3</v>
       </c>
@@ -21410,12 +21438,12 @@
         <v>4</v>
       </c>
       <c r="M3" s="18"/>
-      <c r="Q3" s="567"/>
-      <c r="R3" s="567"/>
-      <c r="S3" s="567"/>
-      <c r="T3" s="567"/>
-      <c r="U3" s="567"/>
-      <c r="V3" s="567"/>
+      <c r="Q3" s="570"/>
+      <c r="R3" s="570"/>
+      <c r="S3" s="570"/>
+      <c r="T3" s="570"/>
+      <c r="U3" s="570"/>
+      <c r="V3" s="570"/>
     </row>
     <row r="4" spans="1:23" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="20" t="s">
@@ -21428,14 +21456,14 @@
       <c r="D4" s="23">
         <v>44353</v>
       </c>
-      <c r="E4" s="540" t="s">
+      <c r="E4" s="518" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="541"/>
-      <c r="H4" s="542" t="s">
+      <c r="F4" s="519"/>
+      <c r="H4" s="520" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="543"/>
+      <c r="I4" s="521"/>
       <c r="J4" s="24"/>
       <c r="K4" s="25"/>
       <c r="L4" s="26"/>
@@ -21447,16 +21475,16 @@
       </c>
       <c r="O4" s="365"/>
       <c r="P4" s="29"/>
-      <c r="Q4" s="568" t="s">
+      <c r="Q4" s="571" t="s">
         <v>527</v>
       </c>
-      <c r="R4" s="569"/>
+      <c r="R4" s="572"/>
       <c r="S4" s="99"/>
-      <c r="T4" s="570" t="s">
+      <c r="T4" s="573" t="s">
         <v>567</v>
       </c>
-      <c r="U4" s="570"/>
-      <c r="V4" s="570"/>
+      <c r="U4" s="573"/>
+      <c r="V4" s="573"/>
       <c r="W4" s="99"/>
     </row>
     <row r="5" spans="1:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -22455,10 +22483,10 @@
         <v>0</v>
       </c>
       <c r="S23" s="99"/>
-      <c r="T23" s="575" t="s">
+      <c r="T23" s="578" t="s">
         <v>564</v>
       </c>
-      <c r="U23" s="576"/>
+      <c r="U23" s="579"/>
       <c r="V23" s="339">
         <f>SUM(V6:V22)</f>
         <v>2323600</v>
@@ -22562,11 +22590,11 @@
         <v>138607</v>
       </c>
       <c r="S25" s="99"/>
-      <c r="T25" s="577" t="s">
+      <c r="T25" s="580" t="s">
         <v>565</v>
       </c>
-      <c r="U25" s="578"/>
-      <c r="V25" s="581">
+      <c r="U25" s="581"/>
+      <c r="V25" s="584">
         <f>R29-V23</f>
         <v>163726</v>
       </c>
@@ -22615,9 +22643,9 @@
         <v>107480</v>
       </c>
       <c r="S26" s="99"/>
-      <c r="T26" s="579"/>
-      <c r="U26" s="580"/>
-      <c r="V26" s="582"/>
+      <c r="T26" s="582"/>
+      <c r="U26" s="583"/>
+      <c r="V26" s="585"/>
       <c r="W26" s="99"/>
     </row>
     <row r="27" spans="1:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -22740,10 +22768,10 @@
       </c>
       <c r="O29" s="7"/>
       <c r="P29" s="29"/>
-      <c r="Q29" s="571" t="s">
+      <c r="Q29" s="574" t="s">
         <v>562</v>
       </c>
-      <c r="R29" s="573">
+      <c r="R29" s="576">
         <f>SUM(R5:R28)</f>
         <v>2487326</v>
       </c>
@@ -22780,8 +22808,8 @@
       </c>
       <c r="O30" s="7"/>
       <c r="P30" s="373"/>
-      <c r="Q30" s="572"/>
-      <c r="R30" s="574"/>
+      <c r="Q30" s="575"/>
+      <c r="R30" s="577"/>
       <c r="S30" s="99"/>
       <c r="T30" s="99"/>
       <c r="U30" s="99"/>
@@ -23406,21 +23434,21 @@
       <c r="A50" s="60"/>
       <c r="B50" s="100"/>
       <c r="C50" s="4"/>
-      <c r="H50" s="523" t="s">
+      <c r="H50" s="522" t="s">
         <v>16</v>
       </c>
-      <c r="I50" s="524"/>
+      <c r="I50" s="523"/>
       <c r="J50" s="101"/>
-      <c r="K50" s="525">
+      <c r="K50" s="524">
         <f>I48+L48</f>
         <v>339830.06000000006</v>
       </c>
-      <c r="L50" s="526"/>
-      <c r="M50" s="527">
+      <c r="L50" s="525"/>
+      <c r="M50" s="526">
         <f>M48+N48</f>
         <v>612530</v>
       </c>
-      <c r="N50" s="528"/>
+      <c r="N50" s="527"/>
       <c r="O50" s="367"/>
       <c r="P50" s="102"/>
       <c r="Q50" s="320"/>
@@ -23432,10 +23460,10 @@
       <c r="W50" s="327"/>
     </row>
     <row r="51" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="D51" s="535" t="s">
+      <c r="D51" s="534" t="s">
         <v>17</v>
       </c>
-      <c r="E51" s="535"/>
+      <c r="E51" s="534"/>
       <c r="F51" s="103">
         <f>F48-K50-C48</f>
         <v>2702101.7199999997</v>
@@ -23444,22 +23472,22 @@
       <c r="J51" s="105"/>
     </row>
     <row r="52" spans="1:23" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D52" s="516" t="s">
+      <c r="D52" s="537" t="s">
         <v>502</v>
       </c>
-      <c r="E52" s="516"/>
+      <c r="E52" s="537"/>
       <c r="F52" s="95">
         <v>-2720820.95</v>
       </c>
-      <c r="I52" s="517" t="s">
+      <c r="I52" s="538" t="s">
         <v>19</v>
       </c>
-      <c r="J52" s="518"/>
-      <c r="K52" s="519">
+      <c r="J52" s="539"/>
+      <c r="K52" s="540">
         <f>F54+F55+F56</f>
         <v>381077.72999999952</v>
       </c>
-      <c r="L52" s="520"/>
+      <c r="L52" s="541"/>
     </row>
     <row r="53" spans="1:23" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D53" s="108"/>
@@ -23488,11 +23516,11 @@
         <v>21</v>
       </c>
       <c r="J54" s="115"/>
-      <c r="K54" s="521">
+      <c r="K54" s="542">
         <f>-C4</f>
         <v>-255764.39</v>
       </c>
-      <c r="L54" s="522"/>
+      <c r="L54" s="543"/>
       <c r="M54" s="116"/>
     </row>
     <row r="55" spans="1:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -23510,22 +23538,22 @@
       <c r="C56" s="119">
         <v>44377</v>
       </c>
-      <c r="D56" s="529" t="s">
+      <c r="D56" s="528" t="s">
         <v>24</v>
       </c>
-      <c r="E56" s="530"/>
+      <c r="E56" s="529"/>
       <c r="F56" s="120">
         <v>308642.71999999997</v>
       </c>
-      <c r="I56" s="531" t="s">
+      <c r="I56" s="530" t="s">
         <v>25</v>
       </c>
-      <c r="J56" s="532"/>
-      <c r="K56" s="533">
+      <c r="J56" s="531"/>
+      <c r="K56" s="532">
         <f>K52+K54</f>
         <v>125313.3399999995</v>
       </c>
-      <c r="L56" s="534"/>
+      <c r="L56" s="533"/>
     </row>
     <row r="57" spans="1:23" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C57" s="122"/>
@@ -23581,7 +23609,7 @@
       <c r="C62" s="130"/>
       <c r="E62" s="7"/>
       <c r="M62" s="4"/>
-      <c r="R62" s="583"/>
+      <c r="R62" s="559"/>
       <c r="S62" s="379"/>
       <c r="T62" s="379"/>
       <c r="U62" s="379"/>
@@ -23594,7 +23622,7 @@
       <c r="E63" s="7"/>
       <c r="F63" s="273"/>
       <c r="M63" s="4"/>
-      <c r="R63" s="583"/>
+      <c r="R63" s="559"/>
       <c r="S63" s="379"/>
       <c r="T63" s="379"/>
       <c r="U63" s="379"/>
@@ -23671,23 +23699,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="Q2:V3"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="T4:V4"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="K50:L50"/>
-    <mergeCell ref="M50:N50"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:K1"/>
-    <mergeCell ref="T23:U23"/>
-    <mergeCell ref="T25:U26"/>
-    <mergeCell ref="V25:V26"/>
-    <mergeCell ref="Q29:Q30"/>
-    <mergeCell ref="R29:R30"/>
     <mergeCell ref="R62:R63"/>
     <mergeCell ref="D51:E51"/>
     <mergeCell ref="D52:E52"/>
@@ -23697,6 +23708,23 @@
     <mergeCell ref="D56:E56"/>
     <mergeCell ref="I56:J56"/>
     <mergeCell ref="K56:L56"/>
+    <mergeCell ref="T23:U23"/>
+    <mergeCell ref="T25:U26"/>
+    <mergeCell ref="V25:V26"/>
+    <mergeCell ref="Q29:Q30"/>
+    <mergeCell ref="R29:R30"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="K50:L50"/>
+    <mergeCell ref="M50:N50"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:K1"/>
+    <mergeCell ref="Q2:V3"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="T4:V4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -23711,11 +23739,11 @@
   </sheetPr>
   <dimension ref="A1:AG97"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="4" topLeftCell="F56" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="5" ySplit="4" topLeftCell="K26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="I77" sqref="I77:J78"/>
+      <selection pane="bottomRight" activeCell="M38" sqref="M38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -23750,20 +23778,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="584" t="s">
+      <c r="B1" s="557" t="s">
         <v>529</v>
       </c>
-      <c r="C1" s="536" t="s">
+      <c r="C1" s="514" t="s">
         <v>720</v>
       </c>
-      <c r="D1" s="536"/>
-      <c r="E1" s="536"/>
-      <c r="F1" s="536"/>
-      <c r="G1" s="536"/>
-      <c r="H1" s="536"/>
-      <c r="I1" s="536"/>
-      <c r="J1" s="536"/>
-      <c r="K1" s="536"/>
+      <c r="D1" s="514"/>
+      <c r="E1" s="514"/>
+      <c r="F1" s="514"/>
+      <c r="G1" s="514"/>
+      <c r="H1" s="514"/>
+      <c r="I1" s="514"/>
+      <c r="J1" s="514"/>
+      <c r="K1" s="514"/>
       <c r="L1" s="2"/>
       <c r="M1" s="3"/>
       <c r="W1" s="209"/>
@@ -23773,7 +23801,7 @@
       <c r="Y1" s="206"/>
     </row>
     <row r="2" spans="1:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="585"/>
+      <c r="B2" s="558"/>
       <c r="C2" s="8"/>
       <c r="H2" s="10" t="s">
         <v>0</v>
@@ -23792,27 +23820,27 @@
       <c r="Y2" s="216" t="s">
         <v>28</v>
       </c>
-      <c r="AB2" s="567" t="s">
+      <c r="AB2" s="570" t="s">
         <v>596</v>
       </c>
-      <c r="AC2" s="567"/>
-      <c r="AD2" s="567"/>
-      <c r="AE2" s="567"/>
-      <c r="AF2" s="567"/>
-      <c r="AG2" s="567"/>
+      <c r="AC2" s="570"/>
+      <c r="AD2" s="570"/>
+      <c r="AE2" s="570"/>
+      <c r="AF2" s="570"/>
+      <c r="AG2" s="570"/>
     </row>
     <row r="3" spans="1:33" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="537" t="s">
+      <c r="B3" s="515" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="538"/>
+      <c r="C3" s="516"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="15"/>
-      <c r="H3" s="539" t="s">
+      <c r="H3" s="517" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="539"/>
+      <c r="I3" s="517"/>
       <c r="K3" s="17" t="s">
         <v>3</v>
       </c>
@@ -23820,13 +23848,13 @@
         <v>4</v>
       </c>
       <c r="M3" s="18"/>
-      <c r="P3" s="586" t="s">
+      <c r="P3" s="608" t="s">
         <v>663</v>
       </c>
-      <c r="Q3" s="588" t="s">
+      <c r="Q3" s="610" t="s">
         <v>665</v>
       </c>
-      <c r="S3" s="589"/>
+      <c r="S3" s="611"/>
       <c r="W3" s="213" t="s">
         <v>54</v>
       </c>
@@ -23836,12 +23864,12 @@
       <c r="Y3" s="198">
         <v>2000</v>
       </c>
-      <c r="AB3" s="567"/>
-      <c r="AC3" s="567"/>
-      <c r="AD3" s="567"/>
-      <c r="AE3" s="567"/>
-      <c r="AF3" s="567"/>
-      <c r="AG3" s="567"/>
+      <c r="AB3" s="570"/>
+      <c r="AC3" s="570"/>
+      <c r="AD3" s="570"/>
+      <c r="AE3" s="570"/>
+      <c r="AF3" s="570"/>
+      <c r="AG3" s="570"/>
     </row>
     <row r="4" spans="1:33" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="20" t="s">
@@ -23854,14 +23882,14 @@
       <c r="D4" s="23">
         <v>44377</v>
       </c>
-      <c r="E4" s="540" t="s">
+      <c r="E4" s="518" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="541"/>
-      <c r="H4" s="587" t="s">
+      <c r="F4" s="519"/>
+      <c r="H4" s="609" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="543"/>
+      <c r="I4" s="521"/>
       <c r="J4" s="24"/>
       <c r="K4" s="25"/>
       <c r="L4" s="26"/>
@@ -23872,10 +23900,10 @@
         <v>10</v>
       </c>
       <c r="O4" s="365"/>
-      <c r="P4" s="586"/>
-      <c r="Q4" s="588"/>
+      <c r="P4" s="608"/>
+      <c r="Q4" s="610"/>
       <c r="R4" s="30"/>
-      <c r="S4" s="589"/>
+      <c r="S4" s="611"/>
       <c r="T4" s="30"/>
       <c r="U4" s="30"/>
       <c r="W4" s="213" t="s">
@@ -23887,16 +23915,16 @@
       <c r="Y4" s="217">
         <v>2000</v>
       </c>
-      <c r="AB4" s="568" t="s">
+      <c r="AB4" s="571" t="s">
         <v>527</v>
       </c>
-      <c r="AC4" s="569"/>
+      <c r="AC4" s="572"/>
       <c r="AD4" s="99"/>
-      <c r="AE4" s="570" t="s">
+      <c r="AE4" s="573" t="s">
         <v>567</v>
       </c>
-      <c r="AF4" s="570"/>
-      <c r="AG4" s="570"/>
+      <c r="AF4" s="573"/>
+      <c r="AG4" s="573"/>
     </row>
     <row r="5" spans="1:33" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="34" t="s">
@@ -25333,10 +25361,10 @@
         <v>0</v>
       </c>
       <c r="AD23" s="99"/>
-      <c r="AE23" s="575" t="s">
+      <c r="AE23" s="578" t="s">
         <v>564</v>
       </c>
-      <c r="AF23" s="576"/>
+      <c r="AF23" s="579"/>
       <c r="AG23" s="339">
         <f>SUM(AG6:AG22)</f>
         <v>2323600</v>
@@ -25468,11 +25496,11 @@
         <v>138607</v>
       </c>
       <c r="AD25" s="99"/>
-      <c r="AE25" s="577" t="s">
+      <c r="AE25" s="580" t="s">
         <v>565</v>
       </c>
-      <c r="AF25" s="578"/>
-      <c r="AG25" s="581">
+      <c r="AF25" s="581"/>
+      <c r="AG25" s="584">
         <f>AC29-AG23</f>
         <v>163726</v>
       </c>
@@ -25541,9 +25569,9 @@
         <v>107480</v>
       </c>
       <c r="AD26" s="99"/>
-      <c r="AE26" s="579"/>
-      <c r="AF26" s="580"/>
-      <c r="AG26" s="582"/>
+      <c r="AE26" s="582"/>
+      <c r="AF26" s="583"/>
+      <c r="AG26" s="585"/>
     </row>
     <row r="27" spans="1:33" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="34"/>
@@ -25742,10 +25770,10 @@
       </c>
       <c r="X29" s="220"/>
       <c r="Y29" s="218"/>
-      <c r="AB29" s="571" t="s">
+      <c r="AB29" s="574" t="s">
         <v>562</v>
       </c>
-      <c r="AC29" s="573">
+      <c r="AC29" s="576">
         <f>SUM(AC5:AC28)</f>
         <v>2487326</v>
       </c>
@@ -25808,8 +25836,8 @@
       </c>
       <c r="X30" s="221"/>
       <c r="Y30" s="207"/>
-      <c r="AB30" s="572"/>
-      <c r="AC30" s="574"/>
+      <c r="AB30" s="575"/>
+      <c r="AC30" s="577"/>
       <c r="AD30" s="99"/>
       <c r="AE30" s="99"/>
       <c r="AF30" s="99"/>
@@ -26197,11 +26225,11 @@
       <c r="K37" s="144"/>
       <c r="L37" s="358"/>
       <c r="M37" s="484">
-        <v>52350</v>
+        <v>51950</v>
       </c>
       <c r="N37" s="456">
-        <f>6476+45</f>
-        <v>6521</v>
+        <f>6476+45+400</f>
+        <v>6921</v>
       </c>
       <c r="O37" s="7"/>
       <c r="P37" s="7"/>
@@ -26302,13 +26330,13 @@
       <c r="J39" s="233"/>
       <c r="K39" s="361"/>
       <c r="L39" s="357"/>
-      <c r="M39" s="598">
+      <c r="M39" s="603">
         <f>SUM(M5:M38)</f>
-        <v>3989872.22</v>
-      </c>
-      <c r="N39" s="600">
+        <v>3989472.22</v>
+      </c>
+      <c r="N39" s="605">
         <f>SUM(N5:N38)</f>
-        <v>688820.5</v>
+        <v>689220.5</v>
       </c>
       <c r="O39" s="7"/>
       <c r="P39" s="7"/>
@@ -26355,8 +26383,8 @@
         <f>1145.91+398.99+423.94+498.99+398.99</f>
         <v>2866.8199999999997</v>
       </c>
-      <c r="M40" s="599"/>
-      <c r="N40" s="601"/>
+      <c r="M40" s="604"/>
+      <c r="N40" s="606"/>
       <c r="O40" s="7"/>
       <c r="P40" s="7"/>
       <c r="Q40" s="7"/>
@@ -26549,10 +26577,10 @@
       <c r="L44" s="358">
         <v>73526</v>
       </c>
-      <c r="M44" s="602" t="s">
+      <c r="M44" s="607" t="s">
         <v>567</v>
       </c>
-      <c r="N44" s="602"/>
+      <c r="N44" s="607"/>
       <c r="O44" s="7"/>
       <c r="P44" s="7"/>
       <c r="Q44" s="7"/>
@@ -27140,7 +27168,7 @@
       <c r="L57" s="458">
         <v>7482</v>
       </c>
-      <c r="M57" s="590">
+      <c r="M57" s="595">
         <f>SUM(M45:M56)</f>
         <v>3606750</v>
       </c>
@@ -27180,7 +27208,7 @@
       <c r="L58" s="458">
         <v>986</v>
       </c>
-      <c r="M58" s="591"/>
+      <c r="M58" s="596"/>
       <c r="N58" s="476"/>
       <c r="O58" s="7"/>
       <c r="P58" s="7"/>
@@ -27255,10 +27283,10 @@
         <f>1033.33+165.33</f>
         <v>1198.6599999999999</v>
       </c>
-      <c r="M60" s="592" t="s">
+      <c r="M60" s="597" t="s">
         <v>719</v>
       </c>
-      <c r="N60" s="593"/>
+      <c r="N60" s="598"/>
       <c r="O60" s="7"/>
       <c r="P60" s="7"/>
       <c r="Q60" s="7"/>
@@ -27331,11 +27359,11 @@
       <c r="L62" s="458">
         <v>22595.71</v>
       </c>
-      <c r="M62" s="594">
+      <c r="M62" s="599">
         <f>M57-M39</f>
-        <v>-383122.2200000002</v>
-      </c>
-      <c r="N62" s="595"/>
+        <v>-382722.2200000002</v>
+      </c>
+      <c r="N62" s="600"/>
       <c r="O62" s="7"/>
       <c r="P62" s="7"/>
       <c r="Q62" s="7"/>
@@ -27371,8 +27399,8 @@
       <c r="L63" s="458">
         <v>1064</v>
       </c>
-      <c r="M63" s="596"/>
-      <c r="N63" s="597"/>
+      <c r="M63" s="601"/>
+      <c r="N63" s="602"/>
       <c r="O63" s="7"/>
       <c r="P63" s="7"/>
       <c r="Q63" s="7"/>
@@ -27562,16 +27590,16 @@
       <c r="A69" s="60"/>
       <c r="B69" s="100"/>
       <c r="C69" s="4"/>
-      <c r="H69" s="523" t="s">
+      <c r="H69" s="522" t="s">
         <v>16</v>
       </c>
-      <c r="I69" s="524"/>
+      <c r="I69" s="523"/>
       <c r="J69" s="101"/>
-      <c r="K69" s="525">
+      <c r="K69" s="524">
         <f>I67+L67</f>
         <v>587206.12</v>
       </c>
-      <c r="L69" s="526"/>
+      <c r="L69" s="525"/>
       <c r="M69" s="471"/>
       <c r="N69" s="472"/>
       <c r="O69" s="367"/>
@@ -27588,40 +27616,40 @@
       <c r="AG69" s="327"/>
     </row>
     <row r="70" spans="1:33" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D70" s="535" t="s">
+      <c r="D70" s="534" t="s">
         <v>17</v>
       </c>
-      <c r="E70" s="535"/>
+      <c r="E70" s="534"/>
       <c r="F70" s="103">
         <f>F67-K69-C67</f>
         <v>3436910.52</v>
       </c>
       <c r="I70" s="104"/>
       <c r="J70" s="105"/>
-      <c r="R70" s="514">
+      <c r="R70" s="535">
         <f>R67+S67</f>
         <v>10503773.959999999</v>
       </c>
-      <c r="S70" s="515"/>
+      <c r="S70" s="536"/>
       <c r="U70" s="50"/>
     </row>
     <row r="71" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D71" s="516" t="s">
+      <c r="D71" s="537" t="s">
         <v>502</v>
       </c>
-      <c r="E71" s="516"/>
+      <c r="E71" s="537"/>
       <c r="F71" s="95">
         <v>-3290264.27</v>
       </c>
-      <c r="I71" s="517" t="s">
+      <c r="I71" s="538" t="s">
         <v>19</v>
       </c>
-      <c r="J71" s="518"/>
-      <c r="K71" s="519">
+      <c r="J71" s="539"/>
+      <c r="K71" s="540">
         <f>F73+F74+F75</f>
         <v>426565.1</v>
       </c>
-      <c r="L71" s="520"/>
+      <c r="L71" s="541"/>
       <c r="R71" s="50"/>
       <c r="U71" s="107"/>
     </row>
@@ -27655,11 +27683,11 @@
         <v>21</v>
       </c>
       <c r="J73" s="115"/>
-      <c r="K73" s="521">
+      <c r="K73" s="542">
         <f>-C4</f>
         <v>-308642.71999999997</v>
       </c>
-      <c r="L73" s="603"/>
+      <c r="L73" s="586"/>
       <c r="R73" s="50"/>
       <c r="S73" s="7"/>
       <c r="U73" s="50"/>
@@ -27682,22 +27710,22 @@
       <c r="C75" s="119">
         <v>44410</v>
       </c>
-      <c r="D75" s="529" t="s">
+      <c r="D75" s="528" t="s">
         <v>24</v>
       </c>
-      <c r="E75" s="530"/>
+      <c r="E75" s="529"/>
       <c r="F75" s="120">
         <v>250140.85</v>
       </c>
-      <c r="I75" s="531" t="s">
+      <c r="I75" s="530" t="s">
         <v>25</v>
       </c>
-      <c r="J75" s="532"/>
-      <c r="K75" s="533">
+      <c r="J75" s="531"/>
+      <c r="K75" s="532">
         <f>K71+K73</f>
         <v>117922.38</v>
       </c>
-      <c r="L75" s="533"/>
+      <c r="L75" s="532"/>
       <c r="R75" s="50"/>
       <c r="S75" s="7"/>
       <c r="U75" s="121"/>
@@ -27712,14 +27740,14 @@
       <c r="S76" s="7"/>
     </row>
     <row r="77" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I77" s="604" t="s">
+      <c r="I77" s="587" t="s">
         <v>610</v>
       </c>
-      <c r="J77" s="605"/>
-      <c r="K77" s="608">
+      <c r="J77" s="588"/>
+      <c r="K77" s="591">
         <v>-383122.22</v>
       </c>
-      <c r="L77" s="609"/>
+      <c r="L77" s="592"/>
       <c r="R77" s="7"/>
       <c r="S77" s="7"/>
     </row>
@@ -27728,10 +27756,10 @@
       <c r="C78" s="128"/>
       <c r="D78" s="129"/>
       <c r="E78" s="7"/>
-      <c r="I78" s="606"/>
-      <c r="J78" s="607"/>
-      <c r="K78" s="610"/>
-      <c r="L78" s="611"/>
+      <c r="I78" s="589"/>
+      <c r="J78" s="590"/>
+      <c r="K78" s="593"/>
+      <c r="L78" s="594"/>
       <c r="M78" s="2"/>
       <c r="N78" s="60"/>
       <c r="O78" s="165"/>
@@ -27783,7 +27811,7 @@
       <c r="C81" s="130"/>
       <c r="E81" s="7"/>
       <c r="M81" s="4"/>
-      <c r="AC81" s="583"/>
+      <c r="AC81" s="559"/>
       <c r="AD81" s="440"/>
       <c r="AE81" s="440"/>
       <c r="AF81" s="440"/>
@@ -27796,7 +27824,7 @@
       <c r="E82" s="7"/>
       <c r="F82" s="273"/>
       <c r="M82" s="4"/>
-      <c r="AC82" s="583"/>
+      <c r="AC82" s="559"/>
       <c r="AD82" s="440"/>
       <c r="AE82" s="440"/>
       <c r="AF82" s="440"/>
@@ -27890,13 +27918,21 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="AC81:AC82"/>
-    <mergeCell ref="K73:L73"/>
-    <mergeCell ref="D75:E75"/>
-    <mergeCell ref="I75:J75"/>
-    <mergeCell ref="K75:L75"/>
-    <mergeCell ref="I77:J78"/>
-    <mergeCell ref="K77:L78"/>
+    <mergeCell ref="AG25:AG26"/>
+    <mergeCell ref="AB29:AB30"/>
+    <mergeCell ref="AC29:AC30"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:K1"/>
+    <mergeCell ref="AB2:AG3"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="AB4:AC4"/>
+    <mergeCell ref="AE4:AG4"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="S3:S4"/>
     <mergeCell ref="D71:E71"/>
     <mergeCell ref="I71:J71"/>
     <mergeCell ref="K71:L71"/>
@@ -27912,21 +27948,13 @@
     <mergeCell ref="M39:M40"/>
     <mergeCell ref="N39:N40"/>
     <mergeCell ref="M44:N44"/>
-    <mergeCell ref="AG25:AG26"/>
-    <mergeCell ref="AB29:AB30"/>
-    <mergeCell ref="AC29:AC30"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:K1"/>
-    <mergeCell ref="AB2:AG3"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="AB4:AC4"/>
-    <mergeCell ref="AE4:AG4"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="AC81:AC82"/>
+    <mergeCell ref="K73:L73"/>
+    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="I75:J75"/>
+    <mergeCell ref="K75:L75"/>
+    <mergeCell ref="I77:J78"/>
+    <mergeCell ref="K77:L78"/>
   </mergeCells>
   <pageMargins left="0.35433070866141736" right="0.27559055118110237" top="0.27559055118110237" bottom="0.31496062992125984" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="90" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -29573,8 +29601,8 @@
   </sheetPr>
   <dimension ref="A1:AG97"/>
   <sheetViews>
-    <sheetView topLeftCell="G7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T32" sqref="T32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -29609,20 +29637,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="584" t="s">
+      <c r="B1" s="557" t="s">
         <v>529</v>
       </c>
-      <c r="C1" s="536" t="s">
+      <c r="C1" s="514" t="s">
         <v>721</v>
       </c>
-      <c r="D1" s="536"/>
-      <c r="E1" s="536"/>
-      <c r="F1" s="536"/>
-      <c r="G1" s="536"/>
-      <c r="H1" s="536"/>
-      <c r="I1" s="536"/>
-      <c r="J1" s="536"/>
-      <c r="K1" s="536"/>
+      <c r="D1" s="514"/>
+      <c r="E1" s="514"/>
+      <c r="F1" s="514"/>
+      <c r="G1" s="514"/>
+      <c r="H1" s="514"/>
+      <c r="I1" s="514"/>
+      <c r="J1" s="514"/>
+      <c r="K1" s="514"/>
       <c r="L1" s="2"/>
       <c r="M1" s="3"/>
       <c r="W1" s="209"/>
@@ -29632,7 +29660,7 @@
       <c r="Y1" s="206"/>
     </row>
     <row r="2" spans="1:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="585"/>
+      <c r="B2" s="558"/>
       <c r="C2" s="8"/>
       <c r="H2" s="10" t="s">
         <v>0</v>
@@ -29651,27 +29679,27 @@
       <c r="Y2" s="216" t="s">
         <v>28</v>
       </c>
-      <c r="AB2" s="567" t="s">
+      <c r="AB2" s="570" t="s">
         <v>596</v>
       </c>
-      <c r="AC2" s="567"/>
-      <c r="AD2" s="567"/>
-      <c r="AE2" s="567"/>
-      <c r="AF2" s="567"/>
-      <c r="AG2" s="567"/>
+      <c r="AC2" s="570"/>
+      <c r="AD2" s="570"/>
+      <c r="AE2" s="570"/>
+      <c r="AF2" s="570"/>
+      <c r="AG2" s="570"/>
     </row>
     <row r="3" spans="1:33" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="537" t="s">
+      <c r="B3" s="515" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="538"/>
+      <c r="C3" s="516"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="15"/>
-      <c r="H3" s="539" t="s">
+      <c r="H3" s="517" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="539"/>
+      <c r="I3" s="517"/>
       <c r="K3" s="17" t="s">
         <v>3</v>
       </c>
@@ -29682,13 +29710,13 @@
       <c r="O3" s="366" t="s">
         <v>753</v>
       </c>
-      <c r="P3" s="586" t="s">
+      <c r="P3" s="608" t="s">
         <v>663</v>
       </c>
-      <c r="Q3" s="588" t="s">
+      <c r="Q3" s="610" t="s">
         <v>665</v>
       </c>
-      <c r="S3" s="589"/>
+      <c r="S3" s="611"/>
       <c r="W3" s="213" t="s">
         <v>54</v>
       </c>
@@ -29698,12 +29726,12 @@
       <c r="Y3" s="198">
         <v>2000</v>
       </c>
-      <c r="AB3" s="567"/>
-      <c r="AC3" s="567"/>
-      <c r="AD3" s="567"/>
-      <c r="AE3" s="567"/>
-      <c r="AF3" s="567"/>
-      <c r="AG3" s="567"/>
+      <c r="AB3" s="570"/>
+      <c r="AC3" s="570"/>
+      <c r="AD3" s="570"/>
+      <c r="AE3" s="570"/>
+      <c r="AF3" s="570"/>
+      <c r="AG3" s="570"/>
     </row>
     <row r="4" spans="1:33" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="20" t="s">
@@ -29716,14 +29744,14 @@
       <c r="D4" s="23">
         <v>44410</v>
       </c>
-      <c r="E4" s="540" t="s">
+      <c r="E4" s="518" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="541"/>
-      <c r="H4" s="587" t="s">
+      <c r="F4" s="519"/>
+      <c r="H4" s="609" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="543"/>
+      <c r="I4" s="521"/>
       <c r="J4" s="24"/>
       <c r="K4" s="25"/>
       <c r="L4" s="26"/>
@@ -29734,10 +29762,10 @@
         <v>11</v>
       </c>
       <c r="O4" s="99"/>
-      <c r="P4" s="586"/>
-      <c r="Q4" s="588"/>
+      <c r="P4" s="608"/>
+      <c r="Q4" s="610"/>
       <c r="R4" s="30"/>
-      <c r="S4" s="589"/>
+      <c r="S4" s="611"/>
       <c r="T4" s="30"/>
       <c r="U4" s="30"/>
       <c r="W4" s="213" t="s">
@@ -29749,16 +29777,16 @@
       <c r="Y4" s="217">
         <v>2000</v>
       </c>
-      <c r="AB4" s="568" t="s">
+      <c r="AB4" s="571" t="s">
         <v>527</v>
       </c>
-      <c r="AC4" s="569"/>
+      <c r="AC4" s="572"/>
       <c r="AD4" s="99"/>
-      <c r="AE4" s="570" t="s">
+      <c r="AE4" s="573" t="s">
         <v>567</v>
       </c>
-      <c r="AF4" s="570"/>
-      <c r="AG4" s="570"/>
+      <c r="AF4" s="573"/>
+      <c r="AG4" s="573"/>
     </row>
     <row r="5" spans="1:33" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="34" t="s">
@@ -30976,7 +31004,9 @@
       <c r="N20" s="42">
         <v>6861</v>
       </c>
-      <c r="O20" s="392"/>
+      <c r="O20" s="492">
+        <v>44427</v>
+      </c>
       <c r="P20" s="389">
         <v>0</v>
       </c>
@@ -31057,7 +31087,9 @@
       <c r="N21" s="42">
         <v>9149</v>
       </c>
-      <c r="O21" s="392"/>
+      <c r="O21" s="492">
+        <v>44428</v>
+      </c>
       <c r="P21" s="389">
         <v>0</v>
       </c>
@@ -31135,18 +31167,20 @@
       <c r="N22" s="42">
         <v>16271</v>
       </c>
-      <c r="O22" s="392"/>
+      <c r="O22" s="492">
+        <v>44429</v>
+      </c>
       <c r="P22" s="389">
         <v>0</v>
       </c>
       <c r="Q22" s="447">
-        <v>0</v>
+        <v>6761.68</v>
       </c>
       <c r="R22" s="7">
         <f>C22+I22+M22+N22+L22</f>
         <v>156389.68</v>
       </c>
-      <c r="S22" s="6">
+      <c r="S22" s="202">
         <f t="shared" si="0"/>
         <v>6761.679999999993</v>
       </c>
@@ -31206,7 +31240,9 @@
       <c r="N23" s="42">
         <v>9786</v>
       </c>
-      <c r="O23" s="392"/>
+      <c r="O23" s="492">
+        <v>44430</v>
+      </c>
       <c r="P23" s="389">
         <v>0</v>
       </c>
@@ -31238,10 +31274,10 @@
         <v>0</v>
       </c>
       <c r="AD23" s="99"/>
-      <c r="AE23" s="575" t="s">
+      <c r="AE23" s="578" t="s">
         <v>564</v>
       </c>
-      <c r="AF23" s="576"/>
+      <c r="AF23" s="579"/>
       <c r="AG23" s="339">
         <f>SUM(AG6:AG22)</f>
         <v>2323600</v>
@@ -31256,7 +31292,7 @@
         <v>10660</v>
       </c>
       <c r="D24" s="139" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="E24" s="136">
         <v>44431</v>
@@ -31280,7 +31316,9 @@
       <c r="N24" s="42">
         <v>4344</v>
       </c>
-      <c r="O24" s="392"/>
+      <c r="O24" s="492">
+        <v>44431</v>
+      </c>
       <c r="P24" s="389">
         <v>0</v>
       </c>
@@ -31318,32 +31356,36 @@
         <v>44432</v>
       </c>
       <c r="C25" s="36">
-        <v>0</v>
-      </c>
-      <c r="D25" s="139"/>
+        <v>2355</v>
+      </c>
+      <c r="D25" s="139" t="s">
+        <v>45</v>
+      </c>
       <c r="E25" s="136">
         <v>44432</v>
       </c>
       <c r="F25" s="37">
-        <v>0</v>
+        <v>88482</v>
       </c>
       <c r="G25" s="137"/>
       <c r="H25" s="138">
         <v>44432</v>
       </c>
       <c r="I25" s="38">
-        <v>0</v>
+        <v>947</v>
       </c>
       <c r="J25" s="297"/>
       <c r="K25" s="172"/>
       <c r="L25" s="75"/>
       <c r="M25" s="444">
-        <v>0</v>
+        <v>65712</v>
       </c>
       <c r="N25" s="42">
-        <v>0</v>
-      </c>
-      <c r="O25" s="392"/>
+        <v>19468</v>
+      </c>
+      <c r="O25" s="492">
+        <v>44432</v>
+      </c>
       <c r="P25" s="389">
         <v>0</v>
       </c>
@@ -31352,7 +31394,7 @@
       </c>
       <c r="R25" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>88482</v>
       </c>
       <c r="S25" s="6">
         <f t="shared" si="0"/>
@@ -31375,11 +31417,11 @@
         <v>138607</v>
       </c>
       <c r="AD25" s="99"/>
-      <c r="AE25" s="577" t="s">
+      <c r="AE25" s="580" t="s">
         <v>565</v>
       </c>
-      <c r="AF25" s="578"/>
-      <c r="AG25" s="581">
+      <c r="AF25" s="581"/>
+      <c r="AG25" s="584">
         <f>AC29-AG23</f>
         <v>163726</v>
       </c>
@@ -31390,32 +31432,36 @@
         <v>44433</v>
       </c>
       <c r="C26" s="36">
-        <v>0</v>
-      </c>
-      <c r="D26" s="139"/>
+        <v>8540</v>
+      </c>
+      <c r="D26" s="139" t="s">
+        <v>802</v>
+      </c>
       <c r="E26" s="136">
         <v>44433</v>
       </c>
       <c r="F26" s="37">
-        <v>0</v>
+        <v>140809</v>
       </c>
       <c r="G26" s="137"/>
       <c r="H26" s="138">
         <v>44433</v>
       </c>
       <c r="I26" s="38">
-        <v>0</v>
+        <v>495</v>
       </c>
       <c r="J26" s="52"/>
       <c r="K26" s="295"/>
       <c r="L26" s="53"/>
       <c r="M26" s="444">
-        <v>0</v>
+        <v>117270</v>
       </c>
       <c r="N26" s="42">
-        <v>0</v>
-      </c>
-      <c r="O26" s="392"/>
+        <v>14504</v>
+      </c>
+      <c r="O26" s="492">
+        <v>44433</v>
+      </c>
       <c r="P26" s="389">
         <v>0</v>
       </c>
@@ -31424,7 +31470,7 @@
       </c>
       <c r="R26" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>140809</v>
       </c>
       <c r="S26" s="6">
         <f t="shared" si="0"/>
@@ -31447,9 +31493,9 @@
         <v>107480</v>
       </c>
       <c r="AD26" s="99"/>
-      <c r="AE26" s="579"/>
-      <c r="AF26" s="580"/>
-      <c r="AG26" s="582"/>
+      <c r="AE26" s="582"/>
+      <c r="AF26" s="583"/>
+      <c r="AG26" s="585"/>
     </row>
     <row r="27" spans="1:33" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="34"/>
@@ -31457,32 +31503,36 @@
         <v>44434</v>
       </c>
       <c r="C27" s="36">
-        <v>0</v>
-      </c>
-      <c r="D27" s="141"/>
+        <v>4623</v>
+      </c>
+      <c r="D27" s="141" t="s">
+        <v>803</v>
+      </c>
       <c r="E27" s="136">
         <v>44434</v>
       </c>
       <c r="F27" s="37">
-        <v>0</v>
+        <v>89516</v>
       </c>
       <c r="G27" s="137"/>
       <c r="H27" s="138">
         <v>44434</v>
       </c>
       <c r="I27" s="38">
-        <v>0</v>
+        <v>1062</v>
       </c>
       <c r="J27" s="298"/>
       <c r="K27" s="282"/>
       <c r="L27" s="75"/>
       <c r="M27" s="444">
-        <v>0</v>
+        <v>79471</v>
       </c>
       <c r="N27" s="42">
-        <v>0</v>
-      </c>
-      <c r="O27" s="392"/>
+        <v>4360</v>
+      </c>
+      <c r="O27" s="492">
+        <v>44434</v>
+      </c>
       <c r="P27" s="389">
         <v>0</v>
       </c>
@@ -31491,7 +31541,7 @@
       </c>
       <c r="R27" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>89516</v>
       </c>
       <c r="S27" s="6">
         <f t="shared" si="0"/>
@@ -31524,32 +31574,43 @@
         <v>44435</v>
       </c>
       <c r="C28" s="36">
-        <v>0</v>
-      </c>
-      <c r="D28" s="141"/>
+        <v>8507</v>
+      </c>
+      <c r="D28" s="141" t="s">
+        <v>804</v>
+      </c>
       <c r="E28" s="136">
         <v>44435</v>
       </c>
       <c r="F28" s="37">
-        <v>0</v>
+        <v>144123</v>
       </c>
       <c r="G28" s="137"/>
       <c r="H28" s="138">
         <v>44435</v>
       </c>
       <c r="I28" s="38">
-        <v>0</v>
-      </c>
-      <c r="J28" s="299"/>
-      <c r="K28" s="151"/>
-      <c r="L28" s="75"/>
+        <v>3542</v>
+      </c>
+      <c r="J28" s="299">
+        <v>44435</v>
+      </c>
+      <c r="K28" s="151" t="s">
+        <v>722</v>
+      </c>
+      <c r="L28" s="75">
+        <v>10000</v>
+      </c>
       <c r="M28" s="444">
-        <v>0</v>
+        <v>116346</v>
       </c>
       <c r="N28" s="42">
-        <v>0</v>
-      </c>
-      <c r="O28" s="392"/>
+        <f>5418+310</f>
+        <v>5728</v>
+      </c>
+      <c r="O28" s="492">
+        <v>44435</v>
+      </c>
       <c r="P28" s="389">
         <v>0</v>
       </c>
@@ -31558,7 +31619,7 @@
       </c>
       <c r="R28" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>144123</v>
       </c>
       <c r="S28" s="6">
         <f t="shared" si="0"/>
@@ -31587,45 +31648,56 @@
         <v>44436</v>
       </c>
       <c r="C29" s="36">
-        <v>0</v>
-      </c>
-      <c r="D29" s="143"/>
+        <v>2327</v>
+      </c>
+      <c r="D29" s="143" t="s">
+        <v>449</v>
+      </c>
       <c r="E29" s="136">
         <v>44436</v>
       </c>
       <c r="F29" s="37">
-        <v>0</v>
+        <v>187805</v>
       </c>
       <c r="G29" s="137"/>
       <c r="H29" s="138">
         <v>44436</v>
       </c>
       <c r="I29" s="38">
-        <v>0</v>
-      </c>
-      <c r="J29" s="300"/>
-      <c r="K29" s="169"/>
-      <c r="L29" s="75"/>
+        <v>550</v>
+      </c>
+      <c r="J29" s="300">
+        <v>44436</v>
+      </c>
+      <c r="K29" s="169" t="s">
+        <v>805</v>
+      </c>
+      <c r="L29" s="75">
+        <f>23655.58+400</f>
+        <v>24055.58</v>
+      </c>
       <c r="M29" s="444">
-        <v>0</v>
+        <v>150701</v>
       </c>
       <c r="N29" s="42">
-        <v>0</v>
-      </c>
-      <c r="O29" s="392"/>
+        <v>17084</v>
+      </c>
+      <c r="O29" s="492">
+        <v>44436</v>
+      </c>
       <c r="P29" s="389">
         <v>0</v>
       </c>
       <c r="Q29" s="447">
-        <v>0</v>
+        <v>6912.58</v>
       </c>
       <c r="R29" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S29" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>194717.58000000002</v>
+      </c>
+      <c r="S29" s="202">
+        <f t="shared" si="0"/>
+        <v>6912.5800000000163</v>
       </c>
       <c r="T29" s="58"/>
       <c r="W29" s="213" t="s">
@@ -31633,10 +31705,10 @@
       </c>
       <c r="X29" s="220"/>
       <c r="Y29" s="218"/>
-      <c r="AB29" s="571" t="s">
+      <c r="AB29" s="574" t="s">
         <v>562</v>
       </c>
-      <c r="AC29" s="573">
+      <c r="AC29" s="576">
         <f>SUM(AC5:AC28)</f>
         <v>2487326</v>
       </c>
@@ -31651,32 +31723,36 @@
         <v>44437</v>
       </c>
       <c r="C30" s="36">
-        <v>0</v>
-      </c>
-      <c r="D30" s="143"/>
+        <v>31250</v>
+      </c>
+      <c r="D30" s="143" t="s">
+        <v>750</v>
+      </c>
       <c r="E30" s="136">
         <v>44437</v>
       </c>
       <c r="F30" s="37">
-        <v>0</v>
+        <v>116409</v>
       </c>
       <c r="G30" s="137"/>
       <c r="H30" s="138">
         <v>44437</v>
       </c>
       <c r="I30" s="38">
-        <v>0</v>
+        <v>550</v>
       </c>
       <c r="J30" s="233"/>
       <c r="K30" s="356"/>
       <c r="L30" s="357"/>
       <c r="M30" s="444">
-        <v>0</v>
+        <v>80671</v>
       </c>
       <c r="N30" s="42">
-        <v>0</v>
-      </c>
-      <c r="O30" s="392"/>
+        <v>3938</v>
+      </c>
+      <c r="O30" s="492">
+        <v>44437</v>
+      </c>
       <c r="P30" s="389">
         <v>0</v>
       </c>
@@ -31685,7 +31761,7 @@
       </c>
       <c r="R30" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>116409</v>
       </c>
       <c r="S30" s="6">
         <f t="shared" si="0"/>
@@ -31697,8 +31773,8 @@
       </c>
       <c r="X30" s="221"/>
       <c r="Y30" s="207"/>
-      <c r="AB30" s="572"/>
-      <c r="AC30" s="574"/>
+      <c r="AB30" s="575"/>
+      <c r="AC30" s="577"/>
       <c r="AD30" s="99"/>
       <c r="AE30" s="99"/>
       <c r="AF30" s="99"/>
@@ -31710,39 +31786,44 @@
         <v>44438</v>
       </c>
       <c r="C31" s="36">
-        <v>0</v>
-      </c>
-      <c r="D31" s="242"/>
+        <v>5672</v>
+      </c>
+      <c r="D31" s="266" t="s">
+        <v>810</v>
+      </c>
       <c r="E31" s="136">
         <v>44438</v>
       </c>
       <c r="F31" s="37">
-        <v>0</v>
+        <v>106410</v>
       </c>
       <c r="G31" s="137"/>
       <c r="H31" s="138">
         <v>44438</v>
       </c>
       <c r="I31" s="38">
-        <v>0</v>
+        <v>1440</v>
       </c>
       <c r="J31" s="233"/>
       <c r="K31" s="144"/>
       <c r="L31" s="66"/>
       <c r="M31" s="444">
-        <v>0</v>
+        <v>82955</v>
       </c>
       <c r="N31" s="42">
-        <v>0</v>
-      </c>
-      <c r="O31" s="392"/>
+        <f>15974+369</f>
+        <v>16343</v>
+      </c>
+      <c r="O31" s="492">
+        <v>44438</v>
+      </c>
       <c r="P31" s="7"/>
       <c r="Q31" s="447">
         <v>0</v>
       </c>
       <c r="R31" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>106410</v>
       </c>
       <c r="S31" s="6">
         <f t="shared" si="0"/>
@@ -31767,32 +31848,43 @@
         <v>44439</v>
       </c>
       <c r="C32" s="36">
-        <v>0</v>
-      </c>
-      <c r="D32" s="453"/>
+        <v>5815</v>
+      </c>
+      <c r="D32" s="453" t="s">
+        <v>811</v>
+      </c>
       <c r="E32" s="136">
         <v>44439</v>
       </c>
       <c r="F32" s="37">
-        <v>0</v>
+        <v>138193</v>
       </c>
       <c r="G32" s="137"/>
       <c r="H32" s="138">
         <v>44439</v>
       </c>
       <c r="I32" s="38">
-        <v>0</v>
-      </c>
-      <c r="J32" s="233"/>
-      <c r="K32" s="356"/>
-      <c r="L32" s="357"/>
+        <v>732</v>
+      </c>
+      <c r="J32" s="233">
+        <v>44439</v>
+      </c>
+      <c r="K32" s="638" t="s">
+        <v>12</v>
+      </c>
+      <c r="L32" s="357">
+        <v>20000</v>
+      </c>
       <c r="M32" s="444">
-        <v>0</v>
+        <v>97208</v>
       </c>
       <c r="N32" s="42">
-        <v>0</v>
-      </c>
-      <c r="O32" s="392"/>
+        <f>14340+98</f>
+        <v>14438</v>
+      </c>
+      <c r="O32" s="492">
+        <v>44439</v>
+      </c>
       <c r="P32" s="7" t="s">
         <v>11</v>
       </c>
@@ -31801,13 +31893,15 @@
       </c>
       <c r="R32" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>138193</v>
       </c>
       <c r="S32" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T32" s="48"/>
+      <c r="T32" s="48" t="s">
+        <v>812</v>
+      </c>
       <c r="W32" s="213" t="s">
         <v>83</v>
       </c>
@@ -32137,20 +32231,20 @@
       <c r="J39" s="233"/>
       <c r="K39" s="361"/>
       <c r="L39" s="357"/>
-      <c r="M39" s="598">
+      <c r="M39" s="603">
         <f>SUM(M5:M38)</f>
-        <v>2052217.09</v>
-      </c>
-      <c r="N39" s="600">
+        <v>2842551.09</v>
+      </c>
+      <c r="N39" s="605">
         <f>SUM(N5:N38)</f>
-        <v>175540</v>
+        <v>271403</v>
       </c>
       <c r="O39" s="392"/>
       <c r="P39" s="7"/>
       <c r="Q39" s="7"/>
       <c r="R39" s="7">
         <f>SUM(R5:R38)</f>
-        <v>2558313.65</v>
+        <v>3576973.23</v>
       </c>
       <c r="T39" s="48"/>
       <c r="W39" s="213" t="s">
@@ -32180,8 +32274,8 @@
       <c r="J40" s="233"/>
       <c r="K40" s="144"/>
       <c r="L40" s="357"/>
-      <c r="M40" s="599"/>
-      <c r="N40" s="601"/>
+      <c r="M40" s="604"/>
+      <c r="N40" s="606"/>
       <c r="O40" s="392"/>
       <c r="P40" s="7"/>
       <c r="Q40" s="7"/>
@@ -32325,10 +32419,10 @@
       <c r="J44" s="233"/>
       <c r="K44" s="228"/>
       <c r="L44" s="358"/>
-      <c r="M44" s="602" t="s">
+      <c r="M44" s="607" t="s">
         <v>567</v>
       </c>
-      <c r="N44" s="602"/>
+      <c r="N44" s="607"/>
       <c r="O44" s="392"/>
       <c r="P44" s="7"/>
       <c r="Q44" s="7"/>
@@ -32773,7 +32867,7 @@
       <c r="J57" s="325"/>
       <c r="K57" s="359"/>
       <c r="L57" s="458"/>
-      <c r="M57" s="590">
+      <c r="M57" s="595">
         <f>SUM(M45:M56)</f>
         <v>1677050</v>
       </c>
@@ -32807,7 +32901,7 @@
       <c r="J58" s="325"/>
       <c r="K58" s="457"/>
       <c r="L58" s="458"/>
-      <c r="M58" s="591"/>
+      <c r="M58" s="596"/>
       <c r="N58" s="476"/>
       <c r="O58" s="392"/>
       <c r="P58" s="7"/>
@@ -32869,10 +32963,10 @@
       <c r="J60" s="325"/>
       <c r="K60" s="467"/>
       <c r="L60" s="458"/>
-      <c r="M60" s="592" t="s">
+      <c r="M60" s="597" t="s">
         <v>719</v>
       </c>
-      <c r="N60" s="593"/>
+      <c r="N60" s="598"/>
       <c r="O60" s="392"/>
       <c r="P60" s="7"/>
       <c r="Q60" s="7"/>
@@ -32933,11 +33027,11 @@
       <c r="J62" s="325"/>
       <c r="K62" s="359"/>
       <c r="L62" s="458"/>
-      <c r="M62" s="612">
+      <c r="M62" s="620">
         <f>M57-M39</f>
-        <v>-375167.09000000008</v>
-      </c>
-      <c r="N62" s="613"/>
+        <v>-1165501.0899999999</v>
+      </c>
+      <c r="N62" s="621"/>
       <c r="O62" s="392"/>
       <c r="P62" s="7"/>
       <c r="Q62" s="7"/>
@@ -32967,8 +33061,8 @@
       <c r="J63" s="325"/>
       <c r="K63" s="359"/>
       <c r="L63" s="458"/>
-      <c r="M63" s="614"/>
-      <c r="N63" s="615"/>
+      <c r="M63" s="622"/>
+      <c r="N63" s="623"/>
       <c r="O63" s="392"/>
       <c r="P63" s="7"/>
       <c r="Q63" s="7"/>
@@ -33088,7 +33182,7 @@
       </c>
       <c r="C67" s="86">
         <f>SUM(C5:C66)</f>
-        <v>203821</v>
+        <v>272910</v>
       </c>
       <c r="D67" s="87"/>
       <c r="E67" s="88" t="s">
@@ -33096,7 +33190,7 @@
       </c>
       <c r="F67" s="89">
         <f>SUM(F5:F66)</f>
-        <v>2508382</v>
+        <v>3520129</v>
       </c>
       <c r="G67" s="87"/>
       <c r="H67" s="90" t="s">
@@ -33104,7 +33198,7 @@
       </c>
       <c r="I67" s="91">
         <f>SUM(I5:I66)</f>
-        <v>26828</v>
+        <v>36146</v>
       </c>
       <c r="J67" s="92"/>
       <c r="K67" s="93" t="s">
@@ -33112,7 +33206,7 @@
       </c>
       <c r="L67" s="94">
         <f>SUM(L5:L66)</f>
-        <v>99907.56</v>
+        <v>153963.14000000001</v>
       </c>
       <c r="M67" s="95"/>
       <c r="N67" s="95"/>
@@ -33120,11 +33214,11 @@
       <c r="Q67" s="366"/>
       <c r="R67" s="7">
         <f>SUM(R5:R66)</f>
-        <v>5116627.3</v>
+        <v>7153946.46</v>
       </c>
       <c r="S67" s="7">
         <f>SUM(S5:S66)</f>
-        <v>49931.649999999994</v>
+        <v>56844.23000000001</v>
       </c>
       <c r="T67" s="97"/>
       <c r="W67" s="210"/>
@@ -33147,16 +33241,16 @@
       <c r="A69" s="60"/>
       <c r="B69" s="100"/>
       <c r="C69" s="4"/>
-      <c r="H69" s="523" t="s">
+      <c r="H69" s="522" t="s">
         <v>16</v>
       </c>
-      <c r="I69" s="524"/>
+      <c r="I69" s="523"/>
       <c r="J69" s="101"/>
-      <c r="K69" s="525">
+      <c r="K69" s="524">
         <f>I67+L67</f>
-        <v>126735.56</v>
-      </c>
-      <c r="L69" s="526"/>
+        <v>190109.14</v>
+      </c>
+      <c r="L69" s="525"/>
       <c r="M69" s="471"/>
       <c r="N69" s="472"/>
       <c r="O69" s="490"/>
@@ -33173,40 +33267,40 @@
       <c r="AG69" s="327"/>
     </row>
     <row r="70" spans="1:33" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D70" s="535" t="s">
+      <c r="D70" s="534" t="s">
         <v>17</v>
       </c>
-      <c r="E70" s="535"/>
+      <c r="E70" s="534"/>
       <c r="F70" s="103">
         <f>F67-K69-C67</f>
-        <v>2177825.44</v>
+        <v>3057109.86</v>
       </c>
       <c r="I70" s="104"/>
       <c r="J70" s="105"/>
-      <c r="R70" s="514">
+      <c r="R70" s="535">
         <f>R67+S67</f>
-        <v>5166558.95</v>
-      </c>
-      <c r="S70" s="515"/>
+        <v>7210790.6900000004</v>
+      </c>
+      <c r="S70" s="536"/>
       <c r="U70" s="50"/>
     </row>
     <row r="71" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D71" s="516" t="s">
+      <c r="D71" s="537" t="s">
         <v>502</v>
       </c>
-      <c r="E71" s="516"/>
+      <c r="E71" s="537"/>
       <c r="F71" s="95">
         <v>0</v>
       </c>
-      <c r="I71" s="517" t="s">
+      <c r="I71" s="538" t="s">
         <v>19</v>
       </c>
-      <c r="J71" s="518"/>
-      <c r="K71" s="519">
+      <c r="J71" s="539"/>
+      <c r="K71" s="540">
         <f>F73+F74+F75</f>
-        <v>2177825.44</v>
-      </c>
-      <c r="L71" s="520"/>
+        <v>3057109.86</v>
+      </c>
+      <c r="L71" s="541"/>
       <c r="R71" s="50"/>
       <c r="U71" s="107"/>
     </row>
@@ -33233,18 +33327,18 @@
       </c>
       <c r="F73" s="95">
         <f>SUM(F70:F72)</f>
-        <v>2177825.44</v>
+        <v>3057109.86</v>
       </c>
       <c r="H73" s="34"/>
       <c r="I73" s="114" t="s">
         <v>21</v>
       </c>
       <c r="J73" s="115"/>
-      <c r="K73" s="521">
+      <c r="K73" s="542">
         <f>-C4</f>
         <v>-250140.85</v>
       </c>
-      <c r="L73" s="603"/>
+      <c r="L73" s="586"/>
       <c r="R73" s="50"/>
       <c r="S73" s="7"/>
       <c r="U73" s="50"/>
@@ -33265,22 +33359,22 @@
     </row>
     <row r="75" spans="1:33" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C75" s="119"/>
-      <c r="D75" s="529" t="s">
+      <c r="D75" s="528" t="s">
         <v>24</v>
       </c>
-      <c r="E75" s="530"/>
+      <c r="E75" s="529"/>
       <c r="F75" s="120">
         <v>0</v>
       </c>
-      <c r="I75" s="531" t="s">
+      <c r="I75" s="530" t="s">
         <v>25</v>
       </c>
-      <c r="J75" s="532"/>
-      <c r="K75" s="533">
+      <c r="J75" s="531"/>
+      <c r="K75" s="532">
         <f>K71+K73</f>
-        <v>1927684.5899999999</v>
-      </c>
-      <c r="L75" s="533"/>
+        <v>2806969.01</v>
+      </c>
+      <c r="L75" s="532"/>
       <c r="R75" s="50"/>
       <c r="S75" s="7"/>
       <c r="U75" s="121"/>
@@ -33295,14 +33389,14 @@
       <c r="S76" s="7"/>
     </row>
     <row r="77" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I77" s="616" t="s">
+      <c r="I77" s="612" t="s">
         <v>610</v>
       </c>
-      <c r="J77" s="617"/>
-      <c r="K77" s="620">
-        <v>0</v>
-      </c>
-      <c r="L77" s="621"/>
+      <c r="J77" s="613"/>
+      <c r="K77" s="616">
+        <v>0</v>
+      </c>
+      <c r="L77" s="617"/>
       <c r="R77" s="7"/>
       <c r="S77" s="7"/>
     </row>
@@ -33311,10 +33405,10 @@
       <c r="C78" s="128"/>
       <c r="D78" s="129"/>
       <c r="E78" s="7"/>
-      <c r="I78" s="618"/>
-      <c r="J78" s="619"/>
-      <c r="K78" s="622"/>
-      <c r="L78" s="623"/>
+      <c r="I78" s="614"/>
+      <c r="J78" s="615"/>
+      <c r="K78" s="618"/>
+      <c r="L78" s="619"/>
       <c r="M78" s="2"/>
       <c r="N78" s="60"/>
       <c r="O78" s="491"/>
@@ -33366,7 +33460,7 @@
       <c r="C81" s="130"/>
       <c r="E81" s="7"/>
       <c r="M81" s="4"/>
-      <c r="AC81" s="583"/>
+      <c r="AC81" s="559"/>
       <c r="AD81" s="487"/>
       <c r="AE81" s="487"/>
       <c r="AF81" s="487"/>
@@ -33379,7 +33473,7 @@
       <c r="E82" s="7"/>
       <c r="F82" s="273"/>
       <c r="M82" s="4"/>
-      <c r="AC82" s="583"/>
+      <c r="AC82" s="559"/>
       <c r="AD82" s="487"/>
       <c r="AE82" s="487"/>
       <c r="AF82" s="487"/>
@@ -33476,20 +33570,16 @@
     <sortCondition ref="N45:N55"/>
   </sortState>
   <mergeCells count="37">
-    <mergeCell ref="AC81:AC82"/>
-    <mergeCell ref="K73:L73"/>
-    <mergeCell ref="D75:E75"/>
-    <mergeCell ref="I75:J75"/>
-    <mergeCell ref="K75:L75"/>
-    <mergeCell ref="I77:J78"/>
-    <mergeCell ref="K77:L78"/>
-    <mergeCell ref="H69:I69"/>
-    <mergeCell ref="K69:L69"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="R70:S70"/>
-    <mergeCell ref="D71:E71"/>
-    <mergeCell ref="I71:J71"/>
-    <mergeCell ref="K71:L71"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:K1"/>
+    <mergeCell ref="AB2:AG3"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
     <mergeCell ref="M62:N63"/>
     <mergeCell ref="AB4:AC4"/>
     <mergeCell ref="AE4:AG4"/>
@@ -33503,16 +33593,20 @@
     <mergeCell ref="M44:N44"/>
     <mergeCell ref="M57:M58"/>
     <mergeCell ref="M60:N60"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:K1"/>
-    <mergeCell ref="AB2:AG3"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H69:I69"/>
+    <mergeCell ref="K69:L69"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="R70:S70"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="I71:J71"/>
+    <mergeCell ref="K71:L71"/>
+    <mergeCell ref="AC81:AC82"/>
+    <mergeCell ref="K73:L73"/>
+    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="I75:J75"/>
+    <mergeCell ref="K75:L75"/>
+    <mergeCell ref="I77:J78"/>
+    <mergeCell ref="K77:L78"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -33528,7 +33622,7 @@
   </sheetPr>
   <dimension ref="A1:G133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
@@ -33579,7 +33673,7 @@
         <v>44407</v>
       </c>
       <c r="B3" s="193" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="C3" s="71">
         <v>39311.300000000003</v>
@@ -33596,7 +33690,7 @@
         <v>44407</v>
       </c>
       <c r="B4" s="193" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="C4" s="71">
         <v>11549.6</v>
@@ -33614,7 +33708,7 @@
         <v>44410</v>
       </c>
       <c r="B5" s="193" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="C5" s="71">
         <v>22024.92</v>
@@ -33631,7 +33725,7 @@
         <v>44411</v>
       </c>
       <c r="B6" s="193" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="C6" s="71">
         <v>46313.1</v>
@@ -33648,7 +33742,7 @@
         <v>44412</v>
       </c>
       <c r="B7" s="193" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="C7" s="71">
         <v>98552.6</v>
@@ -33665,7 +33759,7 @@
         <v>44412</v>
       </c>
       <c r="B8" s="193" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="C8" s="71">
         <v>34220.800000000003</v>
@@ -33682,7 +33776,7 @@
         <v>44413</v>
       </c>
       <c r="B9" s="193" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="C9" s="71">
         <v>83774</v>
@@ -33699,7 +33793,7 @@
         <v>44413</v>
       </c>
       <c r="B10" s="193" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="C10" s="71">
         <v>11114.4</v>
@@ -33717,7 +33811,7 @@
         <v>44414</v>
       </c>
       <c r="B11" s="193" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="C11" s="71">
         <v>26168</v>
@@ -33734,7 +33828,7 @@
         <v>44415</v>
       </c>
       <c r="B12" s="193" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="C12" s="71">
         <v>29328.5</v>
@@ -33751,7 +33845,7 @@
         <v>44417</v>
       </c>
       <c r="B13" s="193" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="C13" s="71">
         <v>11509.3</v>
@@ -33768,7 +33862,7 @@
         <v>44418</v>
       </c>
       <c r="B14" s="193" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="C14" s="71">
         <v>37508.9</v>
@@ -33785,7 +33879,7 @@
         <v>44418</v>
       </c>
       <c r="B15" s="193" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="C15" s="71">
         <v>8601.6</v>
@@ -33802,7 +33896,7 @@
         <v>44418</v>
       </c>
       <c r="B16" s="193" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="C16" s="71">
         <v>17148.599999999999</v>
@@ -33819,7 +33913,7 @@
         <v>44419</v>
       </c>
       <c r="B17" s="193" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="C17" s="71">
         <v>85969.2</v>
@@ -33840,7 +33934,7 @@
         <v>44420</v>
       </c>
       <c r="B18" s="193" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="C18" s="71">
         <v>138341.66</v>
@@ -33857,7 +33951,7 @@
         <v>44421</v>
       </c>
       <c r="B19" s="193" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="C19" s="71">
         <v>132674.09</v>
@@ -33874,7 +33968,7 @@
         <v>44422</v>
       </c>
       <c r="B20" s="193" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="C20" s="71">
         <v>90825.97</v>
@@ -33895,7 +33989,7 @@
         <v>44422</v>
       </c>
       <c r="B21" s="193" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="C21" s="71">
         <v>39418.1</v>
@@ -33913,7 +34007,7 @@
         <v>44424</v>
       </c>
       <c r="B22" s="193" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="C22" s="71">
         <v>76845.3</v>
@@ -33930,7 +34024,7 @@
         <v>44425</v>
       </c>
       <c r="B23" s="193" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="C23" s="71">
         <v>129480.9</v>
@@ -33947,7 +34041,7 @@
         <v>44425</v>
       </c>
       <c r="B24" s="193" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="C24" s="71">
         <v>48435.55</v>
@@ -33964,7 +34058,7 @@
         <v>44426</v>
       </c>
       <c r="B25" s="193" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="C25" s="71">
         <v>10287.5</v>
@@ -33981,7 +34075,7 @@
         <v>44427</v>
       </c>
       <c r="B26" s="193" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="C26" s="71">
         <v>142888.70000000001</v>
@@ -34985,1579 +35079,13 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FF00FF00"/>
-  </sheetPr>
-  <dimension ref="A1:Q62"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="I42" workbookViewId="0">
-      <selection activeCell="O60" sqref="O60"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="11.42578125" style="204"/>
-    <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" customWidth="1"/>
-    <col min="4" max="4" width="6.28515625" customWidth="1"/>
-    <col min="5" max="5" width="26" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8" customWidth="1"/>
-    <col min="8" max="8" width="22.85546875" customWidth="1"/>
-    <col min="9" max="9" width="21" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" customWidth="1"/>
-    <col min="11" max="11" width="3" customWidth="1"/>
-    <col min="12" max="12" width="21.140625" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" customWidth="1"/>
-    <col min="15" max="15" width="22.85546875" customWidth="1"/>
-    <col min="16" max="16" width="18.5703125" customWidth="1"/>
-    <col min="17" max="17" width="17.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="630" t="s">
-        <v>726</v>
-      </c>
-      <c r="C1" s="630"/>
-      <c r="D1" s="630"/>
-      <c r="E1" s="630"/>
-      <c r="H1" s="631" t="s">
-        <v>726</v>
-      </c>
-      <c r="I1" s="631"/>
-      <c r="J1" s="631"/>
-      <c r="K1" s="205"/>
-      <c r="L1" s="205"/>
-      <c r="N1" t="s">
-        <v>11</v>
-      </c>
-      <c r="O1" s="630" t="s">
-        <v>725</v>
-      </c>
-      <c r="P1" s="630"/>
-    </row>
-    <row r="2" spans="1:17" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="18"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="557" t="s">
-        <v>562</v>
-      </c>
-      <c r="F2" s="497"/>
-      <c r="H2" s="27" t="s">
-        <v>716</v>
-      </c>
-      <c r="I2" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="O2" s="27" t="s">
-        <v>716</v>
-      </c>
-      <c r="P2" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q2" s="99"/>
-    </row>
-    <row r="3" spans="1:17" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="27" t="s">
-        <v>717</v>
-      </c>
-      <c r="C3" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="365"/>
-      <c r="E3" s="557"/>
-      <c r="F3" s="497"/>
-      <c r="H3" s="444">
-        <v>126476.5</v>
-      </c>
-      <c r="I3" s="334">
-        <v>10456</v>
-      </c>
-      <c r="J3" s="496">
-        <v>44378</v>
-      </c>
-      <c r="K3" s="496"/>
-      <c r="L3" s="602" t="s">
-        <v>567</v>
-      </c>
-      <c r="M3" s="602"/>
-      <c r="O3" s="444">
-        <v>64006</v>
-      </c>
-      <c r="P3" s="42">
-        <v>6793</v>
-      </c>
-      <c r="Q3" s="492">
-        <v>44412</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A4" s="495">
-        <v>44354</v>
-      </c>
-      <c r="B4" s="41">
-        <v>0</v>
-      </c>
-      <c r="C4" s="42">
-        <v>2926</v>
-      </c>
-      <c r="D4" s="318" t="s">
-        <v>516</v>
-      </c>
-      <c r="E4" s="498">
-        <v>-79419</v>
-      </c>
-      <c r="F4" s="499"/>
-      <c r="H4" s="444">
-        <v>121188</v>
-      </c>
-      <c r="I4" s="334">
-        <v>43064</v>
-      </c>
-      <c r="J4" s="496">
-        <v>44379</v>
-      </c>
-      <c r="K4" s="496"/>
-      <c r="L4" s="479">
-        <v>341970</v>
-      </c>
-      <c r="M4" s="473">
-        <v>44382</v>
-      </c>
-      <c r="O4" s="444">
-        <v>127855</v>
-      </c>
-      <c r="P4" s="42">
-        <v>3101</v>
-      </c>
-      <c r="Q4" s="492">
-        <v>44413</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A5" s="495">
-        <v>44355</v>
-      </c>
-      <c r="B5" s="41">
-        <v>120000</v>
-      </c>
-      <c r="C5" s="42">
-        <v>20382</v>
-      </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="503">
-        <v>-2143</v>
-      </c>
-      <c r="F5" s="500"/>
-      <c r="H5" s="444">
-        <v>117804.68</v>
-      </c>
-      <c r="I5" s="334">
-        <v>61735</v>
-      </c>
-      <c r="J5" s="496">
-        <v>44380</v>
-      </c>
-      <c r="K5" s="496"/>
-      <c r="L5" s="480">
-        <v>203050</v>
-      </c>
-      <c r="M5" s="473">
-        <v>44386</v>
-      </c>
-      <c r="O5" s="444">
-        <v>99529</v>
-      </c>
-      <c r="P5" s="42">
-        <v>6413</v>
-      </c>
-      <c r="Q5" s="492">
-        <v>44414</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A6" s="495">
-        <v>44356</v>
-      </c>
-      <c r="B6" s="41">
-        <f>10230+150+75440</f>
-        <v>85820</v>
-      </c>
-      <c r="C6" s="42">
-        <v>2701</v>
-      </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="503">
-        <v>-8801</v>
-      </c>
-      <c r="F6" s="500"/>
-      <c r="H6" s="444">
-        <v>112352</v>
-      </c>
-      <c r="I6" s="456">
-        <f>19938+722.5</f>
-        <v>20660.5</v>
-      </c>
-      <c r="J6" s="496">
-        <v>44381</v>
-      </c>
-      <c r="K6" s="496"/>
-      <c r="L6" s="480">
-        <v>183700</v>
-      </c>
-      <c r="M6" s="473">
-        <v>44386</v>
-      </c>
-      <c r="O6" s="444">
-        <v>102761</v>
-      </c>
-      <c r="P6" s="42">
-        <v>20901</v>
-      </c>
-      <c r="Q6" s="492">
-        <v>44415</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="495">
-        <v>44357</v>
-      </c>
-      <c r="B7" s="41">
-        <v>0</v>
-      </c>
-      <c r="C7" s="42">
-        <v>5129</v>
-      </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="503">
-        <v>-121552</v>
-      </c>
-      <c r="F7" s="500"/>
-      <c r="H7" s="444">
-        <v>100005</v>
-      </c>
-      <c r="I7" s="334">
-        <v>22327</v>
-      </c>
-      <c r="J7" s="496">
-        <v>44382</v>
-      </c>
-      <c r="K7" s="496"/>
-      <c r="L7" s="481">
-        <v>329090</v>
-      </c>
-      <c r="M7" s="474">
-        <v>44389</v>
-      </c>
-      <c r="O7" s="444">
-        <v>93959</v>
-      </c>
-      <c r="P7" s="42">
-        <v>15183</v>
-      </c>
-      <c r="Q7" s="492">
-        <v>44416</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A8" s="495">
-        <v>44358</v>
-      </c>
-      <c r="B8" s="41">
-        <v>181550</v>
-      </c>
-      <c r="C8" s="42">
-        <v>8193</v>
-      </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="504">
-        <v>3855</v>
-      </c>
-      <c r="F8" s="500"/>
-      <c r="H8" s="444">
-        <v>89170</v>
-      </c>
-      <c r="I8" s="334">
-        <v>34565</v>
-      </c>
-      <c r="J8" s="496">
-        <v>44383</v>
-      </c>
-      <c r="K8" s="496"/>
-      <c r="L8" s="482">
-        <v>174070</v>
-      </c>
-      <c r="M8" s="474">
-        <v>44392</v>
-      </c>
-      <c r="O8" s="444">
-        <v>130377</v>
-      </c>
-      <c r="P8" s="42">
-        <v>5385</v>
-      </c>
-      <c r="Q8" s="492">
-        <v>44417</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A9" s="495">
-        <v>44359</v>
-      </c>
-      <c r="B9" s="41">
-        <v>325340</v>
-      </c>
-      <c r="C9" s="42">
-        <v>10601</v>
-      </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="504">
-        <v>177657</v>
-      </c>
-      <c r="F9" s="500"/>
-      <c r="H9" s="444">
-        <v>60712</v>
-      </c>
-      <c r="I9" s="334">
-        <v>53011</v>
-      </c>
-      <c r="J9" s="496">
-        <v>44384</v>
-      </c>
-      <c r="K9" s="496"/>
-      <c r="L9" s="482">
-        <v>339360</v>
-      </c>
-      <c r="M9" s="473">
-        <v>44396</v>
-      </c>
-      <c r="O9" s="444">
-        <v>108147</v>
-      </c>
-      <c r="P9" s="42">
-        <v>4381</v>
-      </c>
-      <c r="Q9" s="492">
-        <v>44418</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A10" s="495">
-        <v>44360</v>
-      </c>
-      <c r="B10" s="41">
-        <v>82350</v>
-      </c>
-      <c r="C10" s="42">
-        <v>9369</v>
-      </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="503">
-        <v>-6019</v>
-      </c>
-      <c r="F10" s="500"/>
-      <c r="H10" s="444">
-        <v>62018</v>
-      </c>
-      <c r="I10" s="456">
-        <f>29872+165</f>
-        <v>30037</v>
-      </c>
-      <c r="J10" s="496">
-        <v>44385</v>
-      </c>
-      <c r="K10" s="496"/>
-      <c r="L10" s="482">
-        <v>260000</v>
-      </c>
-      <c r="M10" s="473">
-        <v>44398</v>
-      </c>
-      <c r="O10" s="444">
-        <v>66279</v>
-      </c>
-      <c r="P10" s="489">
-        <f>3982+457+894+4046+135</f>
-        <v>9514</v>
-      </c>
-      <c r="Q10" s="492">
-        <v>44419</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A11" s="495">
-        <v>44361</v>
-      </c>
-      <c r="B11" s="41">
-        <v>132090</v>
-      </c>
-      <c r="C11" s="42">
-        <v>3080</v>
-      </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="503">
-        <v>-9007</v>
-      </c>
-      <c r="F11" s="500"/>
-      <c r="H11" s="444">
-        <v>105176</v>
-      </c>
-      <c r="I11" s="456">
-        <f>28270+3975</f>
-        <v>32245</v>
-      </c>
-      <c r="J11" s="496">
-        <v>44386</v>
-      </c>
-      <c r="K11" s="496"/>
-      <c r="L11" s="482">
-        <v>313100</v>
-      </c>
-      <c r="M11" s="473">
-        <v>44400</v>
-      </c>
-      <c r="O11" s="444">
-        <v>99618</v>
-      </c>
-      <c r="P11" s="42">
-        <v>6749</v>
-      </c>
-      <c r="Q11" s="492">
-        <v>44420</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A12" s="495">
-        <v>44362</v>
-      </c>
-      <c r="B12" s="41">
-        <f>3060+2203+84946</f>
-        <v>90209</v>
-      </c>
-      <c r="C12" s="42">
-        <v>8328</v>
-      </c>
-      <c r="D12" s="396" t="s">
-        <v>608</v>
-      </c>
-      <c r="E12" s="118">
-        <v>0</v>
-      </c>
-      <c r="F12" s="500"/>
-      <c r="H12" s="444">
-        <v>121085.38</v>
-      </c>
-      <c r="I12" s="334">
-        <v>76989</v>
-      </c>
-      <c r="J12" s="496">
-        <v>44387</v>
-      </c>
-      <c r="K12" s="496"/>
-      <c r="L12" s="482">
-        <v>460570</v>
-      </c>
-      <c r="M12" s="473">
-        <v>44403</v>
-      </c>
-      <c r="O12" s="444">
-        <v>99884</v>
-      </c>
-      <c r="P12" s="42">
-        <v>8240</v>
-      </c>
-      <c r="Q12" s="492">
-        <v>44421</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A13" s="495">
-        <v>44363</v>
-      </c>
-      <c r="B13" s="41">
-        <f>150+91494</f>
-        <v>91644</v>
-      </c>
-      <c r="C13" s="42">
-        <v>6703</v>
-      </c>
-      <c r="D13" s="395" t="s">
-        <v>609</v>
-      </c>
-      <c r="E13" s="503">
-        <v>-5099</v>
-      </c>
-      <c r="F13" s="500"/>
-      <c r="H13" s="444">
-        <v>107856</v>
-      </c>
-      <c r="I13" s="334">
-        <f>30266</f>
-        <v>30266</v>
-      </c>
-      <c r="J13" s="496">
-        <v>44388</v>
-      </c>
-      <c r="K13" s="496"/>
-      <c r="L13" s="483">
-        <v>415730</v>
-      </c>
-      <c r="M13" s="475">
-        <v>44407</v>
-      </c>
-      <c r="O13" s="444">
-        <v>150946.09</v>
-      </c>
-      <c r="P13" s="42">
-        <v>11274</v>
-      </c>
-      <c r="Q13" s="492">
-        <v>44422</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A14" s="495">
-        <v>44364</v>
-      </c>
-      <c r="B14" s="41">
-        <v>120000</v>
-      </c>
-      <c r="C14" s="401">
-        <v>8236</v>
-      </c>
-      <c r="D14" s="7"/>
-      <c r="E14" s="503">
-        <v>-17820</v>
-      </c>
-      <c r="F14" s="500"/>
-      <c r="H14" s="444">
-        <v>102720</v>
-      </c>
-      <c r="I14" s="334">
-        <v>23039</v>
-      </c>
-      <c r="J14" s="496">
-        <v>44389</v>
-      </c>
-      <c r="K14" s="496"/>
-      <c r="L14" s="483">
-        <v>295640</v>
-      </c>
-      <c r="M14" s="473">
-        <v>44410</v>
-      </c>
-      <c r="O14" s="444">
-        <v>136098</v>
-      </c>
-      <c r="P14" s="42">
-        <v>6485</v>
-      </c>
-      <c r="Q14" s="492">
-        <v>44423</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="495">
-        <v>44365</v>
-      </c>
-      <c r="B15" s="368">
-        <v>164450</v>
-      </c>
-      <c r="C15" s="7">
-        <v>11121</v>
-      </c>
-      <c r="D15" s="7"/>
-      <c r="E15" s="504">
-        <v>32802</v>
-      </c>
-      <c r="F15" s="500"/>
-      <c r="H15" s="444">
-        <v>72351</v>
-      </c>
-      <c r="I15" s="334">
-        <v>10864</v>
-      </c>
-      <c r="J15" s="496">
-        <v>44390</v>
-      </c>
-      <c r="K15" s="496"/>
-      <c r="L15" s="488">
-        <v>290470</v>
-      </c>
-      <c r="M15" s="473">
-        <v>44414</v>
-      </c>
-      <c r="O15" s="444">
-        <v>117971</v>
-      </c>
-      <c r="P15" s="489">
-        <f>6260+105</f>
-        <v>6365</v>
-      </c>
-      <c r="Q15" s="492">
-        <v>44424</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A16" s="495">
-        <v>44366</v>
-      </c>
-      <c r="B16" s="41">
-        <f>12964+274260</f>
-        <v>287224</v>
-      </c>
-      <c r="C16" s="402">
-        <v>12247</v>
-      </c>
-      <c r="D16" s="7"/>
-      <c r="E16" s="504">
-        <v>56840</v>
-      </c>
-      <c r="F16" s="500"/>
-      <c r="H16" s="444">
-        <v>59954</v>
-      </c>
-      <c r="I16" s="334">
-        <v>18445</v>
-      </c>
-      <c r="J16" s="496">
-        <v>44391</v>
-      </c>
-      <c r="K16" s="496"/>
-      <c r="L16" s="590">
-        <f>SUM(L4:L15)</f>
-        <v>3606750</v>
-      </c>
-      <c r="M16" s="476"/>
-      <c r="O16" s="444">
-        <v>67370</v>
-      </c>
-      <c r="P16" s="42">
-        <v>11112</v>
-      </c>
-      <c r="Q16" s="492">
-        <v>44425</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="495">
-        <v>44367</v>
-      </c>
-      <c r="B17" s="399">
-        <v>167190</v>
-      </c>
-      <c r="C17" s="42">
-        <v>12780</v>
-      </c>
-      <c r="D17" s="7"/>
-      <c r="E17" s="503">
-        <v>-23695</v>
-      </c>
-      <c r="F17" s="500"/>
-      <c r="H17" s="444">
-        <v>126617</v>
-      </c>
-      <c r="I17" s="456">
-        <f>6334+120+18676</f>
-        <v>25130</v>
-      </c>
-      <c r="J17" s="496">
-        <v>44392</v>
-      </c>
-      <c r="K17" s="496"/>
-      <c r="L17" s="591"/>
-      <c r="M17" s="476"/>
-      <c r="O17" s="444">
-        <v>0</v>
-      </c>
-      <c r="P17" s="42">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="492">
-        <v>44426</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="495">
-        <v>44368</v>
-      </c>
-      <c r="B18" s="41">
-        <v>0</v>
-      </c>
-      <c r="C18" s="42">
-        <v>3622</v>
-      </c>
-      <c r="D18" s="7"/>
-      <c r="E18" s="503">
-        <v>-83398</v>
-      </c>
-      <c r="F18" s="500"/>
-      <c r="H18" s="444">
-        <v>143221</v>
-      </c>
-      <c r="I18" s="334">
-        <v>10616</v>
-      </c>
-      <c r="J18" s="496">
-        <v>44393</v>
-      </c>
-      <c r="K18" s="496"/>
-      <c r="L18" s="478"/>
-      <c r="M18" s="42"/>
-      <c r="O18" s="444">
-        <v>0</v>
-      </c>
-      <c r="P18" s="42">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="392"/>
-    </row>
-    <row r="19" spans="1:17" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="495">
-        <v>44369</v>
-      </c>
-      <c r="B19" s="41">
-        <f>45+1710</f>
-        <v>1755</v>
-      </c>
-      <c r="C19" s="42">
-        <v>3669</v>
-      </c>
-      <c r="D19" s="7"/>
-      <c r="E19" s="503">
-        <v>-91227</v>
-      </c>
-      <c r="F19" s="500"/>
-      <c r="H19" s="444">
-        <v>196142</v>
-      </c>
-      <c r="I19" s="334">
-        <v>21841</v>
-      </c>
-      <c r="J19" s="496">
-        <v>44394</v>
-      </c>
-      <c r="K19" s="496"/>
-      <c r="L19" s="592" t="s">
-        <v>719</v>
-      </c>
-      <c r="M19" s="593"/>
-      <c r="O19" s="444">
-        <v>0</v>
-      </c>
-      <c r="P19" s="42">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="392"/>
-    </row>
-    <row r="20" spans="1:17" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="495">
-        <v>44370</v>
-      </c>
-      <c r="B20" s="41">
-        <v>135</v>
-      </c>
-      <c r="C20" s="42">
-        <v>6518</v>
-      </c>
-      <c r="D20" s="7"/>
-      <c r="E20" s="503">
-        <v>-87086</v>
-      </c>
-      <c r="F20" s="500"/>
-      <c r="H20" s="444">
-        <v>107487</v>
-      </c>
-      <c r="I20" s="334">
-        <v>10460</v>
-      </c>
-      <c r="J20" s="496">
-        <v>44395</v>
-      </c>
-      <c r="K20" s="496"/>
-      <c r="L20" s="41"/>
-      <c r="M20" s="42"/>
-      <c r="O20" s="444">
-        <v>0</v>
-      </c>
-      <c r="P20" s="42">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="392"/>
-    </row>
-    <row r="21" spans="1:17" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="495">
-        <v>44371</v>
-      </c>
-      <c r="B21" s="399">
-        <v>81200</v>
-      </c>
-      <c r="C21" s="42">
-        <v>8632</v>
-      </c>
-      <c r="D21" s="7"/>
-      <c r="E21" s="504">
-        <v>1077</v>
-      </c>
-      <c r="F21" s="500"/>
-      <c r="H21" s="444">
-        <v>106168.82</v>
-      </c>
-      <c r="I21" s="456">
-        <f>1512+6398</f>
-        <v>7910</v>
-      </c>
-      <c r="J21" s="496">
-        <v>44396</v>
-      </c>
-      <c r="K21" s="496"/>
-      <c r="L21" s="624">
-        <f>L16-H37</f>
-        <v>-383122.2200000002</v>
-      </c>
-      <c r="M21" s="625"/>
-      <c r="O21" s="444">
-        <v>0</v>
-      </c>
-      <c r="P21" s="42">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="392"/>
-    </row>
-    <row r="22" spans="1:17" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="495">
-        <v>44372</v>
-      </c>
-      <c r="B22" s="41">
-        <v>152531</v>
-      </c>
-      <c r="C22" s="42">
-        <v>5864</v>
-      </c>
-      <c r="D22" s="7"/>
-      <c r="E22" s="118">
-        <v>0</v>
-      </c>
-      <c r="F22" s="500"/>
-      <c r="H22" s="444">
-        <v>98612</v>
-      </c>
-      <c r="I22" s="334">
-        <v>6840</v>
-      </c>
-      <c r="J22" s="496">
-        <v>44397</v>
-      </c>
-      <c r="K22" s="496"/>
-      <c r="L22" s="626"/>
-      <c r="M22" s="627"/>
-      <c r="O22" s="444">
-        <v>0</v>
-      </c>
-      <c r="P22" s="42">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="392"/>
-    </row>
-    <row r="23" spans="1:17" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="495">
-        <v>44373</v>
-      </c>
-      <c r="B23" s="41">
-        <v>127951</v>
-      </c>
-      <c r="C23" s="42">
-        <v>3550</v>
-      </c>
-      <c r="D23" s="7"/>
-      <c r="E23" s="118">
-        <v>0</v>
-      </c>
-      <c r="F23" s="500"/>
-      <c r="H23" s="444">
-        <v>132205</v>
-      </c>
-      <c r="I23" s="334">
-        <v>4843</v>
-      </c>
-      <c r="J23" s="496">
-        <v>44398</v>
-      </c>
-      <c r="K23" s="496"/>
-      <c r="L23" s="496"/>
-      <c r="O23" s="444">
-        <v>0</v>
-      </c>
-      <c r="P23" s="42">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="392"/>
-    </row>
-    <row r="24" spans="1:17" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="495">
-        <v>44374</v>
-      </c>
-      <c r="B24" s="399">
-        <v>137820</v>
-      </c>
-      <c r="C24" s="42">
-        <v>7873</v>
-      </c>
-      <c r="D24" s="7"/>
-      <c r="E24" s="503">
-        <v>-787</v>
-      </c>
-      <c r="F24" s="500"/>
-      <c r="H24" s="444">
-        <v>77581</v>
-      </c>
-      <c r="I24" s="456">
-        <f>8000+14435</f>
-        <v>22435</v>
-      </c>
-      <c r="J24" s="496">
-        <v>44399</v>
-      </c>
-      <c r="K24" s="496"/>
-      <c r="L24" s="496"/>
-      <c r="O24" s="444">
-        <v>0</v>
-      </c>
-      <c r="P24" s="42">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="392"/>
-    </row>
-    <row r="25" spans="1:17" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="495">
-        <v>44375</v>
-      </c>
-      <c r="B25" s="41">
-        <v>209600</v>
-      </c>
-      <c r="C25" s="42">
-        <v>4664</v>
-      </c>
-      <c r="D25" s="7"/>
-      <c r="E25" s="504">
-        <v>102120</v>
-      </c>
-      <c r="F25" s="500"/>
-      <c r="H25" s="444">
-        <v>158574</v>
-      </c>
-      <c r="I25" s="334">
-        <v>6232</v>
-      </c>
-      <c r="J25" s="496">
-        <v>44400</v>
-      </c>
-      <c r="K25" s="496"/>
-      <c r="L25" s="496"/>
-      <c r="O25" s="444">
-        <v>0</v>
-      </c>
-      <c r="P25" s="42">
-        <v>0</v>
-      </c>
-      <c r="Q25" s="392"/>
-    </row>
-    <row r="26" spans="1:17" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="495">
-        <v>44376</v>
-      </c>
-      <c r="B26" s="41">
-        <v>75870</v>
-      </c>
-      <c r="C26" s="333">
-        <v>6888</v>
-      </c>
-      <c r="D26" s="7"/>
-      <c r="E26" s="503">
-        <v>-2024</v>
-      </c>
-      <c r="F26" s="500"/>
-      <c r="H26" s="444">
-        <v>232014.24</v>
-      </c>
-      <c r="I26" s="334">
-        <v>7988</v>
-      </c>
-      <c r="J26" s="496">
-        <v>44401</v>
-      </c>
-      <c r="K26" s="496"/>
-      <c r="L26" s="496"/>
-      <c r="O26" s="444">
-        <v>0</v>
-      </c>
-      <c r="P26" s="42">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="392"/>
-    </row>
-    <row r="27" spans="1:17" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="495">
-        <v>44377</v>
-      </c>
-      <c r="B27" s="41">
-        <v>125407</v>
-      </c>
-      <c r="C27" s="333">
-        <v>2918</v>
-      </c>
-      <c r="D27" s="7"/>
-      <c r="E27" s="118">
-        <v>0</v>
-      </c>
-      <c r="F27" s="500"/>
-      <c r="H27" s="444">
-        <v>168806</v>
-      </c>
-      <c r="I27" s="334">
-        <v>4221</v>
-      </c>
-      <c r="J27" s="496">
-        <v>44402</v>
-      </c>
-      <c r="K27" s="496"/>
-      <c r="L27" s="496"/>
-      <c r="O27" s="444">
-        <v>0</v>
-      </c>
-      <c r="P27" s="42">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="392"/>
-    </row>
-    <row r="28" spans="1:17" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="495"/>
-      <c r="B28" s="41">
-        <v>0</v>
-      </c>
-      <c r="C28" s="333">
-        <v>0</v>
-      </c>
-      <c r="D28" s="7"/>
-      <c r="E28" s="118">
-        <v>0</v>
-      </c>
-      <c r="F28" s="500"/>
-      <c r="H28" s="444">
-        <v>79889</v>
-      </c>
-      <c r="I28" s="456">
-        <f>3700+3309+3748</f>
-        <v>10757</v>
-      </c>
-      <c r="J28" s="496">
-        <v>44403</v>
-      </c>
-      <c r="K28" s="496"/>
-      <c r="L28" s="496"/>
-      <c r="O28" s="444">
-        <v>0</v>
-      </c>
-      <c r="P28" s="42">
-        <v>0</v>
-      </c>
-      <c r="Q28" s="392"/>
-    </row>
-    <row r="29" spans="1:17" ht="17.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="495"/>
-      <c r="B29" s="41">
-        <v>0</v>
-      </c>
-      <c r="C29" s="333">
-        <v>0</v>
-      </c>
-      <c r="D29" s="7"/>
-      <c r="E29" s="501">
-        <f>SUM(E4:E28)</f>
-        <v>-163726</v>
-      </c>
-      <c r="F29" s="502"/>
-      <c r="H29" s="444">
-        <v>67572</v>
-      </c>
-      <c r="I29" s="334">
-        <v>3689</v>
-      </c>
-      <c r="J29" s="496">
-        <v>44404</v>
-      </c>
-      <c r="K29" s="496"/>
-      <c r="L29" s="496"/>
-      <c r="O29" s="444">
-        <v>0</v>
-      </c>
-      <c r="P29" s="42">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="392"/>
-    </row>
-    <row r="30" spans="1:17" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="495"/>
-      <c r="B30" s="41">
-        <v>0</v>
-      </c>
-      <c r="C30" s="333">
-        <v>0</v>
-      </c>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="H30" s="444">
-        <v>99506.39</v>
-      </c>
-      <c r="I30" s="334">
-        <v>7245</v>
-      </c>
-      <c r="J30" s="496">
-        <v>44405</v>
-      </c>
-      <c r="K30" s="496"/>
-      <c r="L30" s="496"/>
-      <c r="O30" s="444">
-        <v>0</v>
-      </c>
-      <c r="P30" s="42">
-        <v>0</v>
-      </c>
-      <c r="Q30" s="392"/>
-    </row>
-    <row r="31" spans="1:17" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H31" s="444">
-        <v>98280.71</v>
-      </c>
-      <c r="I31" s="334">
-        <v>4996</v>
-      </c>
-      <c r="J31" s="496">
-        <v>44406</v>
-      </c>
-      <c r="K31" s="496"/>
-      <c r="L31" s="496"/>
-      <c r="O31" s="444">
-        <v>0</v>
-      </c>
-      <c r="P31" s="42">
-        <v>0</v>
-      </c>
-      <c r="Q31" s="392"/>
-    </row>
-    <row r="32" spans="1:17" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H32" s="444">
-        <v>197380</v>
-      </c>
-      <c r="I32" s="334">
-        <v>11259</v>
-      </c>
-      <c r="J32" s="496">
-        <v>44407</v>
-      </c>
-      <c r="K32" s="496"/>
-      <c r="L32" s="496"/>
-      <c r="O32" s="444">
-        <v>0</v>
-      </c>
-      <c r="P32" s="42">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="392"/>
-    </row>
-    <row r="33" spans="7:17" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H33" s="444">
-        <v>173618.5</v>
-      </c>
-      <c r="I33" s="334">
-        <v>6530</v>
-      </c>
-      <c r="J33" s="496">
-        <v>44408</v>
-      </c>
-      <c r="K33" s="496"/>
-      <c r="L33" s="496"/>
-      <c r="O33" s="444">
-        <v>0</v>
-      </c>
-      <c r="P33" s="42">
-        <v>0</v>
-      </c>
-      <c r="Q33" s="392"/>
-    </row>
-    <row r="34" spans="7:17" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H34" s="470">
-        <v>129489</v>
-      </c>
-      <c r="I34" s="334">
-        <v>17114</v>
-      </c>
-      <c r="J34" s="496">
-        <v>44409</v>
-      </c>
-      <c r="K34" s="496"/>
-      <c r="L34" s="496"/>
-      <c r="O34" s="444">
-        <v>0</v>
-      </c>
-      <c r="P34" s="42">
-        <v>0</v>
-      </c>
-      <c r="Q34" s="392"/>
-    </row>
-    <row r="35" spans="7:17" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H35" s="484">
-        <v>52350</v>
-      </c>
-      <c r="I35" s="456">
-        <f>6476+45</f>
-        <v>6521</v>
-      </c>
-      <c r="J35" s="496">
-        <v>44410</v>
-      </c>
-      <c r="K35" s="496"/>
-      <c r="L35" s="496"/>
-      <c r="O35" s="444">
-        <v>0</v>
-      </c>
-      <c r="P35" s="42">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="392"/>
-    </row>
-    <row r="36" spans="7:17" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H36" s="485">
-        <v>185490</v>
-      </c>
-      <c r="I36" s="486">
-        <v>24490</v>
-      </c>
-      <c r="J36" s="496">
-        <v>44411</v>
-      </c>
-      <c r="K36" s="496"/>
-      <c r="L36" s="496"/>
-      <c r="O36" s="444">
-        <v>0</v>
-      </c>
-      <c r="P36" s="42">
-        <v>0</v>
-      </c>
-      <c r="Q36" s="392"/>
-    </row>
-    <row r="37" spans="7:17" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="H37" s="598">
-        <f>SUM(H3:H36)</f>
-        <v>3989872.22</v>
-      </c>
-      <c r="I37" s="600">
-        <f>SUM(I3:I36)</f>
-        <v>688820.5</v>
-      </c>
-      <c r="J37" s="496"/>
-      <c r="K37" s="496"/>
-      <c r="L37" s="496"/>
-      <c r="O37" s="598">
-        <f>SUM(O3:O36)</f>
-        <v>1464800.09</v>
-      </c>
-      <c r="P37" s="600">
-        <f>SUM(P3:P36)</f>
-        <v>121896</v>
-      </c>
-      <c r="Q37" s="392"/>
-    </row>
-    <row r="38" spans="7:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H38" s="599"/>
-      <c r="I38" s="601"/>
-      <c r="J38" s="496"/>
-      <c r="K38" s="496"/>
-      <c r="L38" s="496"/>
-      <c r="O38" s="599"/>
-      <c r="P38" s="601"/>
-      <c r="Q38" s="392"/>
-    </row>
-    <row r="39" spans="7:17" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="H39" s="7"/>
-      <c r="I39" s="7"/>
-      <c r="O39" s="7"/>
-      <c r="P39" s="7"/>
-      <c r="Q39" s="392"/>
-    </row>
-    <row r="40" spans="7:17" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G40" s="272"/>
-      <c r="H40" s="633"/>
-      <c r="I40" s="633"/>
-      <c r="O40" s="602" t="s">
-        <v>567</v>
-      </c>
-      <c r="P40" s="602"/>
-      <c r="Q40" s="392"/>
-    </row>
-    <row r="41" spans="7:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G41" s="272"/>
-      <c r="H41" s="505"/>
-      <c r="I41" s="475"/>
-      <c r="O41" s="479">
-        <v>4046</v>
-      </c>
-      <c r="P41" s="473">
-        <v>44410</v>
-      </c>
-      <c r="Q41" s="366"/>
-    </row>
-    <row r="42" spans="7:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G42" s="272"/>
-      <c r="H42" s="392"/>
-      <c r="I42" s="475"/>
-      <c r="O42" s="480">
-        <v>457</v>
-      </c>
-      <c r="P42" s="473">
-        <v>44417</v>
-      </c>
-      <c r="Q42" s="366"/>
-    </row>
-    <row r="43" spans="7:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G43" s="272"/>
-      <c r="H43" s="392"/>
-      <c r="I43" s="475"/>
-      <c r="O43" s="480">
-        <v>135</v>
-      </c>
-      <c r="P43" s="473">
-        <v>44417</v>
-      </c>
-      <c r="Q43" s="366"/>
-    </row>
-    <row r="44" spans="7:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G44" s="272"/>
-      <c r="H44" s="392"/>
-      <c r="I44" s="475"/>
-      <c r="O44" s="481">
-        <v>330120</v>
-      </c>
-      <c r="P44" s="474">
-        <v>44417</v>
-      </c>
-      <c r="Q44" s="366"/>
-    </row>
-    <row r="45" spans="7:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G45" s="272"/>
-      <c r="H45" s="392"/>
-      <c r="I45" s="475"/>
-      <c r="O45" s="482">
-        <v>894</v>
-      </c>
-      <c r="P45" s="474">
-        <v>44418</v>
-      </c>
-      <c r="Q45" s="366"/>
-    </row>
-    <row r="46" spans="7:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G46" s="272"/>
-      <c r="H46" s="392"/>
-      <c r="I46" s="475"/>
-      <c r="O46" s="482">
-        <v>300000</v>
-      </c>
-      <c r="P46" s="473">
-        <v>44419</v>
-      </c>
-      <c r="Q46" s="366"/>
-    </row>
-    <row r="47" spans="7:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G47" s="272"/>
-      <c r="H47" s="392"/>
-      <c r="I47" s="475"/>
-      <c r="O47" s="482">
-        <v>324890</v>
-      </c>
-      <c r="P47" s="473">
-        <v>44421</v>
-      </c>
-      <c r="Q47" s="366"/>
-    </row>
-    <row r="48" spans="7:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G48" s="272"/>
-      <c r="H48" s="392"/>
-      <c r="I48" s="475"/>
-      <c r="O48" s="482">
-        <v>159870</v>
-      </c>
-      <c r="P48" s="473">
-        <v>44424</v>
-      </c>
-      <c r="Q48" s="366"/>
-    </row>
-    <row r="49" spans="7:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G49" s="272"/>
-      <c r="H49" s="392"/>
-      <c r="I49" s="475"/>
-      <c r="O49" s="482">
-        <v>105</v>
-      </c>
-      <c r="P49" s="473">
-        <v>44424</v>
-      </c>
-      <c r="Q49" s="366"/>
-    </row>
-    <row r="50" spans="7:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G50" s="272"/>
-      <c r="H50" s="392"/>
-      <c r="I50" s="475"/>
-      <c r="O50" s="482">
-        <v>384800</v>
-      </c>
-      <c r="P50" s="473">
-        <v>44426</v>
-      </c>
-      <c r="Q50" s="366"/>
-    </row>
-    <row r="51" spans="7:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G51" s="272"/>
-      <c r="H51" s="392"/>
-      <c r="I51" s="475"/>
-      <c r="O51" s="483">
-        <v>177370</v>
-      </c>
-      <c r="P51" s="475">
-        <v>44427</v>
-      </c>
-      <c r="Q51" s="392"/>
-    </row>
-    <row r="52" spans="7:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G52" s="272"/>
-      <c r="H52" s="392"/>
-      <c r="I52" s="475"/>
-      <c r="O52" s="477">
-        <v>0</v>
-      </c>
-      <c r="P52" s="42"/>
-      <c r="Q52" s="392"/>
-    </row>
-    <row r="53" spans="7:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G53" s="272"/>
-      <c r="H53" s="634"/>
-      <c r="I53" s="7"/>
-      <c r="O53" s="590">
-        <f>SUM(O41:O52)</f>
-        <v>1682687</v>
-      </c>
-      <c r="P53" s="476"/>
-      <c r="Q53" s="392"/>
-    </row>
-    <row r="54" spans="7:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G54" s="272"/>
-      <c r="H54" s="634"/>
-      <c r="I54" s="7"/>
-      <c r="O54" s="591"/>
-      <c r="P54" s="476"/>
-      <c r="Q54" s="392"/>
-    </row>
-    <row r="55" spans="7:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G55" s="272"/>
-      <c r="H55" s="7"/>
-      <c r="I55" s="7"/>
-      <c r="O55" s="478"/>
-      <c r="P55" s="42"/>
-      <c r="Q55" s="392"/>
-    </row>
-    <row r="56" spans="7:17" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="G56" s="272"/>
-      <c r="H56" s="633"/>
-      <c r="I56" s="633"/>
-      <c r="O56" s="592" t="s">
-        <v>719</v>
-      </c>
-      <c r="P56" s="593"/>
-      <c r="Q56" s="392"/>
-    </row>
-    <row r="57" spans="7:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G57" s="272"/>
-      <c r="H57" s="7"/>
-      <c r="I57" s="7"/>
-      <c r="O57" s="41"/>
-      <c r="P57" s="42"/>
-      <c r="Q57" s="392"/>
-    </row>
-    <row r="58" spans="7:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G58" s="272"/>
-      <c r="H58" s="632"/>
-      <c r="I58" s="632"/>
-      <c r="O58" s="493">
-        <f>O53-O37</f>
-        <v>217886.90999999992</v>
-      </c>
-      <c r="P58" s="494" t="s">
-        <v>727</v>
-      </c>
-      <c r="Q58" s="392"/>
-    </row>
-    <row r="59" spans="7:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G59" s="272"/>
-      <c r="H59" s="632"/>
-      <c r="I59" s="632"/>
-      <c r="O59" s="506">
-        <v>-383122.22</v>
-      </c>
-      <c r="P59" s="506" t="s">
-        <v>728</v>
-      </c>
-      <c r="Q59" s="392"/>
-    </row>
-    <row r="60" spans="7:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="G60" s="272"/>
-      <c r="H60" s="7"/>
-      <c r="I60" s="7"/>
-      <c r="O60" s="508">
-        <v>-163726</v>
-      </c>
-      <c r="P60" s="118" t="s">
-        <v>729</v>
-      </c>
-      <c r="Q60" s="392"/>
-    </row>
-    <row r="61" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="O61" s="509">
-        <v>0</v>
-      </c>
-      <c r="P61" s="507"/>
-    </row>
-    <row r="62" spans="7:17" ht="21" x14ac:dyDescent="0.35">
-      <c r="O62" s="628">
-        <f>SUM(O58:O61)</f>
-        <v>-328961.31000000006</v>
-      </c>
-      <c r="P62" s="629"/>
-    </row>
-  </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="H58:I59"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="O37:O38"/>
-    <mergeCell ref="P37:P38"/>
-    <mergeCell ref="O40:P40"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="I37:I38"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="H53:H54"/>
-    <mergeCell ref="H56:I56"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="L16:L17"/>
-    <mergeCell ref="O53:O54"/>
-    <mergeCell ref="O56:P56"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="L21:M22"/>
-    <mergeCell ref="O62:P62"/>
-  </mergeCells>
-  <pageMargins left="0.37" right="0.13" top="0.43" bottom="0.27" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -36566,10 +35094,10 @@
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
-  <dimension ref="A41:G61"/>
+  <dimension ref="A38:G55"/>
   <sheetViews>
-    <sheetView topLeftCell="A38" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E47" sqref="E47"/>
+    <sheetView topLeftCell="A36" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E65" sqref="E65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -36577,67 +35105,175 @@
     <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="41" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="45" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="32"/>
-      <c r="B45" s="635" t="s">
+    <row r="38" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="39" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="32"/>
+      <c r="B39" s="635" t="s">
         <v>32</v>
       </c>
-      <c r="C45" s="636"/>
-      <c r="D45" s="636"/>
-      <c r="E45" s="637"/>
-      <c r="F45" s="4"/>
-    </row>
-    <row r="46" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="19">
-        <v>44430</v>
-      </c>
+      <c r="C39" s="636"/>
+      <c r="D39" s="636"/>
+      <c r="E39" s="637"/>
+      <c r="F39" s="4"/>
+    </row>
+    <row r="40" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="19">
+        <v>44438</v>
+      </c>
+      <c r="B40" s="196" t="s">
+        <v>806</v>
+      </c>
+      <c r="C40" s="197">
+        <v>166.04</v>
+      </c>
+      <c r="D40" s="198" t="s">
+        <v>33</v>
+      </c>
+      <c r="E40" s="199" t="s">
+        <v>807</v>
+      </c>
+      <c r="F40" s="72">
+        <v>123</v>
+      </c>
+      <c r="G40" s="469"/>
+    </row>
+    <row r="41" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="19">
+        <v>44438</v>
+      </c>
+      <c r="B41" s="196" t="s">
+        <v>808</v>
+      </c>
+      <c r="C41" s="197">
+        <v>249.06</v>
+      </c>
+      <c r="D41" s="200" t="s">
+        <v>33</v>
+      </c>
+      <c r="E41" s="199" t="s">
+        <v>809</v>
+      </c>
+      <c r="F41" s="72">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="19"/>
+      <c r="B42" s="196" t="s">
+        <v>611</v>
+      </c>
+      <c r="C42" s="197">
+        <v>0</v>
+      </c>
+      <c r="D42" s="200" t="s">
+        <v>33</v>
+      </c>
+      <c r="E42" s="199" t="s">
+        <v>611</v>
+      </c>
+      <c r="F42" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="19"/>
+      <c r="B43" s="196" t="s">
+        <v>611</v>
+      </c>
+      <c r="C43" s="197">
+        <v>0</v>
+      </c>
+      <c r="D43" s="200" t="s">
+        <v>33</v>
+      </c>
+      <c r="E43" s="199" t="s">
+        <v>611</v>
+      </c>
+      <c r="F43" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="19"/>
+      <c r="B44" s="196" t="s">
+        <v>611</v>
+      </c>
+      <c r="C44" s="197">
+        <v>0</v>
+      </c>
+      <c r="D44" s="200" t="s">
+        <v>33</v>
+      </c>
+      <c r="E44" s="199" t="s">
+        <v>611</v>
+      </c>
+      <c r="F44" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="19"/>
+      <c r="B45" s="196" t="s">
+        <v>611</v>
+      </c>
+      <c r="C45" s="197">
+        <v>0</v>
+      </c>
+      <c r="D45" s="200" t="s">
+        <v>33</v>
+      </c>
+      <c r="E45" s="199" t="s">
+        <v>611</v>
+      </c>
+      <c r="F45" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="19"/>
       <c r="B46" s="196" t="s">
-        <v>777</v>
+        <v>611</v>
       </c>
       <c r="C46" s="197">
-        <v>87.88</v>
-      </c>
-      <c r="D46" s="198" t="s">
+        <v>0</v>
+      </c>
+      <c r="D46" s="200" t="s">
         <v>33</v>
       </c>
       <c r="E46" s="199" t="s">
-        <v>778</v>
+        <v>611</v>
       </c>
       <c r="F46" s="72">
-        <v>164</v>
-      </c>
-      <c r="G46" s="469"/>
-    </row>
-    <row r="47" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="14.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="330"/>
       <c r="B47" s="196" t="s">
         <v>611</v>
       </c>
       <c r="C47" s="197">
         <v>0</v>
       </c>
-      <c r="D47" s="200" t="s">
+      <c r="D47" s="331" t="s">
         <v>33</v>
       </c>
       <c r="E47" s="199" t="s">
-        <v>779</v>
+        <v>611</v>
       </c>
       <c r="F47" s="72">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="19"/>
+    <row r="48" spans="1:7" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="329"/>
       <c r="B48" s="196" t="s">
         <v>611</v>
       </c>
       <c r="C48" s="197">
         <v>0</v>
       </c>
-      <c r="D48" s="200" t="s">
+      <c r="D48" s="198" t="s">
         <v>33</v>
       </c>
       <c r="E48" s="199" t="s">
@@ -36719,15 +35355,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="14.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="330"/>
+    <row r="53" spans="1:6" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="19"/>
       <c r="B53" s="196" t="s">
         <v>611</v>
       </c>
       <c r="C53" s="197">
         <v>0</v>
       </c>
-      <c r="D53" s="331" t="s">
+      <c r="D53" s="200" t="s">
         <v>33</v>
       </c>
       <c r="E53" s="199" t="s">
@@ -36738,14 +35374,14 @@
       </c>
     </row>
     <row r="54" spans="1:6" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="329"/>
+      <c r="A54" s="19"/>
       <c r="B54" s="196" t="s">
         <v>611</v>
       </c>
       <c r="C54" s="197">
         <v>0</v>
       </c>
-      <c r="D54" s="198" t="s">
+      <c r="D54" s="200" t="s">
         <v>33</v>
       </c>
       <c r="E54" s="199" t="s">
@@ -36755,116 +35391,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="19"/>
-      <c r="B55" s="196" t="s">
-        <v>611</v>
-      </c>
+    <row r="55" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="C55" s="197">
-        <v>0</v>
-      </c>
-      <c r="D55" s="200" t="s">
-        <v>33</v>
-      </c>
-      <c r="E55" s="199" t="s">
-        <v>611</v>
-      </c>
-      <c r="F55" s="72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="19"/>
-      <c r="B56" s="196" t="s">
-        <v>611</v>
-      </c>
-      <c r="C56" s="197">
-        <v>0</v>
-      </c>
-      <c r="D56" s="200" t="s">
-        <v>33</v>
-      </c>
-      <c r="E56" s="199" t="s">
-        <v>611</v>
-      </c>
-      <c r="F56" s="72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="19"/>
-      <c r="B57" s="196" t="s">
-        <v>611</v>
-      </c>
-      <c r="C57" s="197">
-        <v>0</v>
-      </c>
-      <c r="D57" s="200" t="s">
-        <v>33</v>
-      </c>
-      <c r="E57" s="199" t="s">
-        <v>611</v>
-      </c>
-      <c r="F57" s="72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="19"/>
-      <c r="B58" s="196" t="s">
-        <v>611</v>
-      </c>
-      <c r="C58" s="197">
-        <v>0</v>
-      </c>
-      <c r="D58" s="200" t="s">
-        <v>33</v>
-      </c>
-      <c r="E58" s="199" t="s">
-        <v>611</v>
-      </c>
-      <c r="F58" s="72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="19"/>
-      <c r="B59" s="196" t="s">
-        <v>611</v>
-      </c>
-      <c r="C59" s="197">
-        <v>0</v>
-      </c>
-      <c r="D59" s="200" t="s">
-        <v>33</v>
-      </c>
-      <c r="E59" s="199" t="s">
-        <v>611</v>
-      </c>
-      <c r="F59" s="72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="19"/>
-      <c r="B60" s="196" t="s">
-        <v>611</v>
-      </c>
-      <c r="C60" s="197">
-        <v>0</v>
-      </c>
-      <c r="D60" s="200" t="s">
-        <v>33</v>
-      </c>
-      <c r="E60" s="199" t="s">
-        <v>611</v>
-      </c>
-      <c r="F60" s="72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C61" s="197">
         <v>0</v>
       </c>
     </row>
@@ -36873,7 +35401,7 @@
     <sortCondition ref="B45:B46"/>
   </sortState>
   <mergeCells count="1">
-    <mergeCell ref="B45:E45"/>
+    <mergeCell ref="B39:E39"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -37883,6 +36411,1584 @@
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
+    <tabColor rgb="FF00FF00"/>
+  </sheetPr>
+  <dimension ref="A1:Q62"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="O60" sqref="O60"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" style="204"/>
+    <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" customWidth="1"/>
+    <col min="4" max="4" width="6.28515625" customWidth="1"/>
+    <col min="5" max="5" width="26" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8" customWidth="1"/>
+    <col min="8" max="8" width="22.85546875" customWidth="1"/>
+    <col min="9" max="9" width="21" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" customWidth="1"/>
+    <col min="11" max="11" width="3" customWidth="1"/>
+    <col min="12" max="12" width="21.140625" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" customWidth="1"/>
+    <col min="15" max="15" width="22.85546875" customWidth="1"/>
+    <col min="16" max="16" width="18.5703125" customWidth="1"/>
+    <col min="17" max="17" width="17.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B1" s="625" t="s">
+        <v>726</v>
+      </c>
+      <c r="C1" s="625"/>
+      <c r="D1" s="625"/>
+      <c r="E1" s="625"/>
+      <c r="H1" s="628" t="s">
+        <v>726</v>
+      </c>
+      <c r="I1" s="628"/>
+      <c r="J1" s="628"/>
+      <c r="K1" s="205"/>
+      <c r="L1" s="205"/>
+      <c r="N1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" s="625" t="s">
+        <v>725</v>
+      </c>
+      <c r="P1" s="625"/>
+    </row>
+    <row r="2" spans="1:17" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="18"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="560" t="s">
+        <v>562</v>
+      </c>
+      <c r="F2" s="497"/>
+      <c r="H2" s="27" t="s">
+        <v>716</v>
+      </c>
+      <c r="I2" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="O2" s="27" t="s">
+        <v>716</v>
+      </c>
+      <c r="P2" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q2" s="99"/>
+    </row>
+    <row r="3" spans="1:17" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="27" t="s">
+        <v>717</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="365"/>
+      <c r="E3" s="560"/>
+      <c r="F3" s="497"/>
+      <c r="H3" s="444">
+        <v>126476.5</v>
+      </c>
+      <c r="I3" s="334">
+        <v>10456</v>
+      </c>
+      <c r="J3" s="496">
+        <v>44378</v>
+      </c>
+      <c r="K3" s="496"/>
+      <c r="L3" s="607" t="s">
+        <v>567</v>
+      </c>
+      <c r="M3" s="607"/>
+      <c r="O3" s="444">
+        <v>64006</v>
+      </c>
+      <c r="P3" s="42">
+        <v>6793</v>
+      </c>
+      <c r="Q3" s="492">
+        <v>44412</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A4" s="495">
+        <v>44354</v>
+      </c>
+      <c r="B4" s="41">
+        <v>0</v>
+      </c>
+      <c r="C4" s="42">
+        <v>2926</v>
+      </c>
+      <c r="D4" s="318" t="s">
+        <v>516</v>
+      </c>
+      <c r="E4" s="498">
+        <v>-79419</v>
+      </c>
+      <c r="F4" s="499"/>
+      <c r="H4" s="444">
+        <v>121188</v>
+      </c>
+      <c r="I4" s="334">
+        <v>43064</v>
+      </c>
+      <c r="J4" s="496">
+        <v>44379</v>
+      </c>
+      <c r="K4" s="496"/>
+      <c r="L4" s="479">
+        <v>341970</v>
+      </c>
+      <c r="M4" s="473">
+        <v>44382</v>
+      </c>
+      <c r="O4" s="444">
+        <v>127855</v>
+      </c>
+      <c r="P4" s="42">
+        <v>3101</v>
+      </c>
+      <c r="Q4" s="492">
+        <v>44413</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A5" s="495">
+        <v>44355</v>
+      </c>
+      <c r="B5" s="41">
+        <v>120000</v>
+      </c>
+      <c r="C5" s="42">
+        <v>20382</v>
+      </c>
+      <c r="D5" s="7"/>
+      <c r="E5" s="503">
+        <v>-2143</v>
+      </c>
+      <c r="F5" s="500"/>
+      <c r="H5" s="444">
+        <v>117804.68</v>
+      </c>
+      <c r="I5" s="334">
+        <v>61735</v>
+      </c>
+      <c r="J5" s="496">
+        <v>44380</v>
+      </c>
+      <c r="K5" s="496"/>
+      <c r="L5" s="480">
+        <v>203050</v>
+      </c>
+      <c r="M5" s="473">
+        <v>44386</v>
+      </c>
+      <c r="O5" s="444">
+        <v>99529</v>
+      </c>
+      <c r="P5" s="42">
+        <v>6413</v>
+      </c>
+      <c r="Q5" s="492">
+        <v>44414</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A6" s="495">
+        <v>44356</v>
+      </c>
+      <c r="B6" s="41">
+        <f>10230+150+75440</f>
+        <v>85820</v>
+      </c>
+      <c r="C6" s="42">
+        <v>2701</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="E6" s="503">
+        <v>-8801</v>
+      </c>
+      <c r="F6" s="500"/>
+      <c r="H6" s="444">
+        <v>112352</v>
+      </c>
+      <c r="I6" s="456">
+        <f>19938+722.5</f>
+        <v>20660.5</v>
+      </c>
+      <c r="J6" s="496">
+        <v>44381</v>
+      </c>
+      <c r="K6" s="496"/>
+      <c r="L6" s="480">
+        <v>183700</v>
+      </c>
+      <c r="M6" s="473">
+        <v>44386</v>
+      </c>
+      <c r="O6" s="444">
+        <v>102761</v>
+      </c>
+      <c r="P6" s="42">
+        <v>20901</v>
+      </c>
+      <c r="Q6" s="492">
+        <v>44415</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="495">
+        <v>44357</v>
+      </c>
+      <c r="B7" s="41">
+        <v>0</v>
+      </c>
+      <c r="C7" s="42">
+        <v>5129</v>
+      </c>
+      <c r="D7" s="7"/>
+      <c r="E7" s="503">
+        <v>-121552</v>
+      </c>
+      <c r="F7" s="500"/>
+      <c r="H7" s="444">
+        <v>100005</v>
+      </c>
+      <c r="I7" s="334">
+        <v>22327</v>
+      </c>
+      <c r="J7" s="496">
+        <v>44382</v>
+      </c>
+      <c r="K7" s="496"/>
+      <c r="L7" s="481">
+        <v>329090</v>
+      </c>
+      <c r="M7" s="474">
+        <v>44389</v>
+      </c>
+      <c r="O7" s="444">
+        <v>93959</v>
+      </c>
+      <c r="P7" s="42">
+        <v>15183</v>
+      </c>
+      <c r="Q7" s="492">
+        <v>44416</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A8" s="495">
+        <v>44358</v>
+      </c>
+      <c r="B8" s="41">
+        <v>181550</v>
+      </c>
+      <c r="C8" s="42">
+        <v>8193</v>
+      </c>
+      <c r="D8" s="7"/>
+      <c r="E8" s="504">
+        <v>3855</v>
+      </c>
+      <c r="F8" s="500"/>
+      <c r="H8" s="444">
+        <v>89170</v>
+      </c>
+      <c r="I8" s="334">
+        <v>34565</v>
+      </c>
+      <c r="J8" s="496">
+        <v>44383</v>
+      </c>
+      <c r="K8" s="496"/>
+      <c r="L8" s="482">
+        <v>174070</v>
+      </c>
+      <c r="M8" s="474">
+        <v>44392</v>
+      </c>
+      <c r="O8" s="444">
+        <v>130377</v>
+      </c>
+      <c r="P8" s="42">
+        <v>5385</v>
+      </c>
+      <c r="Q8" s="492">
+        <v>44417</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A9" s="495">
+        <v>44359</v>
+      </c>
+      <c r="B9" s="41">
+        <v>325340</v>
+      </c>
+      <c r="C9" s="42">
+        <v>10601</v>
+      </c>
+      <c r="D9" s="7"/>
+      <c r="E9" s="504">
+        <v>177657</v>
+      </c>
+      <c r="F9" s="500"/>
+      <c r="H9" s="444">
+        <v>60712</v>
+      </c>
+      <c r="I9" s="334">
+        <v>53011</v>
+      </c>
+      <c r="J9" s="496">
+        <v>44384</v>
+      </c>
+      <c r="K9" s="496"/>
+      <c r="L9" s="482">
+        <v>339360</v>
+      </c>
+      <c r="M9" s="473">
+        <v>44396</v>
+      </c>
+      <c r="O9" s="444">
+        <v>108147</v>
+      </c>
+      <c r="P9" s="42">
+        <v>4381</v>
+      </c>
+      <c r="Q9" s="492">
+        <v>44418</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A10" s="495">
+        <v>44360</v>
+      </c>
+      <c r="B10" s="41">
+        <v>82350</v>
+      </c>
+      <c r="C10" s="42">
+        <v>9369</v>
+      </c>
+      <c r="D10" s="7"/>
+      <c r="E10" s="503">
+        <v>-6019</v>
+      </c>
+      <c r="F10" s="500"/>
+      <c r="H10" s="444">
+        <v>62018</v>
+      </c>
+      <c r="I10" s="456">
+        <f>29872+165</f>
+        <v>30037</v>
+      </c>
+      <c r="J10" s="496">
+        <v>44385</v>
+      </c>
+      <c r="K10" s="496"/>
+      <c r="L10" s="482">
+        <v>260000</v>
+      </c>
+      <c r="M10" s="473">
+        <v>44398</v>
+      </c>
+      <c r="O10" s="444">
+        <v>66279</v>
+      </c>
+      <c r="P10" s="489">
+        <f>3982+457+894+4046+135</f>
+        <v>9514</v>
+      </c>
+      <c r="Q10" s="492">
+        <v>44419</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A11" s="495">
+        <v>44361</v>
+      </c>
+      <c r="B11" s="41">
+        <v>132090</v>
+      </c>
+      <c r="C11" s="42">
+        <v>3080</v>
+      </c>
+      <c r="D11" s="7"/>
+      <c r="E11" s="503">
+        <v>-9007</v>
+      </c>
+      <c r="F11" s="500"/>
+      <c r="H11" s="444">
+        <v>105176</v>
+      </c>
+      <c r="I11" s="456">
+        <f>28270+3975</f>
+        <v>32245</v>
+      </c>
+      <c r="J11" s="496">
+        <v>44386</v>
+      </c>
+      <c r="K11" s="496"/>
+      <c r="L11" s="482">
+        <v>313100</v>
+      </c>
+      <c r="M11" s="473">
+        <v>44400</v>
+      </c>
+      <c r="O11" s="444">
+        <v>99618</v>
+      </c>
+      <c r="P11" s="42">
+        <v>6749</v>
+      </c>
+      <c r="Q11" s="492">
+        <v>44420</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A12" s="495">
+        <v>44362</v>
+      </c>
+      <c r="B12" s="41">
+        <f>3060+2203+84946</f>
+        <v>90209</v>
+      </c>
+      <c r="C12" s="42">
+        <v>8328</v>
+      </c>
+      <c r="D12" s="396" t="s">
+        <v>608</v>
+      </c>
+      <c r="E12" s="118">
+        <v>0</v>
+      </c>
+      <c r="F12" s="500"/>
+      <c r="H12" s="444">
+        <v>121085.38</v>
+      </c>
+      <c r="I12" s="334">
+        <v>76989</v>
+      </c>
+      <c r="J12" s="496">
+        <v>44387</v>
+      </c>
+      <c r="K12" s="496"/>
+      <c r="L12" s="482">
+        <v>460570</v>
+      </c>
+      <c r="M12" s="473">
+        <v>44403</v>
+      </c>
+      <c r="O12" s="444">
+        <v>99884</v>
+      </c>
+      <c r="P12" s="42">
+        <v>8240</v>
+      </c>
+      <c r="Q12" s="492">
+        <v>44421</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A13" s="495">
+        <v>44363</v>
+      </c>
+      <c r="B13" s="41">
+        <f>150+91494</f>
+        <v>91644</v>
+      </c>
+      <c r="C13" s="42">
+        <v>6703</v>
+      </c>
+      <c r="D13" s="395" t="s">
+        <v>609</v>
+      </c>
+      <c r="E13" s="503">
+        <v>-5099</v>
+      </c>
+      <c r="F13" s="500"/>
+      <c r="H13" s="444">
+        <v>107856</v>
+      </c>
+      <c r="I13" s="334">
+        <f>30266</f>
+        <v>30266</v>
+      </c>
+      <c r="J13" s="496">
+        <v>44388</v>
+      </c>
+      <c r="K13" s="496"/>
+      <c r="L13" s="483">
+        <v>415730</v>
+      </c>
+      <c r="M13" s="475">
+        <v>44407</v>
+      </c>
+      <c r="O13" s="444">
+        <v>150946.09</v>
+      </c>
+      <c r="P13" s="42">
+        <v>11274</v>
+      </c>
+      <c r="Q13" s="492">
+        <v>44422</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A14" s="495">
+        <v>44364</v>
+      </c>
+      <c r="B14" s="41">
+        <v>120000</v>
+      </c>
+      <c r="C14" s="401">
+        <v>8236</v>
+      </c>
+      <c r="D14" s="7"/>
+      <c r="E14" s="503">
+        <v>-17820</v>
+      </c>
+      <c r="F14" s="500"/>
+      <c r="H14" s="444">
+        <v>102720</v>
+      </c>
+      <c r="I14" s="334">
+        <v>23039</v>
+      </c>
+      <c r="J14" s="496">
+        <v>44389</v>
+      </c>
+      <c r="K14" s="496"/>
+      <c r="L14" s="483">
+        <v>295640</v>
+      </c>
+      <c r="M14" s="473">
+        <v>44410</v>
+      </c>
+      <c r="O14" s="444">
+        <v>136098</v>
+      </c>
+      <c r="P14" s="42">
+        <v>6485</v>
+      </c>
+      <c r="Q14" s="492">
+        <v>44423</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="495">
+        <v>44365</v>
+      </c>
+      <c r="B15" s="368">
+        <v>164450</v>
+      </c>
+      <c r="C15" s="7">
+        <v>11121</v>
+      </c>
+      <c r="D15" s="7"/>
+      <c r="E15" s="504">
+        <v>32802</v>
+      </c>
+      <c r="F15" s="500"/>
+      <c r="H15" s="444">
+        <v>72351</v>
+      </c>
+      <c r="I15" s="334">
+        <v>10864</v>
+      </c>
+      <c r="J15" s="496">
+        <v>44390</v>
+      </c>
+      <c r="K15" s="496"/>
+      <c r="L15" s="488">
+        <v>290470</v>
+      </c>
+      <c r="M15" s="473">
+        <v>44414</v>
+      </c>
+      <c r="O15" s="444">
+        <v>117971</v>
+      </c>
+      <c r="P15" s="489">
+        <f>6260+105</f>
+        <v>6365</v>
+      </c>
+      <c r="Q15" s="492">
+        <v>44424</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A16" s="495">
+        <v>44366</v>
+      </c>
+      <c r="B16" s="41">
+        <f>12964+274260</f>
+        <v>287224</v>
+      </c>
+      <c r="C16" s="402">
+        <v>12247</v>
+      </c>
+      <c r="D16" s="7"/>
+      <c r="E16" s="504">
+        <v>56840</v>
+      </c>
+      <c r="F16" s="500"/>
+      <c r="H16" s="444">
+        <v>59954</v>
+      </c>
+      <c r="I16" s="334">
+        <v>18445</v>
+      </c>
+      <c r="J16" s="496">
+        <v>44391</v>
+      </c>
+      <c r="K16" s="496"/>
+      <c r="L16" s="595">
+        <f>SUM(L4:L15)</f>
+        <v>3606750</v>
+      </c>
+      <c r="M16" s="476"/>
+      <c r="O16" s="444">
+        <v>67370</v>
+      </c>
+      <c r="P16" s="42">
+        <v>11112</v>
+      </c>
+      <c r="Q16" s="492">
+        <v>44425</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="495">
+        <v>44367</v>
+      </c>
+      <c r="B17" s="399">
+        <v>167190</v>
+      </c>
+      <c r="C17" s="42">
+        <v>12780</v>
+      </c>
+      <c r="D17" s="7"/>
+      <c r="E17" s="503">
+        <v>-23695</v>
+      </c>
+      <c r="F17" s="500"/>
+      <c r="H17" s="444">
+        <v>126617</v>
+      </c>
+      <c r="I17" s="456">
+        <f>6334+120+18676</f>
+        <v>25130</v>
+      </c>
+      <c r="J17" s="496">
+        <v>44392</v>
+      </c>
+      <c r="K17" s="496"/>
+      <c r="L17" s="596"/>
+      <c r="M17" s="476"/>
+      <c r="O17" s="444">
+        <v>0</v>
+      </c>
+      <c r="P17" s="42">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="492">
+        <v>44426</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="495">
+        <v>44368</v>
+      </c>
+      <c r="B18" s="41">
+        <v>0</v>
+      </c>
+      <c r="C18" s="42">
+        <v>3622</v>
+      </c>
+      <c r="D18" s="7"/>
+      <c r="E18" s="503">
+        <v>-83398</v>
+      </c>
+      <c r="F18" s="500"/>
+      <c r="H18" s="444">
+        <v>143221</v>
+      </c>
+      <c r="I18" s="334">
+        <v>10616</v>
+      </c>
+      <c r="J18" s="496">
+        <v>44393</v>
+      </c>
+      <c r="K18" s="496"/>
+      <c r="L18" s="478"/>
+      <c r="M18" s="42"/>
+      <c r="O18" s="444">
+        <v>0</v>
+      </c>
+      <c r="P18" s="42">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="392"/>
+    </row>
+    <row r="19" spans="1:17" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="495">
+        <v>44369</v>
+      </c>
+      <c r="B19" s="41">
+        <f>45+1710</f>
+        <v>1755</v>
+      </c>
+      <c r="C19" s="42">
+        <v>3669</v>
+      </c>
+      <c r="D19" s="7"/>
+      <c r="E19" s="503">
+        <v>-91227</v>
+      </c>
+      <c r="F19" s="500"/>
+      <c r="H19" s="444">
+        <v>196142</v>
+      </c>
+      <c r="I19" s="334">
+        <v>21841</v>
+      </c>
+      <c r="J19" s="496">
+        <v>44394</v>
+      </c>
+      <c r="K19" s="496"/>
+      <c r="L19" s="597" t="s">
+        <v>719</v>
+      </c>
+      <c r="M19" s="598"/>
+      <c r="O19" s="444">
+        <v>0</v>
+      </c>
+      <c r="P19" s="42">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="392"/>
+    </row>
+    <row r="20" spans="1:17" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="495">
+        <v>44370</v>
+      </c>
+      <c r="B20" s="41">
+        <v>135</v>
+      </c>
+      <c r="C20" s="42">
+        <v>6518</v>
+      </c>
+      <c r="D20" s="7"/>
+      <c r="E20" s="503">
+        <v>-87086</v>
+      </c>
+      <c r="F20" s="500"/>
+      <c r="H20" s="444">
+        <v>107487</v>
+      </c>
+      <c r="I20" s="334">
+        <v>10460</v>
+      </c>
+      <c r="J20" s="496">
+        <v>44395</v>
+      </c>
+      <c r="K20" s="496"/>
+      <c r="L20" s="41"/>
+      <c r="M20" s="42"/>
+      <c r="O20" s="444">
+        <v>0</v>
+      </c>
+      <c r="P20" s="42">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="392"/>
+    </row>
+    <row r="21" spans="1:17" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="495">
+        <v>44371</v>
+      </c>
+      <c r="B21" s="399">
+        <v>81200</v>
+      </c>
+      <c r="C21" s="42">
+        <v>8632</v>
+      </c>
+      <c r="D21" s="7"/>
+      <c r="E21" s="504">
+        <v>1077</v>
+      </c>
+      <c r="F21" s="500"/>
+      <c r="H21" s="444">
+        <v>106168.82</v>
+      </c>
+      <c r="I21" s="456">
+        <f>1512+6398</f>
+        <v>7910</v>
+      </c>
+      <c r="J21" s="496">
+        <v>44396</v>
+      </c>
+      <c r="K21" s="496"/>
+      <c r="L21" s="629">
+        <f>L16-H37</f>
+        <v>-383122.2200000002</v>
+      </c>
+      <c r="M21" s="630"/>
+      <c r="O21" s="444">
+        <v>0</v>
+      </c>
+      <c r="P21" s="42">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="392"/>
+    </row>
+    <row r="22" spans="1:17" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="495">
+        <v>44372</v>
+      </c>
+      <c r="B22" s="41">
+        <v>152531</v>
+      </c>
+      <c r="C22" s="42">
+        <v>5864</v>
+      </c>
+      <c r="D22" s="7"/>
+      <c r="E22" s="118">
+        <v>0</v>
+      </c>
+      <c r="F22" s="500"/>
+      <c r="H22" s="444">
+        <v>98612</v>
+      </c>
+      <c r="I22" s="334">
+        <v>6840</v>
+      </c>
+      <c r="J22" s="496">
+        <v>44397</v>
+      </c>
+      <c r="K22" s="496"/>
+      <c r="L22" s="631"/>
+      <c r="M22" s="632"/>
+      <c r="O22" s="444">
+        <v>0</v>
+      </c>
+      <c r="P22" s="42">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="392"/>
+    </row>
+    <row r="23" spans="1:17" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="495">
+        <v>44373</v>
+      </c>
+      <c r="B23" s="41">
+        <v>127951</v>
+      </c>
+      <c r="C23" s="42">
+        <v>3550</v>
+      </c>
+      <c r="D23" s="7"/>
+      <c r="E23" s="118">
+        <v>0</v>
+      </c>
+      <c r="F23" s="500"/>
+      <c r="H23" s="444">
+        <v>132205</v>
+      </c>
+      <c r="I23" s="334">
+        <v>4843</v>
+      </c>
+      <c r="J23" s="496">
+        <v>44398</v>
+      </c>
+      <c r="K23" s="496"/>
+      <c r="L23" s="496"/>
+      <c r="O23" s="444">
+        <v>0</v>
+      </c>
+      <c r="P23" s="42">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="392"/>
+    </row>
+    <row r="24" spans="1:17" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="495">
+        <v>44374</v>
+      </c>
+      <c r="B24" s="399">
+        <v>137820</v>
+      </c>
+      <c r="C24" s="42">
+        <v>7873</v>
+      </c>
+      <c r="D24" s="7"/>
+      <c r="E24" s="503">
+        <v>-787</v>
+      </c>
+      <c r="F24" s="500"/>
+      <c r="H24" s="444">
+        <v>77581</v>
+      </c>
+      <c r="I24" s="456">
+        <f>8000+14435</f>
+        <v>22435</v>
+      </c>
+      <c r="J24" s="496">
+        <v>44399</v>
+      </c>
+      <c r="K24" s="496"/>
+      <c r="L24" s="496"/>
+      <c r="O24" s="444">
+        <v>0</v>
+      </c>
+      <c r="P24" s="42">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="392"/>
+    </row>
+    <row r="25" spans="1:17" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="495">
+        <v>44375</v>
+      </c>
+      <c r="B25" s="41">
+        <v>209600</v>
+      </c>
+      <c r="C25" s="42">
+        <v>4664</v>
+      </c>
+      <c r="D25" s="7"/>
+      <c r="E25" s="504">
+        <v>102120</v>
+      </c>
+      <c r="F25" s="500"/>
+      <c r="H25" s="444">
+        <v>158574</v>
+      </c>
+      <c r="I25" s="334">
+        <v>6232</v>
+      </c>
+      <c r="J25" s="496">
+        <v>44400</v>
+      </c>
+      <c r="K25" s="496"/>
+      <c r="L25" s="496"/>
+      <c r="O25" s="444">
+        <v>0</v>
+      </c>
+      <c r="P25" s="42">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="392"/>
+    </row>
+    <row r="26" spans="1:17" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="495">
+        <v>44376</v>
+      </c>
+      <c r="B26" s="41">
+        <v>75870</v>
+      </c>
+      <c r="C26" s="333">
+        <v>6888</v>
+      </c>
+      <c r="D26" s="7"/>
+      <c r="E26" s="503">
+        <v>-2024</v>
+      </c>
+      <c r="F26" s="500"/>
+      <c r="H26" s="444">
+        <v>232014.24</v>
+      </c>
+      <c r="I26" s="334">
+        <v>7988</v>
+      </c>
+      <c r="J26" s="496">
+        <v>44401</v>
+      </c>
+      <c r="K26" s="496"/>
+      <c r="L26" s="496"/>
+      <c r="O26" s="444">
+        <v>0</v>
+      </c>
+      <c r="P26" s="42">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="392"/>
+    </row>
+    <row r="27" spans="1:17" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="495">
+        <v>44377</v>
+      </c>
+      <c r="B27" s="41">
+        <v>125407</v>
+      </c>
+      <c r="C27" s="333">
+        <v>2918</v>
+      </c>
+      <c r="D27" s="7"/>
+      <c r="E27" s="118">
+        <v>0</v>
+      </c>
+      <c r="F27" s="500"/>
+      <c r="H27" s="444">
+        <v>168806</v>
+      </c>
+      <c r="I27" s="334">
+        <v>4221</v>
+      </c>
+      <c r="J27" s="496">
+        <v>44402</v>
+      </c>
+      <c r="K27" s="496"/>
+      <c r="L27" s="496"/>
+      <c r="O27" s="444">
+        <v>0</v>
+      </c>
+      <c r="P27" s="42">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="392"/>
+    </row>
+    <row r="28" spans="1:17" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="495"/>
+      <c r="B28" s="41">
+        <v>0</v>
+      </c>
+      <c r="C28" s="333">
+        <v>0</v>
+      </c>
+      <c r="D28" s="7"/>
+      <c r="E28" s="118">
+        <v>0</v>
+      </c>
+      <c r="F28" s="500"/>
+      <c r="H28" s="444">
+        <v>79889</v>
+      </c>
+      <c r="I28" s="456">
+        <f>3700+3309+3748</f>
+        <v>10757</v>
+      </c>
+      <c r="J28" s="496">
+        <v>44403</v>
+      </c>
+      <c r="K28" s="496"/>
+      <c r="L28" s="496"/>
+      <c r="O28" s="444">
+        <v>0</v>
+      </c>
+      <c r="P28" s="42">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="392"/>
+    </row>
+    <row r="29" spans="1:17" ht="17.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="495"/>
+      <c r="B29" s="41">
+        <v>0</v>
+      </c>
+      <c r="C29" s="333">
+        <v>0</v>
+      </c>
+      <c r="D29" s="7"/>
+      <c r="E29" s="501">
+        <f>SUM(E4:E28)</f>
+        <v>-163726</v>
+      </c>
+      <c r="F29" s="502"/>
+      <c r="H29" s="444">
+        <v>67572</v>
+      </c>
+      <c r="I29" s="334">
+        <v>3689</v>
+      </c>
+      <c r="J29" s="496">
+        <v>44404</v>
+      </c>
+      <c r="K29" s="496"/>
+      <c r="L29" s="496"/>
+      <c r="O29" s="444">
+        <v>0</v>
+      </c>
+      <c r="P29" s="42">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="392"/>
+    </row>
+    <row r="30" spans="1:17" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="495"/>
+      <c r="B30" s="41">
+        <v>0</v>
+      </c>
+      <c r="C30" s="333">
+        <v>0</v>
+      </c>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="H30" s="444">
+        <v>99506.39</v>
+      </c>
+      <c r="I30" s="334">
+        <v>7245</v>
+      </c>
+      <c r="J30" s="496">
+        <v>44405</v>
+      </c>
+      <c r="K30" s="496"/>
+      <c r="L30" s="496"/>
+      <c r="O30" s="444">
+        <v>0</v>
+      </c>
+      <c r="P30" s="42">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="392"/>
+    </row>
+    <row r="31" spans="1:17" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H31" s="444">
+        <v>98280.71</v>
+      </c>
+      <c r="I31" s="334">
+        <v>4996</v>
+      </c>
+      <c r="J31" s="496">
+        <v>44406</v>
+      </c>
+      <c r="K31" s="496"/>
+      <c r="L31" s="496"/>
+      <c r="O31" s="444">
+        <v>0</v>
+      </c>
+      <c r="P31" s="42">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="392"/>
+    </row>
+    <row r="32" spans="1:17" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H32" s="444">
+        <v>197380</v>
+      </c>
+      <c r="I32" s="334">
+        <v>11259</v>
+      </c>
+      <c r="J32" s="496">
+        <v>44407</v>
+      </c>
+      <c r="K32" s="496"/>
+      <c r="L32" s="496"/>
+      <c r="O32" s="444">
+        <v>0</v>
+      </c>
+      <c r="P32" s="42">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="392"/>
+    </row>
+    <row r="33" spans="7:17" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H33" s="444">
+        <v>173618.5</v>
+      </c>
+      <c r="I33" s="334">
+        <v>6530</v>
+      </c>
+      <c r="J33" s="496">
+        <v>44408</v>
+      </c>
+      <c r="K33" s="496"/>
+      <c r="L33" s="496"/>
+      <c r="O33" s="444">
+        <v>0</v>
+      </c>
+      <c r="P33" s="42">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="392"/>
+    </row>
+    <row r="34" spans="7:17" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H34" s="470">
+        <v>129489</v>
+      </c>
+      <c r="I34" s="334">
+        <v>17114</v>
+      </c>
+      <c r="J34" s="496">
+        <v>44409</v>
+      </c>
+      <c r="K34" s="496"/>
+      <c r="L34" s="496"/>
+      <c r="O34" s="444">
+        <v>0</v>
+      </c>
+      <c r="P34" s="42">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="392"/>
+    </row>
+    <row r="35" spans="7:17" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H35" s="484">
+        <v>52350</v>
+      </c>
+      <c r="I35" s="456">
+        <f>6476+45</f>
+        <v>6521</v>
+      </c>
+      <c r="J35" s="496">
+        <v>44410</v>
+      </c>
+      <c r="K35" s="496"/>
+      <c r="L35" s="496"/>
+      <c r="O35" s="444">
+        <v>0</v>
+      </c>
+      <c r="P35" s="42">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="392"/>
+    </row>
+    <row r="36" spans="7:17" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H36" s="485">
+        <v>185490</v>
+      </c>
+      <c r="I36" s="486">
+        <v>24490</v>
+      </c>
+      <c r="J36" s="496">
+        <v>44411</v>
+      </c>
+      <c r="K36" s="496"/>
+      <c r="L36" s="496"/>
+      <c r="O36" s="444">
+        <v>0</v>
+      </c>
+      <c r="P36" s="42">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="392"/>
+    </row>
+    <row r="37" spans="7:17" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="H37" s="603">
+        <f>SUM(H3:H36)</f>
+        <v>3989872.22</v>
+      </c>
+      <c r="I37" s="605">
+        <f>SUM(I3:I36)</f>
+        <v>688820.5</v>
+      </c>
+      <c r="J37" s="496"/>
+      <c r="K37" s="496"/>
+      <c r="L37" s="496"/>
+      <c r="O37" s="603">
+        <f>SUM(O3:O36)</f>
+        <v>1464800.09</v>
+      </c>
+      <c r="P37" s="605">
+        <f>SUM(P3:P36)</f>
+        <v>121896</v>
+      </c>
+      <c r="Q37" s="392"/>
+    </row>
+    <row r="38" spans="7:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H38" s="604"/>
+      <c r="I38" s="606"/>
+      <c r="J38" s="496"/>
+      <c r="K38" s="496"/>
+      <c r="L38" s="496"/>
+      <c r="O38" s="604"/>
+      <c r="P38" s="606"/>
+      <c r="Q38" s="392"/>
+    </row>
+    <row r="39" spans="7:17" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="H39" s="7"/>
+      <c r="I39" s="7"/>
+      <c r="O39" s="7"/>
+      <c r="P39" s="7"/>
+      <c r="Q39" s="392"/>
+    </row>
+    <row r="40" spans="7:17" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G40" s="272"/>
+      <c r="H40" s="626"/>
+      <c r="I40" s="626"/>
+      <c r="O40" s="607" t="s">
+        <v>567</v>
+      </c>
+      <c r="P40" s="607"/>
+      <c r="Q40" s="392"/>
+    </row>
+    <row r="41" spans="7:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G41" s="272"/>
+      <c r="H41" s="505"/>
+      <c r="I41" s="475"/>
+      <c r="O41" s="479">
+        <v>4046</v>
+      </c>
+      <c r="P41" s="473">
+        <v>44410</v>
+      </c>
+      <c r="Q41" s="366"/>
+    </row>
+    <row r="42" spans="7:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G42" s="272"/>
+      <c r="H42" s="392"/>
+      <c r="I42" s="475"/>
+      <c r="O42" s="480">
+        <v>457</v>
+      </c>
+      <c r="P42" s="473">
+        <v>44417</v>
+      </c>
+      <c r="Q42" s="366"/>
+    </row>
+    <row r="43" spans="7:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G43" s="272"/>
+      <c r="H43" s="392"/>
+      <c r="I43" s="475"/>
+      <c r="O43" s="480">
+        <v>135</v>
+      </c>
+      <c r="P43" s="473">
+        <v>44417</v>
+      </c>
+      <c r="Q43" s="366"/>
+    </row>
+    <row r="44" spans="7:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G44" s="272"/>
+      <c r="H44" s="392"/>
+      <c r="I44" s="475"/>
+      <c r="O44" s="481">
+        <v>330120</v>
+      </c>
+      <c r="P44" s="474">
+        <v>44417</v>
+      </c>
+      <c r="Q44" s="366"/>
+    </row>
+    <row r="45" spans="7:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G45" s="272"/>
+      <c r="H45" s="392"/>
+      <c r="I45" s="475"/>
+      <c r="O45" s="482">
+        <v>894</v>
+      </c>
+      <c r="P45" s="474">
+        <v>44418</v>
+      </c>
+      <c r="Q45" s="366"/>
+    </row>
+    <row r="46" spans="7:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G46" s="272"/>
+      <c r="H46" s="392"/>
+      <c r="I46" s="475"/>
+      <c r="O46" s="482">
+        <v>300000</v>
+      </c>
+      <c r="P46" s="473">
+        <v>44419</v>
+      </c>
+      <c r="Q46" s="366"/>
+    </row>
+    <row r="47" spans="7:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G47" s="272"/>
+      <c r="H47" s="392"/>
+      <c r="I47" s="475"/>
+      <c r="O47" s="482">
+        <v>324890</v>
+      </c>
+      <c r="P47" s="473">
+        <v>44421</v>
+      </c>
+      <c r="Q47" s="366"/>
+    </row>
+    <row r="48" spans="7:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G48" s="272"/>
+      <c r="H48" s="392"/>
+      <c r="I48" s="475"/>
+      <c r="O48" s="482">
+        <v>159870</v>
+      </c>
+      <c r="P48" s="473">
+        <v>44424</v>
+      </c>
+      <c r="Q48" s="366"/>
+    </row>
+    <row r="49" spans="7:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G49" s="272"/>
+      <c r="H49" s="392"/>
+      <c r="I49" s="475"/>
+      <c r="O49" s="482">
+        <v>105</v>
+      </c>
+      <c r="P49" s="473">
+        <v>44424</v>
+      </c>
+      <c r="Q49" s="366"/>
+    </row>
+    <row r="50" spans="7:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G50" s="272"/>
+      <c r="H50" s="392"/>
+      <c r="I50" s="475"/>
+      <c r="O50" s="482">
+        <v>384800</v>
+      </c>
+      <c r="P50" s="473">
+        <v>44426</v>
+      </c>
+      <c r="Q50" s="366"/>
+    </row>
+    <row r="51" spans="7:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G51" s="272"/>
+      <c r="H51" s="392"/>
+      <c r="I51" s="475"/>
+      <c r="O51" s="483">
+        <v>177370</v>
+      </c>
+      <c r="P51" s="475">
+        <v>44427</v>
+      </c>
+      <c r="Q51" s="392"/>
+    </row>
+    <row r="52" spans="7:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G52" s="272"/>
+      <c r="H52" s="392"/>
+      <c r="I52" s="475"/>
+      <c r="O52" s="477">
+        <v>0</v>
+      </c>
+      <c r="P52" s="42"/>
+      <c r="Q52" s="392"/>
+    </row>
+    <row r="53" spans="7:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G53" s="272"/>
+      <c r="H53" s="627"/>
+      <c r="I53" s="7"/>
+      <c r="O53" s="595">
+        <f>SUM(O41:O52)</f>
+        <v>1682687</v>
+      </c>
+      <c r="P53" s="476"/>
+      <c r="Q53" s="392"/>
+    </row>
+    <row r="54" spans="7:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G54" s="272"/>
+      <c r="H54" s="627"/>
+      <c r="I54" s="7"/>
+      <c r="O54" s="596"/>
+      <c r="P54" s="476"/>
+      <c r="Q54" s="392"/>
+    </row>
+    <row r="55" spans="7:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G55" s="272"/>
+      <c r="H55" s="7"/>
+      <c r="I55" s="7"/>
+      <c r="O55" s="478"/>
+      <c r="P55" s="42"/>
+      <c r="Q55" s="392"/>
+    </row>
+    <row r="56" spans="7:17" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="G56" s="272"/>
+      <c r="H56" s="626"/>
+      <c r="I56" s="626"/>
+      <c r="O56" s="597" t="s">
+        <v>719</v>
+      </c>
+      <c r="P56" s="598"/>
+      <c r="Q56" s="392"/>
+    </row>
+    <row r="57" spans="7:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G57" s="272"/>
+      <c r="H57" s="7"/>
+      <c r="I57" s="7"/>
+      <c r="O57" s="41"/>
+      <c r="P57" s="42"/>
+      <c r="Q57" s="392"/>
+    </row>
+    <row r="58" spans="7:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G58" s="272"/>
+      <c r="H58" s="624"/>
+      <c r="I58" s="624"/>
+      <c r="O58" s="493">
+        <f>O53-O37</f>
+        <v>217886.90999999992</v>
+      </c>
+      <c r="P58" s="494" t="s">
+        <v>727</v>
+      </c>
+      <c r="Q58" s="392"/>
+    </row>
+    <row r="59" spans="7:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G59" s="272"/>
+      <c r="H59" s="624"/>
+      <c r="I59" s="624"/>
+      <c r="O59" s="506">
+        <v>-383122.22</v>
+      </c>
+      <c r="P59" s="506" t="s">
+        <v>728</v>
+      </c>
+      <c r="Q59" s="392"/>
+    </row>
+    <row r="60" spans="7:17" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="G60" s="272"/>
+      <c r="H60" s="7"/>
+      <c r="I60" s="7"/>
+      <c r="O60" s="508">
+        <v>-163726</v>
+      </c>
+      <c r="P60" s="118" t="s">
+        <v>729</v>
+      </c>
+      <c r="Q60" s="392"/>
+    </row>
+    <row r="61" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="O61" s="509">
+        <v>0</v>
+      </c>
+      <c r="P61" s="507"/>
+    </row>
+    <row r="62" spans="7:17" ht="21" x14ac:dyDescent="0.35">
+      <c r="O62" s="633">
+        <f>SUM(O58:O61)</f>
+        <v>-328961.31000000006</v>
+      </c>
+      <c r="P62" s="634"/>
+    </row>
+  </sheetData>
+  <mergeCells count="20">
+    <mergeCell ref="O62:P62"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="H58:I59"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="O37:O38"/>
+    <mergeCell ref="P37:P38"/>
+    <mergeCell ref="O40:P40"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="H53:H54"/>
+    <mergeCell ref="H56:I56"/>
+    <mergeCell ref="O53:O54"/>
+    <mergeCell ref="O56:P56"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L21:M22"/>
+  </mergeCells>
+  <pageMargins left="0.37" right="0.13" top="0.43" bottom="0.27" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
   <dimension ref="A1:F62"/>
@@ -38793,7 +38899,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -38805,7 +38911,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G1"/>
   <sheetViews>
@@ -38823,7 +38929,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -38870,17 +38976,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C1" s="536" t="s">
+      <c r="C1" s="514" t="s">
         <v>147</v>
       </c>
-      <c r="D1" s="536"/>
-      <c r="E1" s="536"/>
-      <c r="F1" s="536"/>
-      <c r="G1" s="536"/>
-      <c r="H1" s="536"/>
-      <c r="I1" s="536"/>
-      <c r="J1" s="536"/>
-      <c r="K1" s="536"/>
+      <c r="D1" s="514"/>
+      <c r="E1" s="514"/>
+      <c r="F1" s="514"/>
+      <c r="G1" s="514"/>
+      <c r="H1" s="514"/>
+      <c r="I1" s="514"/>
+      <c r="J1" s="514"/>
+      <c r="K1" s="514"/>
       <c r="L1" s="2"/>
       <c r="M1" s="3"/>
       <c r="U1" s="209"/>
@@ -38911,17 +39017,17 @@
       </c>
     </row>
     <row r="3" spans="1:23" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="537" t="s">
+      <c r="B3" s="515" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="538"/>
+      <c r="C3" s="516"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="15"/>
-      <c r="H3" s="539" t="s">
+      <c r="H3" s="517" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="539"/>
+      <c r="I3" s="517"/>
       <c r="K3" s="17" t="s">
         <v>3</v>
       </c>
@@ -38950,14 +39056,14 @@
       <c r="D4" s="23">
         <v>44230</v>
       </c>
-      <c r="E4" s="540" t="s">
+      <c r="E4" s="518" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="541"/>
-      <c r="H4" s="542" t="s">
+      <c r="F4" s="519"/>
+      <c r="H4" s="520" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="543"/>
+      <c r="I4" s="521"/>
       <c r="J4" s="24"/>
       <c r="K4" s="25"/>
       <c r="L4" s="26"/>
@@ -41496,61 +41602,61 @@
       <c r="A64" s="60"/>
       <c r="B64" s="100"/>
       <c r="C64" s="4"/>
-      <c r="H64" s="523" t="s">
+      <c r="H64" s="522" t="s">
         <v>16</v>
       </c>
-      <c r="I64" s="524"/>
+      <c r="I64" s="523"/>
       <c r="J64" s="101"/>
-      <c r="K64" s="525">
+      <c r="K64" s="524">
         <f>I62+L62</f>
         <v>259947.00000000003</v>
       </c>
-      <c r="L64" s="526"/>
-      <c r="M64" s="527">
+      <c r="L64" s="525"/>
+      <c r="M64" s="526">
         <f>M62+N62</f>
         <v>2744320</v>
       </c>
-      <c r="N64" s="528"/>
+      <c r="N64" s="527"/>
       <c r="O64" s="102"/>
       <c r="P64" s="99"/>
       <c r="Q64" s="99"/>
       <c r="S64" s="174"/>
     </row>
     <row r="65" spans="2:19" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D65" s="535" t="s">
+      <c r="D65" s="534" t="s">
         <v>17</v>
       </c>
-      <c r="E65" s="535"/>
+      <c r="E65" s="534"/>
       <c r="F65" s="103">
         <f>F62-K64-C62</f>
         <v>2374814.2599999998</v>
       </c>
       <c r="I65" s="104"/>
       <c r="J65" s="105"/>
-      <c r="P65" s="514">
+      <c r="P65" s="535">
         <f>P62+Q62</f>
         <v>3144691.75</v>
       </c>
-      <c r="Q65" s="515"/>
+      <c r="Q65" s="536"/>
       <c r="S65" s="50"/>
     </row>
     <row r="66" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D66" s="516" t="s">
+      <c r="D66" s="537" t="s">
         <v>18</v>
       </c>
-      <c r="E66" s="516"/>
+      <c r="E66" s="537"/>
       <c r="F66" s="95">
         <v>-2261593.1</v>
       </c>
-      <c r="I66" s="517" t="s">
+      <c r="I66" s="538" t="s">
         <v>19</v>
       </c>
-      <c r="J66" s="518"/>
-      <c r="K66" s="519">
+      <c r="J66" s="539"/>
+      <c r="K66" s="540">
         <f>F68+F69+F70</f>
         <v>355407.6199999997</v>
       </c>
-      <c r="L66" s="520"/>
+      <c r="L66" s="541"/>
       <c r="P66" s="50"/>
       <c r="S66" s="107"/>
     </row>
@@ -41587,11 +41693,11 @@
         <v>21</v>
       </c>
       <c r="J68" s="115"/>
-      <c r="K68" s="521">
+      <c r="K68" s="542">
         <f>-C4</f>
         <v>-209541.1</v>
       </c>
-      <c r="L68" s="522"/>
+      <c r="L68" s="543"/>
       <c r="M68" s="116"/>
       <c r="P68" s="50"/>
       <c r="Q68" s="7"/>
@@ -41615,22 +41721,22 @@
       <c r="C70" s="119">
         <v>44257</v>
       </c>
-      <c r="D70" s="529" t="s">
+      <c r="D70" s="528" t="s">
         <v>24</v>
       </c>
-      <c r="E70" s="530"/>
+      <c r="E70" s="529"/>
       <c r="F70" s="120">
         <v>223014.26</v>
       </c>
-      <c r="I70" s="531" t="s">
+      <c r="I70" s="530" t="s">
         <v>25</v>
       </c>
-      <c r="J70" s="532"/>
-      <c r="K70" s="533">
+      <c r="J70" s="531"/>
+      <c r="K70" s="532">
         <f>K66+K68</f>
         <v>145866.5199999997</v>
       </c>
-      <c r="L70" s="534"/>
+      <c r="L70" s="533"/>
       <c r="P70" s="50"/>
       <c r="Q70" s="7"/>
       <c r="S70" s="121"/>
@@ -41731,6 +41837,12 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="K68:L68"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="I70:J70"/>
+    <mergeCell ref="K70:L70"/>
+    <mergeCell ref="M64:N64"/>
+    <mergeCell ref="D65:E65"/>
     <mergeCell ref="P65:Q65"/>
     <mergeCell ref="D66:E66"/>
     <mergeCell ref="I66:J66"/>
@@ -41742,12 +41854,6 @@
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="H64:I64"/>
     <mergeCell ref="K64:L64"/>
-    <mergeCell ref="K68:L68"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="I70:J70"/>
-    <mergeCell ref="K70:L70"/>
-    <mergeCell ref="M64:N64"/>
-    <mergeCell ref="D65:E65"/>
   </mergeCells>
   <phoneticPr fontId="41" type="noConversion"/>
   <pageMargins left="0.51181102362204722" right="0.15748031496062992" top="0.31496062992125984" bottom="0.31496062992125984" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -43018,17 +43124,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C1" s="536" t="s">
+      <c r="C1" s="514" t="s">
         <v>429</v>
       </c>
-      <c r="D1" s="536"/>
-      <c r="E1" s="536"/>
-      <c r="F1" s="536"/>
-      <c r="G1" s="536"/>
-      <c r="H1" s="536"/>
-      <c r="I1" s="536"/>
-      <c r="J1" s="536"/>
-      <c r="K1" s="536"/>
+      <c r="D1" s="514"/>
+      <c r="E1" s="514"/>
+      <c r="F1" s="514"/>
+      <c r="G1" s="514"/>
+      <c r="H1" s="514"/>
+      <c r="I1" s="514"/>
+      <c r="J1" s="514"/>
+      <c r="K1" s="514"/>
       <c r="L1" s="2"/>
       <c r="M1" s="3"/>
       <c r="U1" s="209"/>
@@ -43058,17 +43164,17 @@
       </c>
     </row>
     <row r="3" spans="1:23" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="537" t="s">
+      <c r="B3" s="515" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="538"/>
+      <c r="C3" s="516"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="15"/>
-      <c r="H3" s="539" t="s">
+      <c r="H3" s="517" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="539"/>
+      <c r="I3" s="517"/>
       <c r="K3" s="17" t="s">
         <v>3</v>
       </c>
@@ -43097,14 +43203,14 @@
       <c r="D4" s="23">
         <v>44257</v>
       </c>
-      <c r="E4" s="540" t="s">
+      <c r="E4" s="518" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="541"/>
-      <c r="H4" s="542" t="s">
+      <c r="F4" s="519"/>
+      <c r="H4" s="520" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="543"/>
+      <c r="I4" s="521"/>
       <c r="J4" s="24"/>
       <c r="K4" s="25"/>
       <c r="L4" s="26"/>
@@ -45706,61 +45812,61 @@
       <c r="A62" s="60"/>
       <c r="B62" s="100"/>
       <c r="C62" s="4"/>
-      <c r="H62" s="523" t="s">
+      <c r="H62" s="522" t="s">
         <v>16</v>
       </c>
-      <c r="I62" s="524"/>
+      <c r="I62" s="523"/>
       <c r="J62" s="101"/>
-      <c r="K62" s="525">
+      <c r="K62" s="524">
         <f>I60+L60</f>
         <v>781851.32000000007</v>
       </c>
-      <c r="L62" s="526"/>
-      <c r="M62" s="527">
+      <c r="L62" s="525"/>
+      <c r="M62" s="526">
         <f>M60+N60</f>
         <v>4064802.5</v>
       </c>
-      <c r="N62" s="528"/>
+      <c r="N62" s="527"/>
       <c r="O62" s="102"/>
       <c r="P62" s="99"/>
       <c r="Q62" s="99"/>
       <c r="S62" s="174"/>
     </row>
     <row r="63" spans="1:23" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D63" s="535" t="s">
+      <c r="D63" s="534" t="s">
         <v>17</v>
       </c>
-      <c r="E63" s="535"/>
+      <c r="E63" s="534"/>
       <c r="F63" s="103">
         <f>F60-K62-C60</f>
         <v>3177878.1399999997</v>
       </c>
       <c r="I63" s="104"/>
       <c r="J63" s="105"/>
-      <c r="P63" s="514">
+      <c r="P63" s="535">
         <f>P60+Q60</f>
         <v>4585432.34</v>
       </c>
-      <c r="Q63" s="515"/>
+      <c r="Q63" s="536"/>
       <c r="S63" s="50"/>
     </row>
     <row r="64" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D64" s="516" t="s">
+      <c r="D64" s="537" t="s">
         <v>18</v>
       </c>
-      <c r="E64" s="516"/>
+      <c r="E64" s="537"/>
       <c r="F64" s="95">
         <v>-3579271.89</v>
       </c>
-      <c r="I64" s="517" t="s">
+      <c r="I64" s="538" t="s">
         <v>19</v>
       </c>
-      <c r="J64" s="518"/>
-      <c r="K64" s="519">
+      <c r="J64" s="539"/>
+      <c r="K64" s="540">
         <f>F66+F67+F68</f>
         <v>-110332.85000000047</v>
       </c>
-      <c r="L64" s="520"/>
+      <c r="L64" s="541"/>
       <c r="P64" s="50"/>
       <c r="S64" s="107"/>
     </row>
@@ -45794,11 +45900,11 @@
         <v>21</v>
       </c>
       <c r="J66" s="115"/>
-      <c r="K66" s="521">
+      <c r="K66" s="542">
         <f>-C4</f>
         <v>-223014.26</v>
       </c>
-      <c r="L66" s="522"/>
+      <c r="L66" s="543"/>
       <c r="M66" s="116"/>
       <c r="P66" s="50"/>
       <c r="Q66" s="7"/>
@@ -45822,10 +45928,10 @@
       <c r="C68" s="119">
         <v>44291</v>
       </c>
-      <c r="D68" s="529" t="s">
+      <c r="D68" s="528" t="s">
         <v>24</v>
       </c>
-      <c r="E68" s="530"/>
+      <c r="E68" s="529"/>
       <c r="F68" s="120">
         <v>215362.9</v>
       </c>
@@ -45993,6 +46099,12 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="K66:L66"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="I68:J68"/>
+    <mergeCell ref="K68:L68"/>
+    <mergeCell ref="M62:N62"/>
+    <mergeCell ref="D63:E63"/>
     <mergeCell ref="P63:Q63"/>
     <mergeCell ref="D64:E64"/>
     <mergeCell ref="I64:J64"/>
@@ -46004,12 +46116,6 @@
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="H62:I62"/>
     <mergeCell ref="K62:L62"/>
-    <mergeCell ref="K66:L66"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="I68:J68"/>
-    <mergeCell ref="K68:L68"/>
-    <mergeCell ref="M62:N62"/>
-    <mergeCell ref="D63:E63"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -47441,17 +47547,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C1" s="536" t="s">
+      <c r="C1" s="514" t="s">
         <v>430</v>
       </c>
-      <c r="D1" s="536"/>
-      <c r="E1" s="536"/>
-      <c r="F1" s="536"/>
-      <c r="G1" s="536"/>
-      <c r="H1" s="536"/>
-      <c r="I1" s="536"/>
-      <c r="J1" s="536"/>
-      <c r="K1" s="536"/>
+      <c r="D1" s="514"/>
+      <c r="E1" s="514"/>
+      <c r="F1" s="514"/>
+      <c r="G1" s="514"/>
+      <c r="H1" s="514"/>
+      <c r="I1" s="514"/>
+      <c r="J1" s="514"/>
+      <c r="K1" s="514"/>
       <c r="L1" s="2"/>
       <c r="M1" s="3"/>
       <c r="U1" s="209"/>
@@ -47481,17 +47587,17 @@
       </c>
     </row>
     <row r="3" spans="1:23" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="537" t="s">
+      <c r="B3" s="515" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="538"/>
+      <c r="C3" s="516"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="15"/>
-      <c r="H3" s="539" t="s">
+      <c r="H3" s="517" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="539"/>
+      <c r="I3" s="517"/>
       <c r="K3" s="17" t="s">
         <v>3</v>
       </c>
@@ -47520,14 +47626,14 @@
       <c r="D4" s="23">
         <v>44291</v>
       </c>
-      <c r="E4" s="540" t="s">
+      <c r="E4" s="518" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="541"/>
-      <c r="H4" s="542" t="s">
+      <c r="F4" s="519"/>
+      <c r="H4" s="520" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="549"/>
+      <c r="I4" s="548"/>
       <c r="J4" s="24"/>
       <c r="K4" s="25"/>
       <c r="L4" s="26"/>
@@ -50019,61 +50125,61 @@
       <c r="A58" s="60"/>
       <c r="B58" s="100"/>
       <c r="C58" s="4"/>
-      <c r="H58" s="523" t="s">
+      <c r="H58" s="522" t="s">
         <v>16</v>
       </c>
-      <c r="I58" s="524"/>
+      <c r="I58" s="523"/>
       <c r="J58" s="101"/>
-      <c r="K58" s="525">
+      <c r="K58" s="524">
         <f>I56+L56</f>
         <v>370346.35000000003</v>
       </c>
-      <c r="L58" s="550"/>
-      <c r="M58" s="527">
+      <c r="L58" s="549"/>
+      <c r="M58" s="526">
         <f>M56+N56</f>
         <v>3537422</v>
       </c>
-      <c r="N58" s="528"/>
+      <c r="N58" s="527"/>
       <c r="O58" s="102"/>
       <c r="P58" s="99"/>
       <c r="Q58" s="99"/>
       <c r="S58" s="174"/>
     </row>
     <row r="59" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D59" s="535" t="s">
+      <c r="D59" s="534" t="s">
         <v>17</v>
       </c>
-      <c r="E59" s="548"/>
+      <c r="E59" s="550"/>
       <c r="F59" s="103">
         <f>F56-K58-C56</f>
         <v>3048717.54</v>
       </c>
       <c r="I59" s="104"/>
       <c r="J59" s="105"/>
-      <c r="P59" s="514">
+      <c r="P59" s="535">
         <f>P56+Q56</f>
         <v>8073324.3200000003</v>
       </c>
-      <c r="Q59" s="515"/>
+      <c r="Q59" s="536"/>
       <c r="S59" s="50"/>
     </row>
     <row r="60" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D60" s="516" t="s">
+      <c r="D60" s="537" t="s">
         <v>18</v>
       </c>
-      <c r="E60" s="516"/>
+      <c r="E60" s="537"/>
       <c r="F60" s="95">
         <v>-3102716.28</v>
       </c>
-      <c r="I60" s="517" t="s">
+      <c r="I60" s="538" t="s">
         <v>19</v>
       </c>
-      <c r="J60" s="518"/>
-      <c r="K60" s="519">
+      <c r="J60" s="539"/>
+      <c r="K60" s="540">
         <f>F62+F63+F64</f>
         <v>216465.62000000023</v>
       </c>
-      <c r="L60" s="520"/>
+      <c r="L60" s="541"/>
       <c r="P60" s="50"/>
       <c r="S60" s="107"/>
     </row>
@@ -50107,11 +50213,11 @@
         <v>21</v>
       </c>
       <c r="J62" s="115"/>
-      <c r="K62" s="521">
+      <c r="K62" s="542">
         <f>-C4</f>
         <v>-215362.9</v>
       </c>
-      <c r="L62" s="522"/>
+      <c r="L62" s="543"/>
       <c r="M62" s="116"/>
       <c r="P62" s="50"/>
       <c r="Q62" s="7"/>
@@ -50135,22 +50241,22 @@
       <c r="C64" s="119">
         <v>44320</v>
       </c>
-      <c r="D64" s="529" t="s">
+      <c r="D64" s="528" t="s">
         <v>24</v>
       </c>
-      <c r="E64" s="530"/>
+      <c r="E64" s="529"/>
       <c r="F64" s="120">
         <v>249311.35999999999</v>
       </c>
-      <c r="I64" s="531" t="s">
+      <c r="I64" s="530" t="s">
         <v>25</v>
       </c>
-      <c r="J64" s="532"/>
-      <c r="K64" s="533">
+      <c r="J64" s="531"/>
+      <c r="K64" s="532">
         <f>K60+K62</f>
         <v>1102.720000000234</v>
       </c>
-      <c r="L64" s="534"/>
+      <c r="L64" s="533"/>
       <c r="P64" s="50"/>
       <c r="Q64" s="7"/>
       <c r="S64" s="121"/>
@@ -50306,6 +50412,12 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="K62:L62"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="I64:J64"/>
+    <mergeCell ref="K64:L64"/>
+    <mergeCell ref="M58:N58"/>
+    <mergeCell ref="D59:E59"/>
     <mergeCell ref="P59:Q59"/>
     <mergeCell ref="D60:E60"/>
     <mergeCell ref="I60:J60"/>
@@ -50317,12 +50429,6 @@
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="H58:I58"/>
     <mergeCell ref="K58:L58"/>
-    <mergeCell ref="K62:L62"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="I64:J64"/>
-    <mergeCell ref="K64:L64"/>
-    <mergeCell ref="M58:N58"/>
-    <mergeCell ref="D59:E59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -51205,17 +51311,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C1" s="536" t="s">
+      <c r="C1" s="514" t="s">
         <v>504</v>
       </c>
-      <c r="D1" s="536"/>
-      <c r="E1" s="536"/>
-      <c r="F1" s="536"/>
-      <c r="G1" s="536"/>
-      <c r="H1" s="536"/>
-      <c r="I1" s="536"/>
-      <c r="J1" s="536"/>
-      <c r="K1" s="536"/>
+      <c r="D1" s="514"/>
+      <c r="E1" s="514"/>
+      <c r="F1" s="514"/>
+      <c r="G1" s="514"/>
+      <c r="H1" s="514"/>
+      <c r="I1" s="514"/>
+      <c r="J1" s="514"/>
+      <c r="K1" s="514"/>
       <c r="L1" s="2"/>
       <c r="M1" s="3"/>
       <c r="U1" s="209"/>
@@ -51245,17 +51351,17 @@
       </c>
     </row>
     <row r="3" spans="1:23" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="537" t="s">
+      <c r="B3" s="515" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="538"/>
+      <c r="C3" s="516"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="15"/>
-      <c r="H3" s="539" t="s">
+      <c r="H3" s="517" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="539"/>
+      <c r="I3" s="517"/>
       <c r="K3" s="17" t="s">
         <v>3</v>
       </c>
@@ -51284,14 +51390,14 @@
       <c r="D4" s="23">
         <v>44320</v>
       </c>
-      <c r="E4" s="540" t="s">
+      <c r="E4" s="518" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="541"/>
-      <c r="H4" s="542" t="s">
+      <c r="F4" s="519"/>
+      <c r="H4" s="520" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="543"/>
+      <c r="I4" s="521"/>
       <c r="J4" s="24"/>
       <c r="K4" s="25"/>
       <c r="L4" s="26"/>
@@ -54168,42 +54274,42 @@
       <c r="A64" s="60"/>
       <c r="B64" s="100"/>
       <c r="C64" s="4"/>
-      <c r="H64" s="523" t="s">
+      <c r="H64" s="522" t="s">
         <v>16</v>
       </c>
-      <c r="I64" s="524"/>
+      <c r="I64" s="523"/>
       <c r="J64" s="101"/>
-      <c r="K64" s="525">
+      <c r="K64" s="524">
         <f>I62+L62</f>
         <v>779034.56000000017</v>
       </c>
-      <c r="L64" s="526"/>
-      <c r="M64" s="527">
+      <c r="L64" s="525"/>
+      <c r="M64" s="526">
         <f>M62+N62</f>
         <v>4478181</v>
       </c>
-      <c r="N64" s="528"/>
+      <c r="N64" s="527"/>
       <c r="O64" s="102"/>
       <c r="P64" s="99"/>
       <c r="Q64" s="99"/>
       <c r="S64" s="174"/>
     </row>
     <row r="65" spans="2:19" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D65" s="535" t="s">
+      <c r="D65" s="534" t="s">
         <v>17</v>
       </c>
-      <c r="E65" s="535"/>
+      <c r="E65" s="534"/>
       <c r="F65" s="103">
         <f>F62-K64-C62</f>
         <v>3602842.44</v>
       </c>
       <c r="I65" s="104"/>
       <c r="J65" s="105"/>
-      <c r="P65" s="514">
+      <c r="P65" s="535">
         <f>P62+Q62</f>
         <v>5004562.5599999996</v>
       </c>
-      <c r="Q65" s="515"/>
+      <c r="Q65" s="536"/>
       <c r="S65" s="50"/>
     </row>
     <row r="66" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -54211,22 +54317,22 @@
         <v>528</v>
       </c>
       <c r="C66" s="552"/>
-      <c r="D66" s="535" t="s">
+      <c r="D66" s="534" t="s">
         <v>502</v>
       </c>
-      <c r="E66" s="535"/>
+      <c r="E66" s="534"/>
       <c r="F66" s="95">
         <v>-3854423.8</v>
       </c>
-      <c r="I66" s="517" t="s">
+      <c r="I66" s="538" t="s">
         <v>19</v>
       </c>
-      <c r="J66" s="518"/>
-      <c r="K66" s="519">
+      <c r="J66" s="539"/>
+      <c r="K66" s="540">
         <f>F68+F69+F70</f>
         <v>14998.430000000139</v>
       </c>
-      <c r="L66" s="520"/>
+      <c r="L66" s="541"/>
       <c r="P66" s="50"/>
       <c r="S66" s="107"/>
     </row>
@@ -54261,11 +54367,11 @@
         <v>21</v>
       </c>
       <c r="J68" s="115"/>
-      <c r="K68" s="521">
+      <c r="K68" s="542">
         <f>-C4</f>
         <v>-249311.35999999999</v>
       </c>
-      <c r="L68" s="522"/>
+      <c r="L68" s="543"/>
       <c r="M68" s="116"/>
       <c r="P68" s="50"/>
       <c r="Q68" s="7"/>
@@ -54289,22 +54395,22 @@
       <c r="C70" s="119">
         <v>44353</v>
       </c>
-      <c r="D70" s="529" t="s">
+      <c r="D70" s="528" t="s">
         <v>24</v>
       </c>
-      <c r="E70" s="530"/>
+      <c r="E70" s="529"/>
       <c r="F70" s="120">
         <v>255764.39</v>
       </c>
-      <c r="I70" s="531" t="s">
+      <c r="I70" s="530" t="s">
         <v>431</v>
       </c>
-      <c r="J70" s="532"/>
-      <c r="K70" s="533">
+      <c r="J70" s="531"/>
+      <c r="K70" s="532">
         <f>K66+K68</f>
         <v>-234312.92999999985</v>
       </c>
-      <c r="L70" s="534"/>
+      <c r="L70" s="533"/>
       <c r="P70" s="50"/>
       <c r="Q70" s="7"/>
       <c r="S70" s="121"/>
@@ -54460,6 +54566,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="I70:J70"/>
+    <mergeCell ref="K70:L70"/>
+    <mergeCell ref="M64:N64"/>
+    <mergeCell ref="D65:E65"/>
     <mergeCell ref="P65:Q65"/>
     <mergeCell ref="D66:E66"/>
     <mergeCell ref="I66:J66"/>
@@ -54473,11 +54584,6 @@
     <mergeCell ref="K64:L64"/>
     <mergeCell ref="B66:C68"/>
     <mergeCell ref="K68:L68"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="I70:J70"/>
-    <mergeCell ref="K70:L70"/>
-    <mergeCell ref="M64:N64"/>
-    <mergeCell ref="D65:E65"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO  2 0 2 1/CENTRAL # 08 AGOSTO  2021/BALANCE ABASTOS   AGOSTO       2021.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO  2 0 2 1/CENTRAL # 08 AGOSTO  2021/BALANCE ABASTOS   AGOSTO       2021.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17190" windowHeight="10725" firstSheet="13" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17190" windowHeight="10725" firstSheet="14" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="E N E R O     2 0 2 1    " sheetId="1" r:id="rId1"/>
@@ -569,7 +569,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2126" uniqueCount="813">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2149" uniqueCount="826">
   <si>
     <t>MORRALLA EN CAJA DE 11 SUR   2,800.00  +  $ 1,200.00 Total    $  4,000.00</t>
   </si>
@@ -3008,6 +3008,45 @@
   </si>
   <si>
     <t xml:space="preserve">      </t>
+  </si>
+  <si>
+    <t>17340 B</t>
+  </si>
+  <si>
+    <t>17601 B</t>
+  </si>
+  <si>
+    <t>17604 B</t>
+  </si>
+  <si>
+    <t>17681 B</t>
+  </si>
+  <si>
+    <t>17781 B</t>
+  </si>
+  <si>
+    <t>17889 B</t>
+  </si>
+  <si>
+    <t>18135 B</t>
+  </si>
+  <si>
+    <t>18334 B</t>
+  </si>
+  <si>
+    <t>18424 B</t>
+  </si>
+  <si>
+    <t>Julio -2021,.</t>
+  </si>
+  <si>
+    <t>Junio.,2021</t>
+  </si>
+  <si>
+    <t>Agosto.,2021</t>
+  </si>
+  <si>
+    <t>total de FALTANTE</t>
   </si>
 </sst>
 </file>
@@ -3602,7 +3641,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="94">
+  <borders count="102">
     <border>
       <left/>
       <right/>
@@ -4795,12 +4834,106 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="639">
+  <cellXfs count="656">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -5903,30 +6036,34 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="7" fillId="19" borderId="79" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="7" fillId="19" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="46" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="46" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="14" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5968,31 +6105,26 @@
     <xf numFmtId="166" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="46" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="46" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="6" fillId="15" borderId="48" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6007,14 +6139,14 @@
     <xf numFmtId="166" fontId="6" fillId="15" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="14" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="35" fillId="10" borderId="64" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -6033,15 +6165,6 @@
     </xf>
     <xf numFmtId="44" fontId="35" fillId="10" borderId="66" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="10" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="10" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="35" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="16" fillId="13" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -6121,32 +6244,26 @@
     <xf numFmtId="44" fontId="49" fillId="0" borderId="66" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="46" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="35" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="10" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="10" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="16" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="20" borderId="64" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="16" fillId="16" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="20" borderId="69" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="20" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="20" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="53" fillId="20" borderId="69" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="53" fillId="20" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="53" fillId="20" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="53" fillId="20" borderId="66" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="16" fillId="8" borderId="67" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -6187,17 +6304,32 @@
     <xf numFmtId="44" fontId="16" fillId="14" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="16" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="46" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="20" borderId="64" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="16" fillId="16" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="2" fillId="20" borderId="69" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="44" fontId="2" fillId="20" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="20" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="53" fillId="20" borderId="69" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="53" fillId="20" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="53" fillId="20" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="53" fillId="20" borderId="66" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="8" borderId="64" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -6211,44 +6343,35 @@
     <xf numFmtId="44" fontId="2" fillId="8" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="53" fillId="8" borderId="69" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="53" fillId="8" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="53" fillId="8" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="53" fillId="8" borderId="66" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="7" fontId="35" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="7" fontId="6" fillId="16" borderId="86" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="7" fontId="35" fillId="4" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="7" fontId="6" fillId="16" borderId="87" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="7" fontId="6" fillId="16" borderId="88" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="6" fillId="16" borderId="89" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="7" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="6" fillId="11" borderId="86" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -6262,23 +6385,72 @@
     <xf numFmtId="166" fontId="6" fillId="11" borderId="89" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="7" fontId="35" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="16" borderId="79" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="7" fillId="16" borderId="80" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="7" fillId="16" borderId="81" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="7" fillId="16" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="7" fillId="16" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="16" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="7" fillId="16" borderId="83" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="35" fillId="11" borderId="86" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="35" fillId="11" borderId="87" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="35" fillId="11" borderId="88" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="35" fillId="11" borderId="89" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="6" fillId="11" borderId="73" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="7" fontId="35" fillId="4" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="7" fontId="6" fillId="11" borderId="85" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="94" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="7" fontId="6" fillId="11" borderId="86" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="7" fontId="6" fillId="11" borderId="87" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="16" fillId="8" borderId="82" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="16" fillId="8" borderId="95" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="35" fillId="7" borderId="96" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="35" fillId="7" borderId="97" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="7" borderId="98" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="35" fillId="7" borderId="99" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="35" fillId="7" borderId="100" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="7" borderId="101" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -6289,10 +6461,10 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF66FFFF"/>
+      <color rgb="FF0000FF"/>
       <color rgb="FFFF3300"/>
       <color rgb="FF00FF00"/>
-      <color rgb="FF0000FF"/>
-      <color rgb="FF66FFFF"/>
       <color rgb="FF800000"/>
       <color rgb="FFCC99FF"/>
       <color rgb="FF99CCFF"/>
@@ -11933,17 +12105,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C1" s="514" t="s">
+      <c r="C1" s="535" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="514"/>
-      <c r="E1" s="514"/>
-      <c r="F1" s="514"/>
-      <c r="G1" s="514"/>
-      <c r="H1" s="514"/>
-      <c r="I1" s="514"/>
-      <c r="J1" s="514"/>
-      <c r="K1" s="514"/>
+      <c r="D1" s="535"/>
+      <c r="E1" s="535"/>
+      <c r="F1" s="535"/>
+      <c r="G1" s="535"/>
+      <c r="H1" s="535"/>
+      <c r="I1" s="535"/>
+      <c r="J1" s="535"/>
+      <c r="K1" s="535"/>
       <c r="L1" s="2"/>
       <c r="M1" s="3"/>
       <c r="U1" s="209"/>
@@ -11974,17 +12146,17 @@
       </c>
     </row>
     <row r="3" spans="1:23" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="515" t="s">
+      <c r="B3" s="536" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="516"/>
+      <c r="C3" s="537"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="15"/>
-      <c r="H3" s="517" t="s">
+      <c r="H3" s="538" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="517"/>
+      <c r="I3" s="538"/>
       <c r="K3" s="17" t="s">
         <v>3</v>
       </c>
@@ -12013,14 +12185,14 @@
       <c r="D4" s="23">
         <v>44201</v>
       </c>
-      <c r="E4" s="518" t="s">
+      <c r="E4" s="539" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="519"/>
-      <c r="H4" s="520" t="s">
+      <c r="F4" s="540"/>
+      <c r="H4" s="541" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="521"/>
+      <c r="I4" s="542"/>
       <c r="J4" s="24"/>
       <c r="K4" s="25"/>
       <c r="L4" s="26"/>
@@ -14662,30 +14834,30 @@
       </c>
       <c r="I65" s="104"/>
       <c r="J65" s="105"/>
-      <c r="P65" s="535">
+      <c r="P65" s="513">
         <f>P62+Q62</f>
         <v>3321521.28</v>
       </c>
-      <c r="Q65" s="536"/>
+      <c r="Q65" s="514"/>
       <c r="S65" s="50"/>
     </row>
     <row r="66" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D66" s="537" t="s">
+      <c r="D66" s="515" t="s">
         <v>18</v>
       </c>
-      <c r="E66" s="537"/>
+      <c r="E66" s="515"/>
       <c r="F66" s="95">
         <v>-2276696.6800000002</v>
       </c>
-      <c r="I66" s="538" t="s">
+      <c r="I66" s="516" t="s">
         <v>19</v>
       </c>
-      <c r="J66" s="539"/>
-      <c r="K66" s="540">
+      <c r="J66" s="517"/>
+      <c r="K66" s="518">
         <f>F68+F69+F70</f>
         <v>344253.98999999964</v>
       </c>
-      <c r="L66" s="541"/>
+      <c r="L66" s="519"/>
       <c r="P66" s="50"/>
       <c r="S66" s="107"/>
     </row>
@@ -14719,11 +14891,11 @@
         <v>21</v>
       </c>
       <c r="J68" s="115"/>
-      <c r="K68" s="542">
+      <c r="K68" s="520">
         <f>-C4</f>
         <v>-250864.68</v>
       </c>
-      <c r="L68" s="543"/>
+      <c r="L68" s="521"/>
       <c r="M68" s="116"/>
       <c r="P68" s="50"/>
       <c r="Q68" s="7"/>
@@ -14866,11 +15038,11 @@
     <sortCondition ref="J35:J54"/>
   </sortState>
   <mergeCells count="17">
-    <mergeCell ref="P65:Q65"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="I66:J66"/>
-    <mergeCell ref="K66:L66"/>
-    <mergeCell ref="K68:L68"/>
+    <mergeCell ref="C1:K1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
     <mergeCell ref="H64:I64"/>
     <mergeCell ref="K64:L64"/>
     <mergeCell ref="M64:N64"/>
@@ -14878,11 +15050,11 @@
     <mergeCell ref="I70:J70"/>
     <mergeCell ref="K70:L70"/>
     <mergeCell ref="D65:E65"/>
-    <mergeCell ref="C1:K1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="P65:Q65"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="I66:J66"/>
+    <mergeCell ref="K66:L66"/>
+    <mergeCell ref="K68:L68"/>
   </mergeCells>
   <phoneticPr fontId="41" type="noConversion"/>
   <pageMargins left="0.2" right="0.16" top="0.34" bottom="0.32" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -16307,20 +16479,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="557" t="s">
+      <c r="B1" s="583" t="s">
         <v>529</v>
       </c>
-      <c r="C1" s="514" t="s">
+      <c r="C1" s="535" t="s">
         <v>503</v>
       </c>
-      <c r="D1" s="514"/>
-      <c r="E1" s="514"/>
-      <c r="F1" s="514"/>
-      <c r="G1" s="514"/>
-      <c r="H1" s="514"/>
-      <c r="I1" s="514"/>
-      <c r="J1" s="514"/>
-      <c r="K1" s="514"/>
+      <c r="D1" s="535"/>
+      <c r="E1" s="535"/>
+      <c r="F1" s="535"/>
+      <c r="G1" s="535"/>
+      <c r="H1" s="535"/>
+      <c r="I1" s="535"/>
+      <c r="J1" s="535"/>
+      <c r="K1" s="535"/>
       <c r="L1" s="2"/>
       <c r="M1" s="3"/>
       <c r="W1" s="209"/>
@@ -16330,7 +16502,7 @@
       <c r="Y1" s="206"/>
     </row>
     <row r="2" spans="1:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="558"/>
+      <c r="B2" s="584"/>
       <c r="C2" s="8"/>
       <c r="H2" s="10" t="s">
         <v>0</v>
@@ -16349,27 +16521,27 @@
       <c r="Y2" s="216" t="s">
         <v>28</v>
       </c>
-      <c r="AB2" s="570" t="s">
+      <c r="AB2" s="566" t="s">
         <v>596</v>
       </c>
-      <c r="AC2" s="570"/>
-      <c r="AD2" s="570"/>
-      <c r="AE2" s="570"/>
-      <c r="AF2" s="570"/>
-      <c r="AG2" s="570"/>
+      <c r="AC2" s="566"/>
+      <c r="AD2" s="566"/>
+      <c r="AE2" s="566"/>
+      <c r="AF2" s="566"/>
+      <c r="AG2" s="566"/>
     </row>
     <row r="3" spans="1:33" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="515" t="s">
+      <c r="B3" s="536" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="516"/>
+      <c r="C3" s="537"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="15"/>
-      <c r="H3" s="517" t="s">
+      <c r="H3" s="538" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="517"/>
+      <c r="I3" s="538"/>
       <c r="K3" s="17" t="s">
         <v>3</v>
       </c>
@@ -16377,7 +16549,7 @@
         <v>4</v>
       </c>
       <c r="M3" s="18"/>
-      <c r="P3" s="560" t="s">
+      <c r="P3" s="556" t="s">
         <v>562</v>
       </c>
       <c r="Q3" s="393"/>
@@ -16390,12 +16562,12 @@
       <c r="Y3" s="198">
         <v>2000</v>
       </c>
-      <c r="AB3" s="570"/>
-      <c r="AC3" s="570"/>
-      <c r="AD3" s="570"/>
-      <c r="AE3" s="570"/>
-      <c r="AF3" s="570"/>
-      <c r="AG3" s="570"/>
+      <c r="AB3" s="566"/>
+      <c r="AC3" s="566"/>
+      <c r="AD3" s="566"/>
+      <c r="AE3" s="566"/>
+      <c r="AF3" s="566"/>
+      <c r="AG3" s="566"/>
     </row>
     <row r="4" spans="1:33" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="20" t="s">
@@ -16408,14 +16580,14 @@
       <c r="D4" s="23">
         <v>44353</v>
       </c>
-      <c r="E4" s="518" t="s">
+      <c r="E4" s="539" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="519"/>
-      <c r="H4" s="520" t="s">
+      <c r="F4" s="540"/>
+      <c r="H4" s="541" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="521"/>
+      <c r="I4" s="542"/>
       <c r="J4" s="24"/>
       <c r="K4" s="25"/>
       <c r="L4" s="26"/>
@@ -16426,7 +16598,7 @@
         <v>10</v>
       </c>
       <c r="O4" s="365"/>
-      <c r="P4" s="560"/>
+      <c r="P4" s="556"/>
       <c r="Q4" s="393"/>
       <c r="R4" s="30"/>
       <c r="S4" s="31"/>
@@ -16441,16 +16613,16 @@
       <c r="Y4" s="217">
         <v>2000</v>
       </c>
-      <c r="AB4" s="571" t="s">
+      <c r="AB4" s="567" t="s">
         <v>527</v>
       </c>
-      <c r="AC4" s="572"/>
+      <c r="AC4" s="568"/>
       <c r="AD4" s="99"/>
-      <c r="AE4" s="573" t="s">
+      <c r="AE4" s="569" t="s">
         <v>567</v>
       </c>
-      <c r="AF4" s="573"/>
-      <c r="AG4" s="573"/>
+      <c r="AF4" s="569"/>
+      <c r="AG4" s="569"/>
     </row>
     <row r="5" spans="1:33" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="34" t="s">
@@ -17862,10 +18034,10 @@
         <v>0</v>
       </c>
       <c r="AD23" s="99"/>
-      <c r="AE23" s="578" t="s">
+      <c r="AE23" s="574" t="s">
         <v>564</v>
       </c>
-      <c r="AF23" s="579"/>
+      <c r="AF23" s="575"/>
       <c r="AG23" s="339">
         <f>SUM(AG6:AG22)</f>
         <v>2323600</v>
@@ -18009,11 +18181,11 @@
         <v>138607</v>
       </c>
       <c r="AD25" s="99"/>
-      <c r="AE25" s="580" t="s">
+      <c r="AE25" s="576" t="s">
         <v>565</v>
       </c>
-      <c r="AF25" s="581"/>
-      <c r="AG25" s="584">
+      <c r="AF25" s="577"/>
+      <c r="AG25" s="580">
         <f>AC29-AG23</f>
         <v>163726</v>
       </c>
@@ -18084,9 +18256,9 @@
         <v>107480</v>
       </c>
       <c r="AD26" s="99"/>
-      <c r="AE26" s="582"/>
-      <c r="AF26" s="583"/>
-      <c r="AG26" s="585"/>
+      <c r="AE26" s="578"/>
+      <c r="AF26" s="579"/>
+      <c r="AG26" s="581"/>
     </row>
     <row r="27" spans="1:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="34"/>
@@ -18261,10 +18433,10 @@
       </c>
       <c r="X29" s="220"/>
       <c r="Y29" s="218"/>
-      <c r="AB29" s="574" t="s">
+      <c r="AB29" s="570" t="s">
         <v>562</v>
       </c>
-      <c r="AC29" s="576">
+      <c r="AC29" s="572">
         <f>SUM(AC5:AC28)</f>
         <v>2487326</v>
       </c>
@@ -18300,11 +18472,11 @@
         <v>0</v>
       </c>
       <c r="O30" s="7"/>
-      <c r="P30" s="561">
+      <c r="P30" s="557">
         <f>SUM(P5:P29)</f>
         <v>-163726</v>
       </c>
-      <c r="Q30" s="561"/>
+      <c r="Q30" s="557"/>
       <c r="R30" s="7">
         <v>0</v>
       </c>
@@ -18318,8 +18490,8 @@
       </c>
       <c r="X30" s="221"/>
       <c r="Y30" s="207"/>
-      <c r="AB30" s="575"/>
-      <c r="AC30" s="577"/>
+      <c r="AB30" s="571"/>
+      <c r="AC30" s="573"/>
       <c r="AD30" s="99"/>
       <c r="AE30" s="99"/>
       <c r="AF30" s="99"/>
@@ -19720,30 +19892,30 @@
       </c>
       <c r="I65" s="104"/>
       <c r="J65" s="105"/>
-      <c r="R65" s="535">
+      <c r="R65" s="513">
         <f>R62+S62</f>
         <v>3138957.44</v>
       </c>
-      <c r="S65" s="536"/>
+      <c r="S65" s="514"/>
       <c r="U65" s="50"/>
     </row>
     <row r="66" spans="2:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D66" s="537" t="s">
+      <c r="D66" s="515" t="s">
         <v>502</v>
       </c>
-      <c r="E66" s="537"/>
+      <c r="E66" s="515"/>
       <c r="F66" s="95">
         <v>-2720820.95</v>
       </c>
-      <c r="I66" s="538" t="s">
+      <c r="I66" s="516" t="s">
         <v>19</v>
       </c>
-      <c r="J66" s="539"/>
-      <c r="K66" s="540">
+      <c r="J66" s="517"/>
+      <c r="K66" s="518">
         <f>F68+F69+F70</f>
         <v>381077.48999999953</v>
       </c>
-      <c r="L66" s="541"/>
+      <c r="L66" s="519"/>
       <c r="R66" s="50"/>
       <c r="U66" s="107"/>
     </row>
@@ -19777,11 +19949,11 @@
         <v>21</v>
       </c>
       <c r="J68" s="115"/>
-      <c r="K68" s="542">
+      <c r="K68" s="520">
         <f>-C4</f>
         <v>-255764.39</v>
       </c>
-      <c r="L68" s="543"/>
+      <c r="L68" s="521"/>
       <c r="M68" s="116"/>
       <c r="R68" s="50"/>
       <c r="S68" s="7"/>
@@ -19836,14 +20008,14 @@
       <c r="S71" s="7"/>
     </row>
     <row r="72" spans="2:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I72" s="562" t="s">
+      <c r="I72" s="558" t="s">
         <v>610</v>
       </c>
-      <c r="J72" s="563"/>
-      <c r="K72" s="566">
+      <c r="J72" s="559"/>
+      <c r="K72" s="562">
         <v>163726</v>
       </c>
-      <c r="L72" s="567"/>
+      <c r="L72" s="563"/>
       <c r="R72" s="7"/>
       <c r="S72" s="7"/>
     </row>
@@ -19852,10 +20024,10 @@
       <c r="C73" s="128"/>
       <c r="D73" s="129"/>
       <c r="E73" s="7"/>
-      <c r="I73" s="564"/>
-      <c r="J73" s="565"/>
-      <c r="K73" s="568"/>
-      <c r="L73" s="569"/>
+      <c r="I73" s="560"/>
+      <c r="J73" s="561"/>
+      <c r="K73" s="564"/>
+      <c r="L73" s="565"/>
       <c r="M73" s="2"/>
       <c r="N73" s="60"/>
       <c r="O73" s="165"/>
@@ -19907,7 +20079,7 @@
       <c r="C76" s="130"/>
       <c r="E76" s="7"/>
       <c r="M76" s="4"/>
-      <c r="AC76" s="559"/>
+      <c r="AC76" s="582"/>
       <c r="AD76" s="342"/>
       <c r="AE76" s="342"/>
       <c r="AF76" s="342"/>
@@ -19920,7 +20092,7 @@
       <c r="E77" s="7"/>
       <c r="F77" s="273"/>
       <c r="M77" s="4"/>
-      <c r="AC77" s="559"/>
+      <c r="AC77" s="582"/>
       <c r="AD77" s="342"/>
       <c r="AE77" s="342"/>
       <c r="AF77" s="342"/>
@@ -20014,6 +20186,22 @@
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:K1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="AC76:AC77"/>
+    <mergeCell ref="R65:S65"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="I66:J66"/>
+    <mergeCell ref="K66:L66"/>
+    <mergeCell ref="K68:L68"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="I70:J70"/>
+    <mergeCell ref="K70:L70"/>
+    <mergeCell ref="D65:E65"/>
     <mergeCell ref="P3:P4"/>
     <mergeCell ref="P30:Q30"/>
     <mergeCell ref="I72:J73"/>
@@ -20029,22 +20217,6 @@
     <mergeCell ref="AE23:AF23"/>
     <mergeCell ref="AE25:AF26"/>
     <mergeCell ref="AG25:AG26"/>
-    <mergeCell ref="AC76:AC77"/>
-    <mergeCell ref="R65:S65"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="I66:J66"/>
-    <mergeCell ref="K66:L66"/>
-    <mergeCell ref="K68:L68"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="I70:J70"/>
-    <mergeCell ref="K70:L70"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:K1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
   </mergeCells>
   <pageMargins left="0.49" right="0.23622047244094491" top="0.47244094488188981" bottom="0.27559055118110237" header="0.70866141732283472" footer="0.31496062992125984"/>
   <pageSetup scale="90" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -21352,8 +21524,8 @@
   </sheetPr>
   <dimension ref="A1:W78"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="E59" sqref="E59"/>
+    <sheetView topLeftCell="N13" workbookViewId="0">
+      <selection activeCell="V38" sqref="V38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -21382,25 +21554,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="557" t="s">
+      <c r="B1" s="583" t="s">
         <v>529</v>
       </c>
-      <c r="C1" s="514" t="s">
+      <c r="C1" s="535" t="s">
         <v>503</v>
       </c>
-      <c r="D1" s="514"/>
-      <c r="E1" s="514"/>
-      <c r="F1" s="514"/>
-      <c r="G1" s="514"/>
-      <c r="H1" s="514"/>
-      <c r="I1" s="514"/>
-      <c r="J1" s="514"/>
-      <c r="K1" s="514"/>
+      <c r="D1" s="535"/>
+      <c r="E1" s="535"/>
+      <c r="F1" s="535"/>
+      <c r="G1" s="535"/>
+      <c r="H1" s="535"/>
+      <c r="I1" s="535"/>
+      <c r="J1" s="535"/>
+      <c r="K1" s="535"/>
       <c r="L1" s="2"/>
       <c r="M1" s="3"/>
     </row>
     <row r="2" spans="1:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="558"/>
+      <c r="B2" s="584"/>
       <c r="C2" s="8"/>
       <c r="H2" s="10" t="s">
         <v>0</v>
@@ -21410,27 +21582,27 @@
       <c r="L2" s="12"/>
       <c r="M2" s="3"/>
       <c r="N2" s="6"/>
-      <c r="Q2" s="570" t="s">
+      <c r="Q2" s="566" t="s">
         <v>596</v>
       </c>
-      <c r="R2" s="570"/>
-      <c r="S2" s="570"/>
-      <c r="T2" s="570"/>
-      <c r="U2" s="570"/>
-      <c r="V2" s="570"/>
+      <c r="R2" s="566"/>
+      <c r="S2" s="566"/>
+      <c r="T2" s="566"/>
+      <c r="U2" s="566"/>
+      <c r="V2" s="566"/>
     </row>
     <row r="3" spans="1:23" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="515" t="s">
+      <c r="B3" s="536" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="516"/>
+      <c r="C3" s="537"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="15"/>
-      <c r="H3" s="517" t="s">
+      <c r="H3" s="538" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="517"/>
+      <c r="I3" s="538"/>
       <c r="K3" s="17" t="s">
         <v>3</v>
       </c>
@@ -21438,12 +21610,12 @@
         <v>4</v>
       </c>
       <c r="M3" s="18"/>
-      <c r="Q3" s="570"/>
-      <c r="R3" s="570"/>
-      <c r="S3" s="570"/>
-      <c r="T3" s="570"/>
-      <c r="U3" s="570"/>
-      <c r="V3" s="570"/>
+      <c r="Q3" s="566"/>
+      <c r="R3" s="566"/>
+      <c r="S3" s="566"/>
+      <c r="T3" s="566"/>
+      <c r="U3" s="566"/>
+      <c r="V3" s="566"/>
     </row>
     <row r="4" spans="1:23" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="20" t="s">
@@ -21456,14 +21628,14 @@
       <c r="D4" s="23">
         <v>44353</v>
       </c>
-      <c r="E4" s="518" t="s">
+      <c r="E4" s="539" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="519"/>
-      <c r="H4" s="520" t="s">
+      <c r="F4" s="540"/>
+      <c r="H4" s="541" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="521"/>
+      <c r="I4" s="542"/>
       <c r="J4" s="24"/>
       <c r="K4" s="25"/>
       <c r="L4" s="26"/>
@@ -21475,16 +21647,16 @@
       </c>
       <c r="O4" s="365"/>
       <c r="P4" s="29"/>
-      <c r="Q4" s="571" t="s">
+      <c r="Q4" s="567" t="s">
         <v>527</v>
       </c>
-      <c r="R4" s="572"/>
+      <c r="R4" s="568"/>
       <c r="S4" s="99"/>
-      <c r="T4" s="573" t="s">
+      <c r="T4" s="569" t="s">
         <v>567</v>
       </c>
-      <c r="U4" s="573"/>
-      <c r="V4" s="573"/>
+      <c r="U4" s="569"/>
+      <c r="V4" s="569"/>
       <c r="W4" s="99"/>
     </row>
     <row r="5" spans="1:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -22483,10 +22655,10 @@
         <v>0</v>
       </c>
       <c r="S23" s="99"/>
-      <c r="T23" s="578" t="s">
+      <c r="T23" s="574" t="s">
         <v>564</v>
       </c>
-      <c r="U23" s="579"/>
+      <c r="U23" s="575"/>
       <c r="V23" s="339">
         <f>SUM(V6:V22)</f>
         <v>2323600</v>
@@ -22590,11 +22762,11 @@
         <v>138607</v>
       </c>
       <c r="S25" s="99"/>
-      <c r="T25" s="580" t="s">
+      <c r="T25" s="576" t="s">
         <v>565</v>
       </c>
-      <c r="U25" s="581"/>
-      <c r="V25" s="584">
+      <c r="U25" s="577"/>
+      <c r="V25" s="580">
         <f>R29-V23</f>
         <v>163726</v>
       </c>
@@ -22643,9 +22815,9 @@
         <v>107480</v>
       </c>
       <c r="S26" s="99"/>
-      <c r="T26" s="582"/>
-      <c r="U26" s="583"/>
-      <c r="V26" s="585"/>
+      <c r="T26" s="578"/>
+      <c r="U26" s="579"/>
+      <c r="V26" s="581"/>
       <c r="W26" s="99"/>
     </row>
     <row r="27" spans="1:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -22768,10 +22940,10 @@
       </c>
       <c r="O29" s="7"/>
       <c r="P29" s="29"/>
-      <c r="Q29" s="574" t="s">
+      <c r="Q29" s="570" t="s">
         <v>562</v>
       </c>
-      <c r="R29" s="576">
+      <c r="R29" s="572">
         <f>SUM(R5:R28)</f>
         <v>2487326</v>
       </c>
@@ -22808,8 +22980,8 @@
       </c>
       <c r="O30" s="7"/>
       <c r="P30" s="373"/>
-      <c r="Q30" s="575"/>
-      <c r="R30" s="577"/>
+      <c r="Q30" s="571"/>
+      <c r="R30" s="573"/>
       <c r="S30" s="99"/>
       <c r="T30" s="99"/>
       <c r="U30" s="99"/>
@@ -23472,22 +23644,22 @@
       <c r="J51" s="105"/>
     </row>
     <row r="52" spans="1:23" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D52" s="537" t="s">
+      <c r="D52" s="515" t="s">
         <v>502</v>
       </c>
-      <c r="E52" s="537"/>
+      <c r="E52" s="515"/>
       <c r="F52" s="95">
         <v>-2720820.95</v>
       </c>
-      <c r="I52" s="538" t="s">
+      <c r="I52" s="516" t="s">
         <v>19</v>
       </c>
-      <c r="J52" s="539"/>
-      <c r="K52" s="540">
+      <c r="J52" s="517"/>
+      <c r="K52" s="518">
         <f>F54+F55+F56</f>
         <v>381077.72999999952</v>
       </c>
-      <c r="L52" s="541"/>
+      <c r="L52" s="519"/>
     </row>
     <row r="53" spans="1:23" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D53" s="108"/>
@@ -23516,11 +23688,11 @@
         <v>21</v>
       </c>
       <c r="J54" s="115"/>
-      <c r="K54" s="542">
+      <c r="K54" s="520">
         <f>-C4</f>
         <v>-255764.39</v>
       </c>
-      <c r="L54" s="543"/>
+      <c r="L54" s="521"/>
       <c r="M54" s="116"/>
     </row>
     <row r="55" spans="1:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -23609,7 +23781,7 @@
       <c r="C62" s="130"/>
       <c r="E62" s="7"/>
       <c r="M62" s="4"/>
-      <c r="R62" s="559"/>
+      <c r="R62" s="582"/>
       <c r="S62" s="379"/>
       <c r="T62" s="379"/>
       <c r="U62" s="379"/>
@@ -23622,7 +23794,7 @@
       <c r="E63" s="7"/>
       <c r="F63" s="273"/>
       <c r="M63" s="4"/>
-      <c r="R63" s="559"/>
+      <c r="R63" s="582"/>
       <c r="S63" s="379"/>
       <c r="T63" s="379"/>
       <c r="U63" s="379"/>
@@ -23699,6 +23871,23 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="Q2:V3"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="T4:V4"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="K50:L50"/>
+    <mergeCell ref="M50:N50"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:K1"/>
+    <mergeCell ref="T23:U23"/>
+    <mergeCell ref="T25:U26"/>
+    <mergeCell ref="V25:V26"/>
+    <mergeCell ref="Q29:Q30"/>
+    <mergeCell ref="R29:R30"/>
     <mergeCell ref="R62:R63"/>
     <mergeCell ref="D51:E51"/>
     <mergeCell ref="D52:E52"/>
@@ -23708,23 +23897,6 @@
     <mergeCell ref="D56:E56"/>
     <mergeCell ref="I56:J56"/>
     <mergeCell ref="K56:L56"/>
-    <mergeCell ref="T23:U23"/>
-    <mergeCell ref="T25:U26"/>
-    <mergeCell ref="V25:V26"/>
-    <mergeCell ref="Q29:Q30"/>
-    <mergeCell ref="R29:R30"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="K50:L50"/>
-    <mergeCell ref="M50:N50"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:K1"/>
-    <mergeCell ref="Q2:V3"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="T4:V4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -23739,11 +23911,11 @@
   </sheetPr>
   <dimension ref="A1:AG97"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="4" topLeftCell="K26" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="5" ySplit="4" topLeftCell="F62" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="M38" sqref="M38"/>
+      <selection pane="bottomRight" activeCell="K77" sqref="K77:L78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -23778,20 +23950,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="557" t="s">
+      <c r="B1" s="583" t="s">
         <v>529</v>
       </c>
-      <c r="C1" s="514" t="s">
+      <c r="C1" s="535" t="s">
         <v>720</v>
       </c>
-      <c r="D1" s="514"/>
-      <c r="E1" s="514"/>
-      <c r="F1" s="514"/>
-      <c r="G1" s="514"/>
-      <c r="H1" s="514"/>
-      <c r="I1" s="514"/>
-      <c r="J1" s="514"/>
-      <c r="K1" s="514"/>
+      <c r="D1" s="535"/>
+      <c r="E1" s="535"/>
+      <c r="F1" s="535"/>
+      <c r="G1" s="535"/>
+      <c r="H1" s="535"/>
+      <c r="I1" s="535"/>
+      <c r="J1" s="535"/>
+      <c r="K1" s="535"/>
       <c r="L1" s="2"/>
       <c r="M1" s="3"/>
       <c r="W1" s="209"/>
@@ -23801,7 +23973,7 @@
       <c r="Y1" s="206"/>
     </row>
     <row r="2" spans="1:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="558"/>
+      <c r="B2" s="584"/>
       <c r="C2" s="8"/>
       <c r="H2" s="10" t="s">
         <v>0</v>
@@ -23820,27 +23992,27 @@
       <c r="Y2" s="216" t="s">
         <v>28</v>
       </c>
-      <c r="AB2" s="570" t="s">
+      <c r="AB2" s="566" t="s">
         <v>596</v>
       </c>
-      <c r="AC2" s="570"/>
-      <c r="AD2" s="570"/>
-      <c r="AE2" s="570"/>
-      <c r="AF2" s="570"/>
-      <c r="AG2" s="570"/>
+      <c r="AC2" s="566"/>
+      <c r="AD2" s="566"/>
+      <c r="AE2" s="566"/>
+      <c r="AF2" s="566"/>
+      <c r="AG2" s="566"/>
     </row>
     <row r="3" spans="1:33" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="515" t="s">
+      <c r="B3" s="536" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="516"/>
+      <c r="C3" s="537"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="15"/>
-      <c r="H3" s="517" t="s">
+      <c r="H3" s="538" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="517"/>
+      <c r="I3" s="538"/>
       <c r="K3" s="17" t="s">
         <v>3</v>
       </c>
@@ -23848,13 +24020,13 @@
         <v>4</v>
       </c>
       <c r="M3" s="18"/>
-      <c r="P3" s="608" t="s">
+      <c r="P3" s="585" t="s">
         <v>663</v>
       </c>
-      <c r="Q3" s="610" t="s">
+      <c r="Q3" s="587" t="s">
         <v>665</v>
       </c>
-      <c r="S3" s="611"/>
+      <c r="S3" s="588"/>
       <c r="W3" s="213" t="s">
         <v>54</v>
       </c>
@@ -23864,12 +24036,12 @@
       <c r="Y3" s="198">
         <v>2000</v>
       </c>
-      <c r="AB3" s="570"/>
-      <c r="AC3" s="570"/>
-      <c r="AD3" s="570"/>
-      <c r="AE3" s="570"/>
-      <c r="AF3" s="570"/>
-      <c r="AG3" s="570"/>
+      <c r="AB3" s="566"/>
+      <c r="AC3" s="566"/>
+      <c r="AD3" s="566"/>
+      <c r="AE3" s="566"/>
+      <c r="AF3" s="566"/>
+      <c r="AG3" s="566"/>
     </row>
     <row r="4" spans="1:33" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="20" t="s">
@@ -23882,14 +24054,14 @@
       <c r="D4" s="23">
         <v>44377</v>
       </c>
-      <c r="E4" s="518" t="s">
+      <c r="E4" s="539" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="519"/>
-      <c r="H4" s="609" t="s">
+      <c r="F4" s="540"/>
+      <c r="H4" s="586" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="521"/>
+      <c r="I4" s="542"/>
       <c r="J4" s="24"/>
       <c r="K4" s="25"/>
       <c r="L4" s="26"/>
@@ -23900,10 +24072,10 @@
         <v>10</v>
       </c>
       <c r="O4" s="365"/>
-      <c r="P4" s="608"/>
-      <c r="Q4" s="610"/>
+      <c r="P4" s="585"/>
+      <c r="Q4" s="587"/>
       <c r="R4" s="30"/>
-      <c r="S4" s="611"/>
+      <c r="S4" s="588"/>
       <c r="T4" s="30"/>
       <c r="U4" s="30"/>
       <c r="W4" s="213" t="s">
@@ -23915,16 +24087,16 @@
       <c r="Y4" s="217">
         <v>2000</v>
       </c>
-      <c r="AB4" s="571" t="s">
+      <c r="AB4" s="567" t="s">
         <v>527</v>
       </c>
-      <c r="AC4" s="572"/>
+      <c r="AC4" s="568"/>
       <c r="AD4" s="99"/>
-      <c r="AE4" s="573" t="s">
+      <c r="AE4" s="569" t="s">
         <v>567</v>
       </c>
-      <c r="AF4" s="573"/>
-      <c r="AG4" s="573"/>
+      <c r="AF4" s="569"/>
+      <c r="AG4" s="569"/>
     </row>
     <row r="5" spans="1:33" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="34" t="s">
@@ -25361,10 +25533,10 @@
         <v>0</v>
       </c>
       <c r="AD23" s="99"/>
-      <c r="AE23" s="578" t="s">
+      <c r="AE23" s="574" t="s">
         <v>564</v>
       </c>
-      <c r="AF23" s="579"/>
+      <c r="AF23" s="575"/>
       <c r="AG23" s="339">
         <f>SUM(AG6:AG22)</f>
         <v>2323600</v>
@@ -25496,11 +25668,11 @@
         <v>138607</v>
       </c>
       <c r="AD25" s="99"/>
-      <c r="AE25" s="580" t="s">
+      <c r="AE25" s="576" t="s">
         <v>565</v>
       </c>
-      <c r="AF25" s="581"/>
-      <c r="AG25" s="584">
+      <c r="AF25" s="577"/>
+      <c r="AG25" s="580">
         <f>AC29-AG23</f>
         <v>163726</v>
       </c>
@@ -25569,9 +25741,9 @@
         <v>107480</v>
       </c>
       <c r="AD26" s="99"/>
-      <c r="AE26" s="582"/>
-      <c r="AF26" s="583"/>
-      <c r="AG26" s="585"/>
+      <c r="AE26" s="578"/>
+      <c r="AF26" s="579"/>
+      <c r="AG26" s="581"/>
     </row>
     <row r="27" spans="1:33" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="34"/>
@@ -25770,10 +25942,10 @@
       </c>
       <c r="X29" s="220"/>
       <c r="Y29" s="218"/>
-      <c r="AB29" s="574" t="s">
+      <c r="AB29" s="570" t="s">
         <v>562</v>
       </c>
-      <c r="AC29" s="576">
+      <c r="AC29" s="572">
         <f>SUM(AC5:AC28)</f>
         <v>2487326</v>
       </c>
@@ -25836,8 +26008,8 @@
       </c>
       <c r="X30" s="221"/>
       <c r="Y30" s="207"/>
-      <c r="AB30" s="575"/>
-      <c r="AC30" s="577"/>
+      <c r="AB30" s="571"/>
+      <c r="AC30" s="573"/>
       <c r="AD30" s="99"/>
       <c r="AE30" s="99"/>
       <c r="AF30" s="99"/>
@@ -26330,11 +26502,11 @@
       <c r="J39" s="233"/>
       <c r="K39" s="361"/>
       <c r="L39" s="357"/>
-      <c r="M39" s="603">
+      <c r="M39" s="597">
         <f>SUM(M5:M38)</f>
         <v>3989472.22</v>
       </c>
-      <c r="N39" s="605">
+      <c r="N39" s="599">
         <f>SUM(N5:N38)</f>
         <v>689220.5</v>
       </c>
@@ -26383,8 +26555,8 @@
         <f>1145.91+398.99+423.94+498.99+398.99</f>
         <v>2866.8199999999997</v>
       </c>
-      <c r="M40" s="604"/>
-      <c r="N40" s="606"/>
+      <c r="M40" s="598"/>
+      <c r="N40" s="600"/>
       <c r="O40" s="7"/>
       <c r="P40" s="7"/>
       <c r="Q40" s="7"/>
@@ -26577,10 +26749,10 @@
       <c r="L44" s="358">
         <v>73526</v>
       </c>
-      <c r="M44" s="607" t="s">
+      <c r="M44" s="601" t="s">
         <v>567</v>
       </c>
-      <c r="N44" s="607"/>
+      <c r="N44" s="601"/>
       <c r="O44" s="7"/>
       <c r="P44" s="7"/>
       <c r="Q44" s="7"/>
@@ -27168,7 +27340,7 @@
       <c r="L57" s="458">
         <v>7482</v>
       </c>
-      <c r="M57" s="595">
+      <c r="M57" s="589">
         <f>SUM(M45:M56)</f>
         <v>3606750</v>
       </c>
@@ -27208,7 +27380,7 @@
       <c r="L58" s="458">
         <v>986</v>
       </c>
-      <c r="M58" s="596"/>
+      <c r="M58" s="590"/>
       <c r="N58" s="476"/>
       <c r="O58" s="7"/>
       <c r="P58" s="7"/>
@@ -27283,10 +27455,10 @@
         <f>1033.33+165.33</f>
         <v>1198.6599999999999</v>
       </c>
-      <c r="M60" s="597" t="s">
+      <c r="M60" s="591" t="s">
         <v>719</v>
       </c>
-      <c r="N60" s="598"/>
+      <c r="N60" s="592"/>
       <c r="O60" s="7"/>
       <c r="P60" s="7"/>
       <c r="Q60" s="7"/>
@@ -27359,11 +27531,11 @@
       <c r="L62" s="458">
         <v>22595.71</v>
       </c>
-      <c r="M62" s="599">
+      <c r="M62" s="593">
         <f>M57-M39</f>
         <v>-382722.2200000002</v>
       </c>
-      <c r="N62" s="600"/>
+      <c r="N62" s="594"/>
       <c r="O62" s="7"/>
       <c r="P62" s="7"/>
       <c r="Q62" s="7"/>
@@ -27399,8 +27571,8 @@
       <c r="L63" s="458">
         <v>1064</v>
       </c>
-      <c r="M63" s="601"/>
-      <c r="N63" s="602"/>
+      <c r="M63" s="595"/>
+      <c r="N63" s="596"/>
       <c r="O63" s="7"/>
       <c r="P63" s="7"/>
       <c r="Q63" s="7"/>
@@ -27626,30 +27798,30 @@
       </c>
       <c r="I70" s="104"/>
       <c r="J70" s="105"/>
-      <c r="R70" s="535">
+      <c r="R70" s="513">
         <f>R67+S67</f>
         <v>10503773.959999999</v>
       </c>
-      <c r="S70" s="536"/>
+      <c r="S70" s="514"/>
       <c r="U70" s="50"/>
     </row>
     <row r="71" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D71" s="537" t="s">
+      <c r="D71" s="515" t="s">
         <v>502</v>
       </c>
-      <c r="E71" s="537"/>
+      <c r="E71" s="515"/>
       <c r="F71" s="95">
         <v>-3290264.27</v>
       </c>
-      <c r="I71" s="538" t="s">
+      <c r="I71" s="516" t="s">
         <v>19</v>
       </c>
-      <c r="J71" s="539"/>
-      <c r="K71" s="540">
+      <c r="J71" s="517"/>
+      <c r="K71" s="518">
         <f>F73+F74+F75</f>
         <v>426565.1</v>
       </c>
-      <c r="L71" s="541"/>
+      <c r="L71" s="519"/>
       <c r="R71" s="50"/>
       <c r="U71" s="107"/>
     </row>
@@ -27683,11 +27855,11 @@
         <v>21</v>
       </c>
       <c r="J73" s="115"/>
-      <c r="K73" s="542">
+      <c r="K73" s="520">
         <f>-C4</f>
         <v>-308642.71999999997</v>
       </c>
-      <c r="L73" s="586"/>
+      <c r="L73" s="602"/>
       <c r="R73" s="50"/>
       <c r="S73" s="7"/>
       <c r="U73" s="50"/>
@@ -27740,14 +27912,14 @@
       <c r="S76" s="7"/>
     </row>
     <row r="77" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I77" s="587" t="s">
+      <c r="I77" s="603" t="s">
         <v>610</v>
       </c>
-      <c r="J77" s="588"/>
-      <c r="K77" s="591">
+      <c r="J77" s="604"/>
+      <c r="K77" s="607">
         <v>-383122.22</v>
       </c>
-      <c r="L77" s="592"/>
+      <c r="L77" s="608"/>
       <c r="R77" s="7"/>
       <c r="S77" s="7"/>
     </row>
@@ -27756,10 +27928,10 @@
       <c r="C78" s="128"/>
       <c r="D78" s="129"/>
       <c r="E78" s="7"/>
-      <c r="I78" s="589"/>
-      <c r="J78" s="590"/>
-      <c r="K78" s="593"/>
-      <c r="L78" s="594"/>
+      <c r="I78" s="605"/>
+      <c r="J78" s="606"/>
+      <c r="K78" s="609"/>
+      <c r="L78" s="610"/>
       <c r="M78" s="2"/>
       <c r="N78" s="60"/>
       <c r="O78" s="165"/>
@@ -27811,7 +27983,7 @@
       <c r="C81" s="130"/>
       <c r="E81" s="7"/>
       <c r="M81" s="4"/>
-      <c r="AC81" s="559"/>
+      <c r="AC81" s="582"/>
       <c r="AD81" s="440"/>
       <c r="AE81" s="440"/>
       <c r="AF81" s="440"/>
@@ -27824,7 +27996,7 @@
       <c r="E82" s="7"/>
       <c r="F82" s="273"/>
       <c r="M82" s="4"/>
-      <c r="AC82" s="559"/>
+      <c r="AC82" s="582"/>
       <c r="AD82" s="440"/>
       <c r="AE82" s="440"/>
       <c r="AF82" s="440"/>
@@ -27918,6 +28090,28 @@
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="AC81:AC82"/>
+    <mergeCell ref="K73:L73"/>
+    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="I75:J75"/>
+    <mergeCell ref="K75:L75"/>
+    <mergeCell ref="I77:J78"/>
+    <mergeCell ref="K77:L78"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="I71:J71"/>
+    <mergeCell ref="K71:L71"/>
+    <mergeCell ref="AE23:AF23"/>
+    <mergeCell ref="AE25:AF26"/>
+    <mergeCell ref="H69:I69"/>
+    <mergeCell ref="K69:L69"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="R70:S70"/>
+    <mergeCell ref="M57:M58"/>
+    <mergeCell ref="M60:N60"/>
+    <mergeCell ref="M62:N63"/>
+    <mergeCell ref="M39:M40"/>
+    <mergeCell ref="N39:N40"/>
+    <mergeCell ref="M44:N44"/>
     <mergeCell ref="AG25:AG26"/>
     <mergeCell ref="AB29:AB30"/>
     <mergeCell ref="AC29:AC30"/>
@@ -27933,28 +28127,6 @@
     <mergeCell ref="AE4:AG4"/>
     <mergeCell ref="Q3:Q4"/>
     <mergeCell ref="S3:S4"/>
-    <mergeCell ref="D71:E71"/>
-    <mergeCell ref="I71:J71"/>
-    <mergeCell ref="K71:L71"/>
-    <mergeCell ref="AE23:AF23"/>
-    <mergeCell ref="AE25:AF26"/>
-    <mergeCell ref="H69:I69"/>
-    <mergeCell ref="K69:L69"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="R70:S70"/>
-    <mergeCell ref="M57:M58"/>
-    <mergeCell ref="M60:N60"/>
-    <mergeCell ref="M62:N63"/>
-    <mergeCell ref="M39:M40"/>
-    <mergeCell ref="N39:N40"/>
-    <mergeCell ref="M44:N44"/>
-    <mergeCell ref="AC81:AC82"/>
-    <mergeCell ref="K73:L73"/>
-    <mergeCell ref="D75:E75"/>
-    <mergeCell ref="I75:J75"/>
-    <mergeCell ref="K75:L75"/>
-    <mergeCell ref="I77:J78"/>
-    <mergeCell ref="K77:L78"/>
   </mergeCells>
   <pageMargins left="0.35433070866141736" right="0.27559055118110237" top="0.27559055118110237" bottom="0.31496062992125984" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="90" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -27970,8 +28142,8 @@
   </sheetPr>
   <dimension ref="A1:G134"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29601,8 +29773,8 @@
   </sheetPr>
   <dimension ref="A1:AG97"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T32" sqref="T32"/>
+    <sheetView tabSelected="1" topLeftCell="E49" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N72" sqref="N72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -29637,20 +29809,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="557" t="s">
+      <c r="B1" s="583" t="s">
         <v>529</v>
       </c>
-      <c r="C1" s="514" t="s">
+      <c r="C1" s="535" t="s">
         <v>721</v>
       </c>
-      <c r="D1" s="514"/>
-      <c r="E1" s="514"/>
-      <c r="F1" s="514"/>
-      <c r="G1" s="514"/>
-      <c r="H1" s="514"/>
-      <c r="I1" s="514"/>
-      <c r="J1" s="514"/>
-      <c r="K1" s="514"/>
+      <c r="D1" s="535"/>
+      <c r="E1" s="535"/>
+      <c r="F1" s="535"/>
+      <c r="G1" s="535"/>
+      <c r="H1" s="535"/>
+      <c r="I1" s="535"/>
+      <c r="J1" s="535"/>
+      <c r="K1" s="535"/>
       <c r="L1" s="2"/>
       <c r="M1" s="3"/>
       <c r="W1" s="209"/>
@@ -29660,7 +29832,7 @@
       <c r="Y1" s="206"/>
     </row>
     <row r="2" spans="1:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="558"/>
+      <c r="B2" s="584"/>
       <c r="C2" s="8"/>
       <c r="H2" s="10" t="s">
         <v>0</v>
@@ -29679,27 +29851,27 @@
       <c r="Y2" s="216" t="s">
         <v>28</v>
       </c>
-      <c r="AB2" s="570" t="s">
+      <c r="AB2" s="566" t="s">
         <v>596</v>
       </c>
-      <c r="AC2" s="570"/>
-      <c r="AD2" s="570"/>
-      <c r="AE2" s="570"/>
-      <c r="AF2" s="570"/>
-      <c r="AG2" s="570"/>
+      <c r="AC2" s="566"/>
+      <c r="AD2" s="566"/>
+      <c r="AE2" s="566"/>
+      <c r="AF2" s="566"/>
+      <c r="AG2" s="566"/>
     </row>
     <row r="3" spans="1:33" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="515" t="s">
+      <c r="B3" s="536" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="516"/>
+      <c r="C3" s="537"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="15"/>
-      <c r="H3" s="517" t="s">
+      <c r="H3" s="538" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="517"/>
+      <c r="I3" s="538"/>
       <c r="K3" s="17" t="s">
         <v>3</v>
       </c>
@@ -29710,13 +29882,13 @@
       <c r="O3" s="366" t="s">
         <v>753</v>
       </c>
-      <c r="P3" s="608" t="s">
+      <c r="P3" s="585" t="s">
         <v>663</v>
       </c>
-      <c r="Q3" s="610" t="s">
+      <c r="Q3" s="587" t="s">
         <v>665</v>
       </c>
-      <c r="S3" s="611"/>
+      <c r="S3" s="588"/>
       <c r="W3" s="213" t="s">
         <v>54</v>
       </c>
@@ -29726,12 +29898,12 @@
       <c r="Y3" s="198">
         <v>2000</v>
       </c>
-      <c r="AB3" s="570"/>
-      <c r="AC3" s="570"/>
-      <c r="AD3" s="570"/>
-      <c r="AE3" s="570"/>
-      <c r="AF3" s="570"/>
-      <c r="AG3" s="570"/>
+      <c r="AB3" s="566"/>
+      <c r="AC3" s="566"/>
+      <c r="AD3" s="566"/>
+      <c r="AE3" s="566"/>
+      <c r="AF3" s="566"/>
+      <c r="AG3" s="566"/>
     </row>
     <row r="4" spans="1:33" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="20" t="s">
@@ -29742,16 +29914,16 @@
         <v>250140.85</v>
       </c>
       <c r="D4" s="23">
-        <v>44410</v>
-      </c>
-      <c r="E4" s="518" t="s">
+        <v>44411</v>
+      </c>
+      <c r="E4" s="539" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="519"/>
-      <c r="H4" s="609" t="s">
+      <c r="F4" s="540"/>
+      <c r="H4" s="586" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="521"/>
+      <c r="I4" s="542"/>
       <c r="J4" s="24"/>
       <c r="K4" s="25"/>
       <c r="L4" s="26"/>
@@ -29762,10 +29934,10 @@
         <v>11</v>
       </c>
       <c r="O4" s="99"/>
-      <c r="P4" s="608"/>
-      <c r="Q4" s="610"/>
+      <c r="P4" s="585"/>
+      <c r="Q4" s="587"/>
       <c r="R4" s="30"/>
-      <c r="S4" s="611"/>
+      <c r="S4" s="588"/>
       <c r="T4" s="30"/>
       <c r="U4" s="30"/>
       <c r="W4" s="213" t="s">
@@ -29777,16 +29949,16 @@
       <c r="Y4" s="217">
         <v>2000</v>
       </c>
-      <c r="AB4" s="571" t="s">
+      <c r="AB4" s="567" t="s">
         <v>527</v>
       </c>
-      <c r="AC4" s="572"/>
+      <c r="AC4" s="568"/>
       <c r="AD4" s="99"/>
-      <c r="AE4" s="573" t="s">
+      <c r="AE4" s="569" t="s">
         <v>567</v>
       </c>
-      <c r="AF4" s="573"/>
-      <c r="AG4" s="573"/>
+      <c r="AF4" s="569"/>
+      <c r="AG4" s="569"/>
     </row>
     <row r="5" spans="1:33" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="34" t="s">
@@ -29821,7 +29993,7 @@
       <c r="M5" s="444">
         <v>64006</v>
       </c>
-      <c r="N5" s="42">
+      <c r="N5" s="334">
         <v>6793</v>
       </c>
       <c r="O5" s="492">
@@ -29891,7 +30063,7 @@
       <c r="M6" s="444">
         <v>127855</v>
       </c>
-      <c r="N6" s="42">
+      <c r="N6" s="334">
         <v>3101</v>
       </c>
       <c r="O6" s="492">
@@ -29975,7 +30147,7 @@
       <c r="M7" s="444">
         <v>99529</v>
       </c>
-      <c r="N7" s="42">
+      <c r="N7" s="334">
         <v>6413</v>
       </c>
       <c r="O7" s="492">
@@ -30060,7 +30232,7 @@
       <c r="M8" s="444">
         <v>102761</v>
       </c>
-      <c r="N8" s="42">
+      <c r="N8" s="334">
         <v>20901</v>
       </c>
       <c r="O8" s="492">
@@ -30138,7 +30310,7 @@
       <c r="M9" s="444">
         <v>93959</v>
       </c>
-      <c r="N9" s="42">
+      <c r="N9" s="334">
         <v>15183</v>
       </c>
       <c r="O9" s="492">
@@ -30216,7 +30388,7 @@
       <c r="M10" s="444">
         <v>130377</v>
       </c>
-      <c r="N10" s="42">
+      <c r="N10" s="334">
         <v>5385</v>
       </c>
       <c r="O10" s="492">
@@ -30294,7 +30466,7 @@
       <c r="M11" s="444">
         <v>108147</v>
       </c>
-      <c r="N11" s="42">
+      <c r="N11" s="334">
         <v>4381</v>
       </c>
       <c r="O11" s="492">
@@ -30372,7 +30544,7 @@
       <c r="M12" s="444">
         <v>66279</v>
       </c>
-      <c r="N12" s="489">
+      <c r="N12" s="456">
         <f>3982+457+894+4046+135</f>
         <v>9514</v>
       </c>
@@ -30451,7 +30623,7 @@
       <c r="M13" s="444">
         <v>99618</v>
       </c>
-      <c r="N13" s="42">
+      <c r="N13" s="334">
         <v>6749</v>
       </c>
       <c r="O13" s="492">
@@ -30535,7 +30707,7 @@
       <c r="M14" s="444">
         <v>99884</v>
       </c>
-      <c r="N14" s="42">
+      <c r="N14" s="334">
         <v>8240</v>
       </c>
       <c r="O14" s="492">
@@ -30617,10 +30789,10 @@
         <v>23469.87</v>
       </c>
       <c r="M15" s="444">
-        <v>150946.09</v>
-      </c>
-      <c r="N15" s="42">
-        <v>11274</v>
+        <v>150846</v>
+      </c>
+      <c r="N15" s="334">
+        <v>11374</v>
       </c>
       <c r="O15" s="492">
         <v>44422</v>
@@ -30633,11 +30805,11 @@
       </c>
       <c r="R15" s="7">
         <f t="shared" si="1"/>
-        <v>197233.96</v>
+        <v>197233.87</v>
       </c>
       <c r="S15" s="202">
         <f t="shared" si="0"/>
-        <v>6912.9599999999919</v>
+        <v>6912.8699999999953</v>
       </c>
       <c r="T15" s="58"/>
       <c r="W15" s="213" t="s">
@@ -30692,7 +30864,7 @@
       <c r="M16" s="444">
         <v>136098</v>
       </c>
-      <c r="N16" s="42">
+      <c r="N16" s="334">
         <v>6485</v>
       </c>
       <c r="O16" s="492">
@@ -30769,7 +30941,7 @@
       <c r="M17" s="444">
         <v>117971</v>
       </c>
-      <c r="N17" s="489">
+      <c r="N17" s="456">
         <f>6260+105</f>
         <v>6365</v>
       </c>
@@ -30847,7 +31019,7 @@
       <c r="M18" s="444">
         <v>67370</v>
       </c>
-      <c r="N18" s="42">
+      <c r="N18" s="334">
         <v>11112</v>
       </c>
       <c r="O18" s="492">
@@ -30924,7 +31096,7 @@
       <c r="M19" s="444">
         <v>67168</v>
       </c>
-      <c r="N19" s="42">
+      <c r="N19" s="334">
         <v>7233</v>
       </c>
       <c r="O19" s="492">
@@ -31001,7 +31173,7 @@
       <c r="M20" s="444">
         <v>83214</v>
       </c>
-      <c r="N20" s="42">
+      <c r="N20" s="334">
         <v>6861</v>
       </c>
       <c r="O20" s="492">
@@ -31084,7 +31256,7 @@
       <c r="M21" s="444">
         <v>130209</v>
       </c>
-      <c r="N21" s="42">
+      <c r="N21" s="334">
         <v>9149</v>
       </c>
       <c r="O21" s="492">
@@ -31164,7 +31336,7 @@
       <c r="M22" s="444">
         <v>114598</v>
       </c>
-      <c r="N22" s="42">
+      <c r="N22" s="334">
         <v>16271</v>
       </c>
       <c r="O22" s="492">
@@ -31237,7 +31409,7 @@
       <c r="M23" s="444">
         <v>87687</v>
       </c>
-      <c r="N23" s="42">
+      <c r="N23" s="334">
         <v>9786</v>
       </c>
       <c r="O23" s="492">
@@ -31274,10 +31446,10 @@
         <v>0</v>
       </c>
       <c r="AD23" s="99"/>
-      <c r="AE23" s="578" t="s">
+      <c r="AE23" s="574" t="s">
         <v>564</v>
       </c>
-      <c r="AF23" s="579"/>
+      <c r="AF23" s="575"/>
       <c r="AG23" s="339">
         <f>SUM(AG6:AG22)</f>
         <v>2323600</v>
@@ -31313,7 +31485,7 @@
       <c r="M24" s="444">
         <v>104541</v>
       </c>
-      <c r="N24" s="42">
+      <c r="N24" s="334">
         <v>4344</v>
       </c>
       <c r="O24" s="492">
@@ -31380,7 +31552,7 @@
       <c r="M25" s="444">
         <v>65712</v>
       </c>
-      <c r="N25" s="42">
+      <c r="N25" s="334">
         <v>19468</v>
       </c>
       <c r="O25" s="492">
@@ -31417,11 +31589,11 @@
         <v>138607</v>
       </c>
       <c r="AD25" s="99"/>
-      <c r="AE25" s="580" t="s">
+      <c r="AE25" s="576" t="s">
         <v>565</v>
       </c>
-      <c r="AF25" s="581"/>
-      <c r="AG25" s="584">
+      <c r="AF25" s="577"/>
+      <c r="AG25" s="580">
         <f>AC29-AG23</f>
         <v>163726</v>
       </c>
@@ -31456,7 +31628,7 @@
       <c r="M26" s="444">
         <v>117270</v>
       </c>
-      <c r="N26" s="42">
+      <c r="N26" s="334">
         <v>14504</v>
       </c>
       <c r="O26" s="492">
@@ -31493,9 +31665,9 @@
         <v>107480</v>
       </c>
       <c r="AD26" s="99"/>
-      <c r="AE26" s="582"/>
-      <c r="AF26" s="583"/>
-      <c r="AG26" s="585"/>
+      <c r="AE26" s="578"/>
+      <c r="AF26" s="579"/>
+      <c r="AG26" s="581"/>
     </row>
     <row r="27" spans="1:33" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="34"/>
@@ -31527,7 +31699,7 @@
       <c r="M27" s="444">
         <v>79471</v>
       </c>
-      <c r="N27" s="42">
+      <c r="N27" s="334">
         <v>4360</v>
       </c>
       <c r="O27" s="492">
@@ -31604,7 +31776,7 @@
       <c r="M28" s="444">
         <v>116346</v>
       </c>
-      <c r="N28" s="42">
+      <c r="N28" s="456">
         <f>5418+310</f>
         <v>5728</v>
       </c>
@@ -31679,7 +31851,7 @@
       <c r="M29" s="444">
         <v>150701</v>
       </c>
-      <c r="N29" s="42">
+      <c r="N29" s="334">
         <v>17084</v>
       </c>
       <c r="O29" s="492">
@@ -31705,10 +31877,10 @@
       </c>
       <c r="X29" s="220"/>
       <c r="Y29" s="218"/>
-      <c r="AB29" s="574" t="s">
+      <c r="AB29" s="570" t="s">
         <v>562</v>
       </c>
-      <c r="AC29" s="576">
+      <c r="AC29" s="572">
         <f>SUM(AC5:AC28)</f>
         <v>2487326</v>
       </c>
@@ -31747,7 +31919,7 @@
       <c r="M30" s="444">
         <v>80671</v>
       </c>
-      <c r="N30" s="42">
+      <c r="N30" s="334">
         <v>3938</v>
       </c>
       <c r="O30" s="492">
@@ -31773,8 +31945,8 @@
       </c>
       <c r="X30" s="221"/>
       <c r="Y30" s="207"/>
-      <c r="AB30" s="575"/>
-      <c r="AC30" s="577"/>
+      <c r="AB30" s="571"/>
+      <c r="AC30" s="573"/>
       <c r="AD30" s="99"/>
       <c r="AE30" s="99"/>
       <c r="AF30" s="99"/>
@@ -31810,7 +31982,7 @@
       <c r="M31" s="444">
         <v>82955</v>
       </c>
-      <c r="N31" s="42">
+      <c r="N31" s="456">
         <f>15974+369</f>
         <v>16343</v>
       </c>
@@ -31869,7 +32041,7 @@
       <c r="J32" s="233">
         <v>44439</v>
       </c>
-      <c r="K32" s="638" t="s">
+      <c r="K32" s="512" t="s">
         <v>12</v>
       </c>
       <c r="L32" s="357">
@@ -32069,11 +32241,15 @@
     </row>
     <row r="36" spans="1:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="34"/>
-      <c r="B36" s="134"/>
-      <c r="C36" s="36">
-        <v>0</v>
-      </c>
-      <c r="D36" s="242"/>
+      <c r="B36" s="146">
+        <v>44412</v>
+      </c>
+      <c r="C36" s="71">
+        <v>14693.64</v>
+      </c>
+      <c r="D36" s="242" t="s">
+        <v>341</v>
+      </c>
       <c r="E36" s="136"/>
       <c r="F36" s="37">
         <v>0</v>
@@ -32099,7 +32275,7 @@
       </c>
       <c r="R36" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>14693.64</v>
       </c>
       <c r="S36" s="6">
         <v>0</v>
@@ -32117,11 +32293,15 @@
     </row>
     <row r="37" spans="1:33" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="34"/>
-      <c r="B37" s="134"/>
-      <c r="C37" s="36">
-        <v>0</v>
-      </c>
-      <c r="D37" s="453"/>
+      <c r="B37" s="146">
+        <v>44415</v>
+      </c>
+      <c r="C37" s="71">
+        <v>25517.34</v>
+      </c>
+      <c r="D37" s="242" t="s">
+        <v>341</v>
+      </c>
       <c r="E37" s="136"/>
       <c r="F37" s="37">
         <v>0</v>
@@ -32145,7 +32325,7 @@
       <c r="Q37" s="449"/>
       <c r="R37" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>25517.34</v>
       </c>
       <c r="S37" s="6">
         <v>0</v>
@@ -32170,11 +32350,15 @@
     </row>
     <row r="38" spans="1:33" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="34"/>
-      <c r="B38" s="134"/>
-      <c r="C38" s="36">
-        <v>0</v>
-      </c>
-      <c r="D38" s="266"/>
+      <c r="B38" s="146">
+        <v>44419</v>
+      </c>
+      <c r="C38" s="71">
+        <v>23707.279999999999</v>
+      </c>
+      <c r="D38" s="242" t="s">
+        <v>341</v>
+      </c>
       <c r="E38" s="136"/>
       <c r="F38" s="37">
         <v>0</v>
@@ -32198,7 +32382,7 @@
       <c r="Q38" s="450"/>
       <c r="R38" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>23707.279999999999</v>
       </c>
       <c r="S38" s="6">
         <v>0</v>
@@ -32220,9 +32404,15 @@
     </row>
     <row r="39" spans="1:33" ht="20.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="34"/>
-      <c r="B39" s="134"/>
-      <c r="C39" s="71"/>
-      <c r="D39" s="242"/>
+      <c r="B39" s="629">
+        <v>44425</v>
+      </c>
+      <c r="C39" s="71">
+        <v>20092.59</v>
+      </c>
+      <c r="D39" s="242" t="s">
+        <v>341</v>
+      </c>
       <c r="E39" s="136"/>
       <c r="F39" s="239"/>
       <c r="G39" s="137"/>
@@ -32231,20 +32421,20 @@
       <c r="J39" s="233"/>
       <c r="K39" s="361"/>
       <c r="L39" s="357"/>
-      <c r="M39" s="603">
+      <c r="M39" s="597">
         <f>SUM(M5:M38)</f>
-        <v>2842551.09</v>
-      </c>
-      <c r="N39" s="605">
+        <v>2842451</v>
+      </c>
+      <c r="N39" s="599">
         <f>SUM(N5:N38)</f>
-        <v>271403</v>
+        <v>271503</v>
       </c>
       <c r="O39" s="392"/>
       <c r="P39" s="7"/>
       <c r="Q39" s="7"/>
       <c r="R39" s="7">
         <f>SUM(R5:R38)</f>
-        <v>3576973.23</v>
+        <v>3640891.4</v>
       </c>
       <c r="T39" s="48"/>
       <c r="W39" s="213" t="s">
@@ -32261,11 +32451,17 @@
         <v>174363</v>
       </c>
     </row>
-    <row r="40" spans="1:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:33" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="34"/>
-      <c r="B40" s="134"/>
-      <c r="C40" s="71"/>
-      <c r="D40" s="242"/>
+      <c r="B40" s="629">
+        <v>44427</v>
+      </c>
+      <c r="C40" s="71">
+        <v>11142.75</v>
+      </c>
+      <c r="D40" s="242" t="s">
+        <v>341</v>
+      </c>
       <c r="E40" s="136"/>
       <c r="F40" s="239"/>
       <c r="G40" s="137"/>
@@ -32274,8 +32470,8 @@
       <c r="J40" s="233"/>
       <c r="K40" s="144"/>
       <c r="L40" s="357"/>
-      <c r="M40" s="604"/>
-      <c r="N40" s="606"/>
+      <c r="M40" s="598"/>
+      <c r="N40" s="600"/>
       <c r="O40" s="392"/>
       <c r="P40" s="7"/>
       <c r="Q40" s="7"/>
@@ -32298,11 +32494,17 @@
         <v>829950</v>
       </c>
     </row>
-    <row r="41" spans="1:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:33" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="34"/>
-      <c r="B41" s="146"/>
-      <c r="C41" s="71"/>
-      <c r="D41" s="242"/>
+      <c r="B41" s="629">
+        <v>44428</v>
+      </c>
+      <c r="C41" s="71">
+        <v>24621.96</v>
+      </c>
+      <c r="D41" s="242" t="s">
+        <v>341</v>
+      </c>
       <c r="E41" s="136"/>
       <c r="F41" s="240"/>
       <c r="G41" s="137"/>
@@ -32338,9 +32540,15 @@
     </row>
     <row r="42" spans="1:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="34"/>
-      <c r="B42" s="146"/>
-      <c r="C42" s="71"/>
-      <c r="D42" s="242"/>
+      <c r="B42" s="630">
+        <v>44434</v>
+      </c>
+      <c r="C42" s="71">
+        <v>23223.96</v>
+      </c>
+      <c r="D42" s="242" t="s">
+        <v>341</v>
+      </c>
       <c r="E42" s="136"/>
       <c r="F42" s="241"/>
       <c r="G42" s="137"/>
@@ -32373,9 +32581,15 @@
     </row>
     <row r="43" spans="1:33" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="34"/>
-      <c r="B43" s="146"/>
-      <c r="C43" s="71"/>
-      <c r="D43" s="242"/>
+      <c r="B43" s="146">
+        <v>44435</v>
+      </c>
+      <c r="C43" s="71">
+        <v>12717.12</v>
+      </c>
+      <c r="D43" s="242" t="s">
+        <v>341</v>
+      </c>
       <c r="E43" s="136"/>
       <c r="F43" s="241"/>
       <c r="G43" s="137"/>
@@ -32408,9 +32622,15 @@
     </row>
     <row r="44" spans="1:33" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="34"/>
-      <c r="B44" s="146"/>
-      <c r="C44" s="71"/>
-      <c r="D44" s="242"/>
+      <c r="B44" s="146">
+        <v>44436</v>
+      </c>
+      <c r="C44" s="71">
+        <v>9197.25</v>
+      </c>
+      <c r="D44" s="242" t="s">
+        <v>341</v>
+      </c>
       <c r="E44" s="136"/>
       <c r="F44" s="151"/>
       <c r="G44" s="137"/>
@@ -32419,10 +32639,10 @@
       <c r="J44" s="233"/>
       <c r="K44" s="228"/>
       <c r="L44" s="358"/>
-      <c r="M44" s="607" t="s">
+      <c r="M44" s="601" t="s">
         <v>567</v>
       </c>
-      <c r="N44" s="607"/>
+      <c r="N44" s="601"/>
       <c r="O44" s="392"/>
       <c r="P44" s="7"/>
       <c r="Q44" s="7"/>
@@ -32446,9 +32666,15 @@
     </row>
     <row r="45" spans="1:33" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="34"/>
-      <c r="B45" s="146"/>
-      <c r="C45" s="71"/>
-      <c r="D45" s="242"/>
+      <c r="B45" s="146">
+        <v>44439</v>
+      </c>
+      <c r="C45" s="71">
+        <v>24237.45</v>
+      </c>
+      <c r="D45" s="242" t="s">
+        <v>341</v>
+      </c>
       <c r="E45" s="136"/>
       <c r="F45" s="151"/>
       <c r="G45" s="137"/>
@@ -32457,7 +32683,7 @@
       <c r="J45" s="233"/>
       <c r="K45" s="228"/>
       <c r="L45" s="358"/>
-      <c r="M45" s="512">
+      <c r="M45" s="631">
         <v>330120</v>
       </c>
       <c r="N45" s="473">
@@ -32493,7 +32719,7 @@
       <c r="J46" s="233"/>
       <c r="K46" s="168"/>
       <c r="L46" s="66"/>
-      <c r="M46" s="480">
+      <c r="M46" s="632">
         <v>300000</v>
       </c>
       <c r="N46" s="473">
@@ -32529,7 +32755,7 @@
       <c r="J47" s="233"/>
       <c r="K47" s="144"/>
       <c r="L47" s="66"/>
-      <c r="M47" s="480">
+      <c r="M47" s="632">
         <v>324890</v>
       </c>
       <c r="N47" s="473">
@@ -32562,7 +32788,7 @@
       <c r="J48" s="233"/>
       <c r="K48" s="144"/>
       <c r="L48" s="66"/>
-      <c r="M48" s="481">
+      <c r="M48" s="633">
         <v>159870</v>
       </c>
       <c r="N48" s="474">
@@ -32595,7 +32821,7 @@
       <c r="J49" s="233"/>
       <c r="K49" s="144"/>
       <c r="L49" s="66"/>
-      <c r="M49" s="482">
+      <c r="M49" s="634">
         <v>384800</v>
       </c>
       <c r="N49" s="474">
@@ -32629,7 +32855,7 @@
       <c r="J50" s="233"/>
       <c r="K50" s="144"/>
       <c r="L50" s="66"/>
-      <c r="M50" s="482">
+      <c r="M50" s="634">
         <v>177370</v>
       </c>
       <c r="N50" s="473">
@@ -32663,10 +32889,12 @@
       <c r="J51" s="233"/>
       <c r="K51" s="144"/>
       <c r="L51" s="66"/>
-      <c r="M51" s="513">
-        <v>0</v>
-      </c>
-      <c r="N51" s="473"/>
+      <c r="M51" s="635">
+        <v>375140</v>
+      </c>
+      <c r="N51" s="473">
+        <v>44431</v>
+      </c>
       <c r="P51" s="7"/>
       <c r="Q51" s="7"/>
       <c r="R51" s="7"/>
@@ -32697,10 +32925,12 @@
       <c r="J52" s="233"/>
       <c r="K52" s="144"/>
       <c r="L52" s="66"/>
-      <c r="M52" s="482">
-        <v>0</v>
-      </c>
-      <c r="N52" s="473"/>
+      <c r="M52" s="634">
+        <v>100000</v>
+      </c>
+      <c r="N52" s="473">
+        <v>44433</v>
+      </c>
       <c r="P52" s="7"/>
       <c r="Q52" s="7"/>
       <c r="R52" s="7"/>
@@ -32733,10 +32963,12 @@
       <c r="J53" s="233"/>
       <c r="K53" s="168"/>
       <c r="L53" s="66"/>
-      <c r="M53" s="482">
-        <v>0</v>
-      </c>
-      <c r="N53" s="473"/>
+      <c r="M53" s="634">
+        <v>77570</v>
+      </c>
+      <c r="N53" s="473">
+        <v>44433</v>
+      </c>
       <c r="P53" s="7"/>
       <c r="Q53" s="7"/>
       <c r="R53" s="7"/>
@@ -32767,10 +32999,12 @@
       <c r="J54" s="233"/>
       <c r="K54" s="457"/>
       <c r="L54" s="66"/>
-      <c r="M54" s="482">
-        <v>0</v>
-      </c>
-      <c r="N54" s="473"/>
+      <c r="M54" s="634">
+        <v>95470</v>
+      </c>
+      <c r="N54" s="473">
+        <v>44435</v>
+      </c>
       <c r="P54" s="7"/>
       <c r="Q54" s="7"/>
       <c r="R54" s="7"/>
@@ -32801,10 +33035,12 @@
       <c r="J55" s="233"/>
       <c r="K55" s="144"/>
       <c r="L55" s="66"/>
-      <c r="M55" s="483">
-        <v>0</v>
-      </c>
-      <c r="N55" s="475"/>
+      <c r="M55" s="636">
+        <v>162900</v>
+      </c>
+      <c r="N55" s="475">
+        <v>44435</v>
+      </c>
       <c r="O55" s="392"/>
       <c r="P55" s="7"/>
       <c r="Q55" s="7"/>
@@ -32834,10 +33070,12 @@
       <c r="J56" s="233"/>
       <c r="K56" s="359"/>
       <c r="L56" s="458"/>
-      <c r="M56" s="477">
-        <v>0</v>
-      </c>
-      <c r="N56" s="42"/>
+      <c r="M56" s="637">
+        <v>316990</v>
+      </c>
+      <c r="N56" s="473">
+        <v>44439</v>
+      </c>
       <c r="O56" s="392"/>
       <c r="P56" s="7"/>
       <c r="Q56" s="7"/>
@@ -32867,9 +33105,8 @@
       <c r="J57" s="325"/>
       <c r="K57" s="359"/>
       <c r="L57" s="458"/>
-      <c r="M57" s="595">
-        <f>SUM(M45:M56)</f>
-        <v>1677050</v>
+      <c r="M57" s="477">
+        <v>0</v>
       </c>
       <c r="N57" s="476"/>
       <c r="O57" s="392"/>
@@ -32901,7 +33138,10 @@
       <c r="J58" s="325"/>
       <c r="K58" s="457"/>
       <c r="L58" s="458"/>
-      <c r="M58" s="596"/>
+      <c r="M58" s="648">
+        <f ca="1">SUM(M45:M58)</f>
+        <v>2805120</v>
+      </c>
       <c r="N58" s="476"/>
       <c r="O58" s="392"/>
       <c r="P58" s="7"/>
@@ -32932,7 +33172,7 @@
       <c r="J59" s="325"/>
       <c r="K59" s="359"/>
       <c r="L59" s="458"/>
-      <c r="M59" s="478"/>
+      <c r="M59" s="649"/>
       <c r="N59" s="42"/>
       <c r="O59" s="392"/>
       <c r="P59" s="7"/>
@@ -32950,7 +33190,7 @@
       <c r="AF59" s="99"/>
       <c r="AG59" s="99"/>
     </row>
-    <row r="60" spans="1:33" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:33" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="34"/>
       <c r="B60" s="283"/>
       <c r="C60" s="71"/>
@@ -32963,10 +33203,10 @@
       <c r="J60" s="325"/>
       <c r="K60" s="467"/>
       <c r="L60" s="458"/>
-      <c r="M60" s="597" t="s">
+      <c r="M60" s="591" t="s">
         <v>719</v>
       </c>
-      <c r="N60" s="598"/>
+      <c r="N60" s="592"/>
       <c r="O60" s="392"/>
       <c r="P60" s="7"/>
       <c r="Q60" s="7"/>
@@ -33027,11 +33267,11 @@
       <c r="J62" s="325"/>
       <c r="K62" s="359"/>
       <c r="L62" s="458"/>
-      <c r="M62" s="620">
-        <f>M57-M39</f>
-        <v>-1165501.0899999999</v>
-      </c>
-      <c r="N62" s="621"/>
+      <c r="M62" s="638">
+        <f ca="1">M58-M39</f>
+        <v>-37331</v>
+      </c>
+      <c r="N62" s="639"/>
       <c r="O62" s="392"/>
       <c r="P62" s="7"/>
       <c r="Q62" s="7"/>
@@ -33060,9 +33300,11 @@
       <c r="I63" s="80"/>
       <c r="J63" s="325"/>
       <c r="K63" s="359"/>
-      <c r="L63" s="458"/>
-      <c r="M63" s="622"/>
-      <c r="N63" s="623"/>
+      <c r="L63" s="50" t="s">
+        <v>824</v>
+      </c>
+      <c r="M63" s="640"/>
+      <c r="N63" s="641"/>
       <c r="O63" s="392"/>
       <c r="P63" s="7"/>
       <c r="Q63" s="7"/>
@@ -33079,7 +33321,7 @@
       <c r="AF63" s="99"/>
       <c r="AG63" s="99"/>
     </row>
-    <row r="64" spans="1:33" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:33" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="34"/>
       <c r="B64" s="283"/>
       <c r="C64" s="71"/>
@@ -33091,9 +33333,13 @@
       <c r="I64" s="80"/>
       <c r="J64" s="325"/>
       <c r="K64" s="359"/>
-      <c r="L64" s="458"/>
-      <c r="M64" s="41"/>
-      <c r="N64" s="42"/>
+      <c r="L64" s="644" t="s">
+        <v>822</v>
+      </c>
+      <c r="M64" s="642">
+        <v>-382722.22</v>
+      </c>
+      <c r="N64" s="643"/>
       <c r="O64" s="392"/>
       <c r="P64" s="7"/>
       <c r="Q64" s="7"/>
@@ -33110,7 +33356,7 @@
       <c r="AF64" s="99"/>
       <c r="AG64" s="99"/>
     </row>
-    <row r="65" spans="1:33" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:33" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="34"/>
       <c r="B65" s="35"/>
       <c r="C65" s="71"/>
@@ -33121,9 +33367,13 @@
       <c r="I65" s="80"/>
       <c r="J65" s="325"/>
       <c r="K65" s="467"/>
-      <c r="L65" s="458"/>
-      <c r="M65" s="41"/>
-      <c r="N65" s="42"/>
+      <c r="L65" s="644" t="s">
+        <v>823</v>
+      </c>
+      <c r="M65" s="646">
+        <v>-163726</v>
+      </c>
+      <c r="N65" s="647"/>
       <c r="O65" s="392"/>
       <c r="P65" s="7"/>
       <c r="Q65" s="7"/>
@@ -33140,7 +33390,7 @@
       <c r="AF65" s="99"/>
       <c r="AG65" s="99"/>
     </row>
-    <row r="66" spans="1:33" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:33" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="34"/>
       <c r="B66" s="35"/>
       <c r="C66" s="36">
@@ -33154,9 +33404,14 @@
       <c r="J66" s="325"/>
       <c r="K66" s="468"/>
       <c r="L66" s="6"/>
-      <c r="M66" s="41"/>
-      <c r="N66" s="42"/>
-      <c r="O66" s="392"/>
+      <c r="M66" s="650">
+        <f ca="1">SUM(M65+M64+M62)</f>
+        <v>-583779.22</v>
+      </c>
+      <c r="N66" s="651"/>
+      <c r="O66" s="652" t="s">
+        <v>825</v>
+      </c>
       <c r="P66" s="7"/>
       <c r="Q66" s="7"/>
       <c r="R66" s="84">
@@ -33182,7 +33437,7 @@
       </c>
       <c r="C67" s="86">
         <f>SUM(C5:C66)</f>
-        <v>272910</v>
+        <v>462061.34000000008</v>
       </c>
       <c r="D67" s="87"/>
       <c r="E67" s="88" t="s">
@@ -33204,21 +33459,22 @@
       <c r="K67" s="93" t="s">
         <v>15</v>
       </c>
-      <c r="L67" s="94">
+      <c r="L67" s="645">
         <f>SUM(L5:L66)</f>
         <v>153963.14000000001</v>
       </c>
-      <c r="M67" s="95"/>
-      <c r="N67" s="95"/>
+      <c r="M67" s="653"/>
+      <c r="N67" s="654"/>
+      <c r="O67" s="655"/>
       <c r="P67" s="366"/>
       <c r="Q67" s="366"/>
       <c r="R67" s="7">
         <f>SUM(R5:R66)</f>
-        <v>7153946.46</v>
+        <v>7281782.7999999998</v>
       </c>
       <c r="S67" s="7">
         <f>SUM(S5:S66)</f>
-        <v>56844.23000000001</v>
+        <v>56844.140000000014</v>
       </c>
       <c r="T67" s="97"/>
       <c r="W67" s="210"/>
@@ -33273,34 +33529,34 @@
       <c r="E70" s="534"/>
       <c r="F70" s="103">
         <f>F67-K69-C67</f>
-        <v>3057109.86</v>
+        <v>2867958.5199999996</v>
       </c>
       <c r="I70" s="104"/>
       <c r="J70" s="105"/>
-      <c r="R70" s="535">
+      <c r="R70" s="513">
         <f>R67+S67</f>
-        <v>7210790.6900000004</v>
-      </c>
-      <c r="S70" s="536"/>
+        <v>7338626.9399999995</v>
+      </c>
+      <c r="S70" s="514"/>
       <c r="U70" s="50"/>
     </row>
     <row r="71" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D71" s="537" t="s">
+      <c r="D71" s="515" t="s">
         <v>502</v>
       </c>
-      <c r="E71" s="537"/>
+      <c r="E71" s="515"/>
       <c r="F71" s="95">
-        <v>0</v>
-      </c>
-      <c r="I71" s="538" t="s">
+        <v>-2380713.08</v>
+      </c>
+      <c r="I71" s="516" t="s">
         <v>19</v>
       </c>
-      <c r="J71" s="539"/>
-      <c r="K71" s="540">
+      <c r="J71" s="517"/>
+      <c r="K71" s="518">
         <f>F73+F74+F75</f>
-        <v>3057109.86</v>
-      </c>
-      <c r="L71" s="541"/>
+        <v>499431.43999999948</v>
+      </c>
+      <c r="L71" s="519"/>
       <c r="R71" s="50"/>
       <c r="U71" s="107"/>
     </row>
@@ -33327,18 +33583,18 @@
       </c>
       <c r="F73" s="95">
         <f>SUM(F70:F72)</f>
-        <v>3057109.86</v>
+        <v>487245.43999999948</v>
       </c>
       <c r="H73" s="34"/>
       <c r="I73" s="114" t="s">
         <v>21</v>
       </c>
       <c r="J73" s="115"/>
-      <c r="K73" s="542">
+      <c r="K73" s="520">
         <f>-C4</f>
         <v>-250140.85</v>
       </c>
-      <c r="L73" s="586"/>
+      <c r="L73" s="602"/>
       <c r="R73" s="50"/>
       <c r="S73" s="7"/>
       <c r="U73" s="50"/>
@@ -33351,14 +33607,16 @@
         <v>23</v>
       </c>
       <c r="F74" s="118">
-        <v>0</v>
+        <v>12186</v>
       </c>
       <c r="R74" s="50"/>
       <c r="S74" s="7"/>
       <c r="U74" s="50"/>
     </row>
     <row r="75" spans="1:33" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C75" s="119"/>
+      <c r="C75" s="119">
+        <v>44439</v>
+      </c>
       <c r="D75" s="528" t="s">
         <v>24</v>
       </c>
@@ -33372,7 +33630,7 @@
       <c r="J75" s="531"/>
       <c r="K75" s="532">
         <f>K71+K73</f>
-        <v>2806969.01</v>
+        <v>249290.58999999947</v>
       </c>
       <c r="L75" s="532"/>
       <c r="R75" s="50"/>
@@ -33389,14 +33647,14 @@
       <c r="S76" s="7"/>
     </row>
     <row r="77" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I77" s="612" t="s">
+      <c r="I77" s="611" t="s">
         <v>610</v>
       </c>
-      <c r="J77" s="613"/>
-      <c r="K77" s="616">
-        <v>0</v>
-      </c>
-      <c r="L77" s="617"/>
+      <c r="J77" s="612"/>
+      <c r="K77" s="638">
+        <v>37331</v>
+      </c>
+      <c r="L77" s="639"/>
       <c r="R77" s="7"/>
       <c r="S77" s="7"/>
     </row>
@@ -33405,10 +33663,10 @@
       <c r="C78" s="128"/>
       <c r="D78" s="129"/>
       <c r="E78" s="7"/>
-      <c r="I78" s="614"/>
-      <c r="J78" s="615"/>
-      <c r="K78" s="618"/>
-      <c r="L78" s="619"/>
+      <c r="I78" s="613"/>
+      <c r="J78" s="614"/>
+      <c r="K78" s="640"/>
+      <c r="L78" s="641"/>
       <c r="M78" s="2"/>
       <c r="N78" s="60"/>
       <c r="O78" s="491"/>
@@ -33460,7 +33718,7 @@
       <c r="C81" s="130"/>
       <c r="E81" s="7"/>
       <c r="M81" s="4"/>
-      <c r="AC81" s="559"/>
+      <c r="AC81" s="582"/>
       <c r="AD81" s="487"/>
       <c r="AE81" s="487"/>
       <c r="AF81" s="487"/>
@@ -33473,7 +33731,7 @@
       <c r="E82" s="7"/>
       <c r="F82" s="273"/>
       <c r="M82" s="4"/>
-      <c r="AC82" s="559"/>
+      <c r="AC82" s="582"/>
       <c r="AD82" s="487"/>
       <c r="AE82" s="487"/>
       <c r="AF82" s="487"/>
@@ -33569,17 +33827,26 @@
   <sortState ref="M45:N55">
     <sortCondition ref="N45:N55"/>
   </sortState>
-  <mergeCells count="37">
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:K1"/>
-    <mergeCell ref="AB2:AG3"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
+  <mergeCells count="41">
+    <mergeCell ref="M64:N64"/>
+    <mergeCell ref="M65:N65"/>
+    <mergeCell ref="M66:N67"/>
+    <mergeCell ref="M58:M59"/>
+    <mergeCell ref="O66:O67"/>
+    <mergeCell ref="AC81:AC82"/>
+    <mergeCell ref="K73:L73"/>
+    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="I75:J75"/>
+    <mergeCell ref="K75:L75"/>
+    <mergeCell ref="I77:J78"/>
+    <mergeCell ref="K77:L78"/>
+    <mergeCell ref="H69:I69"/>
+    <mergeCell ref="K69:L69"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="R70:S70"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="I71:J71"/>
+    <mergeCell ref="K71:L71"/>
     <mergeCell ref="M62:N63"/>
     <mergeCell ref="AB4:AC4"/>
     <mergeCell ref="AE4:AG4"/>
@@ -33591,22 +33858,17 @@
     <mergeCell ref="M39:M40"/>
     <mergeCell ref="N39:N40"/>
     <mergeCell ref="M44:N44"/>
-    <mergeCell ref="M57:M58"/>
     <mergeCell ref="M60:N60"/>
-    <mergeCell ref="H69:I69"/>
-    <mergeCell ref="K69:L69"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="R70:S70"/>
-    <mergeCell ref="D71:E71"/>
-    <mergeCell ref="I71:J71"/>
-    <mergeCell ref="K71:L71"/>
-    <mergeCell ref="AC81:AC82"/>
-    <mergeCell ref="K73:L73"/>
-    <mergeCell ref="D75:E75"/>
-    <mergeCell ref="I75:J75"/>
-    <mergeCell ref="K75:L75"/>
-    <mergeCell ref="I77:J78"/>
-    <mergeCell ref="K77:L78"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:K1"/>
+    <mergeCell ref="AB2:AG3"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -33622,8 +33884,8 @@
   </sheetPr>
   <dimension ref="A1:G133"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34092,103 +34354,161 @@
       </c>
     </row>
     <row r="27" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="195"/>
-      <c r="B27" s="193"/>
-      <c r="C27" s="71"/>
+      <c r="A27" s="195">
+        <v>44429</v>
+      </c>
+      <c r="B27" s="193" t="s">
+        <v>813</v>
+      </c>
+      <c r="C27" s="71">
+        <v>213314.83</v>
+      </c>
       <c r="D27" s="195"/>
       <c r="E27" s="71"/>
       <c r="F27" s="183">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>213314.83</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="195"/>
-      <c r="B28" s="193"/>
-      <c r="C28" s="71"/>
+      <c r="A28" s="195">
+        <v>44431</v>
+      </c>
+      <c r="B28" s="193" t="s">
+        <v>814</v>
+      </c>
+      <c r="C28" s="71">
+        <v>68751.3</v>
+      </c>
       <c r="D28" s="195"/>
       <c r="E28" s="71"/>
       <c r="F28" s="183">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>282066.13</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A29" s="195"/>
-      <c r="B29" s="193"/>
-      <c r="C29" s="71"/>
+      <c r="A29" s="195">
+        <v>44431</v>
+      </c>
+      <c r="B29" s="193" t="s">
+        <v>815</v>
+      </c>
+      <c r="C29" s="71">
+        <v>4814.3999999999996</v>
+      </c>
       <c r="D29" s="195"/>
       <c r="E29" s="71"/>
       <c r="F29" s="183">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>286880.53000000003</v>
       </c>
       <c r="G29" s="184"/>
     </row>
     <row r="30" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="195"/>
-      <c r="B30" s="193"/>
-      <c r="C30" s="71"/>
+      <c r="A30" s="195">
+        <v>44432</v>
+      </c>
+      <c r="B30" s="193" t="s">
+        <v>816</v>
+      </c>
+      <c r="C30" s="71">
+        <v>81436.600000000006</v>
+      </c>
       <c r="D30" s="195"/>
       <c r="E30" s="71"/>
       <c r="F30" s="183">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>368317.13</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="195"/>
-      <c r="B31" s="193"/>
-      <c r="C31" s="71"/>
+      <c r="A31" s="195">
+        <v>44433</v>
+      </c>
+      <c r="B31" s="193" t="s">
+        <v>817</v>
+      </c>
+      <c r="C31" s="71">
+        <v>122078.3</v>
+      </c>
       <c r="D31" s="195"/>
       <c r="E31" s="71"/>
       <c r="F31" s="183">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>490395.43</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="195"/>
-      <c r="B32" s="193"/>
-      <c r="C32" s="71"/>
-      <c r="D32" s="195"/>
-      <c r="E32" s="71"/>
+      <c r="A32" s="195">
+        <v>44434</v>
+      </c>
+      <c r="B32" s="193" t="s">
+        <v>818</v>
+      </c>
+      <c r="C32" s="71">
+        <v>175490.53</v>
+      </c>
+      <c r="D32" s="195">
+        <v>44435</v>
+      </c>
+      <c r="E32" s="71">
+        <v>665885.96</v>
+      </c>
       <c r="F32" s="183">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="195"/>
-      <c r="B33" s="193"/>
-      <c r="C33" s="71"/>
+      <c r="A33" s="195">
+        <v>44436</v>
+      </c>
+      <c r="B33" s="193" t="s">
+        <v>819</v>
+      </c>
+      <c r="C33" s="71">
+        <v>152252.57999999999</v>
+      </c>
       <c r="D33" s="195"/>
       <c r="E33" s="71"/>
       <c r="F33" s="183">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>152252.57999999999</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="195"/>
-      <c r="B34" s="193"/>
-      <c r="C34" s="71"/>
+      <c r="A34" s="195">
+        <v>44438</v>
+      </c>
+      <c r="B34" s="193" t="s">
+        <v>820</v>
+      </c>
+      <c r="C34" s="71">
+        <v>110800.95</v>
+      </c>
       <c r="D34" s="195"/>
       <c r="E34" s="71"/>
       <c r="F34" s="183">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>263053.52999999997</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="195"/>
-      <c r="B35" s="193"/>
-      <c r="C35" s="71"/>
+      <c r="A35" s="195">
+        <v>44439</v>
+      </c>
+      <c r="B35" s="193" t="s">
+        <v>821</v>
+      </c>
+      <c r="C35" s="71">
+        <v>79481</v>
+      </c>
       <c r="D35" s="195"/>
       <c r="E35" s="71"/>
       <c r="F35" s="183">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>342534.52999999997</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -34199,7 +34519,7 @@
       <c r="E36" s="71"/>
       <c r="F36" s="183">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>342534.52999999997</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -34210,7 +34530,7 @@
       <c r="E37" s="71"/>
       <c r="F37" s="183">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>342534.52999999997</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -34221,7 +34541,7 @@
       <c r="E38" s="71"/>
       <c r="F38" s="183">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>342534.52999999997</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -34232,7 +34552,7 @@
       <c r="E39" s="71"/>
       <c r="F39" s="183">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>342534.52999999997</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -34243,7 +34563,7 @@
       <c r="E40" s="71"/>
       <c r="F40" s="183">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>342534.52999999997</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -34254,7 +34574,7 @@
       <c r="E41" s="71"/>
       <c r="F41" s="183">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>342534.52999999997</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -34265,7 +34585,7 @@
       <c r="E42" s="71"/>
       <c r="F42" s="183">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>342534.52999999997</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -34276,7 +34596,7 @@
       <c r="E43" s="71"/>
       <c r="F43" s="183">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>342534.52999999997</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -34287,7 +34607,7 @@
       <c r="E44" s="71"/>
       <c r="F44" s="183">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>342534.52999999997</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -34298,7 +34618,7 @@
       <c r="E45" s="71"/>
       <c r="F45" s="183">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>342534.52999999997</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -34309,7 +34629,7 @@
       <c r="E46" s="71"/>
       <c r="F46" s="183">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>342534.52999999997</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -34320,7 +34640,7 @@
       <c r="E47" s="71"/>
       <c r="F47" s="183">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>342534.52999999997</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -34331,7 +34651,7 @@
       <c r="E48" s="71"/>
       <c r="F48" s="183">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>342534.52999999997</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -34342,7 +34662,7 @@
       <c r="E49" s="71"/>
       <c r="F49" s="183">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>342534.52999999997</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -34353,7 +34673,7 @@
       <c r="E50" s="71"/>
       <c r="F50" s="183">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>342534.52999999997</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -34364,7 +34684,7 @@
       <c r="E51" s="71"/>
       <c r="F51" s="183">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>342534.52999999997</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -34375,7 +34695,7 @@
       <c r="E52" s="71"/>
       <c r="F52" s="183">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>342534.52999999997</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -34386,7 +34706,7 @@
       <c r="E53" s="71"/>
       <c r="F53" s="183">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>342534.52999999997</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -34397,7 +34717,7 @@
       <c r="E54" s="71"/>
       <c r="F54" s="183">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>342534.52999999997</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -34408,7 +34728,7 @@
       <c r="E55" s="71"/>
       <c r="F55" s="183">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>342534.52999999997</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -34419,7 +34739,7 @@
       <c r="E56" s="71"/>
       <c r="F56" s="183">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>342534.52999999997</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -34430,7 +34750,7 @@
       <c r="E57" s="71"/>
       <c r="F57" s="183">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>342534.52999999997</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -34441,7 +34761,7 @@
       <c r="E58" s="71"/>
       <c r="F58" s="183">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>342534.52999999997</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -34452,7 +34772,7 @@
       <c r="E59" s="71"/>
       <c r="F59" s="183">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>342534.52999999997</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -34463,7 +34783,7 @@
       <c r="E60" s="71"/>
       <c r="F60" s="183">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>342534.52999999997</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -34474,7 +34794,7 @@
       <c r="E61" s="71"/>
       <c r="F61" s="183">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>342534.52999999997</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -34485,7 +34805,7 @@
       <c r="E62" s="71"/>
       <c r="F62" s="183">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>342534.52999999997</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -34496,7 +34816,7 @@
       <c r="E63" s="71"/>
       <c r="F63" s="183">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>342534.52999999997</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -34507,7 +34827,7 @@
       <c r="E64" s="71"/>
       <c r="F64" s="183">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>342534.52999999997</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -34518,7 +34838,7 @@
       <c r="E65" s="71"/>
       <c r="F65" s="183">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>342534.52999999997</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -34529,7 +34849,7 @@
       <c r="E66" s="71"/>
       <c r="F66" s="183">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>342534.52999999997</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -34540,7 +34860,7 @@
       <c r="E67" s="71"/>
       <c r="F67" s="183">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>342534.52999999997</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -34551,7 +34871,7 @@
       <c r="E68" s="71"/>
       <c r="F68" s="183">
         <f t="shared" ref="F68:F96" si="1">F67+C68-E68</f>
-        <v>0</v>
+        <v>342534.52999999997</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -34562,7 +34882,7 @@
       <c r="E69" s="71"/>
       <c r="F69" s="183">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>342534.52999999997</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -34573,7 +34893,7 @@
       <c r="E70" s="71"/>
       <c r="F70" s="183">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>342534.52999999997</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -34584,7 +34904,7 @@
       <c r="E71" s="71"/>
       <c r="F71" s="183">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>342534.52999999997</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -34595,7 +34915,7 @@
       <c r="E72" s="71"/>
       <c r="F72" s="183">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>342534.52999999997</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -34606,7 +34926,7 @@
       <c r="E73" s="71"/>
       <c r="F73" s="183">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>342534.52999999997</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -34617,7 +34937,7 @@
       <c r="E74" s="71"/>
       <c r="F74" s="183">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>342534.52999999997</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -34628,7 +34948,7 @@
       <c r="E75" s="71"/>
       <c r="F75" s="183">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>342534.52999999997</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -34639,7 +34959,7 @@
       <c r="E76" s="71"/>
       <c r="F76" s="183">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>342534.52999999997</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -34650,7 +34970,7 @@
       <c r="E77" s="71"/>
       <c r="F77" s="183">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>342534.52999999997</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -34661,7 +34981,7 @@
       <c r="E78" s="71"/>
       <c r="F78" s="183">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>342534.52999999997</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -34672,7 +34992,7 @@
       <c r="E79" s="71"/>
       <c r="F79" s="183">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>342534.52999999997</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -34683,7 +35003,7 @@
       <c r="E80" s="7"/>
       <c r="F80" s="183">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>342534.52999999997</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -34694,7 +35014,7 @@
       <c r="E81" s="7"/>
       <c r="F81" s="183">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>342534.52999999997</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -34705,7 +35025,7 @@
       <c r="E82" s="7"/>
       <c r="F82" s="183">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>342534.52999999997</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -34716,7 +35036,7 @@
       <c r="E83" s="7"/>
       <c r="F83" s="183">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>342534.52999999997</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -34727,7 +35047,7 @@
       <c r="E84" s="7"/>
       <c r="F84" s="183">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>342534.52999999997</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -34738,7 +35058,7 @@
       <c r="E85" s="7"/>
       <c r="F85" s="183">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>342534.52999999997</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -34749,7 +35069,7 @@
       <c r="E86" s="71"/>
       <c r="F86" s="183">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>342534.52999999997</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -34760,7 +35080,7 @@
       <c r="E87" s="71"/>
       <c r="F87" s="183">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>342534.52999999997</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -34771,7 +35091,7 @@
       <c r="E88" s="71"/>
       <c r="F88" s="183">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>342534.52999999997</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -34782,7 +35102,7 @@
       <c r="E89" s="71"/>
       <c r="F89" s="183">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>342534.52999999997</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -34793,7 +35113,7 @@
       <c r="E90" s="71"/>
       <c r="F90" s="183">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>342534.52999999997</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -34804,7 +35124,7 @@
       <c r="E91" s="71"/>
       <c r="F91" s="183">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>342534.52999999997</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -34815,7 +35135,7 @@
       <c r="E92" s="71"/>
       <c r="F92" s="183">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>342534.52999999997</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -34826,7 +35146,7 @@
       <c r="E93" s="71"/>
       <c r="F93" s="183">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>342534.52999999997</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -34837,7 +35157,7 @@
       <c r="E94" s="71"/>
       <c r="F94" s="183">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>342534.52999999997</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -34848,7 +35168,7 @@
       <c r="E95" s="71"/>
       <c r="F95" s="183">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>342534.52999999997</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -34861,23 +35181,23 @@
       <c r="E96" s="84"/>
       <c r="F96" s="183">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>342534.52999999997</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B97" s="60"/>
       <c r="C97" s="4">
         <f>SUM(C3:C96)</f>
-        <v>1372292.5899999999</v>
+        <v>2380713.08</v>
       </c>
       <c r="D97" s="1"/>
       <c r="E97" s="4">
         <f>SUM(E3:E96)</f>
-        <v>1372292.59</v>
+        <v>2038178.55</v>
       </c>
       <c r="F97" s="191">
         <f>F96</f>
-        <v>0</v>
+        <v>342534.52999999997</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
@@ -35108,12 +35428,12 @@
     <row r="38" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="39" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="32"/>
-      <c r="B39" s="635" t="s">
+      <c r="B39" s="615" t="s">
         <v>32</v>
       </c>
-      <c r="C39" s="636"/>
-      <c r="D39" s="636"/>
-      <c r="E39" s="637"/>
+      <c r="C39" s="616"/>
+      <c r="D39" s="616"/>
+      <c r="E39" s="617"/>
       <c r="F39" s="4"/>
     </row>
     <row r="40" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -36439,32 +36759,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="625" t="s">
+      <c r="B1" s="620" t="s">
         <v>726</v>
       </c>
-      <c r="C1" s="625"/>
-      <c r="D1" s="625"/>
-      <c r="E1" s="625"/>
-      <c r="H1" s="628" t="s">
+      <c r="C1" s="620"/>
+      <c r="D1" s="620"/>
+      <c r="E1" s="620"/>
+      <c r="H1" s="621" t="s">
         <v>726</v>
       </c>
-      <c r="I1" s="628"/>
-      <c r="J1" s="628"/>
+      <c r="I1" s="621"/>
+      <c r="J1" s="621"/>
       <c r="K1" s="205"/>
       <c r="L1" s="205"/>
       <c r="N1" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="625" t="s">
+      <c r="O1" s="620" t="s">
         <v>725</v>
       </c>
-      <c r="P1" s="625"/>
+      <c r="P1" s="620"/>
     </row>
     <row r="2" spans="1:17" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="18"/>
       <c r="C2" s="4"/>
       <c r="D2" s="6"/>
-      <c r="E2" s="560" t="s">
+      <c r="E2" s="556" t="s">
         <v>562</v>
       </c>
       <c r="F2" s="497"/>
@@ -36490,7 +36810,7 @@
         <v>10</v>
       </c>
       <c r="D3" s="365"/>
-      <c r="E3" s="560"/>
+      <c r="E3" s="556"/>
       <c r="F3" s="497"/>
       <c r="H3" s="444">
         <v>126476.5</v>
@@ -36502,10 +36822,10 @@
         <v>44378</v>
       </c>
       <c r="K3" s="496"/>
-      <c r="L3" s="607" t="s">
+      <c r="L3" s="601" t="s">
         <v>567</v>
       </c>
-      <c r="M3" s="607"/>
+      <c r="M3" s="601"/>
       <c r="O3" s="444">
         <v>64006</v>
       </c>
@@ -37049,7 +37369,7 @@
         <v>44391</v>
       </c>
       <c r="K16" s="496"/>
-      <c r="L16" s="595">
+      <c r="L16" s="589">
         <f>SUM(L4:L15)</f>
         <v>3606750</v>
       </c>
@@ -37090,7 +37410,7 @@
         <v>44392</v>
       </c>
       <c r="K17" s="496"/>
-      <c r="L17" s="596"/>
+      <c r="L17" s="590"/>
       <c r="M17" s="476"/>
       <c r="O17" s="444">
         <v>0</v>
@@ -37163,10 +37483,10 @@
         <v>44394</v>
       </c>
       <c r="K19" s="496"/>
-      <c r="L19" s="597" t="s">
+      <c r="L19" s="591" t="s">
         <v>719</v>
       </c>
-      <c r="M19" s="598"/>
+      <c r="M19" s="592"/>
       <c r="O19" s="444">
         <v>0</v>
       </c>
@@ -37236,11 +37556,11 @@
         <v>44396</v>
       </c>
       <c r="K21" s="496"/>
-      <c r="L21" s="629">
+      <c r="L21" s="625">
         <f>L16-H37</f>
         <v>-383122.2200000002</v>
       </c>
-      <c r="M21" s="630"/>
+      <c r="M21" s="626"/>
       <c r="O21" s="444">
         <v>0</v>
       </c>
@@ -37274,8 +37594,8 @@
         <v>44397</v>
       </c>
       <c r="K22" s="496"/>
-      <c r="L22" s="631"/>
-      <c r="M22" s="632"/>
+      <c r="L22" s="627"/>
+      <c r="M22" s="628"/>
       <c r="O22" s="444">
         <v>0</v>
       </c>
@@ -37673,35 +37993,35 @@
       <c r="Q36" s="392"/>
     </row>
     <row r="37" spans="7:17" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="H37" s="603">
+      <c r="H37" s="597">
         <f>SUM(H3:H36)</f>
         <v>3989872.22</v>
       </c>
-      <c r="I37" s="605">
+      <c r="I37" s="599">
         <f>SUM(I3:I36)</f>
         <v>688820.5</v>
       </c>
       <c r="J37" s="496"/>
       <c r="K37" s="496"/>
       <c r="L37" s="496"/>
-      <c r="O37" s="603">
+      <c r="O37" s="597">
         <f>SUM(O3:O36)</f>
         <v>1464800.09</v>
       </c>
-      <c r="P37" s="605">
+      <c r="P37" s="599">
         <f>SUM(P3:P36)</f>
         <v>121896</v>
       </c>
       <c r="Q37" s="392"/>
     </row>
     <row r="38" spans="7:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H38" s="604"/>
-      <c r="I38" s="606"/>
+      <c r="H38" s="598"/>
+      <c r="I38" s="600"/>
       <c r="J38" s="496"/>
       <c r="K38" s="496"/>
       <c r="L38" s="496"/>
-      <c r="O38" s="604"/>
-      <c r="P38" s="606"/>
+      <c r="O38" s="598"/>
+      <c r="P38" s="600"/>
       <c r="Q38" s="392"/>
     </row>
     <row r="39" spans="7:17" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -37713,12 +38033,12 @@
     </row>
     <row r="40" spans="7:17" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G40" s="272"/>
-      <c r="H40" s="626"/>
-      <c r="I40" s="626"/>
-      <c r="O40" s="607" t="s">
+      <c r="H40" s="623"/>
+      <c r="I40" s="623"/>
+      <c r="O40" s="601" t="s">
         <v>567</v>
       </c>
-      <c r="P40" s="607"/>
+      <c r="P40" s="601"/>
       <c r="Q40" s="392"/>
     </row>
     <row r="41" spans="7:17" ht="15.75" x14ac:dyDescent="0.25">
@@ -37865,9 +38185,9 @@
     </row>
     <row r="53" spans="7:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="G53" s="272"/>
-      <c r="H53" s="627"/>
+      <c r="H53" s="624"/>
       <c r="I53" s="7"/>
-      <c r="O53" s="595">
+      <c r="O53" s="589">
         <f>SUM(O41:O52)</f>
         <v>1682687</v>
       </c>
@@ -37876,9 +38196,9 @@
     </row>
     <row r="54" spans="7:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G54" s="272"/>
-      <c r="H54" s="627"/>
+      <c r="H54" s="624"/>
       <c r="I54" s="7"/>
-      <c r="O54" s="596"/>
+      <c r="O54" s="590"/>
       <c r="P54" s="476"/>
       <c r="Q54" s="392"/>
     </row>
@@ -37892,12 +38212,12 @@
     </row>
     <row r="56" spans="7:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="G56" s="272"/>
-      <c r="H56" s="626"/>
-      <c r="I56" s="626"/>
-      <c r="O56" s="597" t="s">
+      <c r="H56" s="623"/>
+      <c r="I56" s="623"/>
+      <c r="O56" s="591" t="s">
         <v>719</v>
       </c>
-      <c r="P56" s="598"/>
+      <c r="P56" s="592"/>
       <c r="Q56" s="392"/>
     </row>
     <row r="57" spans="7:17" ht="15.75" x14ac:dyDescent="0.25">
@@ -37910,8 +38230,8 @@
     </row>
     <row r="58" spans="7:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G58" s="272"/>
-      <c r="H58" s="624"/>
-      <c r="I58" s="624"/>
+      <c r="H58" s="622"/>
+      <c r="I58" s="622"/>
       <c r="O58" s="493">
         <f>O53-O37</f>
         <v>217886.90999999992</v>
@@ -37923,8 +38243,8 @@
     </row>
     <row r="59" spans="7:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G59" s="272"/>
-      <c r="H59" s="624"/>
-      <c r="I59" s="624"/>
+      <c r="H59" s="622"/>
+      <c r="I59" s="622"/>
       <c r="O59" s="506">
         <v>-383122.22</v>
       </c>
@@ -37952,14 +38272,18 @@
       <c r="P61" s="507"/>
     </row>
     <row r="62" spans="7:17" ht="21" x14ac:dyDescent="0.35">
-      <c r="O62" s="633">
+      <c r="O62" s="618">
         <f>SUM(O58:O61)</f>
         <v>-328961.31000000006</v>
       </c>
-      <c r="P62" s="634"/>
+      <c r="P62" s="619"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="O53:O54"/>
+    <mergeCell ref="O56:P56"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L21:M22"/>
     <mergeCell ref="O62:P62"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="B1:E1"/>
@@ -37976,10 +38300,6 @@
     <mergeCell ref="H40:I40"/>
     <mergeCell ref="H53:H54"/>
     <mergeCell ref="H56:I56"/>
-    <mergeCell ref="O53:O54"/>
-    <mergeCell ref="O56:P56"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="L21:M22"/>
   </mergeCells>
   <pageMargins left="0.37" right="0.13" top="0.43" bottom="0.27" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -38001,12 +38321,12 @@
   <sheetData>
     <row r="1" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="32"/>
-      <c r="B1" s="635" t="s">
+      <c r="B1" s="615" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="636"/>
-      <c r="D1" s="636"/>
-      <c r="E1" s="637"/>
+      <c r="C1" s="616"/>
+      <c r="D1" s="616"/>
+      <c r="E1" s="617"/>
       <c r="F1" s="4"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -38088,12 +38408,12 @@
     <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="32"/>
-      <c r="B9" s="635" t="s">
+      <c r="B9" s="615" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="636"/>
-      <c r="D9" s="636"/>
-      <c r="E9" s="637"/>
+      <c r="C9" s="616"/>
+      <c r="D9" s="616"/>
+      <c r="E9" s="617"/>
       <c r="F9" s="4"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -38249,12 +38569,12 @@
     <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="20" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="32"/>
-      <c r="B20" s="635" t="s">
+      <c r="B20" s="615" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="636"/>
-      <c r="D20" s="636"/>
-      <c r="E20" s="637"/>
+      <c r="C20" s="616"/>
+      <c r="D20" s="616"/>
+      <c r="E20" s="617"/>
       <c r="F20" s="4"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -38412,12 +38732,12 @@
     <row r="30" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="31" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="32"/>
-      <c r="B31" s="635" t="s">
+      <c r="B31" s="615" t="s">
         <v>32</v>
       </c>
-      <c r="C31" s="636"/>
-      <c r="D31" s="636"/>
-      <c r="E31" s="637"/>
+      <c r="C31" s="616"/>
+      <c r="D31" s="616"/>
+      <c r="E31" s="617"/>
       <c r="F31" s="4"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -38571,12 +38891,12 @@
     <row r="41" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="42" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="32"/>
-      <c r="B42" s="635" t="s">
+      <c r="B42" s="615" t="s">
         <v>32</v>
       </c>
-      <c r="C42" s="636"/>
-      <c r="D42" s="636"/>
-      <c r="E42" s="637"/>
+      <c r="C42" s="616"/>
+      <c r="D42" s="616"/>
+      <c r="E42" s="617"/>
       <c r="F42" s="4"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -38730,12 +39050,12 @@
     <row r="53" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="54" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="32"/>
-      <c r="B54" s="635" t="s">
+      <c r="B54" s="615" t="s">
         <v>32</v>
       </c>
-      <c r="C54" s="636"/>
-      <c r="D54" s="636"/>
-      <c r="E54" s="637"/>
+      <c r="C54" s="616"/>
+      <c r="D54" s="616"/>
+      <c r="E54" s="617"/>
       <c r="F54" s="4"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -38976,17 +39296,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C1" s="514" t="s">
+      <c r="C1" s="535" t="s">
         <v>147</v>
       </c>
-      <c r="D1" s="514"/>
-      <c r="E1" s="514"/>
-      <c r="F1" s="514"/>
-      <c r="G1" s="514"/>
-      <c r="H1" s="514"/>
-      <c r="I1" s="514"/>
-      <c r="J1" s="514"/>
-      <c r="K1" s="514"/>
+      <c r="D1" s="535"/>
+      <c r="E1" s="535"/>
+      <c r="F1" s="535"/>
+      <c r="G1" s="535"/>
+      <c r="H1" s="535"/>
+      <c r="I1" s="535"/>
+      <c r="J1" s="535"/>
+      <c r="K1" s="535"/>
       <c r="L1" s="2"/>
       <c r="M1" s="3"/>
       <c r="U1" s="209"/>
@@ -39017,17 +39337,17 @@
       </c>
     </row>
     <row r="3" spans="1:23" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="515" t="s">
+      <c r="B3" s="536" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="516"/>
+      <c r="C3" s="537"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="15"/>
-      <c r="H3" s="517" t="s">
+      <c r="H3" s="538" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="517"/>
+      <c r="I3" s="538"/>
       <c r="K3" s="17" t="s">
         <v>3</v>
       </c>
@@ -39056,14 +39376,14 @@
       <c r="D4" s="23">
         <v>44230</v>
       </c>
-      <c r="E4" s="518" t="s">
+      <c r="E4" s="539" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="519"/>
-      <c r="H4" s="520" t="s">
+      <c r="F4" s="540"/>
+      <c r="H4" s="541" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="521"/>
+      <c r="I4" s="542"/>
       <c r="J4" s="24"/>
       <c r="K4" s="25"/>
       <c r="L4" s="26"/>
@@ -41633,30 +41953,30 @@
       </c>
       <c r="I65" s="104"/>
       <c r="J65" s="105"/>
-      <c r="P65" s="535">
+      <c r="P65" s="513">
         <f>P62+Q62</f>
         <v>3144691.75</v>
       </c>
-      <c r="Q65" s="536"/>
+      <c r="Q65" s="514"/>
       <c r="S65" s="50"/>
     </row>
     <row r="66" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D66" s="537" t="s">
+      <c r="D66" s="515" t="s">
         <v>18</v>
       </c>
-      <c r="E66" s="537"/>
+      <c r="E66" s="515"/>
       <c r="F66" s="95">
         <v>-2261593.1</v>
       </c>
-      <c r="I66" s="538" t="s">
+      <c r="I66" s="516" t="s">
         <v>19</v>
       </c>
-      <c r="J66" s="539"/>
-      <c r="K66" s="540">
+      <c r="J66" s="517"/>
+      <c r="K66" s="518">
         <f>F68+F69+F70</f>
         <v>355407.6199999997</v>
       </c>
-      <c r="L66" s="541"/>
+      <c r="L66" s="519"/>
       <c r="P66" s="50"/>
       <c r="S66" s="107"/>
     </row>
@@ -41693,11 +42013,11 @@
         <v>21</v>
       </c>
       <c r="J68" s="115"/>
-      <c r="K68" s="542">
+      <c r="K68" s="520">
         <f>-C4</f>
         <v>-209541.1</v>
       </c>
-      <c r="L68" s="543"/>
+      <c r="L68" s="521"/>
       <c r="M68" s="116"/>
       <c r="P68" s="50"/>
       <c r="Q68" s="7"/>
@@ -41837,12 +42157,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="K68:L68"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="I70:J70"/>
-    <mergeCell ref="K70:L70"/>
-    <mergeCell ref="M64:N64"/>
-    <mergeCell ref="D65:E65"/>
     <mergeCell ref="P65:Q65"/>
     <mergeCell ref="D66:E66"/>
     <mergeCell ref="I66:J66"/>
@@ -41854,6 +42168,12 @@
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="H64:I64"/>
     <mergeCell ref="K64:L64"/>
+    <mergeCell ref="K68:L68"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="I70:J70"/>
+    <mergeCell ref="K70:L70"/>
+    <mergeCell ref="M64:N64"/>
+    <mergeCell ref="D65:E65"/>
   </mergeCells>
   <phoneticPr fontId="41" type="noConversion"/>
   <pageMargins left="0.51181102362204722" right="0.15748031496062992" top="0.31496062992125984" bottom="0.31496062992125984" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -43124,17 +43444,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C1" s="514" t="s">
+      <c r="C1" s="535" t="s">
         <v>429</v>
       </c>
-      <c r="D1" s="514"/>
-      <c r="E1" s="514"/>
-      <c r="F1" s="514"/>
-      <c r="G1" s="514"/>
-      <c r="H1" s="514"/>
-      <c r="I1" s="514"/>
-      <c r="J1" s="514"/>
-      <c r="K1" s="514"/>
+      <c r="D1" s="535"/>
+      <c r="E1" s="535"/>
+      <c r="F1" s="535"/>
+      <c r="G1" s="535"/>
+      <c r="H1" s="535"/>
+      <c r="I1" s="535"/>
+      <c r="J1" s="535"/>
+      <c r="K1" s="535"/>
       <c r="L1" s="2"/>
       <c r="M1" s="3"/>
       <c r="U1" s="209"/>
@@ -43164,17 +43484,17 @@
       </c>
     </row>
     <row r="3" spans="1:23" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="515" t="s">
+      <c r="B3" s="536" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="516"/>
+      <c r="C3" s="537"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="15"/>
-      <c r="H3" s="517" t="s">
+      <c r="H3" s="538" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="517"/>
+      <c r="I3" s="538"/>
       <c r="K3" s="17" t="s">
         <v>3</v>
       </c>
@@ -43203,14 +43523,14 @@
       <c r="D4" s="23">
         <v>44257</v>
       </c>
-      <c r="E4" s="518" t="s">
+      <c r="E4" s="539" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="519"/>
-      <c r="H4" s="520" t="s">
+      <c r="F4" s="540"/>
+      <c r="H4" s="541" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="521"/>
+      <c r="I4" s="542"/>
       <c r="J4" s="24"/>
       <c r="K4" s="25"/>
       <c r="L4" s="26"/>
@@ -45843,30 +46163,30 @@
       </c>
       <c r="I63" s="104"/>
       <c r="J63" s="105"/>
-      <c r="P63" s="535">
+      <c r="P63" s="513">
         <f>P60+Q60</f>
         <v>4585432.34</v>
       </c>
-      <c r="Q63" s="536"/>
+      <c r="Q63" s="514"/>
       <c r="S63" s="50"/>
     </row>
     <row r="64" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D64" s="537" t="s">
+      <c r="D64" s="515" t="s">
         <v>18</v>
       </c>
-      <c r="E64" s="537"/>
+      <c r="E64" s="515"/>
       <c r="F64" s="95">
         <v>-3579271.89</v>
       </c>
-      <c r="I64" s="538" t="s">
+      <c r="I64" s="516" t="s">
         <v>19</v>
       </c>
-      <c r="J64" s="539"/>
-      <c r="K64" s="540">
+      <c r="J64" s="517"/>
+      <c r="K64" s="518">
         <f>F66+F67+F68</f>
         <v>-110332.85000000047</v>
       </c>
-      <c r="L64" s="541"/>
+      <c r="L64" s="519"/>
       <c r="P64" s="50"/>
       <c r="S64" s="107"/>
     </row>
@@ -45900,11 +46220,11 @@
         <v>21</v>
       </c>
       <c r="J66" s="115"/>
-      <c r="K66" s="542">
+      <c r="K66" s="520">
         <f>-C4</f>
         <v>-223014.26</v>
       </c>
-      <c r="L66" s="543"/>
+      <c r="L66" s="521"/>
       <c r="M66" s="116"/>
       <c r="P66" s="50"/>
       <c r="Q66" s="7"/>
@@ -45935,15 +46255,15 @@
       <c r="F68" s="120">
         <v>215362.9</v>
       </c>
-      <c r="I68" s="544" t="s">
+      <c r="I68" s="543" t="s">
         <v>431</v>
       </c>
-      <c r="J68" s="545"/>
-      <c r="K68" s="546">
+      <c r="J68" s="544"/>
+      <c r="K68" s="545">
         <f>K64+K66</f>
         <v>-333347.11000000045</v>
       </c>
-      <c r="L68" s="547"/>
+      <c r="L68" s="546"/>
       <c r="P68" s="50"/>
       <c r="Q68" s="7"/>
       <c r="S68" s="121"/>
@@ -46099,12 +46419,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="K66:L66"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="I68:J68"/>
-    <mergeCell ref="K68:L68"/>
-    <mergeCell ref="M62:N62"/>
-    <mergeCell ref="D63:E63"/>
     <mergeCell ref="P63:Q63"/>
     <mergeCell ref="D64:E64"/>
     <mergeCell ref="I64:J64"/>
@@ -46116,6 +46430,12 @@
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="H62:I62"/>
     <mergeCell ref="K62:L62"/>
+    <mergeCell ref="K66:L66"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="I68:J68"/>
+    <mergeCell ref="K68:L68"/>
+    <mergeCell ref="M62:N62"/>
+    <mergeCell ref="D63:E63"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -47547,17 +47867,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C1" s="514" t="s">
+      <c r="C1" s="535" t="s">
         <v>430</v>
       </c>
-      <c r="D1" s="514"/>
-      <c r="E1" s="514"/>
-      <c r="F1" s="514"/>
-      <c r="G1" s="514"/>
-      <c r="H1" s="514"/>
-      <c r="I1" s="514"/>
-      <c r="J1" s="514"/>
-      <c r="K1" s="514"/>
+      <c r="D1" s="535"/>
+      <c r="E1" s="535"/>
+      <c r="F1" s="535"/>
+      <c r="G1" s="535"/>
+      <c r="H1" s="535"/>
+      <c r="I1" s="535"/>
+      <c r="J1" s="535"/>
+      <c r="K1" s="535"/>
       <c r="L1" s="2"/>
       <c r="M1" s="3"/>
       <c r="U1" s="209"/>
@@ -47587,17 +47907,17 @@
       </c>
     </row>
     <row r="3" spans="1:23" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="515" t="s">
+      <c r="B3" s="536" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="516"/>
+      <c r="C3" s="537"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="15"/>
-      <c r="H3" s="517" t="s">
+      <c r="H3" s="538" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="517"/>
+      <c r="I3" s="538"/>
       <c r="K3" s="17" t="s">
         <v>3</v>
       </c>
@@ -47626,11 +47946,11 @@
       <c r="D4" s="23">
         <v>44291</v>
       </c>
-      <c r="E4" s="518" t="s">
+      <c r="E4" s="539" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="519"/>
-      <c r="H4" s="520" t="s">
+      <c r="F4" s="540"/>
+      <c r="H4" s="541" t="s">
         <v>8</v>
       </c>
       <c r="I4" s="548"/>
@@ -50149,37 +50469,37 @@
       <c r="D59" s="534" t="s">
         <v>17</v>
       </c>
-      <c r="E59" s="550"/>
+      <c r="E59" s="547"/>
       <c r="F59" s="103">
         <f>F56-K58-C56</f>
         <v>3048717.54</v>
       </c>
       <c r="I59" s="104"/>
       <c r="J59" s="105"/>
-      <c r="P59" s="535">
+      <c r="P59" s="513">
         <f>P56+Q56</f>
         <v>8073324.3200000003</v>
       </c>
-      <c r="Q59" s="536"/>
+      <c r="Q59" s="514"/>
       <c r="S59" s="50"/>
     </row>
     <row r="60" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D60" s="537" t="s">
+      <c r="D60" s="515" t="s">
         <v>18</v>
       </c>
-      <c r="E60" s="537"/>
+      <c r="E60" s="515"/>
       <c r="F60" s="95">
         <v>-3102716.28</v>
       </c>
-      <c r="I60" s="538" t="s">
+      <c r="I60" s="516" t="s">
         <v>19</v>
       </c>
-      <c r="J60" s="539"/>
-      <c r="K60" s="540">
+      <c r="J60" s="517"/>
+      <c r="K60" s="518">
         <f>F62+F63+F64</f>
         <v>216465.62000000023</v>
       </c>
-      <c r="L60" s="541"/>
+      <c r="L60" s="519"/>
       <c r="P60" s="50"/>
       <c r="S60" s="107"/>
     </row>
@@ -50213,11 +50533,11 @@
         <v>21</v>
       </c>
       <c r="J62" s="115"/>
-      <c r="K62" s="542">
+      <c r="K62" s="520">
         <f>-C4</f>
         <v>-215362.9</v>
       </c>
-      <c r="L62" s="543"/>
+      <c r="L62" s="521"/>
       <c r="M62" s="116"/>
       <c r="P62" s="50"/>
       <c r="Q62" s="7"/>
@@ -50412,12 +50732,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="K62:L62"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="I64:J64"/>
-    <mergeCell ref="K64:L64"/>
-    <mergeCell ref="M58:N58"/>
-    <mergeCell ref="D59:E59"/>
     <mergeCell ref="P59:Q59"/>
     <mergeCell ref="D60:E60"/>
     <mergeCell ref="I60:J60"/>
@@ -50429,6 +50743,12 @@
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="H58:I58"/>
     <mergeCell ref="K58:L58"/>
+    <mergeCell ref="K62:L62"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="I64:J64"/>
+    <mergeCell ref="K64:L64"/>
+    <mergeCell ref="M58:N58"/>
+    <mergeCell ref="D59:E59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -51311,17 +51631,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C1" s="514" t="s">
+      <c r="C1" s="535" t="s">
         <v>504</v>
       </c>
-      <c r="D1" s="514"/>
-      <c r="E1" s="514"/>
-      <c r="F1" s="514"/>
-      <c r="G1" s="514"/>
-      <c r="H1" s="514"/>
-      <c r="I1" s="514"/>
-      <c r="J1" s="514"/>
-      <c r="K1" s="514"/>
+      <c r="D1" s="535"/>
+      <c r="E1" s="535"/>
+      <c r="F1" s="535"/>
+      <c r="G1" s="535"/>
+      <c r="H1" s="535"/>
+      <c r="I1" s="535"/>
+      <c r="J1" s="535"/>
+      <c r="K1" s="535"/>
       <c r="L1" s="2"/>
       <c r="M1" s="3"/>
       <c r="U1" s="209"/>
@@ -51351,17 +51671,17 @@
       </c>
     </row>
     <row r="3" spans="1:23" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="515" t="s">
+      <c r="B3" s="536" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="516"/>
+      <c r="C3" s="537"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="15"/>
-      <c r="H3" s="517" t="s">
+      <c r="H3" s="538" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="517"/>
+      <c r="I3" s="538"/>
       <c r="K3" s="17" t="s">
         <v>3</v>
       </c>
@@ -51390,14 +51710,14 @@
       <c r="D4" s="23">
         <v>44320</v>
       </c>
-      <c r="E4" s="518" t="s">
+      <c r="E4" s="539" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="519"/>
-      <c r="H4" s="520" t="s">
+      <c r="F4" s="540"/>
+      <c r="H4" s="541" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="521"/>
+      <c r="I4" s="542"/>
       <c r="J4" s="24"/>
       <c r="K4" s="25"/>
       <c r="L4" s="26"/>
@@ -54305,18 +54625,18 @@
       </c>
       <c r="I65" s="104"/>
       <c r="J65" s="105"/>
-      <c r="P65" s="535">
+      <c r="P65" s="513">
         <f>P62+Q62</f>
         <v>5004562.5599999996</v>
       </c>
-      <c r="Q65" s="536"/>
+      <c r="Q65" s="514"/>
       <c r="S65" s="50"/>
     </row>
     <row r="66" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="551" t="s">
+      <c r="B66" s="550" t="s">
         <v>528</v>
       </c>
-      <c r="C66" s="552"/>
+      <c r="C66" s="551"/>
       <c r="D66" s="534" t="s">
         <v>502</v>
       </c>
@@ -54324,21 +54644,21 @@
       <c r="F66" s="95">
         <v>-3854423.8</v>
       </c>
-      <c r="I66" s="538" t="s">
+      <c r="I66" s="516" t="s">
         <v>19</v>
       </c>
-      <c r="J66" s="539"/>
-      <c r="K66" s="540">
+      <c r="J66" s="517"/>
+      <c r="K66" s="518">
         <f>F68+F69+F70</f>
         <v>14998.430000000139</v>
       </c>
-      <c r="L66" s="541"/>
+      <c r="L66" s="519"/>
       <c r="P66" s="50"/>
       <c r="S66" s="107"/>
     </row>
     <row r="67" spans="2:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B67" s="553"/>
-      <c r="C67" s="554"/>
+      <c r="B67" s="552"/>
+      <c r="C67" s="553"/>
       <c r="D67" s="108"/>
       <c r="E67" s="60"/>
       <c r="F67" s="109">
@@ -54353,8 +54673,8 @@
       <c r="S67" s="50"/>
     </row>
     <row r="68" spans="2:19" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B68" s="555"/>
-      <c r="C68" s="556"/>
+      <c r="B68" s="554"/>
+      <c r="C68" s="555"/>
       <c r="E68" s="60" t="s">
         <v>20</v>
       </c>
@@ -54367,11 +54687,11 @@
         <v>21</v>
       </c>
       <c r="J68" s="115"/>
-      <c r="K68" s="542">
+      <c r="K68" s="520">
         <f>-C4</f>
         <v>-249311.35999999999</v>
       </c>
-      <c r="L68" s="543"/>
+      <c r="L68" s="521"/>
       <c r="M68" s="116"/>
       <c r="P68" s="50"/>
       <c r="Q68" s="7"/>
@@ -54566,11 +54886,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="I70:J70"/>
-    <mergeCell ref="K70:L70"/>
-    <mergeCell ref="M64:N64"/>
-    <mergeCell ref="D65:E65"/>
     <mergeCell ref="P65:Q65"/>
     <mergeCell ref="D66:E66"/>
     <mergeCell ref="I66:J66"/>
@@ -54584,6 +54899,11 @@
     <mergeCell ref="K64:L64"/>
     <mergeCell ref="B66:C68"/>
     <mergeCell ref="K68:L68"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="I70:J70"/>
+    <mergeCell ref="K70:L70"/>
+    <mergeCell ref="M64:N64"/>
+    <mergeCell ref="D65:E65"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO  2 0 2 1/CENTRAL # 08 AGOSTO  2021/BALANCE ABASTOS   AGOSTO       2021.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO  2 0 2 1/CENTRAL # 08 AGOSTO  2021/BALANCE ABASTOS   AGOSTO       2021.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17190" windowHeight="10725" firstSheet="14" activeTab="15"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17190" windowHeight="10725" firstSheet="16" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="E N E R O     2 0 2 1    " sheetId="1" r:id="rId1"/>
@@ -569,7 +569,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2149" uniqueCount="826">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2199" uniqueCount="840">
   <si>
     <t>MORRALLA EN CAJA DE 11 SUR   2,800.00  +  $ 1,200.00 Total    $  4,000.00</t>
   </si>
@@ -3047,6 +3047,48 @@
   </si>
   <si>
     <t>total de FALTANTE</t>
+  </si>
+  <si>
+    <t>AGOSTO.,</t>
+  </si>
+  <si>
+    <t>SERV CAMARA</t>
+  </si>
+  <si>
+    <t>Reinst Basculas</t>
+  </si>
+  <si>
+    <t>ROLLOS BASCULAS</t>
+  </si>
+  <si>
+    <t>ETIQUETADORA</t>
+  </si>
+  <si>
+    <t>PRESTAMO 3/18</t>
+  </si>
+  <si>
+    <t>INTERESES S/Prest 3/18</t>
+  </si>
+  <si>
+    <t>TARJETA +  SSD</t>
+  </si>
+  <si>
+    <t>IMPUESTOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DESECHABLES </t>
+  </si>
+  <si>
+    <t>COMISION AFILIACION</t>
+  </si>
+  <si>
+    <t>3%  IMPUESTO</t>
+  </si>
+  <si>
+    <t>GARANTIA FIRA  4</t>
+  </si>
+  <si>
+    <t>INERNET</t>
   </si>
 </sst>
 </file>
@@ -4933,7 +4975,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="656">
+  <cellXfs count="659">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -6039,31 +6081,45 @@
     <xf numFmtId="0" fontId="17" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="7" fillId="16" borderId="79" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="7" fillId="16" borderId="80" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="7" fillId="16" borderId="81" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="7" fillId="16" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="7" fillId="16" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="16" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="7" fillId="16" borderId="83" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="94" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="46" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="46" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="14" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6105,26 +6161,31 @@
     <xf numFmtId="166" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="46" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="46" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="6" fillId="15" borderId="48" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6139,14 +6200,14 @@
     <xf numFmtId="166" fontId="6" fillId="15" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="14" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="14" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="35" fillId="10" borderId="64" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -6165,6 +6226,15 @@
     </xf>
     <xf numFmtId="44" fontId="35" fillId="10" borderId="66" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="10" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="10" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="35" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="16" fillId="13" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -6244,26 +6314,32 @@
     <xf numFmtId="44" fontId="49" fillId="0" borderId="66" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="35" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="46" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="10" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="2" fillId="20" borderId="64" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="20" borderId="69" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="20" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="20" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="53" fillId="20" borderId="69" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="10" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="53" fillId="20" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="16" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="44" fontId="53" fillId="20" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="16" fillId="16" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="44" fontId="53" fillId="20" borderId="66" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="16" fillId="8" borderId="67" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -6304,32 +6380,53 @@
     <xf numFmtId="44" fontId="16" fillId="14" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="46" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="16" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="20" borderId="64" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="16" fillId="16" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="20" borderId="69" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="6" fillId="11" borderId="73" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="6" fillId="11" borderId="85" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="6" fillId="11" borderId="86" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="6" fillId="11" borderId="87" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="35" fillId="7" borderId="96" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="35" fillId="7" borderId="97" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="35" fillId="7" borderId="99" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="35" fillId="7" borderId="100" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="16" fillId="8" borderId="82" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="16" fillId="8" borderId="95" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="7" borderId="98" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="20" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="7" fillId="7" borderId="101" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="20" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="53" fillId="20" borderId="69" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="53" fillId="20" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="53" fillId="20" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="53" fillId="20" borderId="66" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="8" borderId="64" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -6343,6 +6440,18 @@
     <xf numFmtId="44" fontId="2" fillId="8" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="166" fontId="35" fillId="11" borderId="86" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="35" fillId="11" borderId="87" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="35" fillId="11" borderId="88" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="35" fillId="11" borderId="89" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -6351,6 +6460,18 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="11" borderId="86" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="11" borderId="87" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="11" borderId="88" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="11" borderId="89" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="7" fontId="35" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -6373,84 +6494,14 @@
     <xf numFmtId="44" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="11" borderId="86" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="11" borderId="87" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="11" borderId="88" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="11" borderId="89" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="16" borderId="79" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="7" fillId="16" borderId="80" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="7" fillId="16" borderId="81" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="7" fillId="16" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="7" fillId="16" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="16" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="7" fillId="16" borderId="83" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="35" fillId="11" borderId="86" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="35" fillId="11" borderId="87" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="35" fillId="11" borderId="88" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="35" fillId="11" borderId="89" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="6" fillId="11" borderId="73" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="7" fontId="6" fillId="11" borderId="85" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="94" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="7" fontId="6" fillId="11" borderId="86" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="6" fillId="11" borderId="87" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="16" fillId="8" borderId="82" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="16" fillId="8" borderId="95" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="35" fillId="7" borderId="96" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="35" fillId="7" borderId="97" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="7" borderId="98" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="35" fillId="7" borderId="99" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="35" fillId="7" borderId="100" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="7" borderId="101" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -12105,17 +12156,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C1" s="535" t="s">
+      <c r="C1" s="524" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="535"/>
-      <c r="E1" s="535"/>
-      <c r="F1" s="535"/>
-      <c r="G1" s="535"/>
-      <c r="H1" s="535"/>
-      <c r="I1" s="535"/>
-      <c r="J1" s="535"/>
-      <c r="K1" s="535"/>
+      <c r="D1" s="524"/>
+      <c r="E1" s="524"/>
+      <c r="F1" s="524"/>
+      <c r="G1" s="524"/>
+      <c r="H1" s="524"/>
+      <c r="I1" s="524"/>
+      <c r="J1" s="524"/>
+      <c r="K1" s="524"/>
       <c r="L1" s="2"/>
       <c r="M1" s="3"/>
       <c r="U1" s="209"/>
@@ -12146,17 +12197,17 @@
       </c>
     </row>
     <row r="3" spans="1:23" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="536" t="s">
+      <c r="B3" s="525" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="537"/>
+      <c r="C3" s="526"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="15"/>
-      <c r="H3" s="538" t="s">
+      <c r="H3" s="527" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="538"/>
+      <c r="I3" s="527"/>
       <c r="K3" s="17" t="s">
         <v>3</v>
       </c>
@@ -12185,14 +12236,14 @@
       <c r="D4" s="23">
         <v>44201</v>
       </c>
-      <c r="E4" s="539" t="s">
+      <c r="E4" s="528" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="540"/>
-      <c r="H4" s="541" t="s">
+      <c r="F4" s="529"/>
+      <c r="H4" s="530" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="542"/>
+      <c r="I4" s="531"/>
       <c r="J4" s="24"/>
       <c r="K4" s="25"/>
       <c r="L4" s="26"/>
@@ -14803,61 +14854,61 @@
       <c r="A64" s="60"/>
       <c r="B64" s="100"/>
       <c r="C64" s="4"/>
-      <c r="H64" s="522" t="s">
+      <c r="H64" s="532" t="s">
         <v>16</v>
       </c>
-      <c r="I64" s="523"/>
+      <c r="I64" s="533"/>
       <c r="J64" s="101"/>
-      <c r="K64" s="524">
+      <c r="K64" s="534">
         <f>I62+L62</f>
         <v>360753.85</v>
       </c>
-      <c r="L64" s="525"/>
-      <c r="M64" s="526">
+      <c r="L64" s="535"/>
+      <c r="M64" s="536">
         <f>M62+N62</f>
         <v>2886514.7</v>
       </c>
-      <c r="N64" s="527"/>
+      <c r="N64" s="537"/>
       <c r="O64" s="102"/>
       <c r="P64" s="99"/>
       <c r="Q64" s="99"/>
       <c r="S64" s="174"/>
     </row>
     <row r="65" spans="2:19" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D65" s="534" t="s">
+      <c r="D65" s="544" t="s">
         <v>17</v>
       </c>
-      <c r="E65" s="534"/>
+      <c r="E65" s="544"/>
       <c r="F65" s="103">
         <f>F62-K64-C62</f>
         <v>2365880.5699999998</v>
       </c>
       <c r="I65" s="104"/>
       <c r="J65" s="105"/>
-      <c r="P65" s="513">
+      <c r="P65" s="545">
         <f>P62+Q62</f>
         <v>3321521.28</v>
       </c>
-      <c r="Q65" s="514"/>
+      <c r="Q65" s="546"/>
       <c r="S65" s="50"/>
     </row>
     <row r="66" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D66" s="515" t="s">
+      <c r="D66" s="547" t="s">
         <v>18</v>
       </c>
-      <c r="E66" s="515"/>
+      <c r="E66" s="547"/>
       <c r="F66" s="95">
         <v>-2276696.6800000002</v>
       </c>
-      <c r="I66" s="516" t="s">
+      <c r="I66" s="548" t="s">
         <v>19</v>
       </c>
-      <c r="J66" s="517"/>
-      <c r="K66" s="518">
+      <c r="J66" s="549"/>
+      <c r="K66" s="550">
         <f>F68+F69+F70</f>
         <v>344253.98999999964</v>
       </c>
-      <c r="L66" s="519"/>
+      <c r="L66" s="551"/>
       <c r="P66" s="50"/>
       <c r="S66" s="107"/>
     </row>
@@ -14891,11 +14942,11 @@
         <v>21</v>
       </c>
       <c r="J68" s="115"/>
-      <c r="K68" s="520">
+      <c r="K68" s="552">
         <f>-C4</f>
         <v>-250864.68</v>
       </c>
-      <c r="L68" s="521"/>
+      <c r="L68" s="553"/>
       <c r="M68" s="116"/>
       <c r="P68" s="50"/>
       <c r="Q68" s="7"/>
@@ -14919,22 +14970,22 @@
       <c r="C70" s="119">
         <v>44230</v>
       </c>
-      <c r="D70" s="528" t="s">
+      <c r="D70" s="538" t="s">
         <v>24</v>
       </c>
-      <c r="E70" s="529"/>
+      <c r="E70" s="539"/>
       <c r="F70" s="120">
         <v>209541.1</v>
       </c>
-      <c r="I70" s="530" t="s">
+      <c r="I70" s="540" t="s">
         <v>25</v>
       </c>
-      <c r="J70" s="531"/>
-      <c r="K70" s="532">
+      <c r="J70" s="541"/>
+      <c r="K70" s="542">
         <f>K66+K68</f>
         <v>93389.309999999648</v>
       </c>
-      <c r="L70" s="533"/>
+      <c r="L70" s="543"/>
       <c r="P70" s="50"/>
       <c r="Q70" s="7"/>
       <c r="S70" s="121"/>
@@ -15038,11 +15089,11 @@
     <sortCondition ref="J35:J54"/>
   </sortState>
   <mergeCells count="17">
-    <mergeCell ref="C1:K1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="P65:Q65"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="I66:J66"/>
+    <mergeCell ref="K66:L66"/>
+    <mergeCell ref="K68:L68"/>
     <mergeCell ref="H64:I64"/>
     <mergeCell ref="K64:L64"/>
     <mergeCell ref="M64:N64"/>
@@ -15050,11 +15101,11 @@
     <mergeCell ref="I70:J70"/>
     <mergeCell ref="K70:L70"/>
     <mergeCell ref="D65:E65"/>
-    <mergeCell ref="P65:Q65"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="I66:J66"/>
-    <mergeCell ref="K66:L66"/>
-    <mergeCell ref="K68:L68"/>
+    <mergeCell ref="C1:K1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
   </mergeCells>
   <phoneticPr fontId="41" type="noConversion"/>
   <pageMargins left="0.2" right="0.16" top="0.34" bottom="0.32" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -16479,20 +16530,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="583" t="s">
+      <c r="B1" s="567" t="s">
         <v>529</v>
       </c>
-      <c r="C1" s="535" t="s">
+      <c r="C1" s="524" t="s">
         <v>503</v>
       </c>
-      <c r="D1" s="535"/>
-      <c r="E1" s="535"/>
-      <c r="F1" s="535"/>
-      <c r="G1" s="535"/>
-      <c r="H1" s="535"/>
-      <c r="I1" s="535"/>
-      <c r="J1" s="535"/>
-      <c r="K1" s="535"/>
+      <c r="D1" s="524"/>
+      <c r="E1" s="524"/>
+      <c r="F1" s="524"/>
+      <c r="G1" s="524"/>
+      <c r="H1" s="524"/>
+      <c r="I1" s="524"/>
+      <c r="J1" s="524"/>
+      <c r="K1" s="524"/>
       <c r="L1" s="2"/>
       <c r="M1" s="3"/>
       <c r="W1" s="209"/>
@@ -16502,7 +16553,7 @@
       <c r="Y1" s="206"/>
     </row>
     <row r="2" spans="1:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="584"/>
+      <c r="B2" s="568"/>
       <c r="C2" s="8"/>
       <c r="H2" s="10" t="s">
         <v>0</v>
@@ -16521,27 +16572,27 @@
       <c r="Y2" s="216" t="s">
         <v>28</v>
       </c>
-      <c r="AB2" s="566" t="s">
+      <c r="AB2" s="580" t="s">
         <v>596</v>
       </c>
-      <c r="AC2" s="566"/>
-      <c r="AD2" s="566"/>
-      <c r="AE2" s="566"/>
-      <c r="AF2" s="566"/>
-      <c r="AG2" s="566"/>
+      <c r="AC2" s="580"/>
+      <c r="AD2" s="580"/>
+      <c r="AE2" s="580"/>
+      <c r="AF2" s="580"/>
+      <c r="AG2" s="580"/>
     </row>
     <row r="3" spans="1:33" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="536" t="s">
+      <c r="B3" s="525" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="537"/>
+      <c r="C3" s="526"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="15"/>
-      <c r="H3" s="538" t="s">
+      <c r="H3" s="527" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="538"/>
+      <c r="I3" s="527"/>
       <c r="K3" s="17" t="s">
         <v>3</v>
       </c>
@@ -16549,7 +16600,7 @@
         <v>4</v>
       </c>
       <c r="M3" s="18"/>
-      <c r="P3" s="556" t="s">
+      <c r="P3" s="570" t="s">
         <v>562</v>
       </c>
       <c r="Q3" s="393"/>
@@ -16562,12 +16613,12 @@
       <c r="Y3" s="198">
         <v>2000</v>
       </c>
-      <c r="AB3" s="566"/>
-      <c r="AC3" s="566"/>
-      <c r="AD3" s="566"/>
-      <c r="AE3" s="566"/>
-      <c r="AF3" s="566"/>
-      <c r="AG3" s="566"/>
+      <c r="AB3" s="580"/>
+      <c r="AC3" s="580"/>
+      <c r="AD3" s="580"/>
+      <c r="AE3" s="580"/>
+      <c r="AF3" s="580"/>
+      <c r="AG3" s="580"/>
     </row>
     <row r="4" spans="1:33" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="20" t="s">
@@ -16580,14 +16631,14 @@
       <c r="D4" s="23">
         <v>44353</v>
       </c>
-      <c r="E4" s="539" t="s">
+      <c r="E4" s="528" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="540"/>
-      <c r="H4" s="541" t="s">
+      <c r="F4" s="529"/>
+      <c r="H4" s="530" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="542"/>
+      <c r="I4" s="531"/>
       <c r="J4" s="24"/>
       <c r="K4" s="25"/>
       <c r="L4" s="26"/>
@@ -16598,7 +16649,7 @@
         <v>10</v>
       </c>
       <c r="O4" s="365"/>
-      <c r="P4" s="556"/>
+      <c r="P4" s="570"/>
       <c r="Q4" s="393"/>
       <c r="R4" s="30"/>
       <c r="S4" s="31"/>
@@ -16613,16 +16664,16 @@
       <c r="Y4" s="217">
         <v>2000</v>
       </c>
-      <c r="AB4" s="567" t="s">
+      <c r="AB4" s="581" t="s">
         <v>527</v>
       </c>
-      <c r="AC4" s="568"/>
+      <c r="AC4" s="582"/>
       <c r="AD4" s="99"/>
-      <c r="AE4" s="569" t="s">
+      <c r="AE4" s="583" t="s">
         <v>567</v>
       </c>
-      <c r="AF4" s="569"/>
-      <c r="AG4" s="569"/>
+      <c r="AF4" s="583"/>
+      <c r="AG4" s="583"/>
     </row>
     <row r="5" spans="1:33" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="34" t="s">
@@ -18034,10 +18085,10 @@
         <v>0</v>
       </c>
       <c r="AD23" s="99"/>
-      <c r="AE23" s="574" t="s">
+      <c r="AE23" s="588" t="s">
         <v>564</v>
       </c>
-      <c r="AF23" s="575"/>
+      <c r="AF23" s="589"/>
       <c r="AG23" s="339">
         <f>SUM(AG6:AG22)</f>
         <v>2323600</v>
@@ -18181,11 +18232,11 @@
         <v>138607</v>
       </c>
       <c r="AD25" s="99"/>
-      <c r="AE25" s="576" t="s">
+      <c r="AE25" s="590" t="s">
         <v>565</v>
       </c>
-      <c r="AF25" s="577"/>
-      <c r="AG25" s="580">
+      <c r="AF25" s="591"/>
+      <c r="AG25" s="594">
         <f>AC29-AG23</f>
         <v>163726</v>
       </c>
@@ -18256,9 +18307,9 @@
         <v>107480</v>
       </c>
       <c r="AD26" s="99"/>
-      <c r="AE26" s="578"/>
-      <c r="AF26" s="579"/>
-      <c r="AG26" s="581"/>
+      <c r="AE26" s="592"/>
+      <c r="AF26" s="593"/>
+      <c r="AG26" s="595"/>
     </row>
     <row r="27" spans="1:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="34"/>
@@ -18433,10 +18484,10 @@
       </c>
       <c r="X29" s="220"/>
       <c r="Y29" s="218"/>
-      <c r="AB29" s="570" t="s">
+      <c r="AB29" s="584" t="s">
         <v>562</v>
       </c>
-      <c r="AC29" s="572">
+      <c r="AC29" s="586">
         <f>SUM(AC5:AC28)</f>
         <v>2487326</v>
       </c>
@@ -18472,11 +18523,11 @@
         <v>0</v>
       </c>
       <c r="O30" s="7"/>
-      <c r="P30" s="557">
+      <c r="P30" s="571">
         <f>SUM(P5:P29)</f>
         <v>-163726</v>
       </c>
-      <c r="Q30" s="557"/>
+      <c r="Q30" s="571"/>
       <c r="R30" s="7">
         <v>0</v>
       </c>
@@ -18490,8 +18541,8 @@
       </c>
       <c r="X30" s="221"/>
       <c r="Y30" s="207"/>
-      <c r="AB30" s="571"/>
-      <c r="AC30" s="573"/>
+      <c r="AB30" s="585"/>
+      <c r="AC30" s="587"/>
       <c r="AD30" s="99"/>
       <c r="AE30" s="99"/>
       <c r="AF30" s="99"/>
@@ -19853,21 +19904,21 @@
       <c r="A64" s="60"/>
       <c r="B64" s="100"/>
       <c r="C64" s="4"/>
-      <c r="H64" s="522" t="s">
+      <c r="H64" s="532" t="s">
         <v>16</v>
       </c>
-      <c r="I64" s="523"/>
+      <c r="I64" s="533"/>
       <c r="J64" s="101"/>
-      <c r="K64" s="524">
+      <c r="K64" s="534">
         <f>I62+L62</f>
         <v>339830.06000000006</v>
       </c>
-      <c r="L64" s="525"/>
-      <c r="M64" s="526">
+      <c r="L64" s="535"/>
+      <c r="M64" s="536">
         <f>M62+N62</f>
         <v>2936130</v>
       </c>
-      <c r="N64" s="527"/>
+      <c r="N64" s="537"/>
       <c r="O64" s="367"/>
       <c r="P64" s="367"/>
       <c r="Q64" s="367"/>
@@ -19882,40 +19933,40 @@
       <c r="AG64" s="327"/>
     </row>
     <row r="65" spans="2:33" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D65" s="534" t="s">
+      <c r="D65" s="544" t="s">
         <v>17</v>
       </c>
-      <c r="E65" s="534"/>
+      <c r="E65" s="544"/>
       <c r="F65" s="103">
         <f>F62-K64-C62</f>
         <v>2702101.7199999997</v>
       </c>
       <c r="I65" s="104"/>
       <c r="J65" s="105"/>
-      <c r="R65" s="513">
+      <c r="R65" s="545">
         <f>R62+S62</f>
         <v>3138957.44</v>
       </c>
-      <c r="S65" s="514"/>
+      <c r="S65" s="546"/>
       <c r="U65" s="50"/>
     </row>
     <row r="66" spans="2:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D66" s="515" t="s">
+      <c r="D66" s="547" t="s">
         <v>502</v>
       </c>
-      <c r="E66" s="515"/>
+      <c r="E66" s="547"/>
       <c r="F66" s="95">
         <v>-2720820.95</v>
       </c>
-      <c r="I66" s="516" t="s">
+      <c r="I66" s="548" t="s">
         <v>19</v>
       </c>
-      <c r="J66" s="517"/>
-      <c r="K66" s="518">
+      <c r="J66" s="549"/>
+      <c r="K66" s="550">
         <f>F68+F69+F70</f>
         <v>381077.48999999953</v>
       </c>
-      <c r="L66" s="519"/>
+      <c r="L66" s="551"/>
       <c r="R66" s="50"/>
       <c r="U66" s="107"/>
     </row>
@@ -19949,11 +20000,11 @@
         <v>21</v>
       </c>
       <c r="J68" s="115"/>
-      <c r="K68" s="520">
+      <c r="K68" s="552">
         <f>-C4</f>
         <v>-255764.39</v>
       </c>
-      <c r="L68" s="521"/>
+      <c r="L68" s="553"/>
       <c r="M68" s="116"/>
       <c r="R68" s="50"/>
       <c r="S68" s="7"/>
@@ -19977,22 +20028,22 @@
       <c r="C70" s="119">
         <v>44377</v>
       </c>
-      <c r="D70" s="528" t="s">
+      <c r="D70" s="538" t="s">
         <v>24</v>
       </c>
-      <c r="E70" s="529"/>
+      <c r="E70" s="539"/>
       <c r="F70" s="120">
         <v>308642.71999999997</v>
       </c>
-      <c r="I70" s="530" t="s">
+      <c r="I70" s="540" t="s">
         <v>25</v>
       </c>
-      <c r="J70" s="531"/>
-      <c r="K70" s="532">
+      <c r="J70" s="541"/>
+      <c r="K70" s="542">
         <f>K66+K68</f>
         <v>125313.09999999951</v>
       </c>
-      <c r="L70" s="533"/>
+      <c r="L70" s="543"/>
       <c r="R70" s="50"/>
       <c r="S70" s="7"/>
       <c r="U70" s="121"/>
@@ -20008,14 +20059,14 @@
       <c r="S71" s="7"/>
     </row>
     <row r="72" spans="2:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I72" s="558" t="s">
+      <c r="I72" s="572" t="s">
         <v>610</v>
       </c>
-      <c r="J72" s="559"/>
-      <c r="K72" s="562">
+      <c r="J72" s="573"/>
+      <c r="K72" s="576">
         <v>163726</v>
       </c>
-      <c r="L72" s="563"/>
+      <c r="L72" s="577"/>
       <c r="R72" s="7"/>
       <c r="S72" s="7"/>
     </row>
@@ -20024,10 +20075,10 @@
       <c r="C73" s="128"/>
       <c r="D73" s="129"/>
       <c r="E73" s="7"/>
-      <c r="I73" s="560"/>
-      <c r="J73" s="561"/>
-      <c r="K73" s="564"/>
-      <c r="L73" s="565"/>
+      <c r="I73" s="574"/>
+      <c r="J73" s="575"/>
+      <c r="K73" s="578"/>
+      <c r="L73" s="579"/>
       <c r="M73" s="2"/>
       <c r="N73" s="60"/>
       <c r="O73" s="165"/>
@@ -20079,7 +20130,7 @@
       <c r="C76" s="130"/>
       <c r="E76" s="7"/>
       <c r="M76" s="4"/>
-      <c r="AC76" s="582"/>
+      <c r="AC76" s="569"/>
       <c r="AD76" s="342"/>
       <c r="AE76" s="342"/>
       <c r="AF76" s="342"/>
@@ -20092,7 +20143,7 @@
       <c r="E77" s="7"/>
       <c r="F77" s="273"/>
       <c r="M77" s="4"/>
-      <c r="AC77" s="582"/>
+      <c r="AC77" s="569"/>
       <c r="AD77" s="342"/>
       <c r="AE77" s="342"/>
       <c r="AF77" s="342"/>
@@ -20186,22 +20237,6 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:K1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="AC76:AC77"/>
-    <mergeCell ref="R65:S65"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="I66:J66"/>
-    <mergeCell ref="K66:L66"/>
-    <mergeCell ref="K68:L68"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="I70:J70"/>
-    <mergeCell ref="K70:L70"/>
-    <mergeCell ref="D65:E65"/>
     <mergeCell ref="P3:P4"/>
     <mergeCell ref="P30:Q30"/>
     <mergeCell ref="I72:J73"/>
@@ -20217,6 +20252,22 @@
     <mergeCell ref="AE23:AF23"/>
     <mergeCell ref="AE25:AF26"/>
     <mergeCell ref="AG25:AG26"/>
+    <mergeCell ref="AC76:AC77"/>
+    <mergeCell ref="R65:S65"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="I66:J66"/>
+    <mergeCell ref="K66:L66"/>
+    <mergeCell ref="K68:L68"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="I70:J70"/>
+    <mergeCell ref="K70:L70"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:K1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
   </mergeCells>
   <pageMargins left="0.49" right="0.23622047244094491" top="0.47244094488188981" bottom="0.27559055118110237" header="0.70866141732283472" footer="0.31496062992125984"/>
   <pageSetup scale="90" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -21554,25 +21605,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="583" t="s">
+      <c r="B1" s="567" t="s">
         <v>529</v>
       </c>
-      <c r="C1" s="535" t="s">
+      <c r="C1" s="524" t="s">
         <v>503</v>
       </c>
-      <c r="D1" s="535"/>
-      <c r="E1" s="535"/>
-      <c r="F1" s="535"/>
-      <c r="G1" s="535"/>
-      <c r="H1" s="535"/>
-      <c r="I1" s="535"/>
-      <c r="J1" s="535"/>
-      <c r="K1" s="535"/>
+      <c r="D1" s="524"/>
+      <c r="E1" s="524"/>
+      <c r="F1" s="524"/>
+      <c r="G1" s="524"/>
+      <c r="H1" s="524"/>
+      <c r="I1" s="524"/>
+      <c r="J1" s="524"/>
+      <c r="K1" s="524"/>
       <c r="L1" s="2"/>
       <c r="M1" s="3"/>
     </row>
     <row r="2" spans="1:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="584"/>
+      <c r="B2" s="568"/>
       <c r="C2" s="8"/>
       <c r="H2" s="10" t="s">
         <v>0</v>
@@ -21582,27 +21633,27 @@
       <c r="L2" s="12"/>
       <c r="M2" s="3"/>
       <c r="N2" s="6"/>
-      <c r="Q2" s="566" t="s">
+      <c r="Q2" s="580" t="s">
         <v>596</v>
       </c>
-      <c r="R2" s="566"/>
-      <c r="S2" s="566"/>
-      <c r="T2" s="566"/>
-      <c r="U2" s="566"/>
-      <c r="V2" s="566"/>
+      <c r="R2" s="580"/>
+      <c r="S2" s="580"/>
+      <c r="T2" s="580"/>
+      <c r="U2" s="580"/>
+      <c r="V2" s="580"/>
     </row>
     <row r="3" spans="1:23" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="536" t="s">
+      <c r="B3" s="525" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="537"/>
+      <c r="C3" s="526"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="15"/>
-      <c r="H3" s="538" t="s">
+      <c r="H3" s="527" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="538"/>
+      <c r="I3" s="527"/>
       <c r="K3" s="17" t="s">
         <v>3</v>
       </c>
@@ -21610,12 +21661,12 @@
         <v>4</v>
       </c>
       <c r="M3" s="18"/>
-      <c r="Q3" s="566"/>
-      <c r="R3" s="566"/>
-      <c r="S3" s="566"/>
-      <c r="T3" s="566"/>
-      <c r="U3" s="566"/>
-      <c r="V3" s="566"/>
+      <c r="Q3" s="580"/>
+      <c r="R3" s="580"/>
+      <c r="S3" s="580"/>
+      <c r="T3" s="580"/>
+      <c r="U3" s="580"/>
+      <c r="V3" s="580"/>
     </row>
     <row r="4" spans="1:23" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="20" t="s">
@@ -21628,14 +21679,14 @@
       <c r="D4" s="23">
         <v>44353</v>
       </c>
-      <c r="E4" s="539" t="s">
+      <c r="E4" s="528" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="540"/>
-      <c r="H4" s="541" t="s">
+      <c r="F4" s="529"/>
+      <c r="H4" s="530" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="542"/>
+      <c r="I4" s="531"/>
       <c r="J4" s="24"/>
       <c r="K4" s="25"/>
       <c r="L4" s="26"/>
@@ -21647,16 +21698,16 @@
       </c>
       <c r="O4" s="365"/>
       <c r="P4" s="29"/>
-      <c r="Q4" s="567" t="s">
+      <c r="Q4" s="581" t="s">
         <v>527</v>
       </c>
-      <c r="R4" s="568"/>
+      <c r="R4" s="582"/>
       <c r="S4" s="99"/>
-      <c r="T4" s="569" t="s">
+      <c r="T4" s="583" t="s">
         <v>567</v>
       </c>
-      <c r="U4" s="569"/>
-      <c r="V4" s="569"/>
+      <c r="U4" s="583"/>
+      <c r="V4" s="583"/>
       <c r="W4" s="99"/>
     </row>
     <row r="5" spans="1:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -22655,10 +22706,10 @@
         <v>0</v>
       </c>
       <c r="S23" s="99"/>
-      <c r="T23" s="574" t="s">
+      <c r="T23" s="588" t="s">
         <v>564</v>
       </c>
-      <c r="U23" s="575"/>
+      <c r="U23" s="589"/>
       <c r="V23" s="339">
         <f>SUM(V6:V22)</f>
         <v>2323600</v>
@@ -22762,11 +22813,11 @@
         <v>138607</v>
       </c>
       <c r="S25" s="99"/>
-      <c r="T25" s="576" t="s">
+      <c r="T25" s="590" t="s">
         <v>565</v>
       </c>
-      <c r="U25" s="577"/>
-      <c r="V25" s="580">
+      <c r="U25" s="591"/>
+      <c r="V25" s="594">
         <f>R29-V23</f>
         <v>163726</v>
       </c>
@@ -22815,9 +22866,9 @@
         <v>107480</v>
       </c>
       <c r="S26" s="99"/>
-      <c r="T26" s="578"/>
-      <c r="U26" s="579"/>
-      <c r="V26" s="581"/>
+      <c r="T26" s="592"/>
+      <c r="U26" s="593"/>
+      <c r="V26" s="595"/>
       <c r="W26" s="99"/>
     </row>
     <row r="27" spans="1:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -22940,10 +22991,10 @@
       </c>
       <c r="O29" s="7"/>
       <c r="P29" s="29"/>
-      <c r="Q29" s="570" t="s">
+      <c r="Q29" s="584" t="s">
         <v>562</v>
       </c>
-      <c r="R29" s="572">
+      <c r="R29" s="586">
         <f>SUM(R5:R28)</f>
         <v>2487326</v>
       </c>
@@ -22980,8 +23031,8 @@
       </c>
       <c r="O30" s="7"/>
       <c r="P30" s="373"/>
-      <c r="Q30" s="571"/>
-      <c r="R30" s="573"/>
+      <c r="Q30" s="585"/>
+      <c r="R30" s="587"/>
       <c r="S30" s="99"/>
       <c r="T30" s="99"/>
       <c r="U30" s="99"/>
@@ -23606,21 +23657,21 @@
       <c r="A50" s="60"/>
       <c r="B50" s="100"/>
       <c r="C50" s="4"/>
-      <c r="H50" s="522" t="s">
+      <c r="H50" s="532" t="s">
         <v>16</v>
       </c>
-      <c r="I50" s="523"/>
+      <c r="I50" s="533"/>
       <c r="J50" s="101"/>
-      <c r="K50" s="524">
+      <c r="K50" s="534">
         <f>I48+L48</f>
         <v>339830.06000000006</v>
       </c>
-      <c r="L50" s="525"/>
-      <c r="M50" s="526">
+      <c r="L50" s="535"/>
+      <c r="M50" s="536">
         <f>M48+N48</f>
         <v>612530</v>
       </c>
-      <c r="N50" s="527"/>
+      <c r="N50" s="537"/>
       <c r="O50" s="367"/>
       <c r="P50" s="102"/>
       <c r="Q50" s="320"/>
@@ -23632,10 +23683,10 @@
       <c r="W50" s="327"/>
     </row>
     <row r="51" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="D51" s="534" t="s">
+      <c r="D51" s="544" t="s">
         <v>17</v>
       </c>
-      <c r="E51" s="534"/>
+      <c r="E51" s="544"/>
       <c r="F51" s="103">
         <f>F48-K50-C48</f>
         <v>2702101.7199999997</v>
@@ -23644,22 +23695,22 @@
       <c r="J51" s="105"/>
     </row>
     <row r="52" spans="1:23" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D52" s="515" t="s">
+      <c r="D52" s="547" t="s">
         <v>502</v>
       </c>
-      <c r="E52" s="515"/>
+      <c r="E52" s="547"/>
       <c r="F52" s="95">
         <v>-2720820.95</v>
       </c>
-      <c r="I52" s="516" t="s">
+      <c r="I52" s="548" t="s">
         <v>19</v>
       </c>
-      <c r="J52" s="517"/>
-      <c r="K52" s="518">
+      <c r="J52" s="549"/>
+      <c r="K52" s="550">
         <f>F54+F55+F56</f>
         <v>381077.72999999952</v>
       </c>
-      <c r="L52" s="519"/>
+      <c r="L52" s="551"/>
     </row>
     <row r="53" spans="1:23" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D53" s="108"/>
@@ -23688,11 +23739,11 @@
         <v>21</v>
       </c>
       <c r="J54" s="115"/>
-      <c r="K54" s="520">
+      <c r="K54" s="552">
         <f>-C4</f>
         <v>-255764.39</v>
       </c>
-      <c r="L54" s="521"/>
+      <c r="L54" s="553"/>
       <c r="M54" s="116"/>
     </row>
     <row r="55" spans="1:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -23710,22 +23761,22 @@
       <c r="C56" s="119">
         <v>44377</v>
       </c>
-      <c r="D56" s="528" t="s">
+      <c r="D56" s="538" t="s">
         <v>24</v>
       </c>
-      <c r="E56" s="529"/>
+      <c r="E56" s="539"/>
       <c r="F56" s="120">
         <v>308642.71999999997</v>
       </c>
-      <c r="I56" s="530" t="s">
+      <c r="I56" s="540" t="s">
         <v>25</v>
       </c>
-      <c r="J56" s="531"/>
-      <c r="K56" s="532">
+      <c r="J56" s="541"/>
+      <c r="K56" s="542">
         <f>K52+K54</f>
         <v>125313.3399999995</v>
       </c>
-      <c r="L56" s="533"/>
+      <c r="L56" s="543"/>
     </row>
     <row r="57" spans="1:23" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C57" s="122"/>
@@ -23781,7 +23832,7 @@
       <c r="C62" s="130"/>
       <c r="E62" s="7"/>
       <c r="M62" s="4"/>
-      <c r="R62" s="582"/>
+      <c r="R62" s="569"/>
       <c r="S62" s="379"/>
       <c r="T62" s="379"/>
       <c r="U62" s="379"/>
@@ -23794,7 +23845,7 @@
       <c r="E63" s="7"/>
       <c r="F63" s="273"/>
       <c r="M63" s="4"/>
-      <c r="R63" s="582"/>
+      <c r="R63" s="569"/>
       <c r="S63" s="379"/>
       <c r="T63" s="379"/>
       <c r="U63" s="379"/>
@@ -23871,23 +23922,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="Q2:V3"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="T4:V4"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="K50:L50"/>
-    <mergeCell ref="M50:N50"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:K1"/>
-    <mergeCell ref="T23:U23"/>
-    <mergeCell ref="T25:U26"/>
-    <mergeCell ref="V25:V26"/>
-    <mergeCell ref="Q29:Q30"/>
-    <mergeCell ref="R29:R30"/>
     <mergeCell ref="R62:R63"/>
     <mergeCell ref="D51:E51"/>
     <mergeCell ref="D52:E52"/>
@@ -23897,6 +23931,23 @@
     <mergeCell ref="D56:E56"/>
     <mergeCell ref="I56:J56"/>
     <mergeCell ref="K56:L56"/>
+    <mergeCell ref="T23:U23"/>
+    <mergeCell ref="T25:U26"/>
+    <mergeCell ref="V25:V26"/>
+    <mergeCell ref="Q29:Q30"/>
+    <mergeCell ref="R29:R30"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="K50:L50"/>
+    <mergeCell ref="M50:N50"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:K1"/>
+    <mergeCell ref="Q2:V3"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="T4:V4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -23915,7 +23966,7 @@
       <pane xSplit="5" ySplit="4" topLeftCell="F62" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="K77" sqref="K77:L78"/>
+      <selection pane="bottomRight" activeCell="C75" sqref="C75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -23950,20 +24001,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="583" t="s">
+      <c r="B1" s="567" t="s">
         <v>529</v>
       </c>
-      <c r="C1" s="535" t="s">
+      <c r="C1" s="524" t="s">
         <v>720</v>
       </c>
-      <c r="D1" s="535"/>
-      <c r="E1" s="535"/>
-      <c r="F1" s="535"/>
-      <c r="G1" s="535"/>
-      <c r="H1" s="535"/>
-      <c r="I1" s="535"/>
-      <c r="J1" s="535"/>
-      <c r="K1" s="535"/>
+      <c r="D1" s="524"/>
+      <c r="E1" s="524"/>
+      <c r="F1" s="524"/>
+      <c r="G1" s="524"/>
+      <c r="H1" s="524"/>
+      <c r="I1" s="524"/>
+      <c r="J1" s="524"/>
+      <c r="K1" s="524"/>
       <c r="L1" s="2"/>
       <c r="M1" s="3"/>
       <c r="W1" s="209"/>
@@ -23973,7 +24024,7 @@
       <c r="Y1" s="206"/>
     </row>
     <row r="2" spans="1:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="584"/>
+      <c r="B2" s="568"/>
       <c r="C2" s="8"/>
       <c r="H2" s="10" t="s">
         <v>0</v>
@@ -23992,27 +24043,27 @@
       <c r="Y2" s="216" t="s">
         <v>28</v>
       </c>
-      <c r="AB2" s="566" t="s">
+      <c r="AB2" s="580" t="s">
         <v>596</v>
       </c>
-      <c r="AC2" s="566"/>
-      <c r="AD2" s="566"/>
-      <c r="AE2" s="566"/>
-      <c r="AF2" s="566"/>
-      <c r="AG2" s="566"/>
+      <c r="AC2" s="580"/>
+      <c r="AD2" s="580"/>
+      <c r="AE2" s="580"/>
+      <c r="AF2" s="580"/>
+      <c r="AG2" s="580"/>
     </row>
     <row r="3" spans="1:33" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="536" t="s">
+      <c r="B3" s="525" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="537"/>
+      <c r="C3" s="526"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="15"/>
-      <c r="H3" s="538" t="s">
+      <c r="H3" s="527" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="538"/>
+      <c r="I3" s="527"/>
       <c r="K3" s="17" t="s">
         <v>3</v>
       </c>
@@ -24020,13 +24071,13 @@
         <v>4</v>
       </c>
       <c r="M3" s="18"/>
-      <c r="P3" s="585" t="s">
+      <c r="P3" s="618" t="s">
         <v>663</v>
       </c>
-      <c r="Q3" s="587" t="s">
+      <c r="Q3" s="620" t="s">
         <v>665</v>
       </c>
-      <c r="S3" s="588"/>
+      <c r="S3" s="621"/>
       <c r="W3" s="213" t="s">
         <v>54</v>
       </c>
@@ -24036,12 +24087,12 @@
       <c r="Y3" s="198">
         <v>2000</v>
       </c>
-      <c r="AB3" s="566"/>
-      <c r="AC3" s="566"/>
-      <c r="AD3" s="566"/>
-      <c r="AE3" s="566"/>
-      <c r="AF3" s="566"/>
-      <c r="AG3" s="566"/>
+      <c r="AB3" s="580"/>
+      <c r="AC3" s="580"/>
+      <c r="AD3" s="580"/>
+      <c r="AE3" s="580"/>
+      <c r="AF3" s="580"/>
+      <c r="AG3" s="580"/>
     </row>
     <row r="4" spans="1:33" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="20" t="s">
@@ -24054,14 +24105,14 @@
       <c r="D4" s="23">
         <v>44377</v>
       </c>
-      <c r="E4" s="539" t="s">
+      <c r="E4" s="528" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="540"/>
-      <c r="H4" s="586" t="s">
+      <c r="F4" s="529"/>
+      <c r="H4" s="619" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="542"/>
+      <c r="I4" s="531"/>
       <c r="J4" s="24"/>
       <c r="K4" s="25"/>
       <c r="L4" s="26"/>
@@ -24072,10 +24123,10 @@
         <v>10</v>
       </c>
       <c r="O4" s="365"/>
-      <c r="P4" s="585"/>
-      <c r="Q4" s="587"/>
+      <c r="P4" s="618"/>
+      <c r="Q4" s="620"/>
       <c r="R4" s="30"/>
-      <c r="S4" s="588"/>
+      <c r="S4" s="621"/>
       <c r="T4" s="30"/>
       <c r="U4" s="30"/>
       <c r="W4" s="213" t="s">
@@ -24087,16 +24138,16 @@
       <c r="Y4" s="217">
         <v>2000</v>
       </c>
-      <c r="AB4" s="567" t="s">
+      <c r="AB4" s="581" t="s">
         <v>527</v>
       </c>
-      <c r="AC4" s="568"/>
+      <c r="AC4" s="582"/>
       <c r="AD4" s="99"/>
-      <c r="AE4" s="569" t="s">
+      <c r="AE4" s="583" t="s">
         <v>567</v>
       </c>
-      <c r="AF4" s="569"/>
-      <c r="AG4" s="569"/>
+      <c r="AF4" s="583"/>
+      <c r="AG4" s="583"/>
     </row>
     <row r="5" spans="1:33" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="34" t="s">
@@ -25533,10 +25584,10 @@
         <v>0</v>
       </c>
       <c r="AD23" s="99"/>
-      <c r="AE23" s="574" t="s">
+      <c r="AE23" s="588" t="s">
         <v>564</v>
       </c>
-      <c r="AF23" s="575"/>
+      <c r="AF23" s="589"/>
       <c r="AG23" s="339">
         <f>SUM(AG6:AG22)</f>
         <v>2323600</v>
@@ -25668,11 +25719,11 @@
         <v>138607</v>
       </c>
       <c r="AD25" s="99"/>
-      <c r="AE25" s="576" t="s">
+      <c r="AE25" s="590" t="s">
         <v>565</v>
       </c>
-      <c r="AF25" s="577"/>
-      <c r="AG25" s="580">
+      <c r="AF25" s="591"/>
+      <c r="AG25" s="594">
         <f>AC29-AG23</f>
         <v>163726</v>
       </c>
@@ -25741,9 +25792,9 @@
         <v>107480</v>
       </c>
       <c r="AD26" s="99"/>
-      <c r="AE26" s="578"/>
-      <c r="AF26" s="579"/>
-      <c r="AG26" s="581"/>
+      <c r="AE26" s="592"/>
+      <c r="AF26" s="593"/>
+      <c r="AG26" s="595"/>
     </row>
     <row r="27" spans="1:33" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="34"/>
@@ -25942,10 +25993,10 @@
       </c>
       <c r="X29" s="220"/>
       <c r="Y29" s="218"/>
-      <c r="AB29" s="570" t="s">
+      <c r="AB29" s="584" t="s">
         <v>562</v>
       </c>
-      <c r="AC29" s="572">
+      <c r="AC29" s="586">
         <f>SUM(AC5:AC28)</f>
         <v>2487326</v>
       </c>
@@ -26008,8 +26059,8 @@
       </c>
       <c r="X30" s="221"/>
       <c r="Y30" s="207"/>
-      <c r="AB30" s="571"/>
-      <c r="AC30" s="573"/>
+      <c r="AB30" s="585"/>
+      <c r="AC30" s="587"/>
       <c r="AD30" s="99"/>
       <c r="AE30" s="99"/>
       <c r="AF30" s="99"/>
@@ -26502,11 +26553,11 @@
       <c r="J39" s="233"/>
       <c r="K39" s="361"/>
       <c r="L39" s="357"/>
-      <c r="M39" s="597">
+      <c r="M39" s="613">
         <f>SUM(M5:M38)</f>
         <v>3989472.22</v>
       </c>
-      <c r="N39" s="599">
+      <c r="N39" s="615">
         <f>SUM(N5:N38)</f>
         <v>689220.5</v>
       </c>
@@ -26555,8 +26606,8 @@
         <f>1145.91+398.99+423.94+498.99+398.99</f>
         <v>2866.8199999999997</v>
       </c>
-      <c r="M40" s="598"/>
-      <c r="N40" s="600"/>
+      <c r="M40" s="614"/>
+      <c r="N40" s="616"/>
       <c r="O40" s="7"/>
       <c r="P40" s="7"/>
       <c r="Q40" s="7"/>
@@ -26749,10 +26800,10 @@
       <c r="L44" s="358">
         <v>73526</v>
       </c>
-      <c r="M44" s="601" t="s">
+      <c r="M44" s="617" t="s">
         <v>567</v>
       </c>
-      <c r="N44" s="601"/>
+      <c r="N44" s="617"/>
       <c r="O44" s="7"/>
       <c r="P44" s="7"/>
       <c r="Q44" s="7"/>
@@ -27340,7 +27391,7 @@
       <c r="L57" s="458">
         <v>7482</v>
       </c>
-      <c r="M57" s="589">
+      <c r="M57" s="605">
         <f>SUM(M45:M56)</f>
         <v>3606750</v>
       </c>
@@ -27380,7 +27431,7 @@
       <c r="L58" s="458">
         <v>986</v>
       </c>
-      <c r="M58" s="590"/>
+      <c r="M58" s="606"/>
       <c r="N58" s="476"/>
       <c r="O58" s="7"/>
       <c r="P58" s="7"/>
@@ -27455,10 +27506,10 @@
         <f>1033.33+165.33</f>
         <v>1198.6599999999999</v>
       </c>
-      <c r="M60" s="591" t="s">
+      <c r="M60" s="607" t="s">
         <v>719</v>
       </c>
-      <c r="N60" s="592"/>
+      <c r="N60" s="608"/>
       <c r="O60" s="7"/>
       <c r="P60" s="7"/>
       <c r="Q60" s="7"/>
@@ -27531,11 +27582,11 @@
       <c r="L62" s="458">
         <v>22595.71</v>
       </c>
-      <c r="M62" s="593">
+      <c r="M62" s="609">
         <f>M57-M39</f>
         <v>-382722.2200000002</v>
       </c>
-      <c r="N62" s="594"/>
+      <c r="N62" s="610"/>
       <c r="O62" s="7"/>
       <c r="P62" s="7"/>
       <c r="Q62" s="7"/>
@@ -27571,8 +27622,8 @@
       <c r="L63" s="458">
         <v>1064</v>
       </c>
-      <c r="M63" s="595"/>
-      <c r="N63" s="596"/>
+      <c r="M63" s="611"/>
+      <c r="N63" s="612"/>
       <c r="O63" s="7"/>
       <c r="P63" s="7"/>
       <c r="Q63" s="7"/>
@@ -27762,16 +27813,16 @@
       <c r="A69" s="60"/>
       <c r="B69" s="100"/>
       <c r="C69" s="4"/>
-      <c r="H69" s="522" t="s">
+      <c r="H69" s="532" t="s">
         <v>16</v>
       </c>
-      <c r="I69" s="523"/>
+      <c r="I69" s="533"/>
       <c r="J69" s="101"/>
-      <c r="K69" s="524">
+      <c r="K69" s="534">
         <f>I67+L67</f>
         <v>587206.12</v>
       </c>
-      <c r="L69" s="525"/>
+      <c r="L69" s="535"/>
       <c r="M69" s="471"/>
       <c r="N69" s="472"/>
       <c r="O69" s="367"/>
@@ -27788,40 +27839,40 @@
       <c r="AG69" s="327"/>
     </row>
     <row r="70" spans="1:33" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D70" s="534" t="s">
+      <c r="D70" s="544" t="s">
         <v>17</v>
       </c>
-      <c r="E70" s="534"/>
+      <c r="E70" s="544"/>
       <c r="F70" s="103">
         <f>F67-K69-C67</f>
         <v>3436910.52</v>
       </c>
       <c r="I70" s="104"/>
       <c r="J70" s="105"/>
-      <c r="R70" s="513">
+      <c r="R70" s="545">
         <f>R67+S67</f>
         <v>10503773.959999999</v>
       </c>
-      <c r="S70" s="514"/>
+      <c r="S70" s="546"/>
       <c r="U70" s="50"/>
     </row>
     <row r="71" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D71" s="515" t="s">
+      <c r="D71" s="547" t="s">
         <v>502</v>
       </c>
-      <c r="E71" s="515"/>
+      <c r="E71" s="547"/>
       <c r="F71" s="95">
         <v>-3290264.27</v>
       </c>
-      <c r="I71" s="516" t="s">
+      <c r="I71" s="548" t="s">
         <v>19</v>
       </c>
-      <c r="J71" s="517"/>
-      <c r="K71" s="518">
+      <c r="J71" s="549"/>
+      <c r="K71" s="550">
         <f>F73+F74+F75</f>
         <v>426565.1</v>
       </c>
-      <c r="L71" s="519"/>
+      <c r="L71" s="551"/>
       <c r="R71" s="50"/>
       <c r="U71" s="107"/>
     </row>
@@ -27855,11 +27906,11 @@
         <v>21</v>
       </c>
       <c r="J73" s="115"/>
-      <c r="K73" s="520">
+      <c r="K73" s="552">
         <f>-C4</f>
         <v>-308642.71999999997</v>
       </c>
-      <c r="L73" s="602"/>
+      <c r="L73" s="596"/>
       <c r="R73" s="50"/>
       <c r="S73" s="7"/>
       <c r="U73" s="50"/>
@@ -27882,22 +27933,22 @@
       <c r="C75" s="119">
         <v>44410</v>
       </c>
-      <c r="D75" s="528" t="s">
+      <c r="D75" s="538" t="s">
         <v>24</v>
       </c>
-      <c r="E75" s="529"/>
+      <c r="E75" s="539"/>
       <c r="F75" s="120">
         <v>250140.85</v>
       </c>
-      <c r="I75" s="530" t="s">
+      <c r="I75" s="540" t="s">
         <v>25</v>
       </c>
-      <c r="J75" s="531"/>
-      <c r="K75" s="532">
+      <c r="J75" s="541"/>
+      <c r="K75" s="542">
         <f>K71+K73</f>
         <v>117922.38</v>
       </c>
-      <c r="L75" s="532"/>
+      <c r="L75" s="542"/>
       <c r="R75" s="50"/>
       <c r="S75" s="7"/>
       <c r="U75" s="121"/>
@@ -27912,14 +27963,14 @@
       <c r="S76" s="7"/>
     </row>
     <row r="77" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I77" s="603" t="s">
+      <c r="I77" s="597" t="s">
         <v>610</v>
       </c>
-      <c r="J77" s="604"/>
-      <c r="K77" s="607">
+      <c r="J77" s="598"/>
+      <c r="K77" s="601">
         <v>-383122.22</v>
       </c>
-      <c r="L77" s="608"/>
+      <c r="L77" s="602"/>
       <c r="R77" s="7"/>
       <c r="S77" s="7"/>
     </row>
@@ -27928,10 +27979,10 @@
       <c r="C78" s="128"/>
       <c r="D78" s="129"/>
       <c r="E78" s="7"/>
-      <c r="I78" s="605"/>
-      <c r="J78" s="606"/>
-      <c r="K78" s="609"/>
-      <c r="L78" s="610"/>
+      <c r="I78" s="599"/>
+      <c r="J78" s="600"/>
+      <c r="K78" s="603"/>
+      <c r="L78" s="604"/>
       <c r="M78" s="2"/>
       <c r="N78" s="60"/>
       <c r="O78" s="165"/>
@@ -27983,7 +28034,7 @@
       <c r="C81" s="130"/>
       <c r="E81" s="7"/>
       <c r="M81" s="4"/>
-      <c r="AC81" s="582"/>
+      <c r="AC81" s="569"/>
       <c r="AD81" s="440"/>
       <c r="AE81" s="440"/>
       <c r="AF81" s="440"/>
@@ -27996,7 +28047,7 @@
       <c r="E82" s="7"/>
       <c r="F82" s="273"/>
       <c r="M82" s="4"/>
-      <c r="AC82" s="582"/>
+      <c r="AC82" s="569"/>
       <c r="AD82" s="440"/>
       <c r="AE82" s="440"/>
       <c r="AF82" s="440"/>
@@ -28090,13 +28141,21 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="AC81:AC82"/>
-    <mergeCell ref="K73:L73"/>
-    <mergeCell ref="D75:E75"/>
-    <mergeCell ref="I75:J75"/>
-    <mergeCell ref="K75:L75"/>
-    <mergeCell ref="I77:J78"/>
-    <mergeCell ref="K77:L78"/>
+    <mergeCell ref="AG25:AG26"/>
+    <mergeCell ref="AB29:AB30"/>
+    <mergeCell ref="AC29:AC30"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:K1"/>
+    <mergeCell ref="AB2:AG3"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="AB4:AC4"/>
+    <mergeCell ref="AE4:AG4"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="S3:S4"/>
     <mergeCell ref="D71:E71"/>
     <mergeCell ref="I71:J71"/>
     <mergeCell ref="K71:L71"/>
@@ -28112,21 +28171,13 @@
     <mergeCell ref="M39:M40"/>
     <mergeCell ref="N39:N40"/>
     <mergeCell ref="M44:N44"/>
-    <mergeCell ref="AG25:AG26"/>
-    <mergeCell ref="AB29:AB30"/>
-    <mergeCell ref="AC29:AC30"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:K1"/>
-    <mergeCell ref="AB2:AG3"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="AB4:AC4"/>
-    <mergeCell ref="AE4:AG4"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="AC81:AC82"/>
+    <mergeCell ref="K73:L73"/>
+    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="I75:J75"/>
+    <mergeCell ref="K75:L75"/>
+    <mergeCell ref="I77:J78"/>
+    <mergeCell ref="K77:L78"/>
   </mergeCells>
   <pageMargins left="0.35433070866141736" right="0.27559055118110237" top="0.27559055118110237" bottom="0.31496062992125984" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="90" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -29773,8 +29824,8 @@
   </sheetPr>
   <dimension ref="A1:AG97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E49" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N72" sqref="N72"/>
+    <sheetView topLeftCell="A50" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C68" sqref="C68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -29809,20 +29860,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="583" t="s">
+      <c r="B1" s="567" t="s">
         <v>529</v>
       </c>
-      <c r="C1" s="535" t="s">
+      <c r="C1" s="524" t="s">
         <v>721</v>
       </c>
-      <c r="D1" s="535"/>
-      <c r="E1" s="535"/>
-      <c r="F1" s="535"/>
-      <c r="G1" s="535"/>
-      <c r="H1" s="535"/>
-      <c r="I1" s="535"/>
-      <c r="J1" s="535"/>
-      <c r="K1" s="535"/>
+      <c r="D1" s="524"/>
+      <c r="E1" s="524"/>
+      <c r="F1" s="524"/>
+      <c r="G1" s="524"/>
+      <c r="H1" s="524"/>
+      <c r="I1" s="524"/>
+      <c r="J1" s="524"/>
+      <c r="K1" s="524"/>
       <c r="L1" s="2"/>
       <c r="M1" s="3"/>
       <c r="W1" s="209"/>
@@ -29832,7 +29883,7 @@
       <c r="Y1" s="206"/>
     </row>
     <row r="2" spans="1:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="584"/>
+      <c r="B2" s="568"/>
       <c r="C2" s="8"/>
       <c r="H2" s="10" t="s">
         <v>0</v>
@@ -29851,27 +29902,27 @@
       <c r="Y2" s="216" t="s">
         <v>28</v>
       </c>
-      <c r="AB2" s="566" t="s">
+      <c r="AB2" s="580" t="s">
         <v>596</v>
       </c>
-      <c r="AC2" s="566"/>
-      <c r="AD2" s="566"/>
-      <c r="AE2" s="566"/>
-      <c r="AF2" s="566"/>
-      <c r="AG2" s="566"/>
+      <c r="AC2" s="580"/>
+      <c r="AD2" s="580"/>
+      <c r="AE2" s="580"/>
+      <c r="AF2" s="580"/>
+      <c r="AG2" s="580"/>
     </row>
     <row r="3" spans="1:33" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="536" t="s">
+      <c r="B3" s="525" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="537"/>
+      <c r="C3" s="526"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="15"/>
-      <c r="H3" s="538" t="s">
+      <c r="H3" s="527" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="538"/>
+      <c r="I3" s="527"/>
       <c r="K3" s="17" t="s">
         <v>3</v>
       </c>
@@ -29882,13 +29933,13 @@
       <c r="O3" s="366" t="s">
         <v>753</v>
       </c>
-      <c r="P3" s="585" t="s">
+      <c r="P3" s="618" t="s">
         <v>663</v>
       </c>
-      <c r="Q3" s="587" t="s">
+      <c r="Q3" s="620" t="s">
         <v>665</v>
       </c>
-      <c r="S3" s="588"/>
+      <c r="S3" s="621"/>
       <c r="W3" s="213" t="s">
         <v>54</v>
       </c>
@@ -29898,12 +29949,12 @@
       <c r="Y3" s="198">
         <v>2000</v>
       </c>
-      <c r="AB3" s="566"/>
-      <c r="AC3" s="566"/>
-      <c r="AD3" s="566"/>
-      <c r="AE3" s="566"/>
-      <c r="AF3" s="566"/>
-      <c r="AG3" s="566"/>
+      <c r="AB3" s="580"/>
+      <c r="AC3" s="580"/>
+      <c r="AD3" s="580"/>
+      <c r="AE3" s="580"/>
+      <c r="AF3" s="580"/>
+      <c r="AG3" s="580"/>
     </row>
     <row r="4" spans="1:33" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="20" t="s">
@@ -29916,14 +29967,14 @@
       <c r="D4" s="23">
         <v>44411</v>
       </c>
-      <c r="E4" s="539" t="s">
+      <c r="E4" s="528" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="540"/>
-      <c r="H4" s="586" t="s">
+      <c r="F4" s="529"/>
+      <c r="H4" s="619" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="542"/>
+      <c r="I4" s="531"/>
       <c r="J4" s="24"/>
       <c r="K4" s="25"/>
       <c r="L4" s="26"/>
@@ -29934,10 +29985,10 @@
         <v>11</v>
       </c>
       <c r="O4" s="99"/>
-      <c r="P4" s="585"/>
-      <c r="Q4" s="587"/>
+      <c r="P4" s="618"/>
+      <c r="Q4" s="620"/>
       <c r="R4" s="30"/>
-      <c r="S4" s="588"/>
+      <c r="S4" s="621"/>
       <c r="T4" s="30"/>
       <c r="U4" s="30"/>
       <c r="W4" s="213" t="s">
@@ -29949,16 +30000,16 @@
       <c r="Y4" s="217">
         <v>2000</v>
       </c>
-      <c r="AB4" s="567" t="s">
+      <c r="AB4" s="581" t="s">
         <v>527</v>
       </c>
-      <c r="AC4" s="568"/>
+      <c r="AC4" s="582"/>
       <c r="AD4" s="99"/>
-      <c r="AE4" s="569" t="s">
+      <c r="AE4" s="583" t="s">
         <v>567</v>
       </c>
-      <c r="AF4" s="569"/>
-      <c r="AG4" s="569"/>
+      <c r="AF4" s="583"/>
+      <c r="AG4" s="583"/>
     </row>
     <row r="5" spans="1:33" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="34" t="s">
@@ -31446,10 +31497,10 @@
         <v>0</v>
       </c>
       <c r="AD23" s="99"/>
-      <c r="AE23" s="574" t="s">
+      <c r="AE23" s="588" t="s">
         <v>564</v>
       </c>
-      <c r="AF23" s="575"/>
+      <c r="AF23" s="589"/>
       <c r="AG23" s="339">
         <f>SUM(AG6:AG22)</f>
         <v>2323600</v>
@@ -31589,11 +31640,11 @@
         <v>138607</v>
       </c>
       <c r="AD25" s="99"/>
-      <c r="AE25" s="576" t="s">
+      <c r="AE25" s="590" t="s">
         <v>565</v>
       </c>
-      <c r="AF25" s="577"/>
-      <c r="AG25" s="580">
+      <c r="AF25" s="591"/>
+      <c r="AG25" s="594">
         <f>AC29-AG23</f>
         <v>163726</v>
       </c>
@@ -31665,9 +31716,9 @@
         <v>107480</v>
       </c>
       <c r="AD26" s="99"/>
-      <c r="AE26" s="578"/>
-      <c r="AF26" s="579"/>
-      <c r="AG26" s="581"/>
+      <c r="AE26" s="592"/>
+      <c r="AF26" s="593"/>
+      <c r="AG26" s="595"/>
     </row>
     <row r="27" spans="1:33" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="34"/>
@@ -31877,10 +31928,10 @@
       </c>
       <c r="X29" s="220"/>
       <c r="Y29" s="218"/>
-      <c r="AB29" s="570" t="s">
+      <c r="AB29" s="584" t="s">
         <v>562</v>
       </c>
-      <c r="AC29" s="572">
+      <c r="AC29" s="586">
         <f>SUM(AC5:AC28)</f>
         <v>2487326</v>
       </c>
@@ -31945,8 +31996,8 @@
       </c>
       <c r="X30" s="221"/>
       <c r="Y30" s="207"/>
-      <c r="AB30" s="571"/>
-      <c r="AC30" s="573"/>
+      <c r="AB30" s="585"/>
+      <c r="AC30" s="587"/>
       <c r="AD30" s="99"/>
       <c r="AE30" s="99"/>
       <c r="AF30" s="99"/>
@@ -32137,7 +32188,7 @@
         <v>10815.4</v>
       </c>
     </row>
-    <row r="34" spans="1:33" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:33" ht="31.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="34"/>
       <c r="B34" s="134"/>
       <c r="C34" s="36">
@@ -32153,9 +32204,15 @@
       <c r="I34" s="38">
         <v>0</v>
       </c>
-      <c r="J34" s="233"/>
-      <c r="K34" s="454"/>
-      <c r="L34" s="360"/>
+      <c r="J34" s="233" t="s">
+        <v>826</v>
+      </c>
+      <c r="K34" s="454" t="s">
+        <v>550</v>
+      </c>
+      <c r="L34" s="360">
+        <v>5046</v>
+      </c>
       <c r="M34" s="444">
         <v>0</v>
       </c>
@@ -32169,11 +32226,11 @@
       </c>
       <c r="R34" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5046</v>
       </c>
       <c r="S34" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5046</v>
       </c>
       <c r="T34" s="48"/>
       <c r="W34" s="213" t="s">
@@ -32206,9 +32263,15 @@
       <c r="I35" s="38">
         <v>0</v>
       </c>
-      <c r="J35" s="233"/>
-      <c r="K35" s="144"/>
-      <c r="L35" s="358"/>
+      <c r="J35" s="233" t="s">
+        <v>826</v>
+      </c>
+      <c r="K35" s="144" t="s">
+        <v>839</v>
+      </c>
+      <c r="L35" s="358">
+        <v>798</v>
+      </c>
       <c r="M35" s="444">
         <v>0</v>
       </c>
@@ -32222,11 +32285,11 @@
       </c>
       <c r="R35" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>798</v>
       </c>
       <c r="S35" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>798</v>
       </c>
       <c r="T35" s="48"/>
       <c r="W35" s="213" t="s">
@@ -32244,7 +32307,7 @@
       <c r="B36" s="146">
         <v>44412</v>
       </c>
-      <c r="C36" s="71">
+      <c r="C36" s="225">
         <v>14693.64</v>
       </c>
       <c r="D36" s="242" t="s">
@@ -32259,9 +32322,16 @@
       <c r="I36" s="38">
         <v>0</v>
       </c>
-      <c r="J36" s="233"/>
-      <c r="K36" s="359"/>
-      <c r="L36" s="360"/>
+      <c r="J36" s="233" t="s">
+        <v>826</v>
+      </c>
+      <c r="K36" s="359" t="s">
+        <v>827</v>
+      </c>
+      <c r="L36" s="360">
+        <f>3244.52+5324.4</f>
+        <v>8568.92</v>
+      </c>
       <c r="M36" s="444">
         <v>0</v>
       </c>
@@ -32275,7 +32345,7 @@
       </c>
       <c r="R36" s="7">
         <f t="shared" si="1"/>
-        <v>14693.64</v>
+        <v>23262.559999999998</v>
       </c>
       <c r="S36" s="6">
         <v>0</v>
@@ -32296,7 +32366,7 @@
       <c r="B37" s="146">
         <v>44415</v>
       </c>
-      <c r="C37" s="71">
+      <c r="C37" s="225">
         <v>25517.34</v>
       </c>
       <c r="D37" s="242" t="s">
@@ -32311,9 +32381,16 @@
       <c r="I37" s="38">
         <v>0</v>
       </c>
-      <c r="J37" s="233"/>
-      <c r="K37" s="144"/>
-      <c r="L37" s="358"/>
+      <c r="J37" s="233" t="s">
+        <v>826</v>
+      </c>
+      <c r="K37" s="144" t="s">
+        <v>582</v>
+      </c>
+      <c r="L37" s="358">
+        <f>198.99+352.4+1721.05</f>
+        <v>2272.44</v>
+      </c>
       <c r="M37" s="444">
         <v>0</v>
       </c>
@@ -32325,7 +32402,7 @@
       <c r="Q37" s="449"/>
       <c r="R37" s="7">
         <f t="shared" si="1"/>
-        <v>25517.34</v>
+        <v>27789.78</v>
       </c>
       <c r="S37" s="6">
         <v>0</v>
@@ -32353,7 +32430,7 @@
       <c r="B38" s="146">
         <v>44419</v>
       </c>
-      <c r="C38" s="71">
+      <c r="C38" s="225">
         <v>23707.279999999999</v>
       </c>
       <c r="D38" s="242" t="s">
@@ -32368,9 +32445,15 @@
       <c r="I38" s="38">
         <v>0</v>
       </c>
-      <c r="J38" s="233"/>
-      <c r="K38" s="144"/>
-      <c r="L38" s="358"/>
+      <c r="J38" s="233" t="s">
+        <v>826</v>
+      </c>
+      <c r="K38" s="144" t="s">
+        <v>370</v>
+      </c>
+      <c r="L38" s="358">
+        <v>549</v>
+      </c>
       <c r="M38" s="444">
         <v>0</v>
       </c>
@@ -32382,7 +32465,7 @@
       <c r="Q38" s="450"/>
       <c r="R38" s="7">
         <f t="shared" si="1"/>
-        <v>23707.279999999999</v>
+        <v>24256.28</v>
       </c>
       <c r="S38" s="6">
         <v>0</v>
@@ -32404,10 +32487,10 @@
     </row>
     <row r="39" spans="1:33" ht="20.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="34"/>
-      <c r="B39" s="629">
+      <c r="B39" s="513">
         <v>44425</v>
       </c>
-      <c r="C39" s="71">
+      <c r="C39" s="225">
         <v>20092.59</v>
       </c>
       <c r="D39" s="242" t="s">
@@ -32418,14 +32501,20 @@
       <c r="G39" s="137"/>
       <c r="H39" s="138"/>
       <c r="I39" s="69"/>
-      <c r="J39" s="233"/>
-      <c r="K39" s="361"/>
-      <c r="L39" s="357"/>
-      <c r="M39" s="597">
+      <c r="J39" s="233" t="s">
+        <v>826</v>
+      </c>
+      <c r="K39" s="361" t="s">
+        <v>828</v>
+      </c>
+      <c r="L39" s="357">
+        <v>11500</v>
+      </c>
+      <c r="M39" s="613">
         <f>SUM(M5:M38)</f>
         <v>2842451</v>
       </c>
-      <c r="N39" s="599">
+      <c r="N39" s="615">
         <f>SUM(N5:N38)</f>
         <v>271503</v>
       </c>
@@ -32434,7 +32523,7 @@
       <c r="Q39" s="7"/>
       <c r="R39" s="7">
         <f>SUM(R5:R38)</f>
-        <v>3640891.4</v>
+        <v>3658125.76</v>
       </c>
       <c r="T39" s="48"/>
       <c r="W39" s="213" t="s">
@@ -32453,10 +32542,10 @@
     </row>
     <row r="40" spans="1:33" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="34"/>
-      <c r="B40" s="629">
+      <c r="B40" s="513">
         <v>44427</v>
       </c>
-      <c r="C40" s="71">
+      <c r="C40" s="225">
         <v>11142.75</v>
       </c>
       <c r="D40" s="242" t="s">
@@ -32467,11 +32556,17 @@
       <c r="G40" s="137"/>
       <c r="H40" s="138"/>
       <c r="I40" s="69"/>
-      <c r="J40" s="233"/>
-      <c r="K40" s="144"/>
-      <c r="L40" s="357"/>
-      <c r="M40" s="598"/>
-      <c r="N40" s="600"/>
+      <c r="J40" s="233" t="s">
+        <v>826</v>
+      </c>
+      <c r="K40" s="144" t="s">
+        <v>829</v>
+      </c>
+      <c r="L40" s="357">
+        <v>20880</v>
+      </c>
+      <c r="M40" s="614"/>
+      <c r="N40" s="616"/>
       <c r="O40" s="392"/>
       <c r="P40" s="7"/>
       <c r="Q40" s="7"/>
@@ -32496,10 +32591,10 @@
     </row>
     <row r="41" spans="1:33" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="34"/>
-      <c r="B41" s="629">
+      <c r="B41" s="513">
         <v>44428</v>
       </c>
-      <c r="C41" s="71">
+      <c r="C41" s="225">
         <v>24621.96</v>
       </c>
       <c r="D41" s="242" t="s">
@@ -32510,9 +32605,16 @@
       <c r="G41" s="137"/>
       <c r="H41" s="138"/>
       <c r="I41" s="69"/>
-      <c r="J41" s="233"/>
-      <c r="K41" s="144"/>
-      <c r="L41" s="357"/>
+      <c r="J41" s="233" t="s">
+        <v>826</v>
+      </c>
+      <c r="K41" s="144" t="s">
+        <v>548</v>
+      </c>
+      <c r="L41" s="357">
+        <f>9720+9720+9885+9720</f>
+        <v>39045</v>
+      </c>
       <c r="M41" s="7"/>
       <c r="N41" s="7"/>
       <c r="O41" s="392"/>
@@ -32540,10 +32642,10 @@
     </row>
     <row r="42" spans="1:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="34"/>
-      <c r="B42" s="630">
+      <c r="B42" s="514">
         <v>44434</v>
       </c>
-      <c r="C42" s="71">
+      <c r="C42" s="225">
         <v>23223.96</v>
       </c>
       <c r="D42" s="242" t="s">
@@ -32554,9 +32656,15 @@
       <c r="G42" s="137"/>
       <c r="H42" s="138"/>
       <c r="I42" s="69"/>
-      <c r="J42" s="233"/>
-      <c r="K42" s="144"/>
-      <c r="L42" s="357"/>
+      <c r="J42" s="233" t="s">
+        <v>826</v>
+      </c>
+      <c r="K42" s="144" t="s">
+        <v>830</v>
+      </c>
+      <c r="L42" s="357">
+        <v>5220</v>
+      </c>
       <c r="M42" s="7"/>
       <c r="N42" s="7"/>
       <c r="O42" s="392"/>
@@ -32584,7 +32692,7 @@
       <c r="B43" s="146">
         <v>44435</v>
       </c>
-      <c r="C43" s="71">
+      <c r="C43" s="225">
         <v>12717.12</v>
       </c>
       <c r="D43" s="242" t="s">
@@ -32595,9 +32703,16 @@
       <c r="G43" s="137"/>
       <c r="H43" s="138"/>
       <c r="I43" s="69"/>
-      <c r="J43" s="233"/>
-      <c r="K43" s="144"/>
-      <c r="L43" s="357"/>
+      <c r="J43" s="233" t="s">
+        <v>826</v>
+      </c>
+      <c r="K43" s="144" t="s">
+        <v>132</v>
+      </c>
+      <c r="L43" s="357">
+        <f>3678.2+1492.43+1055.91</f>
+        <v>6226.54</v>
+      </c>
       <c r="M43" s="7"/>
       <c r="N43" s="7"/>
       <c r="O43" s="392"/>
@@ -32625,7 +32740,7 @@
       <c r="B44" s="146">
         <v>44436</v>
       </c>
-      <c r="C44" s="71">
+      <c r="C44" s="225">
         <v>9197.25</v>
       </c>
       <c r="D44" s="242" t="s">
@@ -32636,13 +32751,19 @@
       <c r="G44" s="137"/>
       <c r="H44" s="138"/>
       <c r="I44" s="69"/>
-      <c r="J44" s="233"/>
-      <c r="K44" s="228"/>
-      <c r="L44" s="358"/>
-      <c r="M44" s="601" t="s">
+      <c r="J44" s="233" t="s">
+        <v>826</v>
+      </c>
+      <c r="K44" s="228" t="s">
+        <v>136</v>
+      </c>
+      <c r="L44" s="358">
+        <v>986</v>
+      </c>
+      <c r="M44" s="617" t="s">
         <v>567</v>
       </c>
-      <c r="N44" s="601"/>
+      <c r="N44" s="617"/>
       <c r="O44" s="392"/>
       <c r="P44" s="7"/>
       <c r="Q44" s="7"/>
@@ -32680,10 +32801,16 @@
       <c r="G45" s="137"/>
       <c r="H45" s="138"/>
       <c r="I45" s="69"/>
-      <c r="J45" s="233"/>
-      <c r="K45" s="228"/>
-      <c r="L45" s="358"/>
-      <c r="M45" s="631">
+      <c r="J45" s="233" t="s">
+        <v>826</v>
+      </c>
+      <c r="K45" s="362" t="s">
+        <v>831</v>
+      </c>
+      <c r="L45" s="66">
+        <v>55555.55</v>
+      </c>
+      <c r="M45" s="515">
         <v>330120</v>
       </c>
       <c r="N45" s="473">
@@ -32716,10 +32843,16 @@
       <c r="G46" s="137"/>
       <c r="H46" s="138"/>
       <c r="I46" s="69"/>
-      <c r="J46" s="233"/>
-      <c r="K46" s="168"/>
-      <c r="L46" s="66"/>
-      <c r="M46" s="632">
+      <c r="J46" s="233" t="s">
+        <v>826</v>
+      </c>
+      <c r="K46" s="459" t="s">
+        <v>832</v>
+      </c>
+      <c r="L46" s="458">
+        <v>12148.56</v>
+      </c>
+      <c r="M46" s="516">
         <v>300000</v>
       </c>
       <c r="N46" s="473">
@@ -32752,10 +32885,16 @@
       <c r="G47" s="137"/>
       <c r="H47" s="138"/>
       <c r="I47" s="69"/>
-      <c r="J47" s="233"/>
-      <c r="K47" s="144"/>
-      <c r="L47" s="66"/>
-      <c r="M47" s="632">
+      <c r="J47" s="233" t="s">
+        <v>826</v>
+      </c>
+      <c r="K47" s="144" t="s">
+        <v>833</v>
+      </c>
+      <c r="L47" s="66">
+        <v>2080</v>
+      </c>
+      <c r="M47" s="516">
         <v>324890</v>
       </c>
       <c r="N47" s="473">
@@ -32785,10 +32924,16 @@
       <c r="G48" s="137"/>
       <c r="H48" s="138"/>
       <c r="I48" s="69"/>
-      <c r="J48" s="233"/>
-      <c r="K48" s="144"/>
-      <c r="L48" s="66"/>
-      <c r="M48" s="633">
+      <c r="J48" s="233" t="s">
+        <v>826</v>
+      </c>
+      <c r="K48" s="144" t="s">
+        <v>834</v>
+      </c>
+      <c r="L48" s="66">
+        <v>67711</v>
+      </c>
+      <c r="M48" s="517">
         <v>159870</v>
       </c>
       <c r="N48" s="474">
@@ -32818,10 +32963,16 @@
       <c r="G49" s="137"/>
       <c r="H49" s="138"/>
       <c r="I49" s="69"/>
-      <c r="J49" s="233"/>
-      <c r="K49" s="144"/>
-      <c r="L49" s="66"/>
-      <c r="M49" s="634">
+      <c r="J49" s="233" t="s">
+        <v>826</v>
+      </c>
+      <c r="K49" s="144" t="s">
+        <v>225</v>
+      </c>
+      <c r="L49" s="66">
+        <v>10000</v>
+      </c>
+      <c r="M49" s="518">
         <v>384800</v>
       </c>
       <c r="N49" s="474">
@@ -32852,10 +33003,16 @@
       <c r="G50" s="137"/>
       <c r="H50" s="138"/>
       <c r="I50" s="69"/>
-      <c r="J50" s="233"/>
-      <c r="K50" s="144"/>
-      <c r="L50" s="66"/>
-      <c r="M50" s="634">
+      <c r="J50" s="233" t="s">
+        <v>826</v>
+      </c>
+      <c r="K50" s="144" t="s">
+        <v>835</v>
+      </c>
+      <c r="L50" s="66">
+        <v>8928.69</v>
+      </c>
+      <c r="M50" s="518">
         <v>177370</v>
       </c>
       <c r="N50" s="473">
@@ -32886,10 +33043,17 @@
       <c r="G51" s="137"/>
       <c r="H51" s="138"/>
       <c r="I51" s="69"/>
-      <c r="J51" s="233"/>
-      <c r="K51" s="144"/>
-      <c r="L51" s="66"/>
-      <c r="M51" s="635">
+      <c r="J51" s="233" t="s">
+        <v>826</v>
+      </c>
+      <c r="K51" s="144" t="s">
+        <v>836</v>
+      </c>
+      <c r="L51" s="66">
+        <f>2990+478.4</f>
+        <v>3468.4</v>
+      </c>
+      <c r="M51" s="519">
         <v>375140</v>
       </c>
       <c r="N51" s="473">
@@ -32922,10 +33086,14 @@
       <c r="G52" s="137"/>
       <c r="H52" s="138"/>
       <c r="I52" s="69"/>
-      <c r="J52" s="233"/>
-      <c r="K52" s="144"/>
-      <c r="L52" s="66"/>
-      <c r="M52" s="634">
+      <c r="J52" s="233" t="s">
+        <v>826</v>
+      </c>
+      <c r="K52" s="362"/>
+      <c r="L52" s="66">
+        <v>3016</v>
+      </c>
+      <c r="M52" s="518">
         <v>100000</v>
       </c>
       <c r="N52" s="473">
@@ -32960,10 +33128,14 @@
       <c r="I53" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="J53" s="233"/>
-      <c r="K53" s="168"/>
-      <c r="L53" s="66"/>
-      <c r="M53" s="634">
+      <c r="J53" s="233" t="s">
+        <v>826</v>
+      </c>
+      <c r="K53" s="656"/>
+      <c r="L53" s="66">
+        <v>3480</v>
+      </c>
+      <c r="M53" s="518">
         <v>77570</v>
       </c>
       <c r="N53" s="473">
@@ -32996,10 +33168,14 @@
       <c r="G54" s="137"/>
       <c r="H54" s="138"/>
       <c r="I54" s="69"/>
-      <c r="J54" s="233"/>
-      <c r="K54" s="457"/>
-      <c r="L54" s="66"/>
-      <c r="M54" s="634">
+      <c r="J54" s="233" t="s">
+        <v>826</v>
+      </c>
+      <c r="K54" s="657"/>
+      <c r="L54" s="66">
+        <v>31064</v>
+      </c>
+      <c r="M54" s="518">
         <v>95470</v>
       </c>
       <c r="N54" s="473">
@@ -33032,10 +33208,14 @@
       <c r="G55" s="137"/>
       <c r="H55" s="138"/>
       <c r="I55" s="69"/>
-      <c r="J55" s="233"/>
-      <c r="K55" s="144"/>
-      <c r="L55" s="66"/>
-      <c r="M55" s="636">
+      <c r="J55" s="233" t="s">
+        <v>826</v>
+      </c>
+      <c r="K55" s="362"/>
+      <c r="L55" s="66">
+        <v>5046</v>
+      </c>
+      <c r="M55" s="520">
         <v>162900</v>
       </c>
       <c r="N55" s="475">
@@ -33067,10 +33247,16 @@
       <c r="G56" s="137"/>
       <c r="H56" s="145"/>
       <c r="I56" s="80"/>
-      <c r="J56" s="233"/>
-      <c r="K56" s="359"/>
-      <c r="L56" s="458"/>
-      <c r="M56" s="637">
+      <c r="J56" s="233" t="s">
+        <v>826</v>
+      </c>
+      <c r="K56" s="359" t="s">
+        <v>834</v>
+      </c>
+      <c r="L56" s="458">
+        <v>11205.93</v>
+      </c>
+      <c r="M56" s="521">
         <v>316990</v>
       </c>
       <c r="N56" s="473">
@@ -33102,9 +33288,15 @@
       <c r="G57" s="137"/>
       <c r="H57" s="145"/>
       <c r="I57" s="80"/>
-      <c r="J57" s="325"/>
-      <c r="K57" s="359"/>
-      <c r="L57" s="458"/>
+      <c r="J57" s="325" t="s">
+        <v>826</v>
+      </c>
+      <c r="K57" s="359" t="s">
+        <v>837</v>
+      </c>
+      <c r="L57" s="458">
+        <v>1229</v>
+      </c>
       <c r="M57" s="477">
         <v>0</v>
       </c>
@@ -33135,10 +33327,17 @@
       <c r="G58" s="137"/>
       <c r="H58" s="145"/>
       <c r="I58" s="80"/>
-      <c r="J58" s="325"/>
-      <c r="K58" s="457"/>
-      <c r="L58" s="458"/>
-      <c r="M58" s="648">
+      <c r="J58" s="325" t="s">
+        <v>826</v>
+      </c>
+      <c r="K58" s="462" t="s">
+        <v>838</v>
+      </c>
+      <c r="L58" s="458">
+        <f>968.75+155</f>
+        <v>1123.75</v>
+      </c>
+      <c r="M58" s="630">
         <f ca="1">SUM(M45:M58)</f>
         <v>2805120</v>
       </c>
@@ -33169,10 +33368,14 @@
       <c r="G59" s="137"/>
       <c r="H59" s="145"/>
       <c r="I59" s="80"/>
-      <c r="J59" s="325"/>
-      <c r="K59" s="359"/>
-      <c r="L59" s="458"/>
-      <c r="M59" s="649"/>
+      <c r="J59" s="325" t="s">
+        <v>826</v>
+      </c>
+      <c r="K59" s="459"/>
+      <c r="L59" s="458">
+        <v>1480.06</v>
+      </c>
+      <c r="M59" s="631"/>
       <c r="N59" s="42"/>
       <c r="O59" s="392"/>
       <c r="P59" s="7"/>
@@ -33200,13 +33403,17 @@
       <c r="G60" s="137"/>
       <c r="H60" s="145"/>
       <c r="I60" s="80"/>
-      <c r="J60" s="325"/>
-      <c r="K60" s="467"/>
-      <c r="L60" s="458"/>
-      <c r="M60" s="591" t="s">
+      <c r="J60" s="325" t="s">
+        <v>826</v>
+      </c>
+      <c r="K60" s="658"/>
+      <c r="L60" s="458">
+        <v>2479.5</v>
+      </c>
+      <c r="M60" s="607" t="s">
         <v>719</v>
       </c>
-      <c r="N60" s="592"/>
+      <c r="N60" s="608"/>
       <c r="O60" s="392"/>
       <c r="P60" s="7"/>
       <c r="Q60" s="7"/>
@@ -33233,9 +33440,15 @@
       <c r="G61" s="137"/>
       <c r="H61" s="145"/>
       <c r="I61" s="80"/>
-      <c r="J61" s="325"/>
-      <c r="K61" s="468"/>
-      <c r="L61" s="6"/>
+      <c r="J61" s="325" t="s">
+        <v>826</v>
+      </c>
+      <c r="K61" s="468" t="s">
+        <v>583</v>
+      </c>
+      <c r="L61" s="6">
+        <v>7623.83</v>
+      </c>
       <c r="M61" s="41"/>
       <c r="N61" s="42"/>
       <c r="O61" s="392"/>
@@ -33333,13 +33546,13 @@
       <c r="I64" s="80"/>
       <c r="J64" s="325"/>
       <c r="K64" s="359"/>
-      <c r="L64" s="644" t="s">
+      <c r="L64" s="522" t="s">
         <v>822</v>
       </c>
-      <c r="M64" s="642">
+      <c r="M64" s="622">
         <v>-382722.22</v>
       </c>
-      <c r="N64" s="643"/>
+      <c r="N64" s="623"/>
       <c r="O64" s="392"/>
       <c r="P64" s="7"/>
       <c r="Q64" s="7"/>
@@ -33367,13 +33580,13 @@
       <c r="I65" s="80"/>
       <c r="J65" s="325"/>
       <c r="K65" s="467"/>
-      <c r="L65" s="644" t="s">
+      <c r="L65" s="522" t="s">
         <v>823</v>
       </c>
-      <c r="M65" s="646">
+      <c r="M65" s="624">
         <v>-163726</v>
       </c>
-      <c r="N65" s="647"/>
+      <c r="N65" s="625"/>
       <c r="O65" s="392"/>
       <c r="P65" s="7"/>
       <c r="Q65" s="7"/>
@@ -33404,12 +33617,12 @@
       <c r="J66" s="325"/>
       <c r="K66" s="468"/>
       <c r="L66" s="6"/>
-      <c r="M66" s="650">
+      <c r="M66" s="626">
         <f ca="1">SUM(M65+M64+M62)</f>
         <v>-583779.22</v>
       </c>
-      <c r="N66" s="651"/>
-      <c r="O66" s="652" t="s">
+      <c r="N66" s="627"/>
+      <c r="O66" s="632" t="s">
         <v>825</v>
       </c>
       <c r="P66" s="7"/>
@@ -33459,22 +33672,22 @@
       <c r="K67" s="93" t="s">
         <v>15</v>
       </c>
-      <c r="L67" s="645">
+      <c r="L67" s="523">
         <f>SUM(L5:L66)</f>
-        <v>153963.14000000001</v>
-      </c>
-      <c r="M67" s="653"/>
-      <c r="N67" s="654"/>
-      <c r="O67" s="655"/>
+        <v>482695.31000000006</v>
+      </c>
+      <c r="M67" s="628"/>
+      <c r="N67" s="629"/>
+      <c r="O67" s="633"/>
       <c r="P67" s="366"/>
       <c r="Q67" s="366"/>
       <c r="R67" s="7">
         <f>SUM(R5:R66)</f>
-        <v>7281782.7999999998</v>
+        <v>7316251.5199999996</v>
       </c>
       <c r="S67" s="7">
         <f>SUM(S5:S66)</f>
-        <v>56844.140000000014</v>
+        <v>62688.140000000014</v>
       </c>
       <c r="T67" s="97"/>
       <c r="W67" s="210"/>
@@ -33497,16 +33710,16 @@
       <c r="A69" s="60"/>
       <c r="B69" s="100"/>
       <c r="C69" s="4"/>
-      <c r="H69" s="522" t="s">
+      <c r="H69" s="532" t="s">
         <v>16</v>
       </c>
-      <c r="I69" s="523"/>
+      <c r="I69" s="533"/>
       <c r="J69" s="101"/>
-      <c r="K69" s="524">
+      <c r="K69" s="534">
         <f>I67+L67</f>
-        <v>190109.14</v>
-      </c>
-      <c r="L69" s="525"/>
+        <v>518841.31000000006</v>
+      </c>
+      <c r="L69" s="535"/>
       <c r="M69" s="471"/>
       <c r="N69" s="472"/>
       <c r="O69" s="490"/>
@@ -33523,40 +33736,40 @@
       <c r="AG69" s="327"/>
     </row>
     <row r="70" spans="1:33" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D70" s="534" t="s">
+      <c r="D70" s="544" t="s">
         <v>17</v>
       </c>
-      <c r="E70" s="534"/>
+      <c r="E70" s="544"/>
       <c r="F70" s="103">
         <f>F67-K69-C67</f>
-        <v>2867958.5199999996</v>
+        <v>2539226.3499999996</v>
       </c>
       <c r="I70" s="104"/>
       <c r="J70" s="105"/>
-      <c r="R70" s="513">
+      <c r="R70" s="545">
         <f>R67+S67</f>
-        <v>7338626.9399999995</v>
-      </c>
-      <c r="S70" s="514"/>
+        <v>7378939.6599999992</v>
+      </c>
+      <c r="S70" s="546"/>
       <c r="U70" s="50"/>
     </row>
     <row r="71" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D71" s="515" t="s">
+      <c r="D71" s="547" t="s">
         <v>502</v>
       </c>
-      <c r="E71" s="515"/>
+      <c r="E71" s="547"/>
       <c r="F71" s="95">
         <v>-2380713.08</v>
       </c>
-      <c r="I71" s="516" t="s">
+      <c r="I71" s="548" t="s">
         <v>19</v>
       </c>
-      <c r="J71" s="517"/>
-      <c r="K71" s="518">
+      <c r="J71" s="549"/>
+      <c r="K71" s="550">
         <f>F73+F74+F75</f>
-        <v>499431.43999999948</v>
-      </c>
-      <c r="L71" s="519"/>
+        <v>536310.85999999964</v>
+      </c>
+      <c r="L71" s="551"/>
       <c r="R71" s="50"/>
       <c r="U71" s="107"/>
     </row>
@@ -33583,18 +33796,18 @@
       </c>
       <c r="F73" s="95">
         <f>SUM(F70:F72)</f>
-        <v>487245.43999999948</v>
+        <v>158513.26999999955</v>
       </c>
       <c r="H73" s="34"/>
       <c r="I73" s="114" t="s">
         <v>21</v>
       </c>
       <c r="J73" s="115"/>
-      <c r="K73" s="520">
+      <c r="K73" s="552">
         <f>-C4</f>
         <v>-250140.85</v>
       </c>
-      <c r="L73" s="602"/>
+      <c r="L73" s="596"/>
       <c r="R73" s="50"/>
       <c r="S73" s="7"/>
       <c r="U73" s="50"/>
@@ -33617,22 +33830,22 @@
       <c r="C75" s="119">
         <v>44439</v>
       </c>
-      <c r="D75" s="528" t="s">
+      <c r="D75" s="538" t="s">
         <v>24</v>
       </c>
-      <c r="E75" s="529"/>
+      <c r="E75" s="539"/>
       <c r="F75" s="120">
-        <v>0</v>
-      </c>
-      <c r="I75" s="530" t="s">
+        <v>365611.59</v>
+      </c>
+      <c r="I75" s="540" t="s">
         <v>25</v>
       </c>
-      <c r="J75" s="531"/>
-      <c r="K75" s="532">
+      <c r="J75" s="541"/>
+      <c r="K75" s="542">
         <f>K71+K73</f>
-        <v>249290.58999999947</v>
-      </c>
-      <c r="L75" s="532"/>
+        <v>286170.00999999966</v>
+      </c>
+      <c r="L75" s="542"/>
       <c r="R75" s="50"/>
       <c r="S75" s="7"/>
       <c r="U75" s="121"/>
@@ -33647,10 +33860,10 @@
       <c r="S76" s="7"/>
     </row>
     <row r="77" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I77" s="611" t="s">
+      <c r="I77" s="634" t="s">
         <v>610</v>
       </c>
-      <c r="J77" s="612"/>
+      <c r="J77" s="635"/>
       <c r="K77" s="638">
         <v>37331</v>
       </c>
@@ -33663,8 +33876,8 @@
       <c r="C78" s="128"/>
       <c r="D78" s="129"/>
       <c r="E78" s="7"/>
-      <c r="I78" s="613"/>
-      <c r="J78" s="614"/>
+      <c r="I78" s="636"/>
+      <c r="J78" s="637"/>
       <c r="K78" s="640"/>
       <c r="L78" s="641"/>
       <c r="M78" s="2"/>
@@ -33718,7 +33931,7 @@
       <c r="C81" s="130"/>
       <c r="E81" s="7"/>
       <c r="M81" s="4"/>
-      <c r="AC81" s="582"/>
+      <c r="AC81" s="569"/>
       <c r="AD81" s="487"/>
       <c r="AE81" s="487"/>
       <c r="AF81" s="487"/>
@@ -33731,7 +33944,7 @@
       <c r="E82" s="7"/>
       <c r="F82" s="273"/>
       <c r="M82" s="4"/>
-      <c r="AC82" s="582"/>
+      <c r="AC82" s="569"/>
       <c r="AD82" s="487"/>
       <c r="AE82" s="487"/>
       <c r="AF82" s="487"/>
@@ -33828,37 +34041,6 @@
     <sortCondition ref="N45:N55"/>
   </sortState>
   <mergeCells count="41">
-    <mergeCell ref="M64:N64"/>
-    <mergeCell ref="M65:N65"/>
-    <mergeCell ref="M66:N67"/>
-    <mergeCell ref="M58:M59"/>
-    <mergeCell ref="O66:O67"/>
-    <mergeCell ref="AC81:AC82"/>
-    <mergeCell ref="K73:L73"/>
-    <mergeCell ref="D75:E75"/>
-    <mergeCell ref="I75:J75"/>
-    <mergeCell ref="K75:L75"/>
-    <mergeCell ref="I77:J78"/>
-    <mergeCell ref="K77:L78"/>
-    <mergeCell ref="H69:I69"/>
-    <mergeCell ref="K69:L69"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="R70:S70"/>
-    <mergeCell ref="D71:E71"/>
-    <mergeCell ref="I71:J71"/>
-    <mergeCell ref="K71:L71"/>
-    <mergeCell ref="M62:N63"/>
-    <mergeCell ref="AB4:AC4"/>
-    <mergeCell ref="AE4:AG4"/>
-    <mergeCell ref="AE23:AF23"/>
-    <mergeCell ref="AE25:AF26"/>
-    <mergeCell ref="AG25:AG26"/>
-    <mergeCell ref="AB29:AB30"/>
-    <mergeCell ref="AC29:AC30"/>
-    <mergeCell ref="M39:M40"/>
-    <mergeCell ref="N39:N40"/>
-    <mergeCell ref="M44:N44"/>
-    <mergeCell ref="M60:N60"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:K1"/>
     <mergeCell ref="AB2:AG3"/>
@@ -33869,6 +34051,37 @@
     <mergeCell ref="S3:S4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
+    <mergeCell ref="AB29:AB30"/>
+    <mergeCell ref="AC29:AC30"/>
+    <mergeCell ref="M39:M40"/>
+    <mergeCell ref="N39:N40"/>
+    <mergeCell ref="M44:N44"/>
+    <mergeCell ref="AB4:AC4"/>
+    <mergeCell ref="AE4:AG4"/>
+    <mergeCell ref="AE23:AF23"/>
+    <mergeCell ref="AE25:AF26"/>
+    <mergeCell ref="AG25:AG26"/>
+    <mergeCell ref="H69:I69"/>
+    <mergeCell ref="K69:L69"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="R70:S70"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="I71:J71"/>
+    <mergeCell ref="K71:L71"/>
+    <mergeCell ref="AC81:AC82"/>
+    <mergeCell ref="K73:L73"/>
+    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="I75:J75"/>
+    <mergeCell ref="K75:L75"/>
+    <mergeCell ref="I77:J78"/>
+    <mergeCell ref="K77:L78"/>
+    <mergeCell ref="M64:N64"/>
+    <mergeCell ref="M65:N65"/>
+    <mergeCell ref="M66:N67"/>
+    <mergeCell ref="M58:M59"/>
+    <mergeCell ref="O66:O67"/>
+    <mergeCell ref="M62:N63"/>
+    <mergeCell ref="M60:N60"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -33884,8 +34097,8 @@
   </sheetPr>
   <dimension ref="A1:G133"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35428,12 +35641,12 @@
     <row r="38" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="39" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="32"/>
-      <c r="B39" s="615" t="s">
+      <c r="B39" s="642" t="s">
         <v>32</v>
       </c>
-      <c r="C39" s="616"/>
-      <c r="D39" s="616"/>
-      <c r="E39" s="617"/>
+      <c r="C39" s="643"/>
+      <c r="D39" s="643"/>
+      <c r="E39" s="644"/>
       <c r="F39" s="4"/>
     </row>
     <row r="40" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -36759,32 +36972,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="620" t="s">
+      <c r="B1" s="651" t="s">
         <v>726</v>
       </c>
-      <c r="C1" s="620"/>
-      <c r="D1" s="620"/>
-      <c r="E1" s="620"/>
-      <c r="H1" s="621" t="s">
+      <c r="C1" s="651"/>
+      <c r="D1" s="651"/>
+      <c r="E1" s="651"/>
+      <c r="H1" s="652" t="s">
         <v>726</v>
       </c>
-      <c r="I1" s="621"/>
-      <c r="J1" s="621"/>
+      <c r="I1" s="652"/>
+      <c r="J1" s="652"/>
       <c r="K1" s="205"/>
       <c r="L1" s="205"/>
       <c r="N1" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="620" t="s">
+      <c r="O1" s="651" t="s">
         <v>725</v>
       </c>
-      <c r="P1" s="620"/>
+      <c r="P1" s="651"/>
     </row>
     <row r="2" spans="1:17" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="18"/>
       <c r="C2" s="4"/>
       <c r="D2" s="6"/>
-      <c r="E2" s="556" t="s">
+      <c r="E2" s="570" t="s">
         <v>562</v>
       </c>
       <c r="F2" s="497"/>
@@ -36810,7 +37023,7 @@
         <v>10</v>
       </c>
       <c r="D3" s="365"/>
-      <c r="E3" s="556"/>
+      <c r="E3" s="570"/>
       <c r="F3" s="497"/>
       <c r="H3" s="444">
         <v>126476.5</v>
@@ -36822,10 +37035,10 @@
         <v>44378</v>
       </c>
       <c r="K3" s="496"/>
-      <c r="L3" s="601" t="s">
+      <c r="L3" s="617" t="s">
         <v>567</v>
       </c>
-      <c r="M3" s="601"/>
+      <c r="M3" s="617"/>
       <c r="O3" s="444">
         <v>64006</v>
       </c>
@@ -37369,7 +37582,7 @@
         <v>44391</v>
       </c>
       <c r="K16" s="496"/>
-      <c r="L16" s="589">
+      <c r="L16" s="605">
         <f>SUM(L4:L15)</f>
         <v>3606750</v>
       </c>
@@ -37410,7 +37623,7 @@
         <v>44392</v>
       </c>
       <c r="K17" s="496"/>
-      <c r="L17" s="590"/>
+      <c r="L17" s="606"/>
       <c r="M17" s="476"/>
       <c r="O17" s="444">
         <v>0</v>
@@ -37483,10 +37696,10 @@
         <v>44394</v>
       </c>
       <c r="K19" s="496"/>
-      <c r="L19" s="591" t="s">
+      <c r="L19" s="607" t="s">
         <v>719</v>
       </c>
-      <c r="M19" s="592"/>
+      <c r="M19" s="608"/>
       <c r="O19" s="444">
         <v>0</v>
       </c>
@@ -37556,11 +37769,11 @@
         <v>44396</v>
       </c>
       <c r="K21" s="496"/>
-      <c r="L21" s="625">
+      <c r="L21" s="645">
         <f>L16-H37</f>
         <v>-383122.2200000002</v>
       </c>
-      <c r="M21" s="626"/>
+      <c r="M21" s="646"/>
       <c r="O21" s="444">
         <v>0</v>
       </c>
@@ -37594,8 +37807,8 @@
         <v>44397</v>
       </c>
       <c r="K22" s="496"/>
-      <c r="L22" s="627"/>
-      <c r="M22" s="628"/>
+      <c r="L22" s="647"/>
+      <c r="M22" s="648"/>
       <c r="O22" s="444">
         <v>0</v>
       </c>
@@ -37993,35 +38206,35 @@
       <c r="Q36" s="392"/>
     </row>
     <row r="37" spans="7:17" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="H37" s="597">
+      <c r="H37" s="613">
         <f>SUM(H3:H36)</f>
         <v>3989872.22</v>
       </c>
-      <c r="I37" s="599">
+      <c r="I37" s="615">
         <f>SUM(I3:I36)</f>
         <v>688820.5</v>
       </c>
       <c r="J37" s="496"/>
       <c r="K37" s="496"/>
       <c r="L37" s="496"/>
-      <c r="O37" s="597">
+      <c r="O37" s="613">
         <f>SUM(O3:O36)</f>
         <v>1464800.09</v>
       </c>
-      <c r="P37" s="599">
+      <c r="P37" s="615">
         <f>SUM(P3:P36)</f>
         <v>121896</v>
       </c>
       <c r="Q37" s="392"/>
     </row>
     <row r="38" spans="7:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H38" s="598"/>
-      <c r="I38" s="600"/>
+      <c r="H38" s="614"/>
+      <c r="I38" s="616"/>
       <c r="J38" s="496"/>
       <c r="K38" s="496"/>
       <c r="L38" s="496"/>
-      <c r="O38" s="598"/>
-      <c r="P38" s="600"/>
+      <c r="O38" s="614"/>
+      <c r="P38" s="616"/>
       <c r="Q38" s="392"/>
     </row>
     <row r="39" spans="7:17" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -38033,12 +38246,12 @@
     </row>
     <row r="40" spans="7:17" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G40" s="272"/>
-      <c r="H40" s="623"/>
-      <c r="I40" s="623"/>
-      <c r="O40" s="601" t="s">
+      <c r="H40" s="654"/>
+      <c r="I40" s="654"/>
+      <c r="O40" s="617" t="s">
         <v>567</v>
       </c>
-      <c r="P40" s="601"/>
+      <c r="P40" s="617"/>
       <c r="Q40" s="392"/>
     </row>
     <row r="41" spans="7:17" ht="15.75" x14ac:dyDescent="0.25">
@@ -38185,9 +38398,9 @@
     </row>
     <row r="53" spans="7:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="G53" s="272"/>
-      <c r="H53" s="624"/>
+      <c r="H53" s="655"/>
       <c r="I53" s="7"/>
-      <c r="O53" s="589">
+      <c r="O53" s="605">
         <f>SUM(O41:O52)</f>
         <v>1682687</v>
       </c>
@@ -38196,9 +38409,9 @@
     </row>
     <row r="54" spans="7:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G54" s="272"/>
-      <c r="H54" s="624"/>
+      <c r="H54" s="655"/>
       <c r="I54" s="7"/>
-      <c r="O54" s="590"/>
+      <c r="O54" s="606"/>
       <c r="P54" s="476"/>
       <c r="Q54" s="392"/>
     </row>
@@ -38212,12 +38425,12 @@
     </row>
     <row r="56" spans="7:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="G56" s="272"/>
-      <c r="H56" s="623"/>
-      <c r="I56" s="623"/>
-      <c r="O56" s="591" t="s">
+      <c r="H56" s="654"/>
+      <c r="I56" s="654"/>
+      <c r="O56" s="607" t="s">
         <v>719</v>
       </c>
-      <c r="P56" s="592"/>
+      <c r="P56" s="608"/>
       <c r="Q56" s="392"/>
     </row>
     <row r="57" spans="7:17" ht="15.75" x14ac:dyDescent="0.25">
@@ -38230,8 +38443,8 @@
     </row>
     <row r="58" spans="7:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G58" s="272"/>
-      <c r="H58" s="622"/>
-      <c r="I58" s="622"/>
+      <c r="H58" s="653"/>
+      <c r="I58" s="653"/>
       <c r="O58" s="493">
         <f>O53-O37</f>
         <v>217886.90999999992</v>
@@ -38243,8 +38456,8 @@
     </row>
     <row r="59" spans="7:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G59" s="272"/>
-      <c r="H59" s="622"/>
-      <c r="I59" s="622"/>
+      <c r="H59" s="653"/>
+      <c r="I59" s="653"/>
       <c r="O59" s="506">
         <v>-383122.22</v>
       </c>
@@ -38272,24 +38485,14 @@
       <c r="P61" s="507"/>
     </row>
     <row r="62" spans="7:17" ht="21" x14ac:dyDescent="0.35">
-      <c r="O62" s="618">
+      <c r="O62" s="649">
         <f>SUM(O58:O61)</f>
         <v>-328961.31000000006</v>
       </c>
-      <c r="P62" s="619"/>
+      <c r="P62" s="650"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="O53:O54"/>
-    <mergeCell ref="O56:P56"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="L21:M22"/>
-    <mergeCell ref="O62:P62"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="L16:L17"/>
     <mergeCell ref="H58:I59"/>
     <mergeCell ref="O1:P1"/>
     <mergeCell ref="O37:O38"/>
@@ -38300,6 +38503,16 @@
     <mergeCell ref="H40:I40"/>
     <mergeCell ref="H53:H54"/>
     <mergeCell ref="H56:I56"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="O53:O54"/>
+    <mergeCell ref="O56:P56"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L21:M22"/>
+    <mergeCell ref="O62:P62"/>
   </mergeCells>
   <pageMargins left="0.37" right="0.13" top="0.43" bottom="0.27" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -38321,12 +38534,12 @@
   <sheetData>
     <row r="1" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="32"/>
-      <c r="B1" s="615" t="s">
+      <c r="B1" s="642" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="616"/>
-      <c r="D1" s="616"/>
-      <c r="E1" s="617"/>
+      <c r="C1" s="643"/>
+      <c r="D1" s="643"/>
+      <c r="E1" s="644"/>
       <c r="F1" s="4"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -38408,12 +38621,12 @@
     <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="32"/>
-      <c r="B9" s="615" t="s">
+      <c r="B9" s="642" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="616"/>
-      <c r="D9" s="616"/>
-      <c r="E9" s="617"/>
+      <c r="C9" s="643"/>
+      <c r="D9" s="643"/>
+      <c r="E9" s="644"/>
       <c r="F9" s="4"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -38569,12 +38782,12 @@
     <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="20" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="32"/>
-      <c r="B20" s="615" t="s">
+      <c r="B20" s="642" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="616"/>
-      <c r="D20" s="616"/>
-      <c r="E20" s="617"/>
+      <c r="C20" s="643"/>
+      <c r="D20" s="643"/>
+      <c r="E20" s="644"/>
       <c r="F20" s="4"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -38732,12 +38945,12 @@
     <row r="30" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="31" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="32"/>
-      <c r="B31" s="615" t="s">
+      <c r="B31" s="642" t="s">
         <v>32</v>
       </c>
-      <c r="C31" s="616"/>
-      <c r="D31" s="616"/>
-      <c r="E31" s="617"/>
+      <c r="C31" s="643"/>
+      <c r="D31" s="643"/>
+      <c r="E31" s="644"/>
       <c r="F31" s="4"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -38891,12 +39104,12 @@
     <row r="41" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="42" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="32"/>
-      <c r="B42" s="615" t="s">
+      <c r="B42" s="642" t="s">
         <v>32</v>
       </c>
-      <c r="C42" s="616"/>
-      <c r="D42" s="616"/>
-      <c r="E42" s="617"/>
+      <c r="C42" s="643"/>
+      <c r="D42" s="643"/>
+      <c r="E42" s="644"/>
       <c r="F42" s="4"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -39050,12 +39263,12 @@
     <row r="53" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="54" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="32"/>
-      <c r="B54" s="615" t="s">
+      <c r="B54" s="642" t="s">
         <v>32</v>
       </c>
-      <c r="C54" s="616"/>
-      <c r="D54" s="616"/>
-      <c r="E54" s="617"/>
+      <c r="C54" s="643"/>
+      <c r="D54" s="643"/>
+      <c r="E54" s="644"/>
       <c r="F54" s="4"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -39296,17 +39509,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C1" s="535" t="s">
+      <c r="C1" s="524" t="s">
         <v>147</v>
       </c>
-      <c r="D1" s="535"/>
-      <c r="E1" s="535"/>
-      <c r="F1" s="535"/>
-      <c r="G1" s="535"/>
-      <c r="H1" s="535"/>
-      <c r="I1" s="535"/>
-      <c r="J1" s="535"/>
-      <c r="K1" s="535"/>
+      <c r="D1" s="524"/>
+      <c r="E1" s="524"/>
+      <c r="F1" s="524"/>
+      <c r="G1" s="524"/>
+      <c r="H1" s="524"/>
+      <c r="I1" s="524"/>
+      <c r="J1" s="524"/>
+      <c r="K1" s="524"/>
       <c r="L1" s="2"/>
       <c r="M1" s="3"/>
       <c r="U1" s="209"/>
@@ -39337,17 +39550,17 @@
       </c>
     </row>
     <row r="3" spans="1:23" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="536" t="s">
+      <c r="B3" s="525" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="537"/>
+      <c r="C3" s="526"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="15"/>
-      <c r="H3" s="538" t="s">
+      <c r="H3" s="527" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="538"/>
+      <c r="I3" s="527"/>
       <c r="K3" s="17" t="s">
         <v>3</v>
       </c>
@@ -39376,14 +39589,14 @@
       <c r="D4" s="23">
         <v>44230</v>
       </c>
-      <c r="E4" s="539" t="s">
+      <c r="E4" s="528" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="540"/>
-      <c r="H4" s="541" t="s">
+      <c r="F4" s="529"/>
+      <c r="H4" s="530" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="542"/>
+      <c r="I4" s="531"/>
       <c r="J4" s="24"/>
       <c r="K4" s="25"/>
       <c r="L4" s="26"/>
@@ -41922,61 +42135,61 @@
       <c r="A64" s="60"/>
       <c r="B64" s="100"/>
       <c r="C64" s="4"/>
-      <c r="H64" s="522" t="s">
+      <c r="H64" s="532" t="s">
         <v>16</v>
       </c>
-      <c r="I64" s="523"/>
+      <c r="I64" s="533"/>
       <c r="J64" s="101"/>
-      <c r="K64" s="524">
+      <c r="K64" s="534">
         <f>I62+L62</f>
         <v>259947.00000000003</v>
       </c>
-      <c r="L64" s="525"/>
-      <c r="M64" s="526">
+      <c r="L64" s="535"/>
+      <c r="M64" s="536">
         <f>M62+N62</f>
         <v>2744320</v>
       </c>
-      <c r="N64" s="527"/>
+      <c r="N64" s="537"/>
       <c r="O64" s="102"/>
       <c r="P64" s="99"/>
       <c r="Q64" s="99"/>
       <c r="S64" s="174"/>
     </row>
     <row r="65" spans="2:19" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D65" s="534" t="s">
+      <c r="D65" s="544" t="s">
         <v>17</v>
       </c>
-      <c r="E65" s="534"/>
+      <c r="E65" s="544"/>
       <c r="F65" s="103">
         <f>F62-K64-C62</f>
         <v>2374814.2599999998</v>
       </c>
       <c r="I65" s="104"/>
       <c r="J65" s="105"/>
-      <c r="P65" s="513">
+      <c r="P65" s="545">
         <f>P62+Q62</f>
         <v>3144691.75</v>
       </c>
-      <c r="Q65" s="514"/>
+      <c r="Q65" s="546"/>
       <c r="S65" s="50"/>
     </row>
     <row r="66" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D66" s="515" t="s">
+      <c r="D66" s="547" t="s">
         <v>18</v>
       </c>
-      <c r="E66" s="515"/>
+      <c r="E66" s="547"/>
       <c r="F66" s="95">
         <v>-2261593.1</v>
       </c>
-      <c r="I66" s="516" t="s">
+      <c r="I66" s="548" t="s">
         <v>19</v>
       </c>
-      <c r="J66" s="517"/>
-      <c r="K66" s="518">
+      <c r="J66" s="549"/>
+      <c r="K66" s="550">
         <f>F68+F69+F70</f>
         <v>355407.6199999997</v>
       </c>
-      <c r="L66" s="519"/>
+      <c r="L66" s="551"/>
       <c r="P66" s="50"/>
       <c r="S66" s="107"/>
     </row>
@@ -42013,11 +42226,11 @@
         <v>21</v>
       </c>
       <c r="J68" s="115"/>
-      <c r="K68" s="520">
+      <c r="K68" s="552">
         <f>-C4</f>
         <v>-209541.1</v>
       </c>
-      <c r="L68" s="521"/>
+      <c r="L68" s="553"/>
       <c r="M68" s="116"/>
       <c r="P68" s="50"/>
       <c r="Q68" s="7"/>
@@ -42041,22 +42254,22 @@
       <c r="C70" s="119">
         <v>44257</v>
       </c>
-      <c r="D70" s="528" t="s">
+      <c r="D70" s="538" t="s">
         <v>24</v>
       </c>
-      <c r="E70" s="529"/>
+      <c r="E70" s="539"/>
       <c r="F70" s="120">
         <v>223014.26</v>
       </c>
-      <c r="I70" s="530" t="s">
+      <c r="I70" s="540" t="s">
         <v>25</v>
       </c>
-      <c r="J70" s="531"/>
-      <c r="K70" s="532">
+      <c r="J70" s="541"/>
+      <c r="K70" s="542">
         <f>K66+K68</f>
         <v>145866.5199999997</v>
       </c>
-      <c r="L70" s="533"/>
+      <c r="L70" s="543"/>
       <c r="P70" s="50"/>
       <c r="Q70" s="7"/>
       <c r="S70" s="121"/>
@@ -42157,6 +42370,12 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="K68:L68"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="I70:J70"/>
+    <mergeCell ref="K70:L70"/>
+    <mergeCell ref="M64:N64"/>
+    <mergeCell ref="D65:E65"/>
     <mergeCell ref="P65:Q65"/>
     <mergeCell ref="D66:E66"/>
     <mergeCell ref="I66:J66"/>
@@ -42168,12 +42387,6 @@
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="H64:I64"/>
     <mergeCell ref="K64:L64"/>
-    <mergeCell ref="K68:L68"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="I70:J70"/>
-    <mergeCell ref="K70:L70"/>
-    <mergeCell ref="M64:N64"/>
-    <mergeCell ref="D65:E65"/>
   </mergeCells>
   <phoneticPr fontId="41" type="noConversion"/>
   <pageMargins left="0.51181102362204722" right="0.15748031496062992" top="0.31496062992125984" bottom="0.31496062992125984" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -43444,17 +43657,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C1" s="535" t="s">
+      <c r="C1" s="524" t="s">
         <v>429</v>
       </c>
-      <c r="D1" s="535"/>
-      <c r="E1" s="535"/>
-      <c r="F1" s="535"/>
-      <c r="G1" s="535"/>
-      <c r="H1" s="535"/>
-      <c r="I1" s="535"/>
-      <c r="J1" s="535"/>
-      <c r="K1" s="535"/>
+      <c r="D1" s="524"/>
+      <c r="E1" s="524"/>
+      <c r="F1" s="524"/>
+      <c r="G1" s="524"/>
+      <c r="H1" s="524"/>
+      <c r="I1" s="524"/>
+      <c r="J1" s="524"/>
+      <c r="K1" s="524"/>
       <c r="L1" s="2"/>
       <c r="M1" s="3"/>
       <c r="U1" s="209"/>
@@ -43484,17 +43697,17 @@
       </c>
     </row>
     <row r="3" spans="1:23" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="536" t="s">
+      <c r="B3" s="525" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="537"/>
+      <c r="C3" s="526"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="15"/>
-      <c r="H3" s="538" t="s">
+      <c r="H3" s="527" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="538"/>
+      <c r="I3" s="527"/>
       <c r="K3" s="17" t="s">
         <v>3</v>
       </c>
@@ -43523,14 +43736,14 @@
       <c r="D4" s="23">
         <v>44257</v>
       </c>
-      <c r="E4" s="539" t="s">
+      <c r="E4" s="528" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="540"/>
-      <c r="H4" s="541" t="s">
+      <c r="F4" s="529"/>
+      <c r="H4" s="530" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="542"/>
+      <c r="I4" s="531"/>
       <c r="J4" s="24"/>
       <c r="K4" s="25"/>
       <c r="L4" s="26"/>
@@ -46132,61 +46345,61 @@
       <c r="A62" s="60"/>
       <c r="B62" s="100"/>
       <c r="C62" s="4"/>
-      <c r="H62" s="522" t="s">
+      <c r="H62" s="532" t="s">
         <v>16</v>
       </c>
-      <c r="I62" s="523"/>
+      <c r="I62" s="533"/>
       <c r="J62" s="101"/>
-      <c r="K62" s="524">
+      <c r="K62" s="534">
         <f>I60+L60</f>
         <v>781851.32000000007</v>
       </c>
-      <c r="L62" s="525"/>
-      <c r="M62" s="526">
+      <c r="L62" s="535"/>
+      <c r="M62" s="536">
         <f>M60+N60</f>
         <v>4064802.5</v>
       </c>
-      <c r="N62" s="527"/>
+      <c r="N62" s="537"/>
       <c r="O62" s="102"/>
       <c r="P62" s="99"/>
       <c r="Q62" s="99"/>
       <c r="S62" s="174"/>
     </row>
     <row r="63" spans="1:23" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D63" s="534" t="s">
+      <c r="D63" s="544" t="s">
         <v>17</v>
       </c>
-      <c r="E63" s="534"/>
+      <c r="E63" s="544"/>
       <c r="F63" s="103">
         <f>F60-K62-C60</f>
         <v>3177878.1399999997</v>
       </c>
       <c r="I63" s="104"/>
       <c r="J63" s="105"/>
-      <c r="P63" s="513">
+      <c r="P63" s="545">
         <f>P60+Q60</f>
         <v>4585432.34</v>
       </c>
-      <c r="Q63" s="514"/>
+      <c r="Q63" s="546"/>
       <c r="S63" s="50"/>
     </row>
     <row r="64" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D64" s="515" t="s">
+      <c r="D64" s="547" t="s">
         <v>18</v>
       </c>
-      <c r="E64" s="515"/>
+      <c r="E64" s="547"/>
       <c r="F64" s="95">
         <v>-3579271.89</v>
       </c>
-      <c r="I64" s="516" t="s">
+      <c r="I64" s="548" t="s">
         <v>19</v>
       </c>
-      <c r="J64" s="517"/>
-      <c r="K64" s="518">
+      <c r="J64" s="549"/>
+      <c r="K64" s="550">
         <f>F66+F67+F68</f>
         <v>-110332.85000000047</v>
       </c>
-      <c r="L64" s="519"/>
+      <c r="L64" s="551"/>
       <c r="P64" s="50"/>
       <c r="S64" s="107"/>
     </row>
@@ -46220,11 +46433,11 @@
         <v>21</v>
       </c>
       <c r="J66" s="115"/>
-      <c r="K66" s="520">
+      <c r="K66" s="552">
         <f>-C4</f>
         <v>-223014.26</v>
       </c>
-      <c r="L66" s="521"/>
+      <c r="L66" s="553"/>
       <c r="M66" s="116"/>
       <c r="P66" s="50"/>
       <c r="Q66" s="7"/>
@@ -46248,22 +46461,22 @@
       <c r="C68" s="119">
         <v>44291</v>
       </c>
-      <c r="D68" s="528" t="s">
+      <c r="D68" s="538" t="s">
         <v>24</v>
       </c>
-      <c r="E68" s="529"/>
+      <c r="E68" s="539"/>
       <c r="F68" s="120">
         <v>215362.9</v>
       </c>
-      <c r="I68" s="543" t="s">
+      <c r="I68" s="554" t="s">
         <v>431</v>
       </c>
-      <c r="J68" s="544"/>
-      <c r="K68" s="545">
+      <c r="J68" s="555"/>
+      <c r="K68" s="556">
         <f>K64+K66</f>
         <v>-333347.11000000045</v>
       </c>
-      <c r="L68" s="546"/>
+      <c r="L68" s="557"/>
       <c r="P68" s="50"/>
       <c r="Q68" s="7"/>
       <c r="S68" s="121"/>
@@ -46419,6 +46632,12 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="K66:L66"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="I68:J68"/>
+    <mergeCell ref="K68:L68"/>
+    <mergeCell ref="M62:N62"/>
+    <mergeCell ref="D63:E63"/>
     <mergeCell ref="P63:Q63"/>
     <mergeCell ref="D64:E64"/>
     <mergeCell ref="I64:J64"/>
@@ -46430,12 +46649,6 @@
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="H62:I62"/>
     <mergeCell ref="K62:L62"/>
-    <mergeCell ref="K66:L66"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="I68:J68"/>
-    <mergeCell ref="K68:L68"/>
-    <mergeCell ref="M62:N62"/>
-    <mergeCell ref="D63:E63"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -47867,17 +48080,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C1" s="535" t="s">
+      <c r="C1" s="524" t="s">
         <v>430</v>
       </c>
-      <c r="D1" s="535"/>
-      <c r="E1" s="535"/>
-      <c r="F1" s="535"/>
-      <c r="G1" s="535"/>
-      <c r="H1" s="535"/>
-      <c r="I1" s="535"/>
-      <c r="J1" s="535"/>
-      <c r="K1" s="535"/>
+      <c r="D1" s="524"/>
+      <c r="E1" s="524"/>
+      <c r="F1" s="524"/>
+      <c r="G1" s="524"/>
+      <c r="H1" s="524"/>
+      <c r="I1" s="524"/>
+      <c r="J1" s="524"/>
+      <c r="K1" s="524"/>
       <c r="L1" s="2"/>
       <c r="M1" s="3"/>
       <c r="U1" s="209"/>
@@ -47907,17 +48120,17 @@
       </c>
     </row>
     <row r="3" spans="1:23" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="536" t="s">
+      <c r="B3" s="525" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="537"/>
+      <c r="C3" s="526"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="15"/>
-      <c r="H3" s="538" t="s">
+      <c r="H3" s="527" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="538"/>
+      <c r="I3" s="527"/>
       <c r="K3" s="17" t="s">
         <v>3</v>
       </c>
@@ -47946,14 +48159,14 @@
       <c r="D4" s="23">
         <v>44291</v>
       </c>
-      <c r="E4" s="539" t="s">
+      <c r="E4" s="528" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="540"/>
-      <c r="H4" s="541" t="s">
+      <c r="F4" s="529"/>
+      <c r="H4" s="530" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="548"/>
+      <c r="I4" s="558"/>
       <c r="J4" s="24"/>
       <c r="K4" s="25"/>
       <c r="L4" s="26"/>
@@ -50445,61 +50658,61 @@
       <c r="A58" s="60"/>
       <c r="B58" s="100"/>
       <c r="C58" s="4"/>
-      <c r="H58" s="522" t="s">
+      <c r="H58" s="532" t="s">
         <v>16</v>
       </c>
-      <c r="I58" s="523"/>
+      <c r="I58" s="533"/>
       <c r="J58" s="101"/>
-      <c r="K58" s="524">
+      <c r="K58" s="534">
         <f>I56+L56</f>
         <v>370346.35000000003</v>
       </c>
-      <c r="L58" s="549"/>
-      <c r="M58" s="526">
+      <c r="L58" s="559"/>
+      <c r="M58" s="536">
         <f>M56+N56</f>
         <v>3537422</v>
       </c>
-      <c r="N58" s="527"/>
+      <c r="N58" s="537"/>
       <c r="O58" s="102"/>
       <c r="P58" s="99"/>
       <c r="Q58" s="99"/>
       <c r="S58" s="174"/>
     </row>
     <row r="59" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D59" s="534" t="s">
+      <c r="D59" s="544" t="s">
         <v>17</v>
       </c>
-      <c r="E59" s="547"/>
+      <c r="E59" s="560"/>
       <c r="F59" s="103">
         <f>F56-K58-C56</f>
         <v>3048717.54</v>
       </c>
       <c r="I59" s="104"/>
       <c r="J59" s="105"/>
-      <c r="P59" s="513">
+      <c r="P59" s="545">
         <f>P56+Q56</f>
         <v>8073324.3200000003</v>
       </c>
-      <c r="Q59" s="514"/>
+      <c r="Q59" s="546"/>
       <c r="S59" s="50"/>
     </row>
     <row r="60" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D60" s="515" t="s">
+      <c r="D60" s="547" t="s">
         <v>18</v>
       </c>
-      <c r="E60" s="515"/>
+      <c r="E60" s="547"/>
       <c r="F60" s="95">
         <v>-3102716.28</v>
       </c>
-      <c r="I60" s="516" t="s">
+      <c r="I60" s="548" t="s">
         <v>19</v>
       </c>
-      <c r="J60" s="517"/>
-      <c r="K60" s="518">
+      <c r="J60" s="549"/>
+      <c r="K60" s="550">
         <f>F62+F63+F64</f>
         <v>216465.62000000023</v>
       </c>
-      <c r="L60" s="519"/>
+      <c r="L60" s="551"/>
       <c r="P60" s="50"/>
       <c r="S60" s="107"/>
     </row>
@@ -50533,11 +50746,11 @@
         <v>21</v>
       </c>
       <c r="J62" s="115"/>
-      <c r="K62" s="520">
+      <c r="K62" s="552">
         <f>-C4</f>
         <v>-215362.9</v>
       </c>
-      <c r="L62" s="521"/>
+      <c r="L62" s="553"/>
       <c r="M62" s="116"/>
       <c r="P62" s="50"/>
       <c r="Q62" s="7"/>
@@ -50561,22 +50774,22 @@
       <c r="C64" s="119">
         <v>44320</v>
       </c>
-      <c r="D64" s="528" t="s">
+      <c r="D64" s="538" t="s">
         <v>24</v>
       </c>
-      <c r="E64" s="529"/>
+      <c r="E64" s="539"/>
       <c r="F64" s="120">
         <v>249311.35999999999</v>
       </c>
-      <c r="I64" s="530" t="s">
+      <c r="I64" s="540" t="s">
         <v>25</v>
       </c>
-      <c r="J64" s="531"/>
-      <c r="K64" s="532">
+      <c r="J64" s="541"/>
+      <c r="K64" s="542">
         <f>K60+K62</f>
         <v>1102.720000000234</v>
       </c>
-      <c r="L64" s="533"/>
+      <c r="L64" s="543"/>
       <c r="P64" s="50"/>
       <c r="Q64" s="7"/>
       <c r="S64" s="121"/>
@@ -50732,6 +50945,12 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="K62:L62"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="I64:J64"/>
+    <mergeCell ref="K64:L64"/>
+    <mergeCell ref="M58:N58"/>
+    <mergeCell ref="D59:E59"/>
     <mergeCell ref="P59:Q59"/>
     <mergeCell ref="D60:E60"/>
     <mergeCell ref="I60:J60"/>
@@ -50743,12 +50962,6 @@
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="H58:I58"/>
     <mergeCell ref="K58:L58"/>
-    <mergeCell ref="K62:L62"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="I64:J64"/>
-    <mergeCell ref="K64:L64"/>
-    <mergeCell ref="M58:N58"/>
-    <mergeCell ref="D59:E59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -51631,17 +51844,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C1" s="535" t="s">
+      <c r="C1" s="524" t="s">
         <v>504</v>
       </c>
-      <c r="D1" s="535"/>
-      <c r="E1" s="535"/>
-      <c r="F1" s="535"/>
-      <c r="G1" s="535"/>
-      <c r="H1" s="535"/>
-      <c r="I1" s="535"/>
-      <c r="J1" s="535"/>
-      <c r="K1" s="535"/>
+      <c r="D1" s="524"/>
+      <c r="E1" s="524"/>
+      <c r="F1" s="524"/>
+      <c r="G1" s="524"/>
+      <c r="H1" s="524"/>
+      <c r="I1" s="524"/>
+      <c r="J1" s="524"/>
+      <c r="K1" s="524"/>
       <c r="L1" s="2"/>
       <c r="M1" s="3"/>
       <c r="U1" s="209"/>
@@ -51671,17 +51884,17 @@
       </c>
     </row>
     <row r="3" spans="1:23" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="536" t="s">
+      <c r="B3" s="525" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="537"/>
+      <c r="C3" s="526"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="15"/>
-      <c r="H3" s="538" t="s">
+      <c r="H3" s="527" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="538"/>
+      <c r="I3" s="527"/>
       <c r="K3" s="17" t="s">
         <v>3</v>
       </c>
@@ -51710,14 +51923,14 @@
       <c r="D4" s="23">
         <v>44320</v>
       </c>
-      <c r="E4" s="539" t="s">
+      <c r="E4" s="528" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="540"/>
-      <c r="H4" s="541" t="s">
+      <c r="F4" s="529"/>
+      <c r="H4" s="530" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="542"/>
+      <c r="I4" s="531"/>
       <c r="J4" s="24"/>
       <c r="K4" s="25"/>
       <c r="L4" s="26"/>
@@ -54594,71 +54807,71 @@
       <c r="A64" s="60"/>
       <c r="B64" s="100"/>
       <c r="C64" s="4"/>
-      <c r="H64" s="522" t="s">
+      <c r="H64" s="532" t="s">
         <v>16</v>
       </c>
-      <c r="I64" s="523"/>
+      <c r="I64" s="533"/>
       <c r="J64" s="101"/>
-      <c r="K64" s="524">
+      <c r="K64" s="534">
         <f>I62+L62</f>
         <v>779034.56000000017</v>
       </c>
-      <c r="L64" s="525"/>
-      <c r="M64" s="526">
+      <c r="L64" s="535"/>
+      <c r="M64" s="536">
         <f>M62+N62</f>
         <v>4478181</v>
       </c>
-      <c r="N64" s="527"/>
+      <c r="N64" s="537"/>
       <c r="O64" s="102"/>
       <c r="P64" s="99"/>
       <c r="Q64" s="99"/>
       <c r="S64" s="174"/>
     </row>
     <row r="65" spans="2:19" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D65" s="534" t="s">
+      <c r="D65" s="544" t="s">
         <v>17</v>
       </c>
-      <c r="E65" s="534"/>
+      <c r="E65" s="544"/>
       <c r="F65" s="103">
         <f>F62-K64-C62</f>
         <v>3602842.44</v>
       </c>
       <c r="I65" s="104"/>
       <c r="J65" s="105"/>
-      <c r="P65" s="513">
+      <c r="P65" s="545">
         <f>P62+Q62</f>
         <v>5004562.5599999996</v>
       </c>
-      <c r="Q65" s="514"/>
+      <c r="Q65" s="546"/>
       <c r="S65" s="50"/>
     </row>
     <row r="66" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="550" t="s">
+      <c r="B66" s="561" t="s">
         <v>528</v>
       </c>
-      <c r="C66" s="551"/>
-      <c r="D66" s="534" t="s">
+      <c r="C66" s="562"/>
+      <c r="D66" s="544" t="s">
         <v>502</v>
       </c>
-      <c r="E66" s="534"/>
+      <c r="E66" s="544"/>
       <c r="F66" s="95">
         <v>-3854423.8</v>
       </c>
-      <c r="I66" s="516" t="s">
+      <c r="I66" s="548" t="s">
         <v>19</v>
       </c>
-      <c r="J66" s="517"/>
-      <c r="K66" s="518">
+      <c r="J66" s="549"/>
+      <c r="K66" s="550">
         <f>F68+F69+F70</f>
         <v>14998.430000000139</v>
       </c>
-      <c r="L66" s="519"/>
+      <c r="L66" s="551"/>
       <c r="P66" s="50"/>
       <c r="S66" s="107"/>
     </row>
     <row r="67" spans="2:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B67" s="552"/>
-      <c r="C67" s="553"/>
+      <c r="B67" s="563"/>
+      <c r="C67" s="564"/>
       <c r="D67" s="108"/>
       <c r="E67" s="60"/>
       <c r="F67" s="109">
@@ -54673,8 +54886,8 @@
       <c r="S67" s="50"/>
     </row>
     <row r="68" spans="2:19" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B68" s="554"/>
-      <c r="C68" s="555"/>
+      <c r="B68" s="565"/>
+      <c r="C68" s="566"/>
       <c r="E68" s="60" t="s">
         <v>20</v>
       </c>
@@ -54687,11 +54900,11 @@
         <v>21</v>
       </c>
       <c r="J68" s="115"/>
-      <c r="K68" s="520">
+      <c r="K68" s="552">
         <f>-C4</f>
         <v>-249311.35999999999</v>
       </c>
-      <c r="L68" s="521"/>
+      <c r="L68" s="553"/>
       <c r="M68" s="116"/>
       <c r="P68" s="50"/>
       <c r="Q68" s="7"/>
@@ -54715,22 +54928,22 @@
       <c r="C70" s="119">
         <v>44353</v>
       </c>
-      <c r="D70" s="528" t="s">
+      <c r="D70" s="538" t="s">
         <v>24</v>
       </c>
-      <c r="E70" s="529"/>
+      <c r="E70" s="539"/>
       <c r="F70" s="120">
         <v>255764.39</v>
       </c>
-      <c r="I70" s="530" t="s">
+      <c r="I70" s="540" t="s">
         <v>431</v>
       </c>
-      <c r="J70" s="531"/>
-      <c r="K70" s="532">
+      <c r="J70" s="541"/>
+      <c r="K70" s="542">
         <f>K66+K68</f>
         <v>-234312.92999999985</v>
       </c>
-      <c r="L70" s="533"/>
+      <c r="L70" s="543"/>
       <c r="P70" s="50"/>
       <c r="Q70" s="7"/>
       <c r="S70" s="121"/>
@@ -54886,6 +55099,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="I70:J70"/>
+    <mergeCell ref="K70:L70"/>
+    <mergeCell ref="M64:N64"/>
+    <mergeCell ref="D65:E65"/>
     <mergeCell ref="P65:Q65"/>
     <mergeCell ref="D66:E66"/>
     <mergeCell ref="I66:J66"/>
@@ -54899,11 +55117,6 @@
     <mergeCell ref="K64:L64"/>
     <mergeCell ref="B66:C68"/>
     <mergeCell ref="K68:L68"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="I70:J70"/>
-    <mergeCell ref="K70:L70"/>
-    <mergeCell ref="M64:N64"/>
-    <mergeCell ref="D65:E65"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
